--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9133.028701903946</v>
+        <v>9132.952577847291</v>
       </c>
       <c r="B2">
-        <v>4886.7455907715</v>
+        <v>4727.78014151041</v>
       </c>
       <c r="C2">
-        <v>21090.75071520497</v>
+        <v>21131.21828226107</v>
       </c>
       <c r="D2">
-        <v>4799.760016396243</v>
+        <v>4794.54319955033</v>
       </c>
       <c r="E2">
-        <v>10293.51270182271</v>
+        <v>9659.242421944578</v>
       </c>
       <c r="F2">
-        <v>2377.734617441844</v>
+        <v>2850.613355252292</v>
       </c>
       <c r="G2">
-        <v>4924.864855138255</v>
+        <v>5316.388816853696</v>
       </c>
       <c r="H2">
-        <v>9133.028701903946</v>
+        <v>9132.952577847291</v>
       </c>
       <c r="I2">
-        <v>42735</v>
+        <v>43081</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25977.49630597647</v>
+        <v>25858.99842377147</v>
       </c>
       <c r="O2">
-        <v>15093.27271821896</v>
+        <v>14453.78562149491</v>
       </c>
       <c r="P2">
-        <v>7302.599472580099</v>
+        <v>8167.002172105988</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7571.092552265264</v>
+        <v>7570.961745443894</v>
       </c>
       <c r="B3">
-        <v>4230.662545115493</v>
+        <v>4133.040012344846</v>
       </c>
       <c r="C3">
-        <v>17449.56573852057</v>
+        <v>17557.9050941537</v>
       </c>
       <c r="D3">
-        <v>4140.473536206103</v>
+        <v>4073.321025283482</v>
       </c>
       <c r="E3">
-        <v>8261.005440987072</v>
+        <v>8458.752482592179</v>
       </c>
       <c r="F3">
-        <v>2404.043786691445</v>
+        <v>2216.077762669315</v>
       </c>
       <c r="G3">
-        <v>4442.194642637059</v>
+        <v>4434.7117489994</v>
       </c>
       <c r="H3">
-        <v>7571.092552265264</v>
+        <v>7570.961745443894</v>
       </c>
       <c r="I3">
-        <v>36873</v>
+        <v>34633</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21680.22828363606</v>
+        <v>21690.94510649854</v>
       </c>
       <c r="O3">
-        <v>12401.47897719318</v>
+        <v>12532.07350787566</v>
       </c>
       <c r="P3">
-        <v>6846.238429328503</v>
+        <v>6650.789511668714</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.99666551157</v>
+        <v>15501.96650625053</v>
       </c>
       <c r="B4">
-        <v>8708.041207138878</v>
+        <v>8371.221787070874</v>
       </c>
       <c r="C4">
-        <v>35838.13940068675</v>
+        <v>36735.26310062857</v>
       </c>
       <c r="D4">
-        <v>8406.179402691409</v>
+        <v>8618.191752632996</v>
       </c>
       <c r="E4">
-        <v>17077.75946679468</v>
+        <v>16876.88933718081</v>
       </c>
       <c r="F4">
-        <v>4371.317607756226</v>
+        <v>5049.64465990481</v>
       </c>
       <c r="G4">
-        <v>8922.806624972953</v>
+        <v>9665.117645097154</v>
       </c>
       <c r="H4">
-        <v>15501.99666551157</v>
+        <v>15501.96650625053</v>
       </c>
       <c r="I4">
-        <v>73137</v>
+        <v>73317</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44546.18060782563</v>
+        <v>45106.48488769945</v>
       </c>
       <c r="O4">
-        <v>25483.93886948608</v>
+        <v>25495.08108981381</v>
       </c>
       <c r="P4">
-        <v>13294.12423272918</v>
+        <v>14714.76230500197</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.987951496734</v>
+        <v>9669.95464102464</v>
       </c>
       <c r="B5">
-        <v>5350.506709395023</v>
+        <v>5498.215465400155</v>
       </c>
       <c r="C5">
-        <v>23182.81404043298</v>
+        <v>23829.66580521001</v>
       </c>
       <c r="D5">
-        <v>4915.888651696331</v>
+        <v>5396.964530932073</v>
       </c>
       <c r="E5">
-        <v>9923.145120940699</v>
+        <v>10976.81356166541</v>
       </c>
       <c r="F5">
-        <v>2847.298927369303</v>
+        <v>2883.468050846565</v>
       </c>
       <c r="G5">
-        <v>5665.957740076114</v>
+        <v>5837.250278094507</v>
       </c>
       <c r="H5">
-        <v>9669.987951496734</v>
+        <v>9669.95464102464</v>
       </c>
       <c r="I5">
-        <v>45435</v>
+        <v>44452</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28533.320749828</v>
+        <v>29327.88127061016</v>
       </c>
       <c r="O5">
-        <v>14839.03377263703</v>
+        <v>16373.77809259748</v>
       </c>
       <c r="P5">
-        <v>8513.256667445417</v>
+        <v>8720.718328941071</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.96637543145</v>
+        <v>26787.07705409575</v>
       </c>
       <c r="B6">
-        <v>14159.49562142764</v>
+        <v>13947.35225792278</v>
       </c>
       <c r="C6">
-        <v>62963.31756802787</v>
+        <v>62734.95533640056</v>
       </c>
       <c r="D6">
-        <v>14357.04161181603</v>
+        <v>14860.84587422356</v>
       </c>
       <c r="E6">
-        <v>28940.72357757207</v>
+        <v>30552.74417836672</v>
       </c>
       <c r="F6">
-        <v>7433.728383628219</v>
+        <v>7947.794035820974</v>
       </c>
       <c r="G6">
-        <v>15229.19759031178</v>
+        <v>15623.22346242857</v>
       </c>
       <c r="H6">
-        <v>26786.96637543145</v>
+        <v>26787.07705409575</v>
       </c>
       <c r="I6">
-        <v>126113</v>
+        <v>131936</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>77122.81318945551</v>
+        <v>76682.30759432334</v>
       </c>
       <c r="O6">
-        <v>43297.76518938811</v>
+        <v>45413.59005259028</v>
       </c>
       <c r="P6">
-        <v>22662.92597393999</v>
+        <v>23571.01749824955</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.09491237785</v>
+        <v>15439.01009434347</v>
       </c>
       <c r="B7">
-        <v>8320.859597288709</v>
+        <v>8938.262884096357</v>
       </c>
       <c r="C7">
-        <v>35439.75193461913</v>
+        <v>37316.70275834616</v>
       </c>
       <c r="D7">
-        <v>8037.278476808271</v>
+        <v>8536.238973499372</v>
       </c>
       <c r="E7">
-        <v>17076.42880489286</v>
+        <v>17170.59158680889</v>
       </c>
       <c r="F7">
-        <v>4384.242071303168</v>
+        <v>4187.106741291455</v>
       </c>
       <c r="G7">
-        <v>8343.984376384715</v>
+        <v>8433.322391274865</v>
       </c>
       <c r="H7">
-        <v>15439.09491237785</v>
+        <v>15439.01009434347</v>
       </c>
       <c r="I7">
-        <v>74225</v>
+        <v>69983</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>43760.61153190784</v>
+        <v>46254.96564244252</v>
       </c>
       <c r="O7">
-        <v>25113.70728170113</v>
+        <v>25706.83056030826</v>
       </c>
       <c r="P7">
-        <v>12728.22644768788</v>
+        <v>12620.42913256632</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.040009824352</v>
+        <v>7027.952445920722</v>
       </c>
       <c r="B8">
-        <v>3884.738806624826</v>
+        <v>3609.612066560763</v>
       </c>
       <c r="C8">
-        <v>16670.03862502356</v>
+        <v>16098.79802100523</v>
       </c>
       <c r="D8">
-        <v>4093.679771523507</v>
+        <v>3752.994303305412</v>
       </c>
       <c r="E8">
-        <v>8082.828052896244</v>
+        <v>7863.970074845918</v>
       </c>
       <c r="F8">
-        <v>2195.904071000908</v>
+        <v>2352.486055220754</v>
       </c>
       <c r="G8">
-        <v>4166.465467354566</v>
+        <v>4411.143547993196</v>
       </c>
       <c r="H8">
-        <v>7028.040009824352</v>
+        <v>7027.952445920722</v>
       </c>
       <c r="I8">
-        <v>34813</v>
+        <v>33439</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20554.77743164839</v>
+        <v>19708.41008756599</v>
       </c>
       <c r="O8">
-        <v>12176.50782441975</v>
+        <v>11616.96437815133</v>
       </c>
       <c r="P8">
-        <v>6362.369538355473</v>
+        <v>6763.62960321395</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.918054348074</v>
+        <v>5006.014502305632</v>
       </c>
       <c r="B9">
-        <v>2624.44642787116</v>
+        <v>2700.934206554992</v>
       </c>
       <c r="C9">
-        <v>11517.13538737555</v>
+        <v>11677.7405818945</v>
       </c>
       <c r="D9">
-        <v>2701.19383366564</v>
+        <v>2912.314745083211</v>
       </c>
       <c r="E9">
-        <v>5353.310777771406</v>
+        <v>5681.901659776391</v>
       </c>
       <c r="F9">
-        <v>1782.512948154186</v>
+        <v>1556.859542439319</v>
       </c>
       <c r="G9">
-        <v>3170.325246322336</v>
+        <v>3151.761938471784</v>
       </c>
       <c r="H9">
-        <v>5005.918054348074</v>
+        <v>5006.014502305632</v>
       </c>
       <c r="I9">
-        <v>22599</v>
+        <v>23441</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14141.58181524672</v>
+        <v>14378.67478844949</v>
       </c>
       <c r="O9">
-        <v>8054.504611437045</v>
+        <v>8594.216404859602</v>
       </c>
       <c r="P9">
-        <v>4952.838194476522</v>
+        <v>4708.621480911103</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.954003011691</v>
+        <v>5886.950505936687</v>
       </c>
       <c r="B10">
-        <v>3321.762005943546</v>
+        <v>3095.234073914374</v>
       </c>
       <c r="C10">
-        <v>14079.95621191881</v>
+        <v>13713.37009119579</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10308.59229420326</v>
+        <v>9605.814173628925</v>
       </c>
       <c r="F10">
-        <v>1933.492734854583</v>
+        <v>1815.351357273543</v>
       </c>
       <c r="G10">
-        <v>3696.233669629135</v>
+        <v>3510.375686079865</v>
       </c>
       <c r="H10">
-        <v>5886.954003011691</v>
+        <v>5886.950505936687</v>
       </c>
       <c r="I10">
-        <v>27729</v>
+        <v>29252</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17401.71821786235</v>
+        <v>16808.60416511017</v>
       </c>
       <c r="O10">
-        <v>10308.59229420326</v>
+        <v>9605.814173628925</v>
       </c>
       <c r="P10">
-        <v>5629.726404483718</v>
+        <v>5325.727043353409</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.039829246755</v>
+        <v>1725.90312742095</v>
       </c>
       <c r="B11">
-        <v>940.9247408740474</v>
+        <v>910.7743542763158</v>
       </c>
       <c r="C11">
-        <v>4103.79198125418</v>
+        <v>4051.176273618093</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2766.701248651307</v>
+        <v>2695.680210041686</v>
       </c>
       <c r="F11">
-        <v>495.733159420906</v>
+        <v>513.0764965851304</v>
       </c>
       <c r="G11">
-        <v>971.2749453051077</v>
+        <v>982.7179890050702</v>
       </c>
       <c r="H11">
-        <v>1726.039829246755</v>
+        <v>1725.90312742095</v>
       </c>
       <c r="I11">
-        <v>8404</v>
+        <v>8703</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5044.716722128227</v>
+        <v>4961.950627894408</v>
       </c>
       <c r="O11">
-        <v>2766.701248651307</v>
+        <v>2695.680210041686</v>
       </c>
       <c r="P11">
-        <v>1467.008104726014</v>
+        <v>1495.794485590201</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.0288353036499</v>
+        <v>501.0898490129548</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1386.323807603743</v>
+        <v>1421.771872518845</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>766.2835959734525</v>
+        <v>800.4597360569904</v>
       </c>
       <c r="F12">
-        <v>151.5108943685669</v>
+        <v>178.0661042371338</v>
       </c>
       <c r="G12">
-        <v>288.1600476496398</v>
+        <v>363.0198910635411</v>
       </c>
       <c r="H12">
-        <v>501.0288353036499</v>
+        <v>501.0898490129548</v>
       </c>
       <c r="I12">
-        <v>2796</v>
+        <v>2704</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1386.323807603743</v>
+        <v>1421.771872518845</v>
       </c>
       <c r="O12">
-        <v>766.2835959734525</v>
+        <v>800.4597360569904</v>
       </c>
       <c r="P12">
-        <v>439.6709420182067</v>
+        <v>541.0859953006749</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.064039173327</v>
+        <v>1088.037201052235</v>
       </c>
       <c r="B13">
-        <v>520.6761960112863</v>
+        <v>514.3970223372676</v>
       </c>
       <c r="C13">
-        <v>2668.723591123144</v>
+        <v>2686.426059270722</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1804.519635003167</v>
+        <v>1676.808123081949</v>
       </c>
       <c r="F13">
-        <v>845.9757759407657</v>
+        <v>825.6923519096018</v>
       </c>
       <c r="G13">
-        <v>156.0386757726811</v>
+        <v>142.6897125781542</v>
       </c>
       <c r="H13">
-        <v>1088.064039173327</v>
+        <v>1088.037201052235</v>
       </c>
       <c r="I13">
-        <v>4633</v>
+        <v>4766</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3189.39978713443</v>
+        <v>3200.82308160799</v>
       </c>
       <c r="O13">
-        <v>1804.519635003167</v>
+        <v>1676.808123081949</v>
       </c>
       <c r="P13">
-        <v>1002.014451713447</v>
+        <v>968.382064487756</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.92657197283</v>
+        <v>11831.97727107543</v>
       </c>
       <c r="B14">
-        <v>5467.175651446153</v>
+        <v>5461.112293036925</v>
       </c>
       <c r="C14">
-        <v>27960.85195007173</v>
+        <v>28736.04513783445</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19780.62256058223</v>
+        <v>18173.12206989861</v>
       </c>
       <c r="F14">
-        <v>9076.502523023512</v>
+        <v>8447.911139861653</v>
       </c>
       <c r="G14">
-        <v>1519.269114768881</v>
+        <v>1486.477885683732</v>
       </c>
       <c r="H14">
-        <v>11831.92657197283</v>
+        <v>11831.97727107543</v>
       </c>
       <c r="I14">
-        <v>51146</v>
+        <v>50209</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>33428.02760151789</v>
+        <v>34197.15743087138</v>
       </c>
       <c r="O14">
-        <v>19780.62256058223</v>
+        <v>18173.12206989861</v>
       </c>
       <c r="P14">
-        <v>10595.77163779239</v>
+        <v>9934.389025545386</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.01248672375</v>
+        <v>79021.01066145684</v>
       </c>
       <c r="B15">
-        <v>36571.82839100785</v>
+        <v>34859.26004791088</v>
       </c>
       <c r="C15">
-        <v>193571.1955176698</v>
+        <v>182294.0940919785</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>120055.106451925</v>
+        <v>128547.9619783508</v>
       </c>
       <c r="F15">
-        <v>61438.99070401763</v>
+        <v>59124.76070617885</v>
       </c>
       <c r="G15">
-        <v>10611.76502000765</v>
+        <v>10902.0950541763</v>
       </c>
       <c r="H15">
-        <v>79021.01248672375</v>
+        <v>79021.01066145684</v>
       </c>
       <c r="I15">
-        <v>338933</v>
+        <v>344879</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>230143.0239086776</v>
+        <v>217153.3541398894</v>
       </c>
       <c r="O15">
-        <v>120055.106451925</v>
+        <v>128547.9619783508</v>
       </c>
       <c r="P15">
-        <v>72050.75572402528</v>
+        <v>70026.85576035515</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.9787144632</v>
+        <v>160974.9614438389</v>
       </c>
       <c r="B16">
-        <v>78431.01327466437</v>
+        <v>76329.38140651218</v>
       </c>
       <c r="C16">
-        <v>398230.2305142723</v>
+        <v>405908.2852407316</v>
       </c>
       <c r="D16">
-        <v>88618.45230890835</v>
+        <v>86842.6015577911</v>
       </c>
       <c r="E16">
-        <v>171597.1968668637</v>
+        <v>169066.5842969662</v>
       </c>
       <c r="F16">
-        <v>126529.3325332882</v>
+        <v>134759.7096237835</v>
       </c>
       <c r="G16">
-        <v>21011.37518338741</v>
+        <v>22444.22202384553</v>
       </c>
       <c r="H16">
-        <v>160974.9787144632</v>
+        <v>160974.9614438389</v>
       </c>
       <c r="I16">
-        <v>632627</v>
+        <v>637004</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>476661.2437889366</v>
+        <v>482237.6666472437</v>
       </c>
       <c r="O16">
-        <v>260215.649175772</v>
+        <v>255909.1858547573</v>
       </c>
       <c r="P16">
-        <v>147540.7077166756</v>
+        <v>157203.931647629</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.07483477592</v>
+        <v>52807.97991657114</v>
       </c>
       <c r="B17">
-        <v>24161.97852036758</v>
+        <v>24725.08043773796</v>
       </c>
       <c r="C17">
-        <v>131239.0673549003</v>
+        <v>134456.3136559305</v>
       </c>
       <c r="D17">
-        <v>29041.32100962325</v>
+        <v>30453.97811500777</v>
       </c>
       <c r="E17">
-        <v>53470.62771151934</v>
+        <v>57147.77351272984</v>
       </c>
       <c r="F17">
-        <v>38159.51757903554</v>
+        <v>40094.56912401117</v>
       </c>
       <c r="G17">
-        <v>7013.882210486634</v>
+        <v>6970.518570370469</v>
       </c>
       <c r="H17">
-        <v>52808.07483477592</v>
+        <v>52807.97991657114</v>
       </c>
       <c r="I17">
-        <v>209622</v>
+        <v>213571</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>155401.0458752679</v>
+        <v>159181.3940936684</v>
       </c>
       <c r="O17">
-        <v>82511.94872114259</v>
+        <v>87601.75162773761</v>
       </c>
       <c r="P17">
-        <v>45173.39978952217</v>
+        <v>47065.08769438164</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.06050102149</v>
+        <v>48666.03876156114</v>
       </c>
       <c r="B18">
-        <v>22262.08730095473</v>
+        <v>22715.32971343587</v>
       </c>
       <c r="C18">
-        <v>116220.3882551019</v>
+        <v>117417.1680716257</v>
       </c>
       <c r="D18">
-        <v>28596.29637343889</v>
+        <v>30458.6572286321</v>
       </c>
       <c r="E18">
-        <v>54194.15238478025</v>
+        <v>54848.53344217102</v>
       </c>
       <c r="F18">
-        <v>37566.78733170396</v>
+        <v>35699.75204299978</v>
       </c>
       <c r="G18">
-        <v>6679.868046710709</v>
+        <v>6531.470039888241</v>
       </c>
       <c r="H18">
-        <v>48666.06050102149</v>
+        <v>48666.03876156114</v>
       </c>
       <c r="I18">
-        <v>189587</v>
+        <v>200231</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>138482.4755560566</v>
+        <v>140132.4977850615</v>
       </c>
       <c r="O18">
-        <v>82790.44875821914</v>
+        <v>85307.19067080313</v>
       </c>
       <c r="P18">
-        <v>44246.65537841467</v>
+        <v>42231.22208288802</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.98767026772</v>
+        <v>50920.93709826735</v>
       </c>
       <c r="B19">
-        <v>23567.42660434042</v>
+        <v>22707.76422521954</v>
       </c>
       <c r="C19">
-        <v>124650.1341315322</v>
+        <v>120062.4185205052</v>
       </c>
       <c r="D19">
-        <v>29697.56704956365</v>
+        <v>28710.80284432452</v>
       </c>
       <c r="E19">
-        <v>57253.35482801233</v>
+        <v>54967.07129733431</v>
       </c>
       <c r="F19">
-        <v>37932.7835882467</v>
+        <v>36710.07386452179</v>
       </c>
       <c r="G19">
-        <v>7194.226040936846</v>
+        <v>6428.822086082505</v>
       </c>
       <c r="H19">
-        <v>50920.98767026772</v>
+        <v>50920.93709826735</v>
       </c>
       <c r="I19">
-        <v>204339</v>
+        <v>210945</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>148217.5607358726</v>
+        <v>142770.1827457248</v>
       </c>
       <c r="O19">
-        <v>86950.92187757598</v>
+        <v>83677.87414165883</v>
       </c>
       <c r="P19">
-        <v>45127.00962918354</v>
+        <v>43138.8959506043</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.93684588708</v>
+        <v>20572.90721875995</v>
       </c>
       <c r="B20">
-        <v>9243.349675606969</v>
+        <v>9049.043192402241</v>
       </c>
       <c r="C20">
-        <v>49835.77604591385</v>
+        <v>49093.34472894898</v>
       </c>
       <c r="D20">
-        <v>11983.60860467989</v>
+        <v>11983.06287140652</v>
       </c>
       <c r="E20">
-        <v>22771.49092618155</v>
+        <v>23432.51496175708</v>
       </c>
       <c r="F20">
-        <v>16674.93535786541</v>
+        <v>14655.76619081447</v>
       </c>
       <c r="G20">
-        <v>3128.891203903856</v>
+        <v>2816.488729646385</v>
       </c>
       <c r="H20">
-        <v>20572.93684588708</v>
+        <v>20572.90721875995</v>
       </c>
       <c r="I20">
-        <v>83728</v>
+        <v>82549</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59079.12572152082</v>
+        <v>58142.38792135122</v>
       </c>
       <c r="O20">
-        <v>34755.09953086143</v>
+        <v>35415.5778331636</v>
       </c>
       <c r="P20">
-        <v>19803.82656176926</v>
+        <v>17472.25492046086</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26961.06932940129</v>
+        <v>26961.00070179144</v>
       </c>
       <c r="B21">
-        <v>12313.50542706043</v>
+        <v>11766.51530499977</v>
       </c>
       <c r="C21">
-        <v>65625.54441962307</v>
+        <v>64953.19266799691</v>
       </c>
       <c r="D21">
-        <v>15305.88194933875</v>
+        <v>13753.8688592141</v>
       </c>
       <c r="E21">
-        <v>28704.32516707154</v>
+        <v>28103.50323036628</v>
       </c>
       <c r="F21">
-        <v>18727.69434011689</v>
+        <v>21441.85075833458</v>
       </c>
       <c r="G21">
-        <v>3080.101536921119</v>
+        <v>3455.654636777598</v>
       </c>
       <c r="H21">
-        <v>26961.06932940129</v>
+        <v>26961.00070179144</v>
       </c>
       <c r="I21">
-        <v>110666</v>
+        <v>110423</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>77939.0498466835</v>
+        <v>76719.70797299668</v>
       </c>
       <c r="O21">
-        <v>44010.20711641029</v>
+        <v>41857.37208958038</v>
       </c>
       <c r="P21">
-        <v>21807.79587703801</v>
+        <v>24897.50539511218</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.0664703278</v>
+        <v>3910.035420676335</v>
       </c>
       <c r="B22">
-        <v>1835.017721506651</v>
+        <v>1789.309921312298</v>
       </c>
       <c r="C22">
-        <v>9580.854000431935</v>
+        <v>9478.645213805556</v>
       </c>
       <c r="D22">
-        <v>2288.068460814048</v>
+        <v>2246.781971015845</v>
       </c>
       <c r="E22">
-        <v>4489.073629273482</v>
+        <v>4269.998178563556</v>
       </c>
       <c r="F22">
-        <v>3204.3860227813</v>
+        <v>2961.370562855817</v>
       </c>
       <c r="G22">
-        <v>562.4502021693372</v>
+        <v>515.1475774731481</v>
       </c>
       <c r="H22">
-        <v>3910.0664703278</v>
+        <v>3910.035420676335</v>
       </c>
       <c r="I22">
-        <v>15368</v>
+        <v>15635</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11415.87172193859</v>
+        <v>11267.95513511785</v>
       </c>
       <c r="O22">
-        <v>6777.142090087529</v>
+        <v>6516.780149579401</v>
       </c>
       <c r="P22">
-        <v>3766.836224950637</v>
+        <v>3476.518140328965</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9232619513917</v>
+        <v>106.0546037470889</v>
       </c>
       <c r="B23">
-        <v>48.91704930026903</v>
+        <v>49.39636953122772</v>
       </c>
       <c r="C23">
-        <v>235.500194145149</v>
+        <v>244.5154038281977</v>
       </c>
       <c r="D23">
-        <v>56.96226059912604</v>
+        <v>61.11997819072021</v>
       </c>
       <c r="E23">
-        <v>104.7620302703309</v>
+        <v>116.2838910177358</v>
       </c>
       <c r="F23">
-        <v>81.46460303697842</v>
+        <v>70.79482741320084</v>
       </c>
       <c r="G23">
-        <v>15.20084264330255</v>
+        <v>10.98954663165923</v>
       </c>
       <c r="H23">
-        <v>105.9232619513917</v>
+        <v>106.0546037470889</v>
       </c>
       <c r="I23">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>284.4172434454181</v>
+        <v>293.9117733594254</v>
       </c>
       <c r="O23">
-        <v>161.724290869457</v>
+        <v>177.403869208456</v>
       </c>
       <c r="P23">
-        <v>96.66544568028097</v>
+        <v>81.78437404486007</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15660.8807170461</v>
+        <v>15660.88999034486</v>
       </c>
       <c r="B24">
-        <v>6960.799637748273</v>
+        <v>7145.816191858971</v>
       </c>
       <c r="C24">
-        <v>37439.40599332919</v>
+        <v>38502.07503735587</v>
       </c>
       <c r="D24">
-        <v>8909.645922061151</v>
+        <v>9070.031718443273</v>
       </c>
       <c r="E24">
-        <v>17421.82158964907</v>
+        <v>16936.89810353145</v>
       </c>
       <c r="F24">
-        <v>13004.43096115391</v>
+        <v>10639.02132697935</v>
       </c>
       <c r="G24">
-        <v>2339.721965850542</v>
+        <v>1864.436584979046</v>
       </c>
       <c r="H24">
-        <v>15660.8807170461</v>
+        <v>15660.88999034486</v>
       </c>
       <c r="I24">
-        <v>60915</v>
+        <v>67518</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>44400.20563107746</v>
+        <v>45647.89122921484</v>
       </c>
       <c r="O24">
-        <v>26331.46751171022</v>
+        <v>26006.92982197472</v>
       </c>
       <c r="P24">
-        <v>15344.15292700446</v>
+        <v>12503.4579119584</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6607.062552222062</v>
+        <v>6606.962446885185</v>
       </c>
       <c r="B25">
-        <v>1404.6698837163</v>
+        <v>1457.930909889478</v>
       </c>
       <c r="C25">
-        <v>17220.84219372486</v>
+        <v>16963.75650734449</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11153.82381257392</v>
+        <v>10150.12563652163</v>
       </c>
       <c r="F25">
-        <v>5969.428889462232</v>
+        <v>6561.431266195914</v>
       </c>
       <c r="G25">
-        <v>318.2244599324587</v>
+        <v>352.6051675726346</v>
       </c>
       <c r="H25">
-        <v>6607.062552222062</v>
+        <v>6606.962446885185</v>
       </c>
       <c r="I25">
-        <v>30493</v>
+        <v>30481</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18625.51207744116</v>
+        <v>18421.68741723397</v>
       </c>
       <c r="O25">
-        <v>11153.82381257392</v>
+        <v>10150.12563652163</v>
       </c>
       <c r="P25">
-        <v>6287.653349394691</v>
+        <v>6914.036433768549</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.0673439075</v>
+        <v>22422.93176133901</v>
       </c>
       <c r="B26">
-        <v>5042.977585656353</v>
+        <v>4682.85462101558</v>
       </c>
       <c r="C26">
-        <v>61261.7977828072</v>
+        <v>58920.27515825335</v>
       </c>
       <c r="D26">
-        <v>8335.812011861395</v>
+        <v>8984.543007730854</v>
       </c>
       <c r="E26">
-        <v>26661.52867768526</v>
+        <v>30018.00782642657</v>
       </c>
       <c r="F26">
-        <v>19423.16527273984</v>
+        <v>17072.81769912349</v>
       </c>
       <c r="G26">
-        <v>982.0126404812762</v>
+        <v>841.1183192780655</v>
       </c>
       <c r="H26">
-        <v>22423.0673439075</v>
+        <v>22422.93176133901</v>
       </c>
       <c r="I26">
-        <v>96882</v>
+        <v>104424</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>66304.77536846355</v>
+        <v>63603.12977926893</v>
       </c>
       <c r="O26">
-        <v>34997.34068954665</v>
+        <v>39002.55083415742</v>
       </c>
       <c r="P26">
-        <v>20405.17791322112</v>
+        <v>17913.93601840156</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29148.09352528419</v>
+        <v>29147.94321861736</v>
       </c>
       <c r="B27">
-        <v>6159.043160015097</v>
+        <v>6535.28050950903</v>
       </c>
       <c r="C27">
-        <v>74005.66509238763</v>
+        <v>77533.6329751263</v>
       </c>
       <c r="D27">
-        <v>10828.185245344</v>
+        <v>11614.72956887481</v>
       </c>
       <c r="E27">
-        <v>36179.57932829769</v>
+        <v>38613.56880701859</v>
       </c>
       <c r="F27">
-        <v>26485.39925403559</v>
+        <v>23735.17549957111</v>
       </c>
       <c r="G27">
-        <v>1269.490444849176</v>
+        <v>1288.296166981308</v>
       </c>
       <c r="H27">
-        <v>29148.09352528419</v>
+        <v>29147.94321861736</v>
       </c>
       <c r="I27">
-        <v>134011</v>
+        <v>128702</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>80164.70825240272</v>
+        <v>84068.91348463533</v>
       </c>
       <c r="O27">
-        <v>47007.76457364169</v>
+        <v>50228.29837589341</v>
       </c>
       <c r="P27">
-        <v>27754.88969888476</v>
+        <v>25023.47166655241</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30697.99156277447</v>
+        <v>30698.056374975</v>
       </c>
       <c r="B28">
-        <v>6772.477920550933</v>
+        <v>6515.917158283958</v>
       </c>
       <c r="C28">
-        <v>82242.75563217704</v>
+        <v>81012.77993372027</v>
       </c>
       <c r="D28">
-        <v>12181.85896190606</v>
+        <v>11935.45968255612</v>
       </c>
       <c r="E28">
-        <v>41439.89870237523</v>
+        <v>39960.30005476054</v>
       </c>
       <c r="F28">
-        <v>25888.07879077457</v>
+        <v>23897.58344271309</v>
       </c>
       <c r="G28">
-        <v>1369.574774154056</v>
+        <v>1222.726531654639</v>
       </c>
       <c r="H28">
-        <v>30697.99156277447</v>
+        <v>30698.056374975</v>
       </c>
       <c r="I28">
-        <v>144553</v>
+        <v>137308</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>89015.23355272797</v>
+        <v>87528.69709200424</v>
       </c>
       <c r="O28">
-        <v>53621.75766428129</v>
+        <v>51895.75973731666</v>
       </c>
       <c r="P28">
-        <v>27257.65356492862</v>
+        <v>25120.30997436773</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.03668596012</v>
+        <v>81901.11280834249</v>
       </c>
       <c r="B29">
-        <v>17076.1581067044</v>
+        <v>16695.49822851685</v>
       </c>
       <c r="C29">
-        <v>219185.9126943117</v>
+        <v>220108.3342400692</v>
       </c>
       <c r="D29">
-        <v>30488.69315312143</v>
+        <v>32112.70198178757</v>
       </c>
       <c r="E29">
-        <v>103636.6424154882</v>
+        <v>106117.2702126604</v>
       </c>
       <c r="F29">
-        <v>74852.11760380754</v>
+        <v>67137.75510481359</v>
       </c>
       <c r="G29">
-        <v>3961.9917302308</v>
+        <v>3343.516543035615</v>
       </c>
       <c r="H29">
-        <v>81901.03668596012</v>
+        <v>81901.11280834249</v>
       </c>
       <c r="I29">
-        <v>374063</v>
+        <v>350658</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>236262.0708010161</v>
+        <v>236803.8324685861</v>
       </c>
       <c r="O29">
-        <v>134125.3355686096</v>
+        <v>138229.972194448</v>
       </c>
       <c r="P29">
-        <v>78814.10933403834</v>
+        <v>70481.27164784921</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.94785205799</v>
+        <v>65571.97002417376</v>
       </c>
       <c r="B30">
-        <v>14207.23034372089</v>
+        <v>13902.45939727956</v>
       </c>
       <c r="C30">
-        <v>173343.6354703094</v>
+        <v>172860.2186585464</v>
       </c>
       <c r="D30">
-        <v>27025.45157327859</v>
+        <v>24563.42955996399</v>
       </c>
       <c r="E30">
-        <v>86041.13592406556</v>
+        <v>81235.13436972184</v>
       </c>
       <c r="F30">
-        <v>57220.1491451535</v>
+        <v>57477.61272546227</v>
       </c>
       <c r="G30">
-        <v>3329.307370972768</v>
+        <v>2762.818324526752</v>
       </c>
       <c r="H30">
-        <v>65571.94785205799</v>
+        <v>65571.97002417376</v>
       </c>
       <c r="I30">
-        <v>289364</v>
+        <v>286768</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>187550.8658140303</v>
+        <v>186762.6780558259</v>
       </c>
       <c r="O30">
-        <v>113066.5874973442</v>
+        <v>105798.5639296858</v>
       </c>
       <c r="P30">
-        <v>60549.45651612627</v>
+        <v>60240.43104998902</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.96731047132</v>
+        <v>90327.97469464438</v>
       </c>
       <c r="B31">
-        <v>19106.26100822433</v>
+        <v>17753.8004666554</v>
       </c>
       <c r="C31">
-        <v>239130.1283886597</v>
+        <v>231173.7718937445</v>
       </c>
       <c r="D31">
-        <v>34982.34086190326</v>
+        <v>37108.53058429477</v>
       </c>
       <c r="E31">
-        <v>114814.8945835592</v>
+        <v>119178.9605476957</v>
       </c>
       <c r="F31">
-        <v>81682.11441432405</v>
+        <v>76040.9595809938</v>
       </c>
       <c r="G31">
-        <v>3883.505515579976</v>
+        <v>4003.522085664119</v>
       </c>
       <c r="H31">
-        <v>90327.96731047132</v>
+        <v>90327.97469464438</v>
       </c>
       <c r="I31">
-        <v>407428</v>
+        <v>390138</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>258236.389396884</v>
+        <v>248927.5723603999</v>
       </c>
       <c r="O31">
-        <v>149797.2354454625</v>
+        <v>156287.4911319905</v>
       </c>
       <c r="P31">
-        <v>85565.61992990403</v>
+        <v>80044.48166665793</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36451.03053833677</v>
+        <v>36450.94002459691</v>
       </c>
       <c r="B32">
-        <v>7755.712862852464</v>
+        <v>7798.558169350175</v>
       </c>
       <c r="C32">
-        <v>93707.29568972583</v>
+        <v>96573.96644918014</v>
       </c>
       <c r="D32">
-        <v>13696.84219382752</v>
+        <v>15044.65361231411</v>
       </c>
       <c r="E32">
-        <v>44408.41862555973</v>
+        <v>48777.5639031055</v>
       </c>
       <c r="F32">
-        <v>28622.59284202569</v>
+        <v>30809.17698274158</v>
       </c>
       <c r="G32">
-        <v>1702.821677888544</v>
+        <v>1476.279969880501</v>
       </c>
       <c r="H32">
-        <v>36451.03053833677</v>
+        <v>36450.94002459691</v>
       </c>
       <c r="I32">
-        <v>166094</v>
+        <v>169646</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>101463.0085525783</v>
+        <v>104372.5246185303</v>
       </c>
       <c r="O32">
-        <v>58105.26081938725</v>
+        <v>63822.21751541962</v>
       </c>
       <c r="P32">
-        <v>30325.41451991423</v>
+        <v>32285.45695262208</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.94305901992</v>
+        <v>22121.08608789128</v>
       </c>
       <c r="B33">
-        <v>4834.763517733496</v>
+        <v>4859.237695495874</v>
       </c>
       <c r="C33">
-        <v>57274.70948262964</v>
+        <v>55612.5759263584</v>
       </c>
       <c r="D33">
-        <v>8943.305693398574</v>
+        <v>8487.073522884812</v>
       </c>
       <c r="E33">
-        <v>29242.85345582219</v>
+        <v>28933.72031850257</v>
       </c>
       <c r="F33">
-        <v>17022.93273691486</v>
+        <v>18277.27280252717</v>
       </c>
       <c r="G33">
-        <v>898.9495162326709</v>
+        <v>861.28580045267</v>
       </c>
       <c r="H33">
-        <v>22120.94305901992</v>
+        <v>22121.08608789128</v>
       </c>
       <c r="I33">
-        <v>105941</v>
+        <v>106227</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>62109.47300036313</v>
+        <v>60471.81362185428</v>
       </c>
       <c r="O33">
-        <v>38186.15914922077</v>
+        <v>37420.79384138738</v>
       </c>
       <c r="P33">
-        <v>17921.88225314753</v>
+        <v>19138.55860297984</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.96859084486</v>
+        <v>26863.98123847811</v>
       </c>
       <c r="B34">
-        <v>5840.7985015561</v>
+        <v>5913.010379589096</v>
       </c>
       <c r="C34">
-        <v>70751.72565223914</v>
+        <v>68887.35196496941</v>
       </c>
       <c r="D34">
-        <v>10464.59009567937</v>
+        <v>11216.95922404085</v>
       </c>
       <c r="E34">
-        <v>34329.91451660275</v>
+        <v>37067.34725717833</v>
       </c>
       <c r="F34">
-        <v>21772.76440610713</v>
+        <v>21343.89033121086</v>
       </c>
       <c r="G34">
-        <v>1146.220593928709</v>
+        <v>1243.30172708507</v>
       </c>
       <c r="H34">
-        <v>26863.96859084486</v>
+        <v>26863.98123847811</v>
       </c>
       <c r="I34">
-        <v>120763</v>
+        <v>127053</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>76592.52415379524</v>
+        <v>74800.3623445585</v>
       </c>
       <c r="O34">
-        <v>44794.50461228212</v>
+        <v>48284.30648121917</v>
       </c>
       <c r="P34">
-        <v>22918.98500003584</v>
+        <v>22587.19205829593</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>453.9694482824732</v>
+        <v>454.0820364639169</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1262.24502580757</v>
+        <v>1279.397907755231</v>
       </c>
       <c r="D35">
-        <v>165.9577260552865</v>
+        <v>170.8043519200601</v>
       </c>
       <c r="E35">
-        <v>546.5148665784359</v>
+        <v>551.1936177842014</v>
       </c>
       <c r="F35">
-        <v>380.5744724702138</v>
+        <v>428.7135105863223</v>
       </c>
       <c r="G35">
-        <v>17.75019503686047</v>
+        <v>22.43762097744935</v>
       </c>
       <c r="H35">
-        <v>453.9694482824732</v>
+        <v>454.0820364639169</v>
       </c>
       <c r="I35">
-        <v>2129</v>
+        <v>2038</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1262.24502580757</v>
+        <v>1279.397907755231</v>
       </c>
       <c r="O35">
-        <v>712.4725926337223</v>
+        <v>721.9979697042616</v>
       </c>
       <c r="P35">
-        <v>398.3246675070743</v>
+        <v>451.1511315637717</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9290500727354</v>
+        <v>504.9409661607621</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1428.119641286141</v>
+        <v>1465.129953676689</v>
       </c>
       <c r="D36">
-        <v>179.1881202125763</v>
+        <v>201.6276211973035</v>
       </c>
       <c r="E36">
-        <v>615.5603536155974</v>
+        <v>649.4622103078534</v>
       </c>
       <c r="F36">
-        <v>423.5292035874061</v>
+        <v>456.281910727518</v>
       </c>
       <c r="G36">
-        <v>22.14544541952745</v>
+        <v>23.80261230324694</v>
       </c>
       <c r="H36">
-        <v>504.9290500727354</v>
+        <v>504.9409661607621</v>
       </c>
       <c r="I36">
-        <v>2502</v>
+        <v>2348</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1428.119641286141</v>
+        <v>1465.129953676689</v>
       </c>
       <c r="O36">
-        <v>794.7484738281737</v>
+        <v>851.0898315051569</v>
       </c>
       <c r="P36">
-        <v>445.6746490069336</v>
+        <v>480.084523030765</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.06794784744</v>
+        <v>11108.05882184568</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>33185.64741483417</v>
+        <v>31249.32359889802</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>19027.9750122539</v>
+        <v>17186.07605617975</v>
       </c>
       <c r="F37">
-        <v>3405.456525078199</v>
+        <v>3497.766703386871</v>
       </c>
       <c r="G37">
-        <v>6216.40240942601</v>
+        <v>6598.149715989099</v>
       </c>
       <c r="H37">
-        <v>11108.06794784744</v>
+        <v>11108.05882184568</v>
       </c>
       <c r="I37">
-        <v>60850</v>
+        <v>58787</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>33185.64741483417</v>
+        <v>31249.32359889802</v>
       </c>
       <c r="O37">
-        <v>19027.9750122539</v>
+        <v>17186.07605617975</v>
       </c>
       <c r="P37">
-        <v>9621.858934504209</v>
+        <v>10095.91641937597</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1091.051228691441</v>
+        <v>1090.904870516014</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3163.214453643809</v>
+        <v>3032.65866542976</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1738.899134094149</v>
+        <v>1770.749385769594</v>
       </c>
       <c r="F38">
-        <v>343.2728034865322</v>
+        <v>370.0449501656455</v>
       </c>
       <c r="G38">
-        <v>631.2483430969284</v>
+        <v>670.820377144637</v>
       </c>
       <c r="H38">
-        <v>1091.051228691441</v>
+        <v>1090.904870516014</v>
       </c>
       <c r="I38">
-        <v>5455</v>
+        <v>5694</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3163.214453643809</v>
+        <v>3032.65866542976</v>
       </c>
       <c r="O38">
-        <v>1738.899134094149</v>
+        <v>1770.749385769594</v>
       </c>
       <c r="P38">
-        <v>974.5211465834605</v>
+        <v>1040.865327310283</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.925332801</v>
+        <v>153571.9761665381</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>417550.1697896203</v>
+        <v>431438.8528576476</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>251575.8422479872</v>
+        <v>245233.8279544101</v>
       </c>
       <c r="F39">
-        <v>45405.90169484306</v>
+        <v>48703.19875170993</v>
       </c>
       <c r="G39">
-        <v>83854.11320899874</v>
+        <v>91324.9043515767</v>
       </c>
       <c r="H39">
-        <v>153571.925332801</v>
+        <v>153571.9761665381</v>
       </c>
       <c r="I39">
-        <v>802911</v>
+        <v>763871</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>417550.1697896203</v>
+        <v>431438.8528576476</v>
       </c>
       <c r="O39">
-        <v>251575.8422479872</v>
+        <v>245233.8279544101</v>
       </c>
       <c r="P39">
-        <v>129260.0149038418</v>
+        <v>140028.1031032866</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9632811434</v>
+        <v>152868.9520086178</v>
       </c>
       <c r="B40">
-        <v>25666.7757604334</v>
+        <v>26053.7202338548</v>
       </c>
       <c r="C40">
-        <v>401450.7760889371</v>
+        <v>404671.696013483</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>240699.9309661487</v>
+        <v>250974.0146500851</v>
       </c>
       <c r="F40">
-        <v>49701.3614038575</v>
+        <v>48239.57245107562</v>
       </c>
       <c r="G40">
-        <v>88599.10066731319</v>
+        <v>85014.97423608888</v>
       </c>
       <c r="H40">
-        <v>152868.9632811434</v>
+        <v>152868.9520086178</v>
       </c>
       <c r="I40">
-        <v>751456</v>
+        <v>762385</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>427117.5518493705</v>
+        <v>430725.4162473378</v>
       </c>
       <c r="O40">
-        <v>240699.9309661487</v>
+        <v>250974.0146500851</v>
       </c>
       <c r="P40">
-        <v>138300.4620711707</v>
+        <v>133254.5466871645</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0743822881</v>
+        <v>339433.0234418836</v>
       </c>
       <c r="B41">
-        <v>60795.90203561468</v>
+        <v>60258.29193894949</v>
       </c>
       <c r="C41">
-        <v>896944.0429078903</v>
+        <v>904703.6639652071</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>519550.5300091866</v>
+        <v>561272.4579341046</v>
       </c>
       <c r="F41">
-        <v>98017.53149431493</v>
+        <v>107997.7476605137</v>
       </c>
       <c r="G41">
-        <v>179235.4575976141</v>
+        <v>192400.0223160649</v>
       </c>
       <c r="H41">
-        <v>339433.0743822881</v>
+        <v>339433.0234418836</v>
       </c>
       <c r="I41">
-        <v>1673072</v>
+        <v>1622623</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>957739.944943505</v>
+        <v>964961.9559041566</v>
       </c>
       <c r="O41">
-        <v>519550.5300091866</v>
+        <v>561272.4579341046</v>
       </c>
       <c r="P41">
-        <v>277252.989091929</v>
+        <v>300397.7699765785</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.0037869779</v>
+        <v>245458.923924203</v>
       </c>
       <c r="B42">
-        <v>40264.53962892528</v>
+        <v>46002.04992539506</v>
       </c>
       <c r="C42">
-        <v>653890.1928071054</v>
+        <v>671654.9584279355</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>402980.5395036612</v>
+        <v>418132.6323408838</v>
       </c>
       <c r="F42">
-        <v>85105.21241328475</v>
+        <v>73821.17087196643</v>
       </c>
       <c r="G42">
-        <v>160450.81758925</v>
+        <v>142702.6851373428</v>
       </c>
       <c r="H42">
-        <v>245459.0037869779</v>
+        <v>245458.923924203</v>
       </c>
       <c r="I42">
-        <v>1180507</v>
+        <v>1170132</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>694154.7324360306</v>
+        <v>717657.0083533305</v>
       </c>
       <c r="O42">
-        <v>402980.5395036612</v>
+        <v>418132.6323408838</v>
       </c>
       <c r="P42">
-        <v>245556.0300025348</v>
+        <v>216523.8560093092</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.9528135185</v>
+        <v>367626.949476596</v>
       </c>
       <c r="B43">
-        <v>61466.54912278227</v>
+        <v>65956.90006047286</v>
       </c>
       <c r="C43">
-        <v>987039.5532820085</v>
+        <v>1010896.995815162</v>
       </c>
       <c r="D43">
-        <v>81854.09258199866</v>
+        <v>76917.45671023296</v>
       </c>
       <c r="E43">
-        <v>541034.542941734</v>
+        <v>537555.9129471069</v>
       </c>
       <c r="F43">
-        <v>132870.3097882134</v>
+        <v>125540.8853169989</v>
       </c>
       <c r="G43">
-        <v>235875.7807532007</v>
+        <v>234936.4847059666</v>
       </c>
       <c r="H43">
-        <v>367626.9528135185</v>
+        <v>367626.949476596</v>
       </c>
       <c r="I43">
-        <v>1754043</v>
+        <v>1727615</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1048506.102404791</v>
+        <v>1076853.895875635</v>
       </c>
       <c r="O43">
-        <v>622888.6355237326</v>
+        <v>614473.3696573399</v>
       </c>
       <c r="P43">
-        <v>368746.0905414142</v>
+        <v>360477.3700229655</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9774522829</v>
+        <v>470397.074121194</v>
       </c>
       <c r="B44">
-        <v>79812.61895266413</v>
+        <v>77685.03016352115</v>
       </c>
       <c r="C44">
-        <v>1242157.732641123</v>
+        <v>1265335.75191703</v>
       </c>
       <c r="D44">
-        <v>102321.0535386228</v>
+        <v>106971.3999336943</v>
       </c>
       <c r="E44">
-        <v>678175.8849309159</v>
+        <v>706649.14684569</v>
       </c>
       <c r="F44">
-        <v>148651.7679056664</v>
+        <v>136896.9309038279</v>
       </c>
       <c r="G44">
-        <v>277628.9651258831</v>
+        <v>261405.1388863334</v>
       </c>
       <c r="H44">
-        <v>470396.9774522829</v>
+        <v>470397.074121194</v>
       </c>
       <c r="I44">
-        <v>2186311</v>
+        <v>2325484</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1321970.351593787</v>
+        <v>1343020.782080551</v>
       </c>
       <c r="O44">
-        <v>780496.9384695387</v>
+        <v>813620.5467793843</v>
       </c>
       <c r="P44">
-        <v>426280.7330315495</v>
+        <v>398302.0697901613</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307103.0362143211</v>
+        <v>307102.9792884456</v>
       </c>
       <c r="B45">
-        <v>52241.79107728227</v>
+        <v>56980.11901441466</v>
       </c>
       <c r="C45">
-        <v>844544.2516636716</v>
+        <v>829738.1406150413</v>
       </c>
       <c r="D45">
-        <v>63265.33111525545</v>
+        <v>75468.70125144288</v>
       </c>
       <c r="E45">
-        <v>415822.9634303395</v>
+        <v>494747.3713263406</v>
       </c>
       <c r="F45">
-        <v>88735.0963666841</v>
+        <v>96657.96737472266</v>
       </c>
       <c r="G45">
-        <v>169822.3759305237</v>
+        <v>189160.1219183946</v>
       </c>
       <c r="H45">
-        <v>307103.0362143211</v>
+        <v>307102.9792884456</v>
       </c>
       <c r="I45">
-        <v>1486019</v>
+        <v>1498635</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>896786.0427409539</v>
+        <v>886718.2596294559</v>
       </c>
       <c r="O45">
-        <v>479088.294545595</v>
+        <v>570216.0725777835</v>
       </c>
       <c r="P45">
-        <v>258557.4722972078</v>
+        <v>285818.0892931173</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327915.0723918994</v>
+        <v>327914.9455894138</v>
       </c>
       <c r="B46">
-        <v>59695.8769909501</v>
+        <v>58265.58376313425</v>
       </c>
       <c r="C46">
-        <v>889220.6253052774</v>
+        <v>864887.4805140003</v>
       </c>
       <c r="D46">
-        <v>68212.04166223368</v>
+        <v>68584.98312904501</v>
       </c>
       <c r="E46">
-        <v>478064.6923730666</v>
+        <v>469315.5874008989</v>
       </c>
       <c r="F46">
-        <v>95937.57373356749</v>
+        <v>98824.40005132674</v>
       </c>
       <c r="G46">
-        <v>183171.8109907671</v>
+        <v>179945.5080288822</v>
       </c>
       <c r="H46">
-        <v>327915.0723918994</v>
+        <v>327914.9455894138</v>
       </c>
       <c r="I46">
-        <v>1544657</v>
+        <v>1579523</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>948916.5022962275</v>
+        <v>923153.0642771345</v>
       </c>
       <c r="O46">
-        <v>546276.7340353003</v>
+        <v>537900.5705299439</v>
       </c>
       <c r="P46">
-        <v>279109.3847243346</v>
+        <v>278769.9080802089</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.1015579148</v>
+        <v>659113.9919268568</v>
       </c>
       <c r="B47">
-        <v>122168.3942398865</v>
+        <v>114833.4022384572</v>
       </c>
       <c r="C47">
-        <v>1855344.49133323</v>
+        <v>1718486.705544689</v>
       </c>
       <c r="D47">
-        <v>139374.7811472246</v>
+        <v>149963.4336703836</v>
       </c>
       <c r="E47">
-        <v>934310.4366751458</v>
+        <v>1005892.359668161</v>
       </c>
       <c r="F47">
-        <v>188114.4118744834</v>
+        <v>201375.3275268437</v>
       </c>
       <c r="G47">
-        <v>346223.1823546665</v>
+        <v>402160.9791722148</v>
       </c>
       <c r="H47">
-        <v>659114.1015579148</v>
+        <v>659113.9919268568</v>
       </c>
       <c r="I47">
-        <v>3053470</v>
+        <v>3094268</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1977512.885573116</v>
+        <v>1833320.107783146</v>
       </c>
       <c r="O47">
-        <v>1073685.21782237</v>
+        <v>1155855.793338544</v>
       </c>
       <c r="P47">
-        <v>534337.5942291499</v>
+        <v>603536.3066990585</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195931.0864865239</v>
+        <v>195931.0975797795</v>
       </c>
       <c r="B48">
-        <v>33641.1108208014</v>
+        <v>36325.69520138549</v>
       </c>
       <c r="C48">
-        <v>515840.6357471359</v>
+        <v>539020.078498473</v>
       </c>
       <c r="D48">
-        <v>42767.72755182388</v>
+        <v>38992.45731035249</v>
       </c>
       <c r="E48">
-        <v>285487.9810169887</v>
+        <v>262588.6267808401</v>
       </c>
       <c r="F48">
-        <v>64967.82405888032</v>
+        <v>65090.2171399168</v>
       </c>
       <c r="G48">
-        <v>112669.7351783071</v>
+        <v>124016.2326213729</v>
       </c>
       <c r="H48">
-        <v>195931.0864865239</v>
+        <v>195931.0975797795</v>
       </c>
       <c r="I48">
-        <v>927680</v>
+        <v>929424</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>549481.7465679372</v>
+        <v>575345.7736998586</v>
       </c>
       <c r="O48">
-        <v>328255.7085688126</v>
+        <v>301581.0840911926</v>
       </c>
       <c r="P48">
-        <v>177637.5592371874</v>
+        <v>189106.4497612897</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9335030764</v>
+        <v>174399.9517042514</v>
       </c>
       <c r="B49">
-        <v>28706.63790779493</v>
+        <v>30400.57846544357</v>
       </c>
       <c r="C49">
-        <v>464698.1346972735</v>
+        <v>457608.7884425218</v>
       </c>
       <c r="D49">
-        <v>36488.71141306356</v>
+        <v>37320.81201241689</v>
       </c>
       <c r="E49">
-        <v>249519.629866638</v>
+        <v>235321.0557876572</v>
       </c>
       <c r="F49">
-        <v>49626.36688279876</v>
+        <v>51684.5799848077</v>
       </c>
       <c r="G49">
-        <v>95725.58010691617</v>
+        <v>99756.95462099358</v>
       </c>
       <c r="H49">
-        <v>174399.9335030764</v>
+        <v>174399.9517042514</v>
       </c>
       <c r="I49">
-        <v>834500</v>
+        <v>863850</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>493404.7726050684</v>
+        <v>488009.3669079654</v>
       </c>
       <c r="O49">
-        <v>286008.3412797015</v>
+        <v>272641.8678000741</v>
       </c>
       <c r="P49">
-        <v>145351.9469897149</v>
+        <v>151441.5346058013</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.04103813929</v>
+        <v>60247.92225304873</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>166847.5882215427</v>
+        <v>170584.0701114156</v>
       </c>
       <c r="D50">
-        <v>12473.56966918102</v>
+        <v>14225.9779082275</v>
       </c>
       <c r="E50">
-        <v>80522.6283771458</v>
+        <v>95758.33711065314</v>
       </c>
       <c r="F50">
-        <v>18462.24394516525</v>
+        <v>18665.41841217144</v>
       </c>
       <c r="G50">
-        <v>33361.62998891105</v>
+        <v>37231.19397177158</v>
       </c>
       <c r="H50">
-        <v>60248.04103813929</v>
+        <v>60247.92225304873</v>
       </c>
       <c r="I50">
-        <v>294396</v>
+        <v>301183</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>166847.5882215427</v>
+        <v>170584.0701114156</v>
       </c>
       <c r="O50">
-        <v>92996.19804632681</v>
+        <v>109984.3150188807</v>
       </c>
       <c r="P50">
-        <v>51823.8739340763</v>
+        <v>55896.61238394302</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.048731600104</v>
+        <v>8460.941589714928</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23553.3358416646</v>
+        <v>23670.43227293625</v>
       </c>
       <c r="D51">
-        <v>1714.37154620958</v>
+        <v>1687.153821189724</v>
       </c>
       <c r="E51">
-        <v>11534.37918616959</v>
+        <v>11569.92978722404</v>
       </c>
       <c r="F51">
-        <v>2537.510644637859</v>
+        <v>2689.499505035774</v>
       </c>
       <c r="G51">
-        <v>4814.174346170363</v>
+        <v>4862.546120733079</v>
       </c>
       <c r="H51">
-        <v>8461.048731600104</v>
+        <v>8460.941589714928</v>
       </c>
       <c r="I51">
-        <v>40889</v>
+        <v>41613</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23553.3358416646</v>
+        <v>23670.43227293625</v>
       </c>
       <c r="O51">
-        <v>13248.75073237917</v>
+        <v>13257.08360841377</v>
       </c>
       <c r="P51">
-        <v>7351.684990808222</v>
+        <v>7552.045625768853</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.939316410077</v>
+        <v>2463.000508008365</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7470.619002231679</v>
+        <v>7724.036144554031</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1143.223174996071</v>
+        <v>1122.934296365688</v>
       </c>
       <c r="F52">
-        <v>2.77526592342425</v>
+        <v>0.4042408917554472</v>
       </c>
       <c r="G52">
-        <v>15.88664666774536</v>
+        <v>12.24608179714996</v>
       </c>
       <c r="H52">
-        <v>2462.939316410077</v>
+        <v>2463.000508008365</v>
       </c>
       <c r="I52">
-        <v>10685</v>
+        <v>10845</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7470.619002231679</v>
+        <v>7724.036144554031</v>
       </c>
       <c r="O52">
-        <v>1143.223174996071</v>
+        <v>1122.934296365688</v>
       </c>
       <c r="P52">
-        <v>18.66191259116961</v>
+        <v>12.65032268890541</v>
       </c>
       <c r="Q52">
-        <v>15.83907251496411</v>
+        <v>13.35162981685943</v>
       </c>
       <c r="R52">
-        <v>51.50576820516062</v>
+        <v>46.01852648373123</v>
       </c>
       <c r="S52">
-        <v>67.34484072012472</v>
+        <v>59.37015630059067</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3703.918364849831</v>
+        <v>3704.048042512259</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11899.31211930207</v>
+        <v>11441.86231001237</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1572.155444169387</v>
+        <v>1696.777681292975</v>
       </c>
       <c r="F53">
-        <v>1.435475328894277</v>
+        <v>2.48843187788428</v>
       </c>
       <c r="G53">
-        <v>6.250271018568285</v>
+        <v>12.15924546952377</v>
       </c>
       <c r="H53">
-        <v>3703.918364849831</v>
+        <v>3704.048042512259</v>
       </c>
       <c r="I53">
-        <v>16692</v>
+        <v>16290</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11899.31211930207</v>
+        <v>11441.86231001237</v>
       </c>
       <c r="O53">
-        <v>1572.155444169387</v>
+        <v>1696.777681292975</v>
       </c>
       <c r="P53">
-        <v>7.685746347462562</v>
+        <v>14.64767734740805</v>
       </c>
       <c r="Q53">
-        <v>30.74068328064343</v>
+        <v>22.78797487418542</v>
       </c>
       <c r="R53">
-        <v>76.23280472620402</v>
+        <v>76.41397168828075</v>
       </c>
       <c r="S53">
-        <v>106.9734880068475</v>
+        <v>99.20194656246616</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169754.1199807024</v>
+        <v>169753.9253088267</v>
       </c>
       <c r="B54">
-        <v>40410.66539616658</v>
+        <v>42380.89195274997</v>
       </c>
       <c r="C54">
-        <v>500906.5941287283</v>
+        <v>511927.3212672712</v>
       </c>
       <c r="D54">
-        <v>5804.081052977257</v>
+        <v>5696.965510684333</v>
       </c>
       <c r="E54">
-        <v>75924.94869914131</v>
+        <v>69993.44014941751</v>
       </c>
       <c r="F54">
-        <v>110.6450236414679</v>
+        <v>47.34604015619725</v>
       </c>
       <c r="G54">
-        <v>487.8780643677137</v>
+        <v>305.2462681312565</v>
       </c>
       <c r="H54">
-        <v>169754.1199807024</v>
+        <v>169753.9253088267</v>
       </c>
       <c r="I54">
-        <v>699777</v>
+        <v>721472</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>541317.2595248949</v>
+        <v>554308.2132200211</v>
       </c>
       <c r="O54">
-        <v>81729.02975211857</v>
+        <v>75690.40566010184</v>
       </c>
       <c r="P54">
-        <v>598.5230880091816</v>
+        <v>352.5923082874538</v>
       </c>
       <c r="Q54">
-        <v>1170.771572262284</v>
+        <v>946.2724187756788</v>
       </c>
       <c r="R54">
-        <v>3640.203861358491</v>
+        <v>3363.928984276608</v>
       </c>
       <c r="S54">
-        <v>4810.975433620775</v>
+        <v>4310.201403052287</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.969006779</v>
+        <v>301001.0721171172</v>
       </c>
       <c r="B55">
-        <v>70101.12707462706</v>
+        <v>71836.51190628263</v>
       </c>
       <c r="C55">
-        <v>878411.8746110346</v>
+        <v>846962.7928815249</v>
       </c>
       <c r="D55">
-        <v>12235.30749545355</v>
+        <v>10036.05259678109</v>
       </c>
       <c r="E55">
-        <v>158839.5834916681</v>
+        <v>127622.3866086352</v>
       </c>
       <c r="F55">
-        <v>251.0466608474339</v>
+        <v>56.53261304409327</v>
       </c>
       <c r="G55">
-        <v>709.1222754210157</v>
+        <v>640.5442456003431</v>
       </c>
       <c r="H55">
-        <v>301000.969006779</v>
+        <v>301001.0721171172</v>
       </c>
       <c r="I55">
-        <v>1290183</v>
+        <v>1269815</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>948513.0016856617</v>
+        <v>918799.3047878075</v>
       </c>
       <c r="O55">
-        <v>171074.8909871217</v>
+        <v>137658.4392054163</v>
       </c>
       <c r="P55">
-        <v>960.1689362684497</v>
+        <v>697.0768586444364</v>
       </c>
       <c r="Q55">
-        <v>1510.081750590316</v>
+        <v>1995.800319250412</v>
       </c>
       <c r="R55">
-        <v>6095.230555937064</v>
+        <v>5100.08783828477</v>
       </c>
       <c r="S55">
-        <v>7605.31230652738</v>
+        <v>7095.888157535183</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485904.031990547</v>
+        <v>485904.0169851684</v>
       </c>
       <c r="B56">
-        <v>118749.7291957349</v>
+        <v>112778.1019086252</v>
       </c>
       <c r="C56">
-        <v>1495491.525560495</v>
+        <v>1370072.95199698</v>
       </c>
       <c r="D56">
-        <v>17658.88617646651</v>
+        <v>15281.29012340797</v>
       </c>
       <c r="E56">
-        <v>219717.367895409</v>
+        <v>207320.053396206</v>
       </c>
       <c r="F56">
-        <v>322.9062663048047</v>
+        <v>81.70873571070507</v>
       </c>
       <c r="G56">
-        <v>2516.835494974971</v>
+        <v>1165.603317850642</v>
       </c>
       <c r="H56">
-        <v>485904.031990547</v>
+        <v>485904.0169851684</v>
       </c>
       <c r="I56">
-        <v>1979273</v>
+        <v>2054865</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1614241.25475623</v>
+        <v>1482851.053905605</v>
       </c>
       <c r="O56">
-        <v>237376.2540718755</v>
+        <v>222601.3435196139</v>
       </c>
       <c r="P56">
-        <v>2839.741761279776</v>
+        <v>1247.312053561347</v>
       </c>
       <c r="Q56">
-        <v>3504.168191582916</v>
+        <v>3517.997491050396</v>
       </c>
       <c r="R56">
-        <v>11455.41848662838</v>
+        <v>9092.287660532396</v>
       </c>
       <c r="S56">
-        <v>14959.5866782113</v>
+        <v>12610.28515158279</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.0751271627</v>
+        <v>757270.9821966343</v>
       </c>
       <c r="B57">
-        <v>183013.1456014233</v>
+        <v>179632.0166276063</v>
       </c>
       <c r="C57">
-        <v>2170264.280673449</v>
+        <v>2187842.046906917</v>
       </c>
       <c r="D57">
-        <v>28816.73231839946</v>
+        <v>27264.51791443915</v>
       </c>
       <c r="E57">
-        <v>375620.0737717628</v>
+        <v>335102.6226803497</v>
       </c>
       <c r="F57">
-        <v>94.57606338986895</v>
+        <v>534.4479378618165</v>
       </c>
       <c r="G57">
-        <v>1067.880035840218</v>
+        <v>2586.827711278247</v>
       </c>
       <c r="H57">
-        <v>757271.0751271627</v>
+        <v>757270.9821966343</v>
       </c>
       <c r="I57">
-        <v>3149223</v>
+        <v>3011792</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2353277.426274873</v>
+        <v>2367474.063534524</v>
       </c>
       <c r="O57">
-        <v>404436.8060901623</v>
+        <v>362367.1405947888</v>
       </c>
       <c r="P57">
-        <v>1162.456099230087</v>
+        <v>3121.275649140063</v>
       </c>
       <c r="Q57">
-        <v>6012.799711722668</v>
+        <v>5810.958918778481</v>
       </c>
       <c r="R57">
-        <v>16871.55621081977</v>
+        <v>15853.96965679985</v>
       </c>
       <c r="S57">
-        <v>22884.35592254244</v>
+        <v>21664.92857557833</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651328.9693218382</v>
+        <v>651329.0994428548</v>
       </c>
       <c r="B58">
-        <v>153426.4780955772</v>
+        <v>167272.5441542417</v>
       </c>
       <c r="C58">
-        <v>1864417.148320286</v>
+        <v>1877417.579115029</v>
       </c>
       <c r="D58">
-        <v>20577.45062085289</v>
+        <v>15651.90309771607</v>
       </c>
       <c r="E58">
-        <v>284350.9942275806</v>
+        <v>267715.6667720688</v>
       </c>
       <c r="F58">
-        <v>1108.0470119046</v>
+        <v>262.1606561381557</v>
       </c>
       <c r="G58">
-        <v>3353.090001138311</v>
+        <v>1476.3665880035</v>
       </c>
       <c r="H58">
-        <v>651328.9693218382</v>
+        <v>651329.0994428548</v>
       </c>
       <c r="I58">
-        <v>2767924</v>
+        <v>2817385</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2017843.626415864</v>
+        <v>2044690.12326927</v>
       </c>
       <c r="O58">
-        <v>304928.4448484334</v>
+        <v>283367.5698697849</v>
       </c>
       <c r="P58">
-        <v>4461.13701304291</v>
+        <v>1738.527244141656</v>
       </c>
       <c r="Q58">
-        <v>6029.52217966696</v>
+        <v>4524.424246224119</v>
       </c>
       <c r="R58">
-        <v>18313.12307672405</v>
+        <v>12995.01812193002</v>
       </c>
       <c r="S58">
-        <v>24342.64525639101</v>
+        <v>17519.44236815414</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889111.9005574724</v>
+        <v>889112.0907625639</v>
       </c>
       <c r="B59">
-        <v>206038.1111848459</v>
+        <v>215082.5416986555</v>
       </c>
       <c r="C59">
-        <v>2474159.427508507</v>
+        <v>2529216.823267535</v>
       </c>
       <c r="D59">
-        <v>27805.68935236627</v>
+        <v>29555.12508318899</v>
       </c>
       <c r="E59">
-        <v>372898.3244450924</v>
+        <v>404434.1030311379</v>
       </c>
       <c r="F59">
-        <v>741.6820166878348</v>
+        <v>657.8169010513435</v>
       </c>
       <c r="G59">
-        <v>3021.888932134336</v>
+        <v>3860.35226550675</v>
       </c>
       <c r="H59">
-        <v>889111.9005574724</v>
+        <v>889112.0907625639</v>
       </c>
       <c r="I59">
-        <v>3857152</v>
+        <v>3738021</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2680197.538693353</v>
+        <v>2744299.364966191</v>
       </c>
       <c r="O59">
-        <v>400704.0137974586</v>
+        <v>433989.2281143269</v>
       </c>
       <c r="P59">
-        <v>3763.570948822171</v>
+        <v>4518.169166558094</v>
       </c>
       <c r="Q59">
-        <v>3331.204412230587</v>
+        <v>8182.185447644327</v>
       </c>
       <c r="R59">
-        <v>11430.65263624227</v>
+        <v>20631.26351888647</v>
       </c>
       <c r="S59">
-        <v>14761.85704847285</v>
+        <v>28813.4489665308</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9195527341</v>
+        <v>465365.0157992207</v>
       </c>
       <c r="B60">
-        <v>114265.6362385326</v>
+        <v>120213.7972789878</v>
       </c>
       <c r="C60">
-        <v>1379140.402440111</v>
+        <v>1417599.669259571</v>
       </c>
       <c r="D60">
-        <v>17995.74793536063</v>
+        <v>15499.58598286446</v>
       </c>
       <c r="E60">
-        <v>197049.4750255665</v>
+        <v>203461.044050392</v>
       </c>
       <c r="F60">
-        <v>61.25274678193463</v>
+        <v>398.4079471392009</v>
       </c>
       <c r="G60">
-        <v>913.7450055052101</v>
+        <v>1959.50693434121</v>
       </c>
       <c r="H60">
-        <v>465364.9195527341</v>
+        <v>465365.0157992207</v>
       </c>
       <c r="I60">
-        <v>1966532</v>
+        <v>1945356</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1493406.038678644</v>
+        <v>1537813.466538559</v>
       </c>
       <c r="O60">
-        <v>215045.2229609271</v>
+        <v>218960.6300332565</v>
       </c>
       <c r="P60">
-        <v>974.9977522871448</v>
+        <v>2357.914881480411</v>
       </c>
       <c r="Q60">
-        <v>2800.638795576128</v>
+        <v>3602.008878380466</v>
       </c>
       <c r="R60">
-        <v>8954.593391191134</v>
+        <v>9062.281372197083</v>
       </c>
       <c r="S60">
-        <v>11755.23218676726</v>
+        <v>12664.29025057755</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340624.1054579837</v>
+        <v>340623.9654155091</v>
       </c>
       <c r="B61">
-        <v>82384.28892122</v>
+        <v>85708.09898158402</v>
       </c>
       <c r="C61">
-        <v>991568.824439587</v>
+        <v>993593.3484978916</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>161238.7516369905</v>
+        <v>152713.7959089173</v>
       </c>
       <c r="F61">
-        <v>189.8264818200677</v>
+        <v>86.46370400778942</v>
       </c>
       <c r="G61">
-        <v>511.1628299124572</v>
+        <v>363.8009416007321</v>
       </c>
       <c r="H61">
-        <v>340624.1054579837</v>
+        <v>340623.9654155091</v>
       </c>
       <c r="I61">
-        <v>1529027</v>
+        <v>1484973</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1073953.113360807</v>
+        <v>1079301.447479476</v>
       </c>
       <c r="O61">
-        <v>161238.7516369905</v>
+        <v>152713.7959089173</v>
       </c>
       <c r="P61">
-        <v>700.9893117325249</v>
+        <v>450.2646456085216</v>
       </c>
       <c r="Q61">
-        <v>1656.546862335441</v>
+        <v>2448.63551464061</v>
       </c>
       <c r="R61">
-        <v>5294.093320154589</v>
+        <v>6916.825198359751</v>
       </c>
       <c r="S61">
-        <v>6950.64018249003</v>
+        <v>9365.460713000361</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469690.8943027766</v>
+        <v>469691.0707611142</v>
       </c>
       <c r="B62">
-        <v>116697.2816602297</v>
+        <v>115430.6516200179</v>
       </c>
       <c r="C62">
-        <v>1391708.138592092</v>
+        <v>1381061.060066629</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>217129.0061584429</v>
+        <v>253305.6326955963</v>
       </c>
       <c r="F62">
-        <v>328.8918250665291</v>
+        <v>133.6315257302832</v>
       </c>
       <c r="G62">
-        <v>1262.038611426011</v>
+        <v>711.436102750181</v>
       </c>
       <c r="H62">
-        <v>469690.8943027766</v>
+        <v>469691.0707611142</v>
       </c>
       <c r="I62">
-        <v>1936400</v>
+        <v>2017356</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1508405.420252322</v>
+        <v>1496491.711686647</v>
       </c>
       <c r="O62">
-        <v>217129.0061584429</v>
+        <v>253305.6326955963</v>
       </c>
       <c r="P62">
-        <v>1590.93043649254</v>
+        <v>845.0676284804642</v>
       </c>
       <c r="Q62">
-        <v>2856.625953711105</v>
+        <v>3783.112232557294</v>
       </c>
       <c r="R62">
-        <v>10023.56711185887</v>
+        <v>11582.76436617099</v>
       </c>
       <c r="S62">
-        <v>12880.19306556998</v>
+        <v>15365.87659872828</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20456.94442576865</v>
+        <v>20457.07881571341</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>64763.86909009487</v>
+        <v>62643.28033709099</v>
       </c>
       <c r="D63">
-        <v>631.2440873664234</v>
+        <v>607.5713972687361</v>
       </c>
       <c r="E63">
-        <v>10153.72816688293</v>
+        <v>8601.201446296898</v>
       </c>
       <c r="F63">
-        <v>1.039507971276847</v>
+        <v>8.830505065067637</v>
       </c>
       <c r="G63">
-        <v>56.81306617695323</v>
+        <v>50.35960915093202</v>
       </c>
       <c r="H63">
-        <v>20456.94442576865</v>
+        <v>20457.07881571341</v>
       </c>
       <c r="I63">
-        <v>92812</v>
+        <v>86161</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>64763.86909009487</v>
+        <v>62643.28033709099</v>
       </c>
       <c r="O63">
-        <v>10784.97225424936</v>
+        <v>9208.772843565634</v>
       </c>
       <c r="P63">
-        <v>57.85257414823008</v>
+        <v>59.19011421599966</v>
       </c>
       <c r="Q63">
-        <v>105.4955846000936</v>
+        <v>179.6035711039599</v>
       </c>
       <c r="R63">
-        <v>338.5449885984089</v>
+        <v>318.5039471297917</v>
       </c>
       <c r="S63">
-        <v>444.0405731985024</v>
+        <v>498.1075182337517</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20630.92834892862</v>
+        <v>20630.92427914101</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>64054.90203500098</v>
+        <v>62026.81295389847</v>
       </c>
       <c r="D64">
-        <v>639.9854589811999</v>
+        <v>628.6341686147642</v>
       </c>
       <c r="E64">
-        <v>8488.009318989445</v>
+        <v>8306.357732057244</v>
       </c>
       <c r="F64">
-        <v>0.8583752544447431</v>
+        <v>0.8198783325331732</v>
       </c>
       <c r="G64">
-        <v>46.34216041905271</v>
+        <v>48.35748508199313</v>
       </c>
       <c r="H64">
-        <v>20630.92834892862</v>
+        <v>20630.92427914101</v>
       </c>
       <c r="I64">
-        <v>95966</v>
+        <v>94281</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>64054.90203500098</v>
+        <v>62026.81295389847</v>
       </c>
       <c r="O64">
-        <v>9127.994777970645</v>
+        <v>8934.991900672008</v>
       </c>
       <c r="P64">
-        <v>47.20053567349746</v>
+        <v>49.1773634145263</v>
       </c>
       <c r="Q64">
-        <v>159.7289079609306</v>
+        <v>129.4935234145833</v>
       </c>
       <c r="R64">
-        <v>391.6859297850924</v>
+        <v>363.7961369902872</v>
       </c>
       <c r="S64">
-        <v>551.4148377460231</v>
+        <v>493.2896604048705</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.989044554338</v>
+        <v>1768.028409260559</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5615.306712634786</v>
+        <v>5503.227396951193</v>
       </c>
       <c r="D65">
-        <v>47.27806940696605</v>
+        <v>54.33893144100592</v>
       </c>
       <c r="E65">
-        <v>657.4284203161446</v>
+        <v>707.50838503585</v>
       </c>
       <c r="F65">
-        <v>0.9331391980514118</v>
+        <v>0.9337120821784417</v>
       </c>
       <c r="G65">
-        <v>5.572968207270989</v>
+        <v>2.215280959955842</v>
       </c>
       <c r="H65">
-        <v>1767.989044554338</v>
+        <v>1768.028409260559</v>
       </c>
       <c r="I65">
-        <v>7680</v>
+        <v>8083</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5615.306712634786</v>
+        <v>5503.227396951193</v>
       </c>
       <c r="O65">
-        <v>704.7064897231107</v>
+        <v>761.8473164768559</v>
       </c>
       <c r="P65">
-        <v>6.506107405322401</v>
+        <v>3.148993042134284</v>
       </c>
       <c r="Q65">
-        <v>16.9999944022125</v>
+        <v>14.62691313361463</v>
       </c>
       <c r="R65">
-        <v>26.97245876250026</v>
+        <v>32.32179378626969</v>
       </c>
       <c r="S65">
-        <v>43.97245316471276</v>
+        <v>46.94870691988433</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>122.9928945555448</v>
+        <v>122.998363237286</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>372.5451175065842</v>
+        <v>380.2163885566054</v>
       </c>
       <c r="D66">
-        <v>4.200208302127297</v>
+        <v>5.62084058934801</v>
       </c>
       <c r="E66">
-        <v>45.5051137848102</v>
+        <v>57.89193738977127</v>
       </c>
       <c r="F66">
-        <v>0.07048485549444203</v>
+        <v>0.1260273853303242</v>
       </c>
       <c r="G66">
-        <v>0.5564155813745889</v>
+        <v>0.6286995144668716</v>
       </c>
       <c r="H66">
-        <v>122.9928945555448</v>
+        <v>122.998363237286</v>
       </c>
       <c r="I66">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>372.5451175065842</v>
+        <v>380.2163885566054</v>
       </c>
       <c r="O66">
-        <v>49.7053220869375</v>
+        <v>63.51277797911928</v>
       </c>
       <c r="P66">
-        <v>0.626900436869031</v>
+        <v>0.7547268997971958</v>
       </c>
       <c r="Q66">
-        <v>0.8780959633058156</v>
+        <v>0.8632418523903511</v>
       </c>
       <c r="R66">
-        <v>1.838217486181609</v>
+        <v>2.346842412461636</v>
       </c>
       <c r="S66">
-        <v>2.716313449487424</v>
+        <v>3.210084264851987</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.0274498861178</v>
+        <v>202.9933626480578</v>
       </c>
       <c r="B67">
-        <v>47.82982345069111</v>
+        <v>48.04622831049937</v>
       </c>
       <c r="C67">
-        <v>320.2313578142143</v>
+        <v>329.3763649026499</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>126.8521996275272</v>
+        <v>99.85411994172128</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.0274498861178</v>
+        <v>202.9933626480578</v>
       </c>
       <c r="I67">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>368.0611812649054</v>
+        <v>377.4225932131492</v>
       </c>
       <c r="O67">
-        <v>126.8521996275272</v>
+        <v>99.85411994172128</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.718448054944948</v>
+        <v>2.081819738395632</v>
       </c>
       <c r="R67">
-        <v>13.69354130525953</v>
+        <v>14.74452910884024</v>
       </c>
       <c r="S67">
-        <v>15.41198936020448</v>
+        <v>16.82634884723587</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>262.0787641082118</v>
+        <v>261.9680420876277</v>
       </c>
       <c r="B68">
-        <v>62.12365568780071</v>
+        <v>59.96903855907806</v>
       </c>
       <c r="C68">
-        <v>435.8869283268593</v>
+        <v>414.0920200346915</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>156.5531200508273</v>
+        <v>164.3905568255421</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>262.0787641082118</v>
+        <v>261.9680420876277</v>
       </c>
       <c r="I68">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>498.01058401466</v>
+        <v>474.0610585937695</v>
       </c>
       <c r="O68">
-        <v>156.5531200508273</v>
+        <v>164.3905568255421</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.458063455202894</v>
+        <v>1.541951185726289</v>
       </c>
       <c r="R68">
-        <v>20.58123282895536</v>
+        <v>16.05267121281879</v>
       </c>
       <c r="S68">
-        <v>23.03929628415825</v>
+        <v>17.59462239854508</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2405.975627217055</v>
+        <v>2406.054383406158</v>
       </c>
       <c r="B69">
-        <v>552.6710004455157</v>
+        <v>563.6922870701434</v>
       </c>
       <c r="C69">
-        <v>3813.114147731704</v>
+        <v>3755.403293621266</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1439.927315793525</v>
+        <v>1517.910737445474</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2405.975627217055</v>
+        <v>2406.054383406158</v>
       </c>
       <c r="I69">
-        <v>7670</v>
+        <v>7684</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4365.78514817722</v>
+        <v>4319.095580691409</v>
       </c>
       <c r="O69">
-        <v>1439.927315793525</v>
+        <v>1517.910737445474</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>13.19624910865897</v>
+        <v>16.27354486640564</v>
       </c>
       <c r="R69">
-        <v>170.9305557248473</v>
+        <v>150.5750435946051</v>
       </c>
       <c r="S69">
-        <v>184.1268048335062</v>
+        <v>166.8485884610107</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.890636538353</v>
+        <v>1502.939091448259</v>
       </c>
       <c r="B70">
-        <v>351.2221232351509</v>
+        <v>346.1304387945328</v>
       </c>
       <c r="C70">
-        <v>2398.112207360781</v>
+        <v>2357.79021072645</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>961.5753535322035</v>
+        <v>899.597229636104</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.890636538353</v>
+        <v>1502.939091448259</v>
       </c>
       <c r="I70">
-        <v>5017</v>
+        <v>4777</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2749.334330595932</v>
+        <v>2703.920649520983</v>
       </c>
       <c r="O70">
-        <v>961.5753535322035</v>
+        <v>899.597229636104</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>6.254550542977583</v>
+        <v>13.65996694909214</v>
       </c>
       <c r="R70">
-        <v>85.25117890185469</v>
+        <v>110.0463349721127</v>
       </c>
       <c r="S70">
-        <v>91.50572944483227</v>
+        <v>123.7063019212048</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.06751513295</v>
+        <v>19900.88449215342</v>
       </c>
       <c r="B71">
-        <v>4740.829215993213</v>
+        <v>4458.592155115454</v>
       </c>
       <c r="C71">
-        <v>32017.07663396796</v>
+        <v>32655.12591299741</v>
       </c>
       <c r="D71">
-        <v>784.5537899060965</v>
+        <v>655.1287601996409</v>
       </c>
       <c r="E71">
-        <v>12139.4524771627</v>
+        <v>12493.83245604135</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.06751513295</v>
+        <v>19900.88449215342</v>
       </c>
       <c r="I71">
-        <v>65387</v>
+        <v>63255</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36757.90584996117</v>
+        <v>37113.71806811287</v>
       </c>
       <c r="O71">
-        <v>12924.0062670688</v>
+        <v>13148.96121624099</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>168.5584857738802</v>
+        <v>151.4382529930928</v>
       </c>
       <c r="R71">
-        <v>1228.140693010388</v>
+        <v>1288.068111889672</v>
       </c>
       <c r="S71">
-        <v>1396.699178784268</v>
+        <v>1439.506364882765</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.01538033224</v>
+        <v>41982.13407594898</v>
       </c>
       <c r="B72">
-        <v>9583.457932845817</v>
+        <v>9141.3888587127</v>
       </c>
       <c r="C72">
-        <v>67776.34846867135</v>
+        <v>66654.47659296685</v>
       </c>
       <c r="D72">
-        <v>1345.891898374135</v>
+        <v>1194.414503576095</v>
       </c>
       <c r="E72">
-        <v>24036.07604625254</v>
+        <v>22336.95894427201</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.01538033224</v>
+        <v>41982.13407594898</v>
       </c>
       <c r="I72">
-        <v>133564</v>
+        <v>131461</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>77359.80640151717</v>
+        <v>75795.86545167955</v>
       </c>
       <c r="O72">
-        <v>25381.96794462668</v>
+        <v>23531.3734478481</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>278.0089648798886</v>
+        <v>313.8691796293344</v>
       </c>
       <c r="R72">
-        <v>3087.236968674235</v>
+        <v>2698.290741016732</v>
       </c>
       <c r="S72">
-        <v>3365.245933554123</v>
+        <v>3012.159920646066</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.85338054923</v>
+        <v>44204.87498350962</v>
       </c>
       <c r="B73">
-        <v>9828.187103308779</v>
+        <v>9265.599180811752</v>
       </c>
       <c r="C73">
-        <v>71370.73877914314</v>
+        <v>69539.56163264603</v>
       </c>
       <c r="D73">
-        <v>1390.342852883442</v>
+        <v>1487.245271479663</v>
       </c>
       <c r="E73">
-        <v>24562.56751258858</v>
+        <v>26714.63006900196</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.85338054923</v>
+        <v>44204.87498350962</v>
       </c>
       <c r="I73">
-        <v>136090</v>
+        <v>140163</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>81198.92588245192</v>
+        <v>78805.16081345778</v>
       </c>
       <c r="O73">
-        <v>25952.91036547202</v>
+        <v>28201.87534048163</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>353.5122386231126</v>
+        <v>376.4016837467578</v>
       </c>
       <c r="R73">
-        <v>2950.542579584638</v>
+        <v>2914.811188227393</v>
       </c>
       <c r="S73">
-        <v>3304.05481820775</v>
+        <v>3291.212871974151</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78746.03494366574</v>
+        <v>78745.92649093668</v>
       </c>
       <c r="B74">
-        <v>18493.21874172028</v>
+        <v>17228.61157113896</v>
       </c>
       <c r="C74">
-        <v>128916.1869421569</v>
+        <v>120900.276559738</v>
       </c>
       <c r="D74">
-        <v>2383.397015011817</v>
+        <v>2668.273651307711</v>
       </c>
       <c r="E74">
-        <v>41753.82414078723</v>
+        <v>43316.26098318793</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78746.03494366574</v>
+        <v>78745.92649093668</v>
       </c>
       <c r="I74">
-        <v>243929</v>
+        <v>260714</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>147409.4056838772</v>
+        <v>138128.888130877</v>
       </c>
       <c r="O74">
-        <v>44137.22115579905</v>
+        <v>45984.53463449564</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>647.6355681075473</v>
+        <v>578.0494723956981</v>
       </c>
       <c r="R74">
-        <v>6863.756184734258</v>
+        <v>4947.544917926509</v>
       </c>
       <c r="S74">
-        <v>7511.391752841805</v>
+        <v>5525.594390322207</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.03451598145</v>
+        <v>38060.08744555563</v>
       </c>
       <c r="B75">
-        <v>8936.680336981695</v>
+        <v>8854.518955125501</v>
       </c>
       <c r="C75">
-        <v>61678.21818076806</v>
+        <v>59504.51486033944</v>
       </c>
       <c r="D75">
-        <v>1544.250111763194</v>
+        <v>1219.524338438671</v>
       </c>
       <c r="E75">
-        <v>23759.46736235049</v>
+        <v>22553.83227211995</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.03451598145</v>
+        <v>38060.08744555563</v>
       </c>
       <c r="I75">
-        <v>120965</v>
+        <v>123846</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>70614.89851774975</v>
+        <v>68359.03381546494</v>
       </c>
       <c r="O75">
-        <v>25303.71747411369</v>
+        <v>23773.35661055862</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>201.8999885911252</v>
+        <v>252.5486467524561</v>
       </c>
       <c r="R75">
-        <v>2139.948671077108</v>
+        <v>2315.360612790887</v>
       </c>
       <c r="S75">
-        <v>2341.848659668233</v>
+        <v>2567.909259543343</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79351.15010542401</v>
+        <v>79350.88428265225</v>
       </c>
       <c r="B76">
-        <v>18061.15189925356</v>
+        <v>17767.50109854697</v>
       </c>
       <c r="C76">
-        <v>128971.5785589768</v>
+        <v>125561.6506951844</v>
       </c>
       <c r="D76">
-        <v>2293.988373982038</v>
+        <v>2947.457641689781</v>
       </c>
       <c r="E76">
-        <v>44325.35669829108</v>
+        <v>50205.89978691724</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79351.15010542401</v>
+        <v>79350.88428265225</v>
       </c>
       <c r="I76">
-        <v>264290</v>
+        <v>257100</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>147032.7304582304</v>
+        <v>143329.1517937314</v>
       </c>
       <c r="O76">
-        <v>46619.34507227311</v>
+        <v>53153.35742860702</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>501.835696409115</v>
+        <v>541.6606827197443</v>
       </c>
       <c r="R76">
-        <v>4669.496452049195</v>
+        <v>5361.886442314746</v>
       </c>
       <c r="S76">
-        <v>5171.33214845831</v>
+        <v>5903.547125034491</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.88594723513</v>
+        <v>45068.08915018599</v>
       </c>
       <c r="B77">
-        <v>10733.77742922093</v>
+        <v>10853.50577731222</v>
       </c>
       <c r="C77">
-        <v>71950.45784764356</v>
+        <v>72308.83293729204</v>
       </c>
       <c r="D77">
-        <v>1601.618203725078</v>
+        <v>1518.008256159804</v>
       </c>
       <c r="E77">
-        <v>28656.99770800404</v>
+        <v>27515.58963906452</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.88594723513</v>
+        <v>45068.08915018599</v>
       </c>
       <c r="I77">
-        <v>147402</v>
+        <v>150098</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>82684.23527686448</v>
+        <v>83162.33871460427</v>
       </c>
       <c r="O77">
-        <v>30258.61591172912</v>
+        <v>29033.59789522432</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>238.1105027926058</v>
+        <v>343.3562892854563</v>
       </c>
       <c r="R77">
-        <v>3030.21750066703</v>
+        <v>2671.076661056922</v>
       </c>
       <c r="S77">
-        <v>3268.328003459636</v>
+        <v>3014.432950342378</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14294.96078509342</v>
+        <v>14295.00731466302</v>
       </c>
       <c r="B78">
-        <v>3133.943323080938</v>
+        <v>3410.986907749099</v>
       </c>
       <c r="C78">
-        <v>22164.31710071307</v>
+        <v>23065.08502275333</v>
       </c>
       <c r="D78">
-        <v>481.2257167443021</v>
+        <v>489.9936563335179</v>
       </c>
       <c r="E78">
-        <v>8234.883124433816</v>
+        <v>7663.27108383927</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14294.96078509342</v>
+        <v>14295.00731466302</v>
       </c>
       <c r="I78">
-        <v>48791</v>
+        <v>46027</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>25298.26042379401</v>
+        <v>26476.07193050243</v>
       </c>
       <c r="O78">
-        <v>8716.108841178118</v>
+        <v>8153.264740172787</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>100.9015680924891</v>
+        <v>121.7672549794831</v>
       </c>
       <c r="R78">
-        <v>811.5375158431511</v>
+        <v>960.9687287342888</v>
       </c>
       <c r="S78">
-        <v>912.4390839356403</v>
+        <v>1082.735983713772</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27737.9400379009</v>
+        <v>27738.03673228447</v>
       </c>
       <c r="B79">
-        <v>6345.024963565022</v>
+        <v>6431.165294868238</v>
       </c>
       <c r="C79">
-        <v>44480.98757409937</v>
+        <v>46276.46293354764</v>
       </c>
       <c r="D79">
-        <v>954.4165513696595</v>
+        <v>1055.525044613144</v>
       </c>
       <c r="E79">
-        <v>14285.27026397793</v>
+        <v>17288.17113427193</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27737.9400379009</v>
+        <v>27738.03673228447</v>
       </c>
       <c r="I79">
-        <v>89909</v>
+        <v>90093</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>50826.01253766439</v>
+        <v>52707.62822841587</v>
       </c>
       <c r="O79">
-        <v>15239.68681534759</v>
+        <v>18343.69617888507</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>196.7534858584706</v>
+        <v>147.3032053916051</v>
       </c>
       <c r="R79">
-        <v>1992.931409895165</v>
+        <v>1664.851578894787</v>
       </c>
       <c r="S79">
-        <v>2189.684895753635</v>
+        <v>1812.154784286392</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2819.999169986422</v>
+        <v>2820.0589675082</v>
       </c>
       <c r="B80">
-        <v>664.1422922112567</v>
+        <v>649.7954541000366</v>
       </c>
       <c r="C80">
-        <v>4620.028200516765</v>
+        <v>4480.49523158038</v>
       </c>
       <c r="D80">
-        <v>92.86999146020662</v>
+        <v>111.3003499595893</v>
       </c>
       <c r="E80">
-        <v>1654.064482109681</v>
+        <v>1594.067250306594</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2819.999169986422</v>
+        <v>2820.0589675082</v>
       </c>
       <c r="I80">
-        <v>9123</v>
+        <v>9052</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5284.170492728022</v>
+        <v>5130.290685680417</v>
       </c>
       <c r="O80">
-        <v>1746.934473569887</v>
+        <v>1705.367600266183</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>25.82485081113185</v>
+        <v>17.13980512224361</v>
       </c>
       <c r="R80">
-        <v>204.484736536582</v>
+        <v>184.5907618729901</v>
       </c>
       <c r="S80">
-        <v>230.3095873477138</v>
+        <v>201.7305669952337</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.90407833535</v>
+        <v>3590.890714043369</v>
       </c>
       <c r="B81">
-        <v>875.1278478623714</v>
+        <v>844.423395191551</v>
       </c>
       <c r="C81">
-        <v>5813.162816564549</v>
+        <v>5816.701849732523</v>
       </c>
       <c r="D81">
-        <v>123.2110481971519</v>
+        <v>115.8633401729557</v>
       </c>
       <c r="E81">
-        <v>1951.348628582767</v>
+        <v>2091.025617748324</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.90407833535</v>
+        <v>3590.890714043369</v>
       </c>
       <c r="I81">
-        <v>11681</v>
+        <v>11528</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6688.290664426921</v>
+        <v>6661.125244924075</v>
       </c>
       <c r="O81">
-        <v>2074.559676779918</v>
+        <v>2206.88895792128</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31.77716453597087</v>
+        <v>28.96600936214166</v>
       </c>
       <c r="R81">
-        <v>233.1170698968674</v>
+        <v>259.2132659184726</v>
       </c>
       <c r="S81">
-        <v>264.8942344328383</v>
+        <v>288.1792752806143</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.888303812426</v>
+        <v>1156.069945444919</v>
       </c>
       <c r="B82">
-        <v>264.9622596736284</v>
+        <v>266.0218741681949</v>
       </c>
       <c r="C82">
-        <v>1880.1373294393</v>
+        <v>1827.996930690458</v>
       </c>
       <c r="D82">
-        <v>34.77689527548635</v>
+        <v>37.32423203726724</v>
       </c>
       <c r="E82">
-        <v>623.8112795868625</v>
+        <v>692.0486906683816</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.888303812426</v>
+        <v>1156.069945444919</v>
       </c>
       <c r="I82">
-        <v>3612</v>
+        <v>3511</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2145.099589112928</v>
+        <v>2094.018804858652</v>
       </c>
       <c r="O82">
-        <v>658.5881748623489</v>
+        <v>729.3729227056489</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>5.810525783177495</v>
+        <v>5.99305176649115</v>
       </c>
       <c r="R82">
-        <v>70.09388198553805</v>
+        <v>79.49562683836284</v>
       </c>
       <c r="S82">
-        <v>75.90440776871554</v>
+        <v>85.48867860485399</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.92834673311</v>
+        <v>13237.8825853023</v>
       </c>
       <c r="B83">
-        <v>1940.214799714593</v>
+        <v>1848.404369482694</v>
       </c>
       <c r="C83">
-        <v>22492.21248133515</v>
+        <v>21983.57857743091</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>8246.424876439038</v>
+        <v>7033.174888637655</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.92834673311</v>
+        <v>13237.8825853023</v>
       </c>
       <c r="I83">
-        <v>42434</v>
+        <v>43361</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24432.42728104974</v>
+        <v>23831.98294691361</v>
       </c>
       <c r="O83">
-        <v>8246.424876439038</v>
+        <v>7033.174888637655</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>19.08711350933449</v>
+        <v>3.49397052465055</v>
       </c>
       <c r="R83">
-        <v>887.7184828124462</v>
+        <v>1050.055934281571</v>
       </c>
       <c r="S83">
-        <v>906.8055963217806</v>
+        <v>1053.549904806222</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.089157977602</v>
+        <v>6788.029689421397</v>
       </c>
       <c r="B84">
-        <v>1057.220603037741</v>
+        <v>948.8711301328807</v>
       </c>
       <c r="C84">
-        <v>11479.33077994228</v>
+        <v>11234.0961454566</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4450.552398470552</v>
+        <v>3935.646888317601</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.089157977602</v>
+        <v>6788.029689421397</v>
       </c>
       <c r="I84">
-        <v>21749</v>
+        <v>21381</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12536.55138298002</v>
+        <v>12182.96727558948</v>
       </c>
       <c r="O84">
-        <v>4450.552398470552</v>
+        <v>3935.646888317601</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>8.010198873856917</v>
+        <v>3.555138927312924</v>
       </c>
       <c r="R84">
-        <v>475.2981484597267</v>
+        <v>505.6709170672806</v>
       </c>
       <c r="S84">
-        <v>483.3083473335836</v>
+        <v>509.2260559945935</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.135749962434</v>
+        <v>1508.134118996844</v>
       </c>
       <c r="B85">
-        <v>217.9063905706104</v>
+        <v>224.1218206306422</v>
       </c>
       <c r="C85">
-        <v>2484.001375067632</v>
+        <v>2569.070873671901</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>934.8385071826912</v>
+        <v>1058.493575356714</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.135749962434</v>
+        <v>1508.134118996844</v>
       </c>
       <c r="I85">
-        <v>4938</v>
+        <v>4785</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2701.907765638242</v>
+        <v>2793.192694302543</v>
       </c>
       <c r="O85">
-        <v>934.8385071826912</v>
+        <v>1058.493575356714</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.91693640458844</v>
+        <v>0.9890762914556062</v>
       </c>
       <c r="R85">
-        <v>131.9105493888531</v>
+        <v>106.9303397823497</v>
       </c>
       <c r="S85">
-        <v>133.8274857934415</v>
+        <v>107.9194160738053</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.91722405877</v>
+        <v>25213.03350943356</v>
       </c>
       <c r="B86">
-        <v>3492.848210134929</v>
+        <v>3733.889495977634</v>
       </c>
       <c r="C86">
-        <v>42835.27768193383</v>
+        <v>42966.0144767714</v>
       </c>
       <c r="D86">
-        <v>636.3021409714728</v>
+        <v>734.664433180403</v>
       </c>
       <c r="E86">
-        <v>15917.88989467596</v>
+        <v>14059.26561408111</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.91722405877</v>
+        <v>25213.03350943356</v>
       </c>
       <c r="I86">
-        <v>81365</v>
+        <v>86417</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>46328.12589206876</v>
+        <v>46699.90397274904</v>
       </c>
       <c r="O86">
-        <v>16554.19203564743</v>
+        <v>14793.93004726151</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35.60655728219231</v>
+        <v>27.84382249741833</v>
       </c>
       <c r="R86">
-        <v>2163.226539283599</v>
+        <v>2120.079886211615</v>
       </c>
       <c r="S86">
-        <v>2198.833096565791</v>
+        <v>2147.923708709034</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.038454561878</v>
+        <v>6443.878953104634</v>
       </c>
       <c r="B87">
-        <v>1015.265215871928</v>
+        <v>876.3476817323574</v>
       </c>
       <c r="C87">
-        <v>11193.32919788106</v>
+        <v>10450.48326466447</v>
       </c>
       <c r="D87">
-        <v>171.1292820549543</v>
+        <v>168.4907027139785</v>
       </c>
       <c r="E87">
-        <v>3951.082292628979</v>
+        <v>3447.250834017409</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.038454561878</v>
+        <v>6443.878953104634</v>
       </c>
       <c r="I87">
-        <v>21529</v>
+        <v>20154</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>12208.59441375299</v>
+        <v>11326.83094639683</v>
       </c>
       <c r="O87">
-        <v>4122.211574683934</v>
+        <v>3615.741536731387</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>6.225677146092587</v>
+        <v>7.596159051187325</v>
       </c>
       <c r="R87">
-        <v>453.7076027613729</v>
+        <v>530.5857618958339</v>
       </c>
       <c r="S87">
-        <v>459.9332799074655</v>
+        <v>538.1819209470212</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.07039642909</v>
+        <v>55703.96491480004</v>
       </c>
       <c r="B88">
-        <v>8382.101535069176</v>
+        <v>7644.078941074852</v>
       </c>
       <c r="C88">
-        <v>90404.76795291125</v>
+        <v>91670.73545831753</v>
       </c>
       <c r="D88">
-        <v>885.6132119371345</v>
+        <v>1426.616617902929</v>
       </c>
       <c r="E88">
-        <v>28785.62053771434</v>
+        <v>34623.58754133559</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.07039642909</v>
+        <v>55703.96491480004</v>
       </c>
       <c r="I88">
-        <v>178407</v>
+        <v>178028</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>98786.86948798042</v>
+        <v>99314.81439939239</v>
       </c>
       <c r="O88">
-        <v>29671.23374965147</v>
+        <v>36050.20415923852</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34.31533503246574</v>
+        <v>55.46301467258699</v>
       </c>
       <c r="R88">
-        <v>4228.183055797744</v>
+        <v>3835.906247019337</v>
       </c>
       <c r="S88">
-        <v>4262.498390830209</v>
+        <v>3891.369261691924</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201455.9729092754</v>
+        <v>201455.9633611311</v>
       </c>
       <c r="B89">
-        <v>27431.64614780599</v>
+        <v>28271.79289360373</v>
       </c>
       <c r="C89">
-        <v>332844.0207733345</v>
+        <v>344342.9334240425</v>
       </c>
       <c r="D89">
-        <v>5470.153060194586</v>
+        <v>6018.473652364096</v>
       </c>
       <c r="E89">
-        <v>123360.5768085318</v>
+        <v>121731.6134889478</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201455.9729092754</v>
+        <v>201455.9633611311</v>
       </c>
       <c r="I89">
-        <v>652211</v>
+        <v>638339</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>360275.6669211405</v>
+        <v>372614.7263176463</v>
       </c>
       <c r="O89">
-        <v>128830.7298687264</v>
+        <v>127750.0871413119</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>147.4953959123463</v>
+        <v>290.8982413332852</v>
       </c>
       <c r="R89">
-        <v>13572.46965290762</v>
+        <v>17175.39899165584</v>
       </c>
       <c r="S89">
-        <v>13719.96504881997</v>
+        <v>17466.29723298912</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15486.0533498013</v>
+        <v>15485.94276129041</v>
       </c>
       <c r="B90">
-        <v>2173.197058644627</v>
+        <v>2360.186291180074</v>
       </c>
       <c r="C90">
-        <v>25731.89262103734</v>
+        <v>26197.82658008428</v>
       </c>
       <c r="D90">
-        <v>418.2424285988198</v>
+        <v>360.6495534571239</v>
       </c>
       <c r="E90">
-        <v>9916.143272305964</v>
+        <v>8898.234134097571</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15486.0533498013</v>
+        <v>15485.94276129041</v>
       </c>
       <c r="I90">
-        <v>47331</v>
+        <v>50896</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>27905.08967968197</v>
+        <v>28558.01287126436</v>
       </c>
       <c r="O90">
-        <v>10334.38570090478</v>
+        <v>9258.883687554695</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>14.93500111932901</v>
+        <v>8.991475953493691</v>
       </c>
       <c r="R90">
-        <v>1218.351242502193</v>
+        <v>952.5911260026747</v>
       </c>
       <c r="S90">
-        <v>1233.286243621522</v>
+        <v>961.5826019561685</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.94917062023</v>
+        <v>14403.93870421144</v>
       </c>
       <c r="B91">
-        <v>2113.575103641321</v>
+        <v>2049.653964020485</v>
       </c>
       <c r="C91">
-        <v>24174.74737318099</v>
+        <v>24260.07920343553</v>
       </c>
       <c r="D91">
-        <v>337.0212842861907</v>
+        <v>334.705758450124</v>
       </c>
       <c r="E91">
-        <v>8962.866672667869</v>
+        <v>7712.815804840408</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.94917062023</v>
+        <v>14403.93870421144</v>
       </c>
       <c r="I91">
-        <v>46173</v>
+        <v>46139</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26288.32247682231</v>
+        <v>26309.73316745602</v>
       </c>
       <c r="O91">
-        <v>9299.88795695406</v>
+        <v>8047.521563290533</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>7.712190678772166</v>
+        <v>2.83844847716101</v>
       </c>
       <c r="R91">
-        <v>1103.772807815727</v>
+        <v>1217.298344690051</v>
       </c>
       <c r="S91">
-        <v>1111.4849984945</v>
+        <v>1220.136793167212</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46955.99437653067</v>
+        <v>46956.04544799867</v>
       </c>
       <c r="B92">
-        <v>6444.091022332455</v>
+        <v>6699.849566751025</v>
       </c>
       <c r="C92">
-        <v>78179.38579043989</v>
+        <v>79626.04034230253</v>
       </c>
       <c r="D92">
-        <v>1019.352974789074</v>
+        <v>1091.539167241396</v>
       </c>
       <c r="E92">
-        <v>25044.73268948558</v>
+        <v>25489.93444932788</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46955.99437653067</v>
+        <v>46956.04544799867</v>
       </c>
       <c r="I92">
-        <v>152424</v>
+        <v>150152</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>84623.47681277235</v>
+        <v>86325.88990905356</v>
       </c>
       <c r="O92">
-        <v>26064.08566427466</v>
+        <v>26581.47361656928</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>50.23178862574545</v>
+        <v>30.7472257655824</v>
       </c>
       <c r="R92">
-        <v>3237.589999012904</v>
+        <v>2984.868980979782</v>
       </c>
       <c r="S92">
-        <v>3287.82178763865</v>
+        <v>3015.616206745364</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24420.06957843953</v>
+        <v>24419.97074603072</v>
       </c>
       <c r="B93">
-        <v>3378.927024020389</v>
+        <v>3623.780192743432</v>
       </c>
       <c r="C93">
-        <v>40653.98177028112</v>
+        <v>41611.32950028019</v>
       </c>
       <c r="D93">
-        <v>570.6428684326156</v>
+        <v>478.4591016432315</v>
       </c>
       <c r="E93">
-        <v>15811.80081692417</v>
+        <v>13993.37076156893</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24420.06957843953</v>
+        <v>24419.97074603072</v>
       </c>
       <c r="I93">
-        <v>79661</v>
+        <v>78311</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44032.90879430151</v>
+        <v>45235.10969302362</v>
       </c>
       <c r="O93">
-        <v>16382.44368535679</v>
+        <v>14471.82986321216</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>13.91355203269798</v>
+        <v>15.79357424503636</v>
       </c>
       <c r="R93">
-        <v>1557.4927248297</v>
+        <v>1958.81026981654</v>
       </c>
       <c r="S93">
-        <v>1571.406276862398</v>
+        <v>1974.603844061576</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70372.03191599295</v>
+        <v>70372.03421883767</v>
       </c>
       <c r="B94">
-        <v>10148.20435590678</v>
+        <v>9837.765411202961</v>
       </c>
       <c r="C94">
-        <v>118963.6598378081</v>
+        <v>122479.5368695368</v>
       </c>
       <c r="D94">
-        <v>1832.341240474935</v>
+        <v>1727.753286963715</v>
       </c>
       <c r="E94">
-        <v>40872.00050187113</v>
+        <v>40597.68512122643</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70372.03191599295</v>
+        <v>70372.03421883767</v>
       </c>
       <c r="I94">
-        <v>232555</v>
+        <v>233564</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>129111.8641937149</v>
+        <v>132317.3022807398</v>
       </c>
       <c r="O94">
-        <v>42704.34174234606</v>
+        <v>42325.43840819014</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35.29996360658667</v>
+        <v>70.05454019363572</v>
       </c>
       <c r="R94">
-        <v>5001.512215513361</v>
+        <v>4980.306776815532</v>
       </c>
       <c r="S94">
-        <v>5036.812179119948</v>
+        <v>5050.361317009168</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7574.125453467026</v>
+        <v>7574.101540057674</v>
       </c>
       <c r="B95">
-        <v>1057.281074943609</v>
+        <v>1159.741149799769</v>
       </c>
       <c r="C95">
-        <v>12926.90353577745</v>
+        <v>12703.79647124728</v>
       </c>
       <c r="D95">
-        <v>162.9663310533582</v>
+        <v>172.1111878225206</v>
       </c>
       <c r="E95">
-        <v>4362.306058070742</v>
+        <v>4585.050966979012</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7574.125453467026</v>
+        <v>7574.101540057674</v>
       </c>
       <c r="I95">
-        <v>23938</v>
+        <v>23810</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13984.18461072106</v>
+        <v>13863.53762104705</v>
       </c>
       <c r="O95">
-        <v>4525.272389124099</v>
+        <v>4757.162154801532</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>4.794339646297603</v>
+        <v>5.756582665573883</v>
       </c>
       <c r="R95">
-        <v>565.882710646224</v>
+        <v>632.1257976370061</v>
       </c>
       <c r="S95">
-        <v>570.6770502925217</v>
+        <v>637.88238030258</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.08679907982</v>
+        <v>45038.13154641692</v>
       </c>
       <c r="B96">
-        <v>6469.459402818074</v>
+        <v>6778.836725758288</v>
       </c>
       <c r="C96">
-        <v>77571.5520836154</v>
+        <v>74539.59068469261</v>
       </c>
       <c r="D96">
-        <v>961.5369893393748</v>
+        <v>1171.044794602239</v>
       </c>
       <c r="E96">
-        <v>23477.91846137499</v>
+        <v>28271.06221574257</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.08679907982</v>
+        <v>45038.13154641692</v>
       </c>
       <c r="I96">
-        <v>146046</v>
+        <v>145100</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>84041.01148643348</v>
+        <v>81318.4274104509</v>
       </c>
       <c r="O96">
-        <v>24439.45545071437</v>
+        <v>29442.10701034481</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>11.55585541799326</v>
+        <v>29.9402283359891</v>
       </c>
       <c r="R96">
-        <v>3234.342513715981</v>
+        <v>3588.328673706431</v>
       </c>
       <c r="S96">
-        <v>3245.898369133975</v>
+        <v>3618.26890204242</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10073.13421824124</v>
+        <v>10073.10414707077</v>
       </c>
       <c r="B97">
-        <v>1492.19942335462</v>
+        <v>1571.206466803334</v>
       </c>
       <c r="C97">
-        <v>17301.46894060207</v>
+        <v>17411.06132136903</v>
       </c>
       <c r="D97">
-        <v>232.2384702778683</v>
+        <v>290.3579477512291</v>
       </c>
       <c r="E97">
-        <v>5712.500229352463</v>
+        <v>5827.401355586384</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10073.13421824124</v>
+        <v>10073.10414707077</v>
       </c>
       <c r="I97">
-        <v>32576</v>
+        <v>32770</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18793.66836395669</v>
+        <v>18982.26778817237</v>
       </c>
       <c r="O97">
-        <v>5944.738699630331</v>
+        <v>6117.759303337613</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>10.16660264825917</v>
+        <v>3.087395576929295</v>
       </c>
       <c r="R97">
-        <v>861.7295437165459</v>
+        <v>642.7672171717809</v>
       </c>
       <c r="S97">
-        <v>871.8961463648051</v>
+        <v>645.8546127487102</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.94136241394</v>
+        <v>11375.90572918951</v>
       </c>
       <c r="B98">
-        <v>2133.28499035617</v>
+        <v>2266.288516690742</v>
       </c>
       <c r="C98">
-        <v>18380.52790796572</v>
+        <v>18594.52039586451</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6312.537313318348</v>
+        <v>6792.247482699527</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.94136241394</v>
+        <v>11375.90572918951</v>
       </c>
       <c r="I98">
-        <v>31391</v>
+        <v>31512</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20513.81289832189</v>
+        <v>20860.80891255526</v>
       </c>
       <c r="O98">
-        <v>6312.537313318348</v>
+        <v>6792.247482699527</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>101.1877232855551</v>
+        <v>109.8569612819956</v>
       </c>
       <c r="R98">
-        <v>657.7728746885932</v>
+        <v>806.8972959381683</v>
       </c>
       <c r="S98">
-        <v>758.9605979741483</v>
+        <v>916.7542572201639</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1450.211590694351</v>
+        <v>1507.229724692558</v>
       </c>
       <c r="V98">
-        <v>1450.211590694351</v>
+        <v>1507.229724692558</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93359.1706708882</v>
+        <v>93359.17171331674</v>
       </c>
       <c r="B99">
-        <v>17954.94567542708</v>
+        <v>17012.89517077822</v>
       </c>
       <c r="C99">
-        <v>154413.4030830657</v>
+        <v>151305.2312190884</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>56605.54836026443</v>
+        <v>59634.90249267744</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93359.1706708882</v>
+        <v>93359.17171331674</v>
       </c>
       <c r="I99">
-        <v>247928</v>
+        <v>262849</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>172368.3487584928</v>
+        <v>168318.1263898666</v>
       </c>
       <c r="O99">
-        <v>56605.54836026443</v>
+        <v>59634.90249267744</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>874.4975059299279</v>
+        <v>850.1700096545388</v>
       </c>
       <c r="R99">
-        <v>5448.825442914486</v>
+        <v>5313.287840452585</v>
       </c>
       <c r="S99">
-        <v>6323.322948844414</v>
+        <v>6163.457850107125</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>14214.01819107576</v>
+        <v>11883.48571486443</v>
       </c>
       <c r="V99">
-        <v>14214.01819107576</v>
+        <v>11883.48571486443</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.0171400942</v>
+        <v>20817.08797027238</v>
       </c>
       <c r="B100">
-        <v>4249.173084128109</v>
+        <v>4111.191912717356</v>
       </c>
       <c r="C100">
-        <v>34087.48130381211</v>
+        <v>34313.21110724078</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>13180.76552957711</v>
+        <v>12673.07143290741</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.0171400942</v>
+        <v>20817.08797027238</v>
       </c>
       <c r="I100">
-        <v>60648</v>
+        <v>55585</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>38336.65438794022</v>
+        <v>38424.40301995813</v>
       </c>
       <c r="O100">
-        <v>13180.76552957711</v>
+        <v>12673.07143290741</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>164.147228422072</v>
+        <v>121.590426062657</v>
       </c>
       <c r="R100">
-        <v>1287.507037570597</v>
+        <v>1168.052697307491</v>
       </c>
       <c r="S100">
-        <v>1451.654265992669</v>
+        <v>1289.643123370148</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2629.465263657321</v>
+        <v>3093.485436631745</v>
       </c>
       <c r="V100">
-        <v>2629.465263657321</v>
+        <v>3093.485436631745</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43953.1474099964</v>
+        <v>43952.92735607318</v>
       </c>
       <c r="B101">
-        <v>8643.43532488983</v>
+        <v>8309.454443784374</v>
       </c>
       <c r="C101">
-        <v>72472.37639792523</v>
+        <v>71028.34709595563</v>
       </c>
       <c r="D101">
-        <v>2431.458451892002</v>
+        <v>2069.389871956906</v>
       </c>
       <c r="E101">
-        <v>25043.61487443671</v>
+        <v>23713.52830433497</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43953.1474099964</v>
+        <v>43952.92735607318</v>
       </c>
       <c r="I101">
-        <v>115449</v>
+        <v>121060</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>81115.81172281505</v>
+        <v>79337.80153974</v>
       </c>
       <c r="O101">
-        <v>27475.07332632872</v>
+        <v>25782.91817629188</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>421.1231614417047</v>
+        <v>386.5004681918065</v>
       </c>
       <c r="R101">
-        <v>2583.247225362095</v>
+        <v>3198.552885549277</v>
       </c>
       <c r="S101">
-        <v>3004.3703868038</v>
+        <v>3585.053353741084</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5836.295632445967</v>
+        <v>6682.454145294513</v>
       </c>
       <c r="V101">
-        <v>5836.295632445967</v>
+        <v>6682.454145294513</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.0669844396</v>
+        <v>103393.9767504082</v>
       </c>
       <c r="B102">
-        <v>20782.65835212261</v>
+        <v>20401.21192833862</v>
       </c>
       <c r="C102">
-        <v>172553.7370724486</v>
+        <v>175059.9887125254</v>
       </c>
       <c r="D102">
-        <v>4966.315914835156</v>
+        <v>4912.973128250855</v>
       </c>
       <c r="E102">
-        <v>58174.92939016091</v>
+        <v>60205.91270926401</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.0669844396</v>
+        <v>103393.9767504082</v>
       </c>
       <c r="I102">
-        <v>274442</v>
+        <v>278396</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>193336.3954245712</v>
+        <v>195461.200640864</v>
       </c>
       <c r="O102">
-        <v>63141.24530499607</v>
+        <v>65118.88583751486</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>1310.684742138839</v>
+        <v>1141.840027349077</v>
       </c>
       <c r="R102">
-        <v>7251.738998703831</v>
+        <v>7794.334084812107</v>
       </c>
       <c r="S102">
-        <v>8562.423740842669</v>
+        <v>8936.174112161185</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>15402.60404510686</v>
+        <v>14930.7922217251</v>
       </c>
       <c r="V102">
-        <v>15402.60404510686</v>
+        <v>14930.7922217251</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35336.85124600055</v>
+        <v>35336.8478902766</v>
       </c>
       <c r="B103">
-        <v>6948.640348890292</v>
+        <v>7045.710274459346</v>
       </c>
       <c r="C103">
-        <v>58066.09008549012</v>
+        <v>59097.53458999028</v>
       </c>
       <c r="D103">
-        <v>1607.843479424922</v>
+        <v>1578.422630410998</v>
       </c>
       <c r="E103">
-        <v>19287.1737440972</v>
+        <v>19244.03640237049</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35336.85124600055</v>
+        <v>35336.8478902766</v>
       </c>
       <c r="I103">
-        <v>93027</v>
+        <v>97501</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>65014.73043438041</v>
+        <v>66143.24486444963</v>
       </c>
       <c r="O103">
-        <v>20895.01722352212</v>
+        <v>20822.45903278149</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>351.8820120423219</v>
+        <v>286.7530997162626</v>
       </c>
       <c r="R103">
-        <v>2201.212334571813</v>
+        <v>1998.475480318515</v>
       </c>
       <c r="S103">
-        <v>2553.094346614135</v>
+        <v>2285.228580034778</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4794.300460823869</v>
+        <v>4630.231040878211</v>
       </c>
       <c r="V103">
-        <v>4794.300460823869</v>
+        <v>4630.231040878211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9607038712</v>
+        <v>122130.9807078522</v>
       </c>
       <c r="B104">
-        <v>24189.82365292021</v>
+        <v>24568.99145424778</v>
       </c>
       <c r="C104">
-        <v>204877.0956573778</v>
+        <v>204844.4536866537</v>
       </c>
       <c r="D104">
-        <v>5823.243388175408</v>
+        <v>7056.507407815446</v>
       </c>
       <c r="E104">
-        <v>73849.76164001215</v>
+        <v>78444.39301062189</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9607038712</v>
+        <v>122130.9807078522</v>
       </c>
       <c r="I104">
-        <v>334632</v>
+        <v>324336</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>229066.919310298</v>
+        <v>229413.4451409015</v>
       </c>
       <c r="O104">
-        <v>79673.00502818756</v>
+        <v>85500.90041843733</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1319.97169067223</v>
+        <v>905.3980194490614</v>
       </c>
       <c r="R104">
-        <v>8254.479265118354</v>
+        <v>7385.936173752438</v>
       </c>
       <c r="S104">
-        <v>9574.450955790584</v>
+        <v>8291.334193201499</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>14492.94882234534</v>
+        <v>13101.96068657336</v>
       </c>
       <c r="V104">
-        <v>14492.94882234534</v>
+        <v>13101.96068657336</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.11309566839</v>
+        <v>81324.1777379034</v>
       </c>
       <c r="B105">
-        <v>15181.78046382005</v>
+        <v>16052.07745048806</v>
       </c>
       <c r="C105">
-        <v>133855.7491926762</v>
+        <v>130347.2311948396</v>
       </c>
       <c r="D105">
-        <v>4217.005425819941</v>
+        <v>4032.506529362202</v>
       </c>
       <c r="E105">
-        <v>47285.39650807824</v>
+        <v>47818.95925384301</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.11309566839</v>
+        <v>81324.1777379034</v>
       </c>
       <c r="I105">
-        <v>220016</v>
+        <v>225973</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>149037.5296564963</v>
+        <v>146399.3086453277</v>
       </c>
       <c r="O105">
-        <v>51502.40193389818</v>
+        <v>51851.46578320521</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>761.0859986894012</v>
+        <v>657.9855837847958</v>
       </c>
       <c r="R105">
-        <v>5555.791581858285</v>
+        <v>5025.601681031063</v>
       </c>
       <c r="S105">
-        <v>6316.877580547686</v>
+        <v>5683.587264815858</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>13426.79818880499</v>
+        <v>10726.55013332208</v>
       </c>
       <c r="V105">
-        <v>13426.79818880499</v>
+        <v>10726.55013332208</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.15072958333</v>
+        <v>77849.95188823168</v>
       </c>
       <c r="B106">
-        <v>15482.58476675984</v>
+        <v>16035.00923913805</v>
       </c>
       <c r="C106">
-        <v>127974.2442627316</v>
+        <v>128503.8117740884</v>
       </c>
       <c r="D106">
-        <v>3450.608467999645</v>
+        <v>3875.513515874785</v>
       </c>
       <c r="E106">
-        <v>38759.58312678491</v>
+        <v>44452.58816962927</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.15072958333</v>
+        <v>77849.95188823168</v>
       </c>
       <c r="I106">
-        <v>199882</v>
+        <v>208163</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>143456.8290294914</v>
+        <v>144538.8210132264</v>
       </c>
       <c r="O106">
-        <v>42210.19159478455</v>
+        <v>48328.10168550406</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>797.1754138892048</v>
+        <v>702.9966830479957</v>
       </c>
       <c r="R106">
-        <v>5187.864522170185</v>
+        <v>5125.806548565217</v>
       </c>
       <c r="S106">
-        <v>5985.039936059389</v>
+        <v>5828.803231613212</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10556.4946676583</v>
+        <v>13549.60866949843</v>
       </c>
       <c r="V106">
-        <v>10556.4946676583</v>
+        <v>13549.60866949843</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86202.9995699742</v>
+        <v>86203.04374961715</v>
       </c>
       <c r="B107">
-        <v>16722.99141285023</v>
+        <v>17078.26449954608</v>
       </c>
       <c r="C107">
-        <v>144023.9455142667</v>
+        <v>139740.9497109669</v>
       </c>
       <c r="D107">
-        <v>3896.715559297645</v>
+        <v>4736.610834704814</v>
       </c>
       <c r="E107">
-        <v>47899.71173375964</v>
+        <v>50413.79947691955</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86202.9995699742</v>
+        <v>86203.04374961715</v>
       </c>
       <c r="I107">
-        <v>241128</v>
+        <v>236682</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>160746.9369271169</v>
+        <v>156819.214210513</v>
       </c>
       <c r="O107">
-        <v>51796.42729305729</v>
+        <v>55150.41031162436</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>639.7067973741041</v>
+        <v>757.4853969384732</v>
       </c>
       <c r="R107">
-        <v>5700.680227848025</v>
+        <v>4975.709636248826</v>
       </c>
       <c r="S107">
-        <v>6340.38702522213</v>
+        <v>5733.1950331873</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>12879.96632811194</v>
+        <v>12100.93961858724</v>
       </c>
       <c r="V107">
-        <v>12879.96632811194</v>
+        <v>12100.93961858724</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.17718614019</v>
+        <v>60305.11553204899</v>
       </c>
       <c r="B108">
-        <v>12124.16771019935</v>
+        <v>11937.86067385502</v>
       </c>
       <c r="C108">
-        <v>100650.7224411948</v>
+        <v>103124.3207162797</v>
       </c>
       <c r="D108">
-        <v>2945.815496723184</v>
+        <v>2674.883955536107</v>
       </c>
       <c r="E108">
-        <v>37202.71109407611</v>
+        <v>32163.53493669975</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.17718614019</v>
+        <v>60305.11553204899</v>
       </c>
       <c r="I108">
-        <v>168177</v>
+        <v>159030</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>112774.8901513942</v>
+        <v>115062.1813901348</v>
       </c>
       <c r="O108">
-        <v>40148.52659079929</v>
+        <v>34838.41889223586</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>400.7786907590029</v>
+        <v>304.6846011641391</v>
       </c>
       <c r="R108">
-        <v>2975.948302471999</v>
+        <v>3213.664488487923</v>
       </c>
       <c r="S108">
-        <v>3376.726993231002</v>
+        <v>3518.349089652063</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>8342.626918048032</v>
+        <v>8268.859781507372</v>
       </c>
       <c r="V108">
-        <v>8342.626918048032</v>
+        <v>8268.859781507372</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.00658534505</v>
+        <v>25282.83834952323</v>
       </c>
       <c r="B109">
-        <v>4957.624190655182</v>
+        <v>4823.825641425336</v>
       </c>
       <c r="C109">
-        <v>39832.56210313783</v>
+        <v>43101.09675404981</v>
       </c>
       <c r="D109">
-        <v>1156.962143177482</v>
+        <v>1305.432138513148</v>
       </c>
       <c r="E109">
-        <v>14887.82393235719</v>
+        <v>15221.62997189075</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.00658534505</v>
+        <v>25282.83834952323</v>
       </c>
       <c r="I109">
-        <v>67145</v>
+        <v>65787</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>44790.18629379301</v>
+        <v>47924.92239547514</v>
       </c>
       <c r="O109">
-        <v>16044.78607553467</v>
+        <v>16527.0621104039</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>195.8864924016789</v>
+        <v>169.3464661363352</v>
       </c>
       <c r="R109">
-        <v>1646.833888214793</v>
+        <v>1480.909683923521</v>
       </c>
       <c r="S109">
-        <v>1842.720380616472</v>
+        <v>1650.256150059856</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>2669.958835036925</v>
+        <v>3416.698913584654</v>
       </c>
       <c r="V109">
-        <v>2669.958835036925</v>
+        <v>3416.698913584654</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.1568368346</v>
+        <v>4048.944118338695</v>
       </c>
       <c r="B110">
-        <v>772.8641867205769</v>
+        <v>738.6426112054784</v>
       </c>
       <c r="C110">
-        <v>6657.386964097124</v>
+        <v>6549.469700693529</v>
       </c>
       <c r="D110">
-        <v>203.200124262349</v>
+        <v>225.5575172367331</v>
       </c>
       <c r="E110">
-        <v>2312.646613383893</v>
+        <v>2202.76041942136</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.1568368346</v>
+        <v>4048.944118338695</v>
       </c>
       <c r="I110">
-        <v>11084</v>
+        <v>10920</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7430.251150817701</v>
+        <v>7288.112311899007</v>
       </c>
       <c r="O110">
-        <v>2515.846737646242</v>
+        <v>2428.317936658093</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42.25872312991051</v>
+        <v>25.45734971657239</v>
       </c>
       <c r="R110">
-        <v>247.0943328670903</v>
+        <v>205.0172630017918</v>
       </c>
       <c r="S110">
-        <v>289.3530559970008</v>
+        <v>230.4746127183642</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>540.7006002614949</v>
+        <v>463.7353465071506</v>
       </c>
       <c r="V110">
-        <v>540.7006002614949</v>
+        <v>463.7353465071506</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.968726378709</v>
+        <v>8762.870025001452</v>
       </c>
       <c r="B111">
-        <v>1753.217265962934</v>
+        <v>1833.425444438367</v>
       </c>
       <c r="C111">
-        <v>14190.26865560299</v>
+        <v>14164.23667576834</v>
       </c>
       <c r="D111">
-        <v>442.5352584692674</v>
+        <v>439.6725723242309</v>
       </c>
       <c r="E111">
-        <v>4786.039675158436</v>
+        <v>5273.229234444815</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.968726378709</v>
+        <v>8762.870025001452</v>
       </c>
       <c r="I111">
-        <v>23533</v>
+        <v>23896</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15943.48592156593</v>
+        <v>15997.66212020671</v>
       </c>
       <c r="O111">
-        <v>5228.574933627703</v>
+        <v>5712.901806769046</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>55.52072501937454</v>
+        <v>65.97084143130562</v>
       </c>
       <c r="R111">
-        <v>476.2438801242507</v>
+        <v>567.3491113246703</v>
       </c>
       <c r="S111">
-        <v>531.7646051436252</v>
+        <v>633.3199527559759</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1437.288013350827</v>
+        <v>1073.570926593086</v>
       </c>
       <c r="V111">
-        <v>1437.288013350827</v>
+        <v>1073.570926593086</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.94014224543</v>
+        <v>9926.929634144537</v>
       </c>
       <c r="B112">
-        <v>1990.344303665244</v>
+        <v>1885.217914560624</v>
       </c>
       <c r="C112">
-        <v>16218.7851827487</v>
+        <v>15893.62946195624</v>
       </c>
       <c r="D112">
-        <v>431.1067128275539</v>
+        <v>438.870417830331</v>
       </c>
       <c r="E112">
-        <v>5424.312747182229</v>
+        <v>4952.3957425002</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.94014224543</v>
+        <v>9926.929634144537</v>
       </c>
       <c r="I112">
-        <v>27453</v>
+        <v>27316</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18209.12948641394</v>
+        <v>17778.84737651686</v>
       </c>
       <c r="O112">
-        <v>5855.419460009783</v>
+        <v>5391.266160330531</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>93.33111988731625</v>
+        <v>91.29116783570657</v>
       </c>
       <c r="R112">
-        <v>644.3873007790105</v>
+        <v>687.7248228328891</v>
       </c>
       <c r="S112">
-        <v>737.7184206663268</v>
+        <v>779.0159906685957</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1554.407004720049</v>
+        <v>1481.586584875658</v>
       </c>
       <c r="V112">
-        <v>1554.407004720049</v>
+        <v>1481.586584875658</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.014061899396</v>
+        <v>1551.867209054315</v>
       </c>
       <c r="B113">
-        <v>312.5884043950264</v>
+        <v>319.5098612359475</v>
       </c>
       <c r="C113">
-        <v>2607.282125086431</v>
+        <v>2597.964864820398</v>
       </c>
       <c r="D113">
-        <v>79.66175521445361</v>
+        <v>80.4835611002886</v>
       </c>
       <c r="E113">
-        <v>915.5117135200392</v>
+        <v>887.8416791475029</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.014061899396</v>
+        <v>1551.867209054315</v>
       </c>
       <c r="I113">
-        <v>4139</v>
+        <v>4094</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2919.870529481457</v>
+        <v>2917.474726056345</v>
       </c>
       <c r="O113">
-        <v>995.1734687344928</v>
+        <v>968.3252402477915</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>12.05037458750066</v>
+        <v>16.24860506453869</v>
       </c>
       <c r="R113">
-        <v>85.01007981197193</v>
+        <v>100.9752861145775</v>
       </c>
       <c r="S113">
-        <v>97.06045439947259</v>
+        <v>117.2238911791162</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>213.9735626499158</v>
+        <v>220.8590446681054</v>
       </c>
       <c r="V113">
-        <v>213.9735626499158</v>
+        <v>220.8590446681054</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.074606383195</v>
+        <v>1068.838482667356</v>
       </c>
       <c r="B114">
-        <v>1494.957964955774</v>
+        <v>1445.586739144356</v>
       </c>
       <c r="C114">
-        <v>502.3463032502158</v>
+        <v>475.0030536199611</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>650.0071274961898</v>
+        <v>675.6097942620576</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.074606383195</v>
+        <v>1068.838482667356</v>
       </c>
       <c r="I114">
-        <v>3057</v>
+        <v>2950</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1997.30426820599</v>
+        <v>1920.589792764317</v>
       </c>
       <c r="O114">
-        <v>650.0071274961898</v>
+        <v>675.6097942620576</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>12.75263428087044</v>
+        <v>20.50823706186414</v>
       </c>
       <c r="R114">
-        <v>44.98831780637432</v>
+        <v>57.72163929734376</v>
       </c>
       <c r="S114">
-        <v>57.74095208724476</v>
+        <v>78.22987635920791</v>
       </c>
       <c r="T114">
-        <v>15.81630783712013</v>
+        <v>17.22266578776024</v>
       </c>
       <c r="U114">
-        <v>140.914188442941</v>
+        <v>133.2045351758012</v>
       </c>
       <c r="V114">
-        <v>156.7304962800611</v>
+        <v>150.4272009635615</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>406.0783525895531</v>
+        <v>405.828156342582</v>
       </c>
       <c r="B115">
-        <v>568.714402155181</v>
+        <v>540.1358169005313</v>
       </c>
       <c r="C115">
-        <v>192.7567992743749</v>
+        <v>175.226698435156</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>280.7247380853546</v>
+        <v>263.5898002732153</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>406.0783525895531</v>
+        <v>405.828156342582</v>
       </c>
       <c r="I115">
-        <v>1112</v>
+        <v>1147</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>761.4712014295559</v>
+        <v>715.3625153356873</v>
       </c>
       <c r="O115">
-        <v>280.7247380853546</v>
+        <v>263.5898002732153</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>6.44343957397982</v>
+        <v>7.028664920718639</v>
       </c>
       <c r="R115">
-        <v>18.91634938858041</v>
+        <v>23.23324209164079</v>
       </c>
       <c r="S115">
-        <v>25.35978896256023</v>
+        <v>30.26190701235943</v>
       </c>
       <c r="T115">
-        <v>4.957751832268051</v>
+        <v>6.733051199369454</v>
       </c>
       <c r="U115">
-        <v>48.95751156248598</v>
+        <v>51.15013311413942</v>
       </c>
       <c r="V115">
-        <v>53.91526339475403</v>
+        <v>57.88318431350887</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.825581293089</v>
+        <v>5616.165990517804</v>
       </c>
       <c r="B116">
-        <v>7860.317821953987</v>
+        <v>7783.824876018974</v>
       </c>
       <c r="C116">
-        <v>2687.294955623138</v>
+        <v>2526.746635092468</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3452.76245281067</v>
+        <v>3484.258082260578</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.825581293089</v>
+        <v>5616.165990517804</v>
       </c>
       <c r="I116">
-        <v>15026</v>
+        <v>15758</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10547.61277757713</v>
+        <v>10310.57151111144</v>
       </c>
       <c r="O116">
-        <v>3452.76245281067</v>
+        <v>3484.258082260578</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>123.2812623182208</v>
+        <v>91.80422034799507</v>
       </c>
       <c r="R116">
-        <v>339.2719232417527</v>
+        <v>288.9361218353793</v>
       </c>
       <c r="S116">
-        <v>462.5531855599735</v>
+        <v>380.7403421833744</v>
       </c>
       <c r="T116">
-        <v>90.00333464277075</v>
+        <v>87.33700767409536</v>
       </c>
       <c r="U116">
-        <v>700.1100827911605</v>
+        <v>796.6147093407617</v>
       </c>
       <c r="V116">
-        <v>790.1134174339312</v>
+        <v>883.9517170148571</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3150.052192996129</v>
+        <v>3150.057270086456</v>
       </c>
       <c r="B117">
-        <v>4297.845429516232</v>
+        <v>4394.210523136484</v>
       </c>
       <c r="C117">
-        <v>1471.035964688034</v>
+        <v>1466.66365965145</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1776.206951318443</v>
+        <v>2107.189493014672</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3150.052192996129</v>
+        <v>3150.057270086456</v>
       </c>
       <c r="I117">
-        <v>8837</v>
+        <v>8732</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5768.881394204265</v>
+        <v>5860.874182787933</v>
       </c>
       <c r="O117">
-        <v>1776.206951318443</v>
+        <v>2107.189493014672</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>55.00624541178211</v>
+        <v>55.56794997989103</v>
       </c>
       <c r="R117">
-        <v>150.5028651279199</v>
+        <v>153.4314068996125</v>
       </c>
       <c r="S117">
-        <v>205.509110539702</v>
+        <v>208.9993568795036</v>
       </c>
       <c r="T117">
-        <v>63.2931111623482</v>
+        <v>37.1153270257533</v>
       </c>
       <c r="U117">
-        <v>443.9871577294754</v>
+        <v>328.7557876885373</v>
       </c>
       <c r="V117">
-        <v>507.2802688918237</v>
+        <v>365.8711147142906</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1816.968429620802</v>
+        <v>1817.123302617842</v>
       </c>
       <c r="B118">
-        <v>2545.83842140277</v>
+        <v>2526.291884890838</v>
       </c>
       <c r="C118">
-        <v>813.5770410378084</v>
+        <v>834.8728145761414</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1176.876797352517</v>
+        <v>1213.903799656057</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1816.968429620802</v>
+        <v>1817.123302617842</v>
       </c>
       <c r="I118">
-        <v>5125</v>
+        <v>5177</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3359.415462440578</v>
+        <v>3361.164699466979</v>
       </c>
       <c r="O118">
-        <v>1176.876797352517</v>
+        <v>1213.903799656057</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38.95247812294103</v>
+        <v>29.76867785693268</v>
       </c>
       <c r="R118">
-        <v>116.0798131739598</v>
+        <v>100.4847963246843</v>
       </c>
       <c r="S118">
-        <v>155.0322912969008</v>
+        <v>130.253474181617</v>
       </c>
       <c r="T118">
-        <v>21.12461659669341</v>
+        <v>19.72685837455669</v>
       </c>
       <c r="U118">
-        <v>198.6288969469317</v>
+        <v>227.372040790443</v>
       </c>
       <c r="V118">
-        <v>219.7535135436251</v>
+        <v>247.0988991649997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6396.147229811</v>
+        <v>6396.10798372933</v>
       </c>
       <c r="B119">
-        <v>9109.375597347012</v>
+        <v>8954.443299468228</v>
       </c>
       <c r="C119">
-        <v>3052.374723882847</v>
+        <v>3080.666136383368</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4358.927279446511</v>
+        <v>4121.621126814959</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6396.147229811</v>
+        <v>6396.10798372933</v>
       </c>
       <c r="I119">
-        <v>18301</v>
+        <v>17594</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>12161.75032122986</v>
+        <v>12035.1094358516</v>
       </c>
       <c r="O119">
-        <v>4358.927279446511</v>
+        <v>4121.621126814959</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>115.9375590788039</v>
+        <v>114.6793565261979</v>
       </c>
       <c r="R119">
-        <v>328.3108365807445</v>
+        <v>347.1827947434572</v>
       </c>
       <c r="S119">
-        <v>444.2483956595484</v>
+        <v>461.8621512696551</v>
       </c>
       <c r="T119">
-        <v>94.93006049563894</v>
+        <v>74.35439824010508</v>
       </c>
       <c r="U119">
-        <v>891.5633189903549</v>
+        <v>725.6062785662214</v>
       </c>
       <c r="V119">
-        <v>986.4933794859938</v>
+        <v>799.9606768063264</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4006.168817868478</v>
+        <v>4006.091476165372</v>
       </c>
       <c r="B120">
-        <v>5776.358353275288</v>
+        <v>5430.790457469194</v>
       </c>
       <c r="C120">
-        <v>1902.541952371933</v>
+        <v>1825.67479465556</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2543.243155224069</v>
+        <v>2180.119967883862</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4006.168817868478</v>
+        <v>4006.091476165372</v>
       </c>
       <c r="I120">
-        <v>10625</v>
+        <v>10990</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7678.900305647221</v>
+        <v>7256.465252124754</v>
       </c>
       <c r="O120">
-        <v>2543.243155224069</v>
+        <v>2180.119967883862</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>52.56424122629642</v>
+        <v>73.49318362579095</v>
       </c>
       <c r="R120">
-        <v>178.0423559835329</v>
+        <v>233.9994224185035</v>
       </c>
       <c r="S120">
-        <v>230.6065972098294</v>
+        <v>307.4926060442945</v>
       </c>
       <c r="T120">
-        <v>57.56530998712617</v>
+        <v>61.59442256811902</v>
       </c>
       <c r="U120">
-        <v>447.708487986296</v>
+        <v>502.8913148415247</v>
       </c>
       <c r="V120">
-        <v>505.2737979734221</v>
+        <v>564.4857374096438</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1687.101119571937</v>
+        <v>1687.006516596913</v>
       </c>
       <c r="B121">
-        <v>2340.940513634361</v>
+        <v>2326.528243747368</v>
       </c>
       <c r="C121">
-        <v>769.2787792409862</v>
+        <v>772.3358420222812</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1062.080951835236</v>
+        <v>1008.267770136604</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1687.101119571937</v>
+        <v>1687.006516596913</v>
       </c>
       <c r="I121">
-        <v>4693</v>
+        <v>4545</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3110.219292875347</v>
+        <v>3098.864085769649</v>
       </c>
       <c r="O121">
-        <v>1062.080951835236</v>
+        <v>1008.267770136604</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>33.17785406093622</v>
+        <v>29.18119441783703</v>
       </c>
       <c r="R121">
-        <v>102.8103759461144</v>
+        <v>94.5967941213553</v>
       </c>
       <c r="S121">
-        <v>135.9882300070506</v>
+        <v>123.7779885391923</v>
       </c>
       <c r="T121">
-        <v>20.86524905505771</v>
+        <v>32.00473529116901</v>
       </c>
       <c r="U121">
-        <v>190.9326988683574</v>
+        <v>247.2131125398824</v>
       </c>
       <c r="V121">
-        <v>211.7979479234151</v>
+        <v>279.2178478310514</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.9137437115958</v>
+        <v>589.1188144783131</v>
       </c>
       <c r="B122">
-        <v>821.714121815243</v>
+        <v>851.3572249508355</v>
       </c>
       <c r="C122">
-        <v>271.4690359857022</v>
+        <v>270.4912616202703</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>392.0549623004848</v>
+        <v>373.5562783343517</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.9137437115958</v>
+        <v>589.1188144783131</v>
       </c>
       <c r="I122">
-        <v>1688</v>
+        <v>1611</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1093.183157800945</v>
+        <v>1121.848486571106</v>
       </c>
       <c r="O122">
-        <v>392.0549623004848</v>
+        <v>373.5562783343517</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>10.99243998844728</v>
+        <v>12.16849529507037</v>
       </c>
       <c r="R122">
-        <v>33.47505312467367</v>
+        <v>33.47778342091557</v>
       </c>
       <c r="S122">
-        <v>44.46749311312095</v>
+        <v>45.64627871598594</v>
       </c>
       <c r="T122">
-        <v>6.410744091310506</v>
+        <v>5.712123484371218</v>
       </c>
       <c r="U122">
-        <v>62.64054157668227</v>
+        <v>73.63261123223549</v>
       </c>
       <c r="V122">
-        <v>69.05128566799277</v>
+        <v>79.34473471660671</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1710.156882547818</v>
+        <v>1710.133987770193</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3168.980152426674</v>
+        <v>3126.637739806703</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>894.8997119451143</v>
+        <v>1013.922933509789</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1710.156882547818</v>
+        <v>1710.133987770193</v>
       </c>
       <c r="I123">
-        <v>5310</v>
+        <v>5539</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3168.980152426674</v>
+        <v>3126.637739806703</v>
       </c>
       <c r="O123">
-        <v>894.8997119451143</v>
+        <v>1013.922933509789</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>31.5881426535298</v>
+        <v>29.19864372389118</v>
       </c>
       <c r="R123">
-        <v>92.49061887275735</v>
+        <v>86.47565559806655</v>
       </c>
       <c r="S123">
-        <v>124.0787615262872</v>
+        <v>115.6742993219577</v>
       </c>
       <c r="T123">
-        <v>23.31052353610082</v>
+        <v>26.81380724855683</v>
       </c>
       <c r="U123">
-        <v>232.012489695968</v>
+        <v>240.236703922127</v>
       </c>
       <c r="V123">
-        <v>255.3230132320688</v>
+        <v>267.0505111706839</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.9882027638014</v>
+        <v>198.8831498583047</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>370.7843922428713</v>
+        <v>363.8399506471513</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>118.8058341999291</v>
+        <v>143.7261922994549</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.9882027638014</v>
+        <v>198.8831498583047</v>
       </c>
       <c r="I124">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>370.7843922428713</v>
+        <v>363.8399506471513</v>
       </c>
       <c r="O124">
-        <v>118.8058341999291</v>
+        <v>143.7261922994549</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.501459294619305</v>
+        <v>3.965482889130871</v>
       </c>
       <c r="R124">
-        <v>10.56576570414507</v>
+        <v>10.2435323707755</v>
       </c>
       <c r="S124">
-        <v>14.06722499876437</v>
+        <v>14.20901525990637</v>
       </c>
       <c r="T124">
-        <v>2.823170842720798</v>
+        <v>3.742489314101048</v>
       </c>
       <c r="U124">
-        <v>31.25049238464959</v>
+        <v>31.12458870516959</v>
       </c>
       <c r="V124">
-        <v>34.07366322737039</v>
+        <v>34.86707801927064</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.952577847291</v>
+        <v>9133.001801499368</v>
       </c>
       <c r="B2">
-        <v>4727.78014151041</v>
+        <v>4770.675850385379</v>
       </c>
       <c r="C2">
-        <v>21131.21828226107</v>
+        <v>20869.33944552146</v>
       </c>
       <c r="D2">
-        <v>4794.54319955033</v>
+        <v>5297.875137287966</v>
       </c>
       <c r="E2">
-        <v>9659.242421944578</v>
+        <v>10511.73740464818</v>
       </c>
       <c r="F2">
-        <v>2850.613355252292</v>
+        <v>2838.700249461558</v>
       </c>
       <c r="G2">
-        <v>5316.388816853696</v>
+        <v>5488.138870189026</v>
       </c>
       <c r="H2">
-        <v>9132.952577847291</v>
+        <v>9133.001801499368</v>
       </c>
       <c r="I2">
-        <v>43081</v>
+        <v>45338</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25858.99842377147</v>
+        <v>25640.01529590684</v>
       </c>
       <c r="O2">
-        <v>14453.78562149491</v>
+        <v>15809.61254193615</v>
       </c>
       <c r="P2">
-        <v>8167.002172105988</v>
+        <v>8326.839119650584</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.961745443894</v>
+        <v>7571.077980072213</v>
       </c>
       <c r="B3">
-        <v>4133.040012344846</v>
+        <v>4128.803935709494</v>
       </c>
       <c r="C3">
-        <v>17557.9050941537</v>
+        <v>17716.29115896163</v>
       </c>
       <c r="D3">
-        <v>4073.321025283482</v>
+        <v>4451.434067527738</v>
       </c>
       <c r="E3">
-        <v>8458.752482592179</v>
+        <v>8987.984466598588</v>
       </c>
       <c r="F3">
-        <v>2216.077762669315</v>
+        <v>2421.283258455447</v>
       </c>
       <c r="G3">
-        <v>4434.7117489994</v>
+        <v>4736.235578230274</v>
       </c>
       <c r="H3">
-        <v>7570.961745443894</v>
+        <v>7571.077980072213</v>
       </c>
       <c r="I3">
-        <v>34633</v>
+        <v>37139</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21690.94510649854</v>
+        <v>21845.09509467113</v>
       </c>
       <c r="O3">
-        <v>12532.07350787566</v>
+        <v>13439.41853412633</v>
       </c>
       <c r="P3">
-        <v>6650.789511668714</v>
+        <v>7157.518836685721</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.96650625053</v>
+        <v>15501.99691425947</v>
       </c>
       <c r="B4">
-        <v>8371.221787070874</v>
+        <v>8703.439833019535</v>
       </c>
       <c r="C4">
-        <v>36735.26310062857</v>
+        <v>36941.01810670785</v>
       </c>
       <c r="D4">
-        <v>8618.191752632996</v>
+        <v>9025.804545639672</v>
       </c>
       <c r="E4">
-        <v>16876.88933718081</v>
+        <v>18652.9618901431</v>
       </c>
       <c r="F4">
-        <v>5049.64465990481</v>
+        <v>4273.575178816384</v>
       </c>
       <c r="G4">
-        <v>9665.117645097154</v>
+        <v>8156.903713051146</v>
       </c>
       <c r="H4">
-        <v>15501.96650625053</v>
+        <v>15501.99691425947</v>
       </c>
       <c r="I4">
-        <v>73317</v>
+        <v>72732</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>45106.48488769945</v>
+        <v>45644.45793972739</v>
       </c>
       <c r="O4">
-        <v>25495.08108981381</v>
+        <v>27678.76643578277</v>
       </c>
       <c r="P4">
-        <v>14714.76230500197</v>
+        <v>12430.47889186753</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.95464102464</v>
+        <v>9670.09605863332</v>
       </c>
       <c r="B5">
-        <v>5498.215465400155</v>
+        <v>5436.98362334259</v>
       </c>
       <c r="C5">
-        <v>23829.66580521001</v>
+        <v>22565.94435842702</v>
       </c>
       <c r="D5">
-        <v>5396.964530932073</v>
+        <v>5172.29409925127</v>
       </c>
       <c r="E5">
-        <v>10976.81356166541</v>
+        <v>10755.72990446723</v>
       </c>
       <c r="F5">
-        <v>2883.468050846565</v>
+        <v>2766.707791870996</v>
       </c>
       <c r="G5">
-        <v>5837.250278094507</v>
+        <v>5556.39907029568</v>
       </c>
       <c r="H5">
-        <v>9669.95464102464</v>
+        <v>9670.09605863332</v>
       </c>
       <c r="I5">
-        <v>44452</v>
+        <v>44098</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>29327.88127061016</v>
+        <v>28002.9279817696</v>
       </c>
       <c r="O5">
-        <v>16373.77809259748</v>
+        <v>15928.0240037185</v>
       </c>
       <c r="P5">
-        <v>8720.718328941071</v>
+        <v>8323.106862166676</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26787.07705409575</v>
+        <v>26786.92350466194</v>
       </c>
       <c r="B6">
-        <v>13947.35225792278</v>
+        <v>14729.21995684811</v>
       </c>
       <c r="C6">
-        <v>62734.95533640056</v>
+        <v>62274.54468450479</v>
       </c>
       <c r="D6">
-        <v>14860.84587422356</v>
+        <v>15327.98760665234</v>
       </c>
       <c r="E6">
-        <v>30552.74417836672</v>
+        <v>30712.90025331474</v>
       </c>
       <c r="F6">
-        <v>7947.794035820974</v>
+        <v>7888.087176195932</v>
       </c>
       <c r="G6">
-        <v>15623.22346242857</v>
+        <v>15411.33565477083</v>
       </c>
       <c r="H6">
-        <v>26787.07705409575</v>
+        <v>26786.92350466194</v>
       </c>
       <c r="I6">
-        <v>131936</v>
+        <v>125018</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>76682.30759432334</v>
+        <v>77003.7646413529</v>
       </c>
       <c r="O6">
-        <v>45413.59005259028</v>
+        <v>46040.88785996708</v>
       </c>
       <c r="P6">
-        <v>23571.01749824955</v>
+        <v>23299.42283096676</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.01009434347</v>
+        <v>15438.92055788262</v>
       </c>
       <c r="B7">
-        <v>8938.262884096357</v>
+        <v>8634.808517531745</v>
       </c>
       <c r="C7">
-        <v>37316.70275834616</v>
+        <v>36564.24184045359</v>
       </c>
       <c r="D7">
-        <v>8536.238973499372</v>
+        <v>8821.885584333581</v>
       </c>
       <c r="E7">
-        <v>17170.59158680889</v>
+        <v>17393.88678176973</v>
       </c>
       <c r="F7">
-        <v>4187.106741291455</v>
+        <v>4438.111654366779</v>
       </c>
       <c r="G7">
-        <v>8433.322391274865</v>
+        <v>9078.364284101002</v>
       </c>
       <c r="H7">
-        <v>15439.01009434347</v>
+        <v>15438.92055788262</v>
       </c>
       <c r="I7">
-        <v>69983</v>
+        <v>73068</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46254.96564244252</v>
+        <v>45199.05035798533</v>
       </c>
       <c r="O7">
-        <v>25706.83056030826</v>
+        <v>26215.77236610331</v>
       </c>
       <c r="P7">
-        <v>12620.42913256632</v>
+        <v>13516.47593846778</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.952445920722</v>
+        <v>7027.983647988302</v>
       </c>
       <c r="B8">
-        <v>3609.612066560763</v>
+        <v>3729.314308827813</v>
       </c>
       <c r="C8">
-        <v>16098.79802100523</v>
+        <v>16320.20278054</v>
       </c>
       <c r="D8">
-        <v>3752.994303305412</v>
+        <v>3800.697744109038</v>
       </c>
       <c r="E8">
-        <v>7863.970074845918</v>
+        <v>7672.73228977757</v>
       </c>
       <c r="F8">
-        <v>2352.486055220754</v>
+        <v>1924.639338872998</v>
       </c>
       <c r="G8">
-        <v>4411.143547993196</v>
+        <v>3717.604339949506</v>
       </c>
       <c r="H8">
-        <v>7027.952445920722</v>
+        <v>7027.983647988302</v>
       </c>
       <c r="I8">
-        <v>33439</v>
+        <v>34248</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19708.41008756599</v>
+        <v>20049.51708936782</v>
       </c>
       <c r="O8">
-        <v>11616.96437815133</v>
+        <v>11473.43003388661</v>
       </c>
       <c r="P8">
-        <v>6763.62960321395</v>
+        <v>5642.243678822503</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5006.014502305632</v>
+        <v>5005.978142332257</v>
       </c>
       <c r="B9">
-        <v>2700.934206554992</v>
+        <v>2773.265472580664</v>
       </c>
       <c r="C9">
-        <v>11677.7405818945</v>
+        <v>11623.17718727094</v>
       </c>
       <c r="D9">
-        <v>2912.314745083211</v>
+        <v>2785.95452005778</v>
       </c>
       <c r="E9">
-        <v>5681.901659776391</v>
+        <v>5390.539374528353</v>
       </c>
       <c r="F9">
-        <v>1556.859542439319</v>
+        <v>1498.472155429736</v>
       </c>
       <c r="G9">
-        <v>3151.761938471784</v>
+        <v>3023.869304645199</v>
       </c>
       <c r="H9">
-        <v>5006.014502305632</v>
+        <v>5005.978142332257</v>
       </c>
       <c r="I9">
-        <v>23441</v>
+        <v>22650</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14378.67478844949</v>
+        <v>14396.4426598516</v>
       </c>
       <c r="O9">
-        <v>8594.216404859602</v>
+        <v>8176.493894586133</v>
       </c>
       <c r="P9">
-        <v>4708.621480911103</v>
+        <v>4522.341460074935</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.950505936687</v>
+        <v>5886.98819186799</v>
       </c>
       <c r="B10">
-        <v>3095.234073914374</v>
+        <v>3098.956161598817</v>
       </c>
       <c r="C10">
-        <v>13713.37009119579</v>
+        <v>14000.74178827672</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9605.814173628925</v>
+        <v>9443.907458788266</v>
       </c>
       <c r="F10">
-        <v>1815.351357273543</v>
+        <v>1838.323214048622</v>
       </c>
       <c r="G10">
-        <v>3510.375686079865</v>
+        <v>3596.898218909831</v>
       </c>
       <c r="H10">
-        <v>5886.950505936687</v>
+        <v>5886.98819186799</v>
       </c>
       <c r="I10">
-        <v>29252</v>
+        <v>28702</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16808.60416511017</v>
+        <v>17099.69794987554</v>
       </c>
       <c r="O10">
-        <v>9605.814173628925</v>
+        <v>9443.907458788266</v>
       </c>
       <c r="P10">
-        <v>5325.727043353409</v>
+        <v>5435.221432958453</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.90312742095</v>
+        <v>1726.056423013795</v>
       </c>
       <c r="B11">
-        <v>910.7743542763158</v>
+        <v>931.0047441496654</v>
       </c>
       <c r="C11">
-        <v>4051.176273618093</v>
+        <v>4027.24848861273</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2695.680210041686</v>
+        <v>2861.317179707326</v>
       </c>
       <c r="F11">
-        <v>513.0764965851304</v>
+        <v>485.3532616346996</v>
       </c>
       <c r="G11">
-        <v>982.7179890050702</v>
+        <v>935.2574186650422</v>
       </c>
       <c r="H11">
-        <v>1725.90312742095</v>
+        <v>1726.056423013795</v>
       </c>
       <c r="I11">
-        <v>8703</v>
+        <v>8498</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4961.950627894408</v>
+        <v>4958.253232762395</v>
       </c>
       <c r="O11">
-        <v>2695.680210041686</v>
+        <v>2861.317179707326</v>
       </c>
       <c r="P11">
-        <v>1495.794485590201</v>
+        <v>1420.610680299742</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.0898490129548</v>
+        <v>500.9925293945949</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1421.771872518845</v>
+        <v>1382.475780082574</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>800.4597360569904</v>
+        <v>752.9265349539787</v>
       </c>
       <c r="F12">
-        <v>178.0661042371338</v>
+        <v>139.6383945162422</v>
       </c>
       <c r="G12">
-        <v>363.0198910635411</v>
+        <v>279.7358070657144</v>
       </c>
       <c r="H12">
-        <v>501.0898490129548</v>
+        <v>500.9925293945949</v>
       </c>
       <c r="I12">
-        <v>2704</v>
+        <v>2565</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1421.771872518845</v>
+        <v>1382.475780082574</v>
       </c>
       <c r="O12">
-        <v>800.4597360569904</v>
+        <v>752.9265349539787</v>
       </c>
       <c r="P12">
-        <v>541.0859953006749</v>
+        <v>419.3742015819566</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.037201052235</v>
+        <v>1088.041842744995</v>
       </c>
       <c r="B13">
-        <v>514.3970223372676</v>
+        <v>486.4741325631806</v>
       </c>
       <c r="C13">
-        <v>2686.426059270722</v>
+        <v>2646.959572160094</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1676.808123081949</v>
+        <v>1674.336576092649</v>
       </c>
       <c r="F13">
-        <v>825.6923519096018</v>
+        <v>820.1223890431143</v>
       </c>
       <c r="G13">
-        <v>142.6897125781542</v>
+        <v>130.8675403784168</v>
       </c>
       <c r="H13">
-        <v>1088.037201052235</v>
+        <v>1088.041842744995</v>
       </c>
       <c r="I13">
-        <v>4766</v>
+        <v>4477</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3200.82308160799</v>
+        <v>3133.433704723274</v>
       </c>
       <c r="O13">
-        <v>1676.808123081949</v>
+        <v>1674.336576092649</v>
       </c>
       <c r="P13">
-        <v>968.382064487756</v>
+        <v>950.9899294215311</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.97727107543</v>
+        <v>11831.98481299542</v>
       </c>
       <c r="B14">
-        <v>5461.112293036925</v>
+        <v>5152.060179137473</v>
       </c>
       <c r="C14">
-        <v>28736.04513783445</v>
+        <v>27278.30885935521</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18173.12206989861</v>
+        <v>18101.59423286991</v>
       </c>
       <c r="F14">
-        <v>8447.911139861653</v>
+        <v>9489.321724973264</v>
       </c>
       <c r="G14">
-        <v>1486.477885683732</v>
+        <v>1569.699600659778</v>
       </c>
       <c r="H14">
-        <v>11831.97727107543</v>
+        <v>11831.98481299542</v>
       </c>
       <c r="I14">
-        <v>50209</v>
+        <v>48278</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>34197.15743087138</v>
+        <v>32430.36903849269</v>
       </c>
       <c r="O14">
-        <v>18173.12206989861</v>
+        <v>18101.59423286991</v>
       </c>
       <c r="P14">
-        <v>9934.389025545386</v>
+        <v>11059.02132563304</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.01066145684</v>
+        <v>79020.95592742338</v>
       </c>
       <c r="B15">
-        <v>34859.26004791088</v>
+        <v>35897.60157224703</v>
       </c>
       <c r="C15">
-        <v>182294.0940919785</v>
+        <v>194101.0533654459</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>128547.9619783508</v>
+        <v>136990.401261803</v>
       </c>
       <c r="F15">
-        <v>59124.76070617885</v>
+        <v>54057.94715283882</v>
       </c>
       <c r="G15">
-        <v>10902.0950541763</v>
+        <v>10000.46530861718</v>
       </c>
       <c r="H15">
-        <v>79021.01066145684</v>
+        <v>79020.95592742338</v>
       </c>
       <c r="I15">
-        <v>344879</v>
+        <v>335718</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>217153.3541398894</v>
+        <v>229998.6549376929</v>
       </c>
       <c r="O15">
-        <v>128547.9619783508</v>
+        <v>136990.401261803</v>
       </c>
       <c r="P15">
-        <v>70026.85576035515</v>
+        <v>64058.412461456</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.9614438389</v>
+        <v>160975.1146106878</v>
       </c>
       <c r="B16">
-        <v>76329.38140651218</v>
+        <v>70494.43247144668</v>
       </c>
       <c r="C16">
-        <v>405908.2852407316</v>
+        <v>384416.4577380794</v>
       </c>
       <c r="D16">
-        <v>86842.6015577911</v>
+        <v>91824.06254278567</v>
       </c>
       <c r="E16">
-        <v>169066.5842969662</v>
+        <v>181296.5295033123</v>
       </c>
       <c r="F16">
-        <v>134759.7096237835</v>
+        <v>124276.2833014639</v>
       </c>
       <c r="G16">
-        <v>22444.22202384553</v>
+        <v>20391.60839199261</v>
       </c>
       <c r="H16">
-        <v>160974.9614438389</v>
+        <v>160975.1146106878</v>
       </c>
       <c r="I16">
-        <v>637004</v>
+        <v>633779</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>482237.6666472437</v>
+        <v>454910.8902095261</v>
       </c>
       <c r="O16">
-        <v>255909.1858547573</v>
+        <v>273120.592046098</v>
       </c>
       <c r="P16">
-        <v>157203.931647629</v>
+        <v>144667.8916934565</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.97991657114</v>
+        <v>52808.05918135598</v>
       </c>
       <c r="B17">
-        <v>24725.08043773796</v>
+        <v>23653.81489080845</v>
       </c>
       <c r="C17">
-        <v>134456.3136559305</v>
+        <v>127295.7921134587</v>
       </c>
       <c r="D17">
-        <v>30453.97811500777</v>
+        <v>29233.37586122062</v>
       </c>
       <c r="E17">
-        <v>57147.77351272984</v>
+        <v>57791.35398698282</v>
       </c>
       <c r="F17">
-        <v>40094.56912401117</v>
+        <v>40252.93972123163</v>
       </c>
       <c r="G17">
-        <v>6970.518570370469</v>
+        <v>6794.652724165647</v>
       </c>
       <c r="H17">
-        <v>52807.97991657114</v>
+        <v>52808.05918135598</v>
       </c>
       <c r="I17">
-        <v>213571</v>
+        <v>216720</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>159181.3940936684</v>
+        <v>150949.6070042671</v>
       </c>
       <c r="O17">
-        <v>87601.75162773761</v>
+        <v>87024.72984820344</v>
       </c>
       <c r="P17">
-        <v>47065.08769438164</v>
+        <v>47047.59244539727</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.03876156114</v>
+        <v>48666.10825749906</v>
       </c>
       <c r="B18">
-        <v>22715.32971343587</v>
+        <v>22029.05860367998</v>
       </c>
       <c r="C18">
-        <v>117417.1680716257</v>
+        <v>118017.6453177053</v>
       </c>
       <c r="D18">
-        <v>30458.6572286321</v>
+        <v>26736.24369399262</v>
       </c>
       <c r="E18">
-        <v>54848.53344217102</v>
+        <v>52184.44463584201</v>
       </c>
       <c r="F18">
-        <v>35699.75204299978</v>
+        <v>38541.43809471317</v>
       </c>
       <c r="G18">
-        <v>6531.470039888241</v>
+        <v>6439.459715557331</v>
       </c>
       <c r="H18">
-        <v>48666.03876156114</v>
+        <v>48666.10825749906</v>
       </c>
       <c r="I18">
-        <v>200231</v>
+        <v>191850</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>140132.4977850615</v>
+        <v>140046.7039213853</v>
       </c>
       <c r="O18">
-        <v>85307.19067080313</v>
+        <v>78920.68832983462</v>
       </c>
       <c r="P18">
-        <v>42231.22208288802</v>
+        <v>44980.8978102705</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.93709826735</v>
+        <v>50921.01448774066</v>
       </c>
       <c r="B19">
-        <v>22707.76422521954</v>
+        <v>22736.14209906314</v>
       </c>
       <c r="C19">
-        <v>120062.4185205052</v>
+        <v>120852.617443975</v>
       </c>
       <c r="D19">
-        <v>28710.80284432452</v>
+        <v>28225.39564040414</v>
       </c>
       <c r="E19">
-        <v>54967.07129733431</v>
+        <v>55366.36263246141</v>
       </c>
       <c r="F19">
-        <v>36710.07386452179</v>
+        <v>37138.9331018028</v>
       </c>
       <c r="G19">
-        <v>6428.822086082505</v>
+        <v>6872.07643372157</v>
       </c>
       <c r="H19">
-        <v>50920.93709826735</v>
+        <v>50921.01448774066</v>
       </c>
       <c r="I19">
-        <v>210945</v>
+        <v>207216</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>142770.1827457248</v>
+        <v>143588.7595430381</v>
       </c>
       <c r="O19">
-        <v>83677.87414165883</v>
+        <v>83591.75827286554</v>
       </c>
       <c r="P19">
-        <v>43138.8959506043</v>
+        <v>44011.00953552437</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.90721875995</v>
+        <v>20572.96517380936</v>
       </c>
       <c r="B20">
-        <v>9049.043192402241</v>
+        <v>9452.357232511409</v>
       </c>
       <c r="C20">
-        <v>49093.34472894898</v>
+        <v>48883.91969694392</v>
       </c>
       <c r="D20">
-        <v>11983.06287140652</v>
+        <v>11343.90357094132</v>
       </c>
       <c r="E20">
-        <v>23432.51496175708</v>
+        <v>21719.57914278221</v>
       </c>
       <c r="F20">
-        <v>14655.76619081447</v>
+        <v>15733.34218117039</v>
       </c>
       <c r="G20">
-        <v>2816.488729646385</v>
+        <v>2894.544361432382</v>
       </c>
       <c r="H20">
-        <v>20572.90721875995</v>
+        <v>20572.96517380936</v>
       </c>
       <c r="I20">
-        <v>82549</v>
+        <v>79415</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>58142.38792135122</v>
+        <v>58336.27692945533</v>
       </c>
       <c r="O20">
-        <v>35415.5778331636</v>
+        <v>33063.48271372353</v>
       </c>
       <c r="P20">
-        <v>17472.25492046086</v>
+        <v>18627.88654260277</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26961.00070179144</v>
+        <v>26960.94575883326</v>
       </c>
       <c r="B21">
-        <v>11766.51530499977</v>
+        <v>12103.9098043835</v>
       </c>
       <c r="C21">
-        <v>64953.19266799691</v>
+        <v>64916.71489149427</v>
       </c>
       <c r="D21">
-        <v>13753.8688592141</v>
+        <v>15724.50383011443</v>
       </c>
       <c r="E21">
-        <v>28103.50323036628</v>
+        <v>30377.49138419113</v>
       </c>
       <c r="F21">
-        <v>21441.85075833458</v>
+        <v>22072.06889680203</v>
       </c>
       <c r="G21">
-        <v>3455.654636777598</v>
+        <v>4073.504504368216</v>
       </c>
       <c r="H21">
-        <v>26961.00070179144</v>
+        <v>26960.94575883326</v>
       </c>
       <c r="I21">
-        <v>110423</v>
+        <v>105102</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>76719.70797299668</v>
+        <v>77020.62469587776</v>
       </c>
       <c r="O21">
-        <v>41857.37208958038</v>
+        <v>46101.99521430556</v>
       </c>
       <c r="P21">
-        <v>24897.50539511218</v>
+        <v>26145.57340117025</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.035420676335</v>
+        <v>3910.011928447233</v>
       </c>
       <c r="B22">
-        <v>1789.309921312298</v>
+        <v>1827.933124872527</v>
       </c>
       <c r="C22">
-        <v>9478.645213805556</v>
+        <v>9394.391871716764</v>
       </c>
       <c r="D22">
-        <v>2246.781971015845</v>
+        <v>2159.392428106958</v>
       </c>
       <c r="E22">
-        <v>4269.998178563556</v>
+        <v>4235.590028856915</v>
       </c>
       <c r="F22">
-        <v>2961.370562855817</v>
+        <v>2895.459558729036</v>
       </c>
       <c r="G22">
-        <v>515.1475774731481</v>
+        <v>514.9453040044913</v>
       </c>
       <c r="H22">
-        <v>3910.035420676335</v>
+        <v>3910.011928447233</v>
       </c>
       <c r="I22">
-        <v>15635</v>
+        <v>16852</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11267.95513511785</v>
+        <v>11222.32499658929</v>
       </c>
       <c r="O22">
-        <v>6516.780149579401</v>
+        <v>6394.982456963872</v>
       </c>
       <c r="P22">
-        <v>3476.518140328965</v>
+        <v>3410.404862733527</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>106.0546037470889</v>
+        <v>105.9071828166413</v>
       </c>
       <c r="B23">
-        <v>49.39636953122772</v>
+        <v>45.19785784381475</v>
       </c>
       <c r="C23">
-        <v>244.5154038281977</v>
+        <v>260.8614356329825</v>
       </c>
       <c r="D23">
-        <v>61.11997819072021</v>
+        <v>58.12963693168515</v>
       </c>
       <c r="E23">
-        <v>116.2838910177358</v>
+        <v>116.5608829500053</v>
       </c>
       <c r="F23">
-        <v>70.79482741320084</v>
+        <v>74.89860410975484</v>
       </c>
       <c r="G23">
-        <v>10.98954663165923</v>
+        <v>11.56049077939528</v>
       </c>
       <c r="H23">
-        <v>106.0546037470889</v>
+        <v>105.9071828166413</v>
       </c>
       <c r="I23">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>293.9117733594254</v>
+        <v>306.0592934767972</v>
       </c>
       <c r="O23">
-        <v>177.403869208456</v>
+        <v>174.6905198816905</v>
       </c>
       <c r="P23">
-        <v>81.78437404486007</v>
+        <v>86.45909488915012</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15660.88999034486</v>
+        <v>15661.01504271517</v>
       </c>
       <c r="B24">
-        <v>7145.816191858971</v>
+        <v>7093.909412430144</v>
       </c>
       <c r="C24">
-        <v>38502.07503735587</v>
+        <v>37280.52747120633</v>
       </c>
       <c r="D24">
-        <v>9070.031718443273</v>
+        <v>8994.848703651001</v>
       </c>
       <c r="E24">
-        <v>16936.89810353145</v>
+        <v>17180.35032920317</v>
       </c>
       <c r="F24">
-        <v>10639.02132697935</v>
+        <v>10865.04722710262</v>
       </c>
       <c r="G24">
-        <v>1864.436584979046</v>
+        <v>1909.52926324013</v>
       </c>
       <c r="H24">
-        <v>15660.88999034486</v>
+        <v>15661.01504271517</v>
       </c>
       <c r="I24">
-        <v>67518</v>
+        <v>65040</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>45647.89122921484</v>
+        <v>44374.43688363647</v>
       </c>
       <c r="O24">
-        <v>26006.92982197472</v>
+        <v>26175.19903285417</v>
       </c>
       <c r="P24">
-        <v>12503.4579119584</v>
+        <v>12774.57649034274</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.962446885185</v>
+        <v>6606.934022372398</v>
       </c>
       <c r="B25">
-        <v>1457.930909889478</v>
+        <v>1480.151583802431</v>
       </c>
       <c r="C25">
-        <v>16963.75650734449</v>
+        <v>17454.39172274475</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10150.12563652163</v>
+        <v>10131.17740553421</v>
       </c>
       <c r="F25">
-        <v>6561.431266195914</v>
+        <v>5559.556762422369</v>
       </c>
       <c r="G25">
-        <v>352.6051675726346</v>
+        <v>279.7289869134855</v>
       </c>
       <c r="H25">
-        <v>6606.962446885185</v>
+        <v>6606.934022372398</v>
       </c>
       <c r="I25">
-        <v>30481</v>
+        <v>31060</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18421.68741723397</v>
+        <v>18934.54330654718</v>
       </c>
       <c r="O25">
-        <v>10150.12563652163</v>
+        <v>10131.17740553421</v>
       </c>
       <c r="P25">
-        <v>6914.036433768549</v>
+        <v>5839.285749335854</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22422.93176133901</v>
+        <v>22423.04878810197</v>
       </c>
       <c r="B26">
-        <v>4682.85462101558</v>
+        <v>4600.021800812879</v>
       </c>
       <c r="C26">
-        <v>58920.27515825335</v>
+        <v>59182.76882085968</v>
       </c>
       <c r="D26">
-        <v>8984.543007730854</v>
+        <v>8310.821986349793</v>
       </c>
       <c r="E26">
-        <v>30018.00782642657</v>
+        <v>27591.30157846211</v>
       </c>
       <c r="F26">
-        <v>17072.81769912349</v>
+        <v>19096.46544349738</v>
       </c>
       <c r="G26">
-        <v>841.1183192780655</v>
+        <v>1048.346003775527</v>
       </c>
       <c r="H26">
-        <v>22422.93176133901</v>
+        <v>22423.04878810197</v>
       </c>
       <c r="I26">
-        <v>104424</v>
+        <v>112992</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>63603.12977926893</v>
+        <v>63782.79062167256</v>
       </c>
       <c r="O26">
-        <v>39002.55083415742</v>
+        <v>35902.1235648119</v>
       </c>
       <c r="P26">
-        <v>17913.93601840156</v>
+        <v>20144.8114472729</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.94321861736</v>
+        <v>29147.89432377099</v>
       </c>
       <c r="B27">
-        <v>6535.28050950903</v>
+        <v>6092.924816946932</v>
       </c>
       <c r="C27">
-        <v>77533.6329751263</v>
+        <v>76933.39596339726</v>
       </c>
       <c r="D27">
-        <v>11614.72956887481</v>
+        <v>10995.31876898347</v>
       </c>
       <c r="E27">
-        <v>38613.56880701859</v>
+        <v>37841.3219021281</v>
       </c>
       <c r="F27">
-        <v>23735.17549957111</v>
+        <v>25952.87512830356</v>
       </c>
       <c r="G27">
-        <v>1288.296166981308</v>
+        <v>1507.149993111514</v>
       </c>
       <c r="H27">
-        <v>29147.94321861736</v>
+        <v>29147.89432377099</v>
       </c>
       <c r="I27">
-        <v>128702</v>
+        <v>130850</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>84068.91348463533</v>
+        <v>83026.32078034419</v>
       </c>
       <c r="O27">
-        <v>50228.29837589341</v>
+        <v>48836.64067111157</v>
       </c>
       <c r="P27">
-        <v>25023.47166655241</v>
+        <v>27460.02512141507</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.056374975</v>
+        <v>30698.06754531855</v>
       </c>
       <c r="B28">
-        <v>6515.917158283958</v>
+        <v>6534.706071421249</v>
       </c>
       <c r="C28">
-        <v>81012.77993372027</v>
+        <v>79862.66152727181</v>
       </c>
       <c r="D28">
-        <v>11935.45968255612</v>
+        <v>11371.25821410842</v>
       </c>
       <c r="E28">
-        <v>39960.30005476054</v>
+        <v>38119.54038250201</v>
       </c>
       <c r="F28">
-        <v>23897.58344271309</v>
+        <v>26130.06781830424</v>
       </c>
       <c r="G28">
-        <v>1222.726531654639</v>
+        <v>1305.732596558737</v>
       </c>
       <c r="H28">
-        <v>30698.056374975</v>
+        <v>30698.06754531855</v>
       </c>
       <c r="I28">
-        <v>137308</v>
+        <v>141628</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>87528.69709200424</v>
+        <v>86397.36759869306</v>
       </c>
       <c r="O28">
-        <v>51895.75973731666</v>
+        <v>49490.79859661043</v>
       </c>
       <c r="P28">
-        <v>25120.30997436773</v>
+        <v>27435.80041486298</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.11280834249</v>
+        <v>81901.02991945535</v>
       </c>
       <c r="B29">
-        <v>16695.49822851685</v>
+        <v>18029.84838962032</v>
       </c>
       <c r="C29">
-        <v>220108.3342400692</v>
+        <v>222419.3642208134</v>
       </c>
       <c r="D29">
-        <v>32112.70198178757</v>
+        <v>33711.00557080711</v>
       </c>
       <c r="E29">
-        <v>106117.2702126604</v>
+        <v>109076.845248923</v>
       </c>
       <c r="F29">
-        <v>67137.75510481359</v>
+        <v>70540.78095408261</v>
       </c>
       <c r="G29">
-        <v>3343.516543035615</v>
+        <v>3699.240728820666</v>
       </c>
       <c r="H29">
-        <v>81901.11280834249</v>
+        <v>81901.02991945535</v>
       </c>
       <c r="I29">
-        <v>350658</v>
+        <v>366737</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>236803.8324685861</v>
+        <v>240449.2126104337</v>
       </c>
       <c r="O29">
-        <v>138229.972194448</v>
+        <v>142787.8508197301</v>
       </c>
       <c r="P29">
-        <v>70481.27164784921</v>
+        <v>74240.02168290327</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.97002417376</v>
+        <v>65571.96708248011</v>
       </c>
       <c r="B30">
-        <v>13902.45939727956</v>
+        <v>15289.38276988411</v>
       </c>
       <c r="C30">
-        <v>172860.2186585464</v>
+        <v>174786.073308272</v>
       </c>
       <c r="D30">
-        <v>24563.42955996399</v>
+        <v>24648.67837004637</v>
       </c>
       <c r="E30">
-        <v>81235.13436972184</v>
+        <v>81497.67955341286</v>
       </c>
       <c r="F30">
-        <v>57477.61272546227</v>
+        <v>54896.00321577751</v>
       </c>
       <c r="G30">
-        <v>2762.818324526752</v>
+        <v>2488.659208545635</v>
       </c>
       <c r="H30">
-        <v>65571.97002417376</v>
+        <v>65571.96708248011</v>
       </c>
       <c r="I30">
-        <v>286768</v>
+        <v>289129</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>186762.6780558259</v>
+        <v>190075.4560781561</v>
       </c>
       <c r="O30">
-        <v>105798.5639296858</v>
+        <v>106146.3579234592</v>
       </c>
       <c r="P30">
-        <v>60240.43104998902</v>
+        <v>57384.66242432314</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.97469464438</v>
+        <v>90327.9091349954</v>
       </c>
       <c r="B31">
-        <v>17753.8004666554</v>
+        <v>20895.91491454957</v>
       </c>
       <c r="C31">
-        <v>231173.7718937445</v>
+        <v>240887.1623239035</v>
       </c>
       <c r="D31">
-        <v>37108.53058429477</v>
+        <v>36368.70245061947</v>
       </c>
       <c r="E31">
-        <v>119178.9605476957</v>
+        <v>112407.5720467855</v>
       </c>
       <c r="F31">
-        <v>76040.9595809938</v>
+        <v>75434.55356721021</v>
       </c>
       <c r="G31">
-        <v>4003.522085664119</v>
+        <v>4316.412831704093</v>
       </c>
       <c r="H31">
-        <v>90327.97469464438</v>
+        <v>90327.9091349954</v>
       </c>
       <c r="I31">
-        <v>390138</v>
+        <v>414735</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>248927.5723603999</v>
+        <v>261783.0772384531</v>
       </c>
       <c r="O31">
-        <v>156287.4911319905</v>
+        <v>148776.274497405</v>
       </c>
       <c r="P31">
-        <v>80044.48166665793</v>
+        <v>79750.9663989143</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.94002459691</v>
+        <v>36451.04735122367</v>
       </c>
       <c r="B32">
-        <v>7798.558169350175</v>
+        <v>7974.902568938083</v>
       </c>
       <c r="C32">
-        <v>96573.96644918014</v>
+        <v>96586.05316984284</v>
       </c>
       <c r="D32">
-        <v>15044.65361231411</v>
+        <v>14118.86562073828</v>
       </c>
       <c r="E32">
-        <v>48777.5639031055</v>
+        <v>45982.73411319975</v>
       </c>
       <c r="F32">
-        <v>30809.17698274158</v>
+        <v>32367.17709134684</v>
       </c>
       <c r="G32">
-        <v>1476.279969880501</v>
+        <v>1542.721850456038</v>
       </c>
       <c r="H32">
-        <v>36450.94002459691</v>
+        <v>36451.04735122367</v>
       </c>
       <c r="I32">
-        <v>169646</v>
+        <v>168486</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>104372.5246185303</v>
+        <v>104560.9557387809</v>
       </c>
       <c r="O32">
-        <v>63822.21751541962</v>
+        <v>60101.59973393803</v>
       </c>
       <c r="P32">
-        <v>32285.45695262208</v>
+        <v>33909.89894180288</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22121.08608789128</v>
+        <v>22120.93944787864</v>
       </c>
       <c r="B33">
-        <v>4859.237695495874</v>
+        <v>4768.783957598827</v>
       </c>
       <c r="C33">
-        <v>55612.5759263584</v>
+        <v>57380.18674425271</v>
       </c>
       <c r="D33">
-        <v>8487.073522884812</v>
+        <v>9138.888754409492</v>
       </c>
       <c r="E33">
-        <v>28933.72031850257</v>
+        <v>29777.17331783376</v>
       </c>
       <c r="F33">
-        <v>18277.27280252717</v>
+        <v>16864.13411847411</v>
       </c>
       <c r="G33">
-        <v>861.28580045267</v>
+        <v>944.3864871261341</v>
       </c>
       <c r="H33">
-        <v>22121.08608789128</v>
+        <v>22120.93944787864</v>
       </c>
       <c r="I33">
-        <v>106227</v>
+        <v>97491</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>60471.81362185428</v>
+        <v>62148.97070185153</v>
       </c>
       <c r="O33">
-        <v>37420.79384138738</v>
+        <v>38916.06207224326</v>
       </c>
       <c r="P33">
-        <v>19138.55860297984</v>
+        <v>17808.52060560025</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.98123847811</v>
+        <v>26863.96524423964</v>
       </c>
       <c r="B34">
-        <v>5913.010379589096</v>
+        <v>6029.213910057695</v>
       </c>
       <c r="C34">
-        <v>68887.35196496941</v>
+        <v>73855.38822014933</v>
       </c>
       <c r="D34">
-        <v>11216.95922404085</v>
+        <v>10574.27192908697</v>
       </c>
       <c r="E34">
-        <v>37067.34725717833</v>
+        <v>35959.68544633391</v>
       </c>
       <c r="F34">
-        <v>21343.89033121086</v>
+        <v>22922.20768466303</v>
       </c>
       <c r="G34">
-        <v>1243.30172708507</v>
+        <v>1193.693442167081</v>
       </c>
       <c r="H34">
-        <v>26863.98123847811</v>
+        <v>26863.96524423964</v>
       </c>
       <c r="I34">
-        <v>127053</v>
+        <v>127478</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>74800.3623445585</v>
+        <v>79884.60213020702</v>
       </c>
       <c r="O34">
-        <v>48284.30648121917</v>
+        <v>46533.95737542088</v>
       </c>
       <c r="P34">
-        <v>22587.19205829593</v>
+        <v>24115.90112683011</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0820364639169</v>
+        <v>454.0985860363616</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1279.397907755231</v>
+        <v>1294.001112258887</v>
       </c>
       <c r="D35">
-        <v>170.8043519200601</v>
+        <v>169.6815128401473</v>
       </c>
       <c r="E35">
-        <v>551.1936177842014</v>
+        <v>571.5079844557264</v>
       </c>
       <c r="F35">
-        <v>428.7135105863223</v>
+        <v>354.848576183424</v>
       </c>
       <c r="G35">
-        <v>22.43762097744935</v>
+        <v>21.0597974086113</v>
       </c>
       <c r="H35">
-        <v>454.0820364639169</v>
+        <v>454.0985860363616</v>
       </c>
       <c r="I35">
-        <v>2038</v>
+        <v>2101</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1279.397907755231</v>
+        <v>1294.001112258887</v>
       </c>
       <c r="O35">
-        <v>721.9979697042616</v>
+        <v>741.1894972958737</v>
       </c>
       <c r="P35">
-        <v>451.1511315637717</v>
+        <v>375.9083735920353</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9409661607621</v>
+        <v>505.0820093393821</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1465.129953676689</v>
+        <v>1390.977143798109</v>
       </c>
       <c r="D36">
-        <v>201.6276211973035</v>
+        <v>198.184290183686</v>
       </c>
       <c r="E36">
-        <v>649.4622103078534</v>
+        <v>646.9725577184332</v>
       </c>
       <c r="F36">
-        <v>456.281910727518</v>
+        <v>418.5893027425966</v>
       </c>
       <c r="G36">
-        <v>23.80261230324694</v>
+        <v>21.03689161505045</v>
       </c>
       <c r="H36">
-        <v>504.9409661607621</v>
+        <v>505.0820093393821</v>
       </c>
       <c r="I36">
-        <v>2348</v>
+        <v>2632</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1465.129953676689</v>
+        <v>1390.977143798109</v>
       </c>
       <c r="O36">
-        <v>851.0898315051569</v>
+        <v>845.1568479021192</v>
       </c>
       <c r="P36">
-        <v>480.084523030765</v>
+        <v>439.626194357647</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.05882184568</v>
+        <v>11107.96978516083</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>31249.32359889802</v>
+        <v>31411.78474083775</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>17186.07605617975</v>
+        <v>18378.93718240349</v>
       </c>
       <c r="F37">
-        <v>3497.766703386871</v>
+        <v>3102.139513295617</v>
       </c>
       <c r="G37">
-        <v>6598.149715989099</v>
+        <v>5968.266362197772</v>
       </c>
       <c r="H37">
-        <v>11108.05882184568</v>
+        <v>11107.96978516083</v>
       </c>
       <c r="I37">
-        <v>58787</v>
+        <v>57055</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31249.32359889802</v>
+        <v>31411.78474083775</v>
       </c>
       <c r="O37">
-        <v>17186.07605617975</v>
+        <v>18378.93718240349</v>
       </c>
       <c r="P37">
-        <v>10095.91641937597</v>
+        <v>9070.405875493389</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.904870516014</v>
+        <v>1090.920678234365</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3032.65866542976</v>
+        <v>2974.020455796707</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1770.749385769594</v>
+        <v>1742.166957585233</v>
       </c>
       <c r="F38">
-        <v>370.0449501656455</v>
+        <v>328.0186568098828</v>
       </c>
       <c r="G38">
-        <v>670.820377144637</v>
+        <v>604.4458937505054</v>
       </c>
       <c r="H38">
-        <v>1090.904870516014</v>
+        <v>1090.920678234365</v>
       </c>
       <c r="I38">
-        <v>5694</v>
+        <v>5319</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3032.65866542976</v>
+        <v>2974.020455796707</v>
       </c>
       <c r="O38">
-        <v>1770.749385769594</v>
+        <v>1742.166957585233</v>
       </c>
       <c r="P38">
-        <v>1040.865327310283</v>
+        <v>932.4645505603883</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9761665381</v>
+        <v>153572.0214931596</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>431438.8528576476</v>
+        <v>418786.6289103855</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>245233.8279544101</v>
+        <v>230514.58441108</v>
       </c>
       <c r="F39">
-        <v>48703.19875170993</v>
+        <v>46486.83382407851</v>
       </c>
       <c r="G39">
-        <v>91324.9043515767</v>
+        <v>90708.63151455541</v>
       </c>
       <c r="H39">
-        <v>153571.9761665381</v>
+        <v>153572.0214931596</v>
       </c>
       <c r="I39">
-        <v>763871</v>
+        <v>823276</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>431438.8528576476</v>
+        <v>418786.6289103855</v>
       </c>
       <c r="O39">
-        <v>245233.8279544101</v>
+        <v>230514.58441108</v>
       </c>
       <c r="P39">
-        <v>140028.1031032866</v>
+        <v>137195.4653386339</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9520086178</v>
+        <v>152869.0332471397</v>
       </c>
       <c r="B40">
-        <v>26053.7202338548</v>
+        <v>27412.45454879425</v>
       </c>
       <c r="C40">
-        <v>404671.696013483</v>
+        <v>406536.1956522643</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>250974.0146500851</v>
+        <v>262155.1463053529</v>
       </c>
       <c r="F40">
-        <v>48239.57245107562</v>
+        <v>51775.86199495848</v>
       </c>
       <c r="G40">
-        <v>85014.97423608888</v>
+        <v>92668.31844307341</v>
       </c>
       <c r="H40">
-        <v>152868.9520086178</v>
+        <v>152869.0332471397</v>
       </c>
       <c r="I40">
-        <v>762385</v>
+        <v>757120</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>430725.4162473378</v>
+        <v>433948.6502010585</v>
       </c>
       <c r="O40">
-        <v>250974.0146500851</v>
+        <v>262155.1463053529</v>
       </c>
       <c r="P40">
-        <v>133254.5466871645</v>
+        <v>144444.1804380319</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0234418836</v>
+        <v>339433.0461032283</v>
       </c>
       <c r="B41">
-        <v>60258.29193894949</v>
+        <v>62852.90011978455</v>
       </c>
       <c r="C41">
-        <v>904703.6639652071</v>
+        <v>935858.9802740903</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>561272.4579341046</v>
+        <v>537999.4203039332</v>
       </c>
       <c r="F41">
-        <v>107997.7476605137</v>
+        <v>95024.08571417909</v>
       </c>
       <c r="G41">
-        <v>192400.0223160649</v>
+        <v>181672.5154575294</v>
       </c>
       <c r="H41">
-        <v>339433.0234418836</v>
+        <v>339433.0461032283</v>
       </c>
       <c r="I41">
-        <v>1622623</v>
+        <v>1638030</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>964961.9559041566</v>
+        <v>998711.8803938748</v>
       </c>
       <c r="O41">
-        <v>561272.4579341046</v>
+        <v>537999.4203039332</v>
       </c>
       <c r="P41">
-        <v>300397.7699765785</v>
+        <v>276696.6011717085</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245458.923924203</v>
+        <v>245459.0770857332</v>
       </c>
       <c r="B42">
-        <v>46002.04992539506</v>
+        <v>41466.11156239646</v>
       </c>
       <c r="C42">
-        <v>671654.9584279355</v>
+        <v>659554.0189649926</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>418132.6323408838</v>
+        <v>390439.6533819733</v>
       </c>
       <c r="F42">
-        <v>73821.17087196643</v>
+        <v>74908.35711305319</v>
       </c>
       <c r="G42">
-        <v>142702.6851373428</v>
+        <v>138908.0817909864</v>
       </c>
       <c r="H42">
-        <v>245458.923924203</v>
+        <v>245459.0770857332</v>
       </c>
       <c r="I42">
-        <v>1170132</v>
+        <v>1134134</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>717657.0083533305</v>
+        <v>701020.130527389</v>
       </c>
       <c r="O42">
-        <v>418132.6323408838</v>
+        <v>390439.6533819733</v>
       </c>
       <c r="P42">
-        <v>216523.8560093092</v>
+        <v>213816.4389040396</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.949476596</v>
+        <v>367626.9396702386</v>
       </c>
       <c r="B43">
-        <v>65956.90006047286</v>
+        <v>61726.40166926458</v>
       </c>
       <c r="C43">
-        <v>1010896.995815162</v>
+        <v>982127.7620761669</v>
       </c>
       <c r="D43">
-        <v>76917.45671023296</v>
+        <v>78751.17080997484</v>
       </c>
       <c r="E43">
-        <v>537555.9129471069</v>
+        <v>528367.2321728683</v>
       </c>
       <c r="F43">
-        <v>125540.8853169989</v>
+        <v>115618.8204909115</v>
       </c>
       <c r="G43">
-        <v>234936.4847059666</v>
+        <v>219416.2022770164</v>
       </c>
       <c r="H43">
-        <v>367626.949476596</v>
+        <v>367626.9396702386</v>
       </c>
       <c r="I43">
-        <v>1727615</v>
+        <v>1858827</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1076853.895875635</v>
+        <v>1043854.163745432</v>
       </c>
       <c r="O43">
-        <v>614473.3696573399</v>
+        <v>607118.4029828431</v>
       </c>
       <c r="P43">
-        <v>360477.3700229655</v>
+        <v>335035.0227679279</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470397.074121194</v>
+        <v>470396.9450038935</v>
       </c>
       <c r="B44">
-        <v>77685.03016352115</v>
+        <v>91746.80542615525</v>
       </c>
       <c r="C44">
-        <v>1265335.75191703</v>
+        <v>1302311.965760544</v>
       </c>
       <c r="D44">
-        <v>106971.3999336943</v>
+        <v>109556.0838979124</v>
       </c>
       <c r="E44">
-        <v>706649.14684569</v>
+        <v>726514.6036507428</v>
       </c>
       <c r="F44">
-        <v>136896.9309038279</v>
+        <v>138517.7209284891</v>
       </c>
       <c r="G44">
-        <v>261405.1388863334</v>
+        <v>265106.1166394571</v>
       </c>
       <c r="H44">
-        <v>470397.074121194</v>
+        <v>470396.9450038935</v>
       </c>
       <c r="I44">
-        <v>2325484</v>
+        <v>2191631</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1343020.782080551</v>
+        <v>1394058.771186699</v>
       </c>
       <c r="O44">
-        <v>813620.5467793843</v>
+        <v>836070.6875486552</v>
       </c>
       <c r="P44">
-        <v>398302.0697901613</v>
+        <v>403623.8375679462</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9792884456</v>
+        <v>307103.0935596603</v>
       </c>
       <c r="B45">
-        <v>56980.11901441466</v>
+        <v>55502.39182951157</v>
       </c>
       <c r="C45">
-        <v>829738.1406150413</v>
+        <v>810504.3759480122</v>
       </c>
       <c r="D45">
-        <v>75468.70125144288</v>
+        <v>69198.04115557036</v>
       </c>
       <c r="E45">
-        <v>494747.3713263406</v>
+        <v>433054.2962365149</v>
       </c>
       <c r="F45">
-        <v>96657.96737472266</v>
+        <v>101053.4865930365</v>
       </c>
       <c r="G45">
-        <v>189160.1219183946</v>
+        <v>197799.8060376439</v>
       </c>
       <c r="H45">
-        <v>307102.9792884456</v>
+        <v>307103.0935596603</v>
       </c>
       <c r="I45">
-        <v>1498635</v>
+        <v>1520528</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>886718.2596294559</v>
+        <v>866006.7677775238</v>
       </c>
       <c r="O45">
-        <v>570216.0725777835</v>
+        <v>502252.3373920853</v>
       </c>
       <c r="P45">
-        <v>285818.0892931173</v>
+        <v>298853.2926306804</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9455894138</v>
+        <v>327914.9355784148</v>
       </c>
       <c r="B46">
-        <v>58265.58376313425</v>
+        <v>55568.16639008797</v>
       </c>
       <c r="C46">
-        <v>864887.4805140003</v>
+        <v>832503.2398310331</v>
       </c>
       <c r="D46">
-        <v>68584.98312904501</v>
+        <v>74092.18546569375</v>
       </c>
       <c r="E46">
-        <v>469315.5874008989</v>
+        <v>475846.0464623541</v>
       </c>
       <c r="F46">
-        <v>98824.40005132674</v>
+        <v>114884.8035094334</v>
       </c>
       <c r="G46">
-        <v>179945.5080288822</v>
+        <v>208976.5722157007</v>
       </c>
       <c r="H46">
-        <v>327914.9455894138</v>
+        <v>327914.9355784148</v>
       </c>
       <c r="I46">
-        <v>1579523</v>
+        <v>1480206</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>923153.0642771345</v>
+        <v>888071.406221121</v>
       </c>
       <c r="O46">
-        <v>537900.5705299439</v>
+        <v>549938.2319280478</v>
       </c>
       <c r="P46">
-        <v>278769.9080802089</v>
+        <v>323861.375725134</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659113.9919268568</v>
+        <v>659114.0105644751</v>
       </c>
       <c r="B47">
-        <v>114833.4022384572</v>
+        <v>118423.1221768463</v>
       </c>
       <c r="C47">
-        <v>1718486.705544689</v>
+        <v>1779412.068511858</v>
       </c>
       <c r="D47">
-        <v>149963.4336703836</v>
+        <v>149636.400961823</v>
       </c>
       <c r="E47">
-        <v>1005892.359668161</v>
+        <v>961367.8437687384</v>
       </c>
       <c r="F47">
-        <v>201375.3275268437</v>
+        <v>185276.287245923</v>
       </c>
       <c r="G47">
-        <v>402160.9791722148</v>
+        <v>348618.4438523118</v>
       </c>
       <c r="H47">
-        <v>659113.9919268568</v>
+        <v>659114.0105644751</v>
       </c>
       <c r="I47">
-        <v>3094268</v>
+        <v>2946683</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1833320.107783146</v>
+        <v>1897835.190688704</v>
       </c>
       <c r="O47">
-        <v>1155855.793338544</v>
+        <v>1111004.244730562</v>
       </c>
       <c r="P47">
-        <v>603536.3066990585</v>
+        <v>533894.7310982348</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195931.0975797795</v>
+        <v>195931.0993365993</v>
       </c>
       <c r="B48">
-        <v>36325.69520138549</v>
+        <v>34494.36637975855</v>
       </c>
       <c r="C48">
-        <v>539020.078498473</v>
+        <v>519355.120141558</v>
       </c>
       <c r="D48">
-        <v>38992.45731035249</v>
+        <v>46347.80510547784</v>
       </c>
       <c r="E48">
-        <v>262588.6267808401</v>
+        <v>307644.1250799656</v>
       </c>
       <c r="F48">
-        <v>65090.2171399168</v>
+        <v>64083.32757639396</v>
       </c>
       <c r="G48">
-        <v>124016.2326213729</v>
+        <v>115183.5982780477</v>
       </c>
       <c r="H48">
-        <v>195931.0975797795</v>
+        <v>195931.0993365993</v>
       </c>
       <c r="I48">
-        <v>929424</v>
+        <v>942137</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>575345.7736998586</v>
+        <v>553849.4865213166</v>
       </c>
       <c r="O48">
-        <v>301581.0840911926</v>
+        <v>353991.9301854434</v>
       </c>
       <c r="P48">
-        <v>189106.4497612897</v>
+        <v>179266.9258544417</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9517042514</v>
+        <v>174400.0936090519</v>
       </c>
       <c r="B49">
-        <v>30400.57846544357</v>
+        <v>29844.37813484554</v>
       </c>
       <c r="C49">
-        <v>457608.7884425218</v>
+        <v>464158.1753251787</v>
       </c>
       <c r="D49">
-        <v>37320.81201241689</v>
+        <v>36315.09256803367</v>
       </c>
       <c r="E49">
-        <v>235321.0557876572</v>
+        <v>244578.0241004716</v>
       </c>
       <c r="F49">
-        <v>51684.5799848077</v>
+        <v>54294.81115101117</v>
       </c>
       <c r="G49">
-        <v>99756.95462099358</v>
+        <v>99310.86305319</v>
       </c>
       <c r="H49">
-        <v>174399.9517042514</v>
+        <v>174400.0936090519</v>
       </c>
       <c r="I49">
-        <v>863850</v>
+        <v>818105</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>488009.3669079654</v>
+        <v>494002.5534600242</v>
       </c>
       <c r="O49">
-        <v>272641.8678000741</v>
+        <v>280893.1166685053</v>
       </c>
       <c r="P49">
-        <v>151441.5346058013</v>
+        <v>153605.6742042012</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60247.92225304873</v>
+        <v>60248.03610754425</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>170584.0701114156</v>
+        <v>170786.3397887813</v>
       </c>
       <c r="D50">
-        <v>14225.9779082275</v>
+        <v>14206.38705155656</v>
       </c>
       <c r="E50">
-        <v>95758.33711065314</v>
+        <v>95599.29965176812</v>
       </c>
       <c r="F50">
-        <v>18665.41841217144</v>
+        <v>17655.87998937965</v>
       </c>
       <c r="G50">
-        <v>37231.19397177158</v>
+        <v>33446.48017265542</v>
       </c>
       <c r="H50">
-        <v>60247.92225304873</v>
+        <v>60248.03610754425</v>
       </c>
       <c r="I50">
-        <v>301183</v>
+        <v>276477</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>170584.0701114156</v>
+        <v>170786.3397887813</v>
       </c>
       <c r="O50">
-        <v>109984.3150188807</v>
+        <v>109805.6867033247</v>
       </c>
       <c r="P50">
-        <v>55896.61238394302</v>
+        <v>51102.36016203508</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8460.941589714928</v>
+        <v>8461.013432159414</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23670.43227293625</v>
+        <v>23379.94538678126</v>
       </c>
       <c r="D51">
-        <v>1687.153821189724</v>
+        <v>1818.353009237186</v>
       </c>
       <c r="E51">
-        <v>11569.92978722404</v>
+        <v>11757.69153169604</v>
       </c>
       <c r="F51">
-        <v>2689.499505035774</v>
+        <v>2642.722084810348</v>
       </c>
       <c r="G51">
-        <v>4862.546120733079</v>
+        <v>4684.062563156921</v>
       </c>
       <c r="H51">
-        <v>8460.941589714928</v>
+        <v>8461.013432159414</v>
       </c>
       <c r="I51">
-        <v>41613</v>
+        <v>42282</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23670.43227293625</v>
+        <v>23379.94538678126</v>
       </c>
       <c r="O51">
-        <v>13257.08360841377</v>
+        <v>13576.04454093322</v>
       </c>
       <c r="P51">
-        <v>7552.045625768853</v>
+        <v>7326.78464796727</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2463.000508008365</v>
+        <v>2462.911669099354</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7724.036144554031</v>
+        <v>7654.749422260584</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1122.934296365688</v>
+        <v>1110.301457087435</v>
       </c>
       <c r="F52">
-        <v>0.4042408917554472</v>
+        <v>3.055227885328174</v>
       </c>
       <c r="G52">
-        <v>12.24608179714996</v>
+        <v>11.65401506052098</v>
       </c>
       <c r="H52">
-        <v>2463.000508008365</v>
+        <v>2462.911669099354</v>
       </c>
       <c r="I52">
-        <v>10845</v>
+        <v>11275</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7724.036144554031</v>
+        <v>7654.749422260584</v>
       </c>
       <c r="O52">
-        <v>1122.934296365688</v>
+        <v>1110.301457087435</v>
       </c>
       <c r="P52">
-        <v>12.65032268890541</v>
+        <v>14.70924294584916</v>
       </c>
       <c r="Q52">
-        <v>13.35162981685943</v>
+        <v>14.50987795628362</v>
       </c>
       <c r="R52">
-        <v>46.01852648373123</v>
+        <v>39.2573754674229</v>
       </c>
       <c r="S52">
-        <v>59.37015630059067</v>
+        <v>53.76725342370651</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.048042512259</v>
+        <v>3703.905160330834</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11441.86231001237</v>
+        <v>11503.14516481088</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1696.777681292975</v>
+        <v>1587.566285075002</v>
       </c>
       <c r="F53">
-        <v>2.48843187788428</v>
+        <v>0.5737386276292589</v>
       </c>
       <c r="G53">
-        <v>12.15924546952377</v>
+        <v>5.5456014218559</v>
       </c>
       <c r="H53">
-        <v>3704.048042512259</v>
+        <v>3703.905160330834</v>
       </c>
       <c r="I53">
-        <v>16290</v>
+        <v>16253</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11441.86231001237</v>
+        <v>11503.14516481088</v>
       </c>
       <c r="O53">
-        <v>1696.777681292975</v>
+        <v>1587.566285075002</v>
       </c>
       <c r="P53">
-        <v>14.64767734740805</v>
+        <v>6.119340049485158</v>
       </c>
       <c r="Q53">
-        <v>22.78797487418542</v>
+        <v>27.08623639494281</v>
       </c>
       <c r="R53">
-        <v>76.41397168828075</v>
+        <v>68.48319907784811</v>
       </c>
       <c r="S53">
-        <v>99.20194656246616</v>
+        <v>95.56943547279093</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.9253088267</v>
+        <v>169753.9590590169</v>
       </c>
       <c r="B54">
-        <v>42380.89195274997</v>
+        <v>42456.52419040031</v>
       </c>
       <c r="C54">
-        <v>511927.3212672712</v>
+        <v>495694.2998630444</v>
       </c>
       <c r="D54">
-        <v>5696.965510684333</v>
+        <v>5216.753654415218</v>
       </c>
       <c r="E54">
-        <v>69993.44014941751</v>
+        <v>71825.16384992421</v>
       </c>
       <c r="F54">
-        <v>47.34604015619725</v>
+        <v>142.7868088849235</v>
       </c>
       <c r="G54">
-        <v>305.2462681312565</v>
+        <v>264.2662628172022</v>
       </c>
       <c r="H54">
-        <v>169753.9253088267</v>
+        <v>169753.9590590169</v>
       </c>
       <c r="I54">
-        <v>721472</v>
+        <v>722735</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>554308.2132200211</v>
+        <v>538150.8240534447</v>
       </c>
       <c r="O54">
-        <v>75690.40566010184</v>
+        <v>77041.91750433944</v>
       </c>
       <c r="P54">
-        <v>352.5923082874538</v>
+        <v>407.0530717021258</v>
       </c>
       <c r="Q54">
-        <v>946.2724187756788</v>
+        <v>1058.499950899499</v>
       </c>
       <c r="R54">
-        <v>3363.928984276608</v>
+        <v>3075.876653498647</v>
       </c>
       <c r="S54">
-        <v>4310.201403052287</v>
+        <v>4134.376604398147</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301001.0721171172</v>
+        <v>301001.0205885926</v>
       </c>
       <c r="B55">
-        <v>71836.51190628263</v>
+        <v>74328.04727722026</v>
       </c>
       <c r="C55">
-        <v>846962.7928815249</v>
+        <v>878857.3867795308</v>
       </c>
       <c r="D55">
-        <v>10036.05259678109</v>
+        <v>9228.012703627255</v>
       </c>
       <c r="E55">
-        <v>127622.3866086352</v>
+        <v>121363.0753090092</v>
       </c>
       <c r="F55">
-        <v>56.53261304409327</v>
+        <v>185.677326029059</v>
       </c>
       <c r="G55">
-        <v>640.5442456003431</v>
+        <v>2190.166253234004</v>
       </c>
       <c r="H55">
-        <v>301001.0721171172</v>
+        <v>301001.0205885926</v>
       </c>
       <c r="I55">
-        <v>1269815</v>
+        <v>1217498</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>918799.3047878075</v>
+        <v>953185.4340567511</v>
       </c>
       <c r="O55">
-        <v>137658.4392054163</v>
+        <v>130591.0880126365</v>
       </c>
       <c r="P55">
-        <v>697.0768586444364</v>
+        <v>2375.843579263063</v>
       </c>
       <c r="Q55">
-        <v>1995.800319250412</v>
+        <v>1501.921958436987</v>
       </c>
       <c r="R55">
-        <v>5100.08783828477</v>
+        <v>5341.57883974461</v>
       </c>
       <c r="S55">
-        <v>7095.888157535183</v>
+        <v>6843.500798181597</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485904.0169851684</v>
+        <v>485903.9203722071</v>
       </c>
       <c r="B56">
-        <v>112778.1019086252</v>
+        <v>112858.3307675122</v>
       </c>
       <c r="C56">
-        <v>1370072.95199698</v>
+        <v>1423141.139608328</v>
       </c>
       <c r="D56">
-        <v>15281.29012340797</v>
+        <v>16660.93211513679</v>
       </c>
       <c r="E56">
-        <v>207320.053396206</v>
+        <v>215730.0942132592</v>
       </c>
       <c r="F56">
-        <v>81.70873571070507</v>
+        <v>216.1355120584238</v>
       </c>
       <c r="G56">
-        <v>1165.603317850642</v>
+        <v>1791.044800045014</v>
       </c>
       <c r="H56">
-        <v>485904.0169851684</v>
+        <v>485903.9203722071</v>
       </c>
       <c r="I56">
-        <v>2054865</v>
+        <v>1973323</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1482851.053905605</v>
+        <v>1535999.47037584</v>
       </c>
       <c r="O56">
-        <v>222601.3435196139</v>
+        <v>232391.026328396</v>
       </c>
       <c r="P56">
-        <v>1247.312053561347</v>
+        <v>2007.180312103437</v>
       </c>
       <c r="Q56">
-        <v>3517.997491050396</v>
+        <v>3334.648419688821</v>
       </c>
       <c r="R56">
-        <v>9092.287660532396</v>
+        <v>9483.502603885288</v>
       </c>
       <c r="S56">
-        <v>12610.28515158279</v>
+        <v>12818.15102357411</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757270.9821966343</v>
+        <v>757271.0749015817</v>
       </c>
       <c r="B57">
-        <v>179632.0166276063</v>
+        <v>192679.3413490594</v>
       </c>
       <c r="C57">
-        <v>2187842.046906917</v>
+        <v>2274554.367970427</v>
       </c>
       <c r="D57">
-        <v>27264.51791443915</v>
+        <v>22511.17639863825</v>
       </c>
       <c r="E57">
-        <v>335102.6226803497</v>
+        <v>329296.6684562462</v>
       </c>
       <c r="F57">
-        <v>534.4479378618165</v>
+        <v>553.0283679112913</v>
       </c>
       <c r="G57">
-        <v>2586.827711278247</v>
+        <v>1915.502932054232</v>
       </c>
       <c r="H57">
-        <v>757270.9821966343</v>
+        <v>757271.0749015817</v>
       </c>
       <c r="I57">
-        <v>3011792</v>
+        <v>3299532</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2367474.063534524</v>
+        <v>2467233.709319486</v>
       </c>
       <c r="O57">
-        <v>362367.1405947888</v>
+        <v>351807.8448548844</v>
       </c>
       <c r="P57">
-        <v>3121.275649140063</v>
+        <v>2468.531299965523</v>
       </c>
       <c r="Q57">
-        <v>5810.958918778481</v>
+        <v>3799.783342742</v>
       </c>
       <c r="R57">
-        <v>15853.96965679985</v>
+        <v>13590.21753931172</v>
       </c>
       <c r="S57">
-        <v>21664.92857557833</v>
+        <v>17390.00088205372</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.0994428548</v>
+        <v>651329.1168599018</v>
       </c>
       <c r="B58">
-        <v>167272.5441542417</v>
+        <v>159004.9731931246</v>
       </c>
       <c r="C58">
-        <v>1877417.579115029</v>
+        <v>1878674.002294326</v>
       </c>
       <c r="D58">
-        <v>15651.90309771607</v>
+        <v>22397.90179566107</v>
       </c>
       <c r="E58">
-        <v>267715.6667720688</v>
+        <v>288185.8132775347</v>
       </c>
       <c r="F58">
-        <v>262.1606561381557</v>
+        <v>719.9058165090759</v>
       </c>
       <c r="G58">
-        <v>1476.3665880035</v>
+        <v>3462.017488845772</v>
       </c>
       <c r="H58">
-        <v>651329.0994428548</v>
+        <v>651329.1168599018</v>
       </c>
       <c r="I58">
-        <v>2817385</v>
+        <v>2767254</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2044690.12326927</v>
+        <v>2037678.975487451</v>
       </c>
       <c r="O58">
-        <v>283367.5698697849</v>
+        <v>310583.7150731958</v>
       </c>
       <c r="P58">
-        <v>1738.527244141656</v>
+        <v>4181.923305354848</v>
       </c>
       <c r="Q58">
-        <v>4524.424246224119</v>
+        <v>4015.707205685953</v>
       </c>
       <c r="R58">
-        <v>12995.01812193002</v>
+        <v>11519.59690598099</v>
       </c>
       <c r="S58">
-        <v>17519.44236815414</v>
+        <v>15535.30411166694</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.0907625639</v>
+        <v>889112.0247156933</v>
       </c>
       <c r="B59">
-        <v>215082.5416986555</v>
+        <v>224393.190558752</v>
       </c>
       <c r="C59">
-        <v>2529216.823267535</v>
+        <v>2634245.30164147</v>
       </c>
       <c r="D59">
-        <v>29555.12508318899</v>
+        <v>27894.70630406361</v>
       </c>
       <c r="E59">
-        <v>404434.1030311379</v>
+        <v>394701.5674253319</v>
       </c>
       <c r="F59">
-        <v>657.8169010513435</v>
+        <v>859.1228501117272</v>
       </c>
       <c r="G59">
-        <v>3860.35226550675</v>
+        <v>1354.060735406492</v>
       </c>
       <c r="H59">
-        <v>889112.0907625639</v>
+        <v>889112.0247156933</v>
       </c>
       <c r="I59">
-        <v>3738021</v>
+        <v>3787653</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2744299.364966191</v>
+        <v>2858638.492200222</v>
       </c>
       <c r="O59">
-        <v>433989.2281143269</v>
+        <v>422596.2737293955</v>
       </c>
       <c r="P59">
-        <v>4518.169166558094</v>
+        <v>2213.183585518219</v>
       </c>
       <c r="Q59">
-        <v>8182.185447644327</v>
+        <v>5112.449877183784</v>
       </c>
       <c r="R59">
-        <v>20631.26351888647</v>
+        <v>14371.55256687346</v>
       </c>
       <c r="S59">
-        <v>28813.4489665308</v>
+        <v>19484.00244405724</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465365.0157992207</v>
+        <v>465364.9211327936</v>
       </c>
       <c r="B60">
-        <v>120213.7972789878</v>
+        <v>113743.1262860034</v>
       </c>
       <c r="C60">
-        <v>1417599.669259571</v>
+        <v>1346789.182842556</v>
       </c>
       <c r="D60">
-        <v>15499.58598286446</v>
+        <v>15452.42253496469</v>
       </c>
       <c r="E60">
-        <v>203461.044050392</v>
+        <v>201062.4881669538</v>
       </c>
       <c r="F60">
-        <v>398.4079471392009</v>
+        <v>52.376978490982</v>
       </c>
       <c r="G60">
-        <v>1959.50693434121</v>
+        <v>406.4944063377234</v>
       </c>
       <c r="H60">
-        <v>465365.0157992207</v>
+        <v>465364.9211327936</v>
       </c>
       <c r="I60">
-        <v>1945356</v>
+        <v>1991028</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1537813.466538559</v>
+        <v>1460532.30912856</v>
       </c>
       <c r="O60">
-        <v>218960.6300332565</v>
+        <v>216514.9107019185</v>
       </c>
       <c r="P60">
-        <v>2357.914881480411</v>
+        <v>458.8713848287054</v>
       </c>
       <c r="Q60">
-        <v>3602.008878380466</v>
+        <v>2668.730011651825</v>
       </c>
       <c r="R60">
-        <v>9062.281372197083</v>
+        <v>9019.792301287611</v>
       </c>
       <c r="S60">
-        <v>12664.29025057755</v>
+        <v>11688.52231293944</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9654155091</v>
+        <v>340623.9713903128</v>
       </c>
       <c r="B61">
-        <v>85708.09898158402</v>
+        <v>81281.61858827795</v>
       </c>
       <c r="C61">
-        <v>993593.3484978916</v>
+        <v>986963.0996879295</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>152713.7959089173</v>
+        <v>143607.7293506882</v>
       </c>
       <c r="F61">
-        <v>86.46370400778942</v>
+        <v>262.9461776911761</v>
       </c>
       <c r="G61">
-        <v>363.8009416007321</v>
+        <v>372.9564298694514</v>
       </c>
       <c r="H61">
-        <v>340623.9654155091</v>
+        <v>340623.9713903128</v>
       </c>
       <c r="I61">
-        <v>1484973</v>
+        <v>1448372</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1079301.447479476</v>
+        <v>1068244.718276207</v>
       </c>
       <c r="O61">
-        <v>152713.7959089173</v>
+        <v>143607.7293506882</v>
       </c>
       <c r="P61">
-        <v>450.2646456085216</v>
+        <v>635.9026075606275</v>
       </c>
       <c r="Q61">
-        <v>2448.63551464061</v>
+        <v>1953.94017288141</v>
       </c>
       <c r="R61">
-        <v>6916.825198359751</v>
+        <v>5367.793265585919</v>
       </c>
       <c r="S61">
-        <v>9365.460713000361</v>
+        <v>7321.733438467329</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.0707611142</v>
+        <v>469691.0912051115</v>
       </c>
       <c r="B62">
-        <v>115430.6516200179</v>
+        <v>114330.3009405352</v>
       </c>
       <c r="C62">
-        <v>1381061.060066629</v>
+        <v>1339767.410978292</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>253305.6326955963</v>
+        <v>216694.6738256429</v>
       </c>
       <c r="F62">
-        <v>133.6315257302832</v>
+        <v>350.7251463839936</v>
       </c>
       <c r="G62">
-        <v>711.436102750181</v>
+        <v>2141.803231712549</v>
       </c>
       <c r="H62">
-        <v>469691.0707611142</v>
+        <v>469691.0912051115</v>
       </c>
       <c r="I62">
-        <v>2017356</v>
+        <v>1994266</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1496491.711686647</v>
+        <v>1454097.711918827</v>
       </c>
       <c r="O62">
-        <v>253305.6326955963</v>
+        <v>216694.6738256429</v>
       </c>
       <c r="P62">
-        <v>845.0676284804642</v>
+        <v>2492.528378096542</v>
       </c>
       <c r="Q62">
-        <v>3783.112232557294</v>
+        <v>4113.456895066748</v>
       </c>
       <c r="R62">
-        <v>11582.76436617099</v>
+        <v>9240.539426791218</v>
       </c>
       <c r="S62">
-        <v>15365.87659872828</v>
+        <v>13353.99632185797</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.07881571341</v>
+        <v>20457.04226662063</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>62643.28033709099</v>
+        <v>64213.18159222118</v>
       </c>
       <c r="D63">
-        <v>607.5713972687361</v>
+        <v>608.6833423578065</v>
       </c>
       <c r="E63">
-        <v>8601.201446296898</v>
+        <v>8501.319354298377</v>
       </c>
       <c r="F63">
-        <v>8.830505065067637</v>
+        <v>7.556051891203451</v>
       </c>
       <c r="G63">
-        <v>50.35960915093202</v>
+        <v>73.10244057383349</v>
       </c>
       <c r="H63">
-        <v>20457.07881571341</v>
+        <v>20457.04226662063</v>
       </c>
       <c r="I63">
-        <v>86161</v>
+        <v>94931</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>62643.28033709099</v>
+        <v>64213.18159222118</v>
       </c>
       <c r="O63">
-        <v>9208.772843565634</v>
+        <v>9110.002696656184</v>
       </c>
       <c r="P63">
-        <v>59.19011421599966</v>
+        <v>80.65849246503694</v>
       </c>
       <c r="Q63">
-        <v>179.6035711039599</v>
+        <v>127.002835119605</v>
       </c>
       <c r="R63">
-        <v>318.5039471297917</v>
+        <v>416.5743952099024</v>
       </c>
       <c r="S63">
-        <v>498.1075182337517</v>
+        <v>543.5772303295074</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20630.92427914101</v>
+        <v>20630.92112165091</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>62026.81295389847</v>
+        <v>65133.435762965</v>
       </c>
       <c r="D64">
-        <v>628.6341686147642</v>
+        <v>609.1149811730613</v>
       </c>
       <c r="E64">
-        <v>8306.357732057244</v>
+        <v>8556.596822386488</v>
       </c>
       <c r="F64">
-        <v>0.8198783325331732</v>
+        <v>12.56734714202231</v>
       </c>
       <c r="G64">
-        <v>48.35748508199313</v>
+        <v>59.12324482910702</v>
       </c>
       <c r="H64">
-        <v>20630.92427914101</v>
+        <v>20630.92112165091</v>
       </c>
       <c r="I64">
-        <v>94281</v>
+        <v>90758</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>62026.81295389847</v>
+        <v>65133.435762965</v>
       </c>
       <c r="O64">
-        <v>8934.991900672008</v>
+        <v>9165.711803559549</v>
       </c>
       <c r="P64">
-        <v>49.1773634145263</v>
+        <v>71.69059197112932</v>
       </c>
       <c r="Q64">
-        <v>129.4935234145833</v>
+        <v>123.8059805387828</v>
       </c>
       <c r="R64">
-        <v>363.7961369902872</v>
+        <v>417.5524278823431</v>
       </c>
       <c r="S64">
-        <v>493.2896604048705</v>
+        <v>541.3584084211259</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1768.028409260559</v>
+        <v>1768.027847290232</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5503.227396951193</v>
+        <v>5691.49617510634</v>
       </c>
       <c r="D65">
-        <v>54.33893144100592</v>
+        <v>43.84421450257791</v>
       </c>
       <c r="E65">
-        <v>707.50838503585</v>
+        <v>664.8026468252995</v>
       </c>
       <c r="F65">
-        <v>0.9337120821784417</v>
+        <v>2.111004341596852</v>
       </c>
       <c r="G65">
-        <v>2.215280959955842</v>
+        <v>10.95711386243385</v>
       </c>
       <c r="H65">
-        <v>1768.028409260559</v>
+        <v>1768.027847290232</v>
       </c>
       <c r="I65">
-        <v>8083</v>
+        <v>8297</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5503.227396951193</v>
+        <v>5691.49617510634</v>
       </c>
       <c r="O65">
-        <v>761.8473164768559</v>
+        <v>708.6468613278773</v>
       </c>
       <c r="P65">
-        <v>3.148993042134284</v>
+        <v>13.0681182040307</v>
       </c>
       <c r="Q65">
-        <v>14.62691313361463</v>
+        <v>13.71235266868636</v>
       </c>
       <c r="R65">
-        <v>32.32179378626969</v>
+        <v>39.56657450097082</v>
       </c>
       <c r="S65">
-        <v>46.94870691988433</v>
+        <v>53.27892716965717</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>122.998363237286</v>
+        <v>123.0542276011066</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>380.2163885566054</v>
+        <v>384.3726292635126</v>
       </c>
       <c r="D66">
-        <v>5.62084058934801</v>
+        <v>5.028875080255572</v>
       </c>
       <c r="E66">
-        <v>57.89193738977127</v>
+        <v>61.07544649364522</v>
       </c>
       <c r="F66">
-        <v>0.1260273853303242</v>
+        <v>0.1342613112773993</v>
       </c>
       <c r="G66">
-        <v>0.6286995144668716</v>
+        <v>0.5233944810216173</v>
       </c>
       <c r="H66">
-        <v>122.998363237286</v>
+        <v>123.0542276011066</v>
       </c>
       <c r="I66">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>380.2163885566054</v>
+        <v>384.3726292635126</v>
       </c>
       <c r="O66">
-        <v>63.51277797911928</v>
+        <v>66.10432157390079</v>
       </c>
       <c r="P66">
-        <v>0.7547268997971958</v>
+        <v>0.6576557922990167</v>
       </c>
       <c r="Q66">
-        <v>0.8632418523903511</v>
+        <v>1.201577816029427</v>
       </c>
       <c r="R66">
-        <v>2.346842412461636</v>
+        <v>2.710773666664957</v>
       </c>
       <c r="S66">
-        <v>3.210084264851987</v>
+        <v>3.912351482694383</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>202.9933626480578</v>
+        <v>203.1506890111842</v>
       </c>
       <c r="B67">
-        <v>48.04622831049937</v>
+        <v>47.732876808869</v>
       </c>
       <c r="C67">
-        <v>329.3763649026499</v>
+        <v>327.8254280556484</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>99.85411994172128</v>
+        <v>115.4579782215564</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>202.9933626480578</v>
+        <v>203.1506890111842</v>
       </c>
       <c r="I67">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>377.4225932131492</v>
+        <v>375.5583048645174</v>
       </c>
       <c r="O67">
-        <v>99.85411994172128</v>
+        <v>115.4579782215564</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2.081819738395632</v>
+        <v>1.449453366470752</v>
       </c>
       <c r="R67">
-        <v>14.74452910884024</v>
+        <v>9.457310424275423</v>
       </c>
       <c r="S67">
-        <v>16.82634884723587</v>
+        <v>10.90676379074618</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.9680420876277</v>
+        <v>262.0341193869711</v>
       </c>
       <c r="B68">
-        <v>59.96903855907806</v>
+        <v>63.3552091960001</v>
       </c>
       <c r="C68">
-        <v>414.0920200346915</v>
+        <v>423.6497175181115</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>164.3905568255421</v>
+        <v>168.6600641337139</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.9680420876277</v>
+        <v>262.0341193869711</v>
       </c>
       <c r="I68">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>474.0610585937695</v>
+        <v>487.0049267141116</v>
       </c>
       <c r="O68">
-        <v>164.3905568255421</v>
+        <v>168.6600641337139</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.541951185726289</v>
+        <v>2.36745798981421</v>
       </c>
       <c r="R68">
-        <v>16.05267121281879</v>
+        <v>20.00083300514034</v>
       </c>
       <c r="S68">
-        <v>17.59462239854508</v>
+        <v>22.36829099495455</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.054383406158</v>
+        <v>2406.062356847358</v>
       </c>
       <c r="B69">
-        <v>563.6922870701434</v>
+        <v>558.2844286889241</v>
       </c>
       <c r="C69">
-        <v>3755.403293621266</v>
+        <v>3878.353365755753</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1517.910737445474</v>
+        <v>1431.246638096024</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.054383406158</v>
+        <v>2406.062356847358</v>
       </c>
       <c r="I69">
-        <v>7684</v>
+        <v>7793</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4319.095580691409</v>
+        <v>4436.637794444678</v>
       </c>
       <c r="O69">
-        <v>1517.910737445474</v>
+        <v>1431.246638096024</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>16.27354486640564</v>
+        <v>16.30260473154191</v>
       </c>
       <c r="R69">
-        <v>150.5750435946051</v>
+        <v>135.2546452112896</v>
       </c>
       <c r="S69">
-        <v>166.8485884610107</v>
+        <v>151.5572499428315</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.939091448259</v>
+        <v>1503.09282887284</v>
       </c>
       <c r="B70">
-        <v>346.1304387945328</v>
+        <v>335.4798526012277</v>
       </c>
       <c r="C70">
-        <v>2357.79021072645</v>
+        <v>2397.870392404976</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>899.597229636104</v>
+        <v>972.9215031587378</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.939091448259</v>
+        <v>1503.09282887284</v>
       </c>
       <c r="I70">
-        <v>4777</v>
+        <v>4888</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2703.920649520983</v>
+        <v>2733.350245006204</v>
       </c>
       <c r="O70">
-        <v>899.597229636104</v>
+        <v>972.9215031587378</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>13.65996694909214</v>
+        <v>9.337822298735505</v>
       </c>
       <c r="R70">
-        <v>110.0463349721127</v>
+        <v>93.74673871009344</v>
       </c>
       <c r="S70">
-        <v>123.7063019212048</v>
+        <v>103.0845610088289</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19900.88449215342</v>
+        <v>19901.11638226577</v>
       </c>
       <c r="B71">
-        <v>4458.592155115454</v>
+        <v>4538.215760026144</v>
       </c>
       <c r="C71">
-        <v>32655.12591299741</v>
+        <v>31810.38114408279</v>
       </c>
       <c r="D71">
-        <v>655.1287601996409</v>
+        <v>637.9136959745424</v>
       </c>
       <c r="E71">
-        <v>12493.83245604135</v>
+        <v>9516.376375975206</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19900.88449215342</v>
+        <v>19901.11638226577</v>
       </c>
       <c r="I71">
-        <v>63255</v>
+        <v>64960</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>37113.71806811287</v>
+        <v>36348.59690410893</v>
       </c>
       <c r="O71">
-        <v>13148.96121624099</v>
+        <v>10154.29007194975</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>151.4382529930928</v>
+        <v>191.7965151387094</v>
       </c>
       <c r="R71">
-        <v>1288.068111889672</v>
+        <v>1223.971986983408</v>
       </c>
       <c r="S71">
-        <v>1439.506364882765</v>
+        <v>1415.768502122118</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.13407594898</v>
+        <v>41981.92425595655</v>
       </c>
       <c r="B72">
-        <v>9141.3888587127</v>
+        <v>9824.086034020371</v>
       </c>
       <c r="C72">
-        <v>66654.47659296685</v>
+        <v>69385.33451078054</v>
       </c>
       <c r="D72">
-        <v>1194.414503576095</v>
+        <v>1596.061262482769</v>
       </c>
       <c r="E72">
-        <v>22336.95894427201</v>
+        <v>22800.62851505182</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.13407594898</v>
+        <v>41981.92425595655</v>
       </c>
       <c r="I72">
-        <v>131461</v>
+        <v>136383</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>75795.86545167955</v>
+        <v>79209.4205448009</v>
       </c>
       <c r="O72">
-        <v>23531.3734478481</v>
+        <v>24396.68977753459</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>313.8691796293344</v>
+        <v>368.7557368862069</v>
       </c>
       <c r="R72">
-        <v>2698.290741016732</v>
+        <v>3277.884451716458</v>
       </c>
       <c r="S72">
-        <v>3012.159920646066</v>
+        <v>3646.640188602664</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.87498350962</v>
+        <v>44204.93847945743</v>
       </c>
       <c r="B73">
-        <v>9265.599180811752</v>
+        <v>10812.66647732909</v>
       </c>
       <c r="C73">
-        <v>69539.56163264603</v>
+        <v>73440.57179168376</v>
       </c>
       <c r="D73">
-        <v>1487.245271479663</v>
+        <v>1282.98052931845</v>
       </c>
       <c r="E73">
-        <v>26714.63006900196</v>
+        <v>21205.46604426778</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.87498350962</v>
+        <v>44204.93847945743</v>
       </c>
       <c r="I73">
-        <v>140163</v>
+        <v>138935</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>78805.16081345778</v>
+        <v>84253.23826901286</v>
       </c>
       <c r="O73">
-        <v>28201.87534048163</v>
+        <v>22488.44657358623</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>376.4016837467578</v>
+        <v>316.1970403140959</v>
       </c>
       <c r="R73">
-        <v>2914.811188227393</v>
+        <v>3248.968495386732</v>
       </c>
       <c r="S73">
-        <v>3291.212871974151</v>
+        <v>3565.165535700828</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.92649093668</v>
+        <v>78745.88080083967</v>
       </c>
       <c r="B74">
-        <v>17228.61157113896</v>
+        <v>18781.02744804766</v>
       </c>
       <c r="C74">
-        <v>120900.276559738</v>
+        <v>122998.6896818521</v>
       </c>
       <c r="D74">
-        <v>2668.273651307711</v>
+        <v>2919.087635314482</v>
       </c>
       <c r="E74">
-        <v>43316.26098318793</v>
+        <v>42322.14891910909</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.92649093668</v>
+        <v>78745.88080083967</v>
       </c>
       <c r="I74">
-        <v>260714</v>
+        <v>268333</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>138128.888130877</v>
+        <v>141779.7171298997</v>
       </c>
       <c r="O74">
-        <v>45984.53463449564</v>
+        <v>45241.23655442357</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>578.0494723956981</v>
+        <v>473.2987932044036</v>
       </c>
       <c r="R74">
-        <v>4947.544917926509</v>
+        <v>3954.275112581233</v>
       </c>
       <c r="S74">
-        <v>5525.594390322207</v>
+        <v>4427.573905785636</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.08744555563</v>
+        <v>38060.06808668923</v>
       </c>
       <c r="B75">
-        <v>8854.518955125501</v>
+        <v>8682.514771559921</v>
       </c>
       <c r="C75">
-        <v>59504.51486033944</v>
+        <v>60795.7185947597</v>
       </c>
       <c r="D75">
-        <v>1219.524338438671</v>
+        <v>1291.796381095063</v>
       </c>
       <c r="E75">
-        <v>22553.83227211995</v>
+        <v>21789.12097635954</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.08744555563</v>
+        <v>38060.06808668923</v>
       </c>
       <c r="I75">
-        <v>123846</v>
+        <v>124226</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>68359.03381546494</v>
+        <v>69478.23336631962</v>
       </c>
       <c r="O75">
-        <v>23773.35661055862</v>
+        <v>23080.9173574546</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>252.5486467524561</v>
+        <v>254.790284095983</v>
       </c>
       <c r="R75">
-        <v>2315.360612790887</v>
+        <v>2344.004834273983</v>
       </c>
       <c r="S75">
-        <v>2567.909259543343</v>
+        <v>2598.795118369966</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.88428265225</v>
+        <v>79350.93243537935</v>
       </c>
       <c r="B76">
-        <v>17767.50109854697</v>
+        <v>19291.32297348627</v>
       </c>
       <c r="C76">
-        <v>125561.6506951844</v>
+        <v>134032.6032608285</v>
       </c>
       <c r="D76">
-        <v>2947.457641689781</v>
+        <v>3631.148471366466</v>
       </c>
       <c r="E76">
-        <v>50205.89978691724</v>
+        <v>54843.87186330286</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.88428265225</v>
+        <v>79350.93243537935</v>
       </c>
       <c r="I76">
-        <v>257100</v>
+        <v>255128</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>143329.1517937314</v>
+        <v>153323.9262343148</v>
       </c>
       <c r="O76">
-        <v>53153.35742860702</v>
+        <v>58475.02033466932</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>541.6606827197443</v>
+        <v>549.5419970102005</v>
       </c>
       <c r="R76">
-        <v>5361.886442314746</v>
+        <v>5369.868175936683</v>
       </c>
       <c r="S76">
-        <v>5903.547125034491</v>
+        <v>5919.410172946883</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45068.08915018599</v>
+        <v>45068.12201121243</v>
       </c>
       <c r="B77">
-        <v>10853.50577731222</v>
+        <v>10116.12695403918</v>
       </c>
       <c r="C77">
-        <v>72308.83293729204</v>
+        <v>71021.57358491719</v>
       </c>
       <c r="D77">
-        <v>1518.008256159804</v>
+        <v>1466.727931761061</v>
       </c>
       <c r="E77">
-        <v>27515.58963906452</v>
+        <v>24629.85194824187</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45068.08915018599</v>
+        <v>45068.12201121243</v>
       </c>
       <c r="I77">
-        <v>150098</v>
+        <v>144033</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>83162.33871460427</v>
+        <v>81137.70053895637</v>
       </c>
       <c r="O77">
-        <v>29033.59789522432</v>
+        <v>26096.57988000294</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>343.3562892854563</v>
+        <v>265.3466895233325</v>
       </c>
       <c r="R77">
-        <v>2671.076661056922</v>
+        <v>3015.553500570158</v>
       </c>
       <c r="S77">
-        <v>3014.432950342378</v>
+        <v>3280.90019009349</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.00731466302</v>
+        <v>14295.08293816677</v>
       </c>
       <c r="B78">
-        <v>3410.986907749099</v>
+        <v>3451.92949232572</v>
       </c>
       <c r="C78">
-        <v>23065.08502275333</v>
+        <v>23383.12358799926</v>
       </c>
       <c r="D78">
-        <v>489.9936563335179</v>
+        <v>562.3293192599041</v>
       </c>
       <c r="E78">
-        <v>7663.27108383927</v>
+        <v>8926.021295847719</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.00731466302</v>
+        <v>14295.08293816677</v>
       </c>
       <c r="I78">
-        <v>46027</v>
+        <v>43908</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26476.07193050243</v>
+        <v>26835.05308032498</v>
       </c>
       <c r="O78">
-        <v>8153.264740172787</v>
+        <v>9488.350615107624</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>121.7672549794831</v>
+        <v>109.0084182407294</v>
       </c>
       <c r="R78">
-        <v>960.9687287342888</v>
+        <v>907.5865101578218</v>
       </c>
       <c r="S78">
-        <v>1082.735983713772</v>
+        <v>1016.594928398551</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.03673228447</v>
+        <v>27738.10601523015</v>
       </c>
       <c r="B79">
-        <v>6431.165294868238</v>
+        <v>6526.594735918173</v>
       </c>
       <c r="C79">
-        <v>46276.46293354764</v>
+        <v>44407.06162483156</v>
       </c>
       <c r="D79">
-        <v>1055.525044613144</v>
+        <v>857.4279409022583</v>
       </c>
       <c r="E79">
-        <v>17288.17113427193</v>
+        <v>15525.5525714274</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.03673228447</v>
+        <v>27738.10601523015</v>
       </c>
       <c r="I79">
-        <v>90093</v>
+        <v>86423</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>52707.62822841587</v>
+        <v>50933.65636074973</v>
       </c>
       <c r="O79">
-        <v>18343.69617888507</v>
+        <v>16382.98051232966</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>147.3032053916051</v>
+        <v>139.0904108269514</v>
       </c>
       <c r="R79">
-        <v>1664.851578894787</v>
+        <v>1556.258714272822</v>
       </c>
       <c r="S79">
-        <v>1812.154784286392</v>
+        <v>1695.349125099774</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.0589675082</v>
+        <v>2820.017602710024</v>
       </c>
       <c r="B80">
-        <v>649.7954541000366</v>
+        <v>619.5897616813097</v>
       </c>
       <c r="C80">
-        <v>4480.49523158038</v>
+        <v>4342.104847108634</v>
       </c>
       <c r="D80">
-        <v>111.3003499595893</v>
+        <v>85.98781046904666</v>
       </c>
       <c r="E80">
-        <v>1594.067250306594</v>
+        <v>1392.241642901951</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.0589675082</v>
+        <v>2820.017602710024</v>
       </c>
       <c r="I80">
-        <v>9052</v>
+        <v>9049</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5130.290685680417</v>
+        <v>4961.694608789944</v>
       </c>
       <c r="O80">
-        <v>1705.367600266183</v>
+        <v>1478.229453370998</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>17.13980512224361</v>
+        <v>18.29032625685916</v>
       </c>
       <c r="R80">
-        <v>184.5907618729901</v>
+        <v>144.4763246569022</v>
       </c>
       <c r="S80">
-        <v>201.7305669952337</v>
+        <v>162.7666509137613</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.890714043369</v>
+        <v>3590.933308049573</v>
       </c>
       <c r="B81">
-        <v>844.423395191551</v>
+        <v>804.5054566761326</v>
       </c>
       <c r="C81">
-        <v>5816.701849732523</v>
+        <v>5704.410533091475</v>
       </c>
       <c r="D81">
-        <v>115.8633401729557</v>
+        <v>160.8000139979856</v>
       </c>
       <c r="E81">
-        <v>2091.025617748324</v>
+        <v>2355.270849356086</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.890714043369</v>
+        <v>3590.933308049573</v>
       </c>
       <c r="I81">
-        <v>11528</v>
+        <v>11950</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6661.125244924075</v>
+        <v>6508.915989767608</v>
       </c>
       <c r="O81">
-        <v>2206.88895792128</v>
+        <v>2516.070863354071</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28.96600936214166</v>
+        <v>16.15664491009777</v>
       </c>
       <c r="R81">
-        <v>259.2132659184726</v>
+        <v>215.3453926768196</v>
       </c>
       <c r="S81">
-        <v>288.1792752806143</v>
+        <v>231.5020375869174</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1156.069945444919</v>
+        <v>1156.111952069235</v>
       </c>
       <c r="B82">
-        <v>266.0218741681949</v>
+        <v>269.5220130291776</v>
       </c>
       <c r="C82">
-        <v>1827.996930690458</v>
+        <v>1876.566552197965</v>
       </c>
       <c r="D82">
-        <v>37.32423203726724</v>
+        <v>42.76212734415605</v>
       </c>
       <c r="E82">
-        <v>692.0486906683816</v>
+        <v>724.4005167970729</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1156.069945444919</v>
+        <v>1156.111952069235</v>
       </c>
       <c r="I82">
-        <v>3511</v>
+        <v>3804</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2094.018804858652</v>
+        <v>2146.088565227142</v>
       </c>
       <c r="O82">
-        <v>729.3729227056489</v>
+        <v>767.162644141229</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>5.99305176649115</v>
+        <v>9.968890282888776</v>
       </c>
       <c r="R82">
-        <v>79.49562683836284</v>
+        <v>68.51976856674128</v>
       </c>
       <c r="S82">
-        <v>85.48867860485399</v>
+        <v>78.48865884963006</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.8825853023</v>
+        <v>13238.0137026052</v>
       </c>
       <c r="B83">
-        <v>1848.404369482694</v>
+        <v>1995.843304218595</v>
       </c>
       <c r="C83">
-        <v>21983.57857743091</v>
+        <v>22573.64256892704</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>7033.174888637655</v>
+        <v>8396.68672040063</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.8825853023</v>
+        <v>13238.0137026052</v>
       </c>
       <c r="I83">
-        <v>43361</v>
+        <v>41141</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>23831.98294691361</v>
+        <v>24569.48587314564</v>
       </c>
       <c r="O83">
-        <v>7033.174888637655</v>
+        <v>8396.68672040063</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>3.49397052465055</v>
+        <v>9.257753516217282</v>
       </c>
       <c r="R83">
-        <v>1050.055934281571</v>
+        <v>745.3605636900751</v>
       </c>
       <c r="S83">
-        <v>1053.549904806222</v>
+        <v>754.6183172062923</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.029689421397</v>
+        <v>6788.066140544423</v>
       </c>
       <c r="B84">
-        <v>948.8711301328807</v>
+        <v>1006.388923828803</v>
       </c>
       <c r="C84">
-        <v>11234.0961454566</v>
+        <v>11410.46821037807</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3935.646888317601</v>
+        <v>4448.858454193685</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.029689421397</v>
+        <v>6788.066140544423</v>
       </c>
       <c r="I84">
-        <v>21381</v>
+        <v>22986</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12182.96727558948</v>
+        <v>12416.85713420687</v>
       </c>
       <c r="O84">
-        <v>3935.646888317601</v>
+        <v>4448.858454193685</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>3.555138927312924</v>
+        <v>5.133253080888127</v>
       </c>
       <c r="R84">
-        <v>505.6709170672806</v>
+        <v>447.3203687366511</v>
       </c>
       <c r="S84">
-        <v>509.2260559945935</v>
+        <v>452.4536218175392</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.134118996844</v>
+        <v>1508.081342737531</v>
       </c>
       <c r="B85">
-        <v>224.1218206306422</v>
+        <v>232.8872084695882</v>
       </c>
       <c r="C85">
-        <v>2569.070873671901</v>
+        <v>2614.274743220181</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1058.493575356714</v>
+        <v>919.1371727324269</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.134118996844</v>
+        <v>1508.081342737531</v>
       </c>
       <c r="I85">
-        <v>4785</v>
+        <v>5035</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2793.192694302543</v>
+        <v>2847.161951689769</v>
       </c>
       <c r="O85">
-        <v>1058.493575356714</v>
+        <v>919.1371727324269</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.9890762914556062</v>
+        <v>0.2633754045035573</v>
       </c>
       <c r="R85">
-        <v>106.9303397823497</v>
+        <v>100.4275757104489</v>
       </c>
       <c r="S85">
-        <v>107.9194160738053</v>
+        <v>100.6909511149525</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25213.03350943356</v>
+        <v>25213.06715802831</v>
       </c>
       <c r="B86">
-        <v>3733.889495977634</v>
+        <v>3421.57140999697</v>
       </c>
       <c r="C86">
-        <v>42966.0144767714</v>
+        <v>41649.94780715973</v>
       </c>
       <c r="D86">
-        <v>734.664433180403</v>
+        <v>575.6804458918729</v>
       </c>
       <c r="E86">
-        <v>14059.26561408111</v>
+        <v>14128.01911278738</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25213.03350943356</v>
+        <v>25213.06715802831</v>
       </c>
       <c r="I86">
-        <v>86417</v>
+        <v>79760</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>46699.90397274904</v>
+        <v>45071.5192171567</v>
       </c>
       <c r="O86">
-        <v>14793.93004726151</v>
+        <v>14703.69955867925</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>27.84382249741833</v>
+        <v>20.30510443520983</v>
       </c>
       <c r="R86">
-        <v>2120.079886211615</v>
+        <v>1928.248074181098</v>
       </c>
       <c r="S86">
-        <v>2147.923708709034</v>
+        <v>1948.553178616307</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6443.878953104634</v>
+        <v>6443.968123837729</v>
       </c>
       <c r="B87">
-        <v>876.3476817323574</v>
+        <v>940.5427682319419</v>
       </c>
       <c r="C87">
-        <v>10450.48326466447</v>
+        <v>11055.91816993111</v>
       </c>
       <c r="D87">
-        <v>168.4907027139785</v>
+        <v>182.9893719093239</v>
       </c>
       <c r="E87">
-        <v>3447.250834017409</v>
+        <v>4065.416920828105</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6443.878953104634</v>
+        <v>6443.968123837729</v>
       </c>
       <c r="I87">
-        <v>20154</v>
+        <v>20807</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11326.83094639683</v>
+        <v>11996.46093816305</v>
       </c>
       <c r="O87">
-        <v>3615.741536731387</v>
+        <v>4248.406292737429</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>7.596159051187325</v>
+        <v>3.61403731667075</v>
       </c>
       <c r="R87">
-        <v>530.5857618958339</v>
+        <v>499.9850091165796</v>
       </c>
       <c r="S87">
-        <v>538.1819209470212</v>
+        <v>503.5990464332504</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55703.96491480004</v>
+        <v>55704.13804813023</v>
       </c>
       <c r="B88">
-        <v>7644.078941074852</v>
+        <v>7859.29557596043</v>
       </c>
       <c r="C88">
-        <v>91670.73545831753</v>
+        <v>94935.06322329727</v>
       </c>
       <c r="D88">
-        <v>1426.616617902929</v>
+        <v>1292.342805215119</v>
       </c>
       <c r="E88">
-        <v>34623.58754133559</v>
+        <v>32876.73671953139</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55703.96491480004</v>
+        <v>55704.13804813023</v>
       </c>
       <c r="I88">
-        <v>178028</v>
+        <v>172228</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>99314.81439939239</v>
+        <v>102794.3587992577</v>
       </c>
       <c r="O88">
-        <v>36050.20415923852</v>
+        <v>34169.07952474651</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>55.46301467258699</v>
+        <v>22.05795622317502</v>
       </c>
       <c r="R88">
-        <v>3835.906247019337</v>
+        <v>3808.740231143525</v>
       </c>
       <c r="S88">
-        <v>3891.369261691924</v>
+        <v>3830.7981873667</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201455.9633611311</v>
+        <v>201456.0711879981</v>
       </c>
       <c r="B89">
-        <v>28271.79289360373</v>
+        <v>29741.12026600205</v>
       </c>
       <c r="C89">
-        <v>344342.9334240425</v>
+        <v>352272.2485097779</v>
       </c>
       <c r="D89">
-        <v>6018.473652364096</v>
+        <v>5837.723821729639</v>
       </c>
       <c r="E89">
-        <v>121731.6134889478</v>
+        <v>130644.1138763882</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201455.9633611311</v>
+        <v>201456.0711879981</v>
       </c>
       <c r="I89">
-        <v>638339</v>
+        <v>641730</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>372614.7263176463</v>
+        <v>382013.36877578</v>
       </c>
       <c r="O89">
-        <v>127750.0871413119</v>
+        <v>136481.8376981178</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>290.8982413332852</v>
+        <v>170.3911590520709</v>
       </c>
       <c r="R89">
-        <v>17175.39899165584</v>
+        <v>14916.23764704703</v>
       </c>
       <c r="S89">
-        <v>17466.29723298912</v>
+        <v>15086.6288060991</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.94276129041</v>
+        <v>15485.89719771429</v>
       </c>
       <c r="B90">
-        <v>2360.186291180074</v>
+        <v>2286.101628043405</v>
       </c>
       <c r="C90">
-        <v>26197.82658008428</v>
+        <v>25887.10609853754</v>
       </c>
       <c r="D90">
-        <v>360.6495534571239</v>
+        <v>450.9991467218509</v>
       </c>
       <c r="E90">
-        <v>8898.234134097571</v>
+        <v>9161.126864657763</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.94276129041</v>
+        <v>15485.89719771429</v>
       </c>
       <c r="I90">
-        <v>50896</v>
+        <v>50017</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28558.01287126436</v>
+        <v>28173.20772658095</v>
       </c>
       <c r="O90">
-        <v>9258.883687554695</v>
+        <v>9612.126011379614</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>8.991475953493691</v>
+        <v>9.572075382240296</v>
       </c>
       <c r="R90">
-        <v>952.5911260026747</v>
+        <v>1211.642664981392</v>
       </c>
       <c r="S90">
-        <v>961.5826019561685</v>
+        <v>1221.214740363632</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.93870421144</v>
+        <v>14403.85438461366</v>
       </c>
       <c r="B91">
-        <v>2049.653964020485</v>
+        <v>2037.332254696178</v>
       </c>
       <c r="C91">
-        <v>24260.07920343553</v>
+        <v>23754.47077930291</v>
       </c>
       <c r="D91">
-        <v>334.705758450124</v>
+        <v>350.791642633811</v>
       </c>
       <c r="E91">
-        <v>7712.815804840408</v>
+        <v>8566.151146884791</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.93870421144</v>
+        <v>14403.85438461366</v>
       </c>
       <c r="I91">
-        <v>46139</v>
+        <v>44255</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26309.73316745602</v>
+        <v>25791.80303399909</v>
       </c>
       <c r="O91">
-        <v>8047.521563290533</v>
+        <v>8916.942789518602</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>2.83844847716101</v>
+        <v>12.75858296559381</v>
       </c>
       <c r="R91">
-        <v>1217.298344690051</v>
+        <v>1045.88060799077</v>
       </c>
       <c r="S91">
-        <v>1220.136793167212</v>
+        <v>1058.639190956364</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.04544799867</v>
+        <v>46955.95559395098</v>
       </c>
       <c r="B92">
-        <v>6699.849566751025</v>
+        <v>6897.152129434991</v>
       </c>
       <c r="C92">
-        <v>79626.04034230253</v>
+        <v>78557.62090796552</v>
       </c>
       <c r="D92">
-        <v>1091.539167241396</v>
+        <v>1117.944143931414</v>
       </c>
       <c r="E92">
-        <v>25489.93444932788</v>
+        <v>29694.66810397228</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.04544799867</v>
+        <v>46955.95559395098</v>
       </c>
       <c r="I92">
-        <v>150152</v>
+        <v>145923</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>86325.88990905356</v>
+        <v>85454.77303740052</v>
       </c>
       <c r="O92">
-        <v>26581.47361656928</v>
+        <v>30812.61224790369</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>30.7472257655824</v>
+        <v>59.12638245255515</v>
       </c>
       <c r="R92">
-        <v>2984.868980979782</v>
+        <v>3407.709185433776</v>
       </c>
       <c r="S92">
-        <v>3015.616206745364</v>
+        <v>3466.835567886331</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.97074603072</v>
+        <v>24419.8865345743</v>
       </c>
       <c r="B93">
-        <v>3623.780192743432</v>
+        <v>3397.274692198144</v>
       </c>
       <c r="C93">
-        <v>41611.32950028019</v>
+        <v>40754.23910335864</v>
       </c>
       <c r="D93">
-        <v>478.4591016432315</v>
+        <v>753.8249102232024</v>
       </c>
       <c r="E93">
-        <v>13993.37076156893</v>
+        <v>15605.17147757388</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.97074603072</v>
+        <v>24419.8865345743</v>
       </c>
       <c r="I93">
-        <v>78311</v>
+        <v>78240</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>45235.10969302362</v>
+        <v>44151.51379555678</v>
       </c>
       <c r="O93">
-        <v>14471.82986321216</v>
+        <v>16358.99638779708</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>15.79357424503636</v>
+        <v>43.8296130140225</v>
       </c>
       <c r="R93">
-        <v>1958.81026981654</v>
+        <v>1849.322825239671</v>
       </c>
       <c r="S93">
-        <v>1974.603844061576</v>
+        <v>1893.152438253693</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70372.03421883767</v>
+        <v>70371.85708022116</v>
       </c>
       <c r="B94">
-        <v>9837.765411202961</v>
+        <v>10983.36391872084</v>
       </c>
       <c r="C94">
-        <v>122479.5368695368</v>
+        <v>122009.182752573</v>
       </c>
       <c r="D94">
-        <v>1727.753286963715</v>
+        <v>1722.035272011813</v>
       </c>
       <c r="E94">
-        <v>40597.68512122643</v>
+        <v>45159.64612132758</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70372.03421883767</v>
+        <v>70371.85708022116</v>
       </c>
       <c r="I94">
-        <v>233564</v>
+        <v>231963</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>132317.3022807398</v>
+        <v>132992.5466712938</v>
       </c>
       <c r="O94">
-        <v>42325.43840819014</v>
+        <v>46881.68139333939</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>70.05454019363572</v>
+        <v>27.26455670041325</v>
       </c>
       <c r="R94">
-        <v>4980.306776815532</v>
+        <v>4930.938547116156</v>
       </c>
       <c r="S94">
-        <v>5050.361317009168</v>
+        <v>4958.203103816569</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7574.101540057674</v>
+        <v>7573.911566882072</v>
       </c>
       <c r="B95">
-        <v>1159.741149799769</v>
+        <v>1080.13208880962</v>
       </c>
       <c r="C95">
-        <v>12703.79647124728</v>
+        <v>12538.65535877137</v>
       </c>
       <c r="D95">
-        <v>172.1111878225206</v>
+        <v>171.9279686849069</v>
       </c>
       <c r="E95">
-        <v>4585.050966979012</v>
+        <v>4727.654758966632</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7574.101540057674</v>
+        <v>7573.911566882072</v>
       </c>
       <c r="I95">
-        <v>23810</v>
+        <v>23925</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13863.53762104705</v>
+        <v>13618.78744758099</v>
       </c>
       <c r="O95">
-        <v>4757.162154801532</v>
+        <v>4899.582727651538</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>5.756582665573883</v>
+        <v>9.170602121525816</v>
       </c>
       <c r="R95">
-        <v>632.1257976370061</v>
+        <v>528.9363280547875</v>
       </c>
       <c r="S95">
-        <v>637.88238030258</v>
+        <v>538.1069301763133</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.13154641692</v>
+        <v>45038.15460211984</v>
       </c>
       <c r="B96">
-        <v>6778.836725758288</v>
+        <v>6772.511509113178</v>
       </c>
       <c r="C96">
-        <v>74539.59068469261</v>
+        <v>73736.66004511149</v>
       </c>
       <c r="D96">
-        <v>1171.044794602239</v>
+        <v>1147.430063462326</v>
       </c>
       <c r="E96">
-        <v>28271.06221574257</v>
+        <v>27447.78337211026</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.13154641692</v>
+        <v>45038.15460211984</v>
       </c>
       <c r="I96">
-        <v>145100</v>
+        <v>141141</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>81318.4274104509</v>
+        <v>80509.17155422467</v>
       </c>
       <c r="O96">
-        <v>29442.10701034481</v>
+        <v>28595.21343557258</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>29.9402283359891</v>
+        <v>45.15259690336129</v>
       </c>
       <c r="R96">
-        <v>3588.328673706431</v>
+        <v>3143.732895623144</v>
       </c>
       <c r="S96">
-        <v>3618.26890204242</v>
+        <v>3188.885492526506</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10073.10414707077</v>
+        <v>10072.91792353588</v>
       </c>
       <c r="B97">
-        <v>1571.206466803334</v>
+        <v>1522.932002685275</v>
       </c>
       <c r="C97">
-        <v>17411.06132136903</v>
+        <v>17238.94840628792</v>
       </c>
       <c r="D97">
-        <v>290.3579477512291</v>
+        <v>192.5372535239359</v>
       </c>
       <c r="E97">
-        <v>5827.401355586384</v>
+        <v>5890.421736553392</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10073.10414707077</v>
+        <v>10072.91792353588</v>
       </c>
       <c r="I97">
-        <v>32770</v>
+        <v>31925</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18982.26778817237</v>
+        <v>18761.8804089732</v>
       </c>
       <c r="O97">
-        <v>6117.759303337613</v>
+        <v>6082.958990077328</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>3.087395576929295</v>
+        <v>5.873701465222423</v>
       </c>
       <c r="R97">
-        <v>642.7672171717809</v>
+        <v>762.0769324319847</v>
       </c>
       <c r="S97">
-        <v>645.8546127487102</v>
+        <v>767.9506338972071</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.90572918951</v>
+        <v>11375.8975744986</v>
       </c>
       <c r="B98">
-        <v>2266.288516690742</v>
+        <v>2263.590042043663</v>
       </c>
       <c r="C98">
-        <v>18594.52039586451</v>
+        <v>18170.52629599553</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6792.247482699527</v>
+        <v>6871.345530832021</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.90572918951</v>
+        <v>11375.8975744986</v>
       </c>
       <c r="I98">
-        <v>31512</v>
+        <v>30559</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20860.80891255526</v>
+        <v>20434.11633803919</v>
       </c>
       <c r="O98">
-        <v>6792.247482699527</v>
+        <v>6871.345530832021</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>109.8569612819956</v>
+        <v>122.5628493802775</v>
       </c>
       <c r="R98">
-        <v>806.8972959381683</v>
+        <v>874.808342326605</v>
       </c>
       <c r="S98">
-        <v>916.7542572201639</v>
+        <v>997.3711917068825</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1507.229724692558</v>
+        <v>1705.129840651339</v>
       </c>
       <c r="V98">
-        <v>1507.229724692558</v>
+        <v>1705.129840651339</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93359.17171331674</v>
+        <v>93358.90932877976</v>
       </c>
       <c r="B99">
-        <v>17012.89517077822</v>
+        <v>18544.024600488</v>
       </c>
       <c r="C99">
-        <v>151305.2312190884</v>
+        <v>155077.3792223501</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>59634.90249267744</v>
+        <v>65219.18265679264</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93359.17171331674</v>
+        <v>93358.90932877976</v>
       </c>
       <c r="I99">
-        <v>262849</v>
+        <v>253757</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>168318.1263898666</v>
+        <v>173621.403822838</v>
       </c>
       <c r="O99">
-        <v>59634.90249267744</v>
+        <v>65219.18265679264</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>850.1700096545388</v>
+        <v>764.718114715288</v>
       </c>
       <c r="R99">
-        <v>5313.287840452585</v>
+        <v>6700.720204244067</v>
       </c>
       <c r="S99">
-        <v>6163.457850107125</v>
+        <v>7465.438318959355</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>11883.48571486443</v>
+        <v>12883.47494672599</v>
       </c>
       <c r="V99">
-        <v>11883.48571486443</v>
+        <v>12883.47494672599</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.08797027238</v>
+        <v>20816.85042543978</v>
       </c>
       <c r="B100">
-        <v>4111.191912717356</v>
+        <v>3926.472661240872</v>
       </c>
       <c r="C100">
-        <v>34313.21110724078</v>
+        <v>33429.74245887062</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>12673.07143290741</v>
+        <v>13661.07900355455</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.08797027238</v>
+        <v>20816.85042543978</v>
       </c>
       <c r="I100">
-        <v>55585</v>
+        <v>56444</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>38424.40301995813</v>
+        <v>37356.21512011149</v>
       </c>
       <c r="O100">
-        <v>12673.07143290741</v>
+        <v>13661.07900355455</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>121.590426062657</v>
+        <v>245.8493648505732</v>
       </c>
       <c r="R100">
-        <v>1168.052697307491</v>
+        <v>1680.261559532832</v>
       </c>
       <c r="S100">
-        <v>1289.643123370148</v>
+        <v>1926.110924383406</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>3093.485436631745</v>
+        <v>2976.85728857658</v>
       </c>
       <c r="V100">
-        <v>3093.485436631745</v>
+        <v>2976.85728857658</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.92735607318</v>
+        <v>43952.84596625808</v>
       </c>
       <c r="B101">
-        <v>8309.454443784374</v>
+        <v>9065.628875670207</v>
       </c>
       <c r="C101">
-        <v>71028.34709595563</v>
+        <v>74497.97963851922</v>
       </c>
       <c r="D101">
-        <v>2069.389871956906</v>
+        <v>2254.266590725519</v>
       </c>
       <c r="E101">
-        <v>23713.52830433497</v>
+        <v>24327.38208220508</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.92735607318</v>
+        <v>43952.84596625808</v>
       </c>
       <c r="I101">
-        <v>121060</v>
+        <v>122443</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>79337.80153974</v>
+        <v>83563.60851418943</v>
       </c>
       <c r="O101">
-        <v>25782.91817629188</v>
+        <v>26581.6486729306</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>386.5004681918065</v>
+        <v>369.6859865918163</v>
       </c>
       <c r="R101">
-        <v>3198.552885549277</v>
+        <v>2952.495495992327</v>
       </c>
       <c r="S101">
-        <v>3585.053353741084</v>
+        <v>3322.181482584143</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>6682.454145294513</v>
+        <v>5899.098964345421</v>
       </c>
       <c r="V101">
-        <v>6682.454145294513</v>
+        <v>5899.098964345421</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103393.9767504082</v>
+        <v>103394.0609162412</v>
       </c>
       <c r="B102">
-        <v>20401.21192833862</v>
+        <v>18154.09738370968</v>
       </c>
       <c r="C102">
-        <v>175059.9887125254</v>
+        <v>166054.891860488</v>
       </c>
       <c r="D102">
-        <v>4912.973128250855</v>
+        <v>5285.471769663584</v>
       </c>
       <c r="E102">
-        <v>60205.91270926401</v>
+        <v>59482.17553734826</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103393.9767504082</v>
+        <v>103394.0609162412</v>
       </c>
       <c r="I102">
-        <v>278396</v>
+        <v>279192</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>195461.200640864</v>
+        <v>184208.9892441976</v>
       </c>
       <c r="O102">
-        <v>65118.88583751486</v>
+        <v>64767.64730701185</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>1141.840027349077</v>
+        <v>735.9663742893628</v>
       </c>
       <c r="R102">
-        <v>7794.334084812107</v>
+        <v>5598.033653919285</v>
       </c>
       <c r="S102">
-        <v>8936.174112161185</v>
+        <v>6334.000028208648</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>14930.7922217251</v>
+        <v>14514.52796679979</v>
       </c>
       <c r="V102">
-        <v>14930.7922217251</v>
+        <v>14514.52796679979</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35336.8478902766</v>
+        <v>35337.09019355137</v>
       </c>
       <c r="B103">
-        <v>7045.710274459346</v>
+        <v>6583.34730683192</v>
       </c>
       <c r="C103">
-        <v>59097.53458999028</v>
+        <v>57283.32855480687</v>
       </c>
       <c r="D103">
-        <v>1578.422630410998</v>
+        <v>1695.539306490629</v>
       </c>
       <c r="E103">
-        <v>19244.03640237049</v>
+        <v>20093.8889745501</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35336.8478902766</v>
+        <v>35337.09019355137</v>
       </c>
       <c r="I103">
-        <v>97501</v>
+        <v>97321</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>66143.24486444963</v>
+        <v>63866.6758616388</v>
       </c>
       <c r="O103">
-        <v>20822.45903278149</v>
+        <v>21789.42828104073</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>286.7530997162626</v>
+        <v>297.3458535934722</v>
       </c>
       <c r="R103">
-        <v>1998.475480318515</v>
+        <v>2042.734668603908</v>
       </c>
       <c r="S103">
-        <v>2285.228580034778</v>
+        <v>2340.080522197381</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4630.231040878211</v>
+        <v>5106.625956980749</v>
       </c>
       <c r="V103">
-        <v>4630.231040878211</v>
+        <v>5106.625956980749</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9807078522</v>
+        <v>122130.9959057523</v>
       </c>
       <c r="B104">
-        <v>24568.99145424778</v>
+        <v>24065.78442763569</v>
       </c>
       <c r="C104">
-        <v>204844.4536866537</v>
+        <v>199565.1794460451</v>
       </c>
       <c r="D104">
-        <v>7056.507407815446</v>
+        <v>5695.093852018942</v>
       </c>
       <c r="E104">
-        <v>78444.39301062189</v>
+        <v>58926.60636727267</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9807078522</v>
+        <v>122130.9959057523</v>
       </c>
       <c r="I104">
-        <v>324336</v>
+        <v>318937</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>229413.4451409015</v>
+        <v>223630.9638736807</v>
       </c>
       <c r="O104">
-        <v>85500.90041843733</v>
+        <v>64621.70021929162</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>905.3980194490614</v>
+        <v>840.384119421728</v>
       </c>
       <c r="R104">
-        <v>7385.936173752438</v>
+        <v>6983.258265505537</v>
       </c>
       <c r="S104">
-        <v>8291.334193201499</v>
+        <v>7823.642384927265</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>13101.96068657336</v>
+        <v>16207.87218227083</v>
       </c>
       <c r="V104">
-        <v>13101.96068657336</v>
+        <v>16207.87218227083</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.1777379034</v>
+        <v>81323.98730439102</v>
       </c>
       <c r="B105">
-        <v>16052.07745048806</v>
+        <v>14887.1090205838</v>
       </c>
       <c r="C105">
-        <v>130347.2311948396</v>
+        <v>131694.8508734047</v>
       </c>
       <c r="D105">
-        <v>4032.506529362202</v>
+        <v>4016.040504020276</v>
       </c>
       <c r="E105">
-        <v>47818.95925384301</v>
+        <v>44728.51111662423</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.1777379034</v>
+        <v>81323.98730439102</v>
       </c>
       <c r="I105">
-        <v>225973</v>
+        <v>217974</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>146399.3086453277</v>
+        <v>146581.9598939885</v>
       </c>
       <c r="O105">
-        <v>51851.46578320521</v>
+        <v>48744.5516206445</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>657.9855837847958</v>
+        <v>734.2963307723969</v>
       </c>
       <c r="R105">
-        <v>5025.601681031063</v>
+        <v>5364.697178491335</v>
       </c>
       <c r="S105">
-        <v>5683.587264815858</v>
+        <v>6098.993509263732</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>10726.55013332208</v>
+        <v>11956.8288187523</v>
       </c>
       <c r="V105">
-        <v>10726.55013332208</v>
+        <v>11956.8288187523</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77849.95188823168</v>
+        <v>77850.03743612774</v>
       </c>
       <c r="B106">
-        <v>16035.00923913805</v>
+        <v>15365.6974767866</v>
       </c>
       <c r="C106">
-        <v>128503.8117740884</v>
+        <v>126098.0710758585</v>
       </c>
       <c r="D106">
-        <v>3875.513515874785</v>
+        <v>3793.531023467323</v>
       </c>
       <c r="E106">
-        <v>44452.58816962927</v>
+        <v>41465.47931314533</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77849.95188823168</v>
+        <v>77850.03743612774</v>
       </c>
       <c r="I106">
-        <v>208163</v>
+        <v>213226</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>144538.8210132264</v>
+        <v>141463.7685526451</v>
       </c>
       <c r="O106">
-        <v>48328.10168550406</v>
+        <v>45259.01033661266</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>702.9966830479957</v>
+        <v>705.016562662504</v>
       </c>
       <c r="R106">
-        <v>5125.806548565217</v>
+        <v>4911.777517669771</v>
       </c>
       <c r="S106">
-        <v>5828.803231613212</v>
+        <v>5616.794080332275</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>13549.60866949843</v>
+        <v>10105.43141516186</v>
       </c>
       <c r="V106">
-        <v>13549.60866949843</v>
+        <v>10105.43141516186</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.04374961715</v>
+        <v>86203.02234240412</v>
       </c>
       <c r="B107">
-        <v>17078.26449954608</v>
+        <v>17224.95935953803</v>
       </c>
       <c r="C107">
-        <v>139740.9497109669</v>
+        <v>143270.3380326627</v>
       </c>
       <c r="D107">
-        <v>4736.610834704814</v>
+        <v>4387.489231126421</v>
       </c>
       <c r="E107">
-        <v>50413.79947691955</v>
+        <v>45647.42967653198</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.04374961715</v>
+        <v>86203.02234240412</v>
       </c>
       <c r="I107">
-        <v>236682</v>
+        <v>234570</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>156819.214210513</v>
+        <v>160495.2973922008</v>
       </c>
       <c r="O107">
-        <v>55150.41031162436</v>
+        <v>50034.9189076584</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>757.4853969384732</v>
+        <v>789.6336074431125</v>
       </c>
       <c r="R107">
-        <v>4975.709636248826</v>
+        <v>5881.614802493997</v>
       </c>
       <c r="S107">
-        <v>5733.1950331873</v>
+        <v>6671.24840993711</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>12100.93961858724</v>
+        <v>11547.35357577042</v>
       </c>
       <c r="V107">
-        <v>12100.93961858724</v>
+        <v>11547.35357577042</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.11553204899</v>
+        <v>60305.1170522897</v>
       </c>
       <c r="B108">
-        <v>11937.86067385502</v>
+        <v>11241.05696568456</v>
       </c>
       <c r="C108">
-        <v>103124.3207162797</v>
+        <v>96088.01722032591</v>
       </c>
       <c r="D108">
-        <v>2674.883955536107</v>
+        <v>2731.862680100624</v>
       </c>
       <c r="E108">
-        <v>32163.53493669975</v>
+        <v>33047.04779279931</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.11553204899</v>
+        <v>60305.1170522897</v>
       </c>
       <c r="I108">
-        <v>159030</v>
+        <v>161468</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>115062.1813901348</v>
+        <v>107329.0741860105</v>
       </c>
       <c r="O108">
-        <v>34838.41889223586</v>
+        <v>35778.91047289994</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>304.6846011641391</v>
+        <v>586.9263064032215</v>
       </c>
       <c r="R108">
-        <v>3213.664488487923</v>
+        <v>4318.412856516748</v>
       </c>
       <c r="S108">
-        <v>3518.349089652063</v>
+        <v>4905.33916291997</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>8268.859781507372</v>
+        <v>9031.31202884421</v>
       </c>
       <c r="V108">
-        <v>8268.859781507372</v>
+        <v>9031.31202884421</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25282.83834952323</v>
+        <v>25283.10386356777</v>
       </c>
       <c r="B109">
-        <v>4823.825641425336</v>
+        <v>5044.808325763292</v>
       </c>
       <c r="C109">
-        <v>43101.09675404981</v>
+        <v>39822.41445784675</v>
       </c>
       <c r="D109">
-        <v>1305.432138513148</v>
+        <v>1376.481514784866</v>
       </c>
       <c r="E109">
-        <v>15221.62997189075</v>
+        <v>15063.67347305198</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25282.83834952323</v>
+        <v>25283.10386356777</v>
       </c>
       <c r="I109">
-        <v>65787</v>
+        <v>67016</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>47924.92239547514</v>
+        <v>44867.22278361004</v>
       </c>
       <c r="O109">
-        <v>16527.0621104039</v>
+        <v>16440.15498783685</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>169.3464661363352</v>
+        <v>240.5211148511207</v>
       </c>
       <c r="R109">
-        <v>1480.909683923521</v>
+        <v>1624.68540075163</v>
       </c>
       <c r="S109">
-        <v>1650.256150059856</v>
+        <v>1865.206515602751</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3416.698913584654</v>
+        <v>3577.515095993263</v>
       </c>
       <c r="V109">
-        <v>3416.698913584654</v>
+        <v>3577.515095993263</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4048.944118338695</v>
+        <v>4049.077599264272</v>
       </c>
       <c r="B110">
-        <v>738.6426112054784</v>
+        <v>770.5360534741125</v>
       </c>
       <c r="C110">
-        <v>6549.469700693529</v>
+        <v>6504.021180068803</v>
       </c>
       <c r="D110">
-        <v>225.5575172367331</v>
+        <v>217.4574669704666</v>
       </c>
       <c r="E110">
-        <v>2202.76041942136</v>
+        <v>2358.918665063547</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4048.944118338695</v>
+        <v>4049.077599264272</v>
       </c>
       <c r="I110">
-        <v>10920</v>
+        <v>11138</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7288.112311899007</v>
+        <v>7274.557233542915</v>
       </c>
       <c r="O110">
-        <v>2428.317936658093</v>
+        <v>2576.376132034014</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>25.45734971657239</v>
+        <v>39.58061664588355</v>
       </c>
       <c r="R110">
-        <v>205.0172630017918</v>
+        <v>234.8211350976954</v>
       </c>
       <c r="S110">
-        <v>230.4746127183642</v>
+        <v>274.4017517435789</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>463.7353465071506</v>
+        <v>574.3692300055639</v>
       </c>
       <c r="V110">
-        <v>463.7353465071506</v>
+        <v>574.3692300055639</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.870025001452</v>
+        <v>8763.161716786533</v>
       </c>
       <c r="B111">
-        <v>1833.425444438367</v>
+        <v>1678.029214446524</v>
       </c>
       <c r="C111">
-        <v>14164.23667576834</v>
+        <v>14383.91356684695</v>
       </c>
       <c r="D111">
-        <v>439.6725723242309</v>
+        <v>377.8070429574914</v>
       </c>
       <c r="E111">
-        <v>5273.229234444815</v>
+        <v>4341.927340721291</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.870025001452</v>
+        <v>8763.161716786533</v>
       </c>
       <c r="I111">
-        <v>23896</v>
+        <v>23900</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15997.66212020671</v>
+        <v>16061.94278129347</v>
       </c>
       <c r="O111">
-        <v>5712.901806769046</v>
+        <v>4719.734383678782</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>65.97084143130562</v>
+        <v>71.10437801454474</v>
       </c>
       <c r="R111">
-        <v>567.3491113246703</v>
+        <v>520.748440570781</v>
       </c>
       <c r="S111">
-        <v>633.3199527559759</v>
+        <v>591.8528185853257</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1073.570926593086</v>
+        <v>1305.439691175571</v>
       </c>
       <c r="V111">
-        <v>1073.570926593086</v>
+        <v>1305.439691175571</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.929634144537</v>
+        <v>9927.089471199723</v>
       </c>
       <c r="B112">
-        <v>1885.217914560624</v>
+        <v>2075.3028471813</v>
       </c>
       <c r="C112">
-        <v>15893.62946195624</v>
+        <v>16850.70942598835</v>
       </c>
       <c r="D112">
-        <v>438.870417830331</v>
+        <v>500.6972704121867</v>
       </c>
       <c r="E112">
-        <v>4952.3957425002</v>
+        <v>5533.291179256435</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.929634144537</v>
+        <v>9927.089471199723</v>
       </c>
       <c r="I112">
-        <v>27316</v>
+        <v>26426</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>17778.84737651686</v>
+        <v>18926.01227316965</v>
       </c>
       <c r="O112">
-        <v>5391.266160330531</v>
+        <v>6033.988449668621</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>91.29116783570657</v>
+        <v>79.92935149728388</v>
       </c>
       <c r="R112">
-        <v>687.7248228328891</v>
+        <v>575.8480860202621</v>
       </c>
       <c r="S112">
-        <v>779.0159906685957</v>
+        <v>655.777437517546</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1481.586584875658</v>
+        <v>1412.793848550895</v>
       </c>
       <c r="V112">
-        <v>1481.586584875658</v>
+        <v>1412.793848550895</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1551.867209054315</v>
+        <v>1552.038940030337</v>
       </c>
       <c r="B113">
-        <v>319.5098612359475</v>
+        <v>313.0351049814654</v>
       </c>
       <c r="C113">
-        <v>2597.964864820398</v>
+        <v>2557.740606825758</v>
       </c>
       <c r="D113">
-        <v>80.4835611002886</v>
+        <v>99.23824367541333</v>
       </c>
       <c r="E113">
-        <v>887.8416791475029</v>
+        <v>987.7588031029443</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1551.867209054315</v>
+        <v>1552.038940030337</v>
       </c>
       <c r="I113">
-        <v>4094</v>
+        <v>4483</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2917.474726056345</v>
+        <v>2870.775711807223</v>
       </c>
       <c r="O113">
-        <v>968.3252402477915</v>
+        <v>1086.997046778358</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>16.24860506453869</v>
+        <v>15.57050004257267</v>
       </c>
       <c r="R113">
-        <v>100.9752861145775</v>
+        <v>96.0768619165874</v>
       </c>
       <c r="S113">
-        <v>117.2238911791162</v>
+        <v>111.6473619591601</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>220.8590446681054</v>
+        <v>198.8609897444935</v>
       </c>
       <c r="V113">
-        <v>220.8590446681054</v>
+        <v>198.8609897444935</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1068.838482667356</v>
+        <v>1069.146396106099</v>
       </c>
       <c r="B114">
-        <v>1445.586739144356</v>
+        <v>1454.299537237034</v>
       </c>
       <c r="C114">
-        <v>475.0030536199611</v>
+        <v>474.1692831888445</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>675.6097942620576</v>
+        <v>674.2418153534676</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1068.838482667356</v>
+        <v>1069.146396106099</v>
       </c>
       <c r="I114">
-        <v>2950</v>
+        <v>3020</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1920.589792764317</v>
+        <v>1928.468820425878</v>
       </c>
       <c r="O114">
-        <v>675.6097942620576</v>
+        <v>674.2418153534676</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>20.50823706186414</v>
+        <v>19.39983041645466</v>
       </c>
       <c r="R114">
-        <v>57.72163929734376</v>
+        <v>65.68991360448396</v>
       </c>
       <c r="S114">
-        <v>78.22987635920791</v>
+        <v>85.08974402093863</v>
       </c>
       <c r="T114">
-        <v>17.22266578776024</v>
+        <v>14.73256502848985</v>
       </c>
       <c r="U114">
-        <v>133.2045351758012</v>
+        <v>111.2437642230957</v>
       </c>
       <c r="V114">
-        <v>150.4272009635615</v>
+        <v>125.9763292515855</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>405.828156342582</v>
+        <v>405.9784807755155</v>
       </c>
       <c r="B115">
-        <v>540.1358169005313</v>
+        <v>568.8514450557615</v>
       </c>
       <c r="C115">
-        <v>175.226698435156</v>
+        <v>184.8886761242783</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>263.5898002732153</v>
+        <v>233.0493836063072</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>405.828156342582</v>
+        <v>405.9784807755155</v>
       </c>
       <c r="I115">
-        <v>1147</v>
+        <v>1175</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>715.3625153356873</v>
+        <v>753.7401211800398</v>
       </c>
       <c r="O115">
-        <v>263.5898002732153</v>
+        <v>233.0493836063072</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>7.028664920718639</v>
+        <v>8.333040735806291</v>
       </c>
       <c r="R115">
-        <v>23.23324209164079</v>
+        <v>20.71163664376077</v>
       </c>
       <c r="S115">
-        <v>30.26190701235943</v>
+        <v>29.04467737956706</v>
       </c>
       <c r="T115">
-        <v>6.733051199369454</v>
+        <v>4.994239185892347</v>
       </c>
       <c r="U115">
-        <v>51.15013311413942</v>
+        <v>38.67105253753695</v>
       </c>
       <c r="V115">
-        <v>57.88318431350887</v>
+        <v>43.6652917234293</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5616.165990517804</v>
+        <v>5615.967369382754</v>
       </c>
       <c r="B116">
-        <v>7783.824876018974</v>
+        <v>7969.534835319773</v>
       </c>
       <c r="C116">
-        <v>2526.746635092468</v>
+        <v>2616.566064551128</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3484.258082260578</v>
+        <v>3235.185652155649</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5616.165990517804</v>
+        <v>5615.967369382754</v>
       </c>
       <c r="I116">
-        <v>15758</v>
+        <v>15624</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10310.57151111144</v>
+        <v>10586.1008998709</v>
       </c>
       <c r="O116">
-        <v>3484.258082260578</v>
+        <v>3235.185652155649</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>91.80422034799507</v>
+        <v>86.77180620071862</v>
       </c>
       <c r="R116">
-        <v>288.9361218353793</v>
+        <v>237.1025314744719</v>
       </c>
       <c r="S116">
-        <v>380.7403421833744</v>
+        <v>323.8743376751905</v>
       </c>
       <c r="T116">
-        <v>87.33700767409536</v>
+        <v>68.16838376834741</v>
       </c>
       <c r="U116">
-        <v>796.6147093407617</v>
+        <v>779.2160762178235</v>
       </c>
       <c r="V116">
-        <v>883.9517170148571</v>
+        <v>847.3844599861709</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3150.057270086456</v>
+        <v>3150.029281075399</v>
       </c>
       <c r="B117">
-        <v>4394.210523136484</v>
+        <v>4392.752901555024</v>
       </c>
       <c r="C117">
-        <v>1466.66365965145</v>
+        <v>1458.189442611988</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>2107.189493014672</v>
+        <v>1970.486061214074</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3150.057270086456</v>
+        <v>3150.029281075399</v>
       </c>
       <c r="I117">
-        <v>8732</v>
+        <v>8812</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5860.874182787933</v>
+        <v>5850.942344167012</v>
       </c>
       <c r="O117">
-        <v>2107.189493014672</v>
+        <v>1970.486061214074</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>55.56794997989103</v>
+        <v>50.00845741041989</v>
       </c>
       <c r="R117">
-        <v>153.4314068996125</v>
+        <v>157.7625605413298</v>
       </c>
       <c r="S117">
-        <v>208.9993568795036</v>
+        <v>207.7710179517496</v>
       </c>
       <c r="T117">
-        <v>37.1153270257533</v>
+        <v>39.75471690376712</v>
       </c>
       <c r="U117">
-        <v>328.7557876885373</v>
+        <v>371.2362675815083</v>
       </c>
       <c r="V117">
-        <v>365.8711147142906</v>
+        <v>410.9909844852754</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1817.123302617842</v>
+        <v>1817.005314656109</v>
       </c>
       <c r="B118">
-        <v>2526.291884890838</v>
+        <v>2606.608979307959</v>
       </c>
       <c r="C118">
-        <v>834.8728145761414</v>
+        <v>853.7966828452095</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1213.903799656057</v>
+        <v>1126.400783640222</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1817.123302617842</v>
+        <v>1817.005314656109</v>
       </c>
       <c r="I118">
-        <v>5177</v>
+        <v>5112</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3361.164699466979</v>
+        <v>3460.405662153169</v>
       </c>
       <c r="O118">
-        <v>1213.903799656057</v>
+        <v>1126.400783640222</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>29.76867785693268</v>
+        <v>33.85313416607106</v>
       </c>
       <c r="R118">
-        <v>100.4847963246843</v>
+        <v>102.546877953589</v>
       </c>
       <c r="S118">
-        <v>130.253474181617</v>
+        <v>136.4000121196601</v>
       </c>
       <c r="T118">
-        <v>19.72685837455669</v>
+        <v>25.36710276743485</v>
       </c>
       <c r="U118">
-        <v>227.372040790443</v>
+        <v>244.6198136203189</v>
       </c>
       <c r="V118">
-        <v>247.0988991649997</v>
+        <v>269.9869163877537</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6396.10798372933</v>
+        <v>6395.920966893798</v>
       </c>
       <c r="B119">
-        <v>8954.443299468228</v>
+        <v>8853.816782504868</v>
       </c>
       <c r="C119">
-        <v>3080.666136383368</v>
+        <v>2850.953633905419</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4121.621126814959</v>
+        <v>3631.755253319072</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6396.10798372933</v>
+        <v>6395.920966893798</v>
       </c>
       <c r="I119">
-        <v>17594</v>
+        <v>17338</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>12035.1094358516</v>
+        <v>11704.77041641029</v>
       </c>
       <c r="O119">
-        <v>4121.621126814959</v>
+        <v>3631.755253319072</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>114.6793565261979</v>
+        <v>117.7255845640568</v>
       </c>
       <c r="R119">
-        <v>347.1827947434572</v>
+        <v>335.5120598311118</v>
       </c>
       <c r="S119">
-        <v>461.8621512696551</v>
+        <v>453.2376443951686</v>
       </c>
       <c r="T119">
-        <v>74.35439824010508</v>
+        <v>101.3403180963173</v>
       </c>
       <c r="U119">
-        <v>725.6062785662214</v>
+        <v>782.0023166206889</v>
       </c>
       <c r="V119">
-        <v>799.9606768063264</v>
+        <v>883.3426347170062</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4006.091476165372</v>
+        <v>4006.043220320255</v>
       </c>
       <c r="B120">
-        <v>5430.790457469194</v>
+        <v>5638.581981345295</v>
       </c>
       <c r="C120">
-        <v>1825.67479465556</v>
+        <v>1873.032599355465</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2180.119967883862</v>
+        <v>2295.398989872993</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4006.091476165372</v>
+        <v>4006.043220320255</v>
       </c>
       <c r="I120">
-        <v>10990</v>
+        <v>11082</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7256.465252124754</v>
+        <v>7511.61458070076</v>
       </c>
       <c r="O120">
-        <v>2180.119967883862</v>
+        <v>2295.398989872993</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>73.49318362579095</v>
+        <v>71.67650887181272</v>
       </c>
       <c r="R120">
-        <v>233.9994224185035</v>
+        <v>189.8578515992866</v>
       </c>
       <c r="S120">
-        <v>307.4926060442945</v>
+        <v>261.5343604710993</v>
       </c>
       <c r="T120">
-        <v>61.59442256811902</v>
+        <v>48.37966368453225</v>
       </c>
       <c r="U120">
-        <v>502.8913148415247</v>
+        <v>518.7980549805156</v>
       </c>
       <c r="V120">
-        <v>564.4857374096438</v>
+        <v>567.1777186650479</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1687.006516596913</v>
+        <v>1686.957242953567</v>
       </c>
       <c r="B121">
-        <v>2326.528243747368</v>
+        <v>2324.850305169193</v>
       </c>
       <c r="C121">
-        <v>772.3358420222812</v>
+        <v>767.3328025277081</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1008.267770136604</v>
+        <v>1060.324640185084</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1687.006516596913</v>
+        <v>1686.957242953567</v>
       </c>
       <c r="I121">
-        <v>4545</v>
+        <v>4759</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3098.864085769649</v>
+        <v>3092.183107696901</v>
       </c>
       <c r="O121">
-        <v>1008.267770136604</v>
+        <v>1060.324640185084</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>29.18119441783703</v>
+        <v>30.93847043019941</v>
       </c>
       <c r="R121">
-        <v>94.5967941213553</v>
+        <v>104.3320728734648</v>
       </c>
       <c r="S121">
-        <v>123.7779885391923</v>
+        <v>135.2705433036642</v>
       </c>
       <c r="T121">
-        <v>32.00473529116901</v>
+        <v>20.03914672486496</v>
       </c>
       <c r="U121">
-        <v>247.2131125398824</v>
+        <v>178.0145983338176</v>
       </c>
       <c r="V121">
-        <v>279.2178478310514</v>
+        <v>198.0537450586826</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>589.1188144783131</v>
+        <v>588.9810876502858</v>
       </c>
       <c r="B122">
-        <v>851.3572249508355</v>
+        <v>838.493557660652</v>
       </c>
       <c r="C122">
-        <v>270.4912616202703</v>
+        <v>270.8482396291602</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>373.5562783343517</v>
+        <v>326.9783248842639</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>589.1188144783131</v>
+        <v>588.9810876502858</v>
       </c>
       <c r="I122">
-        <v>1611</v>
+        <v>1664</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1121.848486571106</v>
+        <v>1109.341797289812</v>
       </c>
       <c r="O122">
-        <v>373.5562783343517</v>
+        <v>326.9783248842639</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>12.16849529507037</v>
+        <v>11.14807093957773</v>
       </c>
       <c r="R122">
-        <v>33.47778342091557</v>
+        <v>40.44361125244709</v>
       </c>
       <c r="S122">
-        <v>45.64627871598594</v>
+        <v>51.59168219202482</v>
       </c>
       <c r="T122">
-        <v>5.712123484371218</v>
+        <v>7.784092819461351</v>
       </c>
       <c r="U122">
-        <v>73.63261123223549</v>
+        <v>75.08463884849302</v>
       </c>
       <c r="V122">
-        <v>79.34473471660671</v>
+        <v>82.86873166795436</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1710.133987770193</v>
+        <v>1709.908609197264</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3126.637739806703</v>
+        <v>3135.943220718286</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1013.922933509789</v>
+        <v>973.2615449301478</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1710.133987770193</v>
+        <v>1709.908609197264</v>
       </c>
       <c r="I123">
-        <v>5539</v>
+        <v>5637</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3126.637739806703</v>
+        <v>3135.943220718286</v>
       </c>
       <c r="O123">
-        <v>1013.922933509789</v>
+        <v>973.2615449301478</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>29.19864372389118</v>
+        <v>30.15892443020031</v>
       </c>
       <c r="R123">
-        <v>86.47565559806655</v>
+        <v>95.30464729066108</v>
       </c>
       <c r="S123">
-        <v>115.6742993219577</v>
+        <v>125.4635717208614</v>
       </c>
       <c r="T123">
-        <v>26.81380724855683</v>
+        <v>26.62598666052682</v>
       </c>
       <c r="U123">
-        <v>240.236703922127</v>
+        <v>240.0444430519352</v>
       </c>
       <c r="V123">
-        <v>267.0505111706839</v>
+        <v>266.670429712462</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.8831498583047</v>
+        <v>199.076691495975</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>363.8399506471513</v>
+        <v>353.7644645522425</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>143.7261922994549</v>
+        <v>138.0897186092702</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.8831498583047</v>
+        <v>199.076691495975</v>
       </c>
       <c r="I124">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>363.8399506471513</v>
+        <v>353.7644645522425</v>
       </c>
       <c r="O124">
-        <v>143.7261922994549</v>
+        <v>138.0897186092702</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.965482889130871</v>
+        <v>3.758505941618181</v>
       </c>
       <c r="R124">
-        <v>10.2435323707755</v>
+        <v>10.3426387855803</v>
       </c>
       <c r="S124">
-        <v>14.20901525990637</v>
+        <v>14.10114472719848</v>
       </c>
       <c r="T124">
-        <v>3.742489314101048</v>
+        <v>4.462632792687994</v>
       </c>
       <c r="U124">
-        <v>31.12458870516959</v>
+        <v>27.41313372681124</v>
       </c>
       <c r="V124">
-        <v>34.86707801927064</v>
+        <v>31.87576651949923</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9133.001801499368</v>
+        <v>9132.908449856481</v>
       </c>
       <c r="B2">
-        <v>4770.675850385379</v>
+        <v>4964.2841000865</v>
       </c>
       <c r="C2">
-        <v>20869.33944552146</v>
+        <v>22073.4855196325</v>
       </c>
       <c r="D2">
-        <v>5297.875137287966</v>
+        <v>4780.29912877239</v>
       </c>
       <c r="E2">
-        <v>10511.73740464818</v>
+        <v>9786.466257052898</v>
       </c>
       <c r="F2">
-        <v>2838.700249461558</v>
+        <v>2480.86834694721</v>
       </c>
       <c r="G2">
-        <v>5488.138870189026</v>
+        <v>4856.591801272948</v>
       </c>
       <c r="H2">
-        <v>9133.001801499368</v>
+        <v>9132.908449856481</v>
       </c>
       <c r="I2">
-        <v>45338</v>
+        <v>45776</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25640.01529590684</v>
+        <v>27037.769619719</v>
       </c>
       <c r="O2">
-        <v>15809.61254193615</v>
+        <v>14566.76538582529</v>
       </c>
       <c r="P2">
-        <v>8326.839119650584</v>
+        <v>7337.460148220158</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7571.077980072213</v>
+        <v>7570.942679078825</v>
       </c>
       <c r="B3">
-        <v>4128.803935709494</v>
+        <v>4067.9465985478</v>
       </c>
       <c r="C3">
-        <v>17716.29115896163</v>
+        <v>17577.59070187247</v>
       </c>
       <c r="D3">
-        <v>4451.434067527738</v>
+        <v>4517.742558757555</v>
       </c>
       <c r="E3">
-        <v>8987.984466598588</v>
+        <v>8802.956088613031</v>
       </c>
       <c r="F3">
-        <v>2421.283258455447</v>
+        <v>2410.096856007715</v>
       </c>
       <c r="G3">
-        <v>4736.235578230274</v>
+        <v>4624.641230227422</v>
       </c>
       <c r="H3">
-        <v>7571.077980072213</v>
+        <v>7570.942679078825</v>
       </c>
       <c r="I3">
-        <v>37139</v>
+        <v>34021</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21845.09509467113</v>
+        <v>21645.53730042027</v>
       </c>
       <c r="O3">
-        <v>13439.41853412633</v>
+        <v>13320.69864737059</v>
       </c>
       <c r="P3">
-        <v>7157.518836685721</v>
+        <v>7034.738086235137</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.99691425947</v>
+        <v>15501.90919180424</v>
       </c>
       <c r="B4">
-        <v>8703.439833019535</v>
+        <v>8341.655591199646</v>
       </c>
       <c r="C4">
-        <v>36941.01810670785</v>
+        <v>36044.55501718977</v>
       </c>
       <c r="D4">
-        <v>9025.804545639672</v>
+        <v>7955.601554013417</v>
       </c>
       <c r="E4">
-        <v>18652.9618901431</v>
+        <v>16221.41087036681</v>
       </c>
       <c r="F4">
-        <v>4273.575178816384</v>
+        <v>4358.664379496424</v>
       </c>
       <c r="G4">
-        <v>8156.903713051146</v>
+        <v>8838.694455919784</v>
       </c>
       <c r="H4">
-        <v>15501.99691425947</v>
+        <v>15501.90919180424</v>
       </c>
       <c r="I4">
-        <v>72732</v>
+        <v>68152</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>45644.45793972739</v>
+        <v>44386.21060838942</v>
       </c>
       <c r="O4">
-        <v>27678.76643578277</v>
+        <v>24177.01242438023</v>
       </c>
       <c r="P4">
-        <v>12430.47889186753</v>
+        <v>13197.35883541621</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9670.09605863332</v>
+        <v>9670.090109523804</v>
       </c>
       <c r="B5">
-        <v>5436.98362334259</v>
+        <v>5143.842954857</v>
       </c>
       <c r="C5">
-        <v>22565.94435842702</v>
+        <v>21633.57990079915</v>
       </c>
       <c r="D5">
-        <v>5172.29409925127</v>
+        <v>5355.439560504868</v>
       </c>
       <c r="E5">
-        <v>10755.72990446723</v>
+        <v>10614.28974765545</v>
       </c>
       <c r="F5">
-        <v>2766.707791870996</v>
+        <v>2754.034794702051</v>
       </c>
       <c r="G5">
-        <v>5556.39907029568</v>
+        <v>5414.216987191648</v>
       </c>
       <c r="H5">
-        <v>9670.09605863332</v>
+        <v>9670.090109523804</v>
       </c>
       <c r="I5">
-        <v>44098</v>
+        <v>44826</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28002.9279817696</v>
+        <v>26777.42285565615</v>
       </c>
       <c r="O5">
-        <v>15928.0240037185</v>
+        <v>15969.72930816032</v>
       </c>
       <c r="P5">
-        <v>8323.106862166676</v>
+        <v>8168.251781893699</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.92350466194</v>
+        <v>26786.91663484162</v>
       </c>
       <c r="B6">
-        <v>14729.21995684811</v>
+        <v>15140.80316865906</v>
       </c>
       <c r="C6">
-        <v>62274.54468450479</v>
+        <v>63145.47109338147</v>
       </c>
       <c r="D6">
-        <v>15327.98760665234</v>
+        <v>15168.93239533292</v>
       </c>
       <c r="E6">
-        <v>30712.90025331474</v>
+        <v>30681.21667939754</v>
       </c>
       <c r="F6">
-        <v>7888.087176195932</v>
+        <v>8195.048013790491</v>
       </c>
       <c r="G6">
-        <v>15411.33565477083</v>
+        <v>16149.58266830533</v>
       </c>
       <c r="H6">
-        <v>26786.92350466194</v>
+        <v>26786.91663484162</v>
       </c>
       <c r="I6">
-        <v>125018</v>
+        <v>130324</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>77003.7646413529</v>
+        <v>78286.27426204053</v>
       </c>
       <c r="O6">
-        <v>46040.88785996708</v>
+        <v>45850.14907473046</v>
       </c>
       <c r="P6">
-        <v>23299.42283096676</v>
+        <v>24344.63068209582</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.92055788262</v>
+        <v>15438.96594583264</v>
       </c>
       <c r="B7">
-        <v>8634.808517531745</v>
+        <v>8388.758458367665</v>
       </c>
       <c r="C7">
-        <v>36564.24184045359</v>
+        <v>36038.64852618978</v>
       </c>
       <c r="D7">
-        <v>8821.885584333581</v>
+        <v>8741.37886368525</v>
       </c>
       <c r="E7">
-        <v>17393.88678176973</v>
+        <v>17712.55426840552</v>
       </c>
       <c r="F7">
-        <v>4438.111654366779</v>
+        <v>4738.426114141968</v>
       </c>
       <c r="G7">
-        <v>9078.364284101002</v>
+        <v>9425.380836382699</v>
       </c>
       <c r="H7">
-        <v>15438.92055788262</v>
+        <v>15438.96594583264</v>
       </c>
       <c r="I7">
-        <v>73068</v>
+        <v>73716</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>45199.05035798533</v>
+        <v>44427.40698455744</v>
       </c>
       <c r="O7">
-        <v>26215.77236610331</v>
+        <v>26453.93313209077</v>
       </c>
       <c r="P7">
-        <v>13516.47593846778</v>
+        <v>14163.80695052467</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.983647988302</v>
+        <v>7028.101901527484</v>
       </c>
       <c r="B8">
-        <v>3729.314308827813</v>
+        <v>3963.87750881064</v>
       </c>
       <c r="C8">
-        <v>16320.20278054</v>
+        <v>16382.35747090923</v>
       </c>
       <c r="D8">
-        <v>3800.697744109038</v>
+        <v>3941.081182039462</v>
       </c>
       <c r="E8">
-        <v>7672.73228977757</v>
+        <v>8077.497356439237</v>
       </c>
       <c r="F8">
-        <v>1924.639338872998</v>
+        <v>2236.574113011016</v>
       </c>
       <c r="G8">
-        <v>3717.604339949506</v>
+        <v>4169.958054651707</v>
       </c>
       <c r="H8">
-        <v>7027.983647988302</v>
+        <v>7028.101901527484</v>
       </c>
       <c r="I8">
-        <v>34248</v>
+        <v>33176</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20049.51708936782</v>
+        <v>20346.23497971987</v>
       </c>
       <c r="O8">
-        <v>11473.43003388661</v>
+        <v>12018.5785384787</v>
       </c>
       <c r="P8">
-        <v>5642.243678822503</v>
+        <v>6406.532167662724</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.978142332257</v>
+        <v>5005.967808225968</v>
       </c>
       <c r="B9">
-        <v>2773.265472580664</v>
+        <v>2586.949536565519</v>
       </c>
       <c r="C9">
-        <v>11623.17718727094</v>
+        <v>11242.86397318078</v>
       </c>
       <c r="D9">
-        <v>2785.95452005778</v>
+        <v>2655.147487790506</v>
       </c>
       <c r="E9">
-        <v>5390.539374528353</v>
+        <v>5439.922168972398</v>
       </c>
       <c r="F9">
-        <v>1498.472155429736</v>
+        <v>1540.088058800625</v>
       </c>
       <c r="G9">
-        <v>3023.869304645199</v>
+        <v>2975.484513233541</v>
       </c>
       <c r="H9">
-        <v>5005.978142332257</v>
+        <v>5005.967808225968</v>
       </c>
       <c r="I9">
-        <v>22650</v>
+        <v>23396</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14396.4426598516</v>
+        <v>13829.8135097463</v>
       </c>
       <c r="O9">
-        <v>8176.493894586133</v>
+        <v>8095.069656762904</v>
       </c>
       <c r="P9">
-        <v>4522.341460074935</v>
+        <v>4515.572572034165</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.98819186799</v>
+        <v>5886.946400139633</v>
       </c>
       <c r="B10">
-        <v>3098.956161598817</v>
+        <v>3070.513972974259</v>
       </c>
       <c r="C10">
-        <v>14000.74178827672</v>
+        <v>13565.25174268114</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9443.907458788266</v>
+        <v>9290.742248495866</v>
       </c>
       <c r="F10">
-        <v>1838.323214048622</v>
+        <v>1872.085179937189</v>
       </c>
       <c r="G10">
-        <v>3596.898218909831</v>
+        <v>3437.480172530905</v>
       </c>
       <c r="H10">
-        <v>5886.98819186799</v>
+        <v>5886.946400139633</v>
       </c>
       <c r="I10">
-        <v>28702</v>
+        <v>30156</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17099.69794987554</v>
+        <v>16635.7657156554</v>
       </c>
       <c r="O10">
-        <v>9443.907458788266</v>
+        <v>9290.742248495866</v>
       </c>
       <c r="P10">
-        <v>5435.221432958453</v>
+        <v>5309.565352468094</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.056423013795</v>
+        <v>1726.097819677636</v>
       </c>
       <c r="B11">
-        <v>931.0047441496654</v>
+        <v>936.7286385225955</v>
       </c>
       <c r="C11">
-        <v>4027.24848861273</v>
+        <v>4007.992717637611</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2861.317179707326</v>
+        <v>2899.636542427987</v>
       </c>
       <c r="F11">
-        <v>485.3532616346996</v>
+        <v>496.4190675947421</v>
       </c>
       <c r="G11">
-        <v>935.2574186650422</v>
+        <v>941.2564458805744</v>
       </c>
       <c r="H11">
-        <v>1726.056423013795</v>
+        <v>1726.097819677636</v>
       </c>
       <c r="I11">
-        <v>8498</v>
+        <v>8197</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4958.253232762395</v>
+        <v>4944.721356160207</v>
       </c>
       <c r="O11">
-        <v>2861.317179707326</v>
+        <v>2899.636542427987</v>
       </c>
       <c r="P11">
-        <v>1420.610680299742</v>
+        <v>1437.675513475316</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>500.9925293945949</v>
+        <v>500.923297462041</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1382.475780082574</v>
+        <v>1419.098681548364</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>752.9265349539787</v>
+        <v>780.8892318064226</v>
       </c>
       <c r="F12">
-        <v>139.6383945162422</v>
+        <v>155.1031865081779</v>
       </c>
       <c r="G12">
-        <v>279.7358070657144</v>
+        <v>293.1041344103302</v>
       </c>
       <c r="H12">
-        <v>500.9925293945949</v>
+        <v>500.923297462041</v>
       </c>
       <c r="I12">
-        <v>2565</v>
+        <v>2866</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1382.475780082574</v>
+        <v>1419.098681548364</v>
       </c>
       <c r="O12">
-        <v>752.9265349539787</v>
+        <v>780.8892318064226</v>
       </c>
       <c r="P12">
-        <v>419.3742015819566</v>
+        <v>448.2073209185081</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.041842744995</v>
+        <v>1088.0038546118</v>
       </c>
       <c r="B13">
-        <v>486.4741325631806</v>
+        <v>497.383399165678</v>
       </c>
       <c r="C13">
-        <v>2646.959572160094</v>
+        <v>2579.980712460855</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1674.336576092649</v>
+        <v>1730.721946305446</v>
       </c>
       <c r="F13">
-        <v>820.1223890431143</v>
+        <v>764.1009511394237</v>
       </c>
       <c r="G13">
-        <v>130.8675403784168</v>
+        <v>135.5489197200154</v>
       </c>
       <c r="H13">
-        <v>1088.041842744995</v>
+        <v>1088.0038546118</v>
       </c>
       <c r="I13">
-        <v>4477</v>
+        <v>4721</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3133.433704723274</v>
+        <v>3077.364111626533</v>
       </c>
       <c r="O13">
-        <v>1674.336576092649</v>
+        <v>1730.721946305446</v>
       </c>
       <c r="P13">
-        <v>950.9899294215311</v>
+        <v>899.6498708594392</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.98481299542</v>
+        <v>11831.98856374819</v>
       </c>
       <c r="B14">
-        <v>5152.060179137473</v>
+        <v>5328.51941875788</v>
       </c>
       <c r="C14">
-        <v>27278.30885935521</v>
+        <v>27480.43073310887</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18101.59423286991</v>
+        <v>17368.93394408475</v>
       </c>
       <c r="F14">
-        <v>9489.321724973264</v>
+        <v>8372.379863282444</v>
       </c>
       <c r="G14">
-        <v>1569.699600659778</v>
+        <v>1486.295609008983</v>
       </c>
       <c r="H14">
-        <v>11831.98481299542</v>
+        <v>11831.98856374819</v>
       </c>
       <c r="I14">
-        <v>48278</v>
+        <v>49002</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32430.36903849269</v>
+        <v>32808.95015186675</v>
       </c>
       <c r="O14">
-        <v>18101.59423286991</v>
+        <v>17368.93394408475</v>
       </c>
       <c r="P14">
-        <v>11059.02132563304</v>
+        <v>9858.675472291427</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.95592742338</v>
+        <v>79021.05210961883</v>
       </c>
       <c r="B15">
-        <v>35897.60157224703</v>
+        <v>36726.83944548184</v>
       </c>
       <c r="C15">
-        <v>194101.0533654459</v>
+        <v>189640.362574271</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>136990.401261803</v>
+        <v>120507.8314292933</v>
       </c>
       <c r="F15">
-        <v>54057.94715283882</v>
+        <v>58890.72791749561</v>
       </c>
       <c r="G15">
-        <v>10000.46530861718</v>
+        <v>10233.83881288287</v>
       </c>
       <c r="H15">
-        <v>79020.95592742338</v>
+        <v>79021.05210961883</v>
       </c>
       <c r="I15">
-        <v>335718</v>
+        <v>340718</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>229998.6549376929</v>
+        <v>226367.2020197528</v>
       </c>
       <c r="O15">
-        <v>136990.401261803</v>
+        <v>120507.8314292933</v>
       </c>
       <c r="P15">
-        <v>64058.412461456</v>
+        <v>69124.56673037849</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.1146106878</v>
+        <v>160975.0961627039</v>
       </c>
       <c r="B16">
-        <v>70494.43247144668</v>
+        <v>72384.40084532186</v>
       </c>
       <c r="C16">
-        <v>384416.4577380794</v>
+        <v>371872.7460446714</v>
       </c>
       <c r="D16">
-        <v>91824.06254278567</v>
+        <v>86367.11477607042</v>
       </c>
       <c r="E16">
-        <v>181296.5295033123</v>
+        <v>167644.8956682471</v>
       </c>
       <c r="F16">
-        <v>124276.2833014639</v>
+        <v>118951.9469482633</v>
       </c>
       <c r="G16">
-        <v>20391.60839199261</v>
+        <v>20463.5930574891</v>
       </c>
       <c r="H16">
-        <v>160975.1146106878</v>
+        <v>160975.0961627039</v>
       </c>
       <c r="I16">
-        <v>633779</v>
+        <v>627324</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>454910.8902095261</v>
+        <v>444257.1468899932</v>
       </c>
       <c r="O16">
-        <v>273120.592046098</v>
+        <v>254012.0104443175</v>
       </c>
       <c r="P16">
-        <v>144667.8916934565</v>
+        <v>139415.5400057524</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.05918135598</v>
+        <v>52807.90255795986</v>
       </c>
       <c r="B17">
-        <v>23653.81489080845</v>
+        <v>23894.8968717255</v>
       </c>
       <c r="C17">
-        <v>127295.7921134587</v>
+        <v>127040.5514913703</v>
       </c>
       <c r="D17">
-        <v>29233.37586122062</v>
+        <v>30999.12415711423</v>
       </c>
       <c r="E17">
-        <v>57791.35398698282</v>
+        <v>59038.10565612234</v>
       </c>
       <c r="F17">
-        <v>40252.93972123163</v>
+        <v>41188.44515568206</v>
       </c>
       <c r="G17">
-        <v>6794.652724165647</v>
+        <v>7346.364601571776</v>
       </c>
       <c r="H17">
-        <v>52808.05918135598</v>
+        <v>52807.90255795986</v>
       </c>
       <c r="I17">
-        <v>216720</v>
+        <v>213544</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>150949.6070042671</v>
+        <v>150935.4483630958</v>
       </c>
       <c r="O17">
-        <v>87024.72984820344</v>
+        <v>90037.22981323657</v>
       </c>
       <c r="P17">
-        <v>47047.59244539727</v>
+        <v>48534.80975725383</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.10825749906</v>
+        <v>48665.93426060247</v>
       </c>
       <c r="B18">
-        <v>22029.05860367998</v>
+        <v>23024.66923274109</v>
       </c>
       <c r="C18">
-        <v>118017.6453177053</v>
+        <v>119770.6354119192</v>
       </c>
       <c r="D18">
-        <v>26736.24369399262</v>
+        <v>27368.56672957081</v>
       </c>
       <c r="E18">
-        <v>52184.44463584201</v>
+        <v>50717.01185513599</v>
       </c>
       <c r="F18">
-        <v>38541.43809471317</v>
+        <v>35685.19560609494</v>
       </c>
       <c r="G18">
-        <v>6439.459715557331</v>
+        <v>6216.334678824916</v>
       </c>
       <c r="H18">
-        <v>48666.10825749906</v>
+        <v>48665.93426060247</v>
       </c>
       <c r="I18">
-        <v>191850</v>
+        <v>188180</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>140046.7039213853</v>
+        <v>142795.3046446603</v>
       </c>
       <c r="O18">
-        <v>78920.68832983462</v>
+        <v>78085.5785847068</v>
       </c>
       <c r="P18">
-        <v>44980.8978102705</v>
+        <v>41901.53028491986</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50921.01448774066</v>
+        <v>50921.02988679863</v>
       </c>
       <c r="B19">
-        <v>22736.14209906314</v>
+        <v>23788.9630758231</v>
       </c>
       <c r="C19">
-        <v>120852.617443975</v>
+        <v>125411.7768308476</v>
       </c>
       <c r="D19">
-        <v>28225.39564040414</v>
+        <v>28520.18900641142</v>
       </c>
       <c r="E19">
-        <v>55366.36263246141</v>
+        <v>54724.09141474796</v>
       </c>
       <c r="F19">
-        <v>37138.9331018028</v>
+        <v>37818.98773589284</v>
       </c>
       <c r="G19">
-        <v>6872.07643372157</v>
+        <v>6336.15063575985</v>
       </c>
       <c r="H19">
-        <v>50921.01448774066</v>
+        <v>50921.02988679863</v>
       </c>
       <c r="I19">
-        <v>207216</v>
+        <v>211767</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>143588.7595430381</v>
+        <v>149200.7399066707</v>
       </c>
       <c r="O19">
-        <v>83591.75827286554</v>
+        <v>83244.28042115938</v>
       </c>
       <c r="P19">
-        <v>44011.00953552437</v>
+        <v>44155.13837165268</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.96517380936</v>
+        <v>20572.88789949997</v>
       </c>
       <c r="B20">
-        <v>9452.357232511409</v>
+        <v>9184.630635260273</v>
       </c>
       <c r="C20">
-        <v>48883.91969694392</v>
+        <v>50117.14241133465</v>
       </c>
       <c r="D20">
-        <v>11343.90357094132</v>
+        <v>12086.98847706391</v>
       </c>
       <c r="E20">
-        <v>21719.57914278221</v>
+        <v>23542.31418709493</v>
       </c>
       <c r="F20">
-        <v>15733.34218117039</v>
+        <v>16132.6932870954</v>
       </c>
       <c r="G20">
-        <v>2894.544361432382</v>
+        <v>2765.193632755054</v>
       </c>
       <c r="H20">
-        <v>20572.96517380936</v>
+        <v>20572.88789949997</v>
       </c>
       <c r="I20">
-        <v>79415</v>
+        <v>79670</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>58336.27692945533</v>
+        <v>59301.77304659493</v>
       </c>
       <c r="O20">
-        <v>33063.48271372353</v>
+        <v>35629.30266415884</v>
       </c>
       <c r="P20">
-        <v>18627.88654260277</v>
+        <v>18897.88691985045</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.94575883326</v>
+        <v>26960.96055170759</v>
       </c>
       <c r="B21">
-        <v>12103.9098043835</v>
+        <v>13127.78860199404</v>
       </c>
       <c r="C21">
-        <v>64916.71489149427</v>
+        <v>69981.74803304969</v>
       </c>
       <c r="D21">
-        <v>15724.50383011443</v>
+        <v>16367.65087819559</v>
       </c>
       <c r="E21">
-        <v>30377.49138419113</v>
+        <v>32523.00559025562</v>
       </c>
       <c r="F21">
-        <v>22072.06889680203</v>
+        <v>19151.16210159759</v>
       </c>
       <c r="G21">
-        <v>4073.504504368216</v>
+        <v>3459.542697528399</v>
       </c>
       <c r="H21">
-        <v>26960.94575883326</v>
+        <v>26960.96055170759</v>
       </c>
       <c r="I21">
-        <v>105102</v>
+        <v>104166</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>77020.62469587776</v>
+        <v>83109.53663504373</v>
       </c>
       <c r="O21">
-        <v>46101.99521430556</v>
+        <v>48890.65646845121</v>
       </c>
       <c r="P21">
-        <v>26145.57340117025</v>
+        <v>22610.70479912599</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.011928447233</v>
+        <v>3910.01191599162</v>
       </c>
       <c r="B22">
-        <v>1827.933124872527</v>
+        <v>1781.619887187326</v>
       </c>
       <c r="C22">
-        <v>9394.391871716764</v>
+        <v>9310.734569114753</v>
       </c>
       <c r="D22">
-        <v>2159.392428106958</v>
+        <v>2064.27467834147</v>
       </c>
       <c r="E22">
-        <v>4235.590028856915</v>
+        <v>4026.256243282865</v>
       </c>
       <c r="F22">
-        <v>2895.459558729036</v>
+        <v>2857.033417110111</v>
       </c>
       <c r="G22">
-        <v>514.9453040044913</v>
+        <v>482.9872892855018</v>
       </c>
       <c r="H22">
-        <v>3910.011928447233</v>
+        <v>3910.01191599162</v>
       </c>
       <c r="I22">
-        <v>16852</v>
+        <v>15756</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11222.32499658929</v>
+        <v>11092.35445630208</v>
       </c>
       <c r="O22">
-        <v>6394.982456963872</v>
+        <v>6090.530921624335</v>
       </c>
       <c r="P22">
-        <v>3410.404862733527</v>
+        <v>3340.020706395613</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9071828166413</v>
+        <v>105.9614056825861</v>
       </c>
       <c r="B23">
-        <v>45.19785784381475</v>
+        <v>50.14073935757117</v>
       </c>
       <c r="C23">
-        <v>260.8614356329825</v>
+        <v>255.4698572819323</v>
       </c>
       <c r="D23">
-        <v>58.12963693168515</v>
+        <v>56.13723814960537</v>
       </c>
       <c r="E23">
-        <v>116.5608829500053</v>
+        <v>110.3669885753314</v>
       </c>
       <c r="F23">
-        <v>74.89860410975484</v>
+        <v>73.42369171927773</v>
       </c>
       <c r="G23">
-        <v>11.56049077939528</v>
+        <v>11.03183113600549</v>
       </c>
       <c r="H23">
-        <v>105.9071828166413</v>
+        <v>105.9614056825861</v>
       </c>
       <c r="I23">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>306.0592934767972</v>
+        <v>305.6105966395035</v>
       </c>
       <c r="O23">
-        <v>174.6905198816905</v>
+        <v>166.5042267249368</v>
       </c>
       <c r="P23">
-        <v>86.45909488915012</v>
+        <v>84.45552285528322</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.01504271517</v>
+        <v>15661.04887304191</v>
       </c>
       <c r="B24">
-        <v>7093.909412430144</v>
+        <v>7673.403956777895</v>
       </c>
       <c r="C24">
-        <v>37280.52747120633</v>
+        <v>39835.71677480307</v>
       </c>
       <c r="D24">
-        <v>8994.848703651001</v>
+        <v>9321.184633307075</v>
       </c>
       <c r="E24">
-        <v>17180.35032920317</v>
+        <v>18466.47744002786</v>
       </c>
       <c r="F24">
-        <v>10865.04722710262</v>
+        <v>13333.01290087236</v>
       </c>
       <c r="G24">
-        <v>1909.52926324013</v>
+        <v>2497.54292008219</v>
       </c>
       <c r="H24">
-        <v>15661.01504271517</v>
+        <v>15661.04887304191</v>
       </c>
       <c r="I24">
-        <v>65040</v>
+        <v>66841</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>44374.43688363647</v>
+        <v>47509.12073158097</v>
       </c>
       <c r="O24">
-        <v>26175.19903285417</v>
+        <v>27787.66207333493</v>
       </c>
       <c r="P24">
-        <v>12774.57649034274</v>
+        <v>15830.55582095455</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.934022372398</v>
+        <v>6606.918545654111</v>
       </c>
       <c r="B25">
-        <v>1480.151583802431</v>
+        <v>1441.780260186689</v>
       </c>
       <c r="C25">
-        <v>17454.39172274475</v>
+        <v>16892.16121206257</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10131.17740553421</v>
+        <v>10906.86184885749</v>
       </c>
       <c r="F25">
-        <v>5559.556762422369</v>
+        <v>6063.338025845213</v>
       </c>
       <c r="G25">
-        <v>279.7289869134855</v>
+        <v>327.8525118888824</v>
       </c>
       <c r="H25">
-        <v>6606.934022372398</v>
+        <v>6606.918545654111</v>
       </c>
       <c r="I25">
-        <v>31060</v>
+        <v>30554</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18934.54330654718</v>
+        <v>18333.94147224926</v>
       </c>
       <c r="O25">
-        <v>10131.17740553421</v>
+        <v>10906.86184885749</v>
       </c>
       <c r="P25">
-        <v>5839.285749335854</v>
+        <v>6391.190537734095</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.04878810197</v>
+        <v>22422.9580368635</v>
       </c>
       <c r="B26">
-        <v>4600.021800812879</v>
+        <v>4885.748209463643</v>
       </c>
       <c r="C26">
-        <v>59182.76882085968</v>
+        <v>59175.53038858073</v>
       </c>
       <c r="D26">
-        <v>8310.821986349793</v>
+        <v>8532.621692972429</v>
       </c>
       <c r="E26">
-        <v>27591.30157846211</v>
+        <v>27973.3614487545</v>
       </c>
       <c r="F26">
-        <v>19096.46544349738</v>
+        <v>17229.23992383307</v>
       </c>
       <c r="G26">
-        <v>1048.346003775527</v>
+        <v>1011.626568820116</v>
       </c>
       <c r="H26">
-        <v>22423.04878810197</v>
+        <v>22422.9580368635</v>
       </c>
       <c r="I26">
-        <v>112992</v>
+        <v>99669</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>63782.79062167256</v>
+        <v>64061.27859804437</v>
       </c>
       <c r="O26">
-        <v>35902.1235648119</v>
+        <v>36505.98314172693</v>
       </c>
       <c r="P26">
-        <v>20144.8114472729</v>
+        <v>18240.86649265319</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.89432377099</v>
+        <v>29148.03148688566</v>
       </c>
       <c r="B27">
-        <v>6092.924816946932</v>
+        <v>6275.014803177392</v>
       </c>
       <c r="C27">
-        <v>76933.39596339726</v>
+        <v>78438.25925042048</v>
       </c>
       <c r="D27">
-        <v>10995.31876898347</v>
+        <v>10968.14009243878</v>
       </c>
       <c r="E27">
-        <v>37841.3219021281</v>
+        <v>37059.09307756089</v>
       </c>
       <c r="F27">
-        <v>25952.87512830356</v>
+        <v>22738.15075934225</v>
       </c>
       <c r="G27">
-        <v>1507.149993111514</v>
+        <v>1220.290344322081</v>
       </c>
       <c r="H27">
-        <v>29147.89432377099</v>
+        <v>29148.03148688566</v>
       </c>
       <c r="I27">
-        <v>130850</v>
+        <v>130814</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>83026.32078034419</v>
+        <v>84713.27405359787</v>
       </c>
       <c r="O27">
-        <v>48836.64067111157</v>
+        <v>48027.23316999967</v>
       </c>
       <c r="P27">
-        <v>27460.02512141507</v>
+        <v>23958.44110366434</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.06754531855</v>
+        <v>30698.1061497393</v>
       </c>
       <c r="B28">
-        <v>6534.706071421249</v>
+        <v>6623.25191478694</v>
       </c>
       <c r="C28">
-        <v>79862.66152727181</v>
+        <v>83680.73614257184</v>
       </c>
       <c r="D28">
-        <v>11371.25821410842</v>
+        <v>11812.20154874543</v>
       </c>
       <c r="E28">
-        <v>38119.54038250201</v>
+        <v>39247.65722198127</v>
       </c>
       <c r="F28">
-        <v>26130.06781830424</v>
+        <v>24480.09563584539</v>
       </c>
       <c r="G28">
-        <v>1305.732596558737</v>
+        <v>1271.094335908687</v>
       </c>
       <c r="H28">
-        <v>30698.06754531855</v>
+        <v>30698.1061497393</v>
       </c>
       <c r="I28">
-        <v>141628</v>
+        <v>138721</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>86397.36759869306</v>
+        <v>90303.98805735879</v>
       </c>
       <c r="O28">
-        <v>49490.79859661043</v>
+        <v>51059.8587707267</v>
       </c>
       <c r="P28">
-        <v>27435.80041486298</v>
+        <v>25751.18997175407</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.02991945535</v>
+        <v>81901.09609332218</v>
       </c>
       <c r="B29">
-        <v>18029.84838962032</v>
+        <v>17378.11550933527</v>
       </c>
       <c r="C29">
-        <v>222419.3642208134</v>
+        <v>223128.4750712681</v>
       </c>
       <c r="D29">
-        <v>33711.00557080711</v>
+        <v>33185.47622781609</v>
       </c>
       <c r="E29">
-        <v>109076.845248923</v>
+        <v>113487.6502912263</v>
       </c>
       <c r="F29">
-        <v>70540.78095408261</v>
+        <v>65409.33603653558</v>
       </c>
       <c r="G29">
-        <v>3699.240728820666</v>
+        <v>3649.915446472644</v>
       </c>
       <c r="H29">
-        <v>81901.02991945535</v>
+        <v>81901.09609332218</v>
       </c>
       <c r="I29">
-        <v>366737</v>
+        <v>342239</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>240449.2126104337</v>
+        <v>240506.5905806033</v>
       </c>
       <c r="O29">
-        <v>142787.8508197301</v>
+        <v>146673.1265190424</v>
       </c>
       <c r="P29">
-        <v>74240.02168290327</v>
+        <v>69059.25148300822</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.96708248011</v>
+        <v>65572.03539180104</v>
       </c>
       <c r="B30">
-        <v>15289.38276988411</v>
+        <v>14708.82458202273</v>
       </c>
       <c r="C30">
-        <v>174786.073308272</v>
+        <v>177182.8357153028</v>
       </c>
       <c r="D30">
-        <v>24648.67837004637</v>
+        <v>26768.06324272381</v>
       </c>
       <c r="E30">
-        <v>81497.67955341286</v>
+        <v>85954.13320652649</v>
       </c>
       <c r="F30">
-        <v>54896.00321577751</v>
+        <v>50049.98994221747</v>
       </c>
       <c r="G30">
-        <v>2488.659208545635</v>
+        <v>2398.653876922919</v>
       </c>
       <c r="H30">
-        <v>65571.96708248011</v>
+        <v>65572.03539180104</v>
       </c>
       <c r="I30">
-        <v>289129</v>
+        <v>308032</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>190075.4560781561</v>
+        <v>191891.6602973255</v>
       </c>
       <c r="O30">
-        <v>106146.3579234592</v>
+        <v>112722.1964492503</v>
       </c>
       <c r="P30">
-        <v>57384.66242432314</v>
+        <v>52448.64381914039</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.9091349954</v>
+        <v>90327.89994684697</v>
       </c>
       <c r="B31">
-        <v>20895.91491454957</v>
+        <v>19823.95769714808</v>
       </c>
       <c r="C31">
-        <v>240887.1623239035</v>
+        <v>239886.7076908503</v>
       </c>
       <c r="D31">
-        <v>36368.70245061947</v>
+        <v>34116.21021201662</v>
       </c>
       <c r="E31">
-        <v>112407.5720467855</v>
+        <v>114538.4968445537</v>
       </c>
       <c r="F31">
-        <v>75434.55356721021</v>
+        <v>81036.76909261401</v>
       </c>
       <c r="G31">
-        <v>4316.412831704093</v>
+        <v>4393.013415265515</v>
       </c>
       <c r="H31">
-        <v>90327.9091349954</v>
+        <v>90327.89994684697</v>
       </c>
       <c r="I31">
-        <v>414735</v>
+        <v>406012</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>261783.0772384531</v>
+        <v>259710.6653879984</v>
       </c>
       <c r="O31">
-        <v>148776.274497405</v>
+        <v>148654.7070565703</v>
       </c>
       <c r="P31">
-        <v>79750.9663989143</v>
+        <v>85429.78250787951</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36451.04735122367</v>
+        <v>36450.97306278552</v>
       </c>
       <c r="B32">
-        <v>7974.902568938083</v>
+        <v>7450.863963090937</v>
       </c>
       <c r="C32">
-        <v>96586.05316984284</v>
+        <v>92685.07740696269</v>
       </c>
       <c r="D32">
-        <v>14118.86562073828</v>
+        <v>13047.72654018226</v>
       </c>
       <c r="E32">
-        <v>45982.73411319975</v>
+        <v>44818.87675224071</v>
       </c>
       <c r="F32">
-        <v>32367.17709134684</v>
+        <v>31384.49978939166</v>
       </c>
       <c r="G32">
-        <v>1542.721850456038</v>
+        <v>1573.834649369233</v>
       </c>
       <c r="H32">
-        <v>36451.04735122367</v>
+        <v>36450.97306278552</v>
       </c>
       <c r="I32">
-        <v>168486</v>
+        <v>170518</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>104560.9557387809</v>
+        <v>100135.9413700536</v>
       </c>
       <c r="O32">
-        <v>60101.59973393803</v>
+        <v>57866.60329242298</v>
       </c>
       <c r="P32">
-        <v>33909.89894180288</v>
+        <v>32958.3344387609</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.93944787864</v>
+        <v>22120.90880543166</v>
       </c>
       <c r="B33">
-        <v>4768.783957598827</v>
+        <v>4790.557175586983</v>
       </c>
       <c r="C33">
-        <v>57380.18674425271</v>
+        <v>58318.87119168544</v>
       </c>
       <c r="D33">
-        <v>9138.888754409492</v>
+        <v>8299.921556056042</v>
       </c>
       <c r="E33">
-        <v>29777.17331783376</v>
+        <v>28260.47710609593</v>
       </c>
       <c r="F33">
-        <v>16864.13411847411</v>
+        <v>20635.46149670839</v>
       </c>
       <c r="G33">
-        <v>944.3864871261341</v>
+        <v>1088.924119833742</v>
       </c>
       <c r="H33">
-        <v>22120.93944787864</v>
+        <v>22120.90880543166</v>
       </c>
       <c r="I33">
-        <v>97491</v>
+        <v>103101</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>62148.97070185153</v>
+        <v>63109.42836727242</v>
       </c>
       <c r="O33">
-        <v>38916.06207224326</v>
+        <v>36560.39866215197</v>
       </c>
       <c r="P33">
-        <v>17808.52060560025</v>
+        <v>21724.38561654213</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.96524423964</v>
+        <v>26863.93515768637</v>
       </c>
       <c r="B34">
-        <v>6029.213910057695</v>
+        <v>5650.042064921056</v>
       </c>
       <c r="C34">
-        <v>73855.38822014933</v>
+        <v>70932.20159824622</v>
       </c>
       <c r="D34">
-        <v>10574.27192908697</v>
+        <v>10421.99906564201</v>
       </c>
       <c r="E34">
-        <v>35959.68544633391</v>
+        <v>33595.97851079214</v>
       </c>
       <c r="F34">
-        <v>22922.20768466303</v>
+        <v>23077.23465017931</v>
       </c>
       <c r="G34">
-        <v>1193.693442167081</v>
+        <v>1253.770583654491</v>
       </c>
       <c r="H34">
-        <v>26863.96524423964</v>
+        <v>26863.93515768637</v>
       </c>
       <c r="I34">
-        <v>127478</v>
+        <v>124534</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>79884.60213020702</v>
+        <v>76582.24366316728</v>
       </c>
       <c r="O34">
-        <v>46533.95737542088</v>
+        <v>44017.97757643415</v>
       </c>
       <c r="P34">
-        <v>24115.90112683011</v>
+        <v>24331.00523383381</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0985860363616</v>
+        <v>454.0806955114377</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1294.001112258887</v>
+        <v>1266.117071651778</v>
       </c>
       <c r="D35">
-        <v>169.6815128401473</v>
+        <v>173.3758339436602</v>
       </c>
       <c r="E35">
-        <v>571.5079844557264</v>
+        <v>562.4732424045037</v>
       </c>
       <c r="F35">
-        <v>354.848576183424</v>
+        <v>387.9160759958491</v>
       </c>
       <c r="G35">
-        <v>21.0597974086113</v>
+        <v>19.60217413231338</v>
       </c>
       <c r="H35">
-        <v>454.0985860363616</v>
+        <v>454.0806955114377</v>
       </c>
       <c r="I35">
-        <v>2101</v>
+        <v>2198</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1294.001112258887</v>
+        <v>1266.117071651778</v>
       </c>
       <c r="O35">
-        <v>741.1894972958737</v>
+        <v>735.849076348164</v>
       </c>
       <c r="P35">
-        <v>375.9083735920353</v>
+        <v>407.5182501281625</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>505.0820093393821</v>
+        <v>504.9360380931097</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1390.977143798109</v>
+        <v>1447.115919375999</v>
       </c>
       <c r="D36">
-        <v>198.184290183686</v>
+        <v>191.0895173322033</v>
       </c>
       <c r="E36">
-        <v>646.9725577184332</v>
+        <v>661.072099519242</v>
       </c>
       <c r="F36">
-        <v>418.5893027425966</v>
+        <v>429.9518289962544</v>
       </c>
       <c r="G36">
-        <v>21.03689161505045</v>
+        <v>23.72900167837737</v>
       </c>
       <c r="H36">
-        <v>505.0820093393821</v>
+        <v>504.9360380931097</v>
       </c>
       <c r="I36">
-        <v>2632</v>
+        <v>2486</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1390.977143798109</v>
+        <v>1447.115919375999</v>
       </c>
       <c r="O36">
-        <v>845.1568479021192</v>
+        <v>852.1616168514454</v>
       </c>
       <c r="P36">
-        <v>439.626194357647</v>
+        <v>453.6808306746318</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11107.96978516083</v>
+        <v>11107.95872950177</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>31411.78474083775</v>
+        <v>30815.26148152292</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>18378.93718240349</v>
+        <v>17905.91080498424</v>
       </c>
       <c r="F37">
-        <v>3102.139513295617</v>
+        <v>3561.810950780515</v>
       </c>
       <c r="G37">
-        <v>5968.266362197772</v>
+        <v>6256.894045108332</v>
       </c>
       <c r="H37">
-        <v>11107.96978516083</v>
+        <v>11107.95872950177</v>
       </c>
       <c r="I37">
-        <v>57055</v>
+        <v>55114</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31411.78474083775</v>
+        <v>30815.26148152292</v>
       </c>
       <c r="O37">
-        <v>18378.93718240349</v>
+        <v>17905.91080498424</v>
       </c>
       <c r="P37">
-        <v>9070.405875493389</v>
+        <v>9818.704995888847</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.920678234365</v>
+        <v>1090.909476201743</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2974.020455796707</v>
+        <v>3075.373947198381</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1742.166957585233</v>
+        <v>1695.779934192241</v>
       </c>
       <c r="F38">
-        <v>328.0186568098828</v>
+        <v>329.0986076671978</v>
       </c>
       <c r="G38">
-        <v>604.4458937505054</v>
+        <v>620.758166794919</v>
       </c>
       <c r="H38">
-        <v>1090.920678234365</v>
+        <v>1090.909476201743</v>
       </c>
       <c r="I38">
-        <v>5319</v>
+        <v>5588</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2974.020455796707</v>
+        <v>3075.373947198381</v>
       </c>
       <c r="O38">
-        <v>1742.166957585233</v>
+        <v>1695.779934192241</v>
       </c>
       <c r="P38">
-        <v>932.4645505603883</v>
+        <v>949.8567744621169</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153572.0214931596</v>
+        <v>153571.9538503258</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>418786.6289103855</v>
+        <v>418587.5532497113</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>230514.58441108</v>
+        <v>246753.028154697</v>
       </c>
       <c r="F39">
-        <v>46486.83382407851</v>
+        <v>43871.3300388428</v>
       </c>
       <c r="G39">
-        <v>90708.63151455541</v>
+        <v>81277.52863126445</v>
       </c>
       <c r="H39">
-        <v>153572.0214931596</v>
+        <v>153571.9538503258</v>
       </c>
       <c r="I39">
-        <v>823276</v>
+        <v>784628</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>418786.6289103855</v>
+        <v>418587.5532497113</v>
       </c>
       <c r="O39">
-        <v>230514.58441108</v>
+        <v>246753.028154697</v>
       </c>
       <c r="P39">
-        <v>137195.4653386339</v>
+        <v>125148.8586701073</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152869.0332471397</v>
+        <v>152868.8958935427</v>
       </c>
       <c r="B40">
-        <v>27412.45454879425</v>
+        <v>25841.54366631141</v>
       </c>
       <c r="C40">
-        <v>406536.1956522643</v>
+        <v>394571.7992099064</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>262155.1463053529</v>
+        <v>248578.506353058</v>
       </c>
       <c r="F40">
-        <v>51775.86199495848</v>
+        <v>43853.21690441768</v>
       </c>
       <c r="G40">
-        <v>92668.31844307341</v>
+        <v>79647.62663955074</v>
       </c>
       <c r="H40">
-        <v>152869.0332471397</v>
+        <v>152868.8958935427</v>
       </c>
       <c r="I40">
-        <v>757120</v>
+        <v>732248</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>433948.6502010585</v>
+        <v>420413.3428762178</v>
       </c>
       <c r="O40">
-        <v>262155.1463053529</v>
+        <v>248578.506353058</v>
       </c>
       <c r="P40">
-        <v>144444.1804380319</v>
+        <v>123500.8435439684</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0461032283</v>
+        <v>339432.9454055731</v>
       </c>
       <c r="B41">
-        <v>62852.90011978455</v>
+        <v>57725.81462695264</v>
       </c>
       <c r="C41">
-        <v>935858.9802740903</v>
+        <v>912672.6098626104</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>537999.4203039332</v>
+        <v>549091.4878996777</v>
       </c>
       <c r="F41">
-        <v>95024.08571417909</v>
+        <v>95873.40937430209</v>
       </c>
       <c r="G41">
-        <v>181672.5154575294</v>
+        <v>181586.8141065512</v>
       </c>
       <c r="H41">
-        <v>339433.0461032283</v>
+        <v>339432.9454055731</v>
       </c>
       <c r="I41">
-        <v>1638030</v>
+        <v>1670360</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>998711.8803938748</v>
+        <v>970398.424489563</v>
       </c>
       <c r="O41">
-        <v>537999.4203039332</v>
+        <v>549091.4878996777</v>
       </c>
       <c r="P41">
-        <v>276696.6011717085</v>
+        <v>277460.2234808533</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.0770857332</v>
+        <v>245459.0232480616</v>
       </c>
       <c r="B42">
-        <v>41466.11156239646</v>
+        <v>41976.67312828935</v>
       </c>
       <c r="C42">
-        <v>659554.0189649926</v>
+        <v>666111.6830580656</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>390439.6533819733</v>
+        <v>365467.8840977784</v>
       </c>
       <c r="F42">
-        <v>74908.35711305319</v>
+        <v>78159.20120703353</v>
       </c>
       <c r="G42">
-        <v>138908.0817909864</v>
+        <v>139463.8345120025</v>
       </c>
       <c r="H42">
-        <v>245459.0770857332</v>
+        <v>245459.0232480616</v>
       </c>
       <c r="I42">
-        <v>1134134</v>
+        <v>1098066</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>701020.130527389</v>
+        <v>708088.356186355</v>
       </c>
       <c r="O42">
-        <v>390439.6533819733</v>
+        <v>365467.8840977784</v>
       </c>
       <c r="P42">
-        <v>213816.4389040396</v>
+        <v>217623.0357190361</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.9396702386</v>
+        <v>367626.9421161789</v>
       </c>
       <c r="B43">
-        <v>61726.40166926458</v>
+        <v>56451.5785616412</v>
       </c>
       <c r="C43">
-        <v>982127.7620761669</v>
+        <v>944648.8028871121</v>
       </c>
       <c r="D43">
-        <v>78751.17080997484</v>
+        <v>69627.40890569442</v>
       </c>
       <c r="E43">
-        <v>528367.2321728683</v>
+        <v>504690.4652869081</v>
       </c>
       <c r="F43">
-        <v>115618.8204909115</v>
+        <v>118101.6928359005</v>
       </c>
       <c r="G43">
-        <v>219416.2022770164</v>
+        <v>221836.9343323141</v>
       </c>
       <c r="H43">
-        <v>367626.9396702386</v>
+        <v>367626.9421161789</v>
       </c>
       <c r="I43">
-        <v>1858827</v>
+        <v>1708721</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1043854.163745432</v>
+        <v>1001100.381448753</v>
       </c>
       <c r="O43">
-        <v>607118.4029828431</v>
+        <v>574317.8741926025</v>
       </c>
       <c r="P43">
-        <v>335035.0227679279</v>
+        <v>339938.6271682147</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9450038935</v>
+        <v>470397.0478706906</v>
       </c>
       <c r="B44">
-        <v>91746.80542615525</v>
+        <v>86403.22063349845</v>
       </c>
       <c r="C44">
-        <v>1302311.965760544</v>
+        <v>1270034.219215106</v>
       </c>
       <c r="D44">
-        <v>109556.0838979124</v>
+        <v>113116.9096212014</v>
       </c>
       <c r="E44">
-        <v>726514.6036507428</v>
+        <v>764896.2350517233</v>
       </c>
       <c r="F44">
-        <v>138517.7209284891</v>
+        <v>149160.1944575832</v>
       </c>
       <c r="G44">
-        <v>265106.1166394571</v>
+        <v>274542.1720403039</v>
       </c>
       <c r="H44">
-        <v>470396.9450038935</v>
+        <v>470397.0478706906</v>
       </c>
       <c r="I44">
-        <v>2191631</v>
+        <v>2267858</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1394058.771186699</v>
+        <v>1356437.439848604</v>
       </c>
       <c r="O44">
-        <v>836070.6875486552</v>
+        <v>878013.1446729247</v>
       </c>
       <c r="P44">
-        <v>403623.8375679462</v>
+        <v>423702.3664978871</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307103.0935596603</v>
+        <v>307102.9345157753</v>
       </c>
       <c r="B45">
-        <v>55502.39182951157</v>
+        <v>53049.29987869608</v>
       </c>
       <c r="C45">
-        <v>810504.3759480122</v>
+        <v>818975.988701908</v>
       </c>
       <c r="D45">
-        <v>69198.04115557036</v>
+        <v>71091.21008182281</v>
       </c>
       <c r="E45">
-        <v>433054.2962365149</v>
+        <v>481737.9035371142</v>
       </c>
       <c r="F45">
-        <v>101053.4865930365</v>
+        <v>95053.00826702159</v>
       </c>
       <c r="G45">
-        <v>197799.8060376439</v>
+        <v>168972.271304177</v>
       </c>
       <c r="H45">
-        <v>307103.0935596603</v>
+        <v>307102.9345157753</v>
       </c>
       <c r="I45">
-        <v>1520528</v>
+        <v>1467642</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>866006.7677775238</v>
+        <v>872025.2885806041</v>
       </c>
       <c r="O45">
-        <v>502252.3373920853</v>
+        <v>552829.113618937</v>
       </c>
       <c r="P45">
-        <v>298853.2926306804</v>
+        <v>264025.2795711986</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9355784148</v>
+        <v>327915.0971968271</v>
       </c>
       <c r="B46">
-        <v>55568.16639008797</v>
+        <v>58764.85055142792</v>
       </c>
       <c r="C46">
-        <v>832503.2398310331</v>
+        <v>880626.1284708182</v>
       </c>
       <c r="D46">
-        <v>74092.18546569375</v>
+        <v>68694.65661929896</v>
       </c>
       <c r="E46">
-        <v>475846.0464623541</v>
+        <v>440219.901886476</v>
       </c>
       <c r="F46">
-        <v>114884.8035094334</v>
+        <v>98777.95831583157</v>
       </c>
       <c r="G46">
-        <v>208976.5722157007</v>
+        <v>183889.8475166228</v>
       </c>
       <c r="H46">
-        <v>327914.9355784148</v>
+        <v>327915.0971968271</v>
       </c>
       <c r="I46">
-        <v>1480206</v>
+        <v>1542534</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>888071.406221121</v>
+        <v>939390.9790222461</v>
       </c>
       <c r="O46">
-        <v>549938.2319280478</v>
+        <v>508914.558505775</v>
       </c>
       <c r="P46">
-        <v>323861.375725134</v>
+        <v>282667.8058324544</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.0105644751</v>
+        <v>659114.104398021</v>
       </c>
       <c r="B47">
-        <v>118423.1221768463</v>
+        <v>117139.4812942876</v>
       </c>
       <c r="C47">
-        <v>1779412.068511858</v>
+        <v>1827634.214654586</v>
       </c>
       <c r="D47">
-        <v>149636.400961823</v>
+        <v>145281.2207832579</v>
       </c>
       <c r="E47">
-        <v>961367.8437687384</v>
+        <v>990915.8481579005</v>
       </c>
       <c r="F47">
-        <v>185276.287245923</v>
+        <v>222495.1498538907</v>
       </c>
       <c r="G47">
-        <v>348618.4438523118</v>
+        <v>389992.0183498118</v>
       </c>
       <c r="H47">
-        <v>659114.0105644751</v>
+        <v>659114.104398021</v>
       </c>
       <c r="I47">
-        <v>2946683</v>
+        <v>3054216</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1897835.190688704</v>
+        <v>1944773.695948874</v>
       </c>
       <c r="O47">
-        <v>1111004.244730562</v>
+        <v>1136197.068941159</v>
       </c>
       <c r="P47">
-        <v>533894.7310982348</v>
+        <v>612487.1682037024</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195931.0993365993</v>
+        <v>195931.0302115976</v>
       </c>
       <c r="B48">
-        <v>34494.36637975855</v>
+        <v>34021.07614533892</v>
       </c>
       <c r="C48">
-        <v>519355.120141558</v>
+        <v>533625.6141381972</v>
       </c>
       <c r="D48">
-        <v>46347.80510547784</v>
+        <v>39697.49255465359</v>
       </c>
       <c r="E48">
-        <v>307644.1250799656</v>
+        <v>264342.837680307</v>
       </c>
       <c r="F48">
-        <v>64083.32757639396</v>
+        <v>71091.57656869327</v>
       </c>
       <c r="G48">
-        <v>115183.5982780477</v>
+        <v>123205.0417677913</v>
       </c>
       <c r="H48">
-        <v>195931.0993365993</v>
+        <v>195931.0302115976</v>
       </c>
       <c r="I48">
-        <v>942137</v>
+        <v>935559</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>553849.4865213166</v>
+        <v>567646.6902835361</v>
       </c>
       <c r="O48">
-        <v>353991.9301854434</v>
+        <v>304040.3302349606</v>
       </c>
       <c r="P48">
-        <v>179266.9258544417</v>
+        <v>194296.6183364845</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174400.0936090519</v>
+        <v>174400.0681266725</v>
       </c>
       <c r="B49">
-        <v>29844.37813484554</v>
+        <v>31488.07875513554</v>
       </c>
       <c r="C49">
-        <v>464158.1753251787</v>
+        <v>462379.1580246331</v>
       </c>
       <c r="D49">
-        <v>36315.09256803367</v>
+        <v>38957.35139623973</v>
       </c>
       <c r="E49">
-        <v>244578.0241004716</v>
+        <v>256539.3691411033</v>
       </c>
       <c r="F49">
-        <v>54294.81115101117</v>
+        <v>56796.89391837865</v>
       </c>
       <c r="G49">
-        <v>99310.86305319</v>
+        <v>100482.2699876592</v>
       </c>
       <c r="H49">
-        <v>174400.0936090519</v>
+        <v>174400.0681266725</v>
       </c>
       <c r="I49">
-        <v>818105</v>
+        <v>836933</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>494002.5534600242</v>
+        <v>493867.2367797687</v>
       </c>
       <c r="O49">
-        <v>280893.1166685053</v>
+        <v>295496.720537343</v>
       </c>
       <c r="P49">
-        <v>153605.6742042012</v>
+        <v>157279.1639060378</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.03610754425</v>
+        <v>60248.03202321186</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>170786.3397887813</v>
+        <v>168939.6891789335</v>
       </c>
       <c r="D50">
-        <v>14206.38705155656</v>
+        <v>12588.90768177964</v>
       </c>
       <c r="E50">
-        <v>95599.29965176812</v>
+        <v>83286.71953107315</v>
       </c>
       <c r="F50">
-        <v>17655.87998937965</v>
+        <v>20108.61136872172</v>
       </c>
       <c r="G50">
-        <v>33446.48017265542</v>
+        <v>36681.27976484213</v>
       </c>
       <c r="H50">
-        <v>60248.03610754425</v>
+        <v>60248.03202321186</v>
       </c>
       <c r="I50">
-        <v>276477</v>
+        <v>299601</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>170786.3397887813</v>
+        <v>168939.6891789335</v>
       </c>
       <c r="O50">
-        <v>109805.6867033247</v>
+        <v>95875.62721285279</v>
       </c>
       <c r="P50">
-        <v>51102.36016203508</v>
+        <v>56789.89113356385</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.013432159414</v>
+        <v>8461.069904913788</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23379.94538678126</v>
+        <v>23936.55309685079</v>
       </c>
       <c r="D51">
-        <v>1818.353009237186</v>
+        <v>1838.809370079587</v>
       </c>
       <c r="E51">
-        <v>11757.69153169604</v>
+        <v>12213.2587960655</v>
       </c>
       <c r="F51">
-        <v>2642.722084810348</v>
+        <v>2876.908736801937</v>
       </c>
       <c r="G51">
-        <v>4684.062563156921</v>
+        <v>5313.222647189171</v>
       </c>
       <c r="H51">
-        <v>8461.013432159414</v>
+        <v>8461.069904913788</v>
       </c>
       <c r="I51">
-        <v>42282</v>
+        <v>42324</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23379.94538678126</v>
+        <v>23936.55309685079</v>
       </c>
       <c r="O51">
-        <v>13576.04454093322</v>
+        <v>14052.06816614509</v>
       </c>
       <c r="P51">
-        <v>7326.78464796727</v>
+        <v>8190.131383991108</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.911669099354</v>
+        <v>2462.906336131917</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7654.749422260584</v>
+        <v>7529.044074013179</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1110.301457087435</v>
+        <v>1090.700577156696</v>
       </c>
       <c r="F52">
-        <v>3.055227885328174</v>
+        <v>1.045532227444221</v>
       </c>
       <c r="G52">
-        <v>11.65401506052098</v>
+        <v>5.805276477861261</v>
       </c>
       <c r="H52">
-        <v>2462.911669099354</v>
+        <v>2462.906336131917</v>
       </c>
       <c r="I52">
-        <v>11275</v>
+        <v>11913</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7654.749422260584</v>
+        <v>7529.044074013179</v>
       </c>
       <c r="O52">
-        <v>1110.301457087435</v>
+        <v>1090.700577156696</v>
       </c>
       <c r="P52">
-        <v>14.70924294584916</v>
+        <v>6.850808705305482</v>
       </c>
       <c r="Q52">
-        <v>14.50987795628362</v>
+        <v>20.28358010520193</v>
       </c>
       <c r="R52">
-        <v>39.2573754674229</v>
+        <v>44.35000659887809</v>
       </c>
       <c r="S52">
-        <v>53.76725342370651</v>
+        <v>64.63358670408002</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3703.905160330834</v>
+        <v>3704.042711347186</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11503.14516481088</v>
+        <v>11814.46551012535</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1587.566285075002</v>
+        <v>1870.57897676677</v>
       </c>
       <c r="F53">
-        <v>0.5737386276292589</v>
+        <v>1.330036332338656</v>
       </c>
       <c r="G53">
-        <v>5.5456014218559</v>
+        <v>11.51392974148681</v>
       </c>
       <c r="H53">
-        <v>3703.905160330834</v>
+        <v>3704.042711347186</v>
       </c>
       <c r="I53">
-        <v>16253</v>
+        <v>17061</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11503.14516481088</v>
+        <v>11814.46551012535</v>
       </c>
       <c r="O53">
-        <v>1587.566285075002</v>
+        <v>1870.57897676677</v>
       </c>
       <c r="P53">
-        <v>6.119340049485158</v>
+        <v>12.84396607382547</v>
       </c>
       <c r="Q53">
-        <v>27.08623639494281</v>
+        <v>25.14719469664848</v>
       </c>
       <c r="R53">
-        <v>68.48319907784811</v>
+        <v>78.76496658544994</v>
       </c>
       <c r="S53">
-        <v>95.56943547279093</v>
+        <v>103.9121612820984</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.9590590169</v>
+        <v>169753.8901177589</v>
       </c>
       <c r="B54">
-        <v>42456.52419040031</v>
+        <v>44219.36278814326</v>
       </c>
       <c r="C54">
-        <v>495694.2998630444</v>
+        <v>521015.3390660692</v>
       </c>
       <c r="D54">
-        <v>5216.753654415218</v>
+        <v>6191.091673404049</v>
       </c>
       <c r="E54">
-        <v>71825.16384992421</v>
+        <v>71345.52932334806</v>
       </c>
       <c r="F54">
-        <v>142.7868088849235</v>
+        <v>226.0716492509571</v>
       </c>
       <c r="G54">
-        <v>264.2662628172022</v>
+        <v>703.0875721743115</v>
       </c>
       <c r="H54">
-        <v>169753.9590590169</v>
+        <v>169753.8901177589</v>
       </c>
       <c r="I54">
-        <v>722735</v>
+        <v>718983</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>538150.8240534447</v>
+        <v>565234.7018542124</v>
       </c>
       <c r="O54">
-        <v>77041.91750433944</v>
+        <v>77536.62099675211</v>
       </c>
       <c r="P54">
-        <v>407.0530717021258</v>
+        <v>929.1592214252686</v>
       </c>
       <c r="Q54">
-        <v>1058.499950899499</v>
+        <v>1074.983557107134</v>
       </c>
       <c r="R54">
-        <v>3075.876653498647</v>
+        <v>2838.642352486663</v>
       </c>
       <c r="S54">
-        <v>4134.376604398147</v>
+        <v>3913.625909593797</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301001.0205885926</v>
+        <v>301000.9395645711</v>
       </c>
       <c r="B55">
-        <v>74328.04727722026</v>
+        <v>72678.91793516588</v>
       </c>
       <c r="C55">
-        <v>878857.3867795308</v>
+        <v>889738.6739155537</v>
       </c>
       <c r="D55">
-        <v>9228.012703627255</v>
+        <v>11572.043331576</v>
       </c>
       <c r="E55">
-        <v>121363.0753090092</v>
+        <v>143869.2669446321</v>
       </c>
       <c r="F55">
-        <v>185.677326029059</v>
+        <v>224.5488231994027</v>
       </c>
       <c r="G55">
-        <v>2190.166253234004</v>
+        <v>465.3557761183427</v>
       </c>
       <c r="H55">
-        <v>301001.0205885926</v>
+        <v>301000.9395645711</v>
       </c>
       <c r="I55">
-        <v>1217498</v>
+        <v>1312816</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>953185.4340567511</v>
+        <v>962417.5918507197</v>
       </c>
       <c r="O55">
-        <v>130591.0880126365</v>
+        <v>155441.310276208</v>
       </c>
       <c r="P55">
-        <v>2375.843579263063</v>
+        <v>689.9045993177455</v>
       </c>
       <c r="Q55">
-        <v>1501.921958436987</v>
+        <v>2067.65251687074</v>
       </c>
       <c r="R55">
-        <v>5341.57883974461</v>
+        <v>6036.098206172624</v>
       </c>
       <c r="S55">
-        <v>6843.500798181597</v>
+        <v>8103.750723043364</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.9203722071</v>
+        <v>485903.8858161119</v>
       </c>
       <c r="B56">
-        <v>112858.3307675122</v>
+        <v>123327.9887469558</v>
       </c>
       <c r="C56">
-        <v>1423141.139608328</v>
+        <v>1484871.603011089</v>
       </c>
       <c r="D56">
-        <v>16660.93211513679</v>
+        <v>17332.37931628435</v>
       </c>
       <c r="E56">
-        <v>215730.0942132592</v>
+        <v>217604.9725612518</v>
       </c>
       <c r="F56">
-        <v>216.1355120584238</v>
+        <v>443.1801124535489</v>
       </c>
       <c r="G56">
-        <v>1791.044800045014</v>
+        <v>1598.119284862652</v>
       </c>
       <c r="H56">
-        <v>485903.9203722071</v>
+        <v>485903.8858161119</v>
       </c>
       <c r="I56">
-        <v>1973323</v>
+        <v>2007034</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1535999.47037584</v>
+        <v>1608199.591758044</v>
       </c>
       <c r="O56">
-        <v>232391.026328396</v>
+        <v>234937.3518775362</v>
       </c>
       <c r="P56">
-        <v>2007.180312103437</v>
+        <v>2041.299397316201</v>
       </c>
       <c r="Q56">
-        <v>3334.648419688821</v>
+        <v>4335.642323294448</v>
       </c>
       <c r="R56">
-        <v>9483.502603885288</v>
+        <v>10116.4031724764</v>
       </c>
       <c r="S56">
-        <v>12818.15102357411</v>
+        <v>14452.04549577085</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.0749015817</v>
+        <v>757270.9172673901</v>
       </c>
       <c r="B57">
-        <v>192679.3413490594</v>
+        <v>196500.3534546871</v>
       </c>
       <c r="C57">
-        <v>2274554.367970427</v>
+        <v>2213354.775504137</v>
       </c>
       <c r="D57">
-        <v>22511.17639863825</v>
+        <v>22622.22533866497</v>
       </c>
       <c r="E57">
-        <v>329296.6684562462</v>
+        <v>319225.4580462365</v>
       </c>
       <c r="F57">
-        <v>553.0283679112913</v>
+        <v>871.93016591786</v>
       </c>
       <c r="G57">
-        <v>1915.502932054232</v>
+        <v>3864.58735132197</v>
       </c>
       <c r="H57">
-        <v>757271.0749015817</v>
+        <v>757270.9172673901</v>
       </c>
       <c r="I57">
-        <v>3299532</v>
+        <v>3339335</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2467233.709319486</v>
+        <v>2409855.128958824</v>
       </c>
       <c r="O57">
-        <v>351807.8448548844</v>
+        <v>341847.6833849015</v>
       </c>
       <c r="P57">
-        <v>2468.531299965523</v>
+        <v>4736.51751723983</v>
       </c>
       <c r="Q57">
-        <v>3799.783342742</v>
+        <v>5626.127624648827</v>
       </c>
       <c r="R57">
-        <v>13590.21753931172</v>
+        <v>17572.85118335362</v>
       </c>
       <c r="S57">
-        <v>17390.00088205372</v>
+        <v>23198.97880800245</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.1168599018</v>
+        <v>651329.030759825</v>
       </c>
       <c r="B58">
-        <v>159004.9731931246</v>
+        <v>158709.0944862251</v>
       </c>
       <c r="C58">
-        <v>1878674.002294326</v>
+        <v>1954817.245946017</v>
       </c>
       <c r="D58">
-        <v>22397.90179566107</v>
+        <v>22467.32264740456</v>
       </c>
       <c r="E58">
-        <v>288185.8132775347</v>
+        <v>275323.0378702168</v>
       </c>
       <c r="F58">
-        <v>719.9058165090759</v>
+        <v>508.7982086122389</v>
       </c>
       <c r="G58">
-        <v>3462.017488845772</v>
+        <v>2867.292323834313</v>
       </c>
       <c r="H58">
-        <v>651329.1168599018</v>
+        <v>651329.030759825</v>
       </c>
       <c r="I58">
-        <v>2767254</v>
+        <v>2853868</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2037678.975487451</v>
+        <v>2113526.340432242</v>
       </c>
       <c r="O58">
-        <v>310583.7150731958</v>
+        <v>297790.3605176213</v>
       </c>
       <c r="P58">
-        <v>4181.923305354848</v>
+        <v>3376.090532446552</v>
       </c>
       <c r="Q58">
-        <v>4015.707205685953</v>
+        <v>4757.994309452285</v>
       </c>
       <c r="R58">
-        <v>11519.59690598099</v>
+        <v>12514.85663973709</v>
       </c>
       <c r="S58">
-        <v>15535.30411166694</v>
+        <v>17272.85094918938</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.0247156933</v>
+        <v>889112.038319873</v>
       </c>
       <c r="B59">
-        <v>224393.190558752</v>
+        <v>221370.2713899525</v>
       </c>
       <c r="C59">
-        <v>2634245.30164147</v>
+        <v>2589857.337562279</v>
       </c>
       <c r="D59">
-        <v>27894.70630406361</v>
+        <v>25756.74338749554</v>
       </c>
       <c r="E59">
-        <v>394701.5674253319</v>
+        <v>365271.4620023922</v>
       </c>
       <c r="F59">
-        <v>859.1228501117272</v>
+        <v>677.3263644126357</v>
       </c>
       <c r="G59">
-        <v>1354.060735406492</v>
+        <v>2726.661644760348</v>
       </c>
       <c r="H59">
-        <v>889112.0247156933</v>
+        <v>889112.038319873</v>
       </c>
       <c r="I59">
-        <v>3787653</v>
+        <v>3851300</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2858638.492200222</v>
+        <v>2811227.608952231</v>
       </c>
       <c r="O59">
-        <v>422596.2737293955</v>
+        <v>391028.2053898877</v>
       </c>
       <c r="P59">
-        <v>2213.183585518219</v>
+        <v>3403.988009172984</v>
       </c>
       <c r="Q59">
-        <v>5112.449877183784</v>
+        <v>5569.847489186955</v>
       </c>
       <c r="R59">
-        <v>14371.55256687346</v>
+        <v>14902.75072630597</v>
       </c>
       <c r="S59">
-        <v>19484.00244405724</v>
+        <v>20472.59821549293</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9211327936</v>
+        <v>465365.0983730654</v>
       </c>
       <c r="B60">
-        <v>113743.1262860034</v>
+        <v>111161.573099739</v>
       </c>
       <c r="C60">
-        <v>1346789.182842556</v>
+        <v>1330591.565583038</v>
       </c>
       <c r="D60">
-        <v>15452.42253496469</v>
+        <v>16079.22354744267</v>
       </c>
       <c r="E60">
-        <v>201062.4881669538</v>
+        <v>218186.163857308</v>
       </c>
       <c r="F60">
-        <v>52.376978490982</v>
+        <v>102.4126656228247</v>
       </c>
       <c r="G60">
-        <v>406.4944063377234</v>
+        <v>1239.020223271171</v>
       </c>
       <c r="H60">
-        <v>465364.9211327936</v>
+        <v>465365.0983730654</v>
       </c>
       <c r="I60">
-        <v>1991028</v>
+        <v>1983468</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1460532.30912856</v>
+        <v>1441753.138682777</v>
       </c>
       <c r="O60">
-        <v>216514.9107019185</v>
+        <v>234265.3874047507</v>
       </c>
       <c r="P60">
-        <v>458.8713848287054</v>
+        <v>1341.432888893996</v>
       </c>
       <c r="Q60">
-        <v>2668.730011651825</v>
+        <v>3653.192683179083</v>
       </c>
       <c r="R60">
-        <v>9019.792301287611</v>
+        <v>11266.68448310445</v>
       </c>
       <c r="S60">
-        <v>11688.52231293944</v>
+        <v>14919.87716628354</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9713903128</v>
+        <v>340623.9762667521</v>
       </c>
       <c r="B61">
-        <v>81281.61858827795</v>
+        <v>79267.12917133515</v>
       </c>
       <c r="C61">
-        <v>986963.0996879295</v>
+        <v>959291.6522135943</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>143607.7293506882</v>
+        <v>162480.8234749108</v>
       </c>
       <c r="F61">
-        <v>262.9461776911761</v>
+        <v>106.847700782736</v>
       </c>
       <c r="G61">
-        <v>372.9564298694514</v>
+        <v>885.5188816288444</v>
       </c>
       <c r="H61">
-        <v>340623.9713903128</v>
+        <v>340623.9762667521</v>
       </c>
       <c r="I61">
-        <v>1448372</v>
+        <v>1385397</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1068244.718276207</v>
+        <v>1038558.781384929</v>
       </c>
       <c r="O61">
-        <v>143607.7293506882</v>
+        <v>162480.8234749108</v>
       </c>
       <c r="P61">
-        <v>635.9026075606275</v>
+        <v>992.3665824115803</v>
       </c>
       <c r="Q61">
-        <v>1953.94017288141</v>
+        <v>2081.512918905858</v>
       </c>
       <c r="R61">
-        <v>5367.793265585919</v>
+        <v>5886.839853035848</v>
       </c>
       <c r="S61">
-        <v>7321.733438467329</v>
+        <v>7968.352771941707</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.0912051115</v>
+        <v>469691.0844083853</v>
       </c>
       <c r="B62">
-        <v>114330.3009405352</v>
+        <v>112595.445928464</v>
       </c>
       <c r="C62">
-        <v>1339767.410978292</v>
+        <v>1382143.089430327</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>216694.6738256429</v>
+        <v>238671.6614013711</v>
       </c>
       <c r="F62">
-        <v>350.7251463839936</v>
+        <v>285.2905853498602</v>
       </c>
       <c r="G62">
-        <v>2141.803231712549</v>
+        <v>1053.972641214933</v>
       </c>
       <c r="H62">
-        <v>469691.0912051115</v>
+        <v>469691.0844083853</v>
       </c>
       <c r="I62">
-        <v>1994266</v>
+        <v>1927244</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1454097.711918827</v>
+        <v>1494738.535358791</v>
       </c>
       <c r="O62">
-        <v>216694.6738256429</v>
+        <v>238671.6614013711</v>
       </c>
       <c r="P62">
-        <v>2492.528378096542</v>
+        <v>1339.263226564793</v>
       </c>
       <c r="Q62">
-        <v>4113.456895066748</v>
+        <v>3456.901461270823</v>
       </c>
       <c r="R62">
-        <v>9240.539426791218</v>
+        <v>9405.014745605209</v>
       </c>
       <c r="S62">
-        <v>13353.99632185797</v>
+        <v>12861.91620687603</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.04226662063</v>
+        <v>20457.04598999156</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>64213.18159222118</v>
+        <v>61573.18645432783</v>
       </c>
       <c r="D63">
-        <v>608.6833423578065</v>
+        <v>663.4582058440415</v>
       </c>
       <c r="E63">
-        <v>8501.319354298377</v>
+        <v>8117.356419876831</v>
       </c>
       <c r="F63">
-        <v>7.556051891203451</v>
+        <v>9.854384492869576</v>
       </c>
       <c r="G63">
-        <v>73.10244057383349</v>
+        <v>68.36645156017147</v>
       </c>
       <c r="H63">
-        <v>20457.04226662063</v>
+        <v>20457.04598999156</v>
       </c>
       <c r="I63">
-        <v>94931</v>
+        <v>92252</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>64213.18159222118</v>
+        <v>61573.18645432783</v>
       </c>
       <c r="O63">
-        <v>9110.002696656184</v>
+        <v>8780.814625720872</v>
       </c>
       <c r="P63">
-        <v>80.65849246503694</v>
+        <v>78.22083605304104</v>
       </c>
       <c r="Q63">
-        <v>127.002835119605</v>
+        <v>121.7726716239856</v>
       </c>
       <c r="R63">
-        <v>416.5743952099024</v>
+        <v>344.5450336522526</v>
       </c>
       <c r="S63">
-        <v>543.5772303295074</v>
+        <v>466.3177052762382</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20630.92112165091</v>
+        <v>20631.08976564534</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>65133.435762965</v>
+        <v>61835.0226570315</v>
       </c>
       <c r="D64">
-        <v>609.1149811730613</v>
+        <v>578.9448629982858</v>
       </c>
       <c r="E64">
-        <v>8556.596822386488</v>
+        <v>8847.103381674049</v>
       </c>
       <c r="F64">
-        <v>12.56734714202231</v>
+        <v>7.390068851840146</v>
       </c>
       <c r="G64">
-        <v>59.12324482910702</v>
+        <v>58.56910332678814</v>
       </c>
       <c r="H64">
-        <v>20630.92112165091</v>
+        <v>20631.08976564534</v>
       </c>
       <c r="I64">
-        <v>90758</v>
+        <v>93938</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>65133.435762965</v>
+        <v>61835.0226570315</v>
       </c>
       <c r="O64">
-        <v>9165.711803559549</v>
+        <v>9426.048244672335</v>
       </c>
       <c r="P64">
-        <v>71.69059197112932</v>
+        <v>65.95917217862828</v>
       </c>
       <c r="Q64">
-        <v>123.8059805387828</v>
+        <v>101.8803447542362</v>
       </c>
       <c r="R64">
-        <v>417.5524278823431</v>
+        <v>383.0156847435334</v>
       </c>
       <c r="S64">
-        <v>541.3584084211259</v>
+        <v>484.8960294977696</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1768.027847290232</v>
+        <v>1767.896489259392</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5691.49617510634</v>
+        <v>5479.774349764556</v>
       </c>
       <c r="D65">
-        <v>43.84421450257791</v>
+        <v>51.71433306670229</v>
       </c>
       <c r="E65">
-        <v>664.8026468252995</v>
+        <v>663.9157611395331</v>
       </c>
       <c r="F65">
-        <v>2.111004341596852</v>
+        <v>0.3401567812862531</v>
       </c>
       <c r="G65">
-        <v>10.95711386243385</v>
+        <v>5.596169433738319</v>
       </c>
       <c r="H65">
-        <v>1768.027847290232</v>
+        <v>1767.896489259392</v>
       </c>
       <c r="I65">
-        <v>8297</v>
+        <v>8440</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5691.49617510634</v>
+        <v>5479.774349764556</v>
       </c>
       <c r="O65">
-        <v>708.6468613278773</v>
+        <v>715.6300942062353</v>
       </c>
       <c r="P65">
-        <v>13.0681182040307</v>
+        <v>5.936326215024572</v>
       </c>
       <c r="Q65">
-        <v>13.71235266868636</v>
+        <v>8.607456931371685</v>
       </c>
       <c r="R65">
-        <v>39.56657450097082</v>
+        <v>36.50571495616168</v>
       </c>
       <c r="S65">
-        <v>53.27892716965717</v>
+        <v>45.11317188753336</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0542276011066</v>
+        <v>123.0272942370739</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>384.3726292635126</v>
+        <v>396.5381288969975</v>
       </c>
       <c r="D66">
-        <v>5.028875080255572</v>
+        <v>2.819993843747446</v>
       </c>
       <c r="E66">
-        <v>61.07544649364522</v>
+        <v>49.4198776205659</v>
       </c>
       <c r="F66">
-        <v>0.1342613112773993</v>
+        <v>0.1192336190125346</v>
       </c>
       <c r="G66">
-        <v>0.5233944810216173</v>
+        <v>0.3951902631184014</v>
       </c>
       <c r="H66">
-        <v>123.0542276011066</v>
+        <v>123.0272942370739</v>
       </c>
       <c r="I66">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>384.3726292635126</v>
+        <v>396.5381288969975</v>
       </c>
       <c r="O66">
-        <v>66.10432157390079</v>
+        <v>52.23987146431335</v>
       </c>
       <c r="P66">
-        <v>0.6576557922990167</v>
+        <v>0.5144238821309359</v>
       </c>
       <c r="Q66">
-        <v>1.201577816029427</v>
+        <v>0.5910996641299862</v>
       </c>
       <c r="R66">
-        <v>2.710773666664957</v>
+        <v>2.779473535793516</v>
       </c>
       <c r="S66">
-        <v>3.912351482694383</v>
+        <v>3.370573199923502</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.1506890111842</v>
+        <v>202.9408037562237</v>
       </c>
       <c r="B67">
-        <v>47.732876808869</v>
+        <v>43.39967980672338</v>
       </c>
       <c r="C67">
-        <v>327.8254280556484</v>
+        <v>323.9424730535307</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>115.4579782215564</v>
+        <v>127.0972923572268</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.1506890111842</v>
+        <v>202.9408037562237</v>
       </c>
       <c r="I67">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>375.5583048645174</v>
+        <v>367.342152860254</v>
       </c>
       <c r="O67">
-        <v>115.4579782215564</v>
+        <v>127.0972923572268</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.449453366470752</v>
+        <v>1.339416530929355</v>
       </c>
       <c r="R67">
-        <v>9.457310424275423</v>
+        <v>12.02677878130429</v>
       </c>
       <c r="S67">
-        <v>10.90676379074618</v>
+        <v>13.36619531223365</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>262.0341193869711</v>
+        <v>262.0746741505411</v>
       </c>
       <c r="B68">
-        <v>63.3552091960001</v>
+        <v>60.15583340890264</v>
       </c>
       <c r="C68">
-        <v>423.6497175181115</v>
+        <v>426.5610931232425</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>168.6600641337139</v>
+        <v>149.9741587789792</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>262.0341193869711</v>
+        <v>262.0746741505411</v>
       </c>
       <c r="I68">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>487.0049267141116</v>
+        <v>486.7169265321451</v>
       </c>
       <c r="O68">
-        <v>168.6600641337139</v>
+        <v>149.9741587789792</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.36745798981421</v>
+        <v>1.878951891078482</v>
       </c>
       <c r="R68">
-        <v>20.00083300514034</v>
+        <v>16.86553520307182</v>
       </c>
       <c r="S68">
-        <v>22.36829099495455</v>
+        <v>18.7444870941503</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.062356847358</v>
+        <v>2406.144501139353</v>
       </c>
       <c r="B69">
-        <v>558.2844286889241</v>
+        <v>547.3173868260875</v>
       </c>
       <c r="C69">
-        <v>3878.353365755753</v>
+        <v>3842.900306204033</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1431.246638096024</v>
+        <v>1556.294879678305</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.062356847358</v>
+        <v>2406.144501139353</v>
       </c>
       <c r="I69">
-        <v>7793</v>
+        <v>7521</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4436.637794444678</v>
+        <v>4390.217693030121</v>
       </c>
       <c r="O69">
-        <v>1431.246638096024</v>
+        <v>1556.294879678305</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>16.30260473154191</v>
+        <v>15.26857572111999</v>
       </c>
       <c r="R69">
-        <v>135.2546452112896</v>
+        <v>157.7215839890467</v>
       </c>
       <c r="S69">
-        <v>151.5572499428315</v>
+        <v>172.9901597101667</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1503.09282887284</v>
+        <v>1502.851048238273</v>
       </c>
       <c r="B70">
-        <v>335.4798526012277</v>
+        <v>363.6181479001518</v>
       </c>
       <c r="C70">
-        <v>2397.870392404976</v>
+        <v>2448.4792233989</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>972.9215031587378</v>
+        <v>959.935003598833</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1503.09282887284</v>
+        <v>1502.851048238273</v>
       </c>
       <c r="I70">
-        <v>4888</v>
+        <v>4948</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2733.350245006204</v>
+        <v>2812.097371299052</v>
       </c>
       <c r="O70">
-        <v>972.9215031587378</v>
+        <v>959.935003598833</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>9.337822298735505</v>
+        <v>9.533729332984258</v>
       </c>
       <c r="R70">
-        <v>93.74673871009344</v>
+        <v>85.456898710799</v>
       </c>
       <c r="S70">
-        <v>103.0845610088289</v>
+        <v>94.99062804378326</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.11638226577</v>
+        <v>19901.12016162635</v>
       </c>
       <c r="B71">
-        <v>4538.215760026144</v>
+        <v>4417.833219584952</v>
       </c>
       <c r="C71">
-        <v>31810.38114408279</v>
+        <v>31637.37477712098</v>
       </c>
       <c r="D71">
-        <v>637.9136959745424</v>
+        <v>681.7024595057903</v>
       </c>
       <c r="E71">
-        <v>9516.376375975206</v>
+        <v>11670.57828180709</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.11638226577</v>
+        <v>19901.12016162635</v>
       </c>
       <c r="I71">
-        <v>64960</v>
+        <v>61786</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36348.59690410893</v>
+        <v>36055.20799670593</v>
       </c>
       <c r="O71">
-        <v>10154.29007194975</v>
+        <v>12352.28074131288</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>191.7965151387094</v>
+        <v>131.904316608822</v>
       </c>
       <c r="R71">
-        <v>1223.971986983408</v>
+        <v>1087.872899916689</v>
       </c>
       <c r="S71">
-        <v>1415.768502122118</v>
+        <v>1219.777216525511</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41981.92425595655</v>
+        <v>41982.02047729473</v>
       </c>
       <c r="B72">
-        <v>9824.086034020371</v>
+        <v>9924.717438328864</v>
       </c>
       <c r="C72">
-        <v>69385.33451078054</v>
+        <v>66135.72088176561</v>
       </c>
       <c r="D72">
-        <v>1596.061262482769</v>
+        <v>1458.902128073715</v>
       </c>
       <c r="E72">
-        <v>22800.62851505182</v>
+        <v>22077.86690191138</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41981.92425595655</v>
+        <v>41982.02047729473</v>
       </c>
       <c r="I72">
-        <v>136383</v>
+        <v>130049</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>79209.4205448009</v>
+        <v>76060.43832009447</v>
       </c>
       <c r="O72">
-        <v>24396.68977753459</v>
+        <v>23536.76902998509</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>368.7557368862069</v>
+        <v>284.7243931565575</v>
       </c>
       <c r="R72">
-        <v>3277.884451716458</v>
+        <v>3356.273400499968</v>
       </c>
       <c r="S72">
-        <v>3646.640188602664</v>
+        <v>3640.997793656525</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.93847945743</v>
+        <v>44204.85990863208</v>
       </c>
       <c r="B73">
-        <v>10812.66647732909</v>
+        <v>10516.1303606145</v>
       </c>
       <c r="C73">
-        <v>73440.57179168376</v>
+        <v>72260.08949821246</v>
       </c>
       <c r="D73">
-        <v>1282.98052931845</v>
+        <v>1457.036518476429</v>
       </c>
       <c r="E73">
-        <v>21205.46604426778</v>
+        <v>24371.78455776168</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.93847945743</v>
+        <v>44204.85990863208</v>
       </c>
       <c r="I73">
-        <v>138935</v>
+        <v>142015</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>84253.23826901286</v>
+        <v>82776.21985882695</v>
       </c>
       <c r="O73">
-        <v>22488.44657358623</v>
+        <v>25828.82107623811</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>316.1970403140959</v>
+        <v>364.0985522172258</v>
       </c>
       <c r="R73">
-        <v>3248.968495386732</v>
+        <v>2791.049344106076</v>
       </c>
       <c r="S73">
-        <v>3565.165535700828</v>
+        <v>3155.147896323302</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.88080083967</v>
+        <v>78746.0302344964</v>
       </c>
       <c r="B74">
-        <v>18781.02744804766</v>
+        <v>18139.15304552993</v>
       </c>
       <c r="C74">
-        <v>122998.6896818521</v>
+        <v>127704.1830396959</v>
       </c>
       <c r="D74">
-        <v>2919.087635314482</v>
+        <v>2757.764645224002</v>
       </c>
       <c r="E74">
-        <v>42322.14891910909</v>
+        <v>46349.37498480282</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.88080083967</v>
+        <v>78746.0302344964</v>
       </c>
       <c r="I74">
-        <v>268333</v>
+        <v>261171</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>141779.7171298997</v>
+        <v>145843.3360852258</v>
       </c>
       <c r="O74">
-        <v>45241.23655442357</v>
+        <v>49107.13963002682</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>473.2987932044036</v>
+        <v>398.3189140435516</v>
       </c>
       <c r="R74">
-        <v>3954.275112581233</v>
+        <v>5638.507123390476</v>
       </c>
       <c r="S74">
-        <v>4427.573905785636</v>
+        <v>6036.826037434028</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.06808668923</v>
+        <v>38059.89561272188</v>
       </c>
       <c r="B75">
-        <v>8682.514771559921</v>
+        <v>8433.858084540569</v>
       </c>
       <c r="C75">
-        <v>60795.7185947597</v>
+        <v>61712.03170925045</v>
       </c>
       <c r="D75">
-        <v>1291.796381095063</v>
+        <v>1295.291166658402</v>
       </c>
       <c r="E75">
-        <v>21789.12097635954</v>
+        <v>20840.30474521349</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.06808668923</v>
+        <v>38059.89561272188</v>
       </c>
       <c r="I75">
-        <v>124226</v>
+        <v>123691</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>69478.23336631962</v>
+        <v>70145.88979379102</v>
       </c>
       <c r="O75">
-        <v>23080.9173574546</v>
+        <v>22135.59591187189</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>254.790284095983</v>
+        <v>226.5294710702533</v>
       </c>
       <c r="R75">
-        <v>2344.004834273983</v>
+        <v>2423.942035236295</v>
       </c>
       <c r="S75">
-        <v>2598.795118369966</v>
+        <v>2650.471506306548</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.93243537935</v>
+        <v>79350.92153158711</v>
       </c>
       <c r="B76">
-        <v>19291.32297348627</v>
+        <v>18374.49456974847</v>
       </c>
       <c r="C76">
-        <v>134032.6032608285</v>
+        <v>127387.5837972406</v>
       </c>
       <c r="D76">
-        <v>3631.148471366466</v>
+        <v>2702.9742384614</v>
       </c>
       <c r="E76">
-        <v>54843.87186330286</v>
+        <v>50904.91369430961</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.93243537935</v>
+        <v>79350.92153158711</v>
       </c>
       <c r="I76">
-        <v>255128</v>
+        <v>263984</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>153323.9262343148</v>
+        <v>145762.0783669891</v>
       </c>
       <c r="O76">
-        <v>58475.02033466932</v>
+        <v>53607.88793277101</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>549.5419970102005</v>
+        <v>476.4814131013249</v>
       </c>
       <c r="R76">
-        <v>5369.868175936683</v>
+        <v>4833.276100329153</v>
       </c>
       <c r="S76">
-        <v>5919.410172946883</v>
+        <v>5309.757513430477</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45068.12201121243</v>
+        <v>45067.99523878397</v>
       </c>
       <c r="B77">
-        <v>10116.12695403918</v>
+        <v>10070.2216240269</v>
       </c>
       <c r="C77">
-        <v>71021.57358491719</v>
+        <v>71192.67953319015</v>
       </c>
       <c r="D77">
-        <v>1466.727931761061</v>
+        <v>1591.548362093447</v>
       </c>
       <c r="E77">
-        <v>24629.85194824187</v>
+        <v>27979.48215649541</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45068.12201121243</v>
+        <v>45067.99523878397</v>
       </c>
       <c r="I77">
-        <v>144033</v>
+        <v>146866</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>81137.70053895637</v>
+        <v>81262.90115721706</v>
       </c>
       <c r="O77">
-        <v>26096.57988000294</v>
+        <v>29571.03051858886</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>265.3466895233325</v>
+        <v>292.4220949454798</v>
       </c>
       <c r="R77">
-        <v>3015.553500570158</v>
+        <v>2740.777470181464</v>
       </c>
       <c r="S77">
-        <v>3280.90019009349</v>
+        <v>3033.199565126944</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.08293816677</v>
+        <v>14294.85633292886</v>
       </c>
       <c r="B78">
-        <v>3451.92949232572</v>
+        <v>3465.901304833329</v>
       </c>
       <c r="C78">
-        <v>23383.12358799926</v>
+        <v>22654.02683302747</v>
       </c>
       <c r="D78">
-        <v>562.3293192599041</v>
+        <v>510.3975407324147</v>
       </c>
       <c r="E78">
-        <v>8926.021295847719</v>
+        <v>8370.755571920252</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.08293816677</v>
+        <v>14294.85633292886</v>
       </c>
       <c r="I78">
-        <v>43908</v>
+        <v>44421</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26835.05308032498</v>
+        <v>26119.9281378608</v>
       </c>
       <c r="O78">
-        <v>9488.350615107624</v>
+        <v>8881.153112652666</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>109.0084182407294</v>
+        <v>75.81577893455425</v>
       </c>
       <c r="R78">
-        <v>907.5865101578218</v>
+        <v>841.4836065503877</v>
       </c>
       <c r="S78">
-        <v>1016.594928398551</v>
+        <v>917.2993854849419</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.10601523015</v>
+        <v>27737.91466623623</v>
       </c>
       <c r="B79">
-        <v>6526.594735918173</v>
+        <v>6452.854741756012</v>
       </c>
       <c r="C79">
-        <v>44407.06162483156</v>
+        <v>44556.98797392433</v>
       </c>
       <c r="D79">
-        <v>857.4279409022583</v>
+        <v>788.0551692659917</v>
       </c>
       <c r="E79">
-        <v>15525.5525714274</v>
+        <v>14488.00442027578</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.10601523015</v>
+        <v>27737.91466623623</v>
       </c>
       <c r="I79">
-        <v>86423</v>
+        <v>90133</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>50933.65636074973</v>
+        <v>51009.84271568034</v>
       </c>
       <c r="O79">
-        <v>16382.98051232966</v>
+        <v>15276.05958954177</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>139.0904108269514</v>
+        <v>286.5604863079961</v>
       </c>
       <c r="R79">
-        <v>1556.258714272822</v>
+        <v>2136.990612448893</v>
       </c>
       <c r="S79">
-        <v>1695.349125099774</v>
+        <v>2423.551098756889</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.017602710024</v>
+        <v>2819.860391670669</v>
       </c>
       <c r="B80">
-        <v>619.5897616813097</v>
+        <v>654.8821902463253</v>
       </c>
       <c r="C80">
-        <v>4342.104847108634</v>
+        <v>4535.743349967512</v>
       </c>
       <c r="D80">
-        <v>85.98781046904666</v>
+        <v>84.95888166310033</v>
       </c>
       <c r="E80">
-        <v>1392.241642901951</v>
+        <v>1415.59909714269</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.017602710024</v>
+        <v>2819.860391670669</v>
       </c>
       <c r="I80">
-        <v>9049</v>
+        <v>9069</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>4961.694608789944</v>
+        <v>5190.625540213837</v>
       </c>
       <c r="O80">
-        <v>1478.229453370998</v>
+        <v>1500.55797880579</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>18.29032625685916</v>
+        <v>19.52731958675439</v>
       </c>
       <c r="R80">
-        <v>144.4763246569022</v>
+        <v>181.0699903377547</v>
       </c>
       <c r="S80">
-        <v>162.7666509137613</v>
+        <v>200.5973099245091</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.933308049573</v>
+        <v>3591.012130209372</v>
       </c>
       <c r="B81">
-        <v>804.5054566761326</v>
+        <v>837.1847161033868</v>
       </c>
       <c r="C81">
-        <v>5704.410533091475</v>
+        <v>5723.995061004915</v>
       </c>
       <c r="D81">
-        <v>160.8000139979856</v>
+        <v>121.8484104782219</v>
       </c>
       <c r="E81">
-        <v>2355.270849356086</v>
+        <v>2250.56679499256</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.933308049573</v>
+        <v>3591.012130209372</v>
       </c>
       <c r="I81">
-        <v>11950</v>
+        <v>11765</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6508.915989767608</v>
+        <v>6561.179777108302</v>
       </c>
       <c r="O81">
-        <v>2516.070863354071</v>
+        <v>2372.415205470782</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>16.15664491009777</v>
+        <v>21.16909617716892</v>
       </c>
       <c r="R81">
-        <v>215.3453926768196</v>
+        <v>229.7064061911553</v>
       </c>
       <c r="S81">
-        <v>231.5020375869174</v>
+        <v>250.8755023683242</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1156.111952069235</v>
+        <v>1155.864410266564</v>
       </c>
       <c r="B82">
-        <v>269.5220130291776</v>
+        <v>274.9639934072239</v>
       </c>
       <c r="C82">
-        <v>1876.566552197965</v>
+        <v>1894.480076157862</v>
       </c>
       <c r="D82">
-        <v>42.76212734415605</v>
+        <v>42.71389199577681</v>
       </c>
       <c r="E82">
-        <v>724.4005167970729</v>
+        <v>724.254009699769</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1156.111952069235</v>
+        <v>1155.864410266564</v>
       </c>
       <c r="I82">
-        <v>3804</v>
+        <v>3733</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2146.088565227142</v>
+        <v>2169.444069565086</v>
       </c>
       <c r="O82">
-        <v>767.162644141229</v>
+        <v>766.9679016955458</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>9.968890282888776</v>
+        <v>6.447344560560951</v>
       </c>
       <c r="R82">
-        <v>68.51976856674128</v>
+        <v>75.58082651075804</v>
       </c>
       <c r="S82">
-        <v>78.48865884963006</v>
+        <v>82.02817107131899</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13238.0137026052</v>
+        <v>13238.06526382905</v>
       </c>
       <c r="B83">
-        <v>1995.843304218595</v>
+        <v>1945.191924507769</v>
       </c>
       <c r="C83">
-        <v>22573.64256892704</v>
+        <v>22340.04078155205</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>8396.68672040063</v>
+        <v>7664.984052012667</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13238.0137026052</v>
+        <v>13238.06526382905</v>
       </c>
       <c r="I83">
-        <v>41141</v>
+        <v>42219</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24569.48587314564</v>
+        <v>24285.23270605982</v>
       </c>
       <c r="O83">
-        <v>8396.68672040063</v>
+        <v>7664.984052012667</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>9.257753516217282</v>
+        <v>13.87876553947421</v>
       </c>
       <c r="R83">
-        <v>745.3605636900751</v>
+        <v>948.3422344757076</v>
       </c>
       <c r="S83">
-        <v>754.6183172062923</v>
+        <v>962.2210000151819</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.066140544423</v>
+        <v>6787.982815684774</v>
       </c>
       <c r="B84">
-        <v>1006.388923828803</v>
+        <v>1024.177780656712</v>
       </c>
       <c r="C84">
-        <v>11410.46821037807</v>
+        <v>11358.81393347369</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4448.858454193685</v>
+        <v>4315.249530904112</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.066140544423</v>
+        <v>6787.982815684774</v>
       </c>
       <c r="I84">
-        <v>22986</v>
+        <v>22515</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12416.85713420687</v>
+        <v>12382.99171413041</v>
       </c>
       <c r="O84">
-        <v>4448.858454193685</v>
+        <v>4315.249530904112</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>5.133253080888127</v>
+        <v>4.589277661903718</v>
       </c>
       <c r="R84">
-        <v>447.3203687366511</v>
+        <v>499.7571494811507</v>
       </c>
       <c r="S84">
-        <v>452.4536218175392</v>
+        <v>504.3464271430544</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.081342737531</v>
+        <v>1507.909614603712</v>
       </c>
       <c r="B85">
-        <v>232.8872084695882</v>
+        <v>229.0802761360751</v>
       </c>
       <c r="C85">
-        <v>2614.274743220181</v>
+        <v>2650.962002124262</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>919.1371727324269</v>
+        <v>984.0627933031198</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.081342737531</v>
+        <v>1507.909614603712</v>
       </c>
       <c r="I85">
-        <v>5035</v>
+        <v>4825</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2847.161951689769</v>
+        <v>2880.042278260337</v>
       </c>
       <c r="O85">
-        <v>919.1371727324269</v>
+        <v>984.0627933031198</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.2633754045035573</v>
+        <v>0.9026566274247455</v>
       </c>
       <c r="R85">
-        <v>100.4275757104489</v>
+        <v>109.0424627350611</v>
       </c>
       <c r="S85">
-        <v>100.6909511149525</v>
+        <v>109.9451193624858</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25213.06715802831</v>
+        <v>25212.89301531866</v>
       </c>
       <c r="B86">
-        <v>3421.57140999697</v>
+        <v>3817.862174648933</v>
       </c>
       <c r="C86">
-        <v>41649.94780715973</v>
+        <v>41077.2804843405</v>
       </c>
       <c r="D86">
-        <v>575.6804458918729</v>
+        <v>534.0890406912197</v>
       </c>
       <c r="E86">
-        <v>14128.01911278738</v>
+        <v>14185.77939012519</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25213.06715802831</v>
+        <v>25212.89301531866</v>
       </c>
       <c r="I86">
-        <v>79760</v>
+        <v>77951</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>45071.5192171567</v>
+        <v>44895.14265898943</v>
       </c>
       <c r="O86">
-        <v>14703.69955867925</v>
+        <v>14719.86843081641</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>20.30510443520983</v>
+        <v>38.76539057933004</v>
       </c>
       <c r="R86">
-        <v>1928.248074181098</v>
+        <v>2074.76658017956</v>
       </c>
       <c r="S86">
-        <v>1948.553178616307</v>
+        <v>2113.53197075889</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6443.968123837729</v>
+        <v>6444.015580259496</v>
       </c>
       <c r="B87">
-        <v>940.5427682319419</v>
+        <v>884.9382437499476</v>
       </c>
       <c r="C87">
-        <v>11055.91816993111</v>
+        <v>10582.39283460628</v>
       </c>
       <c r="D87">
-        <v>182.9893719093239</v>
+        <v>153.7230983291203</v>
       </c>
       <c r="E87">
-        <v>4065.416920828105</v>
+        <v>3884.060120098149</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6443.968123837729</v>
+        <v>6444.015580259496</v>
       </c>
       <c r="I87">
-        <v>20807</v>
+        <v>20047</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11996.46093816305</v>
+        <v>11467.33107835623</v>
       </c>
       <c r="O87">
-        <v>4248.406292737429</v>
+        <v>4037.783218427269</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>3.61403731667075</v>
+        <v>9.312319256593126</v>
       </c>
       <c r="R87">
-        <v>499.9850091165796</v>
+        <v>502.3575646981277</v>
       </c>
       <c r="S87">
-        <v>503.5990464332504</v>
+        <v>511.6698839547208</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.13804813023</v>
+        <v>55703.89174657441</v>
       </c>
       <c r="B88">
-        <v>7859.29557596043</v>
+        <v>7389.389398446299</v>
       </c>
       <c r="C88">
-        <v>94935.06322329727</v>
+        <v>92949.78675173117</v>
       </c>
       <c r="D88">
-        <v>1292.342805215119</v>
+        <v>1647.067389024146</v>
       </c>
       <c r="E88">
-        <v>32876.73671953139</v>
+        <v>33523.80152455992</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.13804813023</v>
+        <v>55703.89174657441</v>
       </c>
       <c r="I88">
-        <v>172228</v>
+        <v>174343</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>102794.3587992577</v>
+        <v>100339.1761501775</v>
       </c>
       <c r="O88">
-        <v>34169.07952474651</v>
+        <v>35170.86891358406</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>22.05795622317502</v>
+        <v>32.07853593820449</v>
       </c>
       <c r="R88">
-        <v>3808.740231143525</v>
+        <v>4485.474715459005</v>
       </c>
       <c r="S88">
-        <v>3830.7981873667</v>
+        <v>4517.553251397209</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.0711879981</v>
+        <v>201456.0524198425</v>
       </c>
       <c r="B89">
-        <v>29741.12026600205</v>
+        <v>27664.21133149199</v>
       </c>
       <c r="C89">
-        <v>352272.2485097779</v>
+        <v>348040.1523257645</v>
       </c>
       <c r="D89">
-        <v>5837.723821729639</v>
+        <v>4943.056452263987</v>
       </c>
       <c r="E89">
-        <v>130644.1138763882</v>
+        <v>123687.4918750384</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.0711879981</v>
+        <v>201456.0524198425</v>
       </c>
       <c r="I89">
-        <v>641730</v>
+        <v>629904</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>382013.36877578</v>
+        <v>375704.3636572565</v>
       </c>
       <c r="O89">
-        <v>136481.8376981178</v>
+        <v>128630.5483273024</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>170.3911590520709</v>
+        <v>36.23047782196694</v>
       </c>
       <c r="R89">
-        <v>14916.23764704703</v>
+        <v>12661.6934097675</v>
       </c>
       <c r="S89">
-        <v>15086.6288060991</v>
+        <v>12697.92388758946</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.89719771429</v>
+        <v>15486.09426464335</v>
       </c>
       <c r="B90">
-        <v>2286.101628043405</v>
+        <v>2093.384704348453</v>
       </c>
       <c r="C90">
-        <v>25887.10609853754</v>
+        <v>25787.81558742498</v>
       </c>
       <c r="D90">
-        <v>450.9991467218509</v>
+        <v>350.8974235363396</v>
       </c>
       <c r="E90">
-        <v>9161.126864657763</v>
+        <v>8851.162077584935</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.89719771429</v>
+        <v>15486.09426464335</v>
       </c>
       <c r="I90">
-        <v>50017</v>
+        <v>49234</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28173.20772658095</v>
+        <v>27881.20029177343</v>
       </c>
       <c r="O90">
-        <v>9612.126011379614</v>
+        <v>9202.059501121275</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>9.572075382240296</v>
+        <v>1.495094061117555</v>
       </c>
       <c r="R90">
-        <v>1211.642664981392</v>
+        <v>1385.843849634732</v>
       </c>
       <c r="S90">
-        <v>1221.214740363632</v>
+        <v>1387.338943695849</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.85438461366</v>
+        <v>14403.90079687417</v>
       </c>
       <c r="B91">
-        <v>2037.332254696178</v>
+        <v>2092.311203448454</v>
       </c>
       <c r="C91">
-        <v>23754.47077930291</v>
+        <v>24288.96552710931</v>
       </c>
       <c r="D91">
-        <v>350.791642633811</v>
+        <v>362.6477366491083</v>
       </c>
       <c r="E91">
-        <v>8566.151146884791</v>
+        <v>8952.325167669394</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.85438461366</v>
+        <v>14403.90079687417</v>
       </c>
       <c r="I91">
-        <v>44255</v>
+        <v>45397</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>25791.80303399909</v>
+        <v>26381.27673055776</v>
       </c>
       <c r="O91">
-        <v>8916.942789518602</v>
+        <v>9314.972904318503</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>12.75858296559381</v>
+        <v>10.41169221319887</v>
       </c>
       <c r="R91">
-        <v>1045.88060799077</v>
+        <v>1049.421373421299</v>
       </c>
       <c r="S91">
-        <v>1058.639190956364</v>
+        <v>1059.833065634497</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46955.95559395098</v>
+        <v>46956.02707474503</v>
       </c>
       <c r="B92">
-        <v>6897.152129434991</v>
+        <v>6238.234160530324</v>
       </c>
       <c r="C92">
-        <v>78557.62090796552</v>
+        <v>78183.51241807727</v>
       </c>
       <c r="D92">
-        <v>1117.944143931414</v>
+        <v>1066.37449735226</v>
       </c>
       <c r="E92">
-        <v>29694.66810397228</v>
+        <v>27552.03825570808</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46955.95559395098</v>
+        <v>46956.02707474503</v>
       </c>
       <c r="I92">
-        <v>145923</v>
+        <v>150224</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>85454.77303740052</v>
+        <v>84421.74657860759</v>
       </c>
       <c r="O92">
-        <v>30812.61224790369</v>
+        <v>28618.41275306034</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>59.12638245255515</v>
+        <v>76.21527092895997</v>
       </c>
       <c r="R92">
-        <v>3407.709185433776</v>
+        <v>2863.998976139473</v>
       </c>
       <c r="S92">
-        <v>3466.835567886331</v>
+        <v>2940.214247068433</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.8865345743</v>
+        <v>24420.0713476869</v>
       </c>
       <c r="B93">
-        <v>3397.274692198144</v>
+        <v>3532.185978178767</v>
       </c>
       <c r="C93">
-        <v>40754.23910335864</v>
+        <v>41452.48560795894</v>
       </c>
       <c r="D93">
-        <v>753.8249102232024</v>
+        <v>563.4895819428335</v>
       </c>
       <c r="E93">
-        <v>15605.17147757388</v>
+        <v>13856.23284197563</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.8865345743</v>
+        <v>24420.0713476869</v>
       </c>
       <c r="I93">
-        <v>78240</v>
+        <v>75591</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44151.51379555678</v>
+        <v>44984.6715861377</v>
       </c>
       <c r="O93">
-        <v>16358.99638779708</v>
+        <v>14419.72242391846</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>43.8296130140225</v>
+        <v>13.56262967286996</v>
       </c>
       <c r="R93">
-        <v>1849.322825239671</v>
+        <v>1786.27219386243</v>
       </c>
       <c r="S93">
-        <v>1893.152438253693</v>
+        <v>1799.8348235353</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.85708022116</v>
+        <v>70371.93616633186</v>
       </c>
       <c r="B94">
-        <v>10983.36391872084</v>
+        <v>10427.48676197262</v>
       </c>
       <c r="C94">
-        <v>122009.182752573</v>
+        <v>114666.140542489</v>
       </c>
       <c r="D94">
-        <v>1722.035272011813</v>
+        <v>1466.29510715197</v>
       </c>
       <c r="E94">
-        <v>45159.64612132758</v>
+        <v>37629.86976787624</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.85708022116</v>
+        <v>70371.93616633186</v>
       </c>
       <c r="I94">
-        <v>231963</v>
+        <v>226971</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>132992.5466712938</v>
+        <v>125093.6273044616</v>
       </c>
       <c r="O94">
-        <v>46881.68139333939</v>
+        <v>39096.16487502821</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>27.26455670041325</v>
+        <v>37.9971014844086</v>
       </c>
       <c r="R94">
-        <v>4930.938547116156</v>
+        <v>4609.078573933153</v>
       </c>
       <c r="S94">
-        <v>4958.203103816569</v>
+        <v>4647.075675417562</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.911566882072</v>
+        <v>7573.905126585383</v>
       </c>
       <c r="B95">
-        <v>1080.13208880962</v>
+        <v>1107.157929221085</v>
       </c>
       <c r="C95">
-        <v>12538.65535877137</v>
+        <v>12813.28784661976</v>
       </c>
       <c r="D95">
-        <v>171.9279686849069</v>
+        <v>179.9101491159677</v>
       </c>
       <c r="E95">
-        <v>4727.654758966632</v>
+        <v>4125.65578110664</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.911566882072</v>
+        <v>7573.905126585383</v>
       </c>
       <c r="I95">
-        <v>23925</v>
+        <v>23840</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13618.78744758099</v>
+        <v>13920.44577584084</v>
       </c>
       <c r="O95">
-        <v>4899.582727651538</v>
+        <v>4305.565930222608</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>9.170602121525816</v>
+        <v>3.099915593779087</v>
       </c>
       <c r="R95">
-        <v>528.9363280547875</v>
+        <v>586.0202448281041</v>
       </c>
       <c r="S95">
-        <v>538.1069301763133</v>
+        <v>589.1201604218832</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.15460211984</v>
+        <v>45038.03110461528</v>
       </c>
       <c r="B96">
-        <v>6772.511509113178</v>
+        <v>6293.474834587784</v>
       </c>
       <c r="C96">
-        <v>73736.66004511149</v>
+        <v>72013.25712913035</v>
       </c>
       <c r="D96">
-        <v>1147.430063462326</v>
+        <v>1235.503106260796</v>
       </c>
       <c r="E96">
-        <v>27447.78337211026</v>
+        <v>27519.06873343405</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.15460211984</v>
+        <v>45038.03110461528</v>
       </c>
       <c r="I96">
-        <v>141141</v>
+        <v>148593</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>80509.17155422467</v>
+        <v>78306.73196371814</v>
       </c>
       <c r="O96">
-        <v>28595.21343557258</v>
+        <v>28754.57183969484</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>45.15259690336129</v>
+        <v>52.18987560430212</v>
       </c>
       <c r="R96">
-        <v>3143.732895623144</v>
+        <v>3129.781578904569</v>
       </c>
       <c r="S96">
-        <v>3188.885492526506</v>
+        <v>3181.971454508871</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.91792353588</v>
+        <v>10072.98900558331</v>
       </c>
       <c r="B97">
-        <v>1522.932002685275</v>
+        <v>1452.603735828209</v>
       </c>
       <c r="C97">
-        <v>17238.94840628792</v>
+        <v>16898.00942790672</v>
       </c>
       <c r="D97">
-        <v>192.5372535239359</v>
+        <v>296.5410175461548</v>
       </c>
       <c r="E97">
-        <v>5890.421736553392</v>
+        <v>6119.198815757224</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.91792353588</v>
+        <v>10072.98900558331</v>
       </c>
       <c r="I97">
-        <v>31925</v>
+        <v>33418</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18761.8804089732</v>
+        <v>18350.61316373493</v>
       </c>
       <c r="O97">
-        <v>6082.958990077328</v>
+        <v>6415.739833303379</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>5.873701465222423</v>
+        <v>3.279543567602479</v>
       </c>
       <c r="R97">
-        <v>762.0769324319847</v>
+        <v>768.9598116130603</v>
       </c>
       <c r="S97">
-        <v>767.9506338972071</v>
+        <v>772.2393551806628</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.8975744986</v>
+        <v>11375.9583915952</v>
       </c>
       <c r="B98">
-        <v>2263.590042043663</v>
+        <v>2174.668385009834</v>
       </c>
       <c r="C98">
-        <v>18170.52629599553</v>
+        <v>18648.00663283983</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6871.345530832021</v>
+        <v>6503.852096246855</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.8975744986</v>
+        <v>11375.9583915952</v>
       </c>
       <c r="I98">
-        <v>30559</v>
+        <v>29915</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20434.11633803919</v>
+        <v>20822.67501784967</v>
       </c>
       <c r="O98">
-        <v>6871.345530832021</v>
+        <v>6503.852096246855</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>122.5628493802775</v>
+        <v>100.8029784590223</v>
       </c>
       <c r="R98">
-        <v>874.808342326605</v>
+        <v>701.3877743673576</v>
       </c>
       <c r="S98">
-        <v>997.3711917068825</v>
+        <v>802.1907528263798</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1705.129840651339</v>
+        <v>1434.004361319207</v>
       </c>
       <c r="V98">
-        <v>1705.129840651339</v>
+        <v>1434.004361319207</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.90932877976</v>
+        <v>93358.87577607778</v>
       </c>
       <c r="B99">
-        <v>18544.024600488</v>
+        <v>17614.34064886531</v>
       </c>
       <c r="C99">
-        <v>155077.3792223501</v>
+        <v>155666.0590576692</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>65219.18265679264</v>
+        <v>63695.43497761458</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.90932877976</v>
+        <v>93358.87577607778</v>
       </c>
       <c r="I99">
-        <v>253757</v>
+        <v>262478</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>173621.403822838</v>
+        <v>173280.3997065345</v>
       </c>
       <c r="O99">
-        <v>65219.18265679264</v>
+        <v>63695.43497761458</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>764.718114715288</v>
+        <v>667.1815985341555</v>
       </c>
       <c r="R99">
-        <v>6700.720204244067</v>
+        <v>5524.923617556737</v>
       </c>
       <c r="S99">
-        <v>7465.438318959355</v>
+        <v>6192.105216090892</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>12883.47494672599</v>
+        <v>13498.62941725768</v>
       </c>
       <c r="V99">
-        <v>12883.47494672599</v>
+        <v>13498.62941725768</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20816.85042543978</v>
+        <v>20817.17741107498</v>
       </c>
       <c r="B100">
-        <v>3926.472661240872</v>
+        <v>3834.950179273325</v>
       </c>
       <c r="C100">
-        <v>33429.74245887062</v>
+        <v>33576.03727217121</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>13661.07900355455</v>
+        <v>12319.81674038284</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20816.85042543978</v>
+        <v>20817.17741107498</v>
       </c>
       <c r="I100">
-        <v>56444</v>
+        <v>56988</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>37356.21512011149</v>
+        <v>37410.98745144454</v>
       </c>
       <c r="O100">
-        <v>13661.07900355455</v>
+        <v>12319.81674038284</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>245.8493648505732</v>
+        <v>197.875806778337</v>
       </c>
       <c r="R100">
-        <v>1680.261559532832</v>
+        <v>1563.93107368595</v>
       </c>
       <c r="S100">
-        <v>1926.110924383406</v>
+        <v>1761.806880464287</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2976.85728857658</v>
+        <v>3077.192206083414</v>
       </c>
       <c r="V100">
-        <v>2976.85728857658</v>
+        <v>3077.192206083414</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.84596625808</v>
+        <v>43952.85611038129</v>
       </c>
       <c r="B101">
-        <v>9065.628875670207</v>
+        <v>8348.63858155307</v>
       </c>
       <c r="C101">
-        <v>74497.97963851922</v>
+        <v>69168.16015966918</v>
       </c>
       <c r="D101">
-        <v>2254.266590725519</v>
+        <v>2111.656596540377</v>
       </c>
       <c r="E101">
-        <v>24327.38208220508</v>
+        <v>23767.19891632498</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.84596625808</v>
+        <v>43952.85611038129</v>
       </c>
       <c r="I101">
-        <v>122443</v>
+        <v>113021</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>83563.60851418943</v>
+        <v>77516.79874122224</v>
       </c>
       <c r="O101">
-        <v>26581.6486729306</v>
+        <v>25878.85551286536</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>369.6859865918163</v>
+        <v>346.5293258506029</v>
       </c>
       <c r="R101">
-        <v>2952.495495992327</v>
+        <v>2997.584936479901</v>
       </c>
       <c r="S101">
-        <v>3322.181482584143</v>
+        <v>3344.114262330505</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5899.098964345421</v>
+        <v>6251.615196027829</v>
       </c>
       <c r="V101">
-        <v>5899.098964345421</v>
+        <v>6251.615196027829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.0609162412</v>
+        <v>103394.0696396681</v>
       </c>
       <c r="B102">
-        <v>18154.09738370968</v>
+        <v>20342.5172407844</v>
       </c>
       <c r="C102">
-        <v>166054.891860488</v>
+        <v>170333.5265832854</v>
       </c>
       <c r="D102">
-        <v>5285.471769663584</v>
+        <v>5076.863858776473</v>
       </c>
       <c r="E102">
-        <v>59482.17553734826</v>
+        <v>55978.77027029774</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.0609162412</v>
+        <v>103394.0696396681</v>
       </c>
       <c r="I102">
-        <v>279192</v>
+        <v>278722</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>184208.9892441976</v>
+        <v>190676.0438240698</v>
       </c>
       <c r="O102">
-        <v>64767.64730701185</v>
+        <v>61055.63412907421</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>735.9663742893628</v>
+        <v>856.4361053098642</v>
       </c>
       <c r="R102">
-        <v>5598.033653919285</v>
+        <v>7850.617325860362</v>
       </c>
       <c r="S102">
-        <v>6334.000028208648</v>
+        <v>8707.053431170227</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>14514.52796679979</v>
+        <v>15220.0827786917</v>
       </c>
       <c r="V102">
-        <v>14514.52796679979</v>
+        <v>15220.0827786917</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.09019355137</v>
+        <v>35337.07761581958</v>
       </c>
       <c r="B103">
-        <v>6583.34730683192</v>
+        <v>6626.779283625797</v>
       </c>
       <c r="C103">
-        <v>57283.32855480687</v>
+        <v>56970.28178626362</v>
       </c>
       <c r="D103">
-        <v>1695.539306490629</v>
+        <v>1816.246066782418</v>
       </c>
       <c r="E103">
-        <v>20093.8889745501</v>
+        <v>21507.4492066997</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.09019355137</v>
+        <v>35337.07761581958</v>
       </c>
       <c r="I103">
-        <v>97321</v>
+        <v>98613</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>63866.6758616388</v>
+        <v>63597.06106988942</v>
       </c>
       <c r="O103">
-        <v>21789.42828104073</v>
+        <v>23323.69527348212</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>297.3458535934722</v>
+        <v>313.1510082362422</v>
       </c>
       <c r="R103">
-        <v>2042.734668603908</v>
+        <v>2280.739914088162</v>
       </c>
       <c r="S103">
-        <v>2340.080522197381</v>
+        <v>2593.890922324405</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>5106.625956980749</v>
+        <v>4918.252538391857</v>
       </c>
       <c r="V103">
-        <v>5106.625956980749</v>
+        <v>4918.252538391857</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9959057523</v>
+        <v>122131.0354144934</v>
       </c>
       <c r="B104">
-        <v>24065.78442763569</v>
+        <v>24234.04211498713</v>
       </c>
       <c r="C104">
-        <v>199565.1794460451</v>
+        <v>204198.8334810487</v>
       </c>
       <c r="D104">
-        <v>5695.093852018942</v>
+        <v>6224.010322028923</v>
       </c>
       <c r="E104">
-        <v>58926.60636727267</v>
+        <v>70126.96040268282</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9959057523</v>
+        <v>122131.0354144934</v>
       </c>
       <c r="I104">
-        <v>318937</v>
+        <v>328890</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>223630.9638736807</v>
+        <v>228432.8755960359</v>
       </c>
       <c r="O104">
-        <v>64621.70021929162</v>
+        <v>76350.97072471173</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>840.384119421728</v>
+        <v>880.3461468633192</v>
       </c>
       <c r="R104">
-        <v>6983.258265505537</v>
+        <v>5985.22511844038</v>
       </c>
       <c r="S104">
-        <v>7823.642384927265</v>
+        <v>6865.5712653037</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>16207.87218227083</v>
+        <v>15769.69886431338</v>
       </c>
       <c r="V104">
-        <v>16207.87218227083</v>
+        <v>15769.69886431338</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81323.98730439102</v>
+        <v>81323.82427920823</v>
       </c>
       <c r="B105">
-        <v>14887.1090205838</v>
+        <v>16157.46458075863</v>
       </c>
       <c r="C105">
-        <v>131694.8508734047</v>
+        <v>132298.0872888294</v>
       </c>
       <c r="D105">
-        <v>4016.040504020276</v>
+        <v>3950.986244122848</v>
       </c>
       <c r="E105">
-        <v>44728.51111662423</v>
+        <v>43778.72947806934</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81323.98730439102</v>
+        <v>81323.82427920823</v>
       </c>
       <c r="I105">
-        <v>217974</v>
+        <v>218600</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>146581.9598939885</v>
+        <v>148455.5518695881</v>
       </c>
       <c r="O105">
-        <v>48744.5516206445</v>
+        <v>47729.71572219219</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>734.2963307723969</v>
+        <v>828.0610906063276</v>
       </c>
       <c r="R105">
-        <v>5364.697178491335</v>
+        <v>4588.667731939424</v>
       </c>
       <c r="S105">
-        <v>6098.993509263732</v>
+        <v>5416.728822545751</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>11956.8288187523</v>
+        <v>9257.627785395849</v>
       </c>
       <c r="V105">
-        <v>11956.8288187523</v>
+        <v>9257.627785395849</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.03743612774</v>
+        <v>77850.01048116933</v>
       </c>
       <c r="B106">
-        <v>15365.6974767866</v>
+        <v>14934.97179011213</v>
       </c>
       <c r="C106">
-        <v>126098.0710758585</v>
+        <v>127804.8342687601</v>
       </c>
       <c r="D106">
-        <v>3793.531023467323</v>
+        <v>3760.846074870701</v>
       </c>
       <c r="E106">
-        <v>41465.47931314533</v>
+        <v>49402.79113178172</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.03743612774</v>
+        <v>77850.01048116933</v>
       </c>
       <c r="I106">
-        <v>213226</v>
+        <v>210120</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>141463.7685526451</v>
+        <v>142739.8060588722</v>
       </c>
       <c r="O106">
-        <v>45259.01033661266</v>
+        <v>53163.63720665242</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>705.016562662504</v>
+        <v>617.4060870910878</v>
       </c>
       <c r="R106">
-        <v>4911.777517669771</v>
+        <v>4779.923926063863</v>
       </c>
       <c r="S106">
-        <v>5616.794080332275</v>
+        <v>5397.330013154951</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10105.43141516186</v>
+        <v>11474.52796908398</v>
       </c>
       <c r="V106">
-        <v>10105.43141516186</v>
+        <v>11474.52796908398</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.02234240412</v>
+        <v>86203.06845581987</v>
       </c>
       <c r="B107">
-        <v>17224.95935953803</v>
+        <v>15816.31969054458</v>
       </c>
       <c r="C107">
-        <v>143270.3380326627</v>
+        <v>145290.3976878303</v>
       </c>
       <c r="D107">
-        <v>4387.489231126421</v>
+        <v>3845.414630410628</v>
       </c>
       <c r="E107">
-        <v>45647.42967653198</v>
+        <v>44835.60347133409</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.02234240412</v>
+        <v>86203.06845581987</v>
       </c>
       <c r="I107">
-        <v>234570</v>
+        <v>241211</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>160495.2973922008</v>
+        <v>161106.7173783749</v>
       </c>
       <c r="O107">
-        <v>50034.9189076584</v>
+        <v>48681.01810174471</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>789.6336074431125</v>
+        <v>678.9508814166001</v>
       </c>
       <c r="R107">
-        <v>5881.614802493997</v>
+        <v>5155.197660884732</v>
       </c>
       <c r="S107">
-        <v>6671.24840993711</v>
+        <v>5834.148542301332</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>11547.35357577042</v>
+        <v>11171.78827015464</v>
       </c>
       <c r="V107">
-        <v>11547.35357577042</v>
+        <v>11171.78827015464</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.1170522897</v>
+        <v>60304.83062524068</v>
       </c>
       <c r="B108">
-        <v>11241.05696568456</v>
+        <v>11770.16659925641</v>
       </c>
       <c r="C108">
-        <v>96088.01722032591</v>
+        <v>97286.32444193527</v>
       </c>
       <c r="D108">
-        <v>2731.862680100624</v>
+        <v>2940.991227911351</v>
       </c>
       <c r="E108">
-        <v>33047.04779279931</v>
+        <v>31536.14206192896</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.1170522897</v>
+        <v>60304.83062524068</v>
       </c>
       <c r="I108">
-        <v>161468</v>
+        <v>163267</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>107329.0741860105</v>
+        <v>109056.4910411917</v>
       </c>
       <c r="O108">
-        <v>35778.91047289994</v>
+        <v>34477.13328984031</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>586.9263064032215</v>
+        <v>706.0372679547473</v>
       </c>
       <c r="R108">
-        <v>4318.412856516748</v>
+        <v>4204.468134984366</v>
       </c>
       <c r="S108">
-        <v>4905.33916291997</v>
+        <v>4910.505402939113</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>9031.31202884421</v>
+        <v>9443.985097137249</v>
       </c>
       <c r="V108">
-        <v>9031.31202884421</v>
+        <v>9443.985097137249</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.10386356777</v>
+        <v>25283.15670820347</v>
       </c>
       <c r="B109">
-        <v>5044.808325763292</v>
+        <v>4868.62915131015</v>
       </c>
       <c r="C109">
-        <v>39822.41445784675</v>
+        <v>40751.41622581975</v>
       </c>
       <c r="D109">
-        <v>1376.481514784866</v>
+        <v>1267.625281353204</v>
       </c>
       <c r="E109">
-        <v>15063.67347305198</v>
+        <v>14386.02472710989</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.10386356777</v>
+        <v>25283.15670820347</v>
       </c>
       <c r="I109">
-        <v>67016</v>
+        <v>67321</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>44867.22278361004</v>
+        <v>45620.04537712991</v>
       </c>
       <c r="O109">
-        <v>16440.15498783685</v>
+        <v>15653.6500084631</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>240.5211148511207</v>
+        <v>202.6305332827062</v>
       </c>
       <c r="R109">
-        <v>1624.68540075163</v>
+        <v>1462.924035633989</v>
       </c>
       <c r="S109">
-        <v>1865.206515602751</v>
+        <v>1665.554568916695</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3577.515095993263</v>
+        <v>3342.364316712998</v>
       </c>
       <c r="V109">
-        <v>3577.515095993263</v>
+        <v>3342.364316712998</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.077599264272</v>
+        <v>4049.002790928605</v>
       </c>
       <c r="B110">
-        <v>770.5360534741125</v>
+        <v>809.9436324017391</v>
       </c>
       <c r="C110">
-        <v>6504.021180068803</v>
+        <v>6718.470836321323</v>
       </c>
       <c r="D110">
-        <v>217.4574669704666</v>
+        <v>191.7927603106854</v>
       </c>
       <c r="E110">
-        <v>2358.918665063547</v>
+        <v>2168.237890424658</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.077599264272</v>
+        <v>4049.002790928605</v>
       </c>
       <c r="I110">
-        <v>11138</v>
+        <v>10938</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7274.557233542915</v>
+        <v>7528.414468723062</v>
       </c>
       <c r="O110">
-        <v>2576.376132034014</v>
+        <v>2360.030650735343</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39.58061664588355</v>
+        <v>34.94826028848376</v>
       </c>
       <c r="R110">
-        <v>234.8211350976954</v>
+        <v>289.714382605534</v>
       </c>
       <c r="S110">
-        <v>274.4017517435789</v>
+        <v>324.6626428940177</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>574.3692300055639</v>
+        <v>560.0619614790791</v>
       </c>
       <c r="V110">
-        <v>574.3692300055639</v>
+        <v>560.0619614790791</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8763.161716786533</v>
+        <v>8763.176760660852</v>
       </c>
       <c r="B111">
-        <v>1678.029214446524</v>
+        <v>1677.800314211403</v>
       </c>
       <c r="C111">
-        <v>14383.91356684695</v>
+        <v>14295.82222775207</v>
       </c>
       <c r="D111">
-        <v>377.8070429574914</v>
+        <v>504.1659839672423</v>
       </c>
       <c r="E111">
-        <v>4341.927340721291</v>
+        <v>5529.902648607043</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8763.161716786533</v>
+        <v>8763.176760660852</v>
       </c>
       <c r="I111">
-        <v>23900</v>
+        <v>23544</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>16061.94278129347</v>
+        <v>15973.62254196347</v>
       </c>
       <c r="O111">
-        <v>4719.734383678782</v>
+        <v>6034.068632574285</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>71.10437801454474</v>
+        <v>110.2592117612748</v>
       </c>
       <c r="R111">
-        <v>520.748440570781</v>
+        <v>621.3593448142619</v>
       </c>
       <c r="S111">
-        <v>591.8528185853257</v>
+        <v>731.6185565755368</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1305.439691175571</v>
+        <v>1257.635279262319</v>
       </c>
       <c r="V111">
-        <v>1305.439691175571</v>
+        <v>1257.635279262319</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9927.089471199723</v>
+        <v>9927.116156688488</v>
       </c>
       <c r="B112">
-        <v>2075.3028471813</v>
+        <v>2006.344322915904</v>
       </c>
       <c r="C112">
-        <v>16850.70942598835</v>
+        <v>16377.18595677136</v>
       </c>
       <c r="D112">
-        <v>500.6972704121867</v>
+        <v>535.5952031437183</v>
       </c>
       <c r="E112">
-        <v>5533.291179256435</v>
+        <v>5587.672307199244</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9927.089471199723</v>
+        <v>9927.116156688488</v>
       </c>
       <c r="I112">
-        <v>26426</v>
+        <v>26930</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18926.01227316965</v>
+        <v>18383.53027968726</v>
       </c>
       <c r="O112">
-        <v>6033.988449668621</v>
+        <v>6123.267510342962</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>79.92935149728388</v>
+        <v>86.47157412285154</v>
       </c>
       <c r="R112">
-        <v>575.8480860202621</v>
+        <v>539.0982591283631</v>
       </c>
       <c r="S112">
-        <v>655.777437517546</v>
+        <v>625.5698332512146</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1412.793848550895</v>
+        <v>1494.716875846013</v>
       </c>
       <c r="V112">
-        <v>1412.793848550895</v>
+        <v>1494.716875846013</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.038940030337</v>
+        <v>1551.85361365093</v>
       </c>
       <c r="B113">
-        <v>313.0351049814654</v>
+        <v>290.6127878400433</v>
       </c>
       <c r="C113">
-        <v>2557.740606825758</v>
+        <v>2575.637965581363</v>
       </c>
       <c r="D113">
-        <v>99.23824367541333</v>
+        <v>70.35891955490345</v>
       </c>
       <c r="E113">
-        <v>987.7588031029443</v>
+        <v>856.0697303091289</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.038940030337</v>
+        <v>1551.85361365093</v>
       </c>
       <c r="I113">
-        <v>4483</v>
+        <v>4284</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2870.775711807223</v>
+        <v>2866.250753421406</v>
       </c>
       <c r="O113">
-        <v>1086.997046778358</v>
+        <v>926.4286498640323</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>15.57050004257267</v>
+        <v>10.48584436594251</v>
       </c>
       <c r="R113">
-        <v>96.0768619165874</v>
+        <v>89.48884887251117</v>
       </c>
       <c r="S113">
-        <v>111.6473619591601</v>
+        <v>99.97469323845368</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>198.8609897444935</v>
+        <v>207.9187492431919</v>
       </c>
       <c r="V113">
-        <v>198.8609897444935</v>
+        <v>207.9187492431919</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.146396106099</v>
+        <v>1068.941800906861</v>
       </c>
       <c r="B114">
-        <v>1454.299537237034</v>
+        <v>1477.292161332951</v>
       </c>
       <c r="C114">
-        <v>474.1692831888445</v>
+        <v>498.8505073131586</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>674.2418153534676</v>
+        <v>721.5134070414269</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.146396106099</v>
+        <v>1068.941800906861</v>
       </c>
       <c r="I114">
-        <v>3020</v>
+        <v>2850</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1928.468820425878</v>
+        <v>1976.142668646109</v>
       </c>
       <c r="O114">
-        <v>674.2418153534676</v>
+        <v>721.5134070414269</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>19.39983041645466</v>
+        <v>20.75211959126899</v>
       </c>
       <c r="R114">
-        <v>65.68991360448396</v>
+        <v>58.4662909379181</v>
       </c>
       <c r="S114">
-        <v>85.08974402093863</v>
+        <v>79.21841052918708</v>
       </c>
       <c r="T114">
-        <v>14.73256502848985</v>
+        <v>14.60461104682846</v>
       </c>
       <c r="U114">
-        <v>111.2437642230957</v>
+        <v>129.7128858181593</v>
       </c>
       <c r="V114">
-        <v>125.9763292515855</v>
+        <v>144.3174968649877</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>405.9784807755155</v>
+        <v>406.1703375619181</v>
       </c>
       <c r="B115">
-        <v>568.8514450557615</v>
+        <v>572.9689989958033</v>
       </c>
       <c r="C115">
-        <v>184.8886761242783</v>
+        <v>184.4870012155835</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>233.0493836063072</v>
+        <v>240.3658306147997</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>405.9784807755155</v>
+        <v>406.1703375619181</v>
       </c>
       <c r="I115">
-        <v>1175</v>
+        <v>1111</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>753.7401211800398</v>
+        <v>757.4560002113868</v>
       </c>
       <c r="O115">
-        <v>233.0493836063072</v>
+        <v>240.3658306147997</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>8.333040735806291</v>
+        <v>8.083852076457857</v>
       </c>
       <c r="R115">
-        <v>20.71163664376077</v>
+        <v>25.34456586971876</v>
       </c>
       <c r="S115">
-        <v>29.04467737956706</v>
+        <v>33.42841794617662</v>
       </c>
       <c r="T115">
-        <v>4.994239185892347</v>
+        <v>4.139280115217549</v>
       </c>
       <c r="U115">
-        <v>38.67105253753695</v>
+        <v>43.43337849881998</v>
       </c>
       <c r="V115">
-        <v>43.6652917234293</v>
+        <v>47.57265861403754</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.967369382754</v>
+        <v>5615.994038766158</v>
       </c>
       <c r="B116">
-        <v>7969.534835319773</v>
+        <v>7871.737843856795</v>
       </c>
       <c r="C116">
-        <v>2616.566064551128</v>
+        <v>2554.534795299122</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3235.185652155649</v>
+        <v>3761.701882458727</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.967369382754</v>
+        <v>5615.994038766158</v>
       </c>
       <c r="I116">
-        <v>15624</v>
+        <v>15320</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10586.1008998709</v>
+        <v>10426.27263915592</v>
       </c>
       <c r="O116">
-        <v>3235.185652155649</v>
+        <v>3761.701882458727</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>86.77180620071862</v>
+        <v>84.9540640153284</v>
       </c>
       <c r="R116">
-        <v>237.1025314744719</v>
+        <v>258.4297393328598</v>
       </c>
       <c r="S116">
-        <v>323.8743376751905</v>
+        <v>343.3838033481882</v>
       </c>
       <c r="T116">
-        <v>68.16838376834741</v>
+        <v>83.80662857303622</v>
       </c>
       <c r="U116">
-        <v>779.2160762178235</v>
+        <v>654.3635237803351</v>
       </c>
       <c r="V116">
-        <v>847.3844599861709</v>
+        <v>738.1701523533714</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3150.029281075399</v>
+        <v>3149.83719377753</v>
       </c>
       <c r="B117">
-        <v>4392.752901555024</v>
+        <v>4324.007167193124</v>
       </c>
       <c r="C117">
-        <v>1458.189442611988</v>
+        <v>1498.711456597822</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1970.486061214074</v>
+        <v>1991.126239680851</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3150.029281075399</v>
+        <v>3149.83719377753</v>
       </c>
       <c r="I117">
-        <v>8812</v>
+        <v>8717</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5850.942344167012</v>
+        <v>5822.718623790946</v>
       </c>
       <c r="O117">
-        <v>1970.486061214074</v>
+        <v>1991.126239680851</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>50.00845741041989</v>
+        <v>55.69351706295088</v>
       </c>
       <c r="R117">
-        <v>157.7625605413298</v>
+        <v>155.1731218450906</v>
       </c>
       <c r="S117">
-        <v>207.7710179517496</v>
+        <v>210.8666389080415</v>
       </c>
       <c r="T117">
-        <v>39.75471690376712</v>
+        <v>42.71382258365387</v>
       </c>
       <c r="U117">
-        <v>371.2362675815083</v>
+        <v>386.3325810942399</v>
       </c>
       <c r="V117">
-        <v>410.9909844852754</v>
+        <v>429.0464036778938</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1817.005314656109</v>
+        <v>1817.076257887079</v>
       </c>
       <c r="B118">
-        <v>2606.608979307959</v>
+        <v>2587.033949088921</v>
       </c>
       <c r="C118">
-        <v>853.7966828452095</v>
+        <v>839.5252230746889</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1126.400783640222</v>
+        <v>1075.683945788729</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1817.005314656109</v>
+        <v>1817.076257887079</v>
       </c>
       <c r="I118">
-        <v>5112</v>
+        <v>5048</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3460.405662153169</v>
+        <v>3426.559172163609</v>
       </c>
       <c r="O118">
-        <v>1126.400783640222</v>
+        <v>1075.683945788729</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>33.85313416607106</v>
+        <v>28.64597278193438</v>
       </c>
       <c r="R118">
-        <v>102.546877953589</v>
+        <v>88.17865194071361</v>
       </c>
       <c r="S118">
-        <v>136.4000121196601</v>
+        <v>116.824624722648</v>
       </c>
       <c r="T118">
-        <v>25.36710276743485</v>
+        <v>28.91001166792751</v>
       </c>
       <c r="U118">
-        <v>244.6198136203189</v>
+        <v>244.1212034782821</v>
       </c>
       <c r="V118">
-        <v>269.9869163877537</v>
+        <v>273.0312151462096</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6395.920966893798</v>
+        <v>6395.926567159511</v>
       </c>
       <c r="B119">
-        <v>8853.816782504868</v>
+        <v>8977.533750356073</v>
       </c>
       <c r="C119">
-        <v>2850.953633905419</v>
+        <v>2981.142227106165</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>3631.755253319072</v>
+        <v>4029.942784889702</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6395.920966893798</v>
+        <v>6395.926567159511</v>
       </c>
       <c r="I119">
-        <v>17338</v>
+        <v>18175</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>11704.77041641029</v>
+        <v>11958.67597746224</v>
       </c>
       <c r="O119">
-        <v>3631.755253319072</v>
+        <v>4029.942784889702</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>117.7255845640568</v>
+        <v>127.3136162406229</v>
       </c>
       <c r="R119">
-        <v>335.5120598311118</v>
+        <v>354.1387800404854</v>
       </c>
       <c r="S119">
-        <v>453.2376443951686</v>
+        <v>481.4523962811084</v>
       </c>
       <c r="T119">
-        <v>101.3403180963173</v>
+        <v>70.58747964959534</v>
       </c>
       <c r="U119">
-        <v>782.0023166206889</v>
+        <v>768.7682581489714</v>
       </c>
       <c r="V119">
-        <v>883.3426347170062</v>
+        <v>839.3557377985668</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4006.043220320255</v>
+        <v>4006.160037280428</v>
       </c>
       <c r="B120">
-        <v>5638.581981345295</v>
+        <v>5343.827595345482</v>
       </c>
       <c r="C120">
-        <v>1873.032599355465</v>
+        <v>1805.118049993094</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2295.398989872993</v>
+        <v>2401.724231621181</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4006.043220320255</v>
+        <v>4006.160037280428</v>
       </c>
       <c r="I120">
-        <v>11082</v>
+        <v>10958</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7511.61458070076</v>
+        <v>7148.945645338576</v>
       </c>
       <c r="O120">
-        <v>2295.398989872993</v>
+        <v>2401.724231621181</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>71.67650887181272</v>
+        <v>76.35744984183506</v>
       </c>
       <c r="R120">
-        <v>189.8578515992866</v>
+        <v>231.6498185574283</v>
       </c>
       <c r="S120">
-        <v>261.5343604710993</v>
+        <v>308.0072683992634</v>
       </c>
       <c r="T120">
-        <v>48.37966368453225</v>
+        <v>52.03751907798213</v>
       </c>
       <c r="U120">
-        <v>518.7980549805156</v>
+        <v>511.368064691216</v>
       </c>
       <c r="V120">
-        <v>567.1777186650479</v>
+        <v>563.4055837691981</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.957242953567</v>
+        <v>1686.926468964466</v>
       </c>
       <c r="B121">
-        <v>2324.850305169193</v>
+        <v>2363.84518224255</v>
       </c>
       <c r="C121">
-        <v>767.3328025277081</v>
+        <v>784.8703358036443</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1060.324640185084</v>
+        <v>1018.131437135942</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.957242953567</v>
+        <v>1686.926468964466</v>
       </c>
       <c r="I121">
-        <v>4759</v>
+        <v>4570</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3092.183107696901</v>
+        <v>3148.715518046194</v>
       </c>
       <c r="O121">
-        <v>1060.324640185084</v>
+        <v>1018.131437135942</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>30.93847043019941</v>
+        <v>27.57734116812789</v>
       </c>
       <c r="R121">
-        <v>104.3320728734648</v>
+        <v>100.0252213931162</v>
       </c>
       <c r="S121">
-        <v>135.2705433036642</v>
+        <v>127.6025625612441</v>
       </c>
       <c r="T121">
-        <v>20.03914672486496</v>
+        <v>23.5393496836149</v>
       </c>
       <c r="U121">
-        <v>178.0145983338176</v>
+        <v>175.1323326213461</v>
       </c>
       <c r="V121">
-        <v>198.0537450586826</v>
+        <v>198.6716823049609</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.9810876502858</v>
+        <v>589.1140811471787</v>
       </c>
       <c r="B122">
-        <v>838.493557660652</v>
+        <v>800.6379082720263</v>
       </c>
       <c r="C122">
-        <v>270.8482396291602</v>
+        <v>263.266741897903</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>326.9783248842639</v>
+        <v>346.3950308132144</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.9810876502858</v>
+        <v>589.1140811471787</v>
       </c>
       <c r="I122">
-        <v>1664</v>
+        <v>1603</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1109.341797289812</v>
+        <v>1063.904650169929</v>
       </c>
       <c r="O122">
-        <v>326.9783248842639</v>
+        <v>346.3950308132144</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>11.14807093957773</v>
+        <v>15.17517808181942</v>
       </c>
       <c r="R122">
-        <v>40.44361125244709</v>
+        <v>40.86863043814886</v>
       </c>
       <c r="S122">
-        <v>51.59168219202482</v>
+        <v>56.04380851996827</v>
       </c>
       <c r="T122">
-        <v>7.784092819461351</v>
+        <v>7.375906302092269</v>
       </c>
       <c r="U122">
-        <v>75.08463884849302</v>
+        <v>71.98393843297212</v>
       </c>
       <c r="V122">
-        <v>82.86873166795436</v>
+        <v>79.3598447350644</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1709.908609197264</v>
+        <v>1710.130736895906</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3135.943220718286</v>
+        <v>3015.139446448779</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>973.2615449301478</v>
+        <v>1121.528912671567</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1709.908609197264</v>
+        <v>1710.130736895906</v>
       </c>
       <c r="I123">
-        <v>5637</v>
+        <v>5532</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3135.943220718286</v>
+        <v>3015.139446448779</v>
       </c>
       <c r="O123">
-        <v>973.2615449301478</v>
+        <v>1121.528912671567</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>30.15892443020031</v>
+        <v>34.81060503495438</v>
       </c>
       <c r="R123">
-        <v>95.30464729066108</v>
+        <v>100.0007853040934</v>
       </c>
       <c r="S123">
-        <v>125.4635717208614</v>
+        <v>134.8113903390478</v>
       </c>
       <c r="T123">
-        <v>26.62598666052682</v>
+        <v>23.02782146272552</v>
       </c>
       <c r="U123">
-        <v>240.0444430519352</v>
+        <v>200.1859841302261</v>
       </c>
       <c r="V123">
-        <v>266.670429712462</v>
+        <v>223.2138055929516</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>199.076691495975</v>
+        <v>198.9712080967222</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>353.7644645522425</v>
+        <v>353.3247044958931</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>138.0897186092702</v>
+        <v>134.3721195664613</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>199.076691495975</v>
+        <v>198.9712080967222</v>
       </c>
       <c r="I124">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>353.7644645522425</v>
+        <v>353.3247044958931</v>
       </c>
       <c r="O124">
-        <v>138.0897186092702</v>
+        <v>134.3721195664613</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.758505941618181</v>
+        <v>3.286398747213256</v>
       </c>
       <c r="R124">
-        <v>10.3426387855803</v>
+        <v>9.087944199222982</v>
       </c>
       <c r="S124">
-        <v>14.10114472719848</v>
+        <v>12.37434294643624</v>
       </c>
       <c r="T124">
-        <v>4.462632792687994</v>
+        <v>2.14962848797433</v>
       </c>
       <c r="U124">
-        <v>27.41313372681124</v>
+        <v>22.94099281313061</v>
       </c>
       <c r="V124">
-        <v>31.87576651949923</v>
+        <v>25.09062130110494</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.908449856481</v>
+        <v>9133.060660538047</v>
       </c>
       <c r="B2">
-        <v>4964.2841000865</v>
+        <v>5089.10357781358</v>
       </c>
       <c r="C2">
-        <v>22073.4855196325</v>
+        <v>21810.6658686034</v>
       </c>
       <c r="D2">
-        <v>4780.29912877239</v>
+        <v>5218.653042913618</v>
       </c>
       <c r="E2">
-        <v>9786.466257052898</v>
+        <v>10440.42123606418</v>
       </c>
       <c r="F2">
-        <v>2480.86834694721</v>
+        <v>2654.314111165454</v>
       </c>
       <c r="G2">
-        <v>4856.591801272948</v>
+        <v>5268.223230869256</v>
       </c>
       <c r="H2">
-        <v>9132.908449856481</v>
+        <v>9133.060660538047</v>
       </c>
       <c r="I2">
-        <v>45776</v>
+        <v>42445</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>27037.769619719</v>
+        <v>26899.76944641698</v>
       </c>
       <c r="O2">
-        <v>14566.76538582529</v>
+        <v>15659.0742789778</v>
       </c>
       <c r="P2">
-        <v>7337.460148220158</v>
+        <v>7922.53734203471</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.942679078825</v>
+        <v>7570.986374021481</v>
       </c>
       <c r="B3">
-        <v>4067.9465985478</v>
+        <v>4191.964733326174</v>
       </c>
       <c r="C3">
-        <v>17577.59070187247</v>
+        <v>17862.23321344275</v>
       </c>
       <c r="D3">
-        <v>4517.742558757555</v>
+        <v>4316.594517569523</v>
       </c>
       <c r="E3">
-        <v>8802.956088613031</v>
+        <v>8793.799607352559</v>
       </c>
       <c r="F3">
-        <v>2410.096856007715</v>
+        <v>2291.215955250777</v>
       </c>
       <c r="G3">
-        <v>4624.641230227422</v>
+        <v>4381.430496061521</v>
       </c>
       <c r="H3">
-        <v>7570.942679078825</v>
+        <v>7570.986374021481</v>
       </c>
       <c r="I3">
-        <v>34021</v>
+        <v>32932</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21645.53730042027</v>
+        <v>22054.19794676893</v>
       </c>
       <c r="O3">
-        <v>13320.69864737059</v>
+        <v>13110.39412492208</v>
       </c>
       <c r="P3">
-        <v>7034.738086235137</v>
+        <v>6672.646451312298</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.90919180424</v>
+        <v>15501.95321571958</v>
       </c>
       <c r="B4">
-        <v>8341.655591199646</v>
+        <v>8687.700199461449</v>
       </c>
       <c r="C4">
-        <v>36044.55501718977</v>
+        <v>38299.03466409478</v>
       </c>
       <c r="D4">
-        <v>7955.601554013417</v>
+        <v>8551.438298090427</v>
       </c>
       <c r="E4">
-        <v>16221.41087036681</v>
+        <v>17298.55370268412</v>
       </c>
       <c r="F4">
-        <v>4358.664379496424</v>
+        <v>4455.514323569385</v>
       </c>
       <c r="G4">
-        <v>8838.694455919784</v>
+        <v>8457.916990888685</v>
       </c>
       <c r="H4">
-        <v>15501.90919180424</v>
+        <v>15501.95321571958</v>
       </c>
       <c r="I4">
-        <v>68152</v>
+        <v>71678</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44386.21060838942</v>
+        <v>46986.73486355623</v>
       </c>
       <c r="O4">
-        <v>24177.01242438023</v>
+        <v>25849.99200077454</v>
       </c>
       <c r="P4">
-        <v>13197.35883541621</v>
+        <v>12913.43131445807</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9670.090109523804</v>
+        <v>9670.004710326031</v>
       </c>
       <c r="B5">
-        <v>5143.842954857</v>
+        <v>5306.533334143263</v>
       </c>
       <c r="C5">
-        <v>21633.57990079915</v>
+        <v>22751.40894556766</v>
       </c>
       <c r="D5">
-        <v>5355.439560504868</v>
+        <v>5340.299972117375</v>
       </c>
       <c r="E5">
-        <v>10614.28974765545</v>
+        <v>10586.02459179373</v>
       </c>
       <c r="F5">
-        <v>2754.034794702051</v>
+        <v>2859.116178293932</v>
       </c>
       <c r="G5">
-        <v>5414.216987191648</v>
+        <v>5677.064894746709</v>
       </c>
       <c r="H5">
-        <v>9670.090109523804</v>
+        <v>9670.004710326031</v>
       </c>
       <c r="I5">
-        <v>44826</v>
+        <v>43915</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>26777.42285565615</v>
+        <v>28057.94227971093</v>
       </c>
       <c r="O5">
-        <v>15969.72930816032</v>
+        <v>15926.3245639111</v>
       </c>
       <c r="P5">
-        <v>8168.251781893699</v>
+        <v>8536.181073040641</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.91663484162</v>
+        <v>26786.98961731849</v>
       </c>
       <c r="B6">
-        <v>15140.80316865906</v>
+        <v>14962.79761189033</v>
       </c>
       <c r="C6">
-        <v>63145.47109338147</v>
+        <v>63760.66011910712</v>
       </c>
       <c r="D6">
-        <v>15168.93239533292</v>
+        <v>15648.34282601047</v>
       </c>
       <c r="E6">
-        <v>30681.21667939754</v>
+        <v>32484.39508080743</v>
       </c>
       <c r="F6">
-        <v>8195.048013790491</v>
+        <v>7961.216888415641</v>
       </c>
       <c r="G6">
-        <v>16149.58266830533</v>
+        <v>16040.47055778015</v>
       </c>
       <c r="H6">
-        <v>26786.91663484162</v>
+        <v>26786.98961731849</v>
       </c>
       <c r="I6">
-        <v>130324</v>
+        <v>125788</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>78286.27426204053</v>
+        <v>78723.45773099746</v>
       </c>
       <c r="O6">
-        <v>45850.14907473046</v>
+        <v>48132.7379068179</v>
       </c>
       <c r="P6">
-        <v>24344.63068209582</v>
+        <v>24001.68744619579</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.96594583264</v>
+        <v>15439.10261657533</v>
       </c>
       <c r="B7">
-        <v>8388.758458367665</v>
+        <v>8407.543713492014</v>
       </c>
       <c r="C7">
-        <v>36038.64852618978</v>
+        <v>36979.7003479289</v>
       </c>
       <c r="D7">
-        <v>8741.37886368525</v>
+        <v>8257.577641289579</v>
       </c>
       <c r="E7">
-        <v>17712.55426840552</v>
+        <v>17296.67889491539</v>
       </c>
       <c r="F7">
-        <v>4738.426114141968</v>
+        <v>4621.274899884467</v>
       </c>
       <c r="G7">
-        <v>9425.380836382699</v>
+        <v>8905.131091250538</v>
       </c>
       <c r="H7">
-        <v>15438.96594583264</v>
+        <v>15439.10261657533</v>
       </c>
       <c r="I7">
-        <v>73716</v>
+        <v>69362</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>44427.40698455744</v>
+        <v>45387.24406142091</v>
       </c>
       <c r="O7">
-        <v>26453.93313209077</v>
+        <v>25554.25653620497</v>
       </c>
       <c r="P7">
-        <v>14163.80695052467</v>
+        <v>13526.40599113501</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.101901527484</v>
+        <v>7028.031683969456</v>
       </c>
       <c r="B8">
-        <v>3963.87750881064</v>
+        <v>3915.068116680782</v>
       </c>
       <c r="C8">
-        <v>16382.35747090923</v>
+        <v>16724.77310045997</v>
       </c>
       <c r="D8">
-        <v>3941.081182039462</v>
+        <v>3889.583844273178</v>
       </c>
       <c r="E8">
-        <v>8077.497356439237</v>
+        <v>7732.289640001465</v>
       </c>
       <c r="F8">
-        <v>2236.574113011016</v>
+        <v>2175.610089096736</v>
       </c>
       <c r="G8">
-        <v>4169.958054651707</v>
+        <v>4081.018102399758</v>
       </c>
       <c r="H8">
-        <v>7028.101901527484</v>
+        <v>7028.031683969456</v>
       </c>
       <c r="I8">
-        <v>33176</v>
+        <v>33699</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20346.23497971987</v>
+        <v>20639.84121714075</v>
       </c>
       <c r="O8">
-        <v>12018.5785384787</v>
+        <v>11621.87348427464</v>
       </c>
       <c r="P8">
-        <v>6406.532167662724</v>
+        <v>6256.628191496493</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.967808225968</v>
+        <v>5005.963489693067</v>
       </c>
       <c r="B9">
-        <v>2586.949536565519</v>
+        <v>2706.013731459594</v>
       </c>
       <c r="C9">
-        <v>11242.86397318078</v>
+        <v>12006.75630372937</v>
       </c>
       <c r="D9">
-        <v>2655.147487790506</v>
+        <v>2723.890196888078</v>
       </c>
       <c r="E9">
-        <v>5439.922168972398</v>
+        <v>5566.547512948808</v>
       </c>
       <c r="F9">
-        <v>1540.088058800625</v>
+        <v>1507.409810887293</v>
       </c>
       <c r="G9">
-        <v>2975.484513233541</v>
+        <v>2944.553203730219</v>
       </c>
       <c r="H9">
-        <v>5005.967808225968</v>
+        <v>5005.963489693067</v>
       </c>
       <c r="I9">
-        <v>23396</v>
+        <v>23493</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13829.8135097463</v>
+        <v>14712.77003518897</v>
       </c>
       <c r="O9">
-        <v>8095.069656762904</v>
+        <v>8290.437709836886</v>
       </c>
       <c r="P9">
-        <v>4515.572572034165</v>
+        <v>4451.963014617511</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.946400139633</v>
+        <v>5887.014143155843</v>
       </c>
       <c r="B10">
-        <v>3070.513972974259</v>
+        <v>3021.930402040549</v>
       </c>
       <c r="C10">
-        <v>13565.25174268114</v>
+        <v>13409.84479244987</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9290.742248495866</v>
+        <v>9647.011362885853</v>
       </c>
       <c r="F10">
-        <v>1872.085179937189</v>
+        <v>1919.759818647155</v>
       </c>
       <c r="G10">
-        <v>3437.480172530905</v>
+        <v>3500.274533152852</v>
       </c>
       <c r="H10">
-        <v>5886.946400139633</v>
+        <v>5887.014143155843</v>
       </c>
       <c r="I10">
-        <v>30156</v>
+        <v>30057</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16635.7657156554</v>
+        <v>16431.77519449042</v>
       </c>
       <c r="O10">
-        <v>9290.742248495866</v>
+        <v>9647.011362885853</v>
       </c>
       <c r="P10">
-        <v>5309.565352468094</v>
+        <v>5420.034351800006</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.097819677636</v>
+        <v>1725.98613889505</v>
       </c>
       <c r="B11">
-        <v>936.7286385225955</v>
+        <v>904.4161637266383</v>
       </c>
       <c r="C11">
-        <v>4007.992717637611</v>
+        <v>4039.528932366312</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2899.636542427987</v>
+        <v>2689.166699333399</v>
       </c>
       <c r="F11">
-        <v>496.4190675947421</v>
+        <v>459.6772796659973</v>
       </c>
       <c r="G11">
-        <v>941.2564458805744</v>
+        <v>924.3682623315909</v>
       </c>
       <c r="H11">
-        <v>1726.097819677636</v>
+        <v>1725.98613889505</v>
       </c>
       <c r="I11">
-        <v>8197</v>
+        <v>8247</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4944.721356160207</v>
+        <v>4943.945096092951</v>
       </c>
       <c r="O11">
-        <v>2899.636542427987</v>
+        <v>2689.166699333399</v>
       </c>
       <c r="P11">
-        <v>1437.675513475316</v>
+        <v>1384.045541997588</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>500.923297462041</v>
+        <v>500.9624940965868</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1419.098681548364</v>
+        <v>1416.571117851449</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>780.8892318064226</v>
+        <v>780.7629683020857</v>
       </c>
       <c r="F12">
-        <v>155.1031865081779</v>
+        <v>160.8149497193021</v>
       </c>
       <c r="G12">
-        <v>293.1041344103302</v>
+        <v>311.0124289839895</v>
       </c>
       <c r="H12">
-        <v>500.923297462041</v>
+        <v>500.9624940965868</v>
       </c>
       <c r="I12">
-        <v>2866</v>
+        <v>2760</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1419.098681548364</v>
+        <v>1416.571117851449</v>
       </c>
       <c r="O12">
-        <v>780.8892318064226</v>
+        <v>780.7629683020857</v>
       </c>
       <c r="P12">
-        <v>448.2073209185081</v>
+        <v>471.8273787032916</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.0038546118</v>
+        <v>1087.988578090817</v>
       </c>
       <c r="B13">
-        <v>497.383399165678</v>
+        <v>516.471423292911</v>
       </c>
       <c r="C13">
-        <v>2579.980712460855</v>
+        <v>2720.673155757982</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1730.721946305446</v>
+        <v>1903.170387125264</v>
       </c>
       <c r="F13">
-        <v>764.1009511394237</v>
+        <v>847.1105807587767</v>
       </c>
       <c r="G13">
-        <v>135.5489197200154</v>
+        <v>145.1298067753233</v>
       </c>
       <c r="H13">
-        <v>1088.0038546118</v>
+        <v>1087.988578090817</v>
       </c>
       <c r="I13">
-        <v>4721</v>
+        <v>4438</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3077.364111626533</v>
+        <v>3237.144579050893</v>
       </c>
       <c r="O13">
-        <v>1730.721946305446</v>
+        <v>1903.170387125264</v>
       </c>
       <c r="P13">
-        <v>899.6498708594392</v>
+        <v>992.2403875340999</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.98856374819</v>
+        <v>11832.11894238649</v>
       </c>
       <c r="B14">
-        <v>5328.51941875788</v>
+        <v>5340.794870595152</v>
       </c>
       <c r="C14">
-        <v>27480.43073310887</v>
+        <v>27873.14929671484</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17368.93394408475</v>
+        <v>18260.27206839724</v>
       </c>
       <c r="F14">
-        <v>8372.379863282444</v>
+        <v>8727.25629108089</v>
       </c>
       <c r="G14">
-        <v>1486.295609008983</v>
+        <v>1521.619146448648</v>
       </c>
       <c r="H14">
-        <v>11831.98856374819</v>
+        <v>11832.11894238649</v>
       </c>
       <c r="I14">
-        <v>49002</v>
+        <v>48382</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32808.95015186675</v>
+        <v>33213.94416730999</v>
       </c>
       <c r="O14">
-        <v>17368.93394408475</v>
+        <v>18260.27206839724</v>
       </c>
       <c r="P14">
-        <v>9858.675472291427</v>
+        <v>10248.87543752954</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.05210961883</v>
+        <v>79021.01508708829</v>
       </c>
       <c r="B15">
-        <v>36726.83944548184</v>
+        <v>36233.60331996981</v>
       </c>
       <c r="C15">
-        <v>189640.362574271</v>
+        <v>188716.6269889902</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>120507.8314292933</v>
+        <v>132774.7373848042</v>
       </c>
       <c r="F15">
-        <v>58890.72791749561</v>
+        <v>61083.49940314209</v>
       </c>
       <c r="G15">
-        <v>10233.83881288287</v>
+        <v>11018.26877488278</v>
       </c>
       <c r="H15">
-        <v>79021.05210961883</v>
+        <v>79021.01508708829</v>
       </c>
       <c r="I15">
-        <v>340718</v>
+        <v>336419</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>226367.2020197528</v>
+        <v>224950.23030896</v>
       </c>
       <c r="O15">
-        <v>120507.8314292933</v>
+        <v>132774.7373848042</v>
       </c>
       <c r="P15">
-        <v>69124.56673037849</v>
+        <v>72101.76817802487</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.0961627039</v>
+        <v>160975.0899198772</v>
       </c>
       <c r="B16">
-        <v>72384.40084532186</v>
+        <v>74968.9722910406</v>
       </c>
       <c r="C16">
-        <v>371872.7460446714</v>
+        <v>378811.7159110032</v>
       </c>
       <c r="D16">
-        <v>86367.11477607042</v>
+        <v>91614.06359834776</v>
       </c>
       <c r="E16">
-        <v>167644.8956682471</v>
+        <v>179983.4418107898</v>
       </c>
       <c r="F16">
-        <v>118951.9469482633</v>
+        <v>128837.0113102389</v>
       </c>
       <c r="G16">
-        <v>20463.5930574891</v>
+        <v>22973.55572047193</v>
       </c>
       <c r="H16">
-        <v>160975.0961627039</v>
+        <v>160975.0899198772</v>
       </c>
       <c r="I16">
-        <v>627324</v>
+        <v>691324</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>444257.1468899932</v>
+        <v>453780.6882020438</v>
       </c>
       <c r="O16">
-        <v>254012.0104443175</v>
+        <v>271597.5054091375</v>
       </c>
       <c r="P16">
-        <v>139415.5400057524</v>
+        <v>151810.5670307108</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.90255795986</v>
+        <v>52808.00952679805</v>
       </c>
       <c r="B17">
-        <v>23894.8968717255</v>
+        <v>24175.40405136068</v>
       </c>
       <c r="C17">
-        <v>127040.5514913703</v>
+        <v>128959.5006886739</v>
       </c>
       <c r="D17">
-        <v>30999.12415711423</v>
+        <v>31973.5056661635</v>
       </c>
       <c r="E17">
-        <v>59038.10565612234</v>
+        <v>61547.86757251489</v>
       </c>
       <c r="F17">
-        <v>41188.44515568206</v>
+        <v>39820.56834148193</v>
       </c>
       <c r="G17">
-        <v>7346.364601571776</v>
+        <v>7308.745098374245</v>
       </c>
       <c r="H17">
-        <v>52807.90255795986</v>
+        <v>52808.00952679805</v>
       </c>
       <c r="I17">
-        <v>213544</v>
+        <v>215451</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>150935.4483630958</v>
+        <v>153134.9047400346</v>
       </c>
       <c r="O17">
-        <v>90037.22981323657</v>
+        <v>93521.37323867838</v>
       </c>
       <c r="P17">
-        <v>48534.80975725383</v>
+        <v>47129.31343985617</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48665.93426060247</v>
+        <v>48666.05428911486</v>
       </c>
       <c r="B18">
-        <v>23024.66923274109</v>
+        <v>21592.35719134877</v>
       </c>
       <c r="C18">
-        <v>119770.6354119192</v>
+        <v>117617.7942548479</v>
       </c>
       <c r="D18">
-        <v>27368.56672957081</v>
+        <v>26143.80659596879</v>
       </c>
       <c r="E18">
-        <v>50717.01185513599</v>
+        <v>52017.25950512994</v>
       </c>
       <c r="F18">
-        <v>35685.19560609494</v>
+        <v>38299.79375082711</v>
       </c>
       <c r="G18">
-        <v>6216.334678824916</v>
+        <v>6636.590872201642</v>
       </c>
       <c r="H18">
-        <v>48665.93426060247</v>
+        <v>48666.05428911486</v>
       </c>
       <c r="I18">
-        <v>188180</v>
+        <v>200415</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>142795.3046446603</v>
+        <v>139210.1514461967</v>
       </c>
       <c r="O18">
-        <v>78085.5785847068</v>
+        <v>78161.06610109872</v>
       </c>
       <c r="P18">
-        <v>41901.53028491986</v>
+        <v>44936.38462302875</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50921.02988679863</v>
+        <v>50921.11890738247</v>
       </c>
       <c r="B19">
-        <v>23788.9630758231</v>
+        <v>23663.97119004537</v>
       </c>
       <c r="C19">
-        <v>125411.7768308476</v>
+        <v>126722.2342224987</v>
       </c>
       <c r="D19">
-        <v>28520.18900641142</v>
+        <v>28502.86102361234</v>
       </c>
       <c r="E19">
-        <v>54724.09141474796</v>
+        <v>54029.49995526692</v>
       </c>
       <c r="F19">
-        <v>37818.98773589284</v>
+        <v>38936.06829590693</v>
       </c>
       <c r="G19">
-        <v>6336.15063575985</v>
+        <v>7235.036740787661</v>
       </c>
       <c r="H19">
-        <v>50921.02988679863</v>
+        <v>50921.11890738247</v>
       </c>
       <c r="I19">
-        <v>211767</v>
+        <v>214010</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>149200.7399066707</v>
+        <v>150386.2054125441</v>
       </c>
       <c r="O19">
-        <v>83244.28042115938</v>
+        <v>82532.36097887927</v>
       </c>
       <c r="P19">
-        <v>44155.13837165268</v>
+        <v>46171.10503669459</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.88789949997</v>
+        <v>20572.9168327326</v>
       </c>
       <c r="B20">
-        <v>9184.630635260273</v>
+        <v>9466.08024858627</v>
       </c>
       <c r="C20">
-        <v>50117.14241133465</v>
+        <v>49549.90709413873</v>
       </c>
       <c r="D20">
-        <v>12086.98847706391</v>
+        <v>11526.12309527244</v>
       </c>
       <c r="E20">
-        <v>23542.31418709493</v>
+        <v>22191.21717708342</v>
       </c>
       <c r="F20">
-        <v>16132.6932870954</v>
+        <v>15993.79850466837</v>
       </c>
       <c r="G20">
-        <v>2765.193632755054</v>
+        <v>2814.281063026335</v>
       </c>
       <c r="H20">
-        <v>20572.88789949997</v>
+        <v>20572.9168327326</v>
       </c>
       <c r="I20">
-        <v>79670</v>
+        <v>78936</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59301.77304659493</v>
+        <v>59015.987342725</v>
       </c>
       <c r="O20">
-        <v>35629.30266415884</v>
+        <v>33717.34027235586</v>
       </c>
       <c r="P20">
-        <v>18897.88691985045</v>
+        <v>18808.07956769471</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.96055170759</v>
+        <v>26961.01449117062</v>
       </c>
       <c r="B21">
-        <v>13127.78860199404</v>
+        <v>12484.45351584464</v>
       </c>
       <c r="C21">
-        <v>69981.74803304969</v>
+        <v>65884.67618075834</v>
       </c>
       <c r="D21">
-        <v>16367.65087819559</v>
+        <v>15529.78538157118</v>
       </c>
       <c r="E21">
-        <v>32523.00559025562</v>
+        <v>30603.08407242418</v>
       </c>
       <c r="F21">
-        <v>19151.16210159759</v>
+        <v>19950.53256460743</v>
       </c>
       <c r="G21">
-        <v>3459.542697528399</v>
+        <v>3553.623707449511</v>
       </c>
       <c r="H21">
-        <v>26960.96055170759</v>
+        <v>26961.01449117062</v>
       </c>
       <c r="I21">
-        <v>104166</v>
+        <v>107744</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>83109.53663504373</v>
+        <v>78369.12969660298</v>
       </c>
       <c r="O21">
-        <v>48890.65646845121</v>
+        <v>46132.86945399537</v>
       </c>
       <c r="P21">
-        <v>22610.70479912599</v>
+        <v>23504.15627205695</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.01191599162</v>
+        <v>3910.003807620857</v>
       </c>
       <c r="B22">
-        <v>1781.619887187326</v>
+        <v>1657.934432788852</v>
       </c>
       <c r="C22">
-        <v>9310.734569114753</v>
+        <v>9001.003512602389</v>
       </c>
       <c r="D22">
-        <v>2064.27467834147</v>
+        <v>2128.563586359674</v>
       </c>
       <c r="E22">
-        <v>4026.256243282865</v>
+        <v>4279.932588734606</v>
       </c>
       <c r="F22">
-        <v>2857.033417110111</v>
+        <v>2938.709824136974</v>
       </c>
       <c r="G22">
-        <v>482.9872892855018</v>
+        <v>500.2205472861487</v>
       </c>
       <c r="H22">
-        <v>3910.01191599162</v>
+        <v>3910.003807620857</v>
       </c>
       <c r="I22">
-        <v>15756</v>
+        <v>15173</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11092.35445630208</v>
+        <v>10658.93794539124</v>
       </c>
       <c r="O22">
-        <v>6090.530921624335</v>
+        <v>6408.49617509428</v>
       </c>
       <c r="P22">
-        <v>3340.020706395613</v>
+        <v>3438.930371423122</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9614056825861</v>
+        <v>105.9663046522457</v>
       </c>
       <c r="B23">
-        <v>50.14073935757117</v>
+        <v>48.705214654863</v>
       </c>
       <c r="C23">
-        <v>255.4698572819323</v>
+        <v>251.4386856276109</v>
       </c>
       <c r="D23">
-        <v>56.13723814960537</v>
+        <v>52.5025541673016</v>
       </c>
       <c r="E23">
-        <v>110.3669885753314</v>
+        <v>102.4460954410944</v>
       </c>
       <c r="F23">
-        <v>73.42369171927773</v>
+        <v>89.28939151096427</v>
       </c>
       <c r="G23">
-        <v>11.03183113600549</v>
+        <v>16.58779650867945</v>
       </c>
       <c r="H23">
-        <v>105.9614056825861</v>
+        <v>105.9663046522457</v>
       </c>
       <c r="I23">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>305.6105966395035</v>
+        <v>300.1439002824739</v>
       </c>
       <c r="O23">
-        <v>166.5042267249368</v>
+        <v>154.948649608396</v>
       </c>
       <c r="P23">
-        <v>84.45552285528322</v>
+        <v>105.8771880196437</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.04887304191</v>
+        <v>15661.03135442946</v>
       </c>
       <c r="B24">
-        <v>7673.403956777895</v>
+        <v>7213.065692608602</v>
       </c>
       <c r="C24">
-        <v>39835.71677480307</v>
+        <v>37997.18442509311</v>
       </c>
       <c r="D24">
-        <v>9321.184633307075</v>
+        <v>9107.101325142467</v>
       </c>
       <c r="E24">
-        <v>18466.47744002786</v>
+        <v>17978.0965305547</v>
       </c>
       <c r="F24">
-        <v>13333.01290087236</v>
+        <v>11832.50655483735</v>
       </c>
       <c r="G24">
-        <v>2497.54292008219</v>
+        <v>2166.631140090791</v>
       </c>
       <c r="H24">
-        <v>15661.04887304191</v>
+        <v>15661.03135442946</v>
       </c>
       <c r="I24">
-        <v>66841</v>
+        <v>62925</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>47509.12073158097</v>
+        <v>45210.25011770171</v>
       </c>
       <c r="O24">
-        <v>27787.66207333493</v>
+        <v>27085.19785569717</v>
       </c>
       <c r="P24">
-        <v>15830.55582095455</v>
+        <v>13999.13769492814</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.918545654111</v>
+        <v>6606.977012327423</v>
       </c>
       <c r="B25">
-        <v>1441.780260186689</v>
+        <v>1477.140989575157</v>
       </c>
       <c r="C25">
-        <v>16892.16121206257</v>
+        <v>18434.26349226304</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10906.86184885749</v>
+        <v>11200.24245043177</v>
       </c>
       <c r="F25">
-        <v>6063.338025845213</v>
+        <v>6107.902280228024</v>
       </c>
       <c r="G25">
-        <v>327.8525118888824</v>
+        <v>333.4416096014134</v>
       </c>
       <c r="H25">
-        <v>6606.918545654111</v>
+        <v>6606.977012327423</v>
       </c>
       <c r="I25">
-        <v>30554</v>
+        <v>29853</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18333.94147224926</v>
+        <v>19911.4044818382</v>
       </c>
       <c r="O25">
-        <v>10906.86184885749</v>
+        <v>11200.24245043177</v>
       </c>
       <c r="P25">
-        <v>6391.190537734095</v>
+        <v>6441.343889829437</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22422.9580368635</v>
+        <v>22423.07671052586</v>
       </c>
       <c r="B26">
-        <v>4885.748209463643</v>
+        <v>4951.86306235545</v>
       </c>
       <c r="C26">
-        <v>59175.53038858073</v>
+        <v>60999.08035377338</v>
       </c>
       <c r="D26">
-        <v>8532.621692972429</v>
+        <v>8376.071102820681</v>
       </c>
       <c r="E26">
-        <v>27973.3614487545</v>
+        <v>28638.54525516659</v>
       </c>
       <c r="F26">
-        <v>17229.23992383307</v>
+        <v>17256.78986487096</v>
       </c>
       <c r="G26">
-        <v>1011.626568820116</v>
+        <v>893.6178301799863</v>
       </c>
       <c r="H26">
-        <v>22422.9580368635</v>
+        <v>22423.07671052586</v>
       </c>
       <c r="I26">
-        <v>99669</v>
+        <v>93651</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>64061.27859804437</v>
+        <v>65950.94341612884</v>
       </c>
       <c r="O26">
-        <v>36505.98314172693</v>
+        <v>37014.61635798727</v>
       </c>
       <c r="P26">
-        <v>18240.86649265319</v>
+        <v>18150.40769505094</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29148.03148688566</v>
+        <v>29147.91642374337</v>
       </c>
       <c r="B27">
-        <v>6275.014803177392</v>
+        <v>6120.213347524951</v>
       </c>
       <c r="C27">
-        <v>78438.25925042048</v>
+        <v>75822.78022201374</v>
       </c>
       <c r="D27">
-        <v>10968.14009243878</v>
+        <v>10829.57875198979</v>
       </c>
       <c r="E27">
-        <v>37059.09307756089</v>
+        <v>35954.77589205319</v>
       </c>
       <c r="F27">
-        <v>22738.15075934225</v>
+        <v>26716.92980208233</v>
       </c>
       <c r="G27">
-        <v>1220.290344322081</v>
+        <v>1424.394073459432</v>
       </c>
       <c r="H27">
-        <v>29148.03148688566</v>
+        <v>29147.91642374337</v>
       </c>
       <c r="I27">
-        <v>130814</v>
+        <v>128446</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>84713.27405359787</v>
+        <v>81942.9935695387</v>
       </c>
       <c r="O27">
-        <v>48027.23316999967</v>
+        <v>46784.35464404299</v>
       </c>
       <c r="P27">
-        <v>23958.44110366434</v>
+        <v>28141.32387554176</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.1061497393</v>
+        <v>30698.03052480998</v>
       </c>
       <c r="B28">
-        <v>6623.25191478694</v>
+        <v>6516.486694470615</v>
       </c>
       <c r="C28">
-        <v>83680.73614257184</v>
+        <v>80774.94659860698</v>
       </c>
       <c r="D28">
-        <v>11812.20154874543</v>
+        <v>10982.23740354911</v>
       </c>
       <c r="E28">
-        <v>39247.65722198127</v>
+        <v>37240.06496622536</v>
       </c>
       <c r="F28">
-        <v>24480.09563584539</v>
+        <v>24776.73231549826</v>
       </c>
       <c r="G28">
-        <v>1271.094335908687</v>
+        <v>1120.905159643122</v>
       </c>
       <c r="H28">
-        <v>30698.1061497393</v>
+        <v>30698.03052480998</v>
       </c>
       <c r="I28">
-        <v>138721</v>
+        <v>137629</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>90303.98805735879</v>
+        <v>87291.4332930776</v>
       </c>
       <c r="O28">
-        <v>51059.8587707267</v>
+        <v>48222.30236977447</v>
       </c>
       <c r="P28">
-        <v>25751.18997175407</v>
+        <v>25897.63747514138</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.09609332218</v>
+        <v>81900.94681154937</v>
       </c>
       <c r="B29">
-        <v>17378.11550933527</v>
+        <v>17469.45311220935</v>
       </c>
       <c r="C29">
-        <v>223128.4750712681</v>
+        <v>206897.9022154397</v>
       </c>
       <c r="D29">
-        <v>33185.47622781609</v>
+        <v>30687.90287404974</v>
       </c>
       <c r="E29">
-        <v>113487.6502912263</v>
+        <v>105221.8770303479</v>
       </c>
       <c r="F29">
-        <v>65409.33603653558</v>
+        <v>77322.66307039671</v>
       </c>
       <c r="G29">
-        <v>3649.915446472644</v>
+        <v>3904.342334071601</v>
       </c>
       <c r="H29">
-        <v>81901.09609332218</v>
+        <v>81900.94681154937</v>
       </c>
       <c r="I29">
-        <v>342239</v>
+        <v>370064</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>240506.5905806033</v>
+        <v>224367.355327649</v>
       </c>
       <c r="O29">
-        <v>146673.1265190424</v>
+        <v>135909.7799043977</v>
       </c>
       <c r="P29">
-        <v>69059.25148300822</v>
+        <v>81227.00540446831</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65572.03539180104</v>
+        <v>65572.04467589021</v>
       </c>
       <c r="B30">
-        <v>14708.82458202273</v>
+        <v>14073.74486531891</v>
       </c>
       <c r="C30">
-        <v>177182.8357153028</v>
+        <v>176417.6473419385</v>
       </c>
       <c r="D30">
-        <v>26768.06324272381</v>
+        <v>25212.05243535439</v>
       </c>
       <c r="E30">
-        <v>85954.13320652649</v>
+        <v>84307.2483690247</v>
       </c>
       <c r="F30">
-        <v>50049.98994221747</v>
+        <v>54181.48707718108</v>
       </c>
       <c r="G30">
-        <v>2398.653876922919</v>
+        <v>3245.871353442169</v>
       </c>
       <c r="H30">
-        <v>65572.03539180104</v>
+        <v>65572.04467589021</v>
       </c>
       <c r="I30">
-        <v>308032</v>
+        <v>332971</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>191891.6602973255</v>
+        <v>190491.3922072574</v>
       </c>
       <c r="O30">
-        <v>112722.1964492503</v>
+        <v>109519.3008043791</v>
       </c>
       <c r="P30">
-        <v>52448.64381914039</v>
+        <v>57427.35843062325</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.89994684697</v>
+        <v>90327.89785420396</v>
       </c>
       <c r="B31">
-        <v>19823.95769714808</v>
+        <v>19039.72794528262</v>
       </c>
       <c r="C31">
-        <v>239886.7076908503</v>
+        <v>227345.6530180465</v>
       </c>
       <c r="D31">
-        <v>34116.21021201662</v>
+        <v>30516.52219449296</v>
       </c>
       <c r="E31">
-        <v>114538.4968445537</v>
+        <v>99038.87453161871</v>
       </c>
       <c r="F31">
-        <v>81036.76909261401</v>
+        <v>80557.88016995702</v>
       </c>
       <c r="G31">
-        <v>4393.013415265515</v>
+        <v>3738.214913317593</v>
       </c>
       <c r="H31">
-        <v>90327.89994684697</v>
+        <v>90327.89785420396</v>
       </c>
       <c r="I31">
-        <v>406012</v>
+        <v>407741</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>259710.6653879984</v>
+        <v>246385.3809633291</v>
       </c>
       <c r="O31">
-        <v>148654.7070565703</v>
+        <v>129555.3967261117</v>
       </c>
       <c r="P31">
-        <v>85429.78250787951</v>
+        <v>84296.09508327462</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.97306278552</v>
+        <v>36451.1068263563</v>
       </c>
       <c r="B32">
-        <v>7450.863963090937</v>
+        <v>8133.882097202786</v>
       </c>
       <c r="C32">
-        <v>92685.07740696269</v>
+        <v>97338.48664585858</v>
       </c>
       <c r="D32">
-        <v>13047.72654018226</v>
+        <v>15059.07507004673</v>
       </c>
       <c r="E32">
-        <v>44818.87675224071</v>
+        <v>49122.96974525639</v>
       </c>
       <c r="F32">
-        <v>31384.49978939166</v>
+        <v>29274.05844253272</v>
       </c>
       <c r="G32">
-        <v>1573.834649369233</v>
+        <v>1450.567463151843</v>
       </c>
       <c r="H32">
-        <v>36450.97306278552</v>
+        <v>36451.1068263563</v>
       </c>
       <c r="I32">
-        <v>170518</v>
+        <v>168015</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>100135.9413700536</v>
+        <v>105472.3687430614</v>
       </c>
       <c r="O32">
-        <v>57866.60329242298</v>
+        <v>64182.04481530312</v>
       </c>
       <c r="P32">
-        <v>32958.3344387609</v>
+        <v>30724.62590568456</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.90880543166</v>
+        <v>22121.066472546</v>
       </c>
       <c r="B33">
-        <v>4790.557175586983</v>
+        <v>4614.398265107803</v>
       </c>
       <c r="C33">
-        <v>58318.87119168544</v>
+        <v>56938.3912029182</v>
       </c>
       <c r="D33">
-        <v>8299.921556056042</v>
+        <v>8578.399900982176</v>
       </c>
       <c r="E33">
-        <v>28260.47710609593</v>
+        <v>27729.73433282227</v>
       </c>
       <c r="F33">
-        <v>20635.46149670839</v>
+        <v>17852.14083039481</v>
       </c>
       <c r="G33">
-        <v>1088.924119833742</v>
+        <v>848.1380244606759</v>
       </c>
       <c r="H33">
-        <v>22120.90880543166</v>
+        <v>22121.066472546</v>
       </c>
       <c r="I33">
-        <v>103101</v>
+        <v>100038</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>63109.42836727242</v>
+        <v>61552.78946802601</v>
       </c>
       <c r="O33">
-        <v>36560.39866215197</v>
+        <v>36308.13423380445</v>
       </c>
       <c r="P33">
-        <v>21724.38561654213</v>
+        <v>18700.27885485549</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.93515768637</v>
+        <v>26864.06832500201</v>
       </c>
       <c r="B34">
-        <v>5650.042064921056</v>
+        <v>5795.481916612281</v>
       </c>
       <c r="C34">
-        <v>70932.20159824622</v>
+        <v>69421.97100905908</v>
       </c>
       <c r="D34">
-        <v>10421.99906564201</v>
+        <v>9939.442316930847</v>
       </c>
       <c r="E34">
-        <v>33595.97851079214</v>
+        <v>34295.24362739522</v>
       </c>
       <c r="F34">
-        <v>23077.23465017931</v>
+        <v>22757.10697894169</v>
       </c>
       <c r="G34">
-        <v>1253.770583654491</v>
+        <v>1082.838550741653</v>
       </c>
       <c r="H34">
-        <v>26863.93515768637</v>
+        <v>26864.06832500201</v>
       </c>
       <c r="I34">
-        <v>124534</v>
+        <v>121324</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>76582.24366316728</v>
+        <v>75217.45292567136</v>
       </c>
       <c r="O34">
-        <v>44017.97757643415</v>
+        <v>44234.68594432606</v>
       </c>
       <c r="P34">
-        <v>24331.00523383381</v>
+        <v>23839.94552968335</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0806955114377</v>
+        <v>454.0044056589705</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1266.117071651778</v>
+        <v>1303.421127489712</v>
       </c>
       <c r="D35">
-        <v>173.3758339436602</v>
+        <v>165.2997037126391</v>
       </c>
       <c r="E35">
-        <v>562.4732424045037</v>
+        <v>528.0017914640187</v>
       </c>
       <c r="F35">
-        <v>387.9160759958491</v>
+        <v>394.2203958551156</v>
       </c>
       <c r="G35">
-        <v>19.60217413231338</v>
+        <v>21.8261969970987</v>
       </c>
       <c r="H35">
-        <v>454.0806955114377</v>
+        <v>454.0044056589705</v>
       </c>
       <c r="I35">
-        <v>2198</v>
+        <v>2145</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1266.117071651778</v>
+        <v>1303.421127489712</v>
       </c>
       <c r="O35">
-        <v>735.849076348164</v>
+        <v>693.3014951766578</v>
       </c>
       <c r="P35">
-        <v>407.5182501281625</v>
+        <v>416.0465928522143</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9360380931097</v>
+        <v>505.0346266909751</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1447.115919375999</v>
+        <v>1494.449479014477</v>
       </c>
       <c r="D36">
-        <v>191.0895173322033</v>
+        <v>192.5111093808401</v>
       </c>
       <c r="E36">
-        <v>661.072099519242</v>
+        <v>679.227303281722</v>
       </c>
       <c r="F36">
-        <v>429.9518289962544</v>
+        <v>482.1549559430641</v>
       </c>
       <c r="G36">
-        <v>23.72900167837737</v>
+        <v>27.54035290879144</v>
       </c>
       <c r="H36">
-        <v>504.9360380931097</v>
+        <v>505.0346266909751</v>
       </c>
       <c r="I36">
-        <v>2486</v>
+        <v>2322</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1447.115919375999</v>
+        <v>1494.449479014477</v>
       </c>
       <c r="O36">
-        <v>852.1616168514454</v>
+        <v>871.7384126625622</v>
       </c>
       <c r="P36">
-        <v>453.6808306746318</v>
+        <v>509.6953088518555</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11107.95872950177</v>
+        <v>11108.04273025691</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>30815.26148152292</v>
+        <v>30900.80360573686</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>17905.91080498424</v>
+        <v>17411.3107148818</v>
       </c>
       <c r="F37">
-        <v>3561.810950780515</v>
+        <v>3836.336431513156</v>
       </c>
       <c r="G37">
-        <v>6256.894045108332</v>
+        <v>7045.854204607181</v>
       </c>
       <c r="H37">
-        <v>11107.95872950177</v>
+        <v>11108.04273025691</v>
       </c>
       <c r="I37">
-        <v>55114</v>
+        <v>60281</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>30815.26148152292</v>
+        <v>30900.80360573686</v>
       </c>
       <c r="O37">
-        <v>17905.91080498424</v>
+        <v>17411.3107148818</v>
       </c>
       <c r="P37">
-        <v>9818.704995888847</v>
+        <v>10882.19063612034</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.909476201743</v>
+        <v>1090.943791400694</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3075.373947198381</v>
+        <v>3101.636368779329</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1695.779934192241</v>
+        <v>1670.642425671837</v>
       </c>
       <c r="F38">
-        <v>329.0986076671978</v>
+        <v>325.7401138137486</v>
       </c>
       <c r="G38">
-        <v>620.758166794919</v>
+        <v>588.5918271484151</v>
       </c>
       <c r="H38">
-        <v>1090.909476201743</v>
+        <v>1090.943791400694</v>
       </c>
       <c r="I38">
-        <v>5588</v>
+        <v>5494</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3075.373947198381</v>
+        <v>3101.636368779329</v>
       </c>
       <c r="O38">
-        <v>1695.779934192241</v>
+        <v>1670.642425671837</v>
       </c>
       <c r="P38">
-        <v>949.8567744621169</v>
+        <v>914.3319409621636</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9538503258</v>
+        <v>153571.9049243672</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>418587.5532497113</v>
+        <v>430634.5901513862</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>246753.028154697</v>
+        <v>239849.2665291481</v>
       </c>
       <c r="F39">
-        <v>43871.3300388428</v>
+        <v>44582.48472874177</v>
       </c>
       <c r="G39">
-        <v>81277.52863126445</v>
+        <v>89760.37225614399</v>
       </c>
       <c r="H39">
-        <v>153571.9538503258</v>
+        <v>153571.9049243672</v>
       </c>
       <c r="I39">
-        <v>784628</v>
+        <v>797745</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>418587.5532497113</v>
+        <v>430634.5901513862</v>
       </c>
       <c r="O39">
-        <v>246753.028154697</v>
+        <v>239849.2665291481</v>
       </c>
       <c r="P39">
-        <v>125148.8586701073</v>
+        <v>134342.8569848858</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.8958935427</v>
+        <v>152868.9155914579</v>
       </c>
       <c r="B40">
-        <v>25841.54366631141</v>
+        <v>28415.7041626778</v>
       </c>
       <c r="C40">
-        <v>394571.7992099064</v>
+        <v>398943.5418446707</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>248578.506353058</v>
+        <v>241037.4629354435</v>
       </c>
       <c r="F40">
-        <v>43853.21690441768</v>
+        <v>44790.9163327855</v>
       </c>
       <c r="G40">
-        <v>79647.62663955074</v>
+        <v>83485.38750796681</v>
       </c>
       <c r="H40">
-        <v>152868.8958935427</v>
+        <v>152868.9155914579</v>
       </c>
       <c r="I40">
-        <v>732248</v>
+        <v>790796</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>420413.3428762178</v>
+        <v>427359.2460073485</v>
       </c>
       <c r="O40">
-        <v>248578.506353058</v>
+        <v>241037.4629354435</v>
       </c>
       <c r="P40">
-        <v>123500.8435439684</v>
+        <v>128276.3038407523</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339432.9454055731</v>
+        <v>339433.0083880957</v>
       </c>
       <c r="B41">
-        <v>57725.81462695264</v>
+        <v>56692.32848667612</v>
       </c>
       <c r="C41">
-        <v>912672.6098626104</v>
+        <v>876917.8989546129</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>549091.4878996777</v>
+        <v>526189.8733904396</v>
       </c>
       <c r="F41">
-        <v>95873.40937430209</v>
+        <v>107518.0869602445</v>
       </c>
       <c r="G41">
-        <v>181586.8141065512</v>
+        <v>198006.25232446</v>
       </c>
       <c r="H41">
-        <v>339432.9454055731</v>
+        <v>339433.0083880957</v>
       </c>
       <c r="I41">
-        <v>1670360</v>
+        <v>1625715</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>970398.424489563</v>
+        <v>933610.227441289</v>
       </c>
       <c r="O41">
-        <v>549091.4878996777</v>
+        <v>526189.8733904396</v>
       </c>
       <c r="P41">
-        <v>277460.2234808533</v>
+        <v>305524.3392847045</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.0232480616</v>
+        <v>245458.9800127274</v>
       </c>
       <c r="B42">
-        <v>41976.67312828935</v>
+        <v>42070.05732798828</v>
       </c>
       <c r="C42">
-        <v>666111.6830580656</v>
+        <v>662897.3536874899</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>365467.8840977784</v>
+        <v>414437.7756877233</v>
       </c>
       <c r="F42">
-        <v>78159.20120703353</v>
+        <v>68018.39750664023</v>
       </c>
       <c r="G42">
-        <v>139463.8345120025</v>
+        <v>134090.5991323239</v>
       </c>
       <c r="H42">
-        <v>245459.0232480616</v>
+        <v>245458.9800127274</v>
       </c>
       <c r="I42">
-        <v>1098066</v>
+        <v>1224965</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>708088.356186355</v>
+        <v>704967.4110154782</v>
       </c>
       <c r="O42">
-        <v>365467.8840977784</v>
+        <v>414437.7756877233</v>
       </c>
       <c r="P42">
-        <v>217623.0357190361</v>
+        <v>202108.9966389642</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.9421161789</v>
+        <v>367626.8951701337</v>
       </c>
       <c r="B43">
-        <v>56451.5785616412</v>
+        <v>66113.17611517894</v>
       </c>
       <c r="C43">
-        <v>944648.8028871121</v>
+        <v>992628.7007674209</v>
       </c>
       <c r="D43">
-        <v>69627.40890569442</v>
+        <v>74837.06698053572</v>
       </c>
       <c r="E43">
-        <v>504690.4652869081</v>
+        <v>497651.5437799644</v>
       </c>
       <c r="F43">
-        <v>118101.6928359005</v>
+        <v>121244.1721940827</v>
       </c>
       <c r="G43">
-        <v>221836.9343323141</v>
+        <v>227478.8558510782</v>
       </c>
       <c r="H43">
-        <v>367626.9421161789</v>
+        <v>367626.8951701337</v>
       </c>
       <c r="I43">
-        <v>1708721</v>
+        <v>1721712</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1001100.381448753</v>
+        <v>1058741.8768826</v>
       </c>
       <c r="O43">
-        <v>574317.8741926025</v>
+        <v>572488.6107605002</v>
       </c>
       <c r="P43">
-        <v>339938.6271682147</v>
+        <v>348723.0280451609</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470397.0478706906</v>
+        <v>470396.9603452865</v>
       </c>
       <c r="B44">
-        <v>86403.22063349845</v>
+        <v>88576.90406225729</v>
       </c>
       <c r="C44">
-        <v>1270034.219215106</v>
+        <v>1259204.69308998</v>
       </c>
       <c r="D44">
-        <v>113116.9096212014</v>
+        <v>107382.4669205453</v>
       </c>
       <c r="E44">
-        <v>764896.2350517233</v>
+        <v>687423.5951984553</v>
       </c>
       <c r="F44">
-        <v>149160.1944575832</v>
+        <v>131738.5619241112</v>
       </c>
       <c r="G44">
-        <v>274542.1720403039</v>
+        <v>256392.2857305539</v>
       </c>
       <c r="H44">
-        <v>470397.0478706906</v>
+        <v>470396.9603452865</v>
       </c>
       <c r="I44">
-        <v>2267858</v>
+        <v>2380536</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1356437.439848604</v>
+        <v>1347781.597152237</v>
       </c>
       <c r="O44">
-        <v>878013.1446729247</v>
+        <v>794806.0621190006</v>
       </c>
       <c r="P44">
-        <v>423702.3664978871</v>
+        <v>388130.8476546651</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9345157753</v>
+        <v>307102.8973102137</v>
       </c>
       <c r="B45">
-        <v>53049.29987869608</v>
+        <v>53596.58118938593</v>
       </c>
       <c r="C45">
-        <v>818975.988701908</v>
+        <v>810627.2701853493</v>
       </c>
       <c r="D45">
-        <v>71091.21008182281</v>
+        <v>67006.92315830859</v>
       </c>
       <c r="E45">
-        <v>481737.9035371142</v>
+        <v>446630.6013748238</v>
       </c>
       <c r="F45">
-        <v>95053.00826702159</v>
+        <v>90674.31817769322</v>
       </c>
       <c r="G45">
-        <v>168972.271304177</v>
+        <v>165870.7403380249</v>
       </c>
       <c r="H45">
-        <v>307102.9345157753</v>
+        <v>307102.8973102137</v>
       </c>
       <c r="I45">
-        <v>1467642</v>
+        <v>1439522</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>872025.2885806041</v>
+        <v>864223.8513747352</v>
       </c>
       <c r="O45">
-        <v>552829.113618937</v>
+        <v>513637.5245331324</v>
       </c>
       <c r="P45">
-        <v>264025.2795711986</v>
+        <v>256545.0585157182</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327915.0971968271</v>
+        <v>327914.9110245018</v>
       </c>
       <c r="B46">
-        <v>58764.85055142792</v>
+        <v>59648.67727857309</v>
       </c>
       <c r="C46">
-        <v>880626.1284708182</v>
+        <v>888750.5801035536</v>
       </c>
       <c r="D46">
-        <v>68694.65661929896</v>
+        <v>72550.69001767121</v>
       </c>
       <c r="E46">
-        <v>440219.901886476</v>
+        <v>486538.872719636</v>
       </c>
       <c r="F46">
-        <v>98777.95831583157</v>
+        <v>99511.89937398728</v>
       </c>
       <c r="G46">
-        <v>183889.8475166228</v>
+        <v>171934.2755004952</v>
       </c>
       <c r="H46">
-        <v>327915.0971968271</v>
+        <v>327914.9110245018</v>
       </c>
       <c r="I46">
-        <v>1542534</v>
+        <v>1559396</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>939390.9790222461</v>
+        <v>948399.2573821266</v>
       </c>
       <c r="O46">
-        <v>508914.558505775</v>
+        <v>559089.5627373072</v>
       </c>
       <c r="P46">
-        <v>282667.8058324544</v>
+        <v>271446.1748744825</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.104398021</v>
+        <v>659114.0141333005</v>
       </c>
       <c r="B47">
-        <v>117139.4812942876</v>
+        <v>112397.6844365516</v>
       </c>
       <c r="C47">
-        <v>1827634.214654586</v>
+        <v>1757714.598271576</v>
       </c>
       <c r="D47">
-        <v>145281.2207832579</v>
+        <v>141769.5671203378</v>
       </c>
       <c r="E47">
-        <v>990915.8481579005</v>
+        <v>952102.1986944199</v>
       </c>
       <c r="F47">
-        <v>222495.1498538907</v>
+        <v>186699.0224820883</v>
       </c>
       <c r="G47">
-        <v>389992.0183498118</v>
+        <v>362082.1340603828</v>
       </c>
       <c r="H47">
-        <v>659114.104398021</v>
+        <v>659114.0141333005</v>
       </c>
       <c r="I47">
-        <v>3054216</v>
+        <v>3342732</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1944773.695948874</v>
+        <v>1870112.282708128</v>
       </c>
       <c r="O47">
-        <v>1136197.068941159</v>
+        <v>1093871.765814758</v>
       </c>
       <c r="P47">
-        <v>612487.1682037024</v>
+        <v>548781.1565424711</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195931.0302115976</v>
+        <v>195930.9564491742</v>
       </c>
       <c r="B48">
-        <v>34021.07614533892</v>
+        <v>30849.03679521252</v>
       </c>
       <c r="C48">
-        <v>533625.6141381972</v>
+        <v>522732.9944160172</v>
       </c>
       <c r="D48">
-        <v>39697.49255465359</v>
+        <v>40273.25813154259</v>
       </c>
       <c r="E48">
-        <v>264342.837680307</v>
+        <v>266862.6093516051</v>
       </c>
       <c r="F48">
-        <v>71091.57656869327</v>
+        <v>60448.60108611425</v>
       </c>
       <c r="G48">
-        <v>123205.0417677913</v>
+        <v>109944.0351731689</v>
       </c>
       <c r="H48">
-        <v>195931.0302115976</v>
+        <v>195930.9564491742</v>
       </c>
       <c r="I48">
-        <v>935559</v>
+        <v>945489</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>567646.6902835361</v>
+        <v>553582.0312112297</v>
       </c>
       <c r="O48">
-        <v>304040.3302349606</v>
+        <v>307135.8674831477</v>
       </c>
       <c r="P48">
-        <v>194296.6183364845</v>
+        <v>170392.6362592832</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174400.0681266725</v>
+        <v>174399.9303844258</v>
       </c>
       <c r="B49">
-        <v>31488.07875513554</v>
+        <v>29709.00920837343</v>
       </c>
       <c r="C49">
-        <v>462379.1580246331</v>
+        <v>457341.7827446561</v>
       </c>
       <c r="D49">
-        <v>38957.35139623973</v>
+        <v>37437.76429804733</v>
       </c>
       <c r="E49">
-        <v>256539.3691411033</v>
+        <v>247413.4515422065</v>
       </c>
       <c r="F49">
-        <v>56796.89391837865</v>
+        <v>59194.96783247029</v>
       </c>
       <c r="G49">
-        <v>100482.2699876592</v>
+        <v>105626.9441748</v>
       </c>
       <c r="H49">
-        <v>174400.0681266725</v>
+        <v>174399.9303844258</v>
       </c>
       <c r="I49">
-        <v>836933</v>
+        <v>819030</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>493867.2367797687</v>
+        <v>487050.7919530296</v>
       </c>
       <c r="O49">
-        <v>295496.720537343</v>
+        <v>284851.2158402539</v>
       </c>
       <c r="P49">
-        <v>157279.1639060378</v>
+        <v>164821.9120072703</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.03202321186</v>
+        <v>60248.08310937287</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>168939.6891789335</v>
+        <v>168822.725550554</v>
       </c>
       <c r="D50">
-        <v>12588.90768177964</v>
+        <v>12362.19074725898</v>
       </c>
       <c r="E50">
-        <v>83286.71953107315</v>
+        <v>86944.16470305776</v>
       </c>
       <c r="F50">
-        <v>20108.61136872172</v>
+        <v>18019.155231717</v>
       </c>
       <c r="G50">
-        <v>36681.27976484213</v>
+        <v>34733.08183132397</v>
       </c>
       <c r="H50">
-        <v>60248.03202321186</v>
+        <v>60248.08310937287</v>
       </c>
       <c r="I50">
-        <v>299601</v>
+        <v>296998</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>168939.6891789335</v>
+        <v>168822.725550554</v>
       </c>
       <c r="O50">
-        <v>95875.62721285279</v>
+        <v>99306.35545031674</v>
       </c>
       <c r="P50">
-        <v>56789.89113356385</v>
+        <v>52752.23706304097</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.069904913788</v>
+        <v>8460.988638407434</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23936.55309685079</v>
+        <v>23901.2844909663</v>
       </c>
       <c r="D51">
-        <v>1838.809370079587</v>
+        <v>1740.362599681172</v>
       </c>
       <c r="E51">
-        <v>12213.2587960655</v>
+        <v>11307.62474818454</v>
       </c>
       <c r="F51">
-        <v>2876.908736801937</v>
+        <v>2766.557734089507</v>
       </c>
       <c r="G51">
-        <v>5313.222647189171</v>
+        <v>5090.379910082828</v>
       </c>
       <c r="H51">
-        <v>8461.069904913788</v>
+        <v>8460.988638407434</v>
       </c>
       <c r="I51">
-        <v>42324</v>
+        <v>42515</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23936.55309685079</v>
+        <v>23901.2844909663</v>
       </c>
       <c r="O51">
-        <v>14052.06816614509</v>
+        <v>13047.98734786571</v>
       </c>
       <c r="P51">
-        <v>8190.131383991108</v>
+        <v>7856.937644172334</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.906336131917</v>
+        <v>2463.008729743595</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7529.044074013179</v>
+        <v>7568.0228794404</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1090.700577156696</v>
+        <v>1303.835766158279</v>
       </c>
       <c r="F52">
-        <v>1.045532227444221</v>
+        <v>3.019058097577376</v>
       </c>
       <c r="G52">
-        <v>5.805276477861261</v>
+        <v>16.53904452475596</v>
       </c>
       <c r="H52">
-        <v>2462.906336131917</v>
+        <v>2463.008729743595</v>
       </c>
       <c r="I52">
-        <v>11913</v>
+        <v>11652</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7529.044074013179</v>
+        <v>7568.0228794404</v>
       </c>
       <c r="O52">
-        <v>1090.700577156696</v>
+        <v>1303.835766158279</v>
       </c>
       <c r="P52">
-        <v>6.850808705305482</v>
+        <v>19.55810262233333</v>
       </c>
       <c r="Q52">
-        <v>20.28358010520193</v>
+        <v>19.72337466080026</v>
       </c>
       <c r="R52">
-        <v>44.35000659887809</v>
+        <v>43.79162450757114</v>
       </c>
       <c r="S52">
-        <v>64.63358670408002</v>
+        <v>63.5149991683714</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.042711347186</v>
+        <v>3704.032424829247</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11814.46551012535</v>
+        <v>11567.15418432345</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1870.57897676677</v>
+        <v>1670.557900404104</v>
       </c>
       <c r="F53">
-        <v>1.330036332338656</v>
+        <v>1.862427657444526</v>
       </c>
       <c r="G53">
-        <v>11.51392974148681</v>
+        <v>10.05708984036097</v>
       </c>
       <c r="H53">
-        <v>3704.042711347186</v>
+        <v>3704.032424829247</v>
       </c>
       <c r="I53">
-        <v>17061</v>
+        <v>16858</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11814.46551012535</v>
+        <v>11567.15418432345</v>
       </c>
       <c r="O53">
-        <v>1870.57897676677</v>
+        <v>1670.557900404104</v>
       </c>
       <c r="P53">
-        <v>12.84396607382547</v>
+        <v>11.9195174978055</v>
       </c>
       <c r="Q53">
-        <v>25.14719469664848</v>
+        <v>30.91233170403735</v>
       </c>
       <c r="R53">
-        <v>78.76496658544994</v>
+        <v>83.25805164467214</v>
       </c>
       <c r="S53">
-        <v>103.9121612820984</v>
+        <v>114.1703833487095</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.8901177589</v>
+        <v>169754.1031315217</v>
       </c>
       <c r="B54">
-        <v>44219.36278814326</v>
+        <v>42416.00272144156</v>
       </c>
       <c r="C54">
-        <v>521015.3390660692</v>
+        <v>494901.072187072</v>
       </c>
       <c r="D54">
-        <v>6191.091673404049</v>
+        <v>5660.858482129379</v>
       </c>
       <c r="E54">
-        <v>71345.52932334806</v>
+        <v>81001.10275200658</v>
       </c>
       <c r="F54">
-        <v>226.0716492509571</v>
+        <v>52.48965460035062</v>
       </c>
       <c r="G54">
-        <v>703.0875721743115</v>
+        <v>222.9568426697688</v>
       </c>
       <c r="H54">
-        <v>169753.8901177589</v>
+        <v>169754.1031315217</v>
       </c>
       <c r="I54">
-        <v>718983</v>
+        <v>699676</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>565234.7018542124</v>
+        <v>537317.0749085136</v>
       </c>
       <c r="O54">
-        <v>77536.62099675211</v>
+        <v>86661.96123413596</v>
       </c>
       <c r="P54">
-        <v>929.1592214252686</v>
+        <v>275.4464972701194</v>
       </c>
       <c r="Q54">
-        <v>1074.983557107134</v>
+        <v>1596.888230470234</v>
       </c>
       <c r="R54">
-        <v>2838.642352486663</v>
+        <v>3746.448296916786</v>
       </c>
       <c r="S54">
-        <v>3913.625909593797</v>
+        <v>5343.33652738702</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.9395645711</v>
+        <v>301000.89339267</v>
       </c>
       <c r="B55">
-        <v>72678.91793516588</v>
+        <v>67549.28777275754</v>
       </c>
       <c r="C55">
-        <v>889738.6739155537</v>
+        <v>858198.0242280344</v>
       </c>
       <c r="D55">
-        <v>11572.043331576</v>
+        <v>10560.8166682739</v>
       </c>
       <c r="E55">
-        <v>143869.2669446321</v>
+        <v>134562.2500709608</v>
       </c>
       <c r="F55">
-        <v>224.5488231994027</v>
+        <v>541.3414361269843</v>
       </c>
       <c r="G55">
-        <v>465.3557761183427</v>
+        <v>1669.685178371508</v>
       </c>
       <c r="H55">
-        <v>301000.9395645711</v>
+        <v>301000.89339267</v>
       </c>
       <c r="I55">
-        <v>1312816</v>
+        <v>1281199</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>962417.5918507197</v>
+        <v>925747.312000792</v>
       </c>
       <c r="O55">
-        <v>155441.310276208</v>
+        <v>145123.0667392347</v>
       </c>
       <c r="P55">
-        <v>689.9045993177455</v>
+        <v>2211.026614498493</v>
       </c>
       <c r="Q55">
-        <v>2067.65251687074</v>
+        <v>2982.732131246504</v>
       </c>
       <c r="R55">
-        <v>6036.098206172624</v>
+        <v>6277.090020855971</v>
       </c>
       <c r="S55">
-        <v>8103.750723043364</v>
+        <v>9259.822152102475</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.8858161119</v>
+        <v>485904.1128798322</v>
       </c>
       <c r="B56">
-        <v>123327.9887469558</v>
+        <v>120003.4148644319</v>
       </c>
       <c r="C56">
-        <v>1484871.603011089</v>
+        <v>1439130.038748878</v>
       </c>
       <c r="D56">
-        <v>17332.37931628435</v>
+        <v>17650.24495648506</v>
       </c>
       <c r="E56">
-        <v>217604.9725612518</v>
+        <v>221308.5055695635</v>
       </c>
       <c r="F56">
-        <v>443.1801124535489</v>
+        <v>544.265474267698</v>
       </c>
       <c r="G56">
-        <v>1598.119284862652</v>
+        <v>1344.382328474385</v>
       </c>
       <c r="H56">
-        <v>485903.8858161119</v>
+        <v>485904.1128798322</v>
       </c>
       <c r="I56">
-        <v>2007034</v>
+        <v>2085153</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1608199.591758044</v>
+        <v>1559133.45361331</v>
       </c>
       <c r="O56">
-        <v>234937.3518775362</v>
+        <v>238958.7505260486</v>
       </c>
       <c r="P56">
-        <v>2041.299397316201</v>
+        <v>1888.647802742083</v>
       </c>
       <c r="Q56">
-        <v>4335.642323294448</v>
+        <v>3540.127170830594</v>
       </c>
       <c r="R56">
-        <v>10116.4031724764</v>
+        <v>11101.81741625119</v>
       </c>
       <c r="S56">
-        <v>14452.04549577085</v>
+        <v>14641.94458708178</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757270.9172673901</v>
+        <v>757271.0201493714</v>
       </c>
       <c r="B57">
-        <v>196500.3534546871</v>
+        <v>180877.6308849929</v>
       </c>
       <c r="C57">
-        <v>2213354.775504137</v>
+        <v>2225828.733735668</v>
       </c>
       <c r="D57">
-        <v>22622.22533866497</v>
+        <v>26145.46286582824</v>
       </c>
       <c r="E57">
-        <v>319225.4580462365</v>
+        <v>308131.2503371658</v>
       </c>
       <c r="F57">
-        <v>871.93016591786</v>
+        <v>308.2817601164903</v>
       </c>
       <c r="G57">
-        <v>3864.58735132197</v>
+        <v>2527.296202139138</v>
       </c>
       <c r="H57">
-        <v>757270.9172673901</v>
+        <v>757271.0201493714</v>
       </c>
       <c r="I57">
-        <v>3339335</v>
+        <v>3199631</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2409855.128958824</v>
+        <v>2406706.36462066</v>
       </c>
       <c r="O57">
-        <v>341847.6833849015</v>
+        <v>334276.713202994</v>
       </c>
       <c r="P57">
-        <v>4736.51751723983</v>
+        <v>2835.577962255628</v>
       </c>
       <c r="Q57">
-        <v>5626.127624648827</v>
+        <v>5557.435038895289</v>
       </c>
       <c r="R57">
-        <v>17572.85118335362</v>
+        <v>15898.57337216129</v>
       </c>
       <c r="S57">
-        <v>23198.97880800245</v>
+        <v>21456.00841105657</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.030759825</v>
+        <v>651328.9052129423</v>
       </c>
       <c r="B58">
-        <v>158709.0944862251</v>
+        <v>158916.1391979715</v>
       </c>
       <c r="C58">
-        <v>1954817.245946017</v>
+        <v>1933257.628645675</v>
       </c>
       <c r="D58">
-        <v>22467.32264740456</v>
+        <v>23420.27912507083</v>
       </c>
       <c r="E58">
-        <v>275323.0378702168</v>
+        <v>277430.980686117</v>
       </c>
       <c r="F58">
-        <v>508.7982086122389</v>
+        <v>334.3625390131246</v>
       </c>
       <c r="G58">
-        <v>2867.292323834313</v>
+        <v>1390.456374427418</v>
       </c>
       <c r="H58">
-        <v>651329.030759825</v>
+        <v>651328.9052129423</v>
       </c>
       <c r="I58">
-        <v>2853868</v>
+        <v>2620441</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2113526.340432242</v>
+        <v>2092173.767843646</v>
       </c>
       <c r="O58">
-        <v>297790.3605176213</v>
+        <v>300851.2598111879</v>
       </c>
       <c r="P58">
-        <v>3376.090532446552</v>
+        <v>1724.818913440542</v>
       </c>
       <c r="Q58">
-        <v>4757.994309452285</v>
+        <v>4783.69129580436</v>
       </c>
       <c r="R58">
-        <v>12514.85663973709</v>
+        <v>12487.07099166482</v>
       </c>
       <c r="S58">
-        <v>17272.85094918938</v>
+        <v>17270.76228746918</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.038319873</v>
+        <v>889112.087565219</v>
       </c>
       <c r="B59">
-        <v>221370.2713899525</v>
+        <v>219422.9795625057</v>
       </c>
       <c r="C59">
-        <v>2589857.337562279</v>
+        <v>2679116.362553433</v>
       </c>
       <c r="D59">
-        <v>25756.74338749554</v>
+        <v>32002.34111360723</v>
       </c>
       <c r="E59">
-        <v>365271.4620023922</v>
+        <v>377689.9589352061</v>
       </c>
       <c r="F59">
-        <v>677.3263644126357</v>
+        <v>1754.478844596107</v>
       </c>
       <c r="G59">
-        <v>2726.661644760348</v>
+        <v>4114.586714188191</v>
       </c>
       <c r="H59">
-        <v>889112.038319873</v>
+        <v>889112.087565219</v>
       </c>
       <c r="I59">
-        <v>3851300</v>
+        <v>3875296</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2811227.608952231</v>
+        <v>2898539.342115939</v>
       </c>
       <c r="O59">
-        <v>391028.2053898877</v>
+        <v>409692.3000488133</v>
       </c>
       <c r="P59">
-        <v>3403.988009172984</v>
+        <v>5869.065558784298</v>
       </c>
       <c r="Q59">
-        <v>5569.847489186955</v>
+        <v>6600.382576780985</v>
       </c>
       <c r="R59">
-        <v>14902.75072630597</v>
+        <v>23027.55713352026</v>
       </c>
       <c r="S59">
-        <v>20472.59821549293</v>
+        <v>29627.93971030124</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465365.0983730654</v>
+        <v>465364.964925234</v>
       </c>
       <c r="B60">
-        <v>111161.573099739</v>
+        <v>109487.3604466511</v>
       </c>
       <c r="C60">
-        <v>1330591.565583038</v>
+        <v>1359734.296807631</v>
       </c>
       <c r="D60">
-        <v>16079.22354744267</v>
+        <v>14481.29502001919</v>
       </c>
       <c r="E60">
-        <v>218186.163857308</v>
+        <v>223196.1200840023</v>
       </c>
       <c r="F60">
-        <v>102.4126656228247</v>
+        <v>790.4216484678842</v>
       </c>
       <c r="G60">
-        <v>1239.020223271171</v>
+        <v>1641.220430885372</v>
       </c>
       <c r="H60">
-        <v>465365.0983730654</v>
+        <v>465364.964925234</v>
       </c>
       <c r="I60">
-        <v>1983468</v>
+        <v>1900048</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1441753.138682777</v>
+        <v>1469221.657254282</v>
       </c>
       <c r="O60">
-        <v>234265.3874047507</v>
+        <v>237677.4151040215</v>
       </c>
       <c r="P60">
-        <v>1341.432888893996</v>
+        <v>2431.642079353257</v>
       </c>
       <c r="Q60">
-        <v>3653.192683179083</v>
+        <v>4716.627516227453</v>
       </c>
       <c r="R60">
-        <v>11266.68448310445</v>
+        <v>9590.829267743327</v>
       </c>
       <c r="S60">
-        <v>14919.87716628354</v>
+        <v>14307.45678397078</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9762667521</v>
+        <v>340623.9881393527</v>
       </c>
       <c r="B61">
-        <v>79267.12917133515</v>
+        <v>83973.90537436488</v>
       </c>
       <c r="C61">
-        <v>959291.6522135943</v>
+        <v>994151.3635192165</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>162480.8234749108</v>
+        <v>145275.1398604153</v>
       </c>
       <c r="F61">
-        <v>106.847700782736</v>
+        <v>129.6809743798122</v>
       </c>
       <c r="G61">
-        <v>885.5188816288444</v>
+        <v>688.5355743263979</v>
       </c>
       <c r="H61">
-        <v>340623.9762667521</v>
+        <v>340623.9881393527</v>
       </c>
       <c r="I61">
-        <v>1385397</v>
+        <v>1465360</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1038558.781384929</v>
+        <v>1078125.268893581</v>
       </c>
       <c r="O61">
-        <v>162480.8234749108</v>
+        <v>145275.1398604153</v>
       </c>
       <c r="P61">
-        <v>992.3665824115803</v>
+        <v>818.21654870621</v>
       </c>
       <c r="Q61">
-        <v>2081.512918905858</v>
+        <v>2217.612654670055</v>
       </c>
       <c r="R61">
-        <v>5886.839853035848</v>
+        <v>6318.484768611163</v>
       </c>
       <c r="S61">
-        <v>7968.352771941707</v>
+        <v>8536.097423281219</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.0844083853</v>
+        <v>469690.9665668501</v>
       </c>
       <c r="B62">
-        <v>112595.445928464</v>
+        <v>116695.3963826592</v>
       </c>
       <c r="C62">
-        <v>1382143.089430327</v>
+        <v>1383698.828023115</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>238671.6614013711</v>
+        <v>210624.6215161254</v>
       </c>
       <c r="F62">
-        <v>285.2905853498602</v>
+        <v>196.6461545153374</v>
       </c>
       <c r="G62">
-        <v>1053.972641214933</v>
+        <v>2127.14498824021</v>
       </c>
       <c r="H62">
-        <v>469691.0844083853</v>
+        <v>469690.9665668501</v>
       </c>
       <c r="I62">
-        <v>1927244</v>
+        <v>2052283</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1494738.535358791</v>
+        <v>1500394.224405774</v>
       </c>
       <c r="O62">
-        <v>238671.6614013711</v>
+        <v>210624.6215161254</v>
       </c>
       <c r="P62">
-        <v>1339.263226564793</v>
+        <v>2323.791142755548</v>
       </c>
       <c r="Q62">
-        <v>3456.901461270823</v>
+        <v>2224.133533570849</v>
       </c>
       <c r="R62">
-        <v>9405.014745605209</v>
+        <v>7441.289303390005</v>
       </c>
       <c r="S62">
-        <v>12861.91620687603</v>
+        <v>9665.422836960854</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.04598999156</v>
+        <v>20457.03637813987</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>61573.18645432783</v>
+        <v>60722.09419512</v>
       </c>
       <c r="D63">
-        <v>663.4582058440415</v>
+        <v>799.8124166243473</v>
       </c>
       <c r="E63">
-        <v>8117.356419876831</v>
+        <v>9064.799001949205</v>
       </c>
       <c r="F63">
-        <v>9.854384492869576</v>
+        <v>5.742046572524644</v>
       </c>
       <c r="G63">
-        <v>68.36645156017147</v>
+        <v>61.39946064649971</v>
       </c>
       <c r="H63">
-        <v>20457.04598999156</v>
+        <v>20457.03637813987</v>
       </c>
       <c r="I63">
-        <v>92252</v>
+        <v>94583</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>61573.18645432783</v>
+        <v>60722.09419512</v>
       </c>
       <c r="O63">
-        <v>8780.814625720872</v>
+        <v>9864.611418573551</v>
       </c>
       <c r="P63">
-        <v>78.22083605304104</v>
+        <v>67.14150721902436</v>
       </c>
       <c r="Q63">
-        <v>121.7726716239856</v>
+        <v>105.5622069993949</v>
       </c>
       <c r="R63">
-        <v>344.5450336522526</v>
+        <v>427.2094976475897</v>
       </c>
       <c r="S63">
-        <v>466.3177052762382</v>
+        <v>532.7717046469846</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.08976564534</v>
+        <v>20631.05745347451</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>61835.0226570315</v>
+        <v>62930.81050051759</v>
       </c>
       <c r="D64">
-        <v>578.9448629982858</v>
+        <v>544.8318261366039</v>
       </c>
       <c r="E64">
-        <v>8847.103381674049</v>
+        <v>7577.521321952979</v>
       </c>
       <c r="F64">
-        <v>7.390068851840146</v>
+        <v>17.2884336285837</v>
       </c>
       <c r="G64">
-        <v>58.56910332678814</v>
+        <v>94.52049045176946</v>
       </c>
       <c r="H64">
-        <v>20631.08976564534</v>
+        <v>20631.05745347451</v>
       </c>
       <c r="I64">
-        <v>93938</v>
+        <v>96123</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>61835.0226570315</v>
+        <v>62930.81050051759</v>
       </c>
       <c r="O64">
-        <v>9426.048244672335</v>
+        <v>8122.353148089583</v>
       </c>
       <c r="P64">
-        <v>65.95917217862828</v>
+        <v>111.8089240803532</v>
       </c>
       <c r="Q64">
-        <v>101.8803447542362</v>
+        <v>91.32223708570213</v>
       </c>
       <c r="R64">
-        <v>383.0156847435334</v>
+        <v>356.2212975577306</v>
       </c>
       <c r="S64">
-        <v>484.8960294977696</v>
+        <v>447.5435346434327</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.896489259392</v>
+        <v>1767.954960889307</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5479.774349764556</v>
+        <v>5667.252884643475</v>
       </c>
       <c r="D65">
-        <v>51.71433306670229</v>
+        <v>68.45199331366611</v>
       </c>
       <c r="E65">
-        <v>663.9157611395331</v>
+        <v>852.4815514925022</v>
       </c>
       <c r="F65">
-        <v>0.3401567812862531</v>
+        <v>1.929643119191784</v>
       </c>
       <c r="G65">
-        <v>5.596169433738319</v>
+        <v>6.313552834764244</v>
       </c>
       <c r="H65">
-        <v>1767.896489259392</v>
+        <v>1767.954960889307</v>
       </c>
       <c r="I65">
-        <v>8440</v>
+        <v>7902</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5479.774349764556</v>
+        <v>5667.252884643475</v>
       </c>
       <c r="O65">
-        <v>715.6300942062353</v>
+        <v>920.9335448061682</v>
       </c>
       <c r="P65">
-        <v>5.936326215024572</v>
+        <v>8.243195953956029</v>
       </c>
       <c r="Q65">
-        <v>8.607456931371685</v>
+        <v>9.406296258412302</v>
       </c>
       <c r="R65">
-        <v>36.50571495616168</v>
+        <v>31.31431335120175</v>
       </c>
       <c r="S65">
-        <v>45.11317188753336</v>
+        <v>40.72060960961406</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0272942370739</v>
+        <v>123.101673395785</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>396.5381288969975</v>
+        <v>374.8887929860402</v>
       </c>
       <c r="D66">
-        <v>2.819993843747446</v>
+        <v>3.406649227722575</v>
       </c>
       <c r="E66">
-        <v>49.4198776205659</v>
+        <v>55.46607189042857</v>
       </c>
       <c r="F66">
-        <v>0.1192336190125346</v>
+        <v>0.1096777093427871</v>
       </c>
       <c r="G66">
-        <v>0.3951902631184014</v>
+        <v>0.6392811443873447</v>
       </c>
       <c r="H66">
-        <v>123.0272942370739</v>
+        <v>123.101673395785</v>
       </c>
       <c r="I66">
-        <v>607</v>
+        <v>525</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>396.5381288969975</v>
+        <v>374.8887929860402</v>
       </c>
       <c r="O66">
-        <v>52.23987146431335</v>
+        <v>58.87272111815115</v>
       </c>
       <c r="P66">
-        <v>0.5144238821309359</v>
+        <v>0.7489588537301318</v>
       </c>
       <c r="Q66">
-        <v>0.5910996641299862</v>
+        <v>0.967731543177125</v>
       </c>
       <c r="R66">
-        <v>2.779473535793516</v>
+        <v>2.4463561621714</v>
       </c>
       <c r="S66">
-        <v>3.370573199923502</v>
+        <v>3.414087705348525</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>202.9408037562237</v>
+        <v>203.1567625327811</v>
       </c>
       <c r="B67">
-        <v>43.39967980672338</v>
+        <v>43.85656208707295</v>
       </c>
       <c r="C67">
-        <v>323.9424730535307</v>
+        <v>314.337128932065</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>127.0972923572268</v>
+        <v>125.0850515466402</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>202.9408037562237</v>
+        <v>203.1567625327811</v>
       </c>
       <c r="I67">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>367.342152860254</v>
+        <v>358.193691019138</v>
       </c>
       <c r="O67">
-        <v>127.0972923572268</v>
+        <v>125.0850515466402</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.339416530929355</v>
+        <v>1.953958064143182</v>
       </c>
       <c r="R67">
-        <v>12.02677878130429</v>
+        <v>15.9065231250318</v>
       </c>
       <c r="S67">
-        <v>13.36619531223365</v>
+        <v>17.86048118917498</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>262.0746741505411</v>
+        <v>261.8607034799701</v>
       </c>
       <c r="B68">
-        <v>60.15583340890264</v>
+        <v>62.68654540888653</v>
       </c>
       <c r="C68">
-        <v>426.5610931232425</v>
+        <v>417.5087658537835</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>149.9741587789792</v>
+        <v>176.4827967859997</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>262.0746741505411</v>
+        <v>261.8607034799701</v>
       </c>
       <c r="I68">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>486.7169265321451</v>
+        <v>480.1953112626701</v>
       </c>
       <c r="O68">
-        <v>149.9741587789792</v>
+        <v>176.4827967859997</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.878951891078482</v>
+        <v>1.977538438256873</v>
       </c>
       <c r="R68">
-        <v>16.86553520307182</v>
+        <v>16.79085533528346</v>
       </c>
       <c r="S68">
-        <v>18.7444870941503</v>
+        <v>18.76839377354033</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.144501139353</v>
+        <v>2406.035779167133</v>
       </c>
       <c r="B69">
-        <v>547.3173868260875</v>
+        <v>568.0562472067579</v>
       </c>
       <c r="C69">
-        <v>3842.900306204033</v>
+        <v>3860.590798140875</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1556.294879678305</v>
+        <v>1421.569794293092</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.144501139353</v>
+        <v>2406.035779167133</v>
       </c>
       <c r="I69">
-        <v>7521</v>
+        <v>7590</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4390.217693030121</v>
+        <v>4428.647045347633</v>
       </c>
       <c r="O69">
-        <v>1556.294879678305</v>
+        <v>1421.569794293092</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>15.26857572111999</v>
+        <v>15.72136406743764</v>
       </c>
       <c r="R69">
-        <v>157.7215839890467</v>
+        <v>165.0413559731449</v>
       </c>
       <c r="S69">
-        <v>172.9901597101667</v>
+        <v>180.7627200405825</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.851048238273</v>
+        <v>1502.919519374698</v>
       </c>
       <c r="B70">
-        <v>363.6181479001518</v>
+        <v>346.1397147328396</v>
       </c>
       <c r="C70">
-        <v>2448.4792233989</v>
+        <v>2404.207334895669</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>959.935003598833</v>
+        <v>838.4199252571314</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.851048238273</v>
+        <v>1502.919519374698</v>
       </c>
       <c r="I70">
-        <v>4948</v>
+        <v>4848</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2812.097371299052</v>
+        <v>2750.347049628508</v>
       </c>
       <c r="O70">
-        <v>959.935003598833</v>
+        <v>838.4199252571314</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>9.533729332984258</v>
+        <v>7.265544402502662</v>
       </c>
       <c r="R70">
-        <v>85.456898710799</v>
+        <v>85.45572332245138</v>
       </c>
       <c r="S70">
-        <v>94.99062804378326</v>
+        <v>92.72126772495403</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.12016162635</v>
+        <v>19901.093405112</v>
       </c>
       <c r="B71">
-        <v>4417.833219584952</v>
+        <v>4562.329047772765</v>
       </c>
       <c r="C71">
-        <v>31637.37477712098</v>
+        <v>31358.96405306815</v>
       </c>
       <c r="D71">
-        <v>681.7024595057903</v>
+        <v>576.4709042094434</v>
       </c>
       <c r="E71">
-        <v>11670.57828180709</v>
+        <v>10985.72599124102</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.12016162635</v>
+        <v>19901.093405112</v>
       </c>
       <c r="I71">
-        <v>61786</v>
+        <v>61251</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36055.20799670593</v>
+        <v>35921.29310084091</v>
       </c>
       <c r="O71">
-        <v>12352.28074131288</v>
+        <v>11562.19689545046</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>131.904316608822</v>
+        <v>126.3701350149763</v>
       </c>
       <c r="R71">
-        <v>1087.872899916689</v>
+        <v>1377.380398422685</v>
       </c>
       <c r="S71">
-        <v>1219.777216525511</v>
+        <v>1503.750533437662</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.02047729473</v>
+        <v>41982.02573581927</v>
       </c>
       <c r="B72">
-        <v>9924.717438328864</v>
+        <v>9568.317416939328</v>
       </c>
       <c r="C72">
-        <v>66135.72088176561</v>
+        <v>68495.84598247941</v>
       </c>
       <c r="D72">
-        <v>1458.902128073715</v>
+        <v>1682.685677958534</v>
       </c>
       <c r="E72">
-        <v>22077.86690191138</v>
+        <v>27087.33066235137</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.02047729473</v>
+        <v>41982.02573581927</v>
       </c>
       <c r="I72">
-        <v>130049</v>
+        <v>137645</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>76060.43832009447</v>
+        <v>78064.16339941874</v>
       </c>
       <c r="O72">
-        <v>23536.76902998509</v>
+        <v>28770.01634030991</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>284.7243931565575</v>
+        <v>265.4479810570238</v>
       </c>
       <c r="R72">
-        <v>3356.273400499968</v>
+        <v>3108.536042607254</v>
       </c>
       <c r="S72">
-        <v>3640.997793656525</v>
+        <v>3373.984023664278</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.85990863208</v>
+        <v>44205.15162613765</v>
       </c>
       <c r="B73">
-        <v>10516.1303606145</v>
+        <v>10311.08779376215</v>
       </c>
       <c r="C73">
-        <v>72260.08949821246</v>
+        <v>70548.7046037542</v>
       </c>
       <c r="D73">
-        <v>1457.036518476429</v>
+        <v>1656.224826639099</v>
       </c>
       <c r="E73">
-        <v>24371.78455776168</v>
+        <v>27173.25862406644</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.85990863208</v>
+        <v>44205.15162613765</v>
       </c>
       <c r="I73">
-        <v>142015</v>
+        <v>144534</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>82776.21985882695</v>
+        <v>80859.79239751634</v>
       </c>
       <c r="O73">
-        <v>25828.82107623811</v>
+        <v>28829.48345070554</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>364.0985522172258</v>
+        <v>268.7710569535729</v>
       </c>
       <c r="R73">
-        <v>2791.049344106076</v>
+        <v>3130.619522010748</v>
       </c>
       <c r="S73">
-        <v>3155.147896323302</v>
+        <v>3399.39057896432</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78746.0302344964</v>
+        <v>78745.96485955149</v>
       </c>
       <c r="B74">
-        <v>18139.15304552993</v>
+        <v>17593.67850636488</v>
       </c>
       <c r="C74">
-        <v>127704.1830396959</v>
+        <v>123768.1413753126</v>
       </c>
       <c r="D74">
-        <v>2757.764645224002</v>
+        <v>2281.24105326369</v>
       </c>
       <c r="E74">
-        <v>46349.37498480282</v>
+        <v>40666.94210008338</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78746.0302344964</v>
+        <v>78745.96485955149</v>
       </c>
       <c r="I74">
-        <v>261171</v>
+        <v>263117</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>145843.3360852258</v>
+        <v>141361.8198816775</v>
       </c>
       <c r="O74">
-        <v>49107.13963002682</v>
+        <v>42948.18315334707</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>398.3189140435516</v>
+        <v>481.0008177662602</v>
       </c>
       <c r="R74">
-        <v>5638.507123390476</v>
+        <v>4946.086003648021</v>
       </c>
       <c r="S74">
-        <v>6036.826037434028</v>
+        <v>5427.086821414281</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38059.89561272188</v>
+        <v>38060.09415130897</v>
       </c>
       <c r="B75">
-        <v>8433.858084540569</v>
+        <v>8308.971228834962</v>
       </c>
       <c r="C75">
-        <v>61712.03170925045</v>
+        <v>61162.36464574173</v>
       </c>
       <c r="D75">
-        <v>1295.291166658402</v>
+        <v>1366.322957034639</v>
       </c>
       <c r="E75">
-        <v>20840.30474521349</v>
+        <v>20862.9338713169</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38059.89561272188</v>
+        <v>38060.09415130897</v>
       </c>
       <c r="I75">
-        <v>123691</v>
+        <v>123163</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>70145.88979379102</v>
+        <v>69471.33587457669</v>
       </c>
       <c r="O75">
-        <v>22135.59591187189</v>
+        <v>22229.25682835154</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>226.5294710702533</v>
+        <v>337.3733154281709</v>
       </c>
       <c r="R75">
-        <v>2423.942035236295</v>
+        <v>2646.272300652837</v>
       </c>
       <c r="S75">
-        <v>2650.471506306548</v>
+        <v>2983.645616081008</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.92153158711</v>
+        <v>79351.14917463074</v>
       </c>
       <c r="B76">
-        <v>18374.49456974847</v>
+        <v>18420.12163894463</v>
       </c>
       <c r="C76">
-        <v>127387.5837972406</v>
+        <v>128792.472503073</v>
       </c>
       <c r="D76">
-        <v>2702.9742384614</v>
+        <v>3053.139902249982</v>
       </c>
       <c r="E76">
-        <v>50904.91369430961</v>
+        <v>49508.92951733417</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.92153158711</v>
+        <v>79351.14917463074</v>
       </c>
       <c r="I76">
-        <v>263984</v>
+        <v>256351</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>145762.0783669891</v>
+        <v>147212.5941420176</v>
       </c>
       <c r="O76">
-        <v>53607.88793277101</v>
+        <v>52562.06941958415</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>476.4814131013249</v>
+        <v>809.083700453018</v>
       </c>
       <c r="R76">
-        <v>4833.276100329153</v>
+        <v>5944.090200683629</v>
       </c>
       <c r="S76">
-        <v>5309.757513430477</v>
+        <v>6753.173901136646</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.99523878397</v>
+        <v>45067.9698142725</v>
       </c>
       <c r="B77">
-        <v>10070.2216240269</v>
+        <v>10251.01132028715</v>
       </c>
       <c r="C77">
-        <v>71192.67953319015</v>
+        <v>73008.85917123733</v>
       </c>
       <c r="D77">
-        <v>1591.548362093447</v>
+        <v>1259.774919132393</v>
       </c>
       <c r="E77">
-        <v>27979.48215649541</v>
+        <v>23540.28435666853</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.99523878397</v>
+        <v>45067.9698142725</v>
       </c>
       <c r="I77">
-        <v>146866</v>
+        <v>142984</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>81262.90115721706</v>
+        <v>83259.87049152449</v>
       </c>
       <c r="O77">
-        <v>29571.03051858886</v>
+        <v>24800.05927580092</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>292.4220949454798</v>
+        <v>252.9025110934325</v>
       </c>
       <c r="R77">
-        <v>2740.777470181464</v>
+        <v>2517.12830587134</v>
       </c>
       <c r="S77">
-        <v>3033.199565126944</v>
+        <v>2770.030816964772</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14294.85633292886</v>
+        <v>14294.96440030356</v>
       </c>
       <c r="B78">
-        <v>3465.901304833329</v>
+        <v>3222.257591412255</v>
       </c>
       <c r="C78">
-        <v>22654.02683302747</v>
+        <v>22513.88438902682</v>
       </c>
       <c r="D78">
-        <v>510.3975407324147</v>
+        <v>456.9451503762785</v>
       </c>
       <c r="E78">
-        <v>8370.755571920252</v>
+        <v>8059.340681239292</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14294.85633292886</v>
+        <v>14294.96440030356</v>
       </c>
       <c r="I78">
-        <v>44421</v>
+        <v>47367</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26119.9281378608</v>
+        <v>25736.14198043908</v>
       </c>
       <c r="O78">
-        <v>8881.153112652666</v>
+        <v>8516.285831615571</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>75.81577893455425</v>
+        <v>96.16159676536545</v>
       </c>
       <c r="R78">
-        <v>841.4836065503877</v>
+        <v>973.7649327103403</v>
       </c>
       <c r="S78">
-        <v>917.2993854849419</v>
+        <v>1069.926529475706</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27737.91466623623</v>
+        <v>27738.03856906615</v>
       </c>
       <c r="B79">
-        <v>6452.854741756012</v>
+        <v>6399.527526403853</v>
       </c>
       <c r="C79">
-        <v>44556.98797392433</v>
+        <v>44906.70184648744</v>
       </c>
       <c r="D79">
-        <v>788.0551692659917</v>
+        <v>993.4827492630082</v>
       </c>
       <c r="E79">
-        <v>14488.00442027578</v>
+        <v>17794.48870995216</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27737.91466623623</v>
+        <v>27738.03856906615</v>
       </c>
       <c r="I79">
-        <v>90133</v>
+        <v>89256</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>51009.84271568034</v>
+        <v>51306.22937289129</v>
       </c>
       <c r="O79">
-        <v>15276.05958954177</v>
+        <v>18787.97145921517</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>286.5604863079961</v>
+        <v>212.1614298192966</v>
       </c>
       <c r="R79">
-        <v>2136.990612448893</v>
+        <v>1621.544013462757</v>
       </c>
       <c r="S79">
-        <v>2423.551098756889</v>
+        <v>1833.705443282053</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2819.860391670669</v>
+        <v>2820.134876753586</v>
       </c>
       <c r="B80">
-        <v>654.8821902463253</v>
+        <v>616.8281709728483</v>
       </c>
       <c r="C80">
-        <v>4535.743349967512</v>
+        <v>4488.707184471677</v>
       </c>
       <c r="D80">
-        <v>84.95888166310033</v>
+        <v>82.80193399408063</v>
       </c>
       <c r="E80">
-        <v>1415.59909714269</v>
+        <v>1353.071228304312</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2819.860391670669</v>
+        <v>2820.134876753586</v>
       </c>
       <c r="I80">
-        <v>9069</v>
+        <v>9143</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5190.625540213837</v>
+        <v>5105.535355444525</v>
       </c>
       <c r="O80">
-        <v>1500.55797880579</v>
+        <v>1435.873162298392</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>19.52731958675439</v>
+        <v>26.55628491431113</v>
       </c>
       <c r="R80">
-        <v>181.0699903377547</v>
+        <v>228.6243101710211</v>
       </c>
       <c r="S80">
-        <v>200.5973099245091</v>
+        <v>255.1805950853323</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3591.012130209372</v>
+        <v>3591.031331820137</v>
       </c>
       <c r="B81">
-        <v>837.1847161033868</v>
+        <v>795.1953980899311</v>
       </c>
       <c r="C81">
-        <v>5723.995061004915</v>
+        <v>5644.039890509319</v>
       </c>
       <c r="D81">
-        <v>121.8484104782219</v>
+        <v>120.1640499106354</v>
       </c>
       <c r="E81">
-        <v>2250.56679499256</v>
+        <v>2007.592841406821</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3591.012130209372</v>
+        <v>3591.031331820137</v>
       </c>
       <c r="I81">
-        <v>11765</v>
+        <v>12006</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6561.179777108302</v>
+        <v>6439.23528859925</v>
       </c>
       <c r="O81">
-        <v>2372.415205470782</v>
+        <v>2127.756891317457</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>21.16909617716892</v>
+        <v>20.50413569347802</v>
       </c>
       <c r="R81">
-        <v>229.7064061911553</v>
+        <v>214.3720608840898</v>
       </c>
       <c r="S81">
-        <v>250.8755023683242</v>
+        <v>234.8761965775678</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.864410266564</v>
+        <v>1155.948253624392</v>
       </c>
       <c r="B82">
-        <v>274.9639934072239</v>
+        <v>275.6104257419925</v>
       </c>
       <c r="C82">
-        <v>1894.480076157862</v>
+        <v>1907.876306653737</v>
       </c>
       <c r="D82">
-        <v>42.71389199577681</v>
+        <v>39.94218974281554</v>
       </c>
       <c r="E82">
-        <v>724.254009699769</v>
+        <v>692.1953291270776</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.864410266564</v>
+        <v>1155.948253624392</v>
       </c>
       <c r="I82">
-        <v>3733</v>
+        <v>3628</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2169.444069565086</v>
+        <v>2183.486732395729</v>
       </c>
       <c r="O82">
-        <v>766.9679016955458</v>
+        <v>732.1375188698931</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>6.447344560560951</v>
+        <v>8.829981534398755</v>
       </c>
       <c r="R82">
-        <v>75.58082651075804</v>
+        <v>70.06000540323674</v>
       </c>
       <c r="S82">
-        <v>82.02817107131899</v>
+        <v>78.8899869376355</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13238.06526382905</v>
+        <v>13237.94173826474</v>
       </c>
       <c r="B83">
-        <v>1945.191924507769</v>
+        <v>1927.218404045897</v>
       </c>
       <c r="C83">
-        <v>22340.04078155205</v>
+        <v>21832.84774600544</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>7664.984052012667</v>
+        <v>7877.41872212949</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13238.06526382905</v>
+        <v>13237.94173826474</v>
       </c>
       <c r="I83">
-        <v>42219</v>
+        <v>42070</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24285.23270605982</v>
+        <v>23760.06615005133</v>
       </c>
       <c r="O83">
-        <v>7664.984052012667</v>
+        <v>7877.41872212949</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>13.87876553947421</v>
+        <v>15.67012358874787</v>
       </c>
       <c r="R83">
-        <v>948.3422344757076</v>
+        <v>942.1019596589269</v>
       </c>
       <c r="S83">
-        <v>962.2210000151819</v>
+        <v>957.7720832476748</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6787.982815684774</v>
+        <v>6787.99593392283</v>
       </c>
       <c r="B84">
-        <v>1024.177780656712</v>
+        <v>911.9540825719636</v>
       </c>
       <c r="C84">
-        <v>11358.81393347369</v>
+        <v>11515.49456340917</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4315.249530904112</v>
+        <v>4046.064008178099</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6787.982815684774</v>
+        <v>6787.99593392283</v>
       </c>
       <c r="I84">
-        <v>22515</v>
+        <v>20491</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12382.99171413041</v>
+        <v>12427.44864598113</v>
       </c>
       <c r="O84">
-        <v>4315.249530904112</v>
+        <v>4046.064008178099</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>4.589277661903718</v>
+        <v>2.549391264564611</v>
       </c>
       <c r="R84">
-        <v>499.7571494811507</v>
+        <v>454.1170906322041</v>
       </c>
       <c r="S84">
-        <v>504.3464271430544</v>
+        <v>456.6664818967687</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1507.909614603712</v>
+        <v>1508.040574100761</v>
       </c>
       <c r="B85">
-        <v>229.0802761360751</v>
+        <v>228.987171447196</v>
       </c>
       <c r="C85">
-        <v>2650.962002124262</v>
+        <v>2541.305056245456</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>984.0627933031198</v>
+        <v>927.7040093702099</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1507.909614603712</v>
+        <v>1508.040574100761</v>
       </c>
       <c r="I85">
-        <v>4825</v>
+        <v>4716</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2880.042278260337</v>
+        <v>2770.292227692652</v>
       </c>
       <c r="O85">
-        <v>984.0627933031198</v>
+        <v>927.7040093702099</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.9026566274247455</v>
+        <v>1.567473953534049</v>
       </c>
       <c r="R85">
-        <v>109.0424627350611</v>
+        <v>104.5700161944603</v>
       </c>
       <c r="S85">
-        <v>109.9451193624858</v>
+        <v>106.1374901479943</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.89301531866</v>
+        <v>25212.89830178721</v>
       </c>
       <c r="B86">
-        <v>3817.862174648933</v>
+        <v>3798.367827197217</v>
       </c>
       <c r="C86">
-        <v>41077.2804843405</v>
+        <v>42677.40132778815</v>
       </c>
       <c r="D86">
-        <v>534.0890406912197</v>
+        <v>697.4903213745018</v>
       </c>
       <c r="E86">
-        <v>14185.77939012519</v>
+        <v>15321.44683392249</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.89301531866</v>
+        <v>25212.89830178721</v>
       </c>
       <c r="I86">
-        <v>77951</v>
+        <v>78698</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>44895.14265898943</v>
+        <v>46475.76915498537</v>
       </c>
       <c r="O86">
-        <v>14719.86843081641</v>
+        <v>16018.93715529699</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>38.76539057933004</v>
+        <v>15.11013602742358</v>
       </c>
       <c r="R86">
-        <v>2074.76658017956</v>
+        <v>2021.557802980063</v>
       </c>
       <c r="S86">
-        <v>2113.53197075889</v>
+        <v>2036.667939007487</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.015580259496</v>
+        <v>6443.848844444099</v>
       </c>
       <c r="B87">
-        <v>884.9382437499476</v>
+        <v>910.0698500886801</v>
       </c>
       <c r="C87">
-        <v>10582.39283460628</v>
+        <v>10837.10388123844</v>
       </c>
       <c r="D87">
-        <v>153.7230983291203</v>
+        <v>140.3510789246708</v>
       </c>
       <c r="E87">
-        <v>3884.060120098149</v>
+        <v>3443.469475836898</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.015580259496</v>
+        <v>6443.848844444099</v>
       </c>
       <c r="I87">
-        <v>20047</v>
+        <v>20110</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11467.33107835623</v>
+        <v>11747.17373132712</v>
       </c>
       <c r="O87">
-        <v>4037.783218427269</v>
+        <v>3583.820554761569</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>9.312319256593126</v>
+        <v>8.550807413175587</v>
       </c>
       <c r="R87">
-        <v>502.3575646981277</v>
+        <v>389.9517637340818</v>
       </c>
       <c r="S87">
-        <v>511.6698839547208</v>
+        <v>398.5025711472574</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55703.89174657441</v>
+        <v>55703.86348752515</v>
       </c>
       <c r="B88">
-        <v>7389.389398446299</v>
+        <v>7659.433256101147</v>
       </c>
       <c r="C88">
-        <v>92949.78675173117</v>
+        <v>94315.95498886728</v>
       </c>
       <c r="D88">
-        <v>1647.067389024146</v>
+        <v>1458.772939806026</v>
       </c>
       <c r="E88">
-        <v>33523.80152455992</v>
+        <v>33815.56932636169</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55703.89174657441</v>
+        <v>55703.86348752515</v>
       </c>
       <c r="I88">
-        <v>174343</v>
+        <v>179735</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>100339.1761501775</v>
+        <v>101975.3882449684</v>
       </c>
       <c r="O88">
-        <v>35170.86891358406</v>
+        <v>35274.34226616772</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32.07853593820449</v>
+        <v>21.0516175506671</v>
       </c>
       <c r="R88">
-        <v>4485.474715459005</v>
+        <v>4224.569939288319</v>
       </c>
       <c r="S88">
-        <v>4517.553251397209</v>
+        <v>4245.621556838986</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.0524198425</v>
+        <v>201455.8649435743</v>
       </c>
       <c r="B89">
-        <v>27664.21133149199</v>
+        <v>29470.33454919082</v>
       </c>
       <c r="C89">
-        <v>348040.1523257645</v>
+        <v>343132.6613366628</v>
       </c>
       <c r="D89">
-        <v>4943.056452263987</v>
+        <v>4950.628038449077</v>
       </c>
       <c r="E89">
-        <v>123687.4918750384</v>
+        <v>107109.090987226</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.0524198425</v>
+        <v>201455.8649435743</v>
       </c>
       <c r="I89">
-        <v>629904</v>
+        <v>615698</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>375704.3636572565</v>
+        <v>372602.9958858537</v>
       </c>
       <c r="O89">
-        <v>128630.5483273024</v>
+        <v>112059.7190256751</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36.23047782196694</v>
+        <v>125.5204523666985</v>
       </c>
       <c r="R89">
-        <v>12661.6934097675</v>
+        <v>16196.05157750832</v>
       </c>
       <c r="S89">
-        <v>12697.92388758946</v>
+        <v>16321.57202987502</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15486.09426464335</v>
+        <v>15485.90602793494</v>
       </c>
       <c r="B90">
-        <v>2093.384704348453</v>
+        <v>2286.236017705542</v>
       </c>
       <c r="C90">
-        <v>25787.81558742498</v>
+        <v>26790.55211555895</v>
       </c>
       <c r="D90">
-        <v>350.8974235363396</v>
+        <v>472.1697982707028</v>
       </c>
       <c r="E90">
-        <v>8851.162077584935</v>
+        <v>9783.477365840145</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15486.09426464335</v>
+        <v>15485.90602793494</v>
       </c>
       <c r="I90">
-        <v>49234</v>
+        <v>49252</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>27881.20029177343</v>
+        <v>29076.78813326449</v>
       </c>
       <c r="O90">
-        <v>9202.059501121275</v>
+        <v>10255.64716411085</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.495094061117555</v>
+        <v>5.91787487571676</v>
       </c>
       <c r="R90">
-        <v>1385.843849634732</v>
+        <v>1366.515379932318</v>
       </c>
       <c r="S90">
-        <v>1387.338943695849</v>
+        <v>1372.433254808035</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.90079687417</v>
+        <v>14404.13794925692</v>
       </c>
       <c r="B91">
-        <v>2092.311203448454</v>
+        <v>2165.617247875275</v>
       </c>
       <c r="C91">
-        <v>24288.96552710931</v>
+        <v>24994.10082488524</v>
       </c>
       <c r="D91">
-        <v>362.6477366491083</v>
+        <v>350.374162535294</v>
       </c>
       <c r="E91">
-        <v>8952.325167669394</v>
+        <v>9046.406686846854</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.90079687417</v>
+        <v>14404.13794925692</v>
       </c>
       <c r="I91">
-        <v>45397</v>
+        <v>47075</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26381.27673055776</v>
+        <v>27159.71807276052</v>
       </c>
       <c r="O91">
-        <v>9314.972904318503</v>
+        <v>9396.780849382149</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>10.41169221319887</v>
+        <v>10.16300010708661</v>
       </c>
       <c r="R91">
-        <v>1049.421373421299</v>
+        <v>1053.741878980203</v>
       </c>
       <c r="S91">
-        <v>1059.833065634497</v>
+        <v>1063.90487908729</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.02707474503</v>
+        <v>46956.14876463099</v>
       </c>
       <c r="B92">
-        <v>6238.234160530324</v>
+        <v>6983.374366613993</v>
       </c>
       <c r="C92">
-        <v>78183.51241807727</v>
+        <v>78362.05251050576</v>
       </c>
       <c r="D92">
-        <v>1066.37449735226</v>
+        <v>940.7282527687428</v>
       </c>
       <c r="E92">
-        <v>27552.03825570808</v>
+        <v>24124.43568237179</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.02707474503</v>
+        <v>46956.14876463099</v>
       </c>
       <c r="I92">
-        <v>150224</v>
+        <v>149714</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>84421.74657860759</v>
+        <v>85345.42687711975</v>
       </c>
       <c r="O92">
-        <v>28618.41275306034</v>
+        <v>25065.16393514053</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>76.21527092895997</v>
+        <v>21.86089069038914</v>
       </c>
       <c r="R92">
-        <v>2863.998976139473</v>
+        <v>3113.325321678561</v>
       </c>
       <c r="S92">
-        <v>2940.214247068433</v>
+        <v>3135.18621236895</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24420.0713476869</v>
+        <v>24419.98046816155</v>
       </c>
       <c r="B93">
-        <v>3532.185978178767</v>
+        <v>3749.504348377451</v>
       </c>
       <c r="C93">
-        <v>41452.48560795894</v>
+        <v>39785.37521698332</v>
       </c>
       <c r="D93">
-        <v>563.4895819428335</v>
+        <v>604.0596914111014</v>
       </c>
       <c r="E93">
-        <v>13856.23284197563</v>
+        <v>13677.65237508859</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24420.0713476869</v>
+        <v>24419.98046816155</v>
       </c>
       <c r="I93">
-        <v>75591</v>
+        <v>80158</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44984.6715861377</v>
+        <v>43534.87956536077</v>
       </c>
       <c r="O93">
-        <v>14419.72242391846</v>
+        <v>14281.71206649969</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>13.56262967286996</v>
+        <v>41.35789974690871</v>
       </c>
       <c r="R93">
-        <v>1786.27219386243</v>
+        <v>1763.953804086166</v>
       </c>
       <c r="S93">
-        <v>1799.8348235353</v>
+        <v>1805.311703833075</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.93616633186</v>
+        <v>70372.02838150754</v>
       </c>
       <c r="B94">
-        <v>10427.48676197262</v>
+        <v>9486.581663613624</v>
       </c>
       <c r="C94">
-        <v>114666.140542489</v>
+        <v>116641.8629865766</v>
       </c>
       <c r="D94">
-        <v>1466.29510715197</v>
+        <v>1763.380427775043</v>
       </c>
       <c r="E94">
-        <v>37629.86976787624</v>
+        <v>45192.00484525337</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.93616633186</v>
+        <v>70372.02838150754</v>
       </c>
       <c r="I94">
-        <v>226971</v>
+        <v>235834</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>125093.6273044616</v>
+        <v>126128.4446501902</v>
       </c>
       <c r="O94">
-        <v>39096.16487502821</v>
+        <v>46955.38527302841</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37.9971014844086</v>
+        <v>26.16147065792145</v>
       </c>
       <c r="R94">
-        <v>4609.078573933153</v>
+        <v>4869.49246904736</v>
       </c>
       <c r="S94">
-        <v>4647.075675417562</v>
+        <v>4895.653939705281</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.905126585383</v>
+        <v>7573.952626184658</v>
       </c>
       <c r="B95">
-        <v>1107.157929221085</v>
+        <v>1110.430730038473</v>
       </c>
       <c r="C95">
-        <v>12813.28784661976</v>
+        <v>12323.46775719609</v>
       </c>
       <c r="D95">
-        <v>179.9101491159677</v>
+        <v>174.9491490409645</v>
       </c>
       <c r="E95">
-        <v>4125.65578110664</v>
+        <v>4208.985970686254</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.905126585383</v>
+        <v>7573.952626184658</v>
       </c>
       <c r="I95">
-        <v>23840</v>
+        <v>23544</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13920.44577584084</v>
+        <v>13433.89848723456</v>
       </c>
       <c r="O95">
-        <v>4305.565930222608</v>
+        <v>4383.935119727219</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>3.099915593779087</v>
+        <v>10.74397481644758</v>
       </c>
       <c r="R95">
-        <v>586.0202448281041</v>
+        <v>600.5411699201295</v>
       </c>
       <c r="S95">
-        <v>589.1201604218832</v>
+        <v>611.2851447365771</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.03110461528</v>
+        <v>45038.0479102596</v>
       </c>
       <c r="B96">
-        <v>6293.474834587784</v>
+        <v>6715.107053182323</v>
       </c>
       <c r="C96">
-        <v>72013.25712913035</v>
+        <v>76524.30064284657</v>
       </c>
       <c r="D96">
-        <v>1235.503106260796</v>
+        <v>1038.753323910091</v>
       </c>
       <c r="E96">
-        <v>27519.06873343405</v>
+        <v>26755.9222665693</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.03110461528</v>
+        <v>45038.0479102596</v>
       </c>
       <c r="I96">
-        <v>148593</v>
+        <v>146080</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>78306.73196371814</v>
+        <v>83239.4076960289</v>
       </c>
       <c r="O96">
-        <v>28754.57183969484</v>
+        <v>27794.67559047939</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>52.18987560430212</v>
+        <v>39.44385746602502</v>
       </c>
       <c r="R96">
-        <v>3129.781578904569</v>
+        <v>2868.408456075691</v>
       </c>
       <c r="S96">
-        <v>3181.971454508871</v>
+        <v>2907.852313541715</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.98900558331</v>
+        <v>10072.962399972</v>
       </c>
       <c r="B97">
-        <v>1452.603735828209</v>
+        <v>1512.946107730707</v>
       </c>
       <c r="C97">
-        <v>16898.00942790672</v>
+        <v>17018.84711368091</v>
       </c>
       <c r="D97">
-        <v>296.5410175461548</v>
+        <v>228.2154572777499</v>
       </c>
       <c r="E97">
-        <v>6119.198815757224</v>
+        <v>6476.02149522326</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.98900558331</v>
+        <v>10072.962399972</v>
       </c>
       <c r="I97">
-        <v>33418</v>
+        <v>32721</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18350.61316373493</v>
+        <v>18531.79322141161</v>
       </c>
       <c r="O97">
-        <v>6415.739833303379</v>
+        <v>6704.23695250101</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>3.279543567602479</v>
+        <v>12.69424929670984</v>
       </c>
       <c r="R97">
-        <v>768.9598116130603</v>
+        <v>613.2493928878995</v>
       </c>
       <c r="S97">
-        <v>772.2393551806628</v>
+        <v>625.9436421846093</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.9583915952</v>
+        <v>11376.07020262965</v>
       </c>
       <c r="B98">
-        <v>2174.668385009834</v>
+        <v>2109.515221935088</v>
       </c>
       <c r="C98">
-        <v>18648.00663283983</v>
+        <v>18220.12265229956</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6503.852096246855</v>
+        <v>6872.618421647159</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.9583915952</v>
+        <v>11376.07020262965</v>
       </c>
       <c r="I98">
-        <v>29915</v>
+        <v>30014</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20822.67501784967</v>
+        <v>20329.63787423465</v>
       </c>
       <c r="O98">
-        <v>6503.852096246855</v>
+        <v>6872.618421647159</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>100.8029784590223</v>
+        <v>86.42328753109743</v>
       </c>
       <c r="R98">
-        <v>701.3877743673576</v>
+        <v>669.0397222280735</v>
       </c>
       <c r="S98">
-        <v>802.1907528263798</v>
+        <v>755.463009759171</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1434.004361319207</v>
+        <v>1467.113139410933</v>
       </c>
       <c r="V98">
-        <v>1434.004361319207</v>
+        <v>1467.113139410933</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.87577607778</v>
+        <v>93358.84532385616</v>
       </c>
       <c r="B99">
-        <v>17614.34064886531</v>
+        <v>17420.77292818263</v>
       </c>
       <c r="C99">
-        <v>155666.0590576692</v>
+        <v>148676.1333965813</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>63695.43497761458</v>
+        <v>58471.66956596536</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.87577607778</v>
+        <v>93358.84532385616</v>
       </c>
       <c r="I99">
-        <v>262478</v>
+        <v>251185</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>173280.3997065345</v>
+        <v>166096.9063247639</v>
       </c>
       <c r="O99">
-        <v>63695.43497761458</v>
+        <v>58471.66956596536</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>667.1815985341555</v>
+        <v>921.9993826303838</v>
       </c>
       <c r="R99">
-        <v>5524.923617556737</v>
+        <v>5729.610940487261</v>
       </c>
       <c r="S99">
-        <v>6192.105216090892</v>
+        <v>6651.610323117644</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>13498.62941725768</v>
+        <v>12223.31363338954</v>
       </c>
       <c r="V99">
-        <v>13498.62941725768</v>
+        <v>12223.31363338954</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.17741107498</v>
+        <v>20817.09003275132</v>
       </c>
       <c r="B100">
-        <v>3834.950179273325</v>
+        <v>3987.903573179497</v>
       </c>
       <c r="C100">
-        <v>33576.03727217121</v>
+        <v>33574.50195456293</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>12319.81674038284</v>
+        <v>11675.30319323043</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.17741107498</v>
+        <v>20817.09003275132</v>
       </c>
       <c r="I100">
-        <v>56988</v>
+        <v>57694</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>37410.98745144454</v>
+        <v>37562.40552774242</v>
       </c>
       <c r="O100">
-        <v>12319.81674038284</v>
+        <v>11675.30319323043</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>197.875806778337</v>
+        <v>254.6227619852137</v>
       </c>
       <c r="R100">
-        <v>1563.93107368595</v>
+        <v>1304.498667668285</v>
       </c>
       <c r="S100">
-        <v>1761.806880464287</v>
+        <v>1559.121429653499</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>3077.192206083414</v>
+        <v>2543.715634762762</v>
       </c>
       <c r="V100">
-        <v>3077.192206083414</v>
+        <v>2543.715634762762</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.85611038129</v>
+        <v>43952.855681328</v>
       </c>
       <c r="B101">
-        <v>8348.63858155307</v>
+        <v>8637.409691133944</v>
       </c>
       <c r="C101">
-        <v>69168.16015966918</v>
+        <v>71372.94039033464</v>
       </c>
       <c r="D101">
-        <v>2111.656596540377</v>
+        <v>2305.52729985181</v>
       </c>
       <c r="E101">
-        <v>23767.19891632498</v>
+        <v>25296.07680704077</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.85611038129</v>
+        <v>43952.855681328</v>
       </c>
       <c r="I101">
-        <v>113021</v>
+        <v>121560</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>77516.79874122224</v>
+        <v>80010.35008146858</v>
       </c>
       <c r="O101">
-        <v>25878.85551286536</v>
+        <v>27601.60410689258</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>346.5293258506029</v>
+        <v>365.0351708694997</v>
       </c>
       <c r="R101">
-        <v>2997.584936479901</v>
+        <v>2700.449460675735</v>
       </c>
       <c r="S101">
-        <v>3344.114262330505</v>
+        <v>3065.484631545235</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>6251.615196027829</v>
+        <v>5672.672974618033</v>
       </c>
       <c r="V101">
-        <v>6251.615196027829</v>
+        <v>5672.672974618033</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.0696396681</v>
+        <v>103393.9965859135</v>
       </c>
       <c r="B102">
-        <v>20342.5172407844</v>
+        <v>19934.27147504244</v>
       </c>
       <c r="C102">
-        <v>170333.5265832854</v>
+        <v>170944.5907442763</v>
       </c>
       <c r="D102">
-        <v>5076.863858776473</v>
+        <v>5026.169927227522</v>
       </c>
       <c r="E102">
-        <v>55978.77027029774</v>
+        <v>54625.583662094</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.0696396681</v>
+        <v>103393.9965859135</v>
       </c>
       <c r="I102">
-        <v>278722</v>
+        <v>283282</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>190676.0438240698</v>
+        <v>190878.8622193188</v>
       </c>
       <c r="O102">
-        <v>61055.63412907421</v>
+        <v>59651.75358932152</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>856.4361053098642</v>
+        <v>770.6158068832634</v>
       </c>
       <c r="R102">
-        <v>7850.617325860362</v>
+        <v>7305.071775392971</v>
       </c>
       <c r="S102">
-        <v>8707.053431170227</v>
+        <v>8075.687582276235</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>15220.0827786917</v>
+        <v>16557.93165272323</v>
       </c>
       <c r="V102">
-        <v>15220.0827786917</v>
+        <v>16557.93165272323</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.07761581958</v>
+        <v>35337.07297362053</v>
       </c>
       <c r="B103">
-        <v>6626.779283625797</v>
+        <v>6900.030534394539</v>
       </c>
       <c r="C103">
-        <v>56970.28178626362</v>
+        <v>57234.60674571687</v>
       </c>
       <c r="D103">
-        <v>1816.246066782418</v>
+        <v>1805.089069402939</v>
       </c>
       <c r="E103">
-        <v>21507.4492066997</v>
+        <v>20324.78658816696</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.07761581958</v>
+        <v>35337.07297362053</v>
       </c>
       <c r="I103">
-        <v>98613</v>
+        <v>95176</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>63597.06106988942</v>
+        <v>64134.63728011141</v>
       </c>
       <c r="O103">
-        <v>23323.69527348212</v>
+        <v>22129.8756575699</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>313.1510082362422</v>
+        <v>405.7308702743455</v>
       </c>
       <c r="R103">
-        <v>2280.739914088162</v>
+        <v>2225.598224694913</v>
       </c>
       <c r="S103">
-        <v>2593.890922324405</v>
+        <v>2631.329094969258</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4918.252538391857</v>
+        <v>4728.116110664748</v>
       </c>
       <c r="V103">
-        <v>4918.252538391857</v>
+        <v>4728.116110664748</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122131.0354144934</v>
+        <v>122130.8492989291</v>
       </c>
       <c r="B104">
-        <v>24234.04211498713</v>
+        <v>24403.48585326658</v>
       </c>
       <c r="C104">
-        <v>204198.8334810487</v>
+        <v>200701.5074746239</v>
       </c>
       <c r="D104">
-        <v>6224.010322028923</v>
+        <v>5696.547993203079</v>
       </c>
       <c r="E104">
-        <v>70126.96040268282</v>
+        <v>60875.66594549416</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122131.0354144934</v>
+        <v>122130.8492989291</v>
       </c>
       <c r="I104">
-        <v>328890</v>
+        <v>342380</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>228432.8755960359</v>
+        <v>225104.9933278905</v>
       </c>
       <c r="O104">
-        <v>76350.97072471173</v>
+        <v>66572.21393869724</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>880.3461468633192</v>
+        <v>1056.869769596803</v>
       </c>
       <c r="R104">
-        <v>5985.22511844038</v>
+        <v>8471.140060149925</v>
       </c>
       <c r="S104">
-        <v>6865.5712653037</v>
+        <v>9528.009829746727</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>15769.69886431338</v>
+        <v>15897.5007313781</v>
       </c>
       <c r="V104">
-        <v>15769.69886431338</v>
+        <v>15897.5007313781</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81323.82427920823</v>
+        <v>81324.05331477552</v>
       </c>
       <c r="B105">
-        <v>16157.46458075863</v>
+        <v>14979.31052270244</v>
       </c>
       <c r="C105">
-        <v>132298.0872888294</v>
+        <v>133642.0015739708</v>
       </c>
       <c r="D105">
-        <v>3950.986244122848</v>
+        <v>3898.959450768442</v>
       </c>
       <c r="E105">
-        <v>43778.72947806934</v>
+        <v>44009.9731304399</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81323.82427920823</v>
+        <v>81324.05331477552</v>
       </c>
       <c r="I105">
-        <v>218600</v>
+        <v>224531</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>148455.5518695881</v>
+        <v>148621.3120966732</v>
       </c>
       <c r="O105">
-        <v>47729.71572219219</v>
+        <v>47908.93258120835</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>828.0610906063276</v>
+        <v>743.0107124257266</v>
       </c>
       <c r="R105">
-        <v>4588.667731939424</v>
+        <v>4213.585406738343</v>
       </c>
       <c r="S105">
-        <v>5416.728822545751</v>
+        <v>4956.596119164069</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>9257.627785395849</v>
+        <v>11134.38650085485</v>
       </c>
       <c r="V105">
-        <v>9257.627785395849</v>
+        <v>11134.38650085485</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.01048116933</v>
+        <v>77849.84713154979</v>
       </c>
       <c r="B106">
-        <v>14934.97179011213</v>
+        <v>14528.34681440597</v>
       </c>
       <c r="C106">
-        <v>127804.8342687601</v>
+        <v>126185.2414203743</v>
       </c>
       <c r="D106">
-        <v>3760.846074870701</v>
+        <v>4330.254847830741</v>
       </c>
       <c r="E106">
-        <v>49402.79113178172</v>
+        <v>49310.21784626834</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.01048116933</v>
+        <v>77849.84713154979</v>
       </c>
       <c r="I106">
-        <v>210120</v>
+        <v>201098</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>142739.8060588722</v>
+        <v>140713.5882347803</v>
       </c>
       <c r="O106">
-        <v>53163.63720665242</v>
+        <v>53640.47269409908</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>617.4060870910878</v>
+        <v>616.980654151339</v>
       </c>
       <c r="R106">
-        <v>4779.923926063863</v>
+        <v>5174.797732084068</v>
       </c>
       <c r="S106">
-        <v>5397.330013154951</v>
+        <v>5791.778386235407</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>11474.52796908398</v>
+        <v>10594.25038645598</v>
       </c>
       <c r="V106">
-        <v>11474.52796908398</v>
+        <v>10594.25038645598</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.06845581987</v>
+        <v>86203.13714914135</v>
       </c>
       <c r="B107">
-        <v>15816.31969054458</v>
+        <v>16670.47912872872</v>
       </c>
       <c r="C107">
-        <v>145290.3976878303</v>
+        <v>133891.7688928676</v>
       </c>
       <c r="D107">
-        <v>3845.414630410628</v>
+        <v>3880.136239377632</v>
       </c>
       <c r="E107">
-        <v>44835.60347133409</v>
+        <v>46406.96372665902</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.06845581987</v>
+        <v>86203.13714914135</v>
       </c>
       <c r="I107">
-        <v>241211</v>
+        <v>226540</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>161106.7173783749</v>
+        <v>150562.2480215963</v>
       </c>
       <c r="O107">
-        <v>48681.01810174471</v>
+        <v>50287.09996603665</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>678.9508814166001</v>
+        <v>583.579043127186</v>
       </c>
       <c r="R107">
-        <v>5155.197660884732</v>
+        <v>4921.737377887151</v>
       </c>
       <c r="S107">
-        <v>5834.148542301332</v>
+        <v>5505.316421014337</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>11171.78827015464</v>
+        <v>11397.14338236281</v>
       </c>
       <c r="V107">
-        <v>11171.78827015464</v>
+        <v>11397.14338236281</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60304.83062524068</v>
+        <v>60305.02996180463</v>
       </c>
       <c r="B108">
-        <v>11770.16659925641</v>
+        <v>12235.49419360928</v>
       </c>
       <c r="C108">
-        <v>97286.32444193527</v>
+        <v>98119.2988072983</v>
       </c>
       <c r="D108">
-        <v>2940.991227911351</v>
+        <v>3206.012231312396</v>
       </c>
       <c r="E108">
-        <v>31536.14206192896</v>
+        <v>38754.88113981121</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60304.83062524068</v>
+        <v>60305.02996180463</v>
       </c>
       <c r="I108">
-        <v>163267</v>
+        <v>168228</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>109056.4910411917</v>
+        <v>110354.7930009076</v>
       </c>
       <c r="O108">
-        <v>34477.13328984031</v>
+        <v>41960.8933711236</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>706.0372679547473</v>
+        <v>385.7962671381105</v>
       </c>
       <c r="R108">
-        <v>4204.468134984366</v>
+        <v>3676.128827298547</v>
       </c>
       <c r="S108">
-        <v>4910.505402939113</v>
+        <v>4061.925094436658</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>9443.985097137249</v>
+        <v>8360.988616230367</v>
       </c>
       <c r="V108">
-        <v>9443.985097137249</v>
+        <v>8360.988616230367</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.15670820347</v>
+        <v>25283.02522673808</v>
       </c>
       <c r="B109">
-        <v>4868.62915131015</v>
+        <v>5100.823125434319</v>
       </c>
       <c r="C109">
-        <v>40751.41622581975</v>
+        <v>41047.51033082862</v>
       </c>
       <c r="D109">
-        <v>1267.625281353204</v>
+        <v>1309.81581529481</v>
       </c>
       <c r="E109">
-        <v>14386.02472710989</v>
+        <v>14794.21042006601</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.15670820347</v>
+        <v>25283.02522673808</v>
       </c>
       <c r="I109">
-        <v>67321</v>
+        <v>67309</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>45620.04537712991</v>
+        <v>46148.33345626294</v>
       </c>
       <c r="O109">
-        <v>15653.6500084631</v>
+        <v>16104.02623536082</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>202.6305332827062</v>
+        <v>187.7632461882482</v>
       </c>
       <c r="R109">
-        <v>1462.924035633989</v>
+        <v>1442.598412773112</v>
       </c>
       <c r="S109">
-        <v>1665.554568916695</v>
+        <v>1630.36165896136</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3342.364316712998</v>
+        <v>3253.306401769243</v>
       </c>
       <c r="V109">
-        <v>3342.364316712998</v>
+        <v>3253.306401769243</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.002790928605</v>
+        <v>4049.142324582915</v>
       </c>
       <c r="B110">
-        <v>809.9436324017391</v>
+        <v>813.7558193601285</v>
       </c>
       <c r="C110">
-        <v>6718.470836321323</v>
+        <v>6724.741360238929</v>
       </c>
       <c r="D110">
-        <v>191.7927603106854</v>
+        <v>221.3628729829583</v>
       </c>
       <c r="E110">
-        <v>2168.237890424658</v>
+        <v>2410.465718256522</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.002790928605</v>
+        <v>4049.142324582915</v>
       </c>
       <c r="I110">
-        <v>10938</v>
+        <v>10940</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7528.414468723062</v>
+        <v>7538.497179599057</v>
       </c>
       <c r="O110">
-        <v>2360.030650735343</v>
+        <v>2631.82859123948</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>34.94826028848376</v>
+        <v>43.04290313666211</v>
       </c>
       <c r="R110">
-        <v>289.714382605534</v>
+        <v>276.2611731742924</v>
       </c>
       <c r="S110">
-        <v>324.6626428940177</v>
+        <v>319.3040763109545</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>560.0619614790791</v>
+        <v>500.4862616407732</v>
       </c>
       <c r="V110">
-        <v>560.0619614790791</v>
+        <v>500.4862616407732</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8763.176760660852</v>
+        <v>8763.122426431059</v>
       </c>
       <c r="B111">
-        <v>1677.800314211403</v>
+        <v>1676.603078737237</v>
       </c>
       <c r="C111">
-        <v>14295.82222775207</v>
+        <v>14625.54623899775</v>
       </c>
       <c r="D111">
-        <v>504.1659839672423</v>
+        <v>425.9784650291842</v>
       </c>
       <c r="E111">
-        <v>5529.902648607043</v>
+        <v>5104.852814464023</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8763.176760660852</v>
+        <v>8763.122426431059</v>
       </c>
       <c r="I111">
-        <v>23544</v>
+        <v>24537</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15973.62254196347</v>
+        <v>16302.14931773499</v>
       </c>
       <c r="O111">
-        <v>6034.068632574285</v>
+        <v>5530.831279493207</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>110.2592117612748</v>
+        <v>73.82850976530858</v>
       </c>
       <c r="R111">
-        <v>621.3593448142619</v>
+        <v>547.1178960463967</v>
       </c>
       <c r="S111">
-        <v>731.6185565755368</v>
+        <v>620.9464058117053</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1257.635279262319</v>
+        <v>1262.21481829344</v>
       </c>
       <c r="V111">
-        <v>1257.635279262319</v>
+        <v>1262.21481829344</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9927.116156688488</v>
+        <v>9927.019367391429</v>
       </c>
       <c r="B112">
-        <v>2006.344322915904</v>
+        <v>1995.117189507676</v>
       </c>
       <c r="C112">
-        <v>16377.18595677136</v>
+        <v>16485.15622720518</v>
       </c>
       <c r="D112">
-        <v>535.5952031437183</v>
+        <v>479.9798294233576</v>
       </c>
       <c r="E112">
-        <v>5587.672307199244</v>
+        <v>5371.416762036505</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9927.116156688488</v>
+        <v>9927.019367391429</v>
       </c>
       <c r="I112">
-        <v>26930</v>
+        <v>26688</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18383.53027968726</v>
+        <v>18480.27341671286</v>
       </c>
       <c r="O112">
-        <v>6123.267510342962</v>
+        <v>5851.396591459863</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>86.47157412285154</v>
+        <v>140.5928275961332</v>
       </c>
       <c r="R112">
-        <v>539.0982591283631</v>
+        <v>757.3277936785652</v>
       </c>
       <c r="S112">
-        <v>625.5698332512146</v>
+        <v>897.9206212746983</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1494.716875846013</v>
+        <v>1293.826612900318</v>
       </c>
       <c r="V112">
-        <v>1494.716875846013</v>
+        <v>1293.826612900318</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1551.85361365093</v>
+        <v>1551.934706950305</v>
       </c>
       <c r="B113">
-        <v>290.6127878400433</v>
+        <v>294.4869481047878</v>
       </c>
       <c r="C113">
-        <v>2575.637965581363</v>
+        <v>2606.765253018346</v>
       </c>
       <c r="D113">
-        <v>70.35891955490345</v>
+        <v>84.97507958375465</v>
       </c>
       <c r="E113">
-        <v>856.0697303091289</v>
+        <v>1050.000473443678</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1551.85361365093</v>
+        <v>1551.934706950305</v>
       </c>
       <c r="I113">
-        <v>4284</v>
+        <v>4345</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2866.250753421406</v>
+        <v>2901.252201123134</v>
       </c>
       <c r="O113">
-        <v>926.4286498640323</v>
+        <v>1134.975553027433</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>10.48584436594251</v>
+        <v>14.63420125276498</v>
       </c>
       <c r="R113">
-        <v>89.48884887251117</v>
+        <v>90.41048873379808</v>
       </c>
       <c r="S113">
-        <v>99.97469323845368</v>
+        <v>105.0446899865631</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>207.9187492431919</v>
+        <v>234.5352013336886</v>
       </c>
       <c r="V113">
-        <v>207.9187492431919</v>
+        <v>234.5352013336886</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1068.941800906861</v>
+        <v>1069.042520097034</v>
       </c>
       <c r="B114">
-        <v>1477.292161332951</v>
+        <v>1436.791978410286</v>
       </c>
       <c r="C114">
-        <v>498.8505073131586</v>
+        <v>489.6237477142558</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>721.5134070414269</v>
+        <v>633.8946999165584</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1068.941800906861</v>
+        <v>1069.042520097034</v>
       </c>
       <c r="I114">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1976.142668646109</v>
+        <v>1926.415726124541</v>
       </c>
       <c r="O114">
-        <v>721.5134070414269</v>
+        <v>633.8946999165584</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>20.75211959126899</v>
+        <v>15.13842691944751</v>
       </c>
       <c r="R114">
-        <v>58.4662909379181</v>
+        <v>54.02759788603019</v>
       </c>
       <c r="S114">
-        <v>79.21841052918708</v>
+        <v>69.1660248054777</v>
       </c>
       <c r="T114">
-        <v>14.60461104682846</v>
+        <v>13.50901154335188</v>
       </c>
       <c r="U114">
-        <v>129.7128858181593</v>
+        <v>136.6570538010601</v>
       </c>
       <c r="V114">
-        <v>144.3174968649877</v>
+        <v>150.166065344412</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>406.1703375619181</v>
+        <v>405.8505984461745</v>
       </c>
       <c r="B115">
-        <v>572.9689989958033</v>
+        <v>564.8105350774777</v>
       </c>
       <c r="C115">
-        <v>184.4870012155835</v>
+        <v>188.6600548027387</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>240.3658306147997</v>
+        <v>264.2142025999369</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>406.1703375619181</v>
+        <v>405.8505984461745</v>
       </c>
       <c r="I115">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>757.4560002113868</v>
+        <v>753.4705898802164</v>
       </c>
       <c r="O115">
-        <v>240.3658306147997</v>
+        <v>264.2142025999369</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>8.083852076457857</v>
+        <v>9.266145359193974</v>
       </c>
       <c r="R115">
-        <v>25.34456586971876</v>
+        <v>28.69248812673268</v>
       </c>
       <c r="S115">
-        <v>33.42841794617662</v>
+        <v>37.95863348592665</v>
       </c>
       <c r="T115">
-        <v>4.139280115217549</v>
+        <v>6.20953148224898</v>
       </c>
       <c r="U115">
-        <v>43.43337849881998</v>
+        <v>46.36770196692727</v>
       </c>
       <c r="V115">
-        <v>47.57265861403754</v>
+        <v>52.57723344917625</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.994038766158</v>
+        <v>5616.104571271539</v>
       </c>
       <c r="B116">
-        <v>7871.737843856795</v>
+        <v>7895.264958816155</v>
       </c>
       <c r="C116">
-        <v>2554.534795299122</v>
+        <v>2612.82876886732</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3761.701882458727</v>
+        <v>3751.746212497269</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.994038766158</v>
+        <v>5616.104571271539</v>
       </c>
       <c r="I116">
-        <v>15320</v>
+        <v>15863</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10426.27263915592</v>
+        <v>10508.09372768348</v>
       </c>
       <c r="O116">
-        <v>3761.701882458727</v>
+        <v>3751.746212497269</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>84.9540640153284</v>
+        <v>108.9144937380267</v>
       </c>
       <c r="R116">
-        <v>258.4297393328598</v>
+        <v>263.1215984481335</v>
       </c>
       <c r="S116">
-        <v>343.3838033481882</v>
+        <v>372.0360921861602</v>
       </c>
       <c r="T116">
-        <v>83.80662857303622</v>
+        <v>76.22543572057428</v>
       </c>
       <c r="U116">
-        <v>654.3635237803351</v>
+        <v>758.7895030431483</v>
       </c>
       <c r="V116">
-        <v>738.1701523533714</v>
+        <v>835.0149387637226</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3149.83719377753</v>
+        <v>3149.862686167082</v>
       </c>
       <c r="B117">
-        <v>4324.007167193124</v>
+        <v>4303.883271666619</v>
       </c>
       <c r="C117">
-        <v>1498.711456597822</v>
+        <v>1439.516961996276</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1991.126239680851</v>
+        <v>2090.691244562761</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3149.83719377753</v>
+        <v>3149.862686167082</v>
       </c>
       <c r="I117">
-        <v>8717</v>
+        <v>8546</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5822.718623790946</v>
+        <v>5743.400233662895</v>
       </c>
       <c r="O117">
-        <v>1991.126239680851</v>
+        <v>2090.691244562761</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>55.69351706295088</v>
+        <v>60.95560541519837</v>
       </c>
       <c r="R117">
-        <v>155.1731218450906</v>
+        <v>180.524229249356</v>
       </c>
       <c r="S117">
-        <v>210.8666389080415</v>
+        <v>241.4798346645544</v>
       </c>
       <c r="T117">
-        <v>42.71382258365387</v>
+        <v>44.19173535437609</v>
       </c>
       <c r="U117">
-        <v>386.3325810942399</v>
+        <v>357.7333451319234</v>
       </c>
       <c r="V117">
-        <v>429.0464036778938</v>
+        <v>401.9250804862995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1817.076257887079</v>
+        <v>1817.120578371578</v>
       </c>
       <c r="B118">
-        <v>2587.033949088921</v>
+        <v>2555.835020101133</v>
       </c>
       <c r="C118">
-        <v>839.5252230746889</v>
+        <v>850.4680213920261</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1075.683945788729</v>
+        <v>1268.246268660464</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1817.076257887079</v>
+        <v>1817.120578371578</v>
       </c>
       <c r="I118">
-        <v>5048</v>
+        <v>4925</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3426.559172163609</v>
+        <v>3406.303041493159</v>
       </c>
       <c r="O118">
-        <v>1075.683945788729</v>
+        <v>1268.246268660464</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>28.64597278193438</v>
+        <v>30.58370515681213</v>
       </c>
       <c r="R118">
-        <v>88.17865194071361</v>
+        <v>106.4201920891942</v>
       </c>
       <c r="S118">
-        <v>116.824624722648</v>
+        <v>137.0038972460063</v>
       </c>
       <c r="T118">
-        <v>28.91001166792751</v>
+        <v>22.71799382560024</v>
       </c>
       <c r="U118">
-        <v>244.1212034782821</v>
+        <v>208.5208587463509</v>
       </c>
       <c r="V118">
-        <v>273.0312151462096</v>
+        <v>231.2388525719512</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6395.926567159511</v>
+        <v>6395.905359059726</v>
       </c>
       <c r="B119">
-        <v>8977.533750356073</v>
+        <v>8824.315257145552</v>
       </c>
       <c r="C119">
-        <v>2981.142227106165</v>
+        <v>3096.839436748643</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4029.942784889702</v>
+        <v>3544.943595932504</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6395.926567159511</v>
+        <v>6395.905359059726</v>
       </c>
       <c r="I119">
-        <v>18175</v>
+        <v>17389</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>11958.67597746224</v>
+        <v>11921.15469389419</v>
       </c>
       <c r="O119">
-        <v>4029.942784889702</v>
+        <v>3544.943595932504</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>127.3136162406229</v>
+        <v>100.5609128057944</v>
       </c>
       <c r="R119">
-        <v>354.1387800404854</v>
+        <v>329.9657235897454</v>
       </c>
       <c r="S119">
-        <v>481.4523962811084</v>
+        <v>430.5266363955399</v>
       </c>
       <c r="T119">
-        <v>70.58747964959534</v>
+        <v>79.47772906843511</v>
       </c>
       <c r="U119">
-        <v>768.7682581489714</v>
+        <v>665.9464726816889</v>
       </c>
       <c r="V119">
-        <v>839.3557377985668</v>
+        <v>745.424201750124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4006.160037280428</v>
+        <v>4005.841017511538</v>
       </c>
       <c r="B120">
-        <v>5343.827595345482</v>
+        <v>5477.341225839368</v>
       </c>
       <c r="C120">
-        <v>1805.118049993094</v>
+        <v>1886.627954941715</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2401.724231621181</v>
+        <v>2721.205054596745</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4006.160037280428</v>
+        <v>4005.841017511538</v>
       </c>
       <c r="I120">
-        <v>10958</v>
+        <v>11225</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7148.945645338576</v>
+        <v>7363.969180781083</v>
       </c>
       <c r="O120">
-        <v>2401.724231621181</v>
+        <v>2721.205054596745</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>76.35744984183506</v>
+        <v>61.46212038205299</v>
       </c>
       <c r="R120">
-        <v>231.6498185574283</v>
+        <v>218.2540894294502</v>
       </c>
       <c r="S120">
-        <v>308.0072683992634</v>
+        <v>279.7162098115032</v>
       </c>
       <c r="T120">
-        <v>52.03751907798213</v>
+        <v>57.09798601483405</v>
       </c>
       <c r="U120">
-        <v>511.368064691216</v>
+        <v>488.3697813751236</v>
       </c>
       <c r="V120">
-        <v>563.4055837691981</v>
+        <v>545.4677673899577</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.926468964466</v>
+        <v>1686.884857963164</v>
       </c>
       <c r="B121">
-        <v>2363.84518224255</v>
+        <v>2401.09260335613</v>
       </c>
       <c r="C121">
-        <v>784.8703358036443</v>
+        <v>797.468907082388</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1018.131437135942</v>
+        <v>1079.575920659196</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.926468964466</v>
+        <v>1686.884857963164</v>
       </c>
       <c r="I121">
-        <v>4570</v>
+        <v>4583</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3148.715518046194</v>
+        <v>3198.561510438518</v>
       </c>
       <c r="O121">
-        <v>1018.131437135942</v>
+        <v>1079.575920659196</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>27.57734116812789</v>
+        <v>33.34496259596308</v>
       </c>
       <c r="R121">
-        <v>100.0252213931162</v>
+        <v>101.5039311572144</v>
       </c>
       <c r="S121">
-        <v>127.6025625612441</v>
+        <v>134.8488937531775</v>
       </c>
       <c r="T121">
-        <v>23.5393496836149</v>
+        <v>19.63948053625779</v>
       </c>
       <c r="U121">
-        <v>175.1323326213461</v>
+        <v>208.8653883012411</v>
       </c>
       <c r="V121">
-        <v>198.6716823049609</v>
+        <v>228.5048688374989</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>589.1140811471787</v>
+        <v>588.8707835397258</v>
       </c>
       <c r="B122">
-        <v>800.6379082720263</v>
+        <v>828.5281889134534</v>
       </c>
       <c r="C122">
-        <v>263.266741897903</v>
+        <v>281.2836482417389</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>346.3950308132144</v>
+        <v>333.8634840667901</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>589.1140811471787</v>
+        <v>588.8707835397258</v>
       </c>
       <c r="I122">
-        <v>1603</v>
+        <v>1643</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1063.904650169929</v>
+        <v>1109.811837155192</v>
       </c>
       <c r="O122">
-        <v>346.3950308132144</v>
+        <v>333.8634840667901</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>15.17517808181942</v>
+        <v>10.93500075913759</v>
       </c>
       <c r="R122">
-        <v>40.86863043814886</v>
+        <v>36.31069608774529</v>
       </c>
       <c r="S122">
-        <v>56.04380851996827</v>
+        <v>47.24569684688288</v>
       </c>
       <c r="T122">
-        <v>7.375906302092269</v>
+        <v>6.865101781624412</v>
       </c>
       <c r="U122">
-        <v>71.98393843297212</v>
+        <v>62.0341670727014</v>
       </c>
       <c r="V122">
-        <v>79.3598447350644</v>
+        <v>68.89926885432581</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1710.130736895906</v>
+        <v>1709.949173048831</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3015.139446448779</v>
+        <v>3052.471028350577</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1121.528912671567</v>
+        <v>956.0007441826658</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1710.130736895906</v>
+        <v>1709.949173048831</v>
       </c>
       <c r="I123">
-        <v>5532</v>
+        <v>5468</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3015.139446448779</v>
+        <v>3052.471028350577</v>
       </c>
       <c r="O123">
-        <v>1121.528912671567</v>
+        <v>956.0007441826658</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>34.81060503495438</v>
+        <v>32.98149965967136</v>
       </c>
       <c r="R123">
-        <v>100.0007853040934</v>
+        <v>103.0792396002901</v>
       </c>
       <c r="S123">
-        <v>134.8113903390478</v>
+        <v>136.0607392599614</v>
       </c>
       <c r="T123">
-        <v>23.02782146272552</v>
+        <v>24.7057350527016</v>
       </c>
       <c r="U123">
-        <v>200.1859841302261</v>
+        <v>207.4810965018707</v>
       </c>
       <c r="V123">
-        <v>223.2138055929516</v>
+        <v>232.1868315545723</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.9712080967222</v>
+        <v>198.8892772726975</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>353.3247044958931</v>
+        <v>363.9736943591609</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>134.3721195664613</v>
+        <v>126.8352175168439</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.9712080967222</v>
+        <v>198.8892772726975</v>
       </c>
       <c r="I124">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>353.3247044958931</v>
+        <v>363.9736943591609</v>
       </c>
       <c r="O124">
-        <v>134.3721195664613</v>
+        <v>126.8352175168439</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.286398747213256</v>
+        <v>3.810711785230716</v>
       </c>
       <c r="R124">
-        <v>9.087944199222982</v>
+        <v>10.24457343212978</v>
       </c>
       <c r="S124">
-        <v>12.37434294643624</v>
+        <v>14.0552852173605</v>
       </c>
       <c r="T124">
-        <v>2.14962848797433</v>
+        <v>2.710285743533773</v>
       </c>
       <c r="U124">
-        <v>22.94099281313061</v>
+        <v>22.52325693066042</v>
       </c>
       <c r="V124">
-        <v>25.09062130110494</v>
+        <v>25.23354267419419</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9133.060660538047</v>
+        <v>9133.006181018875</v>
       </c>
       <c r="B2">
-        <v>5089.10357781358</v>
+        <v>4894.681033072077</v>
       </c>
       <c r="C2">
-        <v>21810.6658686034</v>
+        <v>21573.29668998957</v>
       </c>
       <c r="D2">
-        <v>5218.653042913618</v>
+        <v>4802.477384367419</v>
       </c>
       <c r="E2">
-        <v>10440.42123606418</v>
+        <v>9751.254434103723</v>
       </c>
       <c r="F2">
-        <v>2654.314111165454</v>
+        <v>2449.90412227465</v>
       </c>
       <c r="G2">
-        <v>5268.223230869256</v>
+        <v>4581.624916070701</v>
       </c>
       <c r="H2">
-        <v>9133.060660538047</v>
+        <v>9133.006181018875</v>
       </c>
       <c r="I2">
-        <v>42445</v>
+        <v>42994</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26899.76944641698</v>
+        <v>26467.97772306165</v>
       </c>
       <c r="O2">
-        <v>15659.0742789778</v>
+        <v>14553.73181847114</v>
       </c>
       <c r="P2">
-        <v>7922.53734203471</v>
+        <v>7031.52903834535</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.986374021481</v>
+        <v>7570.994662884585</v>
       </c>
       <c r="B3">
-        <v>4191.964733326174</v>
+        <v>4098.166932695013</v>
       </c>
       <c r="C3">
-        <v>17862.23321344275</v>
+        <v>18278.92108851888</v>
       </c>
       <c r="D3">
-        <v>4316.594517569523</v>
+        <v>4501.799726356884</v>
       </c>
       <c r="E3">
-        <v>8793.799607352559</v>
+        <v>9354.730323113943</v>
       </c>
       <c r="F3">
-        <v>2291.215955250777</v>
+        <v>2435.52401975072</v>
       </c>
       <c r="G3">
-        <v>4381.430496061521</v>
+        <v>4393.55352531782</v>
       </c>
       <c r="H3">
-        <v>7570.986374021481</v>
+        <v>7570.994662884585</v>
       </c>
       <c r="I3">
-        <v>32932</v>
+        <v>34729</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22054.19794676893</v>
+        <v>22377.08802121389</v>
       </c>
       <c r="O3">
-        <v>13110.39412492208</v>
+        <v>13856.53004947083</v>
       </c>
       <c r="P3">
-        <v>6672.646451312298</v>
+        <v>6829.07754506854</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.95321571958</v>
+        <v>15502.07411130673</v>
       </c>
       <c r="B4">
-        <v>8687.700199461449</v>
+        <v>8488.795976378131</v>
       </c>
       <c r="C4">
-        <v>38299.03466409478</v>
+        <v>36153.09632319622</v>
       </c>
       <c r="D4">
-        <v>8551.438298090427</v>
+        <v>8532.764348501079</v>
       </c>
       <c r="E4">
-        <v>17298.55370268412</v>
+        <v>17003.11147400529</v>
       </c>
       <c r="F4">
-        <v>4455.514323569385</v>
+        <v>4265.512814415879</v>
       </c>
       <c r="G4">
-        <v>8457.916990888685</v>
+        <v>8598.784553686992</v>
       </c>
       <c r="H4">
-        <v>15501.95321571958</v>
+        <v>15502.07411130673</v>
       </c>
       <c r="I4">
-        <v>71678</v>
+        <v>71297</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46986.73486355623</v>
+        <v>44641.89229957436</v>
       </c>
       <c r="O4">
-        <v>25849.99200077454</v>
+        <v>25535.87582250637</v>
       </c>
       <c r="P4">
-        <v>12913.43131445807</v>
+        <v>12864.29736810287</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9670.004710326031</v>
+        <v>9669.968850982883</v>
       </c>
       <c r="B5">
-        <v>5306.533334143263</v>
+        <v>5222.712105479583</v>
       </c>
       <c r="C5">
-        <v>22751.40894556766</v>
+        <v>22861.82459638039</v>
       </c>
       <c r="D5">
-        <v>5340.299972117375</v>
+        <v>5224.739836484591</v>
       </c>
       <c r="E5">
-        <v>10586.02459179373</v>
+        <v>10655.35765188013</v>
       </c>
       <c r="F5">
-        <v>2859.116178293932</v>
+        <v>2724.708167186778</v>
       </c>
       <c r="G5">
-        <v>5677.064894746709</v>
+        <v>5355.449002514798</v>
       </c>
       <c r="H5">
-        <v>9670.004710326031</v>
+        <v>9669.968850982883</v>
       </c>
       <c r="I5">
-        <v>43915</v>
+        <v>46064</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28057.94227971093</v>
+        <v>28084.53670185998</v>
       </c>
       <c r="O5">
-        <v>15926.3245639111</v>
+        <v>15880.09748836473</v>
       </c>
       <c r="P5">
-        <v>8536.181073040641</v>
+        <v>8080.157169701575</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.98961731849</v>
+        <v>26786.99271811433</v>
       </c>
       <c r="B6">
-        <v>14962.79761189033</v>
+        <v>14801.03610680664</v>
       </c>
       <c r="C6">
-        <v>63760.66011910712</v>
+        <v>62560.72091810277</v>
       </c>
       <c r="D6">
-        <v>15648.34282601047</v>
+        <v>15815.82294837755</v>
       </c>
       <c r="E6">
-        <v>32484.39508080743</v>
+        <v>30700.9348835354</v>
       </c>
       <c r="F6">
-        <v>7961.216888415641</v>
+        <v>8422.843091991681</v>
       </c>
       <c r="G6">
-        <v>16040.47055778015</v>
+        <v>15983.25822519689</v>
       </c>
       <c r="H6">
-        <v>26786.98961731849</v>
+        <v>26786.99271811433</v>
       </c>
       <c r="I6">
-        <v>125788</v>
+        <v>127272</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>78723.45773099746</v>
+        <v>77361.75702490941</v>
       </c>
       <c r="O6">
-        <v>48132.7379068179</v>
+        <v>46516.75783191294</v>
       </c>
       <c r="P6">
-        <v>24001.68744619579</v>
+        <v>24406.10131718857</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.10261657533</v>
+        <v>15438.90617955151</v>
       </c>
       <c r="B7">
-        <v>8407.543713492014</v>
+        <v>8079.1890598098</v>
       </c>
       <c r="C7">
-        <v>36979.7003479289</v>
+        <v>35864.54153741973</v>
       </c>
       <c r="D7">
-        <v>8257.577641289579</v>
+        <v>8274.80345251454</v>
       </c>
       <c r="E7">
-        <v>17296.67889491539</v>
+        <v>16712.94672708053</v>
       </c>
       <c r="F7">
-        <v>4621.274899884467</v>
+        <v>4831.722735190517</v>
       </c>
       <c r="G7">
-        <v>8905.131091250538</v>
+        <v>9619.855248588685</v>
       </c>
       <c r="H7">
-        <v>15439.10261657533</v>
+        <v>15438.90617955151</v>
       </c>
       <c r="I7">
-        <v>69362</v>
+        <v>68272</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>45387.24406142091</v>
+        <v>43943.73059722953</v>
       </c>
       <c r="O7">
-        <v>25554.25653620497</v>
+        <v>24987.75017959507</v>
       </c>
       <c r="P7">
-        <v>13526.40599113501</v>
+        <v>14451.5779837792</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.031683969456</v>
+        <v>7027.958426227729</v>
       </c>
       <c r="B8">
-        <v>3915.068116680782</v>
+        <v>4056.505898779912</v>
       </c>
       <c r="C8">
-        <v>16724.77310045997</v>
+        <v>17333.81622597263</v>
       </c>
       <c r="D8">
-        <v>3889.583844273178</v>
+        <v>3916.377517476205</v>
       </c>
       <c r="E8">
-        <v>7732.289640001465</v>
+        <v>7701.326449147585</v>
       </c>
       <c r="F8">
-        <v>2175.610089096736</v>
+        <v>2058.82677483591</v>
       </c>
       <c r="G8">
-        <v>4081.018102399758</v>
+        <v>3947.13566545496</v>
       </c>
       <c r="H8">
-        <v>7028.031683969456</v>
+        <v>7027.958426227729</v>
       </c>
       <c r="I8">
-        <v>33699</v>
+        <v>32252</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20639.84121714075</v>
+        <v>21390.32212475254</v>
       </c>
       <c r="O8">
-        <v>11621.87348427464</v>
+        <v>11617.70396662379</v>
       </c>
       <c r="P8">
-        <v>6256.628191496493</v>
+        <v>6005.96244029087</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.963489693067</v>
+        <v>5005.969999410171</v>
       </c>
       <c r="B9">
-        <v>2706.013731459594</v>
+        <v>2679.034122711451</v>
       </c>
       <c r="C9">
-        <v>12006.75630372937</v>
+        <v>11756.02760067643</v>
       </c>
       <c r="D9">
-        <v>2723.890196888078</v>
+        <v>2861.082373985828</v>
       </c>
       <c r="E9">
-        <v>5566.547512948808</v>
+        <v>6003.667230707604</v>
       </c>
       <c r="F9">
-        <v>1507.409810887293</v>
+        <v>1510.362574655391</v>
       </c>
       <c r="G9">
-        <v>2944.553203730219</v>
+        <v>2879.713682349321</v>
       </c>
       <c r="H9">
-        <v>5005.963489693067</v>
+        <v>5005.969999410171</v>
       </c>
       <c r="I9">
-        <v>23493</v>
+        <v>23435</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14712.77003518897</v>
+        <v>14435.06172338788</v>
       </c>
       <c r="O9">
-        <v>8290.437709836886</v>
+        <v>8864.749604693432</v>
       </c>
       <c r="P9">
-        <v>4451.963014617511</v>
+        <v>4390.076257004712</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5887.014143155843</v>
+        <v>5887.04035808312</v>
       </c>
       <c r="B10">
-        <v>3021.930402040549</v>
+        <v>3289.037180586467</v>
       </c>
       <c r="C10">
-        <v>13409.84479244987</v>
+        <v>13773.29858434925</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9647.011362885853</v>
+        <v>9053.652388013397</v>
       </c>
       <c r="F10">
-        <v>1919.759818647155</v>
+        <v>1669.504550050344</v>
       </c>
       <c r="G10">
-        <v>3500.274533152852</v>
+        <v>3166.338470420582</v>
       </c>
       <c r="H10">
-        <v>5887.014143155843</v>
+        <v>5887.04035808312</v>
       </c>
       <c r="I10">
-        <v>30057</v>
+        <v>27893</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16431.77519449042</v>
+        <v>17062.33576493572</v>
       </c>
       <c r="O10">
-        <v>9647.011362885853</v>
+        <v>9053.652388013397</v>
       </c>
       <c r="P10">
-        <v>5420.034351800006</v>
+        <v>4835.843020470926</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.98613889505</v>
+        <v>1725.971981055868</v>
       </c>
       <c r="B11">
-        <v>904.4161637266383</v>
+        <v>930.6375019741282</v>
       </c>
       <c r="C11">
-        <v>4039.528932366312</v>
+        <v>4093.32832897044</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2689.166699333399</v>
+        <v>2834.317773837404</v>
       </c>
       <c r="F11">
-        <v>459.6772796659973</v>
+        <v>566.4152332853573</v>
       </c>
       <c r="G11">
-        <v>924.3682623315909</v>
+        <v>1051.306182121869</v>
       </c>
       <c r="H11">
-        <v>1725.98613889505</v>
+        <v>1725.971981055868</v>
       </c>
       <c r="I11">
-        <v>8247</v>
+        <v>7906</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4943.945096092951</v>
+        <v>5023.965830944569</v>
       </c>
       <c r="O11">
-        <v>2689.166699333399</v>
+        <v>2834.317773837404</v>
       </c>
       <c r="P11">
-        <v>1384.045541997588</v>
+        <v>1617.721415407227</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>500.9624940965868</v>
+        <v>500.9633827287256</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1416.571117851449</v>
+        <v>1405.387041309877</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>780.7629683020857</v>
+        <v>766.7501903538249</v>
       </c>
       <c r="F12">
-        <v>160.8149497193021</v>
+        <v>142.6195319465541</v>
       </c>
       <c r="G12">
-        <v>311.0124289839895</v>
+        <v>272.6201106811588</v>
       </c>
       <c r="H12">
-        <v>500.9624940965868</v>
+        <v>500.9633827287256</v>
       </c>
       <c r="I12">
-        <v>2760</v>
+        <v>2805</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1416.571117851449</v>
+        <v>1405.387041309877</v>
       </c>
       <c r="O12">
-        <v>780.7629683020857</v>
+        <v>766.7501903538249</v>
       </c>
       <c r="P12">
-        <v>471.8273787032916</v>
+        <v>415.2396426277129</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.988578090817</v>
+        <v>1087.879836880539</v>
       </c>
       <c r="B13">
-        <v>516.471423292911</v>
+        <v>482.6532413316147</v>
       </c>
       <c r="C13">
-        <v>2720.673155757982</v>
+        <v>2568.056777919877</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1903.170387125264</v>
+        <v>1802.651713788177</v>
       </c>
       <c r="F13">
-        <v>847.1105807587767</v>
+        <v>881.6394787594041</v>
       </c>
       <c r="G13">
-        <v>145.1298067753233</v>
+        <v>162.5775845389331</v>
       </c>
       <c r="H13">
-        <v>1087.988578090817</v>
+        <v>1087.879836880539</v>
       </c>
       <c r="I13">
-        <v>4438</v>
+        <v>4380</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3237.144579050893</v>
+        <v>3050.710019251491</v>
       </c>
       <c r="O13">
-        <v>1903.170387125264</v>
+        <v>1802.651713788177</v>
       </c>
       <c r="P13">
-        <v>992.2403875340999</v>
+        <v>1044.217063298337</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11832.11894238649</v>
+        <v>11832.02682201672</v>
       </c>
       <c r="B14">
-        <v>5340.794870595152</v>
+        <v>5147.933147045555</v>
       </c>
       <c r="C14">
-        <v>27873.14929671484</v>
+        <v>27608.69070857583</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18260.27206839724</v>
+        <v>17994.31818611331</v>
       </c>
       <c r="F14">
-        <v>8727.25629108089</v>
+        <v>9240.647423461816</v>
       </c>
       <c r="G14">
-        <v>1521.619146448648</v>
+        <v>1700.257607398667</v>
       </c>
       <c r="H14">
-        <v>11832.11894238649</v>
+        <v>11832.02682201672</v>
       </c>
       <c r="I14">
-        <v>48382</v>
+        <v>52181</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>33213.94416730999</v>
+        <v>32756.62385562138</v>
       </c>
       <c r="O14">
-        <v>18260.27206839724</v>
+        <v>17994.31818611331</v>
       </c>
       <c r="P14">
-        <v>10248.87543752954</v>
+        <v>10940.90503086048</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.01508708829</v>
+        <v>79020.92711225114</v>
       </c>
       <c r="B15">
-        <v>36233.60331996981</v>
+        <v>36242.97092653594</v>
       </c>
       <c r="C15">
-        <v>188716.6269889902</v>
+        <v>196321.1563642818</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>132774.7373848042</v>
+        <v>129988.1675878802</v>
       </c>
       <c r="F15">
-        <v>61083.49940314209</v>
+        <v>63337.74646599478</v>
       </c>
       <c r="G15">
-        <v>11018.26877488278</v>
+        <v>10923.48968395592</v>
       </c>
       <c r="H15">
-        <v>79021.01508708829</v>
+        <v>79020.92711225114</v>
       </c>
       <c r="I15">
-        <v>336419</v>
+        <v>341907</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>224950.23030896</v>
+        <v>232564.1272908177</v>
       </c>
       <c r="O15">
-        <v>132774.7373848042</v>
+        <v>129988.1675878802</v>
       </c>
       <c r="P15">
-        <v>72101.76817802487</v>
+        <v>74261.23614995071</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.0899198772</v>
+        <v>160975.0394752284</v>
       </c>
       <c r="B16">
-        <v>74968.9722910406</v>
+        <v>67179.90107394104</v>
       </c>
       <c r="C16">
-        <v>378811.7159110032</v>
+        <v>374511.4624893441</v>
       </c>
       <c r="D16">
-        <v>91614.06359834776</v>
+        <v>85056.14007617359</v>
       </c>
       <c r="E16">
-        <v>179983.4418107898</v>
+        <v>166131.2108898422</v>
       </c>
       <c r="F16">
-        <v>128837.0113102389</v>
+        <v>115665.5016285932</v>
       </c>
       <c r="G16">
-        <v>22973.55572047193</v>
+        <v>20308.4097186557</v>
       </c>
       <c r="H16">
-        <v>160975.0899198772</v>
+        <v>160975.0394752284</v>
       </c>
       <c r="I16">
-        <v>691324</v>
+        <v>666625</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>453780.6882020438</v>
+        <v>441691.3635632851</v>
       </c>
       <c r="O16">
-        <v>271597.5054091375</v>
+        <v>251187.3509660158</v>
       </c>
       <c r="P16">
-        <v>151810.5670307108</v>
+        <v>135973.9113472489</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.00952679805</v>
+        <v>52808.00397390744</v>
       </c>
       <c r="B17">
-        <v>24175.40405136068</v>
+        <v>24326.87344175442</v>
       </c>
       <c r="C17">
-        <v>128959.5006886739</v>
+        <v>126153.0985113343</v>
       </c>
       <c r="D17">
-        <v>31973.5056661635</v>
+        <v>29734.26371372135</v>
       </c>
       <c r="E17">
-        <v>61547.86757251489</v>
+        <v>56787.65343708287</v>
       </c>
       <c r="F17">
-        <v>39820.56834148193</v>
+        <v>42437.21906013115</v>
       </c>
       <c r="G17">
-        <v>7308.745098374245</v>
+        <v>7239.793776333524</v>
       </c>
       <c r="H17">
-        <v>52808.00952679805</v>
+        <v>52808.00397390744</v>
       </c>
       <c r="I17">
-        <v>215451</v>
+        <v>211757</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>153134.9047400346</v>
+        <v>150479.9719530887</v>
       </c>
       <c r="O17">
-        <v>93521.37323867838</v>
+        <v>86521.91715080422</v>
       </c>
       <c r="P17">
-        <v>47129.31343985617</v>
+        <v>49677.01283646467</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.05428911486</v>
+        <v>48666.06503768793</v>
       </c>
       <c r="B18">
-        <v>21592.35719134877</v>
+        <v>22465.90917299523</v>
       </c>
       <c r="C18">
-        <v>117617.7942548479</v>
+        <v>114010.40861089</v>
       </c>
       <c r="D18">
-        <v>26143.80659596879</v>
+        <v>27489.22135665433</v>
       </c>
       <c r="E18">
-        <v>52017.25950512994</v>
+        <v>51587.52538144921</v>
       </c>
       <c r="F18">
-        <v>38299.79375082711</v>
+        <v>38346.37025749268</v>
       </c>
       <c r="G18">
-        <v>6636.590872201642</v>
+        <v>6647.960799733006</v>
       </c>
       <c r="H18">
-        <v>48666.05428911486</v>
+        <v>48666.06503768793</v>
       </c>
       <c r="I18">
-        <v>200415</v>
+        <v>200978</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>139210.1514461967</v>
+        <v>136476.3177838852</v>
       </c>
       <c r="O18">
-        <v>78161.06610109872</v>
+        <v>79076.74673810354</v>
       </c>
       <c r="P18">
-        <v>44936.38462302875</v>
+        <v>44994.33105722569</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50921.11890738247</v>
+        <v>50920.89507216039</v>
       </c>
       <c r="B19">
-        <v>23663.97119004537</v>
+        <v>23260.48235642536</v>
       </c>
       <c r="C19">
-        <v>126722.2342224987</v>
+        <v>124092.3155994561</v>
       </c>
       <c r="D19">
-        <v>28502.86102361234</v>
+        <v>30050.12819507346</v>
       </c>
       <c r="E19">
-        <v>54029.49995526692</v>
+        <v>59831.06012646616</v>
       </c>
       <c r="F19">
-        <v>38936.06829590693</v>
+        <v>39822.17942555389</v>
       </c>
       <c r="G19">
-        <v>7235.036740787661</v>
+        <v>6718.030424188347</v>
       </c>
       <c r="H19">
-        <v>50921.11890738247</v>
+        <v>50920.89507216039</v>
       </c>
       <c r="I19">
-        <v>214010</v>
+        <v>200540</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>150386.2054125441</v>
+        <v>147352.7979558815</v>
       </c>
       <c r="O19">
-        <v>82532.36097887927</v>
+        <v>89881.18832153962</v>
       </c>
       <c r="P19">
-        <v>46171.10503669459</v>
+        <v>46540.20984974224</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.9168327326</v>
+        <v>20572.95724797799</v>
       </c>
       <c r="B20">
-        <v>9466.08024858627</v>
+        <v>9430.106724243375</v>
       </c>
       <c r="C20">
-        <v>49549.90709413873</v>
+        <v>49503.16297148721</v>
       </c>
       <c r="D20">
-        <v>11526.12309527244</v>
+        <v>12577.57990637649</v>
       </c>
       <c r="E20">
-        <v>22191.21717708342</v>
+        <v>24189.65604389084</v>
       </c>
       <c r="F20">
-        <v>15993.79850466837</v>
+        <v>16954.37434586593</v>
       </c>
       <c r="G20">
-        <v>2814.281063026335</v>
+        <v>3097.260858505941</v>
       </c>
       <c r="H20">
-        <v>20572.9168327326</v>
+        <v>20572.95724797799</v>
       </c>
       <c r="I20">
-        <v>78936</v>
+        <v>83341</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59015.987342725</v>
+        <v>58933.26969573059</v>
       </c>
       <c r="O20">
-        <v>33717.34027235586</v>
+        <v>36767.23595026732</v>
       </c>
       <c r="P20">
-        <v>18808.07956769471</v>
+        <v>20051.63520437187</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26961.01449117062</v>
+        <v>26961.11746027678</v>
       </c>
       <c r="B21">
-        <v>12484.45351584464</v>
+        <v>12290.13347138619</v>
       </c>
       <c r="C21">
-        <v>65884.67618075834</v>
+        <v>65222.54175489691</v>
       </c>
       <c r="D21">
-        <v>15529.78538157118</v>
+        <v>15530.0712775433</v>
       </c>
       <c r="E21">
-        <v>30603.08407242418</v>
+        <v>31045.89899324677</v>
       </c>
       <c r="F21">
-        <v>19950.53256460743</v>
+        <v>18752.79994339184</v>
       </c>
       <c r="G21">
-        <v>3553.623707449511</v>
+        <v>3619.728818440859</v>
       </c>
       <c r="H21">
-        <v>26961.01449117062</v>
+        <v>26961.11746027678</v>
       </c>
       <c r="I21">
-        <v>107744</v>
+        <v>101870</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>78369.12969660298</v>
+        <v>77512.6752262831</v>
       </c>
       <c r="O21">
-        <v>46132.86945399537</v>
+        <v>46575.97027079007</v>
       </c>
       <c r="P21">
-        <v>23504.15627205695</v>
+        <v>22372.5287618327</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.003807620857</v>
+        <v>3909.912221641765</v>
       </c>
       <c r="B22">
-        <v>1657.934432788852</v>
+        <v>1730.987027872331</v>
       </c>
       <c r="C22">
-        <v>9001.003512602389</v>
+        <v>9251.994426810883</v>
       </c>
       <c r="D22">
-        <v>2128.563586359674</v>
+        <v>2272.841279026295</v>
       </c>
       <c r="E22">
-        <v>4279.932588734606</v>
+        <v>4406.862859566025</v>
       </c>
       <c r="F22">
-        <v>2938.709824136974</v>
+        <v>2926.479501358909</v>
       </c>
       <c r="G22">
-        <v>500.2205472861487</v>
+        <v>543.9669520969686</v>
       </c>
       <c r="H22">
-        <v>3910.003807620857</v>
+        <v>3909.912221641765</v>
       </c>
       <c r="I22">
-        <v>15173</v>
+        <v>16381</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10658.93794539124</v>
+        <v>10982.98145468321</v>
       </c>
       <c r="O22">
-        <v>6408.49617509428</v>
+        <v>6679.70413859232</v>
       </c>
       <c r="P22">
-        <v>3438.930371423122</v>
+        <v>3470.446453455877</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9663046522457</v>
+        <v>105.9341756479821</v>
       </c>
       <c r="B23">
-        <v>48.705214654863</v>
+        <v>51.7524494215623</v>
       </c>
       <c r="C23">
-        <v>251.4386856276109</v>
+        <v>251.8221859190929</v>
       </c>
       <c r="D23">
-        <v>52.5025541673016</v>
+        <v>62.06255878051664</v>
       </c>
       <c r="E23">
-        <v>102.4460954410944</v>
+        <v>115.6712055855645</v>
       </c>
       <c r="F23">
-        <v>89.28939151096427</v>
+        <v>73.35194569409903</v>
       </c>
       <c r="G23">
-        <v>16.58779650867945</v>
+        <v>11.74481302765786</v>
       </c>
       <c r="H23">
-        <v>105.9663046522457</v>
+        <v>105.9341756479821</v>
       </c>
       <c r="I23">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>300.1439002824739</v>
+        <v>303.5746353406552</v>
       </c>
       <c r="O23">
-        <v>154.948649608396</v>
+        <v>177.7337643660811</v>
       </c>
       <c r="P23">
-        <v>105.8771880196437</v>
+        <v>85.09675872175689</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.03135442946</v>
+        <v>15661.07451825796</v>
       </c>
       <c r="B24">
-        <v>7213.065692608602</v>
+        <v>6945.108333260014</v>
       </c>
       <c r="C24">
-        <v>37997.18442509311</v>
+        <v>37661.75112489887</v>
       </c>
       <c r="D24">
-        <v>9107.101325142467</v>
+        <v>9054.770042925189</v>
       </c>
       <c r="E24">
-        <v>17978.0965305547</v>
+        <v>17606.81572417219</v>
       </c>
       <c r="F24">
-        <v>11832.50655483735</v>
+        <v>11927.29941266107</v>
       </c>
       <c r="G24">
-        <v>2166.631140090791</v>
+        <v>2042.860055767015</v>
       </c>
       <c r="H24">
-        <v>15661.03135442946</v>
+        <v>15661.07451825796</v>
       </c>
       <c r="I24">
-        <v>62925</v>
+        <v>66069</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>45210.25011770171</v>
+        <v>44606.85945815888</v>
       </c>
       <c r="O24">
-        <v>27085.19785569717</v>
+        <v>26661.58576709738</v>
       </c>
       <c r="P24">
-        <v>13999.13769492814</v>
+        <v>13970.15946842809</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.977012327423</v>
+        <v>6606.923327909634</v>
       </c>
       <c r="B25">
-        <v>1477.140989575157</v>
+        <v>1444.437305862594</v>
       </c>
       <c r="C25">
-        <v>18434.26349226304</v>
+        <v>17268.5539733903</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11200.24245043177</v>
+        <v>10489.98738421849</v>
       </c>
       <c r="F25">
-        <v>6107.902280228024</v>
+        <v>5382.710264006896</v>
       </c>
       <c r="G25">
-        <v>333.4416096014134</v>
+        <v>263.6201405995208</v>
       </c>
       <c r="H25">
-        <v>6606.977012327423</v>
+        <v>6606.923327909634</v>
       </c>
       <c r="I25">
-        <v>29853</v>
+        <v>32192</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19911.4044818382</v>
+        <v>18712.99127925289</v>
       </c>
       <c r="O25">
-        <v>11200.24245043177</v>
+        <v>10489.98738421849</v>
       </c>
       <c r="P25">
-        <v>6441.343889829437</v>
+        <v>5646.330404606417</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.07671052586</v>
+        <v>22423.07386724852</v>
       </c>
       <c r="B26">
-        <v>4951.86306235545</v>
+        <v>4890.356780415546</v>
       </c>
       <c r="C26">
-        <v>60999.08035377338</v>
+        <v>57156.81568406121</v>
       </c>
       <c r="D26">
-        <v>8376.071102820681</v>
+        <v>8073.928002523807</v>
       </c>
       <c r="E26">
-        <v>28638.54525516659</v>
+        <v>29090.16730815688</v>
       </c>
       <c r="F26">
-        <v>17256.78986487096</v>
+        <v>16999.72035409493</v>
       </c>
       <c r="G26">
-        <v>893.6178301799863</v>
+        <v>871.2051050060074</v>
       </c>
       <c r="H26">
-        <v>22423.07671052586</v>
+        <v>22423.07386724852</v>
       </c>
       <c r="I26">
-        <v>93651</v>
+        <v>101082</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>65950.94341612884</v>
+        <v>62047.17246447676</v>
       </c>
       <c r="O26">
-        <v>37014.61635798727</v>
+        <v>37164.09531068069</v>
       </c>
       <c r="P26">
-        <v>18150.40769505094</v>
+        <v>17870.92545910094</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.91642374337</v>
+        <v>29148.02422983472</v>
       </c>
       <c r="B27">
-        <v>6120.213347524951</v>
+        <v>7056.87210399882</v>
       </c>
       <c r="C27">
-        <v>75822.78022201374</v>
+        <v>78917.52993634112</v>
       </c>
       <c r="D27">
-        <v>10829.57875198979</v>
+        <v>11139.5049276648</v>
       </c>
       <c r="E27">
-        <v>35954.77589205319</v>
+        <v>37340.58905578085</v>
       </c>
       <c r="F27">
-        <v>26716.92980208233</v>
+        <v>23947.18290686308</v>
       </c>
       <c r="G27">
-        <v>1424.394073459432</v>
+        <v>1403.206003881714</v>
       </c>
       <c r="H27">
-        <v>29147.91642374337</v>
+        <v>29148.02422983472</v>
       </c>
       <c r="I27">
-        <v>128446</v>
+        <v>135080</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>81942.9935695387</v>
+        <v>85974.40204033993</v>
       </c>
       <c r="O27">
-        <v>46784.35464404299</v>
+        <v>48480.09398344565</v>
       </c>
       <c r="P27">
-        <v>28141.32387554176</v>
+        <v>25350.38891074479</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.03052480998</v>
+        <v>30698.00368142324</v>
       </c>
       <c r="B28">
-        <v>6516.486694470615</v>
+        <v>6686.623105167682</v>
       </c>
       <c r="C28">
-        <v>80774.94659860698</v>
+        <v>82981.43471153386</v>
       </c>
       <c r="D28">
-        <v>10982.23740354911</v>
+        <v>12806.84266183403</v>
       </c>
       <c r="E28">
-        <v>37240.06496622536</v>
+        <v>40745.06077730727</v>
       </c>
       <c r="F28">
-        <v>24776.73231549826</v>
+        <v>24311.54137325712</v>
       </c>
       <c r="G28">
-        <v>1120.905159643122</v>
+        <v>1175.839933362905</v>
       </c>
       <c r="H28">
-        <v>30698.03052480998</v>
+        <v>30698.00368142324</v>
       </c>
       <c r="I28">
-        <v>137629</v>
+        <v>137370</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>87291.4332930776</v>
+        <v>89668.05781670155</v>
       </c>
       <c r="O28">
-        <v>48222.30236977447</v>
+        <v>53551.9034391413</v>
       </c>
       <c r="P28">
-        <v>25897.63747514138</v>
+        <v>25487.38130662003</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81900.94681154937</v>
+        <v>81900.91373567103</v>
       </c>
       <c r="B29">
-        <v>17469.45311220935</v>
+        <v>18930.9813262513</v>
       </c>
       <c r="C29">
-        <v>206897.9022154397</v>
+        <v>213759.3595917074</v>
       </c>
       <c r="D29">
-        <v>30687.90287404974</v>
+        <v>32013.55315013564</v>
       </c>
       <c r="E29">
-        <v>105221.8770303479</v>
+        <v>109953.0813814749</v>
       </c>
       <c r="F29">
-        <v>77322.66307039671</v>
+        <v>72599.96299475202</v>
       </c>
       <c r="G29">
-        <v>3904.342334071601</v>
+        <v>3284.248907054428</v>
       </c>
       <c r="H29">
-        <v>81900.94681154937</v>
+        <v>81900.91373567103</v>
       </c>
       <c r="I29">
-        <v>370064</v>
+        <v>377024</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>224367.355327649</v>
+        <v>232690.3409179587</v>
       </c>
       <c r="O29">
-        <v>135909.7799043977</v>
+        <v>141966.6345316106</v>
       </c>
       <c r="P29">
-        <v>81227.00540446831</v>
+        <v>75884.21190180644</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65572.04467589021</v>
+        <v>65572.00410734629</v>
       </c>
       <c r="B30">
-        <v>14073.74486531891</v>
+        <v>13909.28580383649</v>
       </c>
       <c r="C30">
-        <v>176417.6473419385</v>
+        <v>172064.1341940091</v>
       </c>
       <c r="D30">
-        <v>25212.05243535439</v>
+        <v>23325.03936681962</v>
       </c>
       <c r="E30">
-        <v>84307.2483690247</v>
+        <v>83156.22128963121</v>
       </c>
       <c r="F30">
-        <v>54181.48707718108</v>
+        <v>52446.55817539053</v>
       </c>
       <c r="G30">
-        <v>3245.871353442169</v>
+        <v>2823.364607895723</v>
       </c>
       <c r="H30">
-        <v>65572.04467589021</v>
+        <v>65572.00410734629</v>
       </c>
       <c r="I30">
-        <v>332971</v>
+        <v>287011</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>190491.3922072574</v>
+        <v>185973.4199978456</v>
       </c>
       <c r="O30">
-        <v>109519.3008043791</v>
+        <v>106481.2606564508</v>
       </c>
       <c r="P30">
-        <v>57427.35843062325</v>
+        <v>55269.92278328625</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.89785420396</v>
+        <v>90328.029125374</v>
       </c>
       <c r="B31">
-        <v>19039.72794528262</v>
+        <v>19592.46727521326</v>
       </c>
       <c r="C31">
-        <v>227345.6530180465</v>
+        <v>243935.0523479691</v>
       </c>
       <c r="D31">
-        <v>30516.52219449296</v>
+        <v>36377.57681175344</v>
       </c>
       <c r="E31">
-        <v>99038.87453161871</v>
+        <v>118561.0191118543</v>
       </c>
       <c r="F31">
-        <v>80557.88016995702</v>
+        <v>74048.10681964165</v>
       </c>
       <c r="G31">
-        <v>3738.214913317593</v>
+        <v>4024.979527812574</v>
       </c>
       <c r="H31">
-        <v>90327.89785420396</v>
+        <v>90328.029125374</v>
       </c>
       <c r="I31">
-        <v>407741</v>
+        <v>431740</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>246385.3809633291</v>
+        <v>263527.5196231824</v>
       </c>
       <c r="O31">
-        <v>129555.3967261117</v>
+        <v>154938.5959236077</v>
       </c>
       <c r="P31">
-        <v>84296.09508327462</v>
+        <v>78073.08634745421</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36451.1068263563</v>
+        <v>36450.93079079734</v>
       </c>
       <c r="B32">
-        <v>8133.882097202786</v>
+        <v>7858.355867491785</v>
       </c>
       <c r="C32">
-        <v>97338.48664585858</v>
+        <v>98271.41551176057</v>
       </c>
       <c r="D32">
-        <v>15059.07507004673</v>
+        <v>14301.55565545283</v>
       </c>
       <c r="E32">
-        <v>49122.96974525639</v>
+        <v>46946.16986042175</v>
       </c>
       <c r="F32">
-        <v>29274.05844253272</v>
+        <v>29475.83676125005</v>
       </c>
       <c r="G32">
-        <v>1450.567463151843</v>
+        <v>1553.637972178001</v>
       </c>
       <c r="H32">
-        <v>36451.1068263563</v>
+        <v>36450.93079079734</v>
       </c>
       <c r="I32">
-        <v>168015</v>
+        <v>165308</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>105472.3687430614</v>
+        <v>106129.7713792524</v>
       </c>
       <c r="O32">
-        <v>64182.04481530312</v>
+        <v>61247.72551587458</v>
       </c>
       <c r="P32">
-        <v>30724.62590568456</v>
+        <v>31029.47473342805</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22121.066472546</v>
+        <v>22120.96127848091</v>
       </c>
       <c r="B33">
-        <v>4614.398265107803</v>
+        <v>4892.649017311995</v>
       </c>
       <c r="C33">
-        <v>56938.3912029182</v>
+        <v>59702.23265205004</v>
       </c>
       <c r="D33">
-        <v>8578.399900982176</v>
+        <v>8854.316601411343</v>
       </c>
       <c r="E33">
-        <v>27729.73433282227</v>
+        <v>28748.22302039153</v>
       </c>
       <c r="F33">
-        <v>17852.14083039481</v>
+        <v>19081.75908168492</v>
       </c>
       <c r="G33">
-        <v>848.1380244606759</v>
+        <v>904.1322491681239</v>
       </c>
       <c r="H33">
-        <v>22121.066472546</v>
+        <v>22120.96127848091</v>
       </c>
       <c r="I33">
-        <v>100038</v>
+        <v>97155</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>61552.78946802601</v>
+        <v>64594.88166936204</v>
       </c>
       <c r="O33">
-        <v>36308.13423380445</v>
+        <v>37602.53962180288</v>
       </c>
       <c r="P33">
-        <v>18700.27885485549</v>
+        <v>19985.89133085305</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26864.06832500201</v>
+        <v>26864.03996041207</v>
       </c>
       <c r="B34">
-        <v>5795.481916612281</v>
+        <v>5561.031179603913</v>
       </c>
       <c r="C34">
-        <v>69421.97100905908</v>
+        <v>71400.15177287925</v>
       </c>
       <c r="D34">
-        <v>9939.442316930847</v>
+        <v>9983.35791948021</v>
       </c>
       <c r="E34">
-        <v>34295.24362739522</v>
+        <v>32913.85720064491</v>
       </c>
       <c r="F34">
-        <v>22757.10697894169</v>
+        <v>22173.58874052714</v>
       </c>
       <c r="G34">
-        <v>1082.838550741653</v>
+        <v>1178.055295639451</v>
       </c>
       <c r="H34">
-        <v>26864.06832500201</v>
+        <v>26864.03996041207</v>
       </c>
       <c r="I34">
-        <v>121324</v>
+        <v>125059</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>75217.45292567136</v>
+        <v>76961.18295248317</v>
       </c>
       <c r="O34">
-        <v>44234.68594432606</v>
+        <v>42897.21512012512</v>
       </c>
       <c r="P34">
-        <v>23839.94552968335</v>
+        <v>23351.64403616659</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0044056589705</v>
+        <v>454.0512608330847</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1303.421127489712</v>
+        <v>1273.638118612771</v>
       </c>
       <c r="D35">
-        <v>165.2997037126391</v>
+        <v>173.5103363404658</v>
       </c>
       <c r="E35">
-        <v>528.0017914640187</v>
+        <v>581.0997338710949</v>
       </c>
       <c r="F35">
-        <v>394.2203958551156</v>
+        <v>341.429820665348</v>
       </c>
       <c r="G35">
-        <v>21.8261969970987</v>
+        <v>18.74127571798683</v>
       </c>
       <c r="H35">
-        <v>454.0044056589705</v>
+        <v>454.0512608330847</v>
       </c>
       <c r="I35">
-        <v>2145</v>
+        <v>2282</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1303.421127489712</v>
+        <v>1273.638118612771</v>
       </c>
       <c r="O35">
-        <v>693.3014951766578</v>
+        <v>754.6100702115607</v>
       </c>
       <c r="P35">
-        <v>416.0465928522143</v>
+        <v>360.1710963833348</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>505.0346266909751</v>
+        <v>504.9272553758328</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1494.449479014477</v>
+        <v>1399.311103946274</v>
       </c>
       <c r="D36">
-        <v>192.5111093808401</v>
+        <v>194.469883009232</v>
       </c>
       <c r="E36">
-        <v>679.227303281722</v>
+        <v>630.7900872851636</v>
       </c>
       <c r="F36">
-        <v>482.1549559430641</v>
+        <v>433.8977808709245</v>
       </c>
       <c r="G36">
-        <v>27.54035290879144</v>
+        <v>24.44147319982362</v>
       </c>
       <c r="H36">
-        <v>505.0346266909751</v>
+        <v>504.9272553758328</v>
       </c>
       <c r="I36">
-        <v>2322</v>
+        <v>2456</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1494.449479014477</v>
+        <v>1399.311103946274</v>
       </c>
       <c r="O36">
-        <v>871.7384126625622</v>
+        <v>825.2599702943955</v>
       </c>
       <c r="P36">
-        <v>509.6953088518555</v>
+        <v>458.3392540707482</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.04273025691</v>
+        <v>11108.0865098209</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>30900.80360573686</v>
+        <v>30992.46060290049</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>17411.3107148818</v>
+        <v>17741.7972036609</v>
       </c>
       <c r="F37">
-        <v>3836.336431513156</v>
+        <v>3265.202434112089</v>
       </c>
       <c r="G37">
-        <v>7045.854204607181</v>
+        <v>6371.002040542767</v>
       </c>
       <c r="H37">
-        <v>11108.04273025691</v>
+        <v>11108.0865098209</v>
       </c>
       <c r="I37">
-        <v>60281</v>
+        <v>60700</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>30900.80360573686</v>
+        <v>30992.46060290049</v>
       </c>
       <c r="O37">
-        <v>17411.3107148818</v>
+        <v>17741.7972036609</v>
       </c>
       <c r="P37">
-        <v>10882.19063612034</v>
+        <v>9636.204474654856</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.943791400694</v>
+        <v>1091.003583836699</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3101.636368779329</v>
+        <v>3078.421883543483</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1670.642425671837</v>
+        <v>1729.902864273842</v>
       </c>
       <c r="F38">
-        <v>325.7401138137486</v>
+        <v>365.9624384919785</v>
       </c>
       <c r="G38">
-        <v>588.5918271484151</v>
+        <v>669.2181273036439</v>
       </c>
       <c r="H38">
-        <v>1090.943791400694</v>
+        <v>1091.003583836699</v>
       </c>
       <c r="I38">
-        <v>5494</v>
+        <v>5802</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3101.636368779329</v>
+        <v>3078.421883543483</v>
       </c>
       <c r="O38">
-        <v>1670.642425671837</v>
+        <v>1729.902864273842</v>
       </c>
       <c r="P38">
-        <v>914.3319409621636</v>
+        <v>1035.180565795622</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9049243672</v>
+        <v>153571.9210179671</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>430634.5901513862</v>
+        <v>414146.9536507046</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>239849.2665291481</v>
+        <v>243757.6626490604</v>
       </c>
       <c r="F39">
-        <v>44582.48472874177</v>
+        <v>51266.4697750107</v>
       </c>
       <c r="G39">
-        <v>89760.37225614399</v>
+        <v>97090.64337567326</v>
       </c>
       <c r="H39">
-        <v>153571.9049243672</v>
+        <v>153571.9210179671</v>
       </c>
       <c r="I39">
-        <v>797745</v>
+        <v>761640</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>430634.5901513862</v>
+        <v>414146.9536507046</v>
       </c>
       <c r="O39">
-        <v>239849.2665291481</v>
+        <v>243757.6626490604</v>
       </c>
       <c r="P39">
-        <v>134342.8569848858</v>
+        <v>148357.113150684</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9155914579</v>
+        <v>152868.9128756445</v>
       </c>
       <c r="B40">
-        <v>28415.7041626778</v>
+        <v>26016.50381532032</v>
       </c>
       <c r="C40">
-        <v>398943.5418446707</v>
+        <v>409319.4680936398</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>241037.4629354435</v>
+        <v>262124.8952142262</v>
       </c>
       <c r="F40">
-        <v>44790.9163327855</v>
+        <v>47857.25645048182</v>
       </c>
       <c r="G40">
-        <v>83485.38750796681</v>
+        <v>87334.44404541503</v>
       </c>
       <c r="H40">
-        <v>152868.9155914579</v>
+        <v>152868.9128756445</v>
       </c>
       <c r="I40">
-        <v>790796</v>
+        <v>777910</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>427359.2460073485</v>
+        <v>435335.9719089601</v>
       </c>
       <c r="O40">
-        <v>241037.4629354435</v>
+        <v>262124.8952142262</v>
       </c>
       <c r="P40">
-        <v>128276.3038407523</v>
+        <v>135191.7004958969</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0083880957</v>
+        <v>339433.0407898935</v>
       </c>
       <c r="B41">
-        <v>56692.32848667612</v>
+        <v>59237.02348788595</v>
       </c>
       <c r="C41">
-        <v>876917.8989546129</v>
+        <v>910068.8925658255</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>526189.8733904396</v>
+        <v>568343.8179220865</v>
       </c>
       <c r="F41">
-        <v>107518.0869602445</v>
+        <v>95809.62818353718</v>
       </c>
       <c r="G41">
-        <v>198006.25232446</v>
+        <v>183869.1491487279</v>
       </c>
       <c r="H41">
-        <v>339433.0083880957</v>
+        <v>339433.0407898935</v>
       </c>
       <c r="I41">
-        <v>1625715</v>
+        <v>1642254</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>933610.227441289</v>
+        <v>969305.9160537114</v>
       </c>
       <c r="O41">
-        <v>526189.8733904396</v>
+        <v>568343.8179220865</v>
       </c>
       <c r="P41">
-        <v>305524.3392847045</v>
+        <v>279678.7773322651</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245458.9800127274</v>
+        <v>245459.0796767958</v>
       </c>
       <c r="B42">
-        <v>42070.05732798828</v>
+        <v>40775.07583100491</v>
       </c>
       <c r="C42">
-        <v>662897.3536874899</v>
+        <v>631171.6011709784</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>414437.7756877233</v>
+        <v>403544.4737429701</v>
       </c>
       <c r="F42">
-        <v>68018.39750664023</v>
+        <v>74735.8051051072</v>
       </c>
       <c r="G42">
-        <v>134090.5991323239</v>
+        <v>134017.4961308822</v>
       </c>
       <c r="H42">
-        <v>245458.9800127274</v>
+        <v>245459.0796767958</v>
       </c>
       <c r="I42">
-        <v>1224965</v>
+        <v>1193644</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>704967.4110154782</v>
+        <v>671946.6770019833</v>
       </c>
       <c r="O42">
-        <v>414437.7756877233</v>
+        <v>403544.4737429701</v>
       </c>
       <c r="P42">
-        <v>202108.9966389642</v>
+        <v>208753.3012359894</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.8951701337</v>
+        <v>367627.1066804541</v>
       </c>
       <c r="B43">
-        <v>66113.17611517894</v>
+        <v>66701.98849909136</v>
       </c>
       <c r="C43">
-        <v>992628.7007674209</v>
+        <v>996825.0291186635</v>
       </c>
       <c r="D43">
-        <v>74837.06698053572</v>
+        <v>79217.55958983451</v>
       </c>
       <c r="E43">
-        <v>497651.5437799644</v>
+        <v>510840.8390150177</v>
       </c>
       <c r="F43">
-        <v>121244.1721940827</v>
+        <v>110773.5245273516</v>
       </c>
       <c r="G43">
-        <v>227478.8558510782</v>
+        <v>204747.5075406461</v>
       </c>
       <c r="H43">
-        <v>367626.8951701337</v>
+        <v>367627.1066804541</v>
       </c>
       <c r="I43">
-        <v>1721712</v>
+        <v>1700819</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1058741.8768826</v>
+        <v>1063527.017617755</v>
       </c>
       <c r="O43">
-        <v>572488.6107605002</v>
+        <v>590058.3986048523</v>
       </c>
       <c r="P43">
-        <v>348723.0280451609</v>
+        <v>315521.0320679977</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9603452865</v>
+        <v>470396.9479926964</v>
       </c>
       <c r="B44">
-        <v>88576.90406225729</v>
+        <v>79043.20979036503</v>
       </c>
       <c r="C44">
-        <v>1259204.69308998</v>
+        <v>1227881.879817462</v>
       </c>
       <c r="D44">
-        <v>107382.4669205453</v>
+        <v>97463.23871989382</v>
       </c>
       <c r="E44">
-        <v>687423.5951984553</v>
+        <v>654647.6868400668</v>
       </c>
       <c r="F44">
-        <v>131738.5619241112</v>
+        <v>158886.4892757676</v>
       </c>
       <c r="G44">
-        <v>256392.2857305539</v>
+        <v>301338.759469118</v>
       </c>
       <c r="H44">
-        <v>470396.9603452865</v>
+        <v>470396.9479926964</v>
       </c>
       <c r="I44">
-        <v>2380536</v>
+        <v>2286912</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1347781.597152237</v>
+        <v>1306925.089607827</v>
       </c>
       <c r="O44">
-        <v>794806.0621190006</v>
+        <v>752110.9255599607</v>
       </c>
       <c r="P44">
-        <v>388130.8476546651</v>
+        <v>460225.2487448857</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.8973102137</v>
+        <v>307102.9929746396</v>
       </c>
       <c r="B45">
-        <v>53596.58118938593</v>
+        <v>51459.77475278575</v>
       </c>
       <c r="C45">
-        <v>810627.2701853493</v>
+        <v>802706.0699259377</v>
       </c>
       <c r="D45">
-        <v>67006.92315830859</v>
+        <v>70501.3111098486</v>
       </c>
       <c r="E45">
-        <v>446630.6013748238</v>
+        <v>459199.1370449303</v>
       </c>
       <c r="F45">
-        <v>90674.31817769322</v>
+        <v>100128.117246685</v>
       </c>
       <c r="G45">
-        <v>165870.7403380249</v>
+        <v>180020.2829265355</v>
       </c>
       <c r="H45">
-        <v>307102.8973102137</v>
+        <v>307102.9929746396</v>
       </c>
       <c r="I45">
-        <v>1439522</v>
+        <v>1486018</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>864223.8513747352</v>
+        <v>854165.8446787235</v>
       </c>
       <c r="O45">
-        <v>513637.5245331324</v>
+        <v>529700.4481547789</v>
       </c>
       <c r="P45">
-        <v>256545.0585157182</v>
+        <v>280148.4001732204</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9110245018</v>
+        <v>327914.9993630386</v>
       </c>
       <c r="B46">
-        <v>59648.67727857309</v>
+        <v>57129.39052184983</v>
       </c>
       <c r="C46">
-        <v>888750.5801035536</v>
+        <v>887465.9922515253</v>
       </c>
       <c r="D46">
-        <v>72550.69001767121</v>
+        <v>66904.30516589519</v>
       </c>
       <c r="E46">
-        <v>486538.872719636</v>
+        <v>451965.7964638743</v>
       </c>
       <c r="F46">
-        <v>99511.89937398728</v>
+        <v>108627.4775066686</v>
       </c>
       <c r="G46">
-        <v>171934.2755004952</v>
+        <v>201648.6339503524</v>
       </c>
       <c r="H46">
-        <v>327914.9110245018</v>
+        <v>327914.9993630386</v>
       </c>
       <c r="I46">
-        <v>1559396</v>
+        <v>1639984</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>948399.2573821266</v>
+        <v>944595.3827733751</v>
       </c>
       <c r="O46">
-        <v>559089.5627373072</v>
+        <v>518870.1016297696</v>
       </c>
       <c r="P46">
-        <v>271446.1748744825</v>
+        <v>310276.111457021</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.0141333005</v>
+        <v>659114.0469180128</v>
       </c>
       <c r="B47">
-        <v>112397.6844365516</v>
+        <v>113138.8692355797</v>
       </c>
       <c r="C47">
-        <v>1757714.598271576</v>
+        <v>1759534.703527974</v>
       </c>
       <c r="D47">
-        <v>141769.5671203378</v>
+        <v>155589.4744991074</v>
       </c>
       <c r="E47">
-        <v>952102.1986944199</v>
+        <v>960500.1185694373</v>
       </c>
       <c r="F47">
-        <v>186699.0224820883</v>
+        <v>203852.4275784108</v>
       </c>
       <c r="G47">
-        <v>362082.1340603828</v>
+        <v>366374.428323219</v>
       </c>
       <c r="H47">
-        <v>659114.0141333005</v>
+        <v>659114.0469180128</v>
       </c>
       <c r="I47">
-        <v>3342732</v>
+        <v>2991896</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1870112.282708128</v>
+        <v>1872673.572763554</v>
       </c>
       <c r="O47">
-        <v>1093871.765814758</v>
+        <v>1116089.593068545</v>
       </c>
       <c r="P47">
-        <v>548781.1565424711</v>
+        <v>570226.8559016298</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.9564491742</v>
+        <v>195930.9899316198</v>
       </c>
       <c r="B48">
-        <v>30849.03679521252</v>
+        <v>37326.80335311093</v>
       </c>
       <c r="C48">
-        <v>522732.9944160172</v>
+        <v>541932.3534779613</v>
       </c>
       <c r="D48">
-        <v>40273.25813154259</v>
+        <v>42105.77618554334</v>
       </c>
       <c r="E48">
-        <v>266862.6093516051</v>
+        <v>285187.6410098946</v>
       </c>
       <c r="F48">
-        <v>60448.60108611425</v>
+        <v>57708.24037031232</v>
       </c>
       <c r="G48">
-        <v>109944.0351731689</v>
+        <v>107045.6115109938</v>
       </c>
       <c r="H48">
-        <v>195930.9564491742</v>
+        <v>195930.9899316198</v>
       </c>
       <c r="I48">
-        <v>945489</v>
+        <v>935480</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>553582.0312112297</v>
+        <v>579259.1568310722</v>
       </c>
       <c r="O48">
-        <v>307135.8674831477</v>
+        <v>327293.4171954379</v>
       </c>
       <c r="P48">
-        <v>170392.6362592832</v>
+        <v>164753.8518813062</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9303844258</v>
+        <v>174400.0989265022</v>
       </c>
       <c r="B49">
-        <v>29709.00920837343</v>
+        <v>29113.08686305076</v>
       </c>
       <c r="C49">
-        <v>457341.7827446561</v>
+        <v>465845.8565436155</v>
       </c>
       <c r="D49">
-        <v>37437.76429804733</v>
+        <v>41000.92176815926</v>
       </c>
       <c r="E49">
-        <v>247413.4515422065</v>
+        <v>260308.9873928733</v>
       </c>
       <c r="F49">
-        <v>59194.96783247029</v>
+        <v>47198.20820797471</v>
       </c>
       <c r="G49">
-        <v>105626.9441748</v>
+        <v>91101.17138401551</v>
       </c>
       <c r="H49">
-        <v>174399.9303844258</v>
+        <v>174400.0989265022</v>
       </c>
       <c r="I49">
-        <v>819030</v>
+        <v>837110</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>487050.7919530296</v>
+        <v>494958.9434066663</v>
       </c>
       <c r="O49">
-        <v>284851.2158402539</v>
+        <v>301309.9091610326</v>
       </c>
       <c r="P49">
-        <v>164821.9120072703</v>
+        <v>138299.3795919902</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.08310937287</v>
+        <v>60247.90613449772</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>168822.725550554</v>
+        <v>168081.520857655</v>
       </c>
       <c r="D50">
-        <v>12362.19074725898</v>
+        <v>13636.46593199625</v>
       </c>
       <c r="E50">
-        <v>86944.16470305776</v>
+        <v>90446.99494162947</v>
       </c>
       <c r="F50">
-        <v>18019.155231717</v>
+        <v>19273.07845433562</v>
       </c>
       <c r="G50">
-        <v>34733.08183132397</v>
+        <v>36033.2921653899</v>
       </c>
       <c r="H50">
-        <v>60248.08310937287</v>
+        <v>60247.90613449772</v>
       </c>
       <c r="I50">
-        <v>296998</v>
+        <v>307894</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>168822.725550554</v>
+        <v>168081.520857655</v>
       </c>
       <c r="O50">
-        <v>99306.35545031674</v>
+        <v>104083.4608736257</v>
       </c>
       <c r="P50">
-        <v>52752.23706304097</v>
+        <v>55306.37061972552</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8460.988638407434</v>
+        <v>8461.100415096144</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23901.2844909663</v>
+        <v>24951.90882181894</v>
       </c>
       <c r="D51">
-        <v>1740.362599681172</v>
+        <v>1889.192597522038</v>
       </c>
       <c r="E51">
-        <v>11307.62474818454</v>
+        <v>12779.72657919626</v>
       </c>
       <c r="F51">
-        <v>2766.557734089507</v>
+        <v>2864.191783208031</v>
       </c>
       <c r="G51">
-        <v>5090.379910082828</v>
+        <v>5060.854011913791</v>
       </c>
       <c r="H51">
-        <v>8460.988638407434</v>
+        <v>8461.100415096144</v>
       </c>
       <c r="I51">
-        <v>42515</v>
+        <v>41838</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23901.2844909663</v>
+        <v>24951.90882181894</v>
       </c>
       <c r="O51">
-        <v>13047.98734786571</v>
+        <v>14668.9191767183</v>
       </c>
       <c r="P51">
-        <v>7856.937644172334</v>
+        <v>7925.045795121821</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2463.008729743595</v>
+        <v>2462.90410618868</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7568.0228794404</v>
+        <v>7448.917031397279</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1303.835766158279</v>
+        <v>1210.646215722522</v>
       </c>
       <c r="F52">
-        <v>3.019058097577376</v>
+        <v>1.13075395586404</v>
       </c>
       <c r="G52">
-        <v>16.53904452475596</v>
+        <v>10.33300571464466</v>
       </c>
       <c r="H52">
-        <v>2463.008729743595</v>
+        <v>2462.90410618868</v>
       </c>
       <c r="I52">
-        <v>11652</v>
+        <v>10502</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7568.0228794404</v>
+        <v>7448.917031397279</v>
       </c>
       <c r="O52">
-        <v>1303.835766158279</v>
+        <v>1210.646215722522</v>
       </c>
       <c r="P52">
-        <v>19.55810262233333</v>
+        <v>11.4637596705087</v>
       </c>
       <c r="Q52">
-        <v>19.72337466080026</v>
+        <v>10.51550804684103</v>
       </c>
       <c r="R52">
-        <v>43.79162450757114</v>
+        <v>40.31190333034905</v>
       </c>
       <c r="S52">
-        <v>63.5149991683714</v>
+        <v>50.82741137719009</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.032424829247</v>
+        <v>3703.961196190396</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11567.15418432345</v>
+        <v>10842.09485016933</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1670.557900404104</v>
+        <v>1602.000150262364</v>
       </c>
       <c r="F53">
-        <v>1.862427657444526</v>
+        <v>4.22667428561496</v>
       </c>
       <c r="G53">
-        <v>10.05708984036097</v>
+        <v>14.36415615391626</v>
       </c>
       <c r="H53">
-        <v>3704.032424829247</v>
+        <v>3703.961196190396</v>
       </c>
       <c r="I53">
-        <v>16858</v>
+        <v>16556</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11567.15418432345</v>
+        <v>10842.09485016933</v>
       </c>
       <c r="O53">
-        <v>1670.557900404104</v>
+        <v>1602.000150262364</v>
       </c>
       <c r="P53">
-        <v>11.9195174978055</v>
+        <v>18.59083043953122</v>
       </c>
       <c r="Q53">
-        <v>30.91233170403735</v>
+        <v>21.33004835134064</v>
       </c>
       <c r="R53">
-        <v>83.25805164467214</v>
+        <v>58.76522966871573</v>
       </c>
       <c r="S53">
-        <v>114.1703833487095</v>
+        <v>80.09527802005636</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169754.1031315217</v>
+        <v>169754.1044018661</v>
       </c>
       <c r="B54">
-        <v>42416.00272144156</v>
+        <v>40230.29121051193</v>
       </c>
       <c r="C54">
-        <v>494901.072187072</v>
+        <v>490088.730763138</v>
       </c>
       <c r="D54">
-        <v>5660.858482129379</v>
+        <v>5465.108799786709</v>
       </c>
       <c r="E54">
-        <v>81001.10275200658</v>
+        <v>79243.75522966987</v>
       </c>
       <c r="F54">
-        <v>52.48965460035062</v>
+        <v>155.2527706027783</v>
       </c>
       <c r="G54">
-        <v>222.9568426697688</v>
+        <v>869.6457428120782</v>
       </c>
       <c r="H54">
-        <v>169754.1031315217</v>
+        <v>169754.1044018661</v>
       </c>
       <c r="I54">
-        <v>699676</v>
+        <v>731929</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>537317.0749085136</v>
+        <v>530319.02197365</v>
       </c>
       <c r="O54">
-        <v>86661.96123413596</v>
+        <v>84708.86402945659</v>
       </c>
       <c r="P54">
-        <v>275.4464972701194</v>
+        <v>1024.898513414857</v>
       </c>
       <c r="Q54">
-        <v>1596.888230470234</v>
+        <v>964.1808284465529</v>
       </c>
       <c r="R54">
-        <v>3746.448296916786</v>
+        <v>4437.916500121666</v>
       </c>
       <c r="S54">
-        <v>5343.33652738702</v>
+        <v>5402.097328568219</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.89339267</v>
+        <v>301000.9082444446</v>
       </c>
       <c r="B55">
-        <v>67549.28777275754</v>
+        <v>75992.93737002611</v>
       </c>
       <c r="C55">
-        <v>858198.0242280344</v>
+        <v>880650.6017686783</v>
       </c>
       <c r="D55">
-        <v>10560.8166682739</v>
+        <v>10386.46786035234</v>
       </c>
       <c r="E55">
-        <v>134562.2500709608</v>
+        <v>136189.9158270221</v>
       </c>
       <c r="F55">
-        <v>541.3414361269843</v>
+        <v>92.11994255288163</v>
       </c>
       <c r="G55">
-        <v>1669.685178371508</v>
+        <v>1196.307892347307</v>
       </c>
       <c r="H55">
-        <v>301000.89339267</v>
+        <v>301000.9082444446</v>
       </c>
       <c r="I55">
-        <v>1281199</v>
+        <v>1252211</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>925747.312000792</v>
+        <v>956643.5391387044</v>
       </c>
       <c r="O55">
-        <v>145123.0667392347</v>
+        <v>146576.3836873745</v>
       </c>
       <c r="P55">
-        <v>2211.026614498493</v>
+        <v>1288.427834900189</v>
       </c>
       <c r="Q55">
-        <v>2982.732131246504</v>
+        <v>1919.971331154648</v>
       </c>
       <c r="R55">
-        <v>6277.090020855971</v>
+        <v>6881.144064266298</v>
       </c>
       <c r="S55">
-        <v>9259.822152102475</v>
+        <v>8801.115395420946</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485904.1128798322</v>
+        <v>485903.9308668756</v>
       </c>
       <c r="B56">
-        <v>120003.4148644319</v>
+        <v>119823.9537519757</v>
       </c>
       <c r="C56">
-        <v>1439130.038748878</v>
+        <v>1419706.504824846</v>
       </c>
       <c r="D56">
-        <v>17650.24495648506</v>
+        <v>18335.44078297705</v>
       </c>
       <c r="E56">
-        <v>221308.5055695635</v>
+        <v>236489.4170806372</v>
       </c>
       <c r="F56">
-        <v>544.265474267698</v>
+        <v>480.7941050376899</v>
       </c>
       <c r="G56">
-        <v>1344.382328474385</v>
+        <v>1246.170681094033</v>
       </c>
       <c r="H56">
-        <v>485904.1128798322</v>
+        <v>485903.9308668756</v>
       </c>
       <c r="I56">
-        <v>2085153</v>
+        <v>1987892</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1559133.45361331</v>
+        <v>1539530.458576822</v>
       </c>
       <c r="O56">
-        <v>238958.7505260486</v>
+        <v>254824.8578636143</v>
       </c>
       <c r="P56">
-        <v>1888.647802742083</v>
+        <v>1726.964786131722</v>
       </c>
       <c r="Q56">
-        <v>3540.127170830594</v>
+        <v>2517.158515843049</v>
       </c>
       <c r="R56">
-        <v>11101.81741625119</v>
+        <v>8296.941110522588</v>
       </c>
       <c r="S56">
-        <v>14641.94458708178</v>
+        <v>10814.09962636564</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.0201493714</v>
+        <v>757270.9878510188</v>
       </c>
       <c r="B57">
-        <v>180877.6308849929</v>
+        <v>184089.8201334379</v>
       </c>
       <c r="C57">
-        <v>2225828.733735668</v>
+        <v>2209673.901079305</v>
       </c>
       <c r="D57">
-        <v>26145.46286582824</v>
+        <v>29071.20990229353</v>
       </c>
       <c r="E57">
-        <v>308131.2503371658</v>
+        <v>343283.7258759597</v>
       </c>
       <c r="F57">
-        <v>308.2817601164903</v>
+        <v>452.0342996879122</v>
       </c>
       <c r="G57">
-        <v>2527.296202139138</v>
+        <v>1648.839685967549</v>
       </c>
       <c r="H57">
-        <v>757271.0201493714</v>
+        <v>757270.9878510188</v>
       </c>
       <c r="I57">
-        <v>3199631</v>
+        <v>3177837</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2406706.36462066</v>
+        <v>2393763.721212742</v>
       </c>
       <c r="O57">
-        <v>334276.713202994</v>
+        <v>372354.9357782532</v>
       </c>
       <c r="P57">
-        <v>2835.577962255628</v>
+        <v>2100.873985655461</v>
       </c>
       <c r="Q57">
-        <v>5557.435038895289</v>
+        <v>5930.700554668867</v>
       </c>
       <c r="R57">
-        <v>15898.57337216129</v>
+        <v>13278.07834673094</v>
       </c>
       <c r="S57">
-        <v>21456.00841105657</v>
+        <v>19208.7789013998</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651328.9052129423</v>
+        <v>651328.9620127493</v>
       </c>
       <c r="B58">
-        <v>158916.1391979715</v>
+        <v>152860.0281911957</v>
       </c>
       <c r="C58">
-        <v>1933257.628645675</v>
+        <v>1879287.817522439</v>
       </c>
       <c r="D58">
-        <v>23420.27912507083</v>
+        <v>23726.0394209432</v>
       </c>
       <c r="E58">
-        <v>277430.980686117</v>
+        <v>295256.9977207568</v>
       </c>
       <c r="F58">
-        <v>334.3625390131246</v>
+        <v>585.7356212429528</v>
       </c>
       <c r="G58">
-        <v>1390.456374427418</v>
+        <v>3149.429124900192</v>
       </c>
       <c r="H58">
-        <v>651328.9052129423</v>
+        <v>651328.9620127493</v>
       </c>
       <c r="I58">
-        <v>2620441</v>
+        <v>2766964</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2092173.767843646</v>
+        <v>2032147.845713634</v>
       </c>
       <c r="O58">
-        <v>300851.2598111879</v>
+        <v>318983.0371417</v>
       </c>
       <c r="P58">
-        <v>1724.818913440542</v>
+        <v>3735.164746143145</v>
       </c>
       <c r="Q58">
-        <v>4783.69129580436</v>
+        <v>4991.912097549004</v>
       </c>
       <c r="R58">
-        <v>12487.07099166482</v>
+        <v>11552.64367768843</v>
       </c>
       <c r="S58">
-        <v>17270.76228746918</v>
+        <v>16544.55577523743</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.087565219</v>
+        <v>889112.0294972658</v>
       </c>
       <c r="B59">
-        <v>219422.9795625057</v>
+        <v>218571.7470208798</v>
       </c>
       <c r="C59">
-        <v>2679116.362553433</v>
+        <v>2663489.421088543</v>
       </c>
       <c r="D59">
-        <v>32002.34111360723</v>
+        <v>26785.84960254365</v>
       </c>
       <c r="E59">
-        <v>377689.9589352061</v>
+        <v>420215.9920174005</v>
       </c>
       <c r="F59">
-        <v>1754.478844596107</v>
+        <v>645.2503962317954</v>
       </c>
       <c r="G59">
-        <v>4114.586714188191</v>
+        <v>4097.316775213304</v>
       </c>
       <c r="H59">
-        <v>889112.087565219</v>
+        <v>889112.0294972658</v>
       </c>
       <c r="I59">
-        <v>3875296</v>
+        <v>3803649</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2898539.342115939</v>
+        <v>2882061.168109423</v>
       </c>
       <c r="O59">
-        <v>409692.3000488133</v>
+        <v>447001.8416199441</v>
       </c>
       <c r="P59">
-        <v>5869.065558784298</v>
+        <v>4742.567171445099</v>
       </c>
       <c r="Q59">
-        <v>6600.382576780985</v>
+        <v>3443.084604865144</v>
       </c>
       <c r="R59">
-        <v>23027.55713352026</v>
+        <v>15956.96770511241</v>
       </c>
       <c r="S59">
-        <v>29627.93971030124</v>
+        <v>19400.05230997756</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.964925234</v>
+        <v>465364.8872528357</v>
       </c>
       <c r="B60">
-        <v>109487.3604466511</v>
+        <v>111024.2403552051</v>
       </c>
       <c r="C60">
-        <v>1359734.296807631</v>
+        <v>1374344.945529613</v>
       </c>
       <c r="D60">
-        <v>14481.29502001919</v>
+        <v>15189.23738618365</v>
       </c>
       <c r="E60">
-        <v>223196.1200840023</v>
+        <v>204369.7958982987</v>
       </c>
       <c r="F60">
-        <v>790.4216484678842</v>
+        <v>675.4944416943152</v>
       </c>
       <c r="G60">
-        <v>1641.220430885372</v>
+        <v>2030.458052438912</v>
       </c>
       <c r="H60">
-        <v>465364.964925234</v>
+        <v>465364.8872528357</v>
       </c>
       <c r="I60">
-        <v>1900048</v>
+        <v>1907020</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1469221.657254282</v>
+        <v>1485369.185884818</v>
       </c>
       <c r="O60">
-        <v>237677.4151040215</v>
+        <v>219559.0332844823</v>
       </c>
       <c r="P60">
-        <v>2431.642079353257</v>
+        <v>2705.952494133227</v>
       </c>
       <c r="Q60">
-        <v>4716.627516227453</v>
+        <v>3389.224387196326</v>
       </c>
       <c r="R60">
-        <v>9590.829267743327</v>
+        <v>7605.040151749024</v>
       </c>
       <c r="S60">
-        <v>14307.45678397078</v>
+        <v>10994.26453894535</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9881393527</v>
+        <v>340623.9306594522</v>
       </c>
       <c r="B61">
-        <v>83973.90537436488</v>
+        <v>83582.94151389616</v>
       </c>
       <c r="C61">
-        <v>994151.3635192165</v>
+        <v>999886.7289042504</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>145275.1398604153</v>
+        <v>161171.8138920002</v>
       </c>
       <c r="F61">
-        <v>129.6809743798122</v>
+        <v>187.5146529676331</v>
       </c>
       <c r="G61">
-        <v>688.5355743263979</v>
+        <v>1144.372630142222</v>
       </c>
       <c r="H61">
-        <v>340623.9881393527</v>
+        <v>340623.9306594522</v>
       </c>
       <c r="I61">
-        <v>1465360</v>
+        <v>1430894</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1078125.268893581</v>
+        <v>1083469.670418147</v>
       </c>
       <c r="O61">
-        <v>145275.1398604153</v>
+        <v>161171.8138920002</v>
       </c>
       <c r="P61">
-        <v>818.21654870621</v>
+        <v>1331.887283109855</v>
       </c>
       <c r="Q61">
-        <v>2217.612654670055</v>
+        <v>2000.573902323381</v>
       </c>
       <c r="R61">
-        <v>6318.484768611163</v>
+        <v>6559.612020248283</v>
       </c>
       <c r="S61">
-        <v>8536.097423281219</v>
+        <v>8560.185922571664</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469690.9665668501</v>
+        <v>469690.9616030442</v>
       </c>
       <c r="B62">
-        <v>116695.3963826592</v>
+        <v>116487.2570109879</v>
       </c>
       <c r="C62">
-        <v>1383698.828023115</v>
+        <v>1351976.298617442</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>210624.6215161254</v>
+        <v>228643.1509584395</v>
       </c>
       <c r="F62">
-        <v>196.6461545153374</v>
+        <v>115.5351570353221</v>
       </c>
       <c r="G62">
-        <v>2127.14498824021</v>
+        <v>411.3299011949134</v>
       </c>
       <c r="H62">
-        <v>469690.9665668501</v>
+        <v>469690.9616030442</v>
       </c>
       <c r="I62">
-        <v>2052283</v>
+        <v>1975214</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1500394.224405774</v>
+        <v>1468463.55562843</v>
       </c>
       <c r="O62">
-        <v>210624.6215161254</v>
+        <v>228643.1509584395</v>
       </c>
       <c r="P62">
-        <v>2323.791142755548</v>
+        <v>526.8650582302355</v>
       </c>
       <c r="Q62">
-        <v>2224.133533570849</v>
+        <v>3160.769137674223</v>
       </c>
       <c r="R62">
-        <v>7441.289303390005</v>
+        <v>8376.180059629616</v>
       </c>
       <c r="S62">
-        <v>9665.422836960854</v>
+        <v>11536.94919730384</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.03637813987</v>
+        <v>20456.97697825325</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>60722.09419512</v>
+        <v>63484.16092103146</v>
       </c>
       <c r="D63">
-        <v>799.8124166243473</v>
+        <v>892.1086562623453</v>
       </c>
       <c r="E63">
-        <v>9064.799001949205</v>
+        <v>9987.749838102463</v>
       </c>
       <c r="F63">
-        <v>5.742046572524644</v>
+        <v>9.507249516212127</v>
       </c>
       <c r="G63">
-        <v>61.39946064649971</v>
+        <v>71.40552708826061</v>
       </c>
       <c r="H63">
-        <v>20457.03637813987</v>
+        <v>20456.97697825325</v>
       </c>
       <c r="I63">
-        <v>94583</v>
+        <v>93549</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>60722.09419512</v>
+        <v>63484.16092103146</v>
       </c>
       <c r="O63">
-        <v>9864.611418573551</v>
+        <v>10879.85849436481</v>
       </c>
       <c r="P63">
-        <v>67.14150721902436</v>
+        <v>80.91277660447274</v>
       </c>
       <c r="Q63">
-        <v>105.5622069993949</v>
+        <v>130.1035832506011</v>
       </c>
       <c r="R63">
-        <v>427.2094976475897</v>
+        <v>461.453886752598</v>
       </c>
       <c r="S63">
-        <v>532.7717046469846</v>
+        <v>591.5574700031991</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.05745347451</v>
+        <v>20631.03248810857</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>62930.81050051759</v>
+        <v>63847.44826441378</v>
       </c>
       <c r="D64">
-        <v>544.8318261366039</v>
+        <v>719.0683439174055</v>
       </c>
       <c r="E64">
-        <v>7577.521321952979</v>
+        <v>9521.485840234136</v>
       </c>
       <c r="F64">
-        <v>17.2884336285837</v>
+        <v>4.864354572934603</v>
       </c>
       <c r="G64">
-        <v>94.52049045176946</v>
+        <v>51.59962875051381</v>
       </c>
       <c r="H64">
-        <v>20631.05745347451</v>
+        <v>20631.03248810857</v>
       </c>
       <c r="I64">
-        <v>96123</v>
+        <v>91877</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>62930.81050051759</v>
+        <v>63847.44826441378</v>
       </c>
       <c r="O64">
-        <v>8122.353148089583</v>
+        <v>10240.55418415154</v>
       </c>
       <c r="P64">
-        <v>111.8089240803532</v>
+        <v>56.46398332344841</v>
       </c>
       <c r="Q64">
-        <v>91.32223708570213</v>
+        <v>94.56458133275137</v>
       </c>
       <c r="R64">
-        <v>356.2212975577306</v>
+        <v>315.148120528231</v>
       </c>
       <c r="S64">
-        <v>447.5435346434327</v>
+        <v>409.7127018609823</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.954960889307</v>
+        <v>1767.965643293818</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5667.252884643475</v>
+        <v>5266.946299892054</v>
       </c>
       <c r="D65">
-        <v>68.45199331366611</v>
+        <v>47.37930336791178</v>
       </c>
       <c r="E65">
-        <v>852.4815514925022</v>
+        <v>737.6053245725808</v>
       </c>
       <c r="F65">
-        <v>1.929643119191784</v>
+        <v>0.4784341264013432</v>
       </c>
       <c r="G65">
-        <v>6.313552834764244</v>
+        <v>1.702036983774303</v>
       </c>
       <c r="H65">
-        <v>1767.954960889307</v>
+        <v>1767.965643293818</v>
       </c>
       <c r="I65">
-        <v>7902</v>
+        <v>8140</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5667.252884643475</v>
+        <v>5266.946299892054</v>
       </c>
       <c r="O65">
-        <v>920.9335448061682</v>
+        <v>784.9846279404926</v>
       </c>
       <c r="P65">
-        <v>8.243195953956029</v>
+        <v>2.180471110175646</v>
       </c>
       <c r="Q65">
-        <v>9.406296258412302</v>
+        <v>12.40020733924566</v>
       </c>
       <c r="R65">
-        <v>31.31431335120175</v>
+        <v>23.2633449093358</v>
       </c>
       <c r="S65">
-        <v>40.72060960961406</v>
+        <v>35.66355224858146</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.101673395785</v>
+        <v>123.0117358246674</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>374.8887929860402</v>
+        <v>363.8471304934223</v>
       </c>
       <c r="D66">
-        <v>3.406649227722575</v>
+        <v>4.571114150322166</v>
       </c>
       <c r="E66">
-        <v>55.46607189042857</v>
+        <v>59.70198264693497</v>
       </c>
       <c r="F66">
-        <v>0.1096777093427871</v>
+        <v>0.01728401634990588</v>
       </c>
       <c r="G66">
-        <v>0.6392811443873447</v>
+        <v>0.1279716834368965</v>
       </c>
       <c r="H66">
-        <v>123.101673395785</v>
+        <v>123.0117358246674</v>
       </c>
       <c r="I66">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>374.8887929860402</v>
+        <v>363.8471304934223</v>
       </c>
       <c r="O66">
-        <v>58.87272111815115</v>
+        <v>64.27309679725714</v>
       </c>
       <c r="P66">
-        <v>0.7489588537301318</v>
+        <v>0.1452556997868024</v>
       </c>
       <c r="Q66">
-        <v>0.967731543177125</v>
+        <v>0.4705445012513456</v>
       </c>
       <c r="R66">
-        <v>2.4463561621714</v>
+        <v>2.756730270667472</v>
       </c>
       <c r="S66">
-        <v>3.414087705348525</v>
+        <v>3.227274771918818</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.1567625327811</v>
+        <v>203.1302526371214</v>
       </c>
       <c r="B67">
-        <v>43.85656208707295</v>
+        <v>42.75371594382742</v>
       </c>
       <c r="C67">
-        <v>314.337128932065</v>
+        <v>316.4271640362121</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>125.0850515466402</v>
+        <v>112.2498367016827</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.1567625327811</v>
+        <v>203.1302526371214</v>
       </c>
       <c r="I67">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>358.193691019138</v>
+        <v>359.1808799800396</v>
       </c>
       <c r="O67">
-        <v>125.0850515466402</v>
+        <v>112.2498367016827</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.953958064143182</v>
+        <v>1.798534515271257</v>
       </c>
       <c r="R67">
-        <v>15.9065231250318</v>
+        <v>13.04477937815119</v>
       </c>
       <c r="S67">
-        <v>17.86048118917498</v>
+        <v>14.84331389342245</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.8607034799701</v>
+        <v>261.970441790112</v>
       </c>
       <c r="B68">
-        <v>62.68654540888653</v>
+        <v>61.02038081836713</v>
       </c>
       <c r="C68">
-        <v>417.5087658537835</v>
+        <v>424.0532362996225</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>176.4827967859997</v>
+        <v>154.0298035961506</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.8607034799701</v>
+        <v>261.970441790112</v>
       </c>
       <c r="I68">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>480.1953112626701</v>
+        <v>485.0736171179896</v>
       </c>
       <c r="O68">
-        <v>176.4827967859997</v>
+        <v>154.0298035961506</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.977538438256873</v>
+        <v>1.837688588157366</v>
       </c>
       <c r="R68">
-        <v>16.79085533528346</v>
+        <v>17.54039041075522</v>
       </c>
       <c r="S68">
-        <v>18.76839377354033</v>
+        <v>19.37807899891259</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.035779167133</v>
+        <v>2405.897933703534</v>
       </c>
       <c r="B69">
-        <v>568.0562472067579</v>
+        <v>536.2567169300962</v>
       </c>
       <c r="C69">
-        <v>3860.590798140875</v>
+        <v>3765.626691556193</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1421.569794293092</v>
+        <v>1250.713063042733</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.035779167133</v>
+        <v>2405.897933703534</v>
       </c>
       <c r="I69">
-        <v>7590</v>
+        <v>8190</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4428.647045347633</v>
+        <v>4301.883408486289</v>
       </c>
       <c r="O69">
-        <v>1421.569794293092</v>
+        <v>1250.713063042733</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>15.72136406743764</v>
+        <v>17.56055006452651</v>
       </c>
       <c r="R69">
-        <v>165.0413559731449</v>
+        <v>132.238796794821</v>
       </c>
       <c r="S69">
-        <v>180.7627200405825</v>
+        <v>149.7993468593475</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.919519374698</v>
+        <v>1503.043275475708</v>
       </c>
       <c r="B70">
-        <v>346.1397147328396</v>
+        <v>349.319166266648</v>
       </c>
       <c r="C70">
-        <v>2404.207334895669</v>
+        <v>2367.23414875047</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>838.4199252571314</v>
+        <v>993.271065184681</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.919519374698</v>
+        <v>1503.043275475708</v>
       </c>
       <c r="I70">
-        <v>4848</v>
+        <v>4911</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2750.347049628508</v>
+        <v>2716.553315017118</v>
       </c>
       <c r="O70">
-        <v>838.4199252571314</v>
+        <v>993.271065184681</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>7.265544402502662</v>
+        <v>7.277055925153938</v>
       </c>
       <c r="R70">
-        <v>85.45572332245138</v>
+        <v>92.25529664917418</v>
       </c>
       <c r="S70">
-        <v>92.72126772495403</v>
+        <v>99.53235257432812</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.093405112</v>
+        <v>19901.1151102632</v>
       </c>
       <c r="B71">
-        <v>4562.329047772765</v>
+        <v>4563.675246026061</v>
       </c>
       <c r="C71">
-        <v>31358.96405306815</v>
+        <v>31777.78040656067</v>
       </c>
       <c r="D71">
-        <v>576.4709042094434</v>
+        <v>750.4852412735562</v>
       </c>
       <c r="E71">
-        <v>10985.72599124102</v>
+        <v>11116.40280753706</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.093405112</v>
+        <v>19901.1151102632</v>
       </c>
       <c r="I71">
-        <v>61251</v>
+        <v>66468</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>35921.29310084091</v>
+        <v>36341.45565258674</v>
       </c>
       <c r="O71">
-        <v>11562.19689545046</v>
+        <v>11866.88804881062</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>126.3701350149763</v>
+        <v>149.2639532281764</v>
       </c>
       <c r="R71">
-        <v>1377.380398422685</v>
+        <v>1562.565605535058</v>
       </c>
       <c r="S71">
-        <v>1503.750533437662</v>
+        <v>1711.829558763234</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.02573581927</v>
+        <v>41981.86884760216</v>
       </c>
       <c r="B72">
-        <v>9568.317416939328</v>
+        <v>9468.522643473356</v>
       </c>
       <c r="C72">
-        <v>68495.84598247941</v>
+        <v>65799.07713279578</v>
       </c>
       <c r="D72">
-        <v>1682.685677958534</v>
+        <v>1593.66621990959</v>
       </c>
       <c r="E72">
-        <v>27087.33066235137</v>
+        <v>24756.56194212137</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.02573581927</v>
+        <v>41981.86884760216</v>
       </c>
       <c r="I72">
-        <v>137645</v>
+        <v>132750</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>78064.16339941874</v>
+        <v>75267.59977626914</v>
       </c>
       <c r="O72">
-        <v>28770.01634030991</v>
+        <v>26350.22816203096</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>265.4479810570238</v>
+        <v>441.6268545439032</v>
       </c>
       <c r="R72">
-        <v>3108.536042607254</v>
+        <v>2702.631698751653</v>
       </c>
       <c r="S72">
-        <v>3373.984023664278</v>
+        <v>3144.258553295556</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44205.15162613765</v>
+        <v>44204.88930462532</v>
       </c>
       <c r="B73">
-        <v>10311.08779376215</v>
+        <v>10130.00865278391</v>
       </c>
       <c r="C73">
-        <v>70548.7046037542</v>
+        <v>71586.64773549094</v>
       </c>
       <c r="D73">
-        <v>1656.224826639099</v>
+        <v>1552.766730986332</v>
       </c>
       <c r="E73">
-        <v>27173.25862406644</v>
+        <v>24624.00141217608</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44205.15162613765</v>
+        <v>44204.88930462532</v>
       </c>
       <c r="I73">
-        <v>144534</v>
+        <v>140262</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>80859.79239751634</v>
+        <v>81716.65638827485</v>
       </c>
       <c r="O73">
-        <v>28829.48345070554</v>
+        <v>26176.76814316242</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>268.7710569535729</v>
+        <v>349.6218389962244</v>
       </c>
       <c r="R73">
-        <v>3130.619522010748</v>
+        <v>3333.73640046186</v>
       </c>
       <c r="S73">
-        <v>3399.39057896432</v>
+        <v>3683.358239458085</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.96485955149</v>
+        <v>78745.96359451511</v>
       </c>
       <c r="B74">
-        <v>17593.67850636488</v>
+        <v>18855.09035382593</v>
       </c>
       <c r="C74">
-        <v>123768.1413753126</v>
+        <v>127099.6214650512</v>
       </c>
       <c r="D74">
-        <v>2281.24105326369</v>
+        <v>2818.036956417815</v>
       </c>
       <c r="E74">
-        <v>40666.94210008338</v>
+        <v>49032.86703895964</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.96485955149</v>
+        <v>78745.96359451511</v>
       </c>
       <c r="I74">
-        <v>263117</v>
+        <v>272006</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>141361.8198816775</v>
+        <v>145954.7118188772</v>
       </c>
       <c r="O74">
-        <v>42948.18315334707</v>
+        <v>51850.90399537745</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>481.0008177662602</v>
+        <v>342.8261132585446</v>
       </c>
       <c r="R74">
-        <v>4946.086003648021</v>
+        <v>4154.929212965135</v>
       </c>
       <c r="S74">
-        <v>5427.086821414281</v>
+        <v>4497.75532622368</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.09415130897</v>
+        <v>38059.96676759685</v>
       </c>
       <c r="B75">
-        <v>8308.971228834962</v>
+        <v>8997.329239508816</v>
       </c>
       <c r="C75">
-        <v>61162.36464574173</v>
+        <v>61380.71674306216</v>
       </c>
       <c r="D75">
-        <v>1366.322957034639</v>
+        <v>1450.330447784324</v>
       </c>
       <c r="E75">
-        <v>20862.9338713169</v>
+        <v>22176.76744624456</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.09415130897</v>
+        <v>38059.96676759685</v>
       </c>
       <c r="I75">
-        <v>123163</v>
+        <v>122748</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>69471.33587457669</v>
+        <v>70378.04598257098</v>
       </c>
       <c r="O75">
-        <v>22229.25682835154</v>
+        <v>23627.09789402888</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>337.3733154281709</v>
+        <v>361.8683629098367</v>
       </c>
       <c r="R75">
-        <v>2646.272300652837</v>
+        <v>2330.628715058256</v>
       </c>
       <c r="S75">
-        <v>2983.645616081008</v>
+        <v>2692.497077968093</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79351.14917463074</v>
+        <v>79350.92225038509</v>
       </c>
       <c r="B76">
-        <v>18420.12163894463</v>
+        <v>18933.7109573533</v>
       </c>
       <c r="C76">
-        <v>128792.472503073</v>
+        <v>130041.7321077472</v>
       </c>
       <c r="D76">
-        <v>3053.139902249982</v>
+        <v>2875.977488252599</v>
       </c>
       <c r="E76">
-        <v>49508.92951733417</v>
+        <v>42990.93600288484</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79351.14917463074</v>
+        <v>79350.92225038509</v>
       </c>
       <c r="I76">
-        <v>256351</v>
+        <v>259455</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>147212.5941420176</v>
+        <v>148975.4430651005</v>
       </c>
       <c r="O76">
-        <v>52562.06941958415</v>
+        <v>45866.91349113744</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>809.083700453018</v>
+        <v>812.6090305607147</v>
       </c>
       <c r="R76">
-        <v>5944.090200683629</v>
+        <v>6067.768925791113</v>
       </c>
       <c r="S76">
-        <v>6753.173901136646</v>
+        <v>6880.377956351827</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.9698142725</v>
+        <v>45067.9873952665</v>
       </c>
       <c r="B77">
-        <v>10251.01132028715</v>
+        <v>10386.80904505933</v>
       </c>
       <c r="C77">
-        <v>73008.85917123733</v>
+        <v>72258.33915951873</v>
       </c>
       <c r="D77">
-        <v>1259.774919132393</v>
+        <v>1963.823535847478</v>
       </c>
       <c r="E77">
-        <v>23540.28435666853</v>
+        <v>29674.65196988279</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.9698142725</v>
+        <v>45067.9873952665</v>
       </c>
       <c r="I77">
-        <v>142984</v>
+        <v>147044</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>83259.87049152449</v>
+        <v>82645.14820457806</v>
       </c>
       <c r="O77">
-        <v>24800.05927580092</v>
+        <v>31638.47550573027</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>252.9025110934325</v>
+        <v>255.0608488608761</v>
       </c>
       <c r="R77">
-        <v>2517.12830587134</v>
+        <v>2548.160367221634</v>
       </c>
       <c r="S77">
-        <v>2770.030816964772</v>
+        <v>2803.22121608251</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14294.96440030356</v>
+        <v>14295.01494175128</v>
       </c>
       <c r="B78">
-        <v>3222.257591412255</v>
+        <v>3212.273378946887</v>
       </c>
       <c r="C78">
-        <v>22513.88438902682</v>
+        <v>22499.24217444849</v>
       </c>
       <c r="D78">
-        <v>456.9451503762785</v>
+        <v>538.868302808754</v>
       </c>
       <c r="E78">
-        <v>8059.340681239292</v>
+        <v>8638.606954218467</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14294.96440030356</v>
+        <v>14295.01494175128</v>
       </c>
       <c r="I78">
-        <v>47367</v>
+        <v>47559</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>25736.14198043908</v>
+        <v>25711.51555339538</v>
       </c>
       <c r="O78">
-        <v>8516.285831615571</v>
+        <v>9177.475257027221</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>96.16159676536545</v>
+        <v>105.0033394890165</v>
       </c>
       <c r="R78">
-        <v>973.7649327103403</v>
+        <v>976.3583812581953</v>
       </c>
       <c r="S78">
-        <v>1069.926529475706</v>
+        <v>1081.361720747212</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.03856906615</v>
+        <v>27737.92005496574</v>
       </c>
       <c r="B79">
-        <v>6399.527526403853</v>
+        <v>6331.183658504245</v>
       </c>
       <c r="C79">
-        <v>44906.70184648744</v>
+        <v>43819.51244206408</v>
       </c>
       <c r="D79">
-        <v>993.4827492630082</v>
+        <v>777.1634576991862</v>
       </c>
       <c r="E79">
-        <v>17794.48870995216</v>
+        <v>13116.51563241469</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.03856906615</v>
+        <v>27737.92005496574</v>
       </c>
       <c r="I79">
-        <v>89256</v>
+        <v>90617</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>51306.22937289129</v>
+        <v>50150.69610056833</v>
       </c>
       <c r="O79">
-        <v>18787.97145921517</v>
+        <v>13893.67909011388</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>212.1614298192966</v>
+        <v>114.5850912283194</v>
       </c>
       <c r="R79">
-        <v>1621.544013462757</v>
+        <v>1339.76978949123</v>
       </c>
       <c r="S79">
-        <v>1833.705443282053</v>
+        <v>1454.354880719549</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.134876753586</v>
+        <v>2820.106936792649</v>
       </c>
       <c r="B80">
-        <v>616.8281709728483</v>
+        <v>660.9297286627908</v>
       </c>
       <c r="C80">
-        <v>4488.707184471677</v>
+        <v>4506.346072362739</v>
       </c>
       <c r="D80">
-        <v>82.80193399408063</v>
+        <v>91.73857130616455</v>
       </c>
       <c r="E80">
-        <v>1353.071228304312</v>
+        <v>1522.511959309393</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.134876753586</v>
+        <v>2820.106936792649</v>
       </c>
       <c r="I80">
-        <v>9143</v>
+        <v>9332</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5105.535355444525</v>
+        <v>5167.275801025529</v>
       </c>
       <c r="O80">
-        <v>1435.873162298392</v>
+        <v>1614.250530615557</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>26.55628491431113</v>
+        <v>20.15164209277034</v>
       </c>
       <c r="R80">
-        <v>228.6243101710211</v>
+        <v>178.4599907849531</v>
       </c>
       <c r="S80">
-        <v>255.1805950853323</v>
+        <v>198.6116328777234</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3591.031331820137</v>
+        <v>3590.851013859952</v>
       </c>
       <c r="B81">
-        <v>795.1953980899311</v>
+        <v>826.1778564005093</v>
       </c>
       <c r="C81">
-        <v>5644.039890509319</v>
+        <v>5751.963187118305</v>
       </c>
       <c r="D81">
-        <v>120.1640499106354</v>
+        <v>105.7152032520743</v>
       </c>
       <c r="E81">
-        <v>2007.592841406821</v>
+        <v>2013.573435227327</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3591.031331820137</v>
+        <v>3590.851013859952</v>
       </c>
       <c r="I81">
-        <v>12006</v>
+        <v>11378</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6439.23528859925</v>
+        <v>6578.141043518814</v>
       </c>
       <c r="O81">
-        <v>2127.756891317457</v>
+        <v>2119.288638479401</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>20.50413569347802</v>
+        <v>18.30395794135795</v>
       </c>
       <c r="R81">
-        <v>214.3720608840898</v>
+        <v>221.9208853804941</v>
       </c>
       <c r="S81">
-        <v>234.8761965775678</v>
+        <v>240.2248433218521</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.948253624392</v>
+        <v>1156.029090219644</v>
       </c>
       <c r="B82">
-        <v>275.6104257419925</v>
+        <v>281.2477539311159</v>
       </c>
       <c r="C82">
-        <v>1907.876306653737</v>
+        <v>1835.458263781362</v>
       </c>
       <c r="D82">
-        <v>39.94218974281554</v>
+        <v>44.61128881661611</v>
       </c>
       <c r="E82">
-        <v>692.1953291270776</v>
+        <v>710.6171995441208</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.948253624392</v>
+        <v>1156.029090219644</v>
       </c>
       <c r="I82">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2183.486732395729</v>
+        <v>2116.706017712478</v>
       </c>
       <c r="O82">
-        <v>732.1375188698931</v>
+        <v>755.228488360737</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8.829981534398755</v>
+        <v>8.367631613301281</v>
       </c>
       <c r="R82">
-        <v>70.06000540323674</v>
+        <v>82.1541380927651</v>
       </c>
       <c r="S82">
-        <v>78.8899869376355</v>
+        <v>90.52176970606638</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.94173826474</v>
+        <v>13237.89263408011</v>
       </c>
       <c r="B83">
-        <v>1927.218404045897</v>
+        <v>1905.603608419932</v>
       </c>
       <c r="C83">
-        <v>21832.84774600544</v>
+        <v>21853.42029073375</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>7877.41872212949</v>
+        <v>8154.33399303044</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.94173826474</v>
+        <v>13237.89263408011</v>
       </c>
       <c r="I83">
-        <v>42070</v>
+        <v>42057</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>23760.06615005133</v>
+        <v>23759.02389915369</v>
       </c>
       <c r="O83">
-        <v>7877.41872212949</v>
+        <v>8154.33399303044</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>15.67012358874787</v>
+        <v>13.78891152504838</v>
       </c>
       <c r="R83">
-        <v>942.1019596589269</v>
+        <v>1171.446922814604</v>
       </c>
       <c r="S83">
-        <v>957.7720832476748</v>
+        <v>1185.235834339653</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6787.99593392283</v>
+        <v>6788.035491907137</v>
       </c>
       <c r="B84">
-        <v>911.9540825719636</v>
+        <v>984.9595544837277</v>
       </c>
       <c r="C84">
-        <v>11515.49456340917</v>
+        <v>11392.96745339686</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4046.064008178099</v>
+        <v>4501.910530529649</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6787.99593392283</v>
+        <v>6788.035491907137</v>
       </c>
       <c r="I84">
-        <v>20491</v>
+        <v>21705</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12427.44864598113</v>
+        <v>12377.92700788058</v>
       </c>
       <c r="O84">
-        <v>4046.064008178099</v>
+        <v>4501.910530529649</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2.549391264564611</v>
+        <v>9.929945890138736</v>
       </c>
       <c r="R84">
-        <v>454.1170906322041</v>
+        <v>527.2688743061481</v>
       </c>
       <c r="S84">
-        <v>456.6664818967687</v>
+        <v>537.1988201962868</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.040574100761</v>
+        <v>1507.935680055776</v>
       </c>
       <c r="B85">
-        <v>228.987171447196</v>
+        <v>215.851447401445</v>
       </c>
       <c r="C85">
-        <v>2541.305056245456</v>
+        <v>2495.481065554202</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>927.7040093702099</v>
+        <v>962.4201965340056</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.040574100761</v>
+        <v>1507.935680055776</v>
       </c>
       <c r="I85">
-        <v>4716</v>
+        <v>4917</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2770.292227692652</v>
+        <v>2711.332512955647</v>
       </c>
       <c r="O85">
-        <v>927.7040093702099</v>
+        <v>962.4201965340056</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.567473953534049</v>
+        <v>0.70696528148892</v>
       </c>
       <c r="R85">
-        <v>104.5700161944603</v>
+        <v>119.2798197090965</v>
       </c>
       <c r="S85">
-        <v>106.1374901479943</v>
+        <v>119.9867849905854</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.89830178721</v>
+        <v>25213.15215452862</v>
       </c>
       <c r="B86">
-        <v>3798.367827197217</v>
+        <v>3592.487214127358</v>
       </c>
       <c r="C86">
-        <v>42677.40132778815</v>
+        <v>43943.92736295387</v>
       </c>
       <c r="D86">
-        <v>697.4903213745018</v>
+        <v>596.2882660346592</v>
       </c>
       <c r="E86">
-        <v>15321.44683392249</v>
+        <v>15538.51449892684</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.89830178721</v>
+        <v>25213.15215452862</v>
       </c>
       <c r="I86">
-        <v>78698</v>
+        <v>77223</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>46475.76915498537</v>
+        <v>47536.41457708123</v>
       </c>
       <c r="O86">
-        <v>16018.93715529699</v>
+        <v>16134.8027649615</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>15.11013602742358</v>
+        <v>19.98742917703832</v>
       </c>
       <c r="R86">
-        <v>2021.557802980063</v>
+        <v>1866.233162749696</v>
       </c>
       <c r="S86">
-        <v>2036.667939007487</v>
+        <v>1886.220591926734</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6443.848844444099</v>
+        <v>6444.091917369257</v>
       </c>
       <c r="B87">
-        <v>910.0698500886801</v>
+        <v>898.2824824076814</v>
       </c>
       <c r="C87">
-        <v>10837.10388123844</v>
+        <v>10537.09407721184</v>
       </c>
       <c r="D87">
-        <v>140.3510789246708</v>
+        <v>158.7853973086019</v>
       </c>
       <c r="E87">
-        <v>3443.469475836898</v>
+        <v>3570.747778196809</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6443.848844444099</v>
+        <v>6444.091917369257</v>
       </c>
       <c r="I87">
-        <v>20110</v>
+        <v>21121</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11747.17373132712</v>
+        <v>11435.37655961952</v>
       </c>
       <c r="O87">
-        <v>3583.820554761569</v>
+        <v>3729.533175505411</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>8.550807413175587</v>
+        <v>5.462507451294695</v>
       </c>
       <c r="R87">
-        <v>389.9517637340818</v>
+        <v>437.046837288515</v>
       </c>
       <c r="S87">
-        <v>398.5025711472574</v>
+        <v>442.5093447398097</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55703.86348752515</v>
+        <v>55704.04649782452</v>
       </c>
       <c r="B88">
-        <v>7659.433256101147</v>
+        <v>7737.090641822066</v>
       </c>
       <c r="C88">
-        <v>94315.95498886728</v>
+        <v>93770.27411756499</v>
       </c>
       <c r="D88">
-        <v>1458.772939806026</v>
+        <v>1411.47652977182</v>
       </c>
       <c r="E88">
-        <v>33815.56932636169</v>
+        <v>34908.65550399348</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55703.86348752515</v>
+        <v>55704.04649782452</v>
       </c>
       <c r="I88">
-        <v>179735</v>
+        <v>174699</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>101975.3882449684</v>
+        <v>101507.3647593871</v>
       </c>
       <c r="O88">
-        <v>35274.34226616772</v>
+        <v>36320.1320337653</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>21.0516175506671</v>
+        <v>91.97135658720362</v>
       </c>
       <c r="R88">
-        <v>4224.569939288319</v>
+        <v>4171.932336959111</v>
       </c>
       <c r="S88">
-        <v>4245.621556838986</v>
+        <v>4263.903693546315</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201455.8649435743</v>
+        <v>201456.1541695161</v>
       </c>
       <c r="B89">
-        <v>29470.33454919082</v>
+        <v>31757.50927896198</v>
       </c>
       <c r="C89">
-        <v>343132.6613366628</v>
+        <v>348879.608745632</v>
       </c>
       <c r="D89">
-        <v>4950.628038449077</v>
+        <v>4411.742181475827</v>
       </c>
       <c r="E89">
-        <v>107109.090987226</v>
+        <v>134966.7546582136</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201455.8649435743</v>
+        <v>201456.1541695161</v>
       </c>
       <c r="I89">
-        <v>615698</v>
+        <v>635516</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>372602.9958858537</v>
+        <v>380637.118024594</v>
       </c>
       <c r="O89">
-        <v>112059.7190256751</v>
+        <v>139378.4968396894</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>125.5204523666985</v>
+        <v>101.4017032756999</v>
       </c>
       <c r="R89">
-        <v>16196.05157750832</v>
+        <v>13981.50598656974</v>
       </c>
       <c r="S89">
-        <v>16321.57202987502</v>
+        <v>14082.90768984544</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.90602793494</v>
+        <v>15485.84458447859</v>
       </c>
       <c r="B90">
-        <v>2286.236017705542</v>
+        <v>2258.105756626771</v>
       </c>
       <c r="C90">
-        <v>26790.55211555895</v>
+        <v>25901.64689836109</v>
       </c>
       <c r="D90">
-        <v>472.1697982707028</v>
+        <v>353.7433910366718</v>
       </c>
       <c r="E90">
-        <v>9783.477365840145</v>
+        <v>8487.650914189362</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.90602793494</v>
+        <v>15485.84458447859</v>
       </c>
       <c r="I90">
-        <v>49252</v>
+        <v>48944</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>29076.78813326449</v>
+        <v>28159.75265498786</v>
       </c>
       <c r="O90">
-        <v>10255.64716411085</v>
+        <v>8841.394305226035</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>5.91787487571676</v>
+        <v>11.43409212639715</v>
       </c>
       <c r="R90">
-        <v>1366.515379932318</v>
+        <v>1154.666505566007</v>
       </c>
       <c r="S90">
-        <v>1372.433254808035</v>
+        <v>1166.100597692405</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14404.13794925692</v>
+        <v>14403.95522137215</v>
       </c>
       <c r="B91">
-        <v>2165.617247875275</v>
+        <v>2024.179376310709</v>
       </c>
       <c r="C91">
-        <v>24994.10082488524</v>
+        <v>24243.39846501828</v>
       </c>
       <c r="D91">
-        <v>350.374162535294</v>
+        <v>375.4461468314826</v>
       </c>
       <c r="E91">
-        <v>9046.406686846854</v>
+        <v>9188.319097058566</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14404.13794925692</v>
+        <v>14403.95522137215</v>
       </c>
       <c r="I91">
-        <v>47075</v>
+        <v>45466</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>27159.71807276052</v>
+        <v>26267.57784132899</v>
       </c>
       <c r="O91">
-        <v>9396.780849382149</v>
+        <v>9563.765243890048</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>10.16300010708661</v>
+        <v>22.77216432222498</v>
       </c>
       <c r="R91">
-        <v>1053.741878980203</v>
+        <v>1059.835583855111</v>
       </c>
       <c r="S91">
-        <v>1063.90487908729</v>
+        <v>1082.607748177336</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.14876463099</v>
+        <v>46955.87799329645</v>
       </c>
       <c r="B92">
-        <v>6983.374366613993</v>
+        <v>6689.193165479613</v>
       </c>
       <c r="C92">
-        <v>78362.05251050576</v>
+        <v>79085.54187063866</v>
       </c>
       <c r="D92">
-        <v>940.7282527687428</v>
+        <v>1216.4815613985</v>
       </c>
       <c r="E92">
-        <v>24124.43568237179</v>
+        <v>28360.02080017239</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.14876463099</v>
+        <v>46955.87799329645</v>
       </c>
       <c r="I92">
-        <v>149714</v>
+        <v>148760</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>85345.42687711975</v>
+        <v>85774.73503611826</v>
       </c>
       <c r="O92">
-        <v>25065.16393514053</v>
+        <v>29576.50236157089</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>21.86089069038914</v>
+        <v>23.30205664664837</v>
       </c>
       <c r="R92">
-        <v>3113.325321678561</v>
+        <v>3737.925195615496</v>
       </c>
       <c r="S92">
-        <v>3135.18621236895</v>
+        <v>3761.227252262144</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.98046816155</v>
+        <v>24420.02304360403</v>
       </c>
       <c r="B93">
-        <v>3749.504348377451</v>
+        <v>3604.757415964299</v>
       </c>
       <c r="C93">
-        <v>39785.37521698332</v>
+        <v>42619.566873625</v>
       </c>
       <c r="D93">
-        <v>604.0596914111014</v>
+        <v>615.364040642734</v>
       </c>
       <c r="E93">
-        <v>13677.65237508859</v>
+        <v>15099.04205746586</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.98046816155</v>
+        <v>24420.02304360403</v>
       </c>
       <c r="I93">
-        <v>80158</v>
+        <v>75153</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>43534.87956536077</v>
+        <v>46224.3242895893</v>
       </c>
       <c r="O93">
-        <v>14281.71206649969</v>
+        <v>15714.4060981086</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>41.35789974690871</v>
+        <v>8.795219431420922</v>
       </c>
       <c r="R93">
-        <v>1763.953804086166</v>
+        <v>1429.772372430957</v>
       </c>
       <c r="S93">
-        <v>1805.311703833075</v>
+        <v>1438.567591862378</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70372.02838150754</v>
+        <v>70371.92005709175</v>
       </c>
       <c r="B94">
-        <v>9486.581663613624</v>
+        <v>9746.080229237688</v>
       </c>
       <c r="C94">
-        <v>116641.8629865766</v>
+        <v>112923.0924471571</v>
       </c>
       <c r="D94">
-        <v>1763.380427775043</v>
+        <v>1742.140034087191</v>
       </c>
       <c r="E94">
-        <v>45192.00484525337</v>
+        <v>44315.52652962628</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70372.02838150754</v>
+        <v>70371.92005709175</v>
       </c>
       <c r="I94">
-        <v>235834</v>
+        <v>227491</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>126128.4446501902</v>
+        <v>122669.1726763948</v>
       </c>
       <c r="O94">
-        <v>46955.38527302841</v>
+        <v>46057.66656371347</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>26.16147065792145</v>
+        <v>104.7567627059816</v>
       </c>
       <c r="R94">
-        <v>4869.49246904736</v>
+        <v>4691.447407118943</v>
       </c>
       <c r="S94">
-        <v>4895.653939705281</v>
+        <v>4796.204169824925</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.952626184658</v>
+        <v>7573.973672199128</v>
       </c>
       <c r="B95">
-        <v>1110.430730038473</v>
+        <v>1131.581829170866</v>
       </c>
       <c r="C95">
-        <v>12323.46775719609</v>
+        <v>12717.18301009565</v>
       </c>
       <c r="D95">
-        <v>174.9491490409645</v>
+        <v>220.1183175483031</v>
       </c>
       <c r="E95">
-        <v>4208.985970686254</v>
+        <v>4741.198407622282</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.952626184658</v>
+        <v>7573.973672199128</v>
       </c>
       <c r="I95">
-        <v>23544</v>
+        <v>23981</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13433.89848723456</v>
+        <v>13848.76483926651</v>
       </c>
       <c r="O95">
-        <v>4383.935119727219</v>
+        <v>4961.316725170585</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>10.74397481644758</v>
+        <v>8.825959744972666</v>
       </c>
       <c r="R95">
-        <v>600.5411699201295</v>
+        <v>520.3328108975938</v>
       </c>
       <c r="S95">
-        <v>611.2851447365771</v>
+        <v>529.1587706425665</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.0479102596</v>
+        <v>45038.1434668727</v>
       </c>
       <c r="B96">
-        <v>6715.107053182323</v>
+        <v>6707.127391362124</v>
       </c>
       <c r="C96">
-        <v>76524.30064284657</v>
+        <v>73834.69886773951</v>
       </c>
       <c r="D96">
-        <v>1038.753323910091</v>
+        <v>1329.682117151713</v>
       </c>
       <c r="E96">
-        <v>26755.9222665693</v>
+        <v>29700.14559452492</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.0479102596</v>
+        <v>45038.1434668727</v>
       </c>
       <c r="I96">
-        <v>146080</v>
+        <v>142429</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>83239.4076960289</v>
+        <v>80541.82625910164</v>
       </c>
       <c r="O96">
-        <v>27794.67559047939</v>
+        <v>31029.82771167663</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>39.44385746602502</v>
+        <v>32.35944954824213</v>
       </c>
       <c r="R96">
-        <v>2868.408456075691</v>
+        <v>3518.58944234852</v>
       </c>
       <c r="S96">
-        <v>2907.852313541715</v>
+        <v>3550.948891896762</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.962399972</v>
+        <v>10073.09893138404</v>
       </c>
       <c r="B97">
-        <v>1512.946107730707</v>
+        <v>1451.35642255929</v>
       </c>
       <c r="C97">
-        <v>17018.84711368091</v>
+        <v>16616.00388153132</v>
       </c>
       <c r="D97">
-        <v>228.2154572777499</v>
+        <v>268.2300952081563</v>
       </c>
       <c r="E97">
-        <v>6476.02149522326</v>
+        <v>6060.094063360394</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.962399972</v>
+        <v>10073.09893138404</v>
       </c>
       <c r="I97">
-        <v>32721</v>
+        <v>32209</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18531.79322141161</v>
+        <v>18067.36030409061</v>
       </c>
       <c r="O97">
-        <v>6704.23695250101</v>
+        <v>6328.32415856855</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>12.69424929670984</v>
+        <v>8.741943231842754</v>
       </c>
       <c r="R97">
-        <v>613.2493928878995</v>
+        <v>702.3047509811205</v>
       </c>
       <c r="S97">
-        <v>625.9436421846093</v>
+        <v>711.0466942129633</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11376.07020262965</v>
+        <v>11375.88831048139</v>
       </c>
       <c r="B98">
-        <v>2109.515221935088</v>
+        <v>2238.110395381666</v>
       </c>
       <c r="C98">
-        <v>18220.12265229956</v>
+        <v>18680.68805752068</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6872.618421647159</v>
+        <v>7049.433067590674</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11376.07020262965</v>
+        <v>11375.88831048139</v>
       </c>
       <c r="I98">
-        <v>30014</v>
+        <v>30600</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20329.63787423465</v>
+        <v>20918.79845290235</v>
       </c>
       <c r="O98">
-        <v>6872.618421647159</v>
+        <v>7049.433067590674</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>86.42328753109743</v>
+        <v>120.8216392042895</v>
       </c>
       <c r="R98">
-        <v>669.0397222280735</v>
+        <v>791.102922812757</v>
       </c>
       <c r="S98">
-        <v>755.463009759171</v>
+        <v>911.9245620170465</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1467.113139410933</v>
+        <v>1599.055567632022</v>
       </c>
       <c r="V98">
-        <v>1467.113139410933</v>
+        <v>1599.055567632022</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.84532385616</v>
+        <v>93358.85622796399</v>
       </c>
       <c r="B99">
-        <v>17420.77292818263</v>
+        <v>19118.50538532405</v>
       </c>
       <c r="C99">
-        <v>148676.1333965813</v>
+        <v>153743.9096802792</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>58471.66956596536</v>
+        <v>53646.23584132986</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.84532385616</v>
+        <v>93358.85622796399</v>
       </c>
       <c r="I99">
-        <v>251185</v>
+        <v>266339</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>166096.9063247639</v>
+        <v>172862.4150656032</v>
       </c>
       <c r="O99">
-        <v>58471.66956596536</v>
+        <v>53646.23584132986</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>921.9993826303838</v>
+        <v>903.1691893430226</v>
       </c>
       <c r="R99">
-        <v>5729.610940487261</v>
+        <v>6249.344857230719</v>
       </c>
       <c r="S99">
-        <v>6651.610323117644</v>
+        <v>7152.514046573741</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>12223.31363338954</v>
+        <v>9854.987850067546</v>
       </c>
       <c r="V99">
-        <v>12223.31363338954</v>
+        <v>9854.987850067546</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.09003275132</v>
+        <v>20817.10251020163</v>
       </c>
       <c r="B100">
-        <v>3987.903573179497</v>
+        <v>4095.131551502513</v>
       </c>
       <c r="C100">
-        <v>33574.50195456293</v>
+        <v>33912.35560819411</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>11675.30319323043</v>
+        <v>13669.62086772399</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.09003275132</v>
+        <v>20817.10251020163</v>
       </c>
       <c r="I100">
-        <v>57694</v>
+        <v>58256</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>37562.40552774242</v>
+        <v>38007.48715969663</v>
       </c>
       <c r="O100">
-        <v>11675.30319323043</v>
+        <v>13669.62086772399</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>254.6227619852137</v>
+        <v>148.2028762841643</v>
       </c>
       <c r="R100">
-        <v>1304.498667668285</v>
+        <v>1257.661806974203</v>
       </c>
       <c r="S100">
-        <v>1559.121429653499</v>
+        <v>1405.864683258367</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2543.715634762762</v>
+        <v>2869.438979761874</v>
       </c>
       <c r="V100">
-        <v>2543.715634762762</v>
+        <v>2869.438979761874</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.855681328</v>
+        <v>43953.03245686264</v>
       </c>
       <c r="B101">
-        <v>8637.409691133944</v>
+        <v>8076.984081386683</v>
       </c>
       <c r="C101">
-        <v>71372.94039033464</v>
+        <v>70437.21395224813</v>
       </c>
       <c r="D101">
-        <v>2305.52729985181</v>
+        <v>1903.807011998988</v>
       </c>
       <c r="E101">
-        <v>25296.07680704077</v>
+        <v>22558.20973247957</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.855681328</v>
+        <v>43953.03245686264</v>
       </c>
       <c r="I101">
-        <v>121560</v>
+        <v>122927</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>80010.35008146858</v>
+        <v>78514.19803363481</v>
       </c>
       <c r="O101">
-        <v>27601.60410689258</v>
+        <v>24462.01674447856</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>365.0351708694997</v>
+        <v>295.4779258370559</v>
       </c>
       <c r="R101">
-        <v>2700.449460675735</v>
+        <v>2250.215388463987</v>
       </c>
       <c r="S101">
-        <v>3065.484631545235</v>
+        <v>2545.693314301043</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5672.672974618033</v>
+        <v>5279.508961296875</v>
       </c>
       <c r="V101">
-        <v>5672.672974618033</v>
+        <v>5279.508961296875</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103393.9965859135</v>
+        <v>103394.1608949605</v>
       </c>
       <c r="B102">
-        <v>19934.27147504244</v>
+        <v>19502.81972742094</v>
       </c>
       <c r="C102">
-        <v>170944.5907442763</v>
+        <v>164475.5216927455</v>
       </c>
       <c r="D102">
-        <v>5026.169927227522</v>
+        <v>4239.290639015203</v>
       </c>
       <c r="E102">
-        <v>54625.583662094</v>
+        <v>50729.92267346316</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103393.9965859135</v>
+        <v>103394.1608949605</v>
       </c>
       <c r="I102">
-        <v>283282</v>
+        <v>293028</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>190878.8622193188</v>
+        <v>183978.3414201664</v>
       </c>
       <c r="O102">
-        <v>59651.75358932152</v>
+        <v>54969.21331247837</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>770.6158068832634</v>
+        <v>1088.441983258061</v>
       </c>
       <c r="R102">
-        <v>7305.071775392971</v>
+        <v>7302.199524324979</v>
       </c>
       <c r="S102">
-        <v>8075.687582276235</v>
+        <v>8390.641507583041</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>16557.93165272323</v>
+        <v>15293.34655325133</v>
       </c>
       <c r="V102">
-        <v>16557.93165272323</v>
+        <v>15293.34655325133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.07297362053</v>
+        <v>35337.04288325517</v>
       </c>
       <c r="B103">
-        <v>6900.030534394539</v>
+        <v>6793.46526758352</v>
       </c>
       <c r="C103">
-        <v>57234.60674571687</v>
+        <v>57501.54420116352</v>
       </c>
       <c r="D103">
-        <v>1805.089069402939</v>
+        <v>1860.307267851793</v>
       </c>
       <c r="E103">
-        <v>20324.78658816696</v>
+        <v>20976.29806725423</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.07297362053</v>
+        <v>35337.04288325517</v>
       </c>
       <c r="I103">
-        <v>95176</v>
+        <v>91811</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>64134.63728011141</v>
+        <v>64295.00946874704</v>
       </c>
       <c r="O103">
-        <v>22129.8756575699</v>
+        <v>22836.60533510602</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>405.7308702743455</v>
+        <v>266.2630436451639</v>
       </c>
       <c r="R103">
-        <v>2225.598224694913</v>
+        <v>2208.10632340827</v>
       </c>
       <c r="S103">
-        <v>2631.329094969258</v>
+        <v>2474.369367053434</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4728.116110664748</v>
+        <v>4399.146307356736</v>
       </c>
       <c r="V103">
-        <v>4728.116110664748</v>
+        <v>4399.146307356736</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.8492989291</v>
+        <v>122130.9733995284</v>
       </c>
       <c r="B104">
-        <v>24403.48585326658</v>
+        <v>24296.58665451979</v>
       </c>
       <c r="C104">
-        <v>200701.5074746239</v>
+        <v>200013.1877005461</v>
       </c>
       <c r="D104">
-        <v>5696.547993203079</v>
+        <v>7178.811079614105</v>
       </c>
       <c r="E104">
-        <v>60875.66594549416</v>
+        <v>70409.73135258886</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.8492989291</v>
+        <v>122130.9733995284</v>
       </c>
       <c r="I104">
-        <v>342380</v>
+        <v>329510</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>225104.9933278905</v>
+        <v>224309.7743550659</v>
       </c>
       <c r="O104">
-        <v>66572.21393869724</v>
+        <v>77588.54243220296</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1056.869769596803</v>
+        <v>1196.523198906679</v>
       </c>
       <c r="R104">
-        <v>8471.140060149925</v>
+        <v>8084.916414571379</v>
       </c>
       <c r="S104">
-        <v>9528.009829746727</v>
+        <v>9281.439613478058</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>15897.5007313781</v>
+        <v>17995.1916080236</v>
       </c>
       <c r="V104">
-        <v>15897.5007313781</v>
+        <v>17995.1916080236</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.05331477552</v>
+        <v>81324.14081389747</v>
       </c>
       <c r="B105">
-        <v>14979.31052270244</v>
+        <v>15948.58960930202</v>
       </c>
       <c r="C105">
-        <v>133642.0015739708</v>
+        <v>131957.7108451746</v>
       </c>
       <c r="D105">
-        <v>3898.959450768442</v>
+        <v>4154.484051919247</v>
       </c>
       <c r="E105">
-        <v>44009.9731304399</v>
+        <v>46437.3973581797</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.05331477552</v>
+        <v>81324.14081389747</v>
       </c>
       <c r="I105">
-        <v>224531</v>
+        <v>217836</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>148621.3120966732</v>
+        <v>147906.3004544766</v>
       </c>
       <c r="O105">
-        <v>47908.93258120835</v>
+        <v>50591.88141009894</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>743.0107124257266</v>
+        <v>735.481796392743</v>
       </c>
       <c r="R105">
-        <v>4213.585406738343</v>
+        <v>5036.724568262564</v>
       </c>
       <c r="S105">
-        <v>4956.596119164069</v>
+        <v>5772.206364655307</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>11134.38650085485</v>
+        <v>11756.31355915375</v>
       </c>
       <c r="V105">
-        <v>11134.38650085485</v>
+        <v>11756.31355915375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77849.84713154979</v>
+        <v>77849.85324812881</v>
       </c>
       <c r="B106">
-        <v>14528.34681440597</v>
+        <v>15012.21533292883</v>
       </c>
       <c r="C106">
-        <v>126185.2414203743</v>
+        <v>127110.0562839362</v>
       </c>
       <c r="D106">
-        <v>4330.254847830741</v>
+        <v>4005.835860580794</v>
       </c>
       <c r="E106">
-        <v>49310.21784626834</v>
+        <v>45193.29663108909</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77849.84713154979</v>
+        <v>77849.85324812881</v>
       </c>
       <c r="I106">
-        <v>201098</v>
+        <v>211708</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>140713.5882347803</v>
+        <v>142122.2716168651</v>
       </c>
       <c r="O106">
-        <v>53640.47269409908</v>
+        <v>49199.13249166989</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>616.980654151339</v>
+        <v>703.3672337040795</v>
       </c>
       <c r="R106">
-        <v>5174.797732084068</v>
+        <v>5715.869612946629</v>
       </c>
       <c r="S106">
-        <v>5791.778386235407</v>
+        <v>6419.236846650709</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10594.25038645598</v>
+        <v>10695.90677599848</v>
       </c>
       <c r="V106">
-        <v>10594.25038645598</v>
+        <v>10695.90677599848</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.13714914135</v>
+        <v>86202.90752226264</v>
       </c>
       <c r="B107">
-        <v>16670.47912872872</v>
+        <v>16491.32341664482</v>
       </c>
       <c r="C107">
-        <v>133891.7688928676</v>
+        <v>141911.1182472165</v>
       </c>
       <c r="D107">
-        <v>3880.136239377632</v>
+        <v>4580.38968467265</v>
       </c>
       <c r="E107">
-        <v>46406.96372665902</v>
+        <v>49819.9344287202</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.13714914135</v>
+        <v>86202.90752226264</v>
       </c>
       <c r="I107">
-        <v>226540</v>
+        <v>231879</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>150562.2480215963</v>
+        <v>158402.4416638614</v>
       </c>
       <c r="O107">
-        <v>50287.09996603665</v>
+        <v>54400.32411339285</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>583.579043127186</v>
+        <v>902.0596062111131</v>
       </c>
       <c r="R107">
-        <v>4921.737377887151</v>
+        <v>5811.885296674676</v>
       </c>
       <c r="S107">
-        <v>5505.316421014337</v>
+        <v>6713.944902885789</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>11397.14338236281</v>
+        <v>14052.33353860317</v>
       </c>
       <c r="V107">
-        <v>11397.14338236281</v>
+        <v>14052.33353860317</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.02996180463</v>
+        <v>60304.84081604073</v>
       </c>
       <c r="B108">
-        <v>12235.49419360928</v>
+        <v>11513.1345822919</v>
       </c>
       <c r="C108">
-        <v>98119.2988072983</v>
+        <v>99422.32645992065</v>
       </c>
       <c r="D108">
-        <v>3206.012231312396</v>
+        <v>3532.00749793682</v>
       </c>
       <c r="E108">
-        <v>38754.88113981121</v>
+        <v>42155.53379282522</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.02996180463</v>
+        <v>60304.84081604073</v>
       </c>
       <c r="I108">
-        <v>168228</v>
+        <v>165145</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>110354.7930009076</v>
+        <v>110935.4610422125</v>
       </c>
       <c r="O108">
-        <v>41960.8933711236</v>
+        <v>45687.54129076204</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>385.7962671381105</v>
+        <v>516.2504106100221</v>
       </c>
       <c r="R108">
-        <v>3676.128827298547</v>
+        <v>3704.498912955381</v>
       </c>
       <c r="S108">
-        <v>4061.925094436658</v>
+        <v>4220.749323565403</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>8360.988616230367</v>
+        <v>7039.029390962278</v>
       </c>
       <c r="V108">
-        <v>8360.988616230367</v>
+        <v>7039.029390962278</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.02522673808</v>
+        <v>25283.01185111758</v>
       </c>
       <c r="B109">
-        <v>5100.823125434319</v>
+        <v>5024.589668308261</v>
       </c>
       <c r="C109">
-        <v>41047.51033082862</v>
+        <v>41935.52579087143</v>
       </c>
       <c r="D109">
-        <v>1309.81581529481</v>
+        <v>1288.799577204135</v>
       </c>
       <c r="E109">
-        <v>14794.21042006601</v>
+        <v>13820.27467548576</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.02522673808</v>
+        <v>25283.01185111758</v>
       </c>
       <c r="I109">
-        <v>67309</v>
+        <v>66919</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>46148.33345626294</v>
+        <v>46960.11545917969</v>
       </c>
       <c r="O109">
-        <v>16104.02623536082</v>
+        <v>15109.0742526899</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>187.7632461882482</v>
+        <v>172.7678490501783</v>
       </c>
       <c r="R109">
-        <v>1442.598412773112</v>
+        <v>1494.572728511964</v>
       </c>
       <c r="S109">
-        <v>1630.36165896136</v>
+        <v>1667.340577562142</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3253.306401769243</v>
+        <v>3668.495742860356</v>
       </c>
       <c r="V109">
-        <v>3253.306401769243</v>
+        <v>3668.495742860356</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.142324582915</v>
+        <v>4049.122334686592</v>
       </c>
       <c r="B110">
-        <v>813.7558193601285</v>
+        <v>828.3860494983248</v>
       </c>
       <c r="C110">
-        <v>6724.741360238929</v>
+        <v>6634.602135739063</v>
       </c>
       <c r="D110">
-        <v>221.3628729829583</v>
+        <v>199.1902507756393</v>
       </c>
       <c r="E110">
-        <v>2410.465718256522</v>
+        <v>2283.914829503458</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.142324582915</v>
+        <v>4049.122334686592</v>
       </c>
       <c r="I110">
-        <v>10940</v>
+        <v>10680</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7538.497179599057</v>
+        <v>7462.988185237387</v>
       </c>
       <c r="O110">
-        <v>2631.82859123948</v>
+        <v>2483.105080279097</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>43.04290313666211</v>
+        <v>26.84502988447218</v>
       </c>
       <c r="R110">
-        <v>276.2611731742924</v>
+        <v>210.4720276452301</v>
       </c>
       <c r="S110">
-        <v>319.3040763109545</v>
+        <v>237.3170575297023</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>500.4862616407732</v>
+        <v>494.0883359907159</v>
       </c>
       <c r="V110">
-        <v>500.4862616407732</v>
+        <v>494.0883359907159</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8763.122426431059</v>
+        <v>8762.896328324126</v>
       </c>
       <c r="B111">
-        <v>1676.603078737237</v>
+        <v>1713.241822635564</v>
       </c>
       <c r="C111">
-        <v>14625.54623899775</v>
+        <v>14177.39244621761</v>
       </c>
       <c r="D111">
-        <v>425.9784650291842</v>
+        <v>497.6909635883181</v>
       </c>
       <c r="E111">
-        <v>5104.852814464023</v>
+        <v>5776.170182173612</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8763.122426431059</v>
+        <v>8762.896328324126</v>
       </c>
       <c r="I111">
-        <v>24537</v>
+        <v>22659</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>16302.14931773499</v>
+        <v>15890.63426885318</v>
       </c>
       <c r="O111">
-        <v>5530.831279493207</v>
+        <v>6273.861145761931</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>73.82850976530858</v>
+        <v>84.71175423408226</v>
       </c>
       <c r="R111">
-        <v>547.1178960463967</v>
+        <v>543.5402466341104</v>
       </c>
       <c r="S111">
-        <v>620.9464058117053</v>
+        <v>628.2520008681927</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1262.21481829344</v>
+        <v>1253.93977654275</v>
       </c>
       <c r="V111">
-        <v>1262.21481829344</v>
+        <v>1253.93977654275</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9927.019367391429</v>
+        <v>9926.961494696805</v>
       </c>
       <c r="B112">
-        <v>1995.117189507676</v>
+        <v>1947.304779411288</v>
       </c>
       <c r="C112">
-        <v>16485.15622720518</v>
+        <v>16363.41835722793</v>
       </c>
       <c r="D112">
-        <v>479.9798294233576</v>
+        <v>474.9409344734776</v>
       </c>
       <c r="E112">
-        <v>5371.416762036505</v>
+        <v>5340.744385742465</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9927.019367391429</v>
+        <v>9926.961494696805</v>
       </c>
       <c r="I112">
-        <v>26688</v>
+        <v>26686</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18480.27341671286</v>
+        <v>18310.72313663922</v>
       </c>
       <c r="O112">
-        <v>5851.396591459863</v>
+        <v>5815.685320215943</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>140.5928275961332</v>
+        <v>104.9416288270979</v>
       </c>
       <c r="R112">
-        <v>757.3277936785652</v>
+        <v>685.0674498354301</v>
       </c>
       <c r="S112">
-        <v>897.9206212746983</v>
+        <v>790.0090786625281</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1293.826612900318</v>
+        <v>1512.098864990487</v>
       </c>
       <c r="V112">
-        <v>1293.826612900318</v>
+        <v>1512.098864990487</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1551.934706950305</v>
+        <v>1552.082855940458</v>
       </c>
       <c r="B113">
-        <v>294.4869481047878</v>
+        <v>292.9752411041562</v>
       </c>
       <c r="C113">
-        <v>2606.765253018346</v>
+        <v>2562.573724212988</v>
       </c>
       <c r="D113">
-        <v>84.97507958375465</v>
+        <v>68.93559441500338</v>
       </c>
       <c r="E113">
-        <v>1050.000473443678</v>
+        <v>776.2678903326078</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1551.934706950305</v>
+        <v>1552.082855940458</v>
       </c>
       <c r="I113">
-        <v>4345</v>
+        <v>4135</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2901.252201123134</v>
+        <v>2855.548965317144</v>
       </c>
       <c r="O113">
-        <v>1134.975553027433</v>
+        <v>845.2034847476111</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>14.63420125276498</v>
+        <v>12.84743025879054</v>
       </c>
       <c r="R113">
-        <v>90.41048873379808</v>
+        <v>94.74994588637897</v>
       </c>
       <c r="S113">
-        <v>105.0446899865631</v>
+        <v>107.5973761451695</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>234.5352013336886</v>
+        <v>198.3210965478539</v>
       </c>
       <c r="V113">
-        <v>234.5352013336886</v>
+        <v>198.3210965478539</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.042520097034</v>
+        <v>1068.927961049489</v>
       </c>
       <c r="B114">
-        <v>1436.791978410286</v>
+        <v>1445.722870889871</v>
       </c>
       <c r="C114">
-        <v>489.6237477142558</v>
+        <v>479.3658850917381</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>633.8946999165584</v>
+        <v>667.3070841968593</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.042520097034</v>
+        <v>1068.927961049489</v>
       </c>
       <c r="I114">
-        <v>2851</v>
+        <v>2862</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1926.415726124541</v>
+        <v>1925.088755981609</v>
       </c>
       <c r="O114">
-        <v>633.8946999165584</v>
+        <v>667.3070841968593</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>15.13842691944751</v>
+        <v>26.65186855790905</v>
       </c>
       <c r="R114">
-        <v>54.02759788603019</v>
+        <v>63.55001499967023</v>
       </c>
       <c r="S114">
-        <v>69.1660248054777</v>
+        <v>90.20188355757928</v>
       </c>
       <c r="T114">
-        <v>13.50901154335188</v>
+        <v>12.62183640326586</v>
       </c>
       <c r="U114">
-        <v>136.6570538010601</v>
+        <v>129.6561708240703</v>
       </c>
       <c r="V114">
-        <v>150.166065344412</v>
+        <v>142.2780072273362</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>405.8505984461745</v>
+        <v>405.9583607314852</v>
       </c>
       <c r="B115">
-        <v>564.8105350774777</v>
+        <v>568.1806365982219</v>
       </c>
       <c r="C115">
-        <v>188.6600548027387</v>
+        <v>188.6630795343558</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>264.2142025999369</v>
+        <v>244.6623701662271</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>405.8505984461745</v>
+        <v>405.9583607314852</v>
       </c>
       <c r="I115">
-        <v>1104</v>
+        <v>1195</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>753.4705898802164</v>
+        <v>756.8437161325777</v>
       </c>
       <c r="O115">
-        <v>264.2142025999369</v>
+        <v>244.6623701662271</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>9.266145359193974</v>
+        <v>7.432908694611791</v>
       </c>
       <c r="R115">
-        <v>28.69248812673268</v>
+        <v>19.61381601286987</v>
       </c>
       <c r="S115">
-        <v>37.95863348592665</v>
+        <v>27.04672470748166</v>
       </c>
       <c r="T115">
-        <v>6.20953148224898</v>
+        <v>6.664117786759358</v>
       </c>
       <c r="U115">
-        <v>46.36770196692727</v>
+        <v>51.98665164238513</v>
       </c>
       <c r="V115">
-        <v>52.57723344917625</v>
+        <v>58.65076942914448</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5616.104571271539</v>
+        <v>5615.989159140759</v>
       </c>
       <c r="B116">
-        <v>7895.264958816155</v>
+        <v>7799.970995482287</v>
       </c>
       <c r="C116">
-        <v>2612.82876886732</v>
+        <v>2649.67524686562</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3751.746212497269</v>
+        <v>3692.780245672404</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5616.104571271539</v>
+        <v>5615.989159140759</v>
       </c>
       <c r="I116">
-        <v>15863</v>
+        <v>15869</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10508.09372768348</v>
+        <v>10449.64624234791</v>
       </c>
       <c r="O116">
-        <v>3751.746212497269</v>
+        <v>3692.780245672404</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>108.9144937380267</v>
+        <v>122.4016096239904</v>
       </c>
       <c r="R116">
-        <v>263.1215984481335</v>
+        <v>303.5115985856997</v>
       </c>
       <c r="S116">
-        <v>372.0360921861602</v>
+        <v>425.9132082096901</v>
       </c>
       <c r="T116">
-        <v>76.22543572057428</v>
+        <v>81.1151301046809</v>
       </c>
       <c r="U116">
-        <v>758.7895030431483</v>
+        <v>716.3757343712806</v>
       </c>
       <c r="V116">
-        <v>835.0149387637226</v>
+        <v>797.4908644759615</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3149.862686167082</v>
+        <v>3149.995833733246</v>
       </c>
       <c r="B117">
-        <v>4303.883271666619</v>
+        <v>4433.664303253052</v>
       </c>
       <c r="C117">
-        <v>1439.516961996276</v>
+        <v>1448.593795666214</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>2090.691244562761</v>
+        <v>1812.562042926071</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3149.862686167082</v>
+        <v>3149.995833733246</v>
       </c>
       <c r="I117">
-        <v>8546</v>
+        <v>8825</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5743.400233662895</v>
+        <v>5882.258098919266</v>
       </c>
       <c r="O117">
-        <v>2090.691244562761</v>
+        <v>1812.562042926071</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>60.95560541519837</v>
+        <v>51.42807967290477</v>
       </c>
       <c r="R117">
-        <v>180.524229249356</v>
+        <v>144.7780373112671</v>
       </c>
       <c r="S117">
-        <v>241.4798346645544</v>
+        <v>196.2061169841719</v>
       </c>
       <c r="T117">
-        <v>44.19173535437609</v>
+        <v>37.47054375733248</v>
       </c>
       <c r="U117">
-        <v>357.7333451319234</v>
+        <v>346.5712435548304</v>
       </c>
       <c r="V117">
-        <v>401.9250804862995</v>
+        <v>384.0417873121629</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1817.120578371578</v>
+        <v>1816.897151371477</v>
       </c>
       <c r="B118">
-        <v>2555.835020101133</v>
+        <v>2525.648006938727</v>
       </c>
       <c r="C118">
-        <v>850.4680213920261</v>
+        <v>832.6950763064565</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1268.246268660464</v>
+        <v>1170.322313780035</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1817.120578371578</v>
+        <v>1816.897151371477</v>
       </c>
       <c r="I118">
-        <v>4925</v>
+        <v>4865</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3406.303041493159</v>
+        <v>3358.343083245183</v>
       </c>
       <c r="O118">
-        <v>1268.246268660464</v>
+        <v>1170.322313780035</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>30.58370515681213</v>
+        <v>28.93118802711322</v>
       </c>
       <c r="R118">
-        <v>106.4201920891942</v>
+        <v>106.1287921543582</v>
       </c>
       <c r="S118">
-        <v>137.0038972460063</v>
+        <v>135.0599801814715</v>
       </c>
       <c r="T118">
-        <v>22.71799382560024</v>
+        <v>31.28079523973623</v>
       </c>
       <c r="U118">
-        <v>208.5208587463509</v>
+        <v>239.2907022469334</v>
       </c>
       <c r="V118">
-        <v>231.2388525719512</v>
+        <v>270.5714974866696</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6395.905359059726</v>
+        <v>6396.125937115398</v>
       </c>
       <c r="B119">
-        <v>8824.315257145552</v>
+        <v>9128.713393762737</v>
       </c>
       <c r="C119">
-        <v>3096.839436748643</v>
+        <v>2926.279815906828</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>3544.943595932504</v>
+        <v>4450.032944516899</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6395.905359059726</v>
+        <v>6396.125937115398</v>
       </c>
       <c r="I119">
-        <v>17389</v>
+        <v>17584</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>11921.15469389419</v>
+        <v>12054.99320966957</v>
       </c>
       <c r="O119">
-        <v>3544.943595932504</v>
+        <v>4450.032944516899</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>100.5609128057944</v>
+        <v>110.221305665104</v>
       </c>
       <c r="R119">
-        <v>329.9657235897454</v>
+        <v>324.4456859196997</v>
       </c>
       <c r="S119">
-        <v>430.5266363955399</v>
+        <v>434.6669915848037</v>
       </c>
       <c r="T119">
-        <v>79.47772906843511</v>
+        <v>81.85996061542639</v>
       </c>
       <c r="U119">
-        <v>665.9464726816889</v>
+        <v>777.2719600851287</v>
       </c>
       <c r="V119">
-        <v>745.424201750124</v>
+        <v>859.1319207005552</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4005.841017511538</v>
+        <v>4005.941646925839</v>
       </c>
       <c r="B120">
-        <v>5477.341225839368</v>
+        <v>5460.425704669901</v>
       </c>
       <c r="C120">
-        <v>1886.627954941715</v>
+        <v>1919.446643046309</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2721.205054596745</v>
+        <v>2582.275920912141</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4005.841017511538</v>
+        <v>4005.941646925839</v>
       </c>
       <c r="I120">
-        <v>11225</v>
+        <v>11071</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7363.969180781083</v>
+        <v>7379.87234771621</v>
       </c>
       <c r="O120">
-        <v>2721.205054596745</v>
+        <v>2582.275920912141</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>61.46212038205299</v>
+        <v>94.40679244673567</v>
       </c>
       <c r="R120">
-        <v>218.2540894294502</v>
+        <v>245.6608492669726</v>
       </c>
       <c r="S120">
-        <v>279.7162098115032</v>
+        <v>340.0676417137083</v>
       </c>
       <c r="T120">
-        <v>57.09798601483405</v>
+        <v>54.19233598480346</v>
       </c>
       <c r="U120">
-        <v>488.3697813751236</v>
+        <v>473.7016766669166</v>
       </c>
       <c r="V120">
-        <v>545.4677673899577</v>
+        <v>527.89401265172</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.884857963164</v>
+        <v>1686.865352195107</v>
       </c>
       <c r="B121">
-        <v>2401.09260335613</v>
+        <v>2389.36939143042</v>
       </c>
       <c r="C121">
-        <v>797.468907082388</v>
+        <v>800.2795897053209</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1079.575920659196</v>
+        <v>1099.24579235375</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.884857963164</v>
+        <v>1686.865352195107</v>
       </c>
       <c r="I121">
-        <v>4583</v>
+        <v>4870</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3198.561510438518</v>
+        <v>3189.648981135742</v>
       </c>
       <c r="O121">
-        <v>1079.575920659196</v>
+        <v>1099.24579235375</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>33.34496259596308</v>
+        <v>23.81393080427757</v>
       </c>
       <c r="R121">
-        <v>101.5039311572144</v>
+        <v>73.11350722095571</v>
       </c>
       <c r="S121">
-        <v>134.8488937531775</v>
+        <v>96.92743802523327</v>
       </c>
       <c r="T121">
-        <v>19.63948053625779</v>
+        <v>20.94630917154309</v>
       </c>
       <c r="U121">
-        <v>208.8653883012411</v>
+        <v>177.3620030984786</v>
       </c>
       <c r="V121">
-        <v>228.5048688374989</v>
+        <v>198.3083122700217</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.8707835397258</v>
+        <v>589.1574165057765</v>
       </c>
       <c r="B122">
-        <v>828.5281889134534</v>
+        <v>828.9607292555527</v>
       </c>
       <c r="C122">
-        <v>281.2836482417389</v>
+        <v>266.0643259669369</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>333.8634840667901</v>
+        <v>419.3774049361164</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.8707835397258</v>
+        <v>589.1574165057765</v>
       </c>
       <c r="I122">
-        <v>1643</v>
+        <v>1615</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1109.811837155192</v>
+        <v>1095.02505522249</v>
       </c>
       <c r="O122">
-        <v>333.8634840667901</v>
+        <v>419.3774049361164</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>10.93500075913759</v>
+        <v>11.11277008271624</v>
       </c>
       <c r="R122">
-        <v>36.31069608774529</v>
+        <v>31.80766565648316</v>
       </c>
       <c r="S122">
-        <v>47.24569684688288</v>
+        <v>42.9204357391994</v>
       </c>
       <c r="T122">
-        <v>6.865101781624412</v>
+        <v>7.266756549478369</v>
       </c>
       <c r="U122">
-        <v>62.0341670727014</v>
+        <v>69.96232056864621</v>
       </c>
       <c r="V122">
-        <v>68.89926885432581</v>
+        <v>77.22907711812458</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1709.949173048831</v>
+        <v>1709.916396319077</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3052.471028350577</v>
+        <v>3095.724404049262</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>956.0007441826658</v>
+        <v>1131.291520355991</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1709.949173048831</v>
+        <v>1709.916396319077</v>
       </c>
       <c r="I123">
-        <v>5468</v>
+        <v>5631</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3052.471028350577</v>
+        <v>3095.724404049262</v>
       </c>
       <c r="O123">
-        <v>956.0007441826658</v>
+        <v>1131.291520355991</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>32.98149965967136</v>
+        <v>32.59215955714305</v>
       </c>
       <c r="R123">
-        <v>103.0792396002901</v>
+        <v>102.3879280543638</v>
       </c>
       <c r="S123">
-        <v>136.0607392599614</v>
+        <v>134.9800876115069</v>
       </c>
       <c r="T123">
-        <v>24.7057350527016</v>
+        <v>24.91614039763315</v>
       </c>
       <c r="U123">
-        <v>207.4810965018707</v>
+        <v>216.9197864192599</v>
       </c>
       <c r="V123">
-        <v>232.1868315545723</v>
+        <v>241.8359268168931</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.8892772726975</v>
+        <v>198.9596916648526</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>363.9736943591609</v>
+        <v>354.5460975971479</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>126.8352175168439</v>
+        <v>104.5206442162768</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.8892772726975</v>
+        <v>198.9596916648526</v>
       </c>
       <c r="I124">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>363.9736943591609</v>
+        <v>354.5460975971479</v>
       </c>
       <c r="O124">
-        <v>126.8352175168439</v>
+        <v>104.5206442162768</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.810711785230716</v>
+        <v>3.909453014022797</v>
       </c>
       <c r="R124">
-        <v>10.24457343212978</v>
+        <v>9.958345785158574</v>
       </c>
       <c r="S124">
-        <v>14.0552852173605</v>
+        <v>13.86779879918137</v>
       </c>
       <c r="T124">
-        <v>2.710285743533773</v>
+        <v>3.137754574345669</v>
       </c>
       <c r="U124">
-        <v>22.52325693066042</v>
+        <v>24.67971235356843</v>
       </c>
       <c r="V124">
-        <v>25.23354267419419</v>
+        <v>27.8174669279141</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9133.006181018875</v>
+        <v>9132.915241641897</v>
       </c>
       <c r="B2">
-        <v>4894.681033072077</v>
+        <v>4851.04328275568</v>
       </c>
       <c r="C2">
-        <v>21573.29668998957</v>
+        <v>21520.93904401982</v>
       </c>
       <c r="D2">
-        <v>4802.477384367419</v>
+        <v>4869.084968687948</v>
       </c>
       <c r="E2">
-        <v>9751.254434103723</v>
+        <v>10012.75310445404</v>
       </c>
       <c r="F2">
-        <v>2449.90412227465</v>
+        <v>2895.436950608918</v>
       </c>
       <c r="G2">
-        <v>4581.624916070701</v>
+        <v>5643.676433347835</v>
       </c>
       <c r="H2">
-        <v>9133.006181018875</v>
+        <v>9132.915241641897</v>
       </c>
       <c r="I2">
-        <v>42994</v>
+        <v>43584</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26467.97772306165</v>
+        <v>26371.9823267755</v>
       </c>
       <c r="O2">
-        <v>14553.73181847114</v>
+        <v>14881.83807314198</v>
       </c>
       <c r="P2">
-        <v>7031.52903834535</v>
+        <v>8539.113383956754</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.994662884585</v>
+        <v>7570.999358934396</v>
       </c>
       <c r="B3">
-        <v>4098.166932695013</v>
+        <v>4059.779726029748</v>
       </c>
       <c r="C3">
-        <v>18278.92108851888</v>
+        <v>17635.82879512526</v>
       </c>
       <c r="D3">
-        <v>4501.799726356884</v>
+        <v>4610.172498383175</v>
       </c>
       <c r="E3">
-        <v>9354.730323113943</v>
+        <v>9320.008268908905</v>
       </c>
       <c r="F3">
-        <v>2435.52401975072</v>
+        <v>2162.781660835361</v>
       </c>
       <c r="G3">
-        <v>4393.55352531782</v>
+        <v>4099.824567878583</v>
       </c>
       <c r="H3">
-        <v>7570.994662884585</v>
+        <v>7570.999358934396</v>
       </c>
       <c r="I3">
-        <v>34729</v>
+        <v>34515</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22377.08802121389</v>
+        <v>21695.60852115501</v>
       </c>
       <c r="O3">
-        <v>13856.53004947083</v>
+        <v>13930.18076729208</v>
       </c>
       <c r="P3">
-        <v>6829.07754506854</v>
+        <v>6262.606228713945</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15502.07411130673</v>
+        <v>15502.05817230497</v>
       </c>
       <c r="B4">
-        <v>8488.795976378131</v>
+        <v>8586.296490627508</v>
       </c>
       <c r="C4">
-        <v>36153.09632319622</v>
+        <v>37789.11848547893</v>
       </c>
       <c r="D4">
-        <v>8532.764348501079</v>
+        <v>9604.046331147438</v>
       </c>
       <c r="E4">
-        <v>17003.11147400529</v>
+        <v>18324.12875160101</v>
       </c>
       <c r="F4">
-        <v>4265.512814415879</v>
+        <v>4761.835469618728</v>
       </c>
       <c r="G4">
-        <v>8598.784553686992</v>
+        <v>8952.956923365913</v>
       </c>
       <c r="H4">
-        <v>15502.07411130673</v>
+        <v>15502.05817230497</v>
       </c>
       <c r="I4">
-        <v>71297</v>
+        <v>72765</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44641.89229957436</v>
+        <v>46375.41497610644</v>
       </c>
       <c r="O4">
-        <v>25535.87582250637</v>
+        <v>27928.17508274845</v>
       </c>
       <c r="P4">
-        <v>12864.29736810287</v>
+        <v>13714.79239298464</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.968850982883</v>
+        <v>9669.926353431205</v>
       </c>
       <c r="B5">
-        <v>5222.712105479583</v>
+        <v>5380.768468510579</v>
       </c>
       <c r="C5">
-        <v>22861.82459638039</v>
+        <v>23188.28987078996</v>
       </c>
       <c r="D5">
-        <v>5224.739836484591</v>
+        <v>5675.765992571322</v>
       </c>
       <c r="E5">
-        <v>10655.35765188013</v>
+        <v>11197.79895236961</v>
       </c>
       <c r="F5">
-        <v>2724.708167186778</v>
+        <v>2988.853999181979</v>
       </c>
       <c r="G5">
-        <v>5355.449002514798</v>
+        <v>5584.2143820542</v>
       </c>
       <c r="H5">
-        <v>9669.968850982883</v>
+        <v>9669.926353431205</v>
       </c>
       <c r="I5">
-        <v>46064</v>
+        <v>45252</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28084.53670185998</v>
+        <v>28569.05833930054</v>
       </c>
       <c r="O5">
-        <v>15880.09748836473</v>
+        <v>16873.56494494093</v>
       </c>
       <c r="P5">
-        <v>8080.157169701575</v>
+        <v>8573.068381236179</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.99271811433</v>
+        <v>26786.96950152651</v>
       </c>
       <c r="B6">
-        <v>14801.03610680664</v>
+        <v>14603.63827754355</v>
       </c>
       <c r="C6">
-        <v>62560.72091810277</v>
+        <v>62911.32525292204</v>
       </c>
       <c r="D6">
-        <v>15815.82294837755</v>
+        <v>15041.97165538103</v>
       </c>
       <c r="E6">
-        <v>30700.9348835354</v>
+        <v>30560.50596147161</v>
       </c>
       <c r="F6">
-        <v>8422.843091991681</v>
+        <v>8777.708581717499</v>
       </c>
       <c r="G6">
-        <v>15983.25822519689</v>
+        <v>17006.03751442702</v>
       </c>
       <c r="H6">
-        <v>26786.99271811433</v>
+        <v>26786.96950152651</v>
       </c>
       <c r="I6">
-        <v>127272</v>
+        <v>112003</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>77361.75702490941</v>
+        <v>77514.96353046558</v>
       </c>
       <c r="O6">
-        <v>46516.75783191294</v>
+        <v>45602.47761685263</v>
       </c>
       <c r="P6">
-        <v>24406.10131718857</v>
+        <v>25783.74609614451</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.90617955151</v>
+        <v>15439.10656454509</v>
       </c>
       <c r="B7">
-        <v>8079.1890598098</v>
+        <v>8082.144229597654</v>
       </c>
       <c r="C7">
-        <v>35864.54153741973</v>
+        <v>34768.12607476812</v>
       </c>
       <c r="D7">
-        <v>8274.80345251454</v>
+        <v>8281.844694836429</v>
       </c>
       <c r="E7">
-        <v>16712.94672708053</v>
+        <v>16734.89894473861</v>
       </c>
       <c r="F7">
-        <v>4831.722735190517</v>
+        <v>4494.072672451403</v>
       </c>
       <c r="G7">
-        <v>9619.855248588685</v>
+        <v>8409.323617937254</v>
       </c>
       <c r="H7">
-        <v>15438.90617955151</v>
+        <v>15439.10656454509</v>
       </c>
       <c r="I7">
-        <v>68272</v>
+        <v>69143</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>43943.73059722953</v>
+        <v>42850.27030436577</v>
       </c>
       <c r="O7">
-        <v>24987.75017959507</v>
+        <v>25016.74363957504</v>
       </c>
       <c r="P7">
-        <v>14451.5779837792</v>
+        <v>12903.39629038866</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.958426227729</v>
+        <v>7028.044705430244</v>
       </c>
       <c r="B8">
-        <v>4056.505898779912</v>
+        <v>3919.763029261983</v>
       </c>
       <c r="C8">
-        <v>17333.81622597263</v>
+        <v>17238.88617463748</v>
       </c>
       <c r="D8">
-        <v>3916.377517476205</v>
+        <v>4408.602223116015</v>
       </c>
       <c r="E8">
-        <v>7701.326449147585</v>
+        <v>8499.770375076254</v>
       </c>
       <c r="F8">
-        <v>2058.82677483591</v>
+        <v>2138.611457816125</v>
       </c>
       <c r="G8">
-        <v>3947.13566545496</v>
+        <v>3941.189224008794</v>
       </c>
       <c r="H8">
-        <v>7027.958426227729</v>
+        <v>7028.044705430244</v>
       </c>
       <c r="I8">
-        <v>32252</v>
+        <v>34093</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21390.32212475254</v>
+        <v>21158.64920389946</v>
       </c>
       <c r="O8">
-        <v>11617.70396662379</v>
+        <v>12908.37259819227</v>
       </c>
       <c r="P8">
-        <v>6005.96244029087</v>
+        <v>6079.80068182492</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.969999410171</v>
+        <v>5006.071418424227</v>
       </c>
       <c r="B9">
-        <v>2679.034122711451</v>
+        <v>2665.168054995023</v>
       </c>
       <c r="C9">
-        <v>11756.02760067643</v>
+        <v>11848.83604212746</v>
       </c>
       <c r="D9">
-        <v>2861.082373985828</v>
+        <v>2778.47223361886</v>
       </c>
       <c r="E9">
-        <v>6003.667230707604</v>
+        <v>5420.7650053995</v>
       </c>
       <c r="F9">
-        <v>1510.362574655391</v>
+        <v>1399.592430620266</v>
       </c>
       <c r="G9">
-        <v>2879.713682349321</v>
+        <v>2794.198954789663</v>
       </c>
       <c r="H9">
-        <v>5005.969999410171</v>
+        <v>5006.071418424227</v>
       </c>
       <c r="I9">
-        <v>23435</v>
+        <v>24033</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14435.06172338788</v>
+        <v>14514.00409712248</v>
       </c>
       <c r="O9">
-        <v>8864.749604693432</v>
+        <v>8199.237239018359</v>
       </c>
       <c r="P9">
-        <v>4390.076257004712</v>
+        <v>4193.791385409929</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5887.04035808312</v>
+        <v>5886.988663973444</v>
       </c>
       <c r="B10">
-        <v>3289.037180586467</v>
+        <v>3020.842525120415</v>
       </c>
       <c r="C10">
-        <v>13773.29858434925</v>
+        <v>13327.92223539876</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9053.652388013397</v>
+        <v>9990.143955441983</v>
       </c>
       <c r="F10">
-        <v>1669.504550050344</v>
+        <v>1849.207393874579</v>
       </c>
       <c r="G10">
-        <v>3166.338470420582</v>
+        <v>3351.815882511692</v>
       </c>
       <c r="H10">
-        <v>5887.04035808312</v>
+        <v>5886.988663973444</v>
       </c>
       <c r="I10">
-        <v>27893</v>
+        <v>29099</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17062.33576493572</v>
+        <v>16348.76476051918</v>
       </c>
       <c r="O10">
-        <v>9053.652388013397</v>
+        <v>9990.143955441983</v>
       </c>
       <c r="P10">
-        <v>4835.843020470926</v>
+        <v>5201.023276386271</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.971981055868</v>
+        <v>1725.97583585047</v>
       </c>
       <c r="B11">
-        <v>930.6375019741282</v>
+        <v>973.3175092821731</v>
       </c>
       <c r="C11">
-        <v>4093.32832897044</v>
+        <v>4023.076196401891</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2834.317773837404</v>
+        <v>2674.243748207093</v>
       </c>
       <c r="F11">
-        <v>566.4152332853573</v>
+        <v>549.3750709657392</v>
       </c>
       <c r="G11">
-        <v>1051.306182121869</v>
+        <v>1062.669320536917</v>
       </c>
       <c r="H11">
-        <v>1725.971981055868</v>
+        <v>1725.97583585047</v>
       </c>
       <c r="I11">
-        <v>7906</v>
+        <v>8625</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5023.965830944569</v>
+        <v>4996.393705684064</v>
       </c>
       <c r="O11">
-        <v>2834.317773837404</v>
+        <v>2674.243748207093</v>
       </c>
       <c r="P11">
-        <v>1617.721415407227</v>
+        <v>1612.044391502656</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>500.9633827287256</v>
+        <v>501.0859779079023</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1405.387041309877</v>
+        <v>1414.176191527277</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>766.7501903538249</v>
+        <v>859.3249095220265</v>
       </c>
       <c r="F12">
-        <v>142.6195319465541</v>
+        <v>160.6997391308647</v>
       </c>
       <c r="G12">
-        <v>272.6201106811588</v>
+        <v>308.9933116433234</v>
       </c>
       <c r="H12">
-        <v>500.9633827287256</v>
+        <v>501.0859779079023</v>
       </c>
       <c r="I12">
-        <v>2805</v>
+        <v>2821</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1405.387041309877</v>
+        <v>1414.176191527277</v>
       </c>
       <c r="O12">
-        <v>766.7501903538249</v>
+        <v>859.3249095220265</v>
       </c>
       <c r="P12">
-        <v>415.2396426277129</v>
+        <v>469.6930507741881</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.879836880539</v>
+        <v>1087.915808332207</v>
       </c>
       <c r="B13">
-        <v>482.6532413316147</v>
+        <v>486.8108838715812</v>
       </c>
       <c r="C13">
-        <v>2568.056777919877</v>
+        <v>2594.953501479627</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1802.651713788177</v>
+        <v>1757.315980207667</v>
       </c>
       <c r="F13">
-        <v>881.6394787594041</v>
+        <v>816.6456333237027</v>
       </c>
       <c r="G13">
-        <v>162.5775845389331</v>
+        <v>138.0356978261868</v>
       </c>
       <c r="H13">
-        <v>1087.879836880539</v>
+        <v>1087.915808332207</v>
       </c>
       <c r="I13">
-        <v>4380</v>
+        <v>4550</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3050.710019251491</v>
+        <v>3081.764385351208</v>
       </c>
       <c r="O13">
-        <v>1802.651713788177</v>
+        <v>1757.315980207667</v>
       </c>
       <c r="P13">
-        <v>1044.217063298337</v>
+        <v>954.6813311498895</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11832.02682201672</v>
+        <v>11832.1023877956</v>
       </c>
       <c r="B14">
-        <v>5147.933147045555</v>
+        <v>5472.763379951579</v>
       </c>
       <c r="C14">
-        <v>27608.69070857583</v>
+        <v>28555.84893588995</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17994.31818611331</v>
+        <v>18893.13891592227</v>
       </c>
       <c r="F14">
-        <v>9240.647423461816</v>
+        <v>9102.294756727732</v>
       </c>
       <c r="G14">
-        <v>1700.257607398667</v>
+        <v>1670.197204035032</v>
       </c>
       <c r="H14">
-        <v>11832.02682201672</v>
+        <v>11832.1023877956</v>
       </c>
       <c r="I14">
-        <v>52181</v>
+        <v>49872</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32756.62385562138</v>
+        <v>34028.61231584153</v>
       </c>
       <c r="O14">
-        <v>17994.31818611331</v>
+        <v>18893.13891592227</v>
       </c>
       <c r="P14">
-        <v>10940.90503086048</v>
+        <v>10772.49196076276</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.92711225114</v>
+        <v>79020.95418348485</v>
       </c>
       <c r="B15">
-        <v>36242.97092653594</v>
+        <v>35865.20732286147</v>
       </c>
       <c r="C15">
-        <v>196321.1563642818</v>
+        <v>192943.5523010842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>129988.1675878802</v>
+        <v>130576.6549441562</v>
       </c>
       <c r="F15">
-        <v>63337.74646599478</v>
+        <v>57728.54349675298</v>
       </c>
       <c r="G15">
-        <v>10923.48968395592</v>
+        <v>9952.442932858103</v>
       </c>
       <c r="H15">
-        <v>79020.92711225114</v>
+        <v>79020.95418348485</v>
       </c>
       <c r="I15">
-        <v>341907</v>
+        <v>338288</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>232564.1272908177</v>
+        <v>228808.7596239457</v>
       </c>
       <c r="O15">
-        <v>129988.1675878802</v>
+        <v>130576.6549441562</v>
       </c>
       <c r="P15">
-        <v>74261.23614995071</v>
+        <v>67680.98642961108</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.0394752284</v>
+        <v>160974.9590454991</v>
       </c>
       <c r="B16">
-        <v>67179.90107394104</v>
+        <v>71680.50360119973</v>
       </c>
       <c r="C16">
-        <v>374511.4624893441</v>
+        <v>390207.9566877396</v>
       </c>
       <c r="D16">
-        <v>85056.14007617359</v>
+        <v>93294.61457705534</v>
       </c>
       <c r="E16">
-        <v>166131.2108898422</v>
+        <v>175273.2550195545</v>
       </c>
       <c r="F16">
-        <v>115665.5016285932</v>
+        <v>122442.9056695525</v>
       </c>
       <c r="G16">
-        <v>20308.4097186557</v>
+        <v>21213.92178780395</v>
       </c>
       <c r="H16">
-        <v>160975.0394752284</v>
+        <v>160974.9590454991</v>
       </c>
       <c r="I16">
-        <v>666625</v>
+        <v>635361</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>441691.3635632851</v>
+        <v>461888.4602889393</v>
       </c>
       <c r="O16">
-        <v>251187.3509660158</v>
+        <v>268567.8695966099</v>
       </c>
       <c r="P16">
-        <v>135973.9113472489</v>
+        <v>143656.8274573564</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.00397390744</v>
+        <v>52807.88205540812</v>
       </c>
       <c r="B17">
-        <v>24326.87344175442</v>
+        <v>25218.03036371903</v>
       </c>
       <c r="C17">
-        <v>126153.0985113343</v>
+        <v>131441.1934234932</v>
       </c>
       <c r="D17">
-        <v>29734.26371372135</v>
+        <v>30438.57782032663</v>
       </c>
       <c r="E17">
-        <v>56787.65343708287</v>
+        <v>59044.3435907961</v>
       </c>
       <c r="F17">
-        <v>42437.21906013115</v>
+        <v>37189.47309331147</v>
       </c>
       <c r="G17">
-        <v>7239.793776333524</v>
+        <v>6854.368332606849</v>
       </c>
       <c r="H17">
-        <v>52808.00397390744</v>
+        <v>52807.88205540812</v>
       </c>
       <c r="I17">
-        <v>211757</v>
+        <v>219098</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>150479.9719530887</v>
+        <v>156659.2237872122</v>
       </c>
       <c r="O17">
-        <v>86521.91715080422</v>
+        <v>89482.92141112272</v>
       </c>
       <c r="P17">
-        <v>49677.01283646467</v>
+        <v>44043.84142591832</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.06503768793</v>
+        <v>48665.88975862344</v>
       </c>
       <c r="B18">
-        <v>22465.90917299523</v>
+        <v>22430.97663135377</v>
       </c>
       <c r="C18">
-        <v>114010.40861089</v>
+        <v>119663.4813409837</v>
       </c>
       <c r="D18">
-        <v>27489.22135665433</v>
+        <v>28901.84543683559</v>
       </c>
       <c r="E18">
-        <v>51587.52538144921</v>
+        <v>55432.31012662823</v>
       </c>
       <c r="F18">
-        <v>38346.37025749268</v>
+        <v>34145.49722213553</v>
       </c>
       <c r="G18">
-        <v>6647.960799733006</v>
+        <v>5908.299952244325</v>
       </c>
       <c r="H18">
-        <v>48666.06503768793</v>
+        <v>48665.88975862344</v>
       </c>
       <c r="I18">
-        <v>200978</v>
+        <v>205471</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>136476.3177838852</v>
+        <v>142094.4579723374</v>
       </c>
       <c r="O18">
-        <v>79076.74673810354</v>
+        <v>84334.15556346381</v>
       </c>
       <c r="P18">
-        <v>44994.33105722569</v>
+        <v>40053.79717437986</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.89507216039</v>
+        <v>50920.93720686147</v>
       </c>
       <c r="B19">
-        <v>23260.48235642536</v>
+        <v>23316.8882858533</v>
       </c>
       <c r="C19">
-        <v>124092.3155994561</v>
+        <v>123678.289134774</v>
       </c>
       <c r="D19">
-        <v>30050.12819507346</v>
+        <v>29539.27470936552</v>
       </c>
       <c r="E19">
-        <v>59831.06012646616</v>
+        <v>58016.40967172377</v>
       </c>
       <c r="F19">
-        <v>39822.17942555389</v>
+        <v>37927.60323313485</v>
       </c>
       <c r="G19">
-        <v>6718.030424188347</v>
+        <v>6484.609465882497</v>
       </c>
       <c r="H19">
-        <v>50920.89507216039</v>
+        <v>50920.93720686147</v>
       </c>
       <c r="I19">
-        <v>200540</v>
+        <v>196568</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>147352.7979558815</v>
+        <v>146995.1774206273</v>
       </c>
       <c r="O19">
-        <v>89881.18832153962</v>
+        <v>87555.68438108929</v>
       </c>
       <c r="P19">
-        <v>46540.20984974224</v>
+        <v>44412.21269901735</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.95724797799</v>
+        <v>20572.98183966074</v>
       </c>
       <c r="B20">
-        <v>9430.106724243375</v>
+        <v>8804.920514428268</v>
       </c>
       <c r="C20">
-        <v>49503.16297148721</v>
+        <v>47480.35036667019</v>
       </c>
       <c r="D20">
-        <v>12577.57990637649</v>
+        <v>11505.3219679</v>
       </c>
       <c r="E20">
-        <v>24189.65604389084</v>
+        <v>22181.14772982481</v>
       </c>
       <c r="F20">
-        <v>16954.37434586593</v>
+        <v>15582.60416968046</v>
       </c>
       <c r="G20">
-        <v>3097.260858505941</v>
+        <v>2833.590631786068</v>
       </c>
       <c r="H20">
-        <v>20572.95724797799</v>
+        <v>20572.98183966074</v>
       </c>
       <c r="I20">
-        <v>83341</v>
+        <v>78677</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>58933.26969573059</v>
+        <v>56285.27088109846</v>
       </c>
       <c r="O20">
-        <v>36767.23595026732</v>
+        <v>33686.46969772481</v>
       </c>
       <c r="P20">
-        <v>20051.63520437187</v>
+        <v>18416.19480146653</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26961.11746027678</v>
+        <v>26961.00641705353</v>
       </c>
       <c r="B21">
-        <v>12290.13347138619</v>
+        <v>13354.56514505063</v>
       </c>
       <c r="C21">
-        <v>65222.54175489691</v>
+        <v>66414.43587439336</v>
       </c>
       <c r="D21">
-        <v>15530.0712775433</v>
+        <v>15441.63190733296</v>
       </c>
       <c r="E21">
-        <v>31045.89899324677</v>
+        <v>29869.69365728688</v>
       </c>
       <c r="F21">
-        <v>18752.79994339184</v>
+        <v>21837.67830142761</v>
       </c>
       <c r="G21">
-        <v>3619.728818440859</v>
+        <v>3997.738687637455</v>
       </c>
       <c r="H21">
-        <v>26961.11746027678</v>
+        <v>26961.00641705353</v>
       </c>
       <c r="I21">
-        <v>101870</v>
+        <v>109384</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>77512.6752262831</v>
+        <v>79769.00101944398</v>
       </c>
       <c r="O21">
-        <v>46575.97027079007</v>
+        <v>45311.32556461984</v>
       </c>
       <c r="P21">
-        <v>22372.5287618327</v>
+        <v>25835.41698906507</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3909.912221641765</v>
+        <v>3910.036393542544</v>
       </c>
       <c r="B22">
-        <v>1730.987027872331</v>
+        <v>1818.629594783145</v>
       </c>
       <c r="C22">
-        <v>9251.994426810883</v>
+        <v>9724.667004288027</v>
       </c>
       <c r="D22">
-        <v>2272.841279026295</v>
+        <v>2350.843442856367</v>
       </c>
       <c r="E22">
-        <v>4406.862859566025</v>
+        <v>4443.608651130079</v>
       </c>
       <c r="F22">
-        <v>2926.479501358909</v>
+        <v>2835.875954994983</v>
       </c>
       <c r="G22">
-        <v>543.9669520969686</v>
+        <v>487.463162894573</v>
       </c>
       <c r="H22">
-        <v>3909.912221641765</v>
+        <v>3910.036393542544</v>
       </c>
       <c r="I22">
-        <v>16381</v>
+        <v>16424</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10982.98145468321</v>
+        <v>11543.29659907117</v>
       </c>
       <c r="O22">
-        <v>6679.70413859232</v>
+        <v>6794.452093986446</v>
       </c>
       <c r="P22">
-        <v>3470.446453455877</v>
+        <v>3323.339117889556</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9341756479821</v>
+        <v>106.0348975808958</v>
       </c>
       <c r="B23">
-        <v>51.7524494215623</v>
+        <v>46.16496993330354</v>
       </c>
       <c r="C23">
-        <v>251.8221859190929</v>
+        <v>256.5350138319885</v>
       </c>
       <c r="D23">
-        <v>62.06255878051664</v>
+        <v>59.5159797140732</v>
       </c>
       <c r="E23">
-        <v>115.6712055855645</v>
+        <v>114.7823839367404</v>
       </c>
       <c r="F23">
-        <v>73.35194569409903</v>
+        <v>74.88896767501699</v>
       </c>
       <c r="G23">
-        <v>11.74481302765786</v>
+        <v>13.03900053427853</v>
       </c>
       <c r="H23">
-        <v>105.9341756479821</v>
+        <v>106.0348975808958</v>
       </c>
       <c r="I23">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>303.5746353406552</v>
+        <v>302.6999837652921</v>
       </c>
       <c r="O23">
-        <v>177.7337643660811</v>
+        <v>174.2983636508136</v>
       </c>
       <c r="P23">
-        <v>85.09675872175689</v>
+        <v>87.92796820929551</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.07451825796</v>
+        <v>15661.07017562681</v>
       </c>
       <c r="B24">
-        <v>6945.108333260014</v>
+        <v>7068.847121315254</v>
       </c>
       <c r="C24">
-        <v>37661.75112489887</v>
+        <v>38237.58764317831</v>
       </c>
       <c r="D24">
-        <v>9054.770042925189</v>
+        <v>7994.041342833362</v>
       </c>
       <c r="E24">
-        <v>17606.81572417219</v>
+        <v>15742.57093217616</v>
       </c>
       <c r="F24">
-        <v>11927.29941266107</v>
+        <v>11286.08005954061</v>
       </c>
       <c r="G24">
-        <v>2042.860055767015</v>
+        <v>1999.711465725911</v>
       </c>
       <c r="H24">
-        <v>15661.07451825796</v>
+        <v>15661.07017562681</v>
       </c>
       <c r="I24">
-        <v>66069</v>
+        <v>63852</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>44606.85945815888</v>
+        <v>45306.43476449356</v>
       </c>
       <c r="O24">
-        <v>26661.58576709738</v>
+        <v>23736.61227500952</v>
       </c>
       <c r="P24">
-        <v>13970.15946842809</v>
+        <v>13285.79152526652</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.923327909634</v>
+        <v>6607.042181634378</v>
       </c>
       <c r="B25">
-        <v>1444.437305862594</v>
+        <v>1447.801890425983</v>
       </c>
       <c r="C25">
-        <v>17268.5539733903</v>
+        <v>16956.79629854514</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10489.98738421849</v>
+        <v>10305.18251217682</v>
       </c>
       <c r="F25">
-        <v>5382.710264006896</v>
+        <v>5425.353542266347</v>
       </c>
       <c r="G25">
-        <v>263.6201405995208</v>
+        <v>320.2666700646704</v>
       </c>
       <c r="H25">
-        <v>6606.923327909634</v>
+        <v>6607.042181634378</v>
       </c>
       <c r="I25">
-        <v>32192</v>
+        <v>31619</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18712.99127925289</v>
+        <v>18404.59818897112</v>
       </c>
       <c r="O25">
-        <v>10489.98738421849</v>
+        <v>10305.18251217682</v>
       </c>
       <c r="P25">
-        <v>5646.330404606417</v>
+        <v>5745.620212331018</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.07386724852</v>
+        <v>22423.02076986843</v>
       </c>
       <c r="B26">
-        <v>4890.356780415546</v>
+        <v>4736.049735663715</v>
       </c>
       <c r="C26">
-        <v>57156.81568406121</v>
+        <v>58726.69578131185</v>
       </c>
       <c r="D26">
-        <v>8073.928002523807</v>
+        <v>8091.133052443384</v>
       </c>
       <c r="E26">
-        <v>29090.16730815688</v>
+        <v>28168.41398301817</v>
       </c>
       <c r="F26">
-        <v>16999.72035409493</v>
+        <v>17415.48429962374</v>
       </c>
       <c r="G26">
-        <v>871.2051050060074</v>
+        <v>983.9379534713083</v>
       </c>
       <c r="H26">
-        <v>22423.07386724852</v>
+        <v>22423.02076986843</v>
       </c>
       <c r="I26">
-        <v>101082</v>
+        <v>104267</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>62047.17246447676</v>
+        <v>63462.74551697556</v>
       </c>
       <c r="O26">
-        <v>37164.09531068069</v>
+        <v>36259.54703546155</v>
       </c>
       <c r="P26">
-        <v>17870.92545910094</v>
+        <v>18399.42225309504</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29148.02422983472</v>
+        <v>29148.06474805065</v>
       </c>
       <c r="B27">
-        <v>7056.87210399882</v>
+        <v>6041.818646848959</v>
       </c>
       <c r="C27">
-        <v>78917.52993634112</v>
+        <v>74467.85683519011</v>
       </c>
       <c r="D27">
-        <v>11139.5049276648</v>
+        <v>12211.78035652349</v>
       </c>
       <c r="E27">
-        <v>37340.58905578085</v>
+        <v>41219.95863780722</v>
       </c>
       <c r="F27">
-        <v>23947.18290686308</v>
+        <v>24190.91786169086</v>
       </c>
       <c r="G27">
-        <v>1403.206003881714</v>
+        <v>1249.812737475717</v>
       </c>
       <c r="H27">
-        <v>29148.02422983472</v>
+        <v>29148.06474805065</v>
       </c>
       <c r="I27">
-        <v>135080</v>
+        <v>128253</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>85974.40204033993</v>
+        <v>80509.67548203906</v>
       </c>
       <c r="O27">
-        <v>48480.09398344565</v>
+        <v>53431.73899433071</v>
       </c>
       <c r="P27">
-        <v>25350.38891074479</v>
+        <v>25440.73059916658</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.00368142324</v>
+        <v>30698.08303872928</v>
       </c>
       <c r="B28">
-        <v>6686.623105167682</v>
+        <v>6708.517544704718</v>
       </c>
       <c r="C28">
-        <v>82981.43471153386</v>
+        <v>80141.66897530748</v>
       </c>
       <c r="D28">
-        <v>12806.84266183403</v>
+        <v>11406.17191276361</v>
       </c>
       <c r="E28">
-        <v>40745.06077730727</v>
+        <v>39150.97393312262</v>
       </c>
       <c r="F28">
-        <v>24311.54137325712</v>
+        <v>27305.26139493101</v>
       </c>
       <c r="G28">
-        <v>1175.839933362905</v>
+        <v>1433.559915149194</v>
       </c>
       <c r="H28">
-        <v>30698.00368142324</v>
+        <v>30698.08303872928</v>
       </c>
       <c r="I28">
-        <v>137370</v>
+        <v>143789</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>89668.05781670155</v>
+        <v>86850.1865200122</v>
       </c>
       <c r="O28">
-        <v>53551.9034391413</v>
+        <v>50557.14584588623</v>
       </c>
       <c r="P28">
-        <v>25487.38130662003</v>
+        <v>28738.82131008021</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81900.91373567103</v>
+        <v>81900.92399987664</v>
       </c>
       <c r="B29">
-        <v>18930.9813262513</v>
+        <v>18372.6020605581</v>
       </c>
       <c r="C29">
-        <v>213759.3595917074</v>
+        <v>221338.9127097729</v>
       </c>
       <c r="D29">
-        <v>32013.55315013564</v>
+        <v>31672.1338443384</v>
       </c>
       <c r="E29">
-        <v>109953.0813814749</v>
+        <v>105742.7942065025</v>
       </c>
       <c r="F29">
-        <v>72599.96299475202</v>
+        <v>70757.08164951488</v>
       </c>
       <c r="G29">
-        <v>3284.248907054428</v>
+        <v>3812.434710870255</v>
       </c>
       <c r="H29">
-        <v>81900.91373567103</v>
+        <v>81900.92399987664</v>
       </c>
       <c r="I29">
-        <v>377024</v>
+        <v>370283</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>232690.3409179587</v>
+        <v>239711.514770331</v>
       </c>
       <c r="O29">
-        <v>141966.6345316106</v>
+        <v>137414.9280508409</v>
       </c>
       <c r="P29">
-        <v>75884.21190180644</v>
+        <v>74569.51636038513</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65572.00410734629</v>
+        <v>65572.06886728406</v>
       </c>
       <c r="B30">
-        <v>13909.28580383649</v>
+        <v>14412.68097025765</v>
       </c>
       <c r="C30">
-        <v>172064.1341940091</v>
+        <v>172615.0026938455</v>
       </c>
       <c r="D30">
-        <v>23325.03936681962</v>
+        <v>24640.61282375022</v>
       </c>
       <c r="E30">
-        <v>83156.22128963121</v>
+        <v>81010.2204667106</v>
       </c>
       <c r="F30">
-        <v>52446.55817539053</v>
+        <v>49664.57495195792</v>
       </c>
       <c r="G30">
-        <v>2823.364607895723</v>
+        <v>2750.868250852412</v>
       </c>
       <c r="H30">
-        <v>65572.00410734629</v>
+        <v>65572.06886728406</v>
       </c>
       <c r="I30">
-        <v>287011</v>
+        <v>297432</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>185973.4199978456</v>
+        <v>187027.6836641032</v>
       </c>
       <c r="O30">
-        <v>106481.2606564508</v>
+        <v>105650.8332904608</v>
       </c>
       <c r="P30">
-        <v>55269.92278328625</v>
+        <v>52415.44320281033</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90328.029125374</v>
+        <v>90327.98424558896</v>
       </c>
       <c r="B31">
-        <v>19592.46727521326</v>
+        <v>18622.24719749093</v>
       </c>
       <c r="C31">
-        <v>243935.0523479691</v>
+        <v>232784.4903111962</v>
       </c>
       <c r="D31">
-        <v>36377.57681175344</v>
+        <v>31501.70823294255</v>
       </c>
       <c r="E31">
-        <v>118561.0191118543</v>
+        <v>110330.1365908527</v>
       </c>
       <c r="F31">
-        <v>74048.10681964165</v>
+        <v>73591.27787911537</v>
       </c>
       <c r="G31">
-        <v>4024.979527812574</v>
+        <v>3425.991931135718</v>
       </c>
       <c r="H31">
-        <v>90328.029125374</v>
+        <v>90327.98424558896</v>
       </c>
       <c r="I31">
-        <v>431740</v>
+        <v>430476</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>263527.5196231824</v>
+        <v>251406.7375086871</v>
       </c>
       <c r="O31">
-        <v>154938.5959236077</v>
+        <v>141831.8448237952</v>
       </c>
       <c r="P31">
-        <v>78073.08634745421</v>
+        <v>77017.26981025109</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.93079079734</v>
+        <v>36450.95052661163</v>
       </c>
       <c r="B32">
-        <v>7858.355867491785</v>
+        <v>7681.457020125677</v>
       </c>
       <c r="C32">
-        <v>98271.41551176057</v>
+        <v>96912.92122975539</v>
       </c>
       <c r="D32">
-        <v>14301.55565545283</v>
+        <v>13964.02856703854</v>
       </c>
       <c r="E32">
-        <v>46946.16986042175</v>
+        <v>45955.33780604776</v>
       </c>
       <c r="F32">
-        <v>29475.83676125005</v>
+        <v>30592.98991314078</v>
       </c>
       <c r="G32">
-        <v>1553.637972178001</v>
+        <v>1388.011964279657</v>
       </c>
       <c r="H32">
-        <v>36450.93079079734</v>
+        <v>36450.95052661163</v>
       </c>
       <c r="I32">
-        <v>165308</v>
+        <v>166936</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>106129.7713792524</v>
+        <v>104594.3782498811</v>
       </c>
       <c r="O32">
-        <v>61247.72551587458</v>
+        <v>59919.36637308629</v>
       </c>
       <c r="P32">
-        <v>31029.47473342805</v>
+        <v>31981.00187742044</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.96127848091</v>
+        <v>22120.89672473531</v>
       </c>
       <c r="B33">
-        <v>4892.649017311995</v>
+        <v>4610.629872972188</v>
       </c>
       <c r="C33">
-        <v>59702.23265205004</v>
+        <v>57275.79087692028</v>
       </c>
       <c r="D33">
-        <v>8854.316601411343</v>
+        <v>8506.299697779143</v>
       </c>
       <c r="E33">
-        <v>28748.22302039153</v>
+        <v>28345.40374071325</v>
       </c>
       <c r="F33">
-        <v>19081.75908168492</v>
+        <v>18788.20588258016</v>
       </c>
       <c r="G33">
-        <v>904.1322491681239</v>
+        <v>916.9921604017698</v>
       </c>
       <c r="H33">
-        <v>22120.96127848091</v>
+        <v>22120.89672473531</v>
       </c>
       <c r="I33">
-        <v>97155</v>
+        <v>102303</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>64594.88166936204</v>
+        <v>61886.42074989247</v>
       </c>
       <c r="O33">
-        <v>37602.53962180288</v>
+        <v>36851.7034384924</v>
       </c>
       <c r="P33">
-        <v>19985.89133085305</v>
+        <v>19705.19804298193</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26864.03996041207</v>
+        <v>26863.89954659639</v>
       </c>
       <c r="B34">
-        <v>5561.031179603913</v>
+        <v>5885.909638200611</v>
       </c>
       <c r="C34">
-        <v>71400.15177287925</v>
+        <v>72059.83500113666</v>
       </c>
       <c r="D34">
-        <v>9983.35791948021</v>
+        <v>9388.039915564306</v>
       </c>
       <c r="E34">
-        <v>32913.85720064491</v>
+        <v>31297.95227961757</v>
       </c>
       <c r="F34">
-        <v>22173.58874052714</v>
+        <v>21686.75552118446</v>
       </c>
       <c r="G34">
-        <v>1178.055295639451</v>
+        <v>1090.47193150651</v>
       </c>
       <c r="H34">
-        <v>26864.03996041207</v>
+        <v>26863.89954659639</v>
       </c>
       <c r="I34">
-        <v>125059</v>
+        <v>124212</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>76961.18295248317</v>
+        <v>77945.74463933727</v>
       </c>
       <c r="O34">
-        <v>42897.21512012512</v>
+        <v>40685.99219518188</v>
       </c>
       <c r="P34">
-        <v>23351.64403616659</v>
+        <v>22777.22745269097</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0512608330847</v>
+        <v>454.0515694836524</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1273.638118612771</v>
+        <v>1270.468827902284</v>
       </c>
       <c r="D35">
-        <v>173.5103363404658</v>
+        <v>171.8888019034277</v>
       </c>
       <c r="E35">
-        <v>581.0997338710949</v>
+        <v>587.4352241256171</v>
       </c>
       <c r="F35">
-        <v>341.429820665348</v>
+        <v>413.1595884691456</v>
       </c>
       <c r="G35">
-        <v>18.74127571798683</v>
+        <v>22.30019883456112</v>
       </c>
       <c r="H35">
-        <v>454.0512608330847</v>
+        <v>454.0515694836524</v>
       </c>
       <c r="I35">
-        <v>2282</v>
+        <v>2184</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1273.638118612771</v>
+        <v>1270.468827902284</v>
       </c>
       <c r="O35">
-        <v>754.6100702115607</v>
+        <v>759.3240260290447</v>
       </c>
       <c r="P35">
-        <v>360.1710963833348</v>
+        <v>435.4597873037067</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9272553758328</v>
+        <v>504.9752342825224</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1399.311103946274</v>
+        <v>1429.232108597489</v>
       </c>
       <c r="D36">
-        <v>194.469883009232</v>
+        <v>191.0786195773048</v>
       </c>
       <c r="E36">
-        <v>630.7900872851636</v>
+        <v>624.2447751725903</v>
       </c>
       <c r="F36">
-        <v>433.8977808709245</v>
+        <v>452.3773358499445</v>
       </c>
       <c r="G36">
-        <v>24.44147319982362</v>
+        <v>24.7213245233978</v>
       </c>
       <c r="H36">
-        <v>504.9272553758328</v>
+        <v>504.9752342825224</v>
       </c>
       <c r="I36">
-        <v>2456</v>
+        <v>2610</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1399.311103946274</v>
+        <v>1429.232108597489</v>
       </c>
       <c r="O36">
-        <v>825.2599702943955</v>
+        <v>815.3233947498951</v>
       </c>
       <c r="P36">
-        <v>458.3392540707482</v>
+        <v>477.0986603733423</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.0865098209</v>
+        <v>11108.00519965963</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>30992.46060290049</v>
+        <v>31064.87974102587</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>17741.7972036609</v>
+        <v>17681.32428189031</v>
       </c>
       <c r="F37">
-        <v>3265.202434112089</v>
+        <v>3528.079110898801</v>
       </c>
       <c r="G37">
-        <v>6371.002040542767</v>
+        <v>6600.919290393465</v>
       </c>
       <c r="H37">
-        <v>11108.0865098209</v>
+        <v>11108.00519965963</v>
       </c>
       <c r="I37">
-        <v>60700</v>
+        <v>56851</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>30992.46060290049</v>
+        <v>31064.87974102587</v>
       </c>
       <c r="O37">
-        <v>17741.7972036609</v>
+        <v>17681.32428189031</v>
       </c>
       <c r="P37">
-        <v>9636.204474654856</v>
+        <v>10128.99840129227</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1091.003583836699</v>
+        <v>1090.989379988935</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3078.421883543483</v>
+        <v>3053.113040609167</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1729.902864273842</v>
+        <v>1687.331585547596</v>
       </c>
       <c r="F38">
-        <v>365.9624384919785</v>
+        <v>340.1037995585692</v>
       </c>
       <c r="G38">
-        <v>669.2181273036439</v>
+        <v>631.5593746265786</v>
       </c>
       <c r="H38">
-        <v>1091.003583836699</v>
+        <v>1090.989379988935</v>
       </c>
       <c r="I38">
-        <v>5802</v>
+        <v>5339</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3078.421883543483</v>
+        <v>3053.113040609167</v>
       </c>
       <c r="O38">
-        <v>1729.902864273842</v>
+        <v>1687.331585547596</v>
       </c>
       <c r="P38">
-        <v>1035.180565795622</v>
+        <v>971.6631741851478</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9210179671</v>
+        <v>153571.9200141193</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>414146.9536507046</v>
+        <v>442666.7102160384</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>243757.6626490604</v>
+        <v>252085.2340206258</v>
       </c>
       <c r="F39">
-        <v>51266.4697750107</v>
+        <v>45599.41022418175</v>
       </c>
       <c r="G39">
-        <v>97090.64337567326</v>
+        <v>88260.11958667707</v>
       </c>
       <c r="H39">
-        <v>153571.9210179671</v>
+        <v>153571.9200141193</v>
       </c>
       <c r="I39">
-        <v>761640</v>
+        <v>768429</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>414146.9536507046</v>
+        <v>442666.7102160384</v>
       </c>
       <c r="O39">
-        <v>243757.6626490604</v>
+        <v>252085.2340206258</v>
       </c>
       <c r="P39">
-        <v>148357.113150684</v>
+        <v>133859.5298108588</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9128756445</v>
+        <v>152869.0805855907</v>
       </c>
       <c r="B40">
-        <v>26016.50381532032</v>
+        <v>26097.57346739509</v>
       </c>
       <c r="C40">
-        <v>409319.4680936398</v>
+        <v>412760.3062660684</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>262124.8952142262</v>
+        <v>251915.3246730269</v>
       </c>
       <c r="F40">
-        <v>47857.25645048182</v>
+        <v>45966.60899819052</v>
       </c>
       <c r="G40">
-        <v>87334.44404541503</v>
+        <v>86380.26757580419</v>
       </c>
       <c r="H40">
-        <v>152868.9128756445</v>
+        <v>152869.0805855907</v>
       </c>
       <c r="I40">
-        <v>777910</v>
+        <v>789165</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>435335.9719089601</v>
+        <v>438857.8797334635</v>
       </c>
       <c r="O40">
-        <v>262124.8952142262</v>
+        <v>251915.3246730269</v>
       </c>
       <c r="P40">
-        <v>135191.7004958969</v>
+        <v>132346.8765739947</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0407898935</v>
+        <v>339432.9877600419</v>
       </c>
       <c r="B41">
-        <v>59237.02348788595</v>
+        <v>60915.54371647841</v>
       </c>
       <c r="C41">
-        <v>910068.8925658255</v>
+        <v>892731.4856077966</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>568343.8179220865</v>
+        <v>535868.6188414397</v>
       </c>
       <c r="F41">
-        <v>95809.62818353718</v>
+        <v>111808.8704724279</v>
       </c>
       <c r="G41">
-        <v>183869.1491487279</v>
+        <v>199581.1573446357</v>
       </c>
       <c r="H41">
-        <v>339433.0407898935</v>
+        <v>339432.9877600419</v>
       </c>
       <c r="I41">
-        <v>1642254</v>
+        <v>1690122</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>969305.9160537114</v>
+        <v>953647.029324275</v>
       </c>
       <c r="O41">
-        <v>568343.8179220865</v>
+        <v>535868.6188414397</v>
       </c>
       <c r="P41">
-        <v>279678.7773322651</v>
+        <v>311390.0278170636</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.0796767958</v>
+        <v>245458.9251324264</v>
       </c>
       <c r="B42">
-        <v>40775.07583100491</v>
+        <v>44365.78466050412</v>
       </c>
       <c r="C42">
-        <v>631171.6011709784</v>
+        <v>643108.3422503732</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>403544.4737429701</v>
+        <v>386637.5292908209</v>
       </c>
       <c r="F42">
-        <v>74735.8051051072</v>
+        <v>75723.73563217062</v>
       </c>
       <c r="G42">
-        <v>134017.4961308822</v>
+        <v>138006.8897455086</v>
       </c>
       <c r="H42">
-        <v>245459.0796767958</v>
+        <v>245458.9251324264</v>
       </c>
       <c r="I42">
-        <v>1193644</v>
+        <v>1163329</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>671946.6770019833</v>
+        <v>687474.1269108773</v>
       </c>
       <c r="O42">
-        <v>403544.4737429701</v>
+        <v>386637.5292908209</v>
       </c>
       <c r="P42">
-        <v>208753.3012359894</v>
+        <v>213730.6253776792</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367627.1066804541</v>
+        <v>367627.0779266137</v>
       </c>
       <c r="B43">
-        <v>66701.98849909136</v>
+        <v>59199.33686142791</v>
       </c>
       <c r="C43">
-        <v>996825.0291186635</v>
+        <v>963976.8194151154</v>
       </c>
       <c r="D43">
-        <v>79217.55958983451</v>
+        <v>78633.96434083502</v>
       </c>
       <c r="E43">
-        <v>510840.8390150177</v>
+        <v>509869.4950759076</v>
       </c>
       <c r="F43">
-        <v>110773.5245273516</v>
+        <v>122849.5389649847</v>
       </c>
       <c r="G43">
-        <v>204747.5075406461</v>
+        <v>215948.1842394572</v>
       </c>
       <c r="H43">
-        <v>367627.1066804541</v>
+        <v>367627.0779266137</v>
       </c>
       <c r="I43">
-        <v>1700819</v>
+        <v>1844436</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1063527.017617755</v>
+        <v>1023176.156276543</v>
       </c>
       <c r="O43">
-        <v>590058.3986048523</v>
+        <v>588503.4594167427</v>
       </c>
       <c r="P43">
-        <v>315521.0320679977</v>
+        <v>338797.7232044419</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9479926964</v>
+        <v>470397.0879645433</v>
       </c>
       <c r="B44">
-        <v>79043.20979036503</v>
+        <v>84709.04675402396</v>
       </c>
       <c r="C44">
-        <v>1227881.879817462</v>
+        <v>1307096.863844741</v>
       </c>
       <c r="D44">
-        <v>97463.23871989382</v>
+        <v>109997.7405447999</v>
       </c>
       <c r="E44">
-        <v>654647.6868400668</v>
+        <v>744257.6106083975</v>
       </c>
       <c r="F44">
-        <v>158886.4892757676</v>
+        <v>146169.837710318</v>
       </c>
       <c r="G44">
-        <v>301338.759469118</v>
+        <v>273120.3052987427</v>
       </c>
       <c r="H44">
-        <v>470396.9479926964</v>
+        <v>470397.0879645433</v>
       </c>
       <c r="I44">
-        <v>2286912</v>
+        <v>2262697</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1306925.089607827</v>
+        <v>1391805.910598765</v>
       </c>
       <c r="O44">
-        <v>752110.9255599607</v>
+        <v>854255.3511531975</v>
       </c>
       <c r="P44">
-        <v>460225.2487448857</v>
+        <v>419290.1430090606</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9929746396</v>
+        <v>307102.9871781051</v>
       </c>
       <c r="B45">
-        <v>51459.77475278575</v>
+        <v>56158.10830103532</v>
       </c>
       <c r="C45">
-        <v>802706.0699259377</v>
+        <v>817418.9653565601</v>
       </c>
       <c r="D45">
-        <v>70501.3111098486</v>
+        <v>59391.6929711777</v>
       </c>
       <c r="E45">
-        <v>459199.1370449303</v>
+        <v>409555.20416348</v>
       </c>
       <c r="F45">
-        <v>100128.117246685</v>
+        <v>94878.36905638878</v>
       </c>
       <c r="G45">
-        <v>180020.2829265355</v>
+        <v>173515.5799670854</v>
       </c>
       <c r="H45">
-        <v>307102.9929746396</v>
+        <v>307102.9871781051</v>
       </c>
       <c r="I45">
-        <v>1486018</v>
+        <v>1500766</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>854165.8446787235</v>
+        <v>873577.0736575954</v>
       </c>
       <c r="O45">
-        <v>529700.4481547789</v>
+        <v>468946.8971346577</v>
       </c>
       <c r="P45">
-        <v>280148.4001732204</v>
+        <v>268393.9490234742</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9993630386</v>
+        <v>327914.9289509248</v>
       </c>
       <c r="B46">
-        <v>57129.39052184983</v>
+        <v>57043.84891458047</v>
       </c>
       <c r="C46">
-        <v>887465.9922515253</v>
+        <v>874359.1948653985</v>
       </c>
       <c r="D46">
-        <v>66904.30516589519</v>
+        <v>71538.06303862816</v>
       </c>
       <c r="E46">
-        <v>451965.7964638743</v>
+        <v>479834.4540039999</v>
       </c>
       <c r="F46">
-        <v>108627.4775066686</v>
+        <v>102791.4521178533</v>
       </c>
       <c r="G46">
-        <v>201648.6339503524</v>
+        <v>190493.5760603186</v>
       </c>
       <c r="H46">
-        <v>327914.9993630386</v>
+        <v>327914.9289509248</v>
       </c>
       <c r="I46">
-        <v>1639984</v>
+        <v>1547203</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>944595.3827733751</v>
+        <v>931403.0437799789</v>
       </c>
       <c r="O46">
-        <v>518870.1016297696</v>
+        <v>551372.5170426281</v>
       </c>
       <c r="P46">
-        <v>310276.111457021</v>
+        <v>293285.0281781719</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.0469180128</v>
+        <v>659114.0106008833</v>
       </c>
       <c r="B47">
-        <v>113138.8692355797</v>
+        <v>116592.4303085391</v>
       </c>
       <c r="C47">
-        <v>1759534.703527974</v>
+        <v>1757511.218663213</v>
       </c>
       <c r="D47">
-        <v>155589.4744991074</v>
+        <v>146597.3802069823</v>
       </c>
       <c r="E47">
-        <v>960500.1185694373</v>
+        <v>990879.8620757646</v>
       </c>
       <c r="F47">
-        <v>203852.4275784108</v>
+        <v>196444.5764379739</v>
       </c>
       <c r="G47">
-        <v>366374.428323219</v>
+        <v>356308.252623653</v>
       </c>
       <c r="H47">
-        <v>659114.0469180128</v>
+        <v>659114.0106008833</v>
       </c>
       <c r="I47">
-        <v>2991896</v>
+        <v>3326334</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1872673.572763554</v>
+        <v>1874103.648971752</v>
       </c>
       <c r="O47">
-        <v>1116089.593068545</v>
+        <v>1137477.242282747</v>
       </c>
       <c r="P47">
-        <v>570226.8559016298</v>
+        <v>552752.8290616269</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.9899316198</v>
+        <v>195930.9327793586</v>
       </c>
       <c r="B48">
-        <v>37326.80335311093</v>
+        <v>34628.58464726919</v>
       </c>
       <c r="C48">
-        <v>541932.3534779613</v>
+        <v>534623.2997395053</v>
       </c>
       <c r="D48">
-        <v>42105.77618554334</v>
+        <v>38602.73896018768</v>
       </c>
       <c r="E48">
-        <v>285187.6410098946</v>
+        <v>259736.1601928653</v>
       </c>
       <c r="F48">
-        <v>57708.24037031232</v>
+        <v>66297.85806891484</v>
       </c>
       <c r="G48">
-        <v>107045.6115109938</v>
+        <v>119830.6968811768</v>
       </c>
       <c r="H48">
-        <v>195930.9899316198</v>
+        <v>195930.9327793586</v>
       </c>
       <c r="I48">
-        <v>935480</v>
+        <v>900501</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>579259.1568310722</v>
+        <v>569251.8843867745</v>
       </c>
       <c r="O48">
-        <v>327293.4171954379</v>
+        <v>298338.899153053</v>
       </c>
       <c r="P48">
-        <v>164753.8518813062</v>
+        <v>186128.5549500916</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174400.0989265022</v>
+        <v>174399.9100599116</v>
       </c>
       <c r="B49">
-        <v>29113.08686305076</v>
+        <v>29551.65138296375</v>
       </c>
       <c r="C49">
-        <v>465845.8565436155</v>
+        <v>476545.0575170204</v>
       </c>
       <c r="D49">
-        <v>41000.92176815926</v>
+        <v>37644.95355974946</v>
       </c>
       <c r="E49">
-        <v>260308.9873928733</v>
+        <v>253665.9991505846</v>
       </c>
       <c r="F49">
-        <v>47198.20820797471</v>
+        <v>56402.35555783068</v>
       </c>
       <c r="G49">
-        <v>91101.17138401551</v>
+        <v>98814.86304784883</v>
       </c>
       <c r="H49">
-        <v>174400.0989265022</v>
+        <v>174399.9100599116</v>
       </c>
       <c r="I49">
-        <v>837110</v>
+        <v>904456</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>494958.9434066663</v>
+        <v>506096.7088999841</v>
       </c>
       <c r="O49">
-        <v>301309.9091610326</v>
+        <v>291310.952710334</v>
       </c>
       <c r="P49">
-        <v>138299.3795919902</v>
+        <v>155217.2186056795</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60247.90613449772</v>
+        <v>60248.05614432493</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>168081.520857655</v>
+        <v>164877.1689486906</v>
       </c>
       <c r="D50">
-        <v>13636.46593199625</v>
+        <v>13126.86661796874</v>
       </c>
       <c r="E50">
-        <v>90446.99494162947</v>
+        <v>82748.35637455845</v>
       </c>
       <c r="F50">
-        <v>19273.07845433562</v>
+        <v>20491.96745551183</v>
       </c>
       <c r="G50">
-        <v>36033.2921653899</v>
+        <v>38948.08763666222</v>
       </c>
       <c r="H50">
-        <v>60247.90613449772</v>
+        <v>60248.05614432493</v>
       </c>
       <c r="I50">
-        <v>307894</v>
+        <v>280067</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>168081.520857655</v>
+        <v>164877.1689486906</v>
       </c>
       <c r="O50">
-        <v>104083.4608736257</v>
+        <v>95875.2229925272</v>
       </c>
       <c r="P50">
-        <v>55306.37061972552</v>
+        <v>59440.05509217405</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.100415096144</v>
+        <v>8461.047018521937</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>24951.90882181894</v>
+        <v>23448.59225916943</v>
       </c>
       <c r="D51">
-        <v>1889.192597522038</v>
+        <v>1827.162100245503</v>
       </c>
       <c r="E51">
-        <v>12779.72657919626</v>
+        <v>11978.14834639307</v>
       </c>
       <c r="F51">
-        <v>2864.191783208031</v>
+        <v>2711.254536967093</v>
       </c>
       <c r="G51">
-        <v>5060.854011913791</v>
+        <v>4955.393380686742</v>
       </c>
       <c r="H51">
-        <v>8461.100415096144</v>
+        <v>8461.047018521937</v>
       </c>
       <c r="I51">
-        <v>41838</v>
+        <v>42805</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>24951.90882181894</v>
+        <v>23448.59225916943</v>
       </c>
       <c r="O51">
-        <v>14668.9191767183</v>
+        <v>13805.31044663857</v>
       </c>
       <c r="P51">
-        <v>7925.045795121821</v>
+        <v>7666.647917653834</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.90410618868</v>
+        <v>2463.033916594931</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7448.917031397279</v>
+        <v>7445.952657283044</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1210.646215722522</v>
+        <v>1136.528590724477</v>
       </c>
       <c r="F52">
-        <v>1.13075395586404</v>
+        <v>5.325985369860229</v>
       </c>
       <c r="G52">
-        <v>10.33300571464466</v>
+        <v>7.232255554038183</v>
       </c>
       <c r="H52">
-        <v>2462.90410618868</v>
+        <v>2463.033916594931</v>
       </c>
       <c r="I52">
-        <v>10502</v>
+        <v>11974</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7448.917031397279</v>
+        <v>7445.952657283044</v>
       </c>
       <c r="O52">
-        <v>1210.646215722522</v>
+        <v>1136.528590724477</v>
       </c>
       <c r="P52">
-        <v>11.4637596705087</v>
+        <v>12.55824092389841</v>
       </c>
       <c r="Q52">
-        <v>10.51550804684103</v>
+        <v>18.62700662291675</v>
       </c>
       <c r="R52">
-        <v>40.31190333034905</v>
+        <v>60.53860253373423</v>
       </c>
       <c r="S52">
-        <v>50.82741137719009</v>
+        <v>79.16560915665097</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3703.961196190396</v>
+        <v>3703.918400853295</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>10842.09485016933</v>
+        <v>11391.77876886127</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1602.000150262364</v>
+        <v>1656.348426485406</v>
       </c>
       <c r="F53">
-        <v>4.22667428561496</v>
+        <v>0.7829891136913277</v>
       </c>
       <c r="G53">
-        <v>14.36415615391626</v>
+        <v>10.7383924202417</v>
       </c>
       <c r="H53">
-        <v>3703.961196190396</v>
+        <v>3703.918400853295</v>
       </c>
       <c r="I53">
-        <v>16556</v>
+        <v>16175</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>10842.09485016933</v>
+        <v>11391.77876886127</v>
       </c>
       <c r="O53">
-        <v>1602.000150262364</v>
+        <v>1656.348426485406</v>
       </c>
       <c r="P53">
-        <v>18.59083043953122</v>
+        <v>11.52138153393303</v>
       </c>
       <c r="Q53">
-        <v>21.33004835134064</v>
+        <v>29.72575257745192</v>
       </c>
       <c r="R53">
-        <v>58.76522966871573</v>
+        <v>58.2124039234497</v>
       </c>
       <c r="S53">
-        <v>80.09527802005636</v>
+        <v>87.93815650090161</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169754.1044018661</v>
+        <v>169753.8819554612</v>
       </c>
       <c r="B54">
-        <v>40230.29121051193</v>
+        <v>41081.11237511736</v>
       </c>
       <c r="C54">
-        <v>490088.730763138</v>
+        <v>505387.1217087435</v>
       </c>
       <c r="D54">
-        <v>5465.108799786709</v>
+        <v>6486.171545611218</v>
       </c>
       <c r="E54">
-        <v>79243.75522966987</v>
+        <v>78371.0367478336</v>
       </c>
       <c r="F54">
-        <v>155.2527706027783</v>
+        <v>277.6918790328438</v>
       </c>
       <c r="G54">
-        <v>869.6457428120782</v>
+        <v>952.9829085055284</v>
       </c>
       <c r="H54">
-        <v>169754.1044018661</v>
+        <v>169753.8819554612</v>
       </c>
       <c r="I54">
-        <v>731929</v>
+        <v>718223</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>530319.02197365</v>
+        <v>546468.2340838608</v>
       </c>
       <c r="O54">
-        <v>84708.86402945659</v>
+        <v>84857.20829344481</v>
       </c>
       <c r="P54">
-        <v>1024.898513414857</v>
+        <v>1230.674787538372</v>
       </c>
       <c r="Q54">
-        <v>964.1808284465529</v>
+        <v>635.2455062160825</v>
       </c>
       <c r="R54">
-        <v>4437.916500121666</v>
+        <v>3204.676657684299</v>
       </c>
       <c r="S54">
-        <v>5402.097328568219</v>
+        <v>3839.922163900382</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.9082444446</v>
+        <v>301001.0869784965</v>
       </c>
       <c r="B55">
-        <v>75992.93737002611</v>
+        <v>70424.68096134624</v>
       </c>
       <c r="C55">
-        <v>880650.6017686783</v>
+        <v>880855.4716204066</v>
       </c>
       <c r="D55">
-        <v>10386.46786035234</v>
+        <v>10373.32441017198</v>
       </c>
       <c r="E55">
-        <v>136189.9158270221</v>
+        <v>123708.3683021434</v>
       </c>
       <c r="F55">
-        <v>92.11994255288163</v>
+        <v>16.03373745272685</v>
       </c>
       <c r="G55">
-        <v>1196.307892347307</v>
+        <v>639.1048985589957</v>
       </c>
       <c r="H55">
-        <v>301000.9082444446</v>
+        <v>301001.0869784965</v>
       </c>
       <c r="I55">
-        <v>1252211</v>
+        <v>1231002</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>956643.5391387044</v>
+        <v>951280.1525817529</v>
       </c>
       <c r="O55">
-        <v>146576.3836873745</v>
+        <v>134081.6927123154</v>
       </c>
       <c r="P55">
-        <v>1288.427834900189</v>
+        <v>655.1386360117226</v>
       </c>
       <c r="Q55">
-        <v>1919.971331154648</v>
+        <v>3044.840143415248</v>
       </c>
       <c r="R55">
-        <v>6881.144064266298</v>
+        <v>6462.369585080068</v>
       </c>
       <c r="S55">
-        <v>8801.115395420946</v>
+        <v>9507.209728495316</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.9308668756</v>
+        <v>485904.0246877881</v>
       </c>
       <c r="B56">
-        <v>119823.9537519757</v>
+        <v>125496.9405963472</v>
       </c>
       <c r="C56">
-        <v>1419706.504824846</v>
+        <v>1447860.072551017</v>
       </c>
       <c r="D56">
-        <v>18335.44078297705</v>
+        <v>14259.28366315925</v>
       </c>
       <c r="E56">
-        <v>236489.4170806372</v>
+        <v>206050.3998317549</v>
       </c>
       <c r="F56">
-        <v>480.7941050376899</v>
+        <v>240.2059250808237</v>
       </c>
       <c r="G56">
-        <v>1246.170681094033</v>
+        <v>3008.827795068</v>
       </c>
       <c r="H56">
-        <v>485903.9308668756</v>
+        <v>485904.0246877881</v>
       </c>
       <c r="I56">
-        <v>1987892</v>
+        <v>2138956</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1539530.458576822</v>
+        <v>1573357.013147364</v>
       </c>
       <c r="O56">
-        <v>254824.8578636143</v>
+        <v>220309.6834949142</v>
       </c>
       <c r="P56">
-        <v>1726.964786131722</v>
+        <v>3249.033720148824</v>
       </c>
       <c r="Q56">
-        <v>2517.158515843049</v>
+        <v>2488.272280101578</v>
       </c>
       <c r="R56">
-        <v>8296.941110522588</v>
+        <v>6966.43895234244</v>
       </c>
       <c r="S56">
-        <v>10814.09962636564</v>
+        <v>9454.711232444017</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757270.9878510188</v>
+        <v>757271.0546564433</v>
       </c>
       <c r="B57">
-        <v>184089.8201334379</v>
+        <v>178077.8085363874</v>
       </c>
       <c r="C57">
-        <v>2209673.901079305</v>
+        <v>2094631.114870005</v>
       </c>
       <c r="D57">
-        <v>29071.20990229353</v>
+        <v>23353.90504717863</v>
       </c>
       <c r="E57">
-        <v>343283.7258759597</v>
+        <v>334331.0499332089</v>
       </c>
       <c r="F57">
-        <v>452.0342996879122</v>
+        <v>456.3306003364701</v>
       </c>
       <c r="G57">
-        <v>1648.839685967549</v>
+        <v>2632.016177515364</v>
       </c>
       <c r="H57">
-        <v>757270.9878510188</v>
+        <v>757271.0546564433</v>
       </c>
       <c r="I57">
-        <v>3177837</v>
+        <v>3247462</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2393763.721212742</v>
+        <v>2272708.923406392</v>
       </c>
       <c r="O57">
-        <v>372354.9357782532</v>
+        <v>357684.9549803875</v>
       </c>
       <c r="P57">
-        <v>2100.873985655461</v>
+        <v>3088.346777851834</v>
       </c>
       <c r="Q57">
-        <v>5930.700554668867</v>
+        <v>3237.109703095342</v>
       </c>
       <c r="R57">
-        <v>13278.07834673094</v>
+        <v>12232.37808539298</v>
       </c>
       <c r="S57">
-        <v>19208.7789013998</v>
+        <v>15469.48778848832</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651328.9620127493</v>
+        <v>651329.0070323458</v>
       </c>
       <c r="B58">
-        <v>152860.0281911957</v>
+        <v>160312.2924746709</v>
       </c>
       <c r="C58">
-        <v>1879287.817522439</v>
+        <v>1944278.593423834</v>
       </c>
       <c r="D58">
-        <v>23726.0394209432</v>
+        <v>21633.97930242287</v>
       </c>
       <c r="E58">
-        <v>295256.9977207568</v>
+        <v>271024.5817503121</v>
       </c>
       <c r="F58">
-        <v>585.7356212429528</v>
+        <v>434.9612932667791</v>
       </c>
       <c r="G58">
-        <v>3149.429124900192</v>
+        <v>2060.183821954969</v>
       </c>
       <c r="H58">
-        <v>651328.9620127493</v>
+        <v>651329.0070323458</v>
       </c>
       <c r="I58">
-        <v>2766964</v>
+        <v>2775888</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2032147.845713634</v>
+        <v>2104590.885898505</v>
       </c>
       <c r="O58">
-        <v>318983.0371417</v>
+        <v>292658.5610527349</v>
       </c>
       <c r="P58">
-        <v>3735.164746143145</v>
+        <v>2495.145115221748</v>
       </c>
       <c r="Q58">
-        <v>4991.912097549004</v>
+        <v>4053.915127349406</v>
       </c>
       <c r="R58">
-        <v>11552.64367768843</v>
+        <v>11648.89522280761</v>
       </c>
       <c r="S58">
-        <v>16544.55577523743</v>
+        <v>15702.81035015701</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.0294972658</v>
+        <v>889111.9365123401</v>
       </c>
       <c r="B59">
-        <v>218571.7470208798</v>
+        <v>216749.9821948703</v>
       </c>
       <c r="C59">
-        <v>2663489.421088543</v>
+        <v>2492384.900141534</v>
       </c>
       <c r="D59">
-        <v>26785.84960254365</v>
+        <v>31900.51161342035</v>
       </c>
       <c r="E59">
-        <v>420215.9920174005</v>
+        <v>392471.7726569857</v>
       </c>
       <c r="F59">
-        <v>645.2503962317954</v>
+        <v>702.9958919962522</v>
       </c>
       <c r="G59">
-        <v>4097.316775213304</v>
+        <v>2324.087328378367</v>
       </c>
       <c r="H59">
-        <v>889112.0294972658</v>
+        <v>889111.9365123401</v>
       </c>
       <c r="I59">
-        <v>3803649</v>
+        <v>3646601</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2882061.168109423</v>
+        <v>2709134.882336405</v>
       </c>
       <c r="O59">
-        <v>447001.8416199441</v>
+        <v>424372.284270406</v>
       </c>
       <c r="P59">
-        <v>4742.567171445099</v>
+        <v>3027.08322037462</v>
       </c>
       <c r="Q59">
-        <v>3443.084604865144</v>
+        <v>3957.773172118495</v>
       </c>
       <c r="R59">
-        <v>15956.96770511241</v>
+        <v>14367.99283800064</v>
       </c>
       <c r="S59">
-        <v>19400.05230997756</v>
+        <v>18325.76601011913</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.8872528357</v>
+        <v>465364.9007312441</v>
       </c>
       <c r="B60">
-        <v>111024.2403552051</v>
+        <v>111789.5232438906</v>
       </c>
       <c r="C60">
-        <v>1374344.945529613</v>
+        <v>1307172.567109856</v>
       </c>
       <c r="D60">
-        <v>15189.23738618365</v>
+        <v>15502.96975153719</v>
       </c>
       <c r="E60">
-        <v>204369.7958982987</v>
+        <v>201692.3483871633</v>
       </c>
       <c r="F60">
-        <v>675.4944416943152</v>
+        <v>209.79397722276</v>
       </c>
       <c r="G60">
-        <v>2030.458052438912</v>
+        <v>1021.082432430763</v>
       </c>
       <c r="H60">
-        <v>465364.8872528357</v>
+        <v>465364.9007312441</v>
       </c>
       <c r="I60">
-        <v>1907020</v>
+        <v>2027763</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1485369.185884818</v>
+        <v>1418962.090353746</v>
       </c>
       <c r="O60">
-        <v>219559.0332844823</v>
+        <v>217195.3181387005</v>
       </c>
       <c r="P60">
-        <v>2705.952494133227</v>
+        <v>1230.876409653523</v>
       </c>
       <c r="Q60">
-        <v>3389.224387196326</v>
+        <v>2916.044897454671</v>
       </c>
       <c r="R60">
-        <v>7605.040151749024</v>
+        <v>11513.49762558811</v>
       </c>
       <c r="S60">
-        <v>10994.26453894535</v>
+        <v>14429.54252304278</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9306594522</v>
+        <v>340623.9934018881</v>
       </c>
       <c r="B61">
-        <v>83582.94151389616</v>
+        <v>83080.70277803521</v>
       </c>
       <c r="C61">
-        <v>999886.7289042504</v>
+        <v>978407.7978484555</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>161171.8138920002</v>
+        <v>162682.550867816</v>
       </c>
       <c r="F61">
-        <v>187.5146529676331</v>
+        <v>145.1373147802018</v>
       </c>
       <c r="G61">
-        <v>1144.372630142222</v>
+        <v>382.8942706126817</v>
       </c>
       <c r="H61">
-        <v>340623.9306594522</v>
+        <v>340623.9934018881</v>
       </c>
       <c r="I61">
-        <v>1430894</v>
+        <v>1411581</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1083469.670418147</v>
+        <v>1061488.500626491</v>
       </c>
       <c r="O61">
-        <v>161171.8138920002</v>
+        <v>162682.550867816</v>
       </c>
       <c r="P61">
-        <v>1331.887283109855</v>
+        <v>528.0315853928835</v>
       </c>
       <c r="Q61">
-        <v>2000.573902323381</v>
+        <v>2217.480968625303</v>
       </c>
       <c r="R61">
-        <v>6559.612020248283</v>
+        <v>7966.20216619021</v>
       </c>
       <c r="S61">
-        <v>8560.185922571664</v>
+        <v>10183.68313481551</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469690.9616030442</v>
+        <v>469691.1107050352</v>
       </c>
       <c r="B62">
-        <v>116487.2570109879</v>
+        <v>113368.8953476979</v>
       </c>
       <c r="C62">
-        <v>1351976.298617442</v>
+        <v>1409033.840335431</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>228643.1509584395</v>
+        <v>211007.8312336479</v>
       </c>
       <c r="F62">
-        <v>115.5351570353221</v>
+        <v>174.3690644487964</v>
       </c>
       <c r="G62">
-        <v>411.3299011949134</v>
+        <v>875.0963120517625</v>
       </c>
       <c r="H62">
-        <v>469690.9616030442</v>
+        <v>469691.1107050352</v>
       </c>
       <c r="I62">
-        <v>1975214</v>
+        <v>1873635</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1468463.55562843</v>
+        <v>1522402.735683129</v>
       </c>
       <c r="O62">
-        <v>228643.1509584395</v>
+        <v>211007.8312336479</v>
       </c>
       <c r="P62">
-        <v>526.8650582302355</v>
+        <v>1049.465376500559</v>
       </c>
       <c r="Q62">
-        <v>3160.769137674223</v>
+        <v>3937.394593624817</v>
       </c>
       <c r="R62">
-        <v>8376.180059629616</v>
+        <v>8057.398813204545</v>
       </c>
       <c r="S62">
-        <v>11536.94919730384</v>
+        <v>11994.79340682936</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20456.97697825325</v>
+        <v>20456.95779837183</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>63484.16092103146</v>
+        <v>64487.73429518093</v>
       </c>
       <c r="D63">
-        <v>892.1086562623453</v>
+        <v>690.7252635516048</v>
       </c>
       <c r="E63">
-        <v>9987.749838102463</v>
+        <v>8741.549689242926</v>
       </c>
       <c r="F63">
-        <v>9.507249516212127</v>
+        <v>9.311588046900475</v>
       </c>
       <c r="G63">
-        <v>71.40552708826061</v>
+        <v>62.45874722993271</v>
       </c>
       <c r="H63">
-        <v>20456.97697825325</v>
+        <v>20456.95779837183</v>
       </c>
       <c r="I63">
-        <v>93549</v>
+        <v>98504</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>63484.16092103146</v>
+        <v>64487.73429518093</v>
       </c>
       <c r="O63">
-        <v>10879.85849436481</v>
+        <v>9432.274952794531</v>
       </c>
       <c r="P63">
-        <v>80.91277660447274</v>
+        <v>71.77033527683318</v>
       </c>
       <c r="Q63">
-        <v>130.1035832506011</v>
+        <v>166.0581203123815</v>
       </c>
       <c r="R63">
-        <v>461.453886752598</v>
+        <v>364.1933956223709</v>
       </c>
       <c r="S63">
-        <v>591.5574700031991</v>
+        <v>530.2515159347524</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.03248810857</v>
+        <v>20630.88998175356</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>63847.44826441378</v>
+        <v>64158.75815520884</v>
       </c>
       <c r="D64">
-        <v>719.0683439174055</v>
+        <v>737.4236077954346</v>
       </c>
       <c r="E64">
-        <v>9521.485840234136</v>
+        <v>10336.66176498909</v>
       </c>
       <c r="F64">
-        <v>4.864354572934603</v>
+        <v>13.58353518082087</v>
       </c>
       <c r="G64">
-        <v>51.59962875051381</v>
+        <v>69.99998659993925</v>
       </c>
       <c r="H64">
-        <v>20631.03248810857</v>
+        <v>20630.88998175356</v>
       </c>
       <c r="I64">
-        <v>91877</v>
+        <v>92565</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>63847.44826441378</v>
+        <v>64158.75815520884</v>
       </c>
       <c r="O64">
-        <v>10240.55418415154</v>
+        <v>11074.08537278452</v>
       </c>
       <c r="P64">
-        <v>56.46398332344841</v>
+        <v>83.58352178076012</v>
       </c>
       <c r="Q64">
-        <v>94.56458133275137</v>
+        <v>136.0968489182541</v>
       </c>
       <c r="R64">
-        <v>315.148120528231</v>
+        <v>430.963249782187</v>
       </c>
       <c r="S64">
-        <v>409.7127018609823</v>
+        <v>567.0600987004411</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.965643293818</v>
+        <v>1767.899554879308</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5266.946299892054</v>
+        <v>5416.162949865915</v>
       </c>
       <c r="D65">
-        <v>47.37930336791178</v>
+        <v>56.65375616117201</v>
       </c>
       <c r="E65">
-        <v>737.6053245725808</v>
+        <v>737.7322554072466</v>
       </c>
       <c r="F65">
-        <v>0.4784341264013432</v>
+        <v>0.5613982553301892</v>
       </c>
       <c r="G65">
-        <v>1.702036983774303</v>
+        <v>4.159144234362819</v>
       </c>
       <c r="H65">
-        <v>1767.965643293818</v>
+        <v>1767.899554879308</v>
       </c>
       <c r="I65">
-        <v>8140</v>
+        <v>7921</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5266.946299892054</v>
+        <v>5416.162949865915</v>
       </c>
       <c r="O65">
-        <v>784.9846279404926</v>
+        <v>794.3860115684187</v>
       </c>
       <c r="P65">
-        <v>2.180471110175646</v>
+        <v>4.720542489693009</v>
       </c>
       <c r="Q65">
-        <v>12.40020733924566</v>
+        <v>14.73992269809861</v>
       </c>
       <c r="R65">
-        <v>23.2633449093358</v>
+        <v>32.29264198456531</v>
       </c>
       <c r="S65">
-        <v>35.66355224858146</v>
+        <v>47.03256468266392</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0117358246674</v>
+        <v>122.9945965565948</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>363.8471304934223</v>
+        <v>348.6559518219648</v>
       </c>
       <c r="D66">
-        <v>4.571114150322166</v>
+        <v>2.914382517161099</v>
       </c>
       <c r="E66">
-        <v>59.70198264693497</v>
+        <v>45.52801220193935</v>
       </c>
       <c r="F66">
-        <v>0.01728401634990588</v>
+        <v>0.2393891444435728</v>
       </c>
       <c r="G66">
-        <v>0.1279716834368965</v>
+        <v>0.9608476783783295</v>
       </c>
       <c r="H66">
-        <v>123.0117358246674</v>
+        <v>122.9945965565948</v>
       </c>
       <c r="I66">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>363.8471304934223</v>
+        <v>348.6559518219648</v>
       </c>
       <c r="O66">
-        <v>64.27309679725714</v>
+        <v>48.44239471910046</v>
       </c>
       <c r="P66">
-        <v>0.1452556997868024</v>
+        <v>1.200236822821902</v>
       </c>
       <c r="Q66">
-        <v>0.4705445012513456</v>
+        <v>0.6224654853640913</v>
       </c>
       <c r="R66">
-        <v>2.756730270667472</v>
+        <v>1.955117275612301</v>
       </c>
       <c r="S66">
-        <v>3.227274771918818</v>
+        <v>2.577582760976392</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.1302526371214</v>
+        <v>202.9618140496332</v>
       </c>
       <c r="B67">
-        <v>42.75371594382742</v>
+        <v>43.87406962455761</v>
       </c>
       <c r="C67">
-        <v>316.4271640362121</v>
+        <v>320.7505488491436</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>112.2498367016827</v>
+        <v>108.6271428014002</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.1302526371214</v>
+        <v>202.9618140496332</v>
       </c>
       <c r="I67">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>359.1808799800396</v>
+        <v>364.6246184737012</v>
       </c>
       <c r="O67">
-        <v>112.2498367016827</v>
+        <v>108.6271428014002</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.798534515271257</v>
+        <v>1.525462163624988</v>
       </c>
       <c r="R67">
-        <v>13.04477937815119</v>
+        <v>10.31192299119811</v>
       </c>
       <c r="S67">
-        <v>14.84331389342245</v>
+        <v>11.83738515482309</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.970441790112</v>
+        <v>261.8807814784177</v>
       </c>
       <c r="B68">
-        <v>61.02038081836713</v>
+        <v>64.33204470169432</v>
       </c>
       <c r="C68">
-        <v>424.0532362996225</v>
+        <v>423.8301849295398</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>154.0298035961506</v>
+        <v>148.0411031425166</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.970441790112</v>
+        <v>261.8807814784177</v>
       </c>
       <c r="I68">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>485.0736171179896</v>
+        <v>488.1622296312341</v>
       </c>
       <c r="O68">
-        <v>154.0298035961506</v>
+        <v>148.0411031425166</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.837688588157366</v>
+        <v>1.795200806750253</v>
       </c>
       <c r="R68">
-        <v>17.54039041075522</v>
+        <v>14.1912718781333</v>
       </c>
       <c r="S68">
-        <v>19.37807899891259</v>
+        <v>15.98647268488356</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2405.897933703534</v>
+        <v>2406.111499510736</v>
       </c>
       <c r="B69">
-        <v>536.2567169300962</v>
+        <v>545.6594676883416</v>
       </c>
       <c r="C69">
-        <v>3765.626691556193</v>
+        <v>3914.083001718853</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1250.713063042733</v>
+        <v>1363.895074232779</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2405.897933703534</v>
+        <v>2406.111499510736</v>
       </c>
       <c r="I69">
-        <v>8190</v>
+        <v>8053</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4301.883408486289</v>
+        <v>4459.742469407195</v>
       </c>
       <c r="O69">
-        <v>1250.713063042733</v>
+        <v>1363.895074232779</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>17.56055006452651</v>
+        <v>16.36330147959827</v>
       </c>
       <c r="R69">
-        <v>132.238796794821</v>
+        <v>134.8481758797704</v>
       </c>
       <c r="S69">
-        <v>149.7993468593475</v>
+        <v>151.2114773593687</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1503.043275475708</v>
+        <v>1502.939513366171</v>
       </c>
       <c r="B70">
-        <v>349.319166266648</v>
+        <v>336.8156471596483</v>
       </c>
       <c r="C70">
-        <v>2367.23414875047</v>
+        <v>2410.710972236155</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>993.271065184681</v>
+        <v>920.840102535578</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1503.043275475708</v>
+        <v>1502.939513366171</v>
       </c>
       <c r="I70">
-        <v>4911</v>
+        <v>4791</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2716.553315017118</v>
+        <v>2747.526619395803</v>
       </c>
       <c r="O70">
-        <v>993.271065184681</v>
+        <v>920.840102535578</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>7.277055925153938</v>
+        <v>10.84473726179561</v>
       </c>
       <c r="R70">
-        <v>92.25529664917418</v>
+        <v>97.58863493459936</v>
       </c>
       <c r="S70">
-        <v>99.53235257432812</v>
+        <v>108.433372196395</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.1151102632</v>
+        <v>19900.89797156417</v>
       </c>
       <c r="B71">
-        <v>4563.675246026061</v>
+        <v>4483.214244388465</v>
       </c>
       <c r="C71">
-        <v>31777.78040656067</v>
+        <v>32169.08123874893</v>
       </c>
       <c r="D71">
-        <v>750.4852412735562</v>
+        <v>689.169425618624</v>
       </c>
       <c r="E71">
-        <v>11116.40280753706</v>
+        <v>12034.18910087557</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.1151102632</v>
+        <v>19900.89797156417</v>
       </c>
       <c r="I71">
-        <v>66468</v>
+        <v>61552</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36341.45565258674</v>
+        <v>36652.29548313739</v>
       </c>
       <c r="O71">
-        <v>11866.88804881062</v>
+        <v>12723.35852649419</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>149.2639532281764</v>
+        <v>163.1875808099473</v>
       </c>
       <c r="R71">
-        <v>1562.565605535058</v>
+        <v>1462.540280371445</v>
       </c>
       <c r="S71">
-        <v>1711.829558763234</v>
+        <v>1625.727861181392</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41981.86884760216</v>
+        <v>41981.95848233776</v>
       </c>
       <c r="B72">
-        <v>9468.522643473356</v>
+        <v>9145.322459861818</v>
       </c>
       <c r="C72">
-        <v>65799.07713279578</v>
+        <v>64752.35395349075</v>
       </c>
       <c r="D72">
-        <v>1593.66621990959</v>
+        <v>1452.778035026733</v>
       </c>
       <c r="E72">
-        <v>24756.56194212137</v>
+        <v>24085.37316977603</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41981.86884760216</v>
+        <v>41981.95848233776</v>
       </c>
       <c r="I72">
-        <v>132750</v>
+        <v>134254</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>75267.59977626914</v>
+        <v>73897.67641335257</v>
       </c>
       <c r="O72">
-        <v>26350.22816203096</v>
+        <v>25538.15120480276</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>441.6268545439032</v>
+        <v>309.1955065507803</v>
       </c>
       <c r="R72">
-        <v>2702.631698751653</v>
+        <v>2358.211119002398</v>
       </c>
       <c r="S72">
-        <v>3144.258553295556</v>
+        <v>2667.406625553179</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.88930462532</v>
+        <v>44204.96692125568</v>
       </c>
       <c r="B73">
-        <v>10130.00865278391</v>
+        <v>10519.67308794869</v>
       </c>
       <c r="C73">
-        <v>71586.64773549094</v>
+        <v>71652.0351100933</v>
       </c>
       <c r="D73">
-        <v>1552.766730986332</v>
+        <v>1795.522593685787</v>
       </c>
       <c r="E73">
-        <v>24624.00141217608</v>
+        <v>27852.80299928726</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.88930462532</v>
+        <v>44204.96692125568</v>
       </c>
       <c r="I73">
-        <v>140262</v>
+        <v>145652</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>81716.65638827485</v>
+        <v>82171.70819804199</v>
       </c>
       <c r="O73">
-        <v>26176.76814316242</v>
+        <v>29648.32559297305</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>349.6218389962244</v>
+        <v>343.5333163346393</v>
       </c>
       <c r="R73">
-        <v>3333.73640046186</v>
+        <v>2929.39647801727</v>
       </c>
       <c r="S73">
-        <v>3683.358239458085</v>
+        <v>3272.929794351909</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.96359451511</v>
+        <v>78745.98453946866</v>
       </c>
       <c r="B74">
-        <v>18855.09035382593</v>
+        <v>17595.81123205313</v>
       </c>
       <c r="C74">
-        <v>127099.6214650512</v>
+        <v>123674.455907995</v>
       </c>
       <c r="D74">
-        <v>2818.036956417815</v>
+        <v>2553.250758223092</v>
       </c>
       <c r="E74">
-        <v>49032.86703895964</v>
+        <v>45858.15835404271</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.96359451511</v>
+        <v>78745.98453946866</v>
       </c>
       <c r="I74">
-        <v>272006</v>
+        <v>247121</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>145954.7118188772</v>
+        <v>141270.2671400481</v>
       </c>
       <c r="O74">
-        <v>51850.90399537745</v>
+        <v>48411.4091122658</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>342.8261132585446</v>
+        <v>388.8820755037115</v>
       </c>
       <c r="R74">
-        <v>4154.929212965135</v>
+        <v>4736.379730141395</v>
       </c>
       <c r="S74">
-        <v>4497.75532622368</v>
+        <v>5125.261805645107</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38059.96676759685</v>
+        <v>38060.02577408163</v>
       </c>
       <c r="B75">
-        <v>8997.329239508816</v>
+        <v>8493.498194372518</v>
       </c>
       <c r="C75">
-        <v>61380.71674306216</v>
+        <v>61024.79787862727</v>
       </c>
       <c r="D75">
-        <v>1450.330447784324</v>
+        <v>1255.592724445735</v>
       </c>
       <c r="E75">
-        <v>22176.76744624456</v>
+        <v>18728.87604099281</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38059.96676759685</v>
+        <v>38060.02577408163</v>
       </c>
       <c r="I75">
-        <v>122748</v>
+        <v>125772</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>70378.04598257098</v>
+        <v>69518.29607299979</v>
       </c>
       <c r="O75">
-        <v>23627.09789402888</v>
+        <v>19984.46876543854</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>361.8683629098367</v>
+        <v>320.769511994131</v>
       </c>
       <c r="R75">
-        <v>2330.628715058256</v>
+        <v>2743.296666562368</v>
       </c>
       <c r="S75">
-        <v>2692.497077968093</v>
+        <v>3064.066178556499</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.92225038509</v>
+        <v>79350.92430652671</v>
       </c>
       <c r="B76">
-        <v>18933.7109573533</v>
+        <v>18191.47240031113</v>
       </c>
       <c r="C76">
-        <v>130041.7321077472</v>
+        <v>128584.0674031233</v>
       </c>
       <c r="D76">
-        <v>2875.977488252599</v>
+        <v>2772.679757773227</v>
       </c>
       <c r="E76">
-        <v>42990.93600288484</v>
+        <v>46420.75462317932</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.92225038509</v>
+        <v>79350.92430652671</v>
       </c>
       <c r="I76">
-        <v>259455</v>
+        <v>249291</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>148975.4430651005</v>
+        <v>146775.5398034345</v>
       </c>
       <c r="O76">
-        <v>45866.91349113744</v>
+        <v>49193.43438095255</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>812.6090305607147</v>
+        <v>461.7329148418821</v>
       </c>
       <c r="R76">
-        <v>6067.768925791113</v>
+        <v>5453.584034185801</v>
       </c>
       <c r="S76">
-        <v>6880.377956351827</v>
+        <v>5915.316949027683</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.9873952665</v>
+        <v>45068.12509417169</v>
       </c>
       <c r="B77">
-        <v>10386.80904505933</v>
+        <v>10779.07837942438</v>
       </c>
       <c r="C77">
-        <v>72258.33915951873</v>
+        <v>75213.16533982918</v>
       </c>
       <c r="D77">
-        <v>1963.823535847478</v>
+        <v>1545.268847138828</v>
       </c>
       <c r="E77">
-        <v>29674.65196988279</v>
+        <v>26567.66676757731</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.9873952665</v>
+        <v>45068.12509417169</v>
       </c>
       <c r="I77">
-        <v>147044</v>
+        <v>146314</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>82645.14820457806</v>
+        <v>85992.24371925356</v>
       </c>
       <c r="O77">
-        <v>31638.47550573027</v>
+        <v>28112.93561471614</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>255.0608488608761</v>
+        <v>370.3583883075986</v>
       </c>
       <c r="R77">
-        <v>2548.160367221634</v>
+        <v>2682.519814985838</v>
       </c>
       <c r="S77">
-        <v>2803.22121608251</v>
+        <v>3052.878203293436</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.01494175128</v>
+        <v>14295.13882718579</v>
       </c>
       <c r="B78">
-        <v>3212.273378946887</v>
+        <v>3384.706064137131</v>
       </c>
       <c r="C78">
-        <v>22499.24217444849</v>
+        <v>23103.2880358935</v>
       </c>
       <c r="D78">
-        <v>538.868302808754</v>
+        <v>471.2530037920509</v>
       </c>
       <c r="E78">
-        <v>8638.606954218467</v>
+        <v>8591.977844510804</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.01494175128</v>
+        <v>14295.13882718579</v>
       </c>
       <c r="I78">
-        <v>47559</v>
+        <v>45160</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>25711.51555339538</v>
+        <v>26487.99410003064</v>
       </c>
       <c r="O78">
-        <v>9177.475257027221</v>
+        <v>9063.230848302856</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>105.0033394890165</v>
+        <v>105.8079009579408</v>
       </c>
       <c r="R78">
-        <v>976.3583812581953</v>
+        <v>962.2027247008089</v>
       </c>
       <c r="S78">
-        <v>1081.361720747212</v>
+        <v>1068.01062565875</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27737.92005496574</v>
+        <v>27738.15700098857</v>
       </c>
       <c r="B79">
-        <v>6331.183658504245</v>
+        <v>6436.115969643835</v>
       </c>
       <c r="C79">
-        <v>43819.51244206408</v>
+        <v>44960.28171424412</v>
       </c>
       <c r="D79">
-        <v>777.1634576991862</v>
+        <v>781.800215848112</v>
       </c>
       <c r="E79">
-        <v>13116.51563241469</v>
+        <v>15624.00651137062</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27737.92005496574</v>
+        <v>27738.15700098857</v>
       </c>
       <c r="I79">
-        <v>90617</v>
+        <v>87652</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>50150.69610056833</v>
+        <v>51396.39768388795</v>
       </c>
       <c r="O79">
-        <v>13893.67909011388</v>
+        <v>16405.80672721873</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>114.5850912283194</v>
+        <v>204.5764837915181</v>
       </c>
       <c r="R79">
-        <v>1339.76978949123</v>
+        <v>1674.767661445646</v>
       </c>
       <c r="S79">
-        <v>1454.354880719549</v>
+        <v>1879.344145237164</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.106936792649</v>
+        <v>2820.057284666768</v>
       </c>
       <c r="B80">
-        <v>660.9297286627908</v>
+        <v>664.8219059802649</v>
       </c>
       <c r="C80">
-        <v>4506.346072362739</v>
+        <v>4506.803982164999</v>
       </c>
       <c r="D80">
-        <v>91.73857130616455</v>
+        <v>110.3431240526705</v>
       </c>
       <c r="E80">
-        <v>1522.511959309393</v>
+        <v>1888.566394040288</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.106936792649</v>
+        <v>2820.057284666768</v>
       </c>
       <c r="I80">
-        <v>9332</v>
+        <v>8946</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5167.275801025529</v>
+        <v>5171.625888145264</v>
       </c>
       <c r="O80">
-        <v>1614.250530615557</v>
+        <v>1998.909518092958</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>20.15164209277034</v>
+        <v>22.00301559072217</v>
       </c>
       <c r="R80">
-        <v>178.4599907849531</v>
+        <v>218.1838612656516</v>
       </c>
       <c r="S80">
-        <v>198.6116328777234</v>
+        <v>240.1868768563738</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.851013859952</v>
+        <v>3590.859662879352</v>
       </c>
       <c r="B81">
-        <v>826.1778564005093</v>
+        <v>868.1981612615041</v>
       </c>
       <c r="C81">
-        <v>5751.963187118305</v>
+        <v>5950.073038564034</v>
       </c>
       <c r="D81">
-        <v>105.7152032520743</v>
+        <v>119.6848737728747</v>
       </c>
       <c r="E81">
-        <v>2013.573435227327</v>
+        <v>1993.172664086092</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.851013859952</v>
+        <v>3590.859662879352</v>
       </c>
       <c r="I81">
-        <v>11378</v>
+        <v>11113</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6578.141043518814</v>
+        <v>6818.271199825538</v>
       </c>
       <c r="O81">
-        <v>2119.288638479401</v>
+        <v>2112.857537858967</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>18.30395794135795</v>
+        <v>25.13356864388061</v>
       </c>
       <c r="R81">
-        <v>221.9208853804941</v>
+        <v>249.1249593293682</v>
       </c>
       <c r="S81">
-        <v>240.2248433218521</v>
+        <v>274.2585279732488</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1156.029090219644</v>
+        <v>1156.091999980831</v>
       </c>
       <c r="B82">
-        <v>281.2477539311159</v>
+        <v>240.3817947832362</v>
       </c>
       <c r="C82">
-        <v>1835.458263781362</v>
+        <v>1873.470315937792</v>
       </c>
       <c r="D82">
-        <v>44.61128881661611</v>
+        <v>42.79598325949361</v>
       </c>
       <c r="E82">
-        <v>710.6171995441208</v>
+        <v>674.3168780894197</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1156.029090219644</v>
+        <v>1156.091999980831</v>
       </c>
       <c r="I82">
-        <v>3631</v>
+        <v>3666</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2116.706017712478</v>
+        <v>2113.852110721028</v>
       </c>
       <c r="O82">
-        <v>755.228488360737</v>
+        <v>717.1128613489133</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8.367631613301281</v>
+        <v>9.251773196612779</v>
       </c>
       <c r="R82">
-        <v>82.1541380927651</v>
+        <v>77.21983072818284</v>
       </c>
       <c r="S82">
-        <v>90.52176970606638</v>
+        <v>86.47160392479562</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.89263408011</v>
+        <v>13237.86936561398</v>
       </c>
       <c r="B83">
-        <v>1905.603608419932</v>
+        <v>1749.501764330247</v>
       </c>
       <c r="C83">
-        <v>21853.42029073375</v>
+        <v>22272.77762567942</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>8154.33399303044</v>
+        <v>8549.972813230328</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.89263408011</v>
+        <v>13237.86936561398</v>
       </c>
       <c r="I83">
-        <v>42057</v>
+        <v>43419</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>23759.02389915369</v>
+        <v>24022.27939000967</v>
       </c>
       <c r="O83">
-        <v>8154.33399303044</v>
+        <v>8549.972813230328</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>13.78891152504838</v>
+        <v>6.699956389379977</v>
       </c>
       <c r="R83">
-        <v>1171.446922814604</v>
+        <v>956.0794143301102</v>
       </c>
       <c r="S83">
-        <v>1185.235834339653</v>
+        <v>962.7793707194902</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.035491907137</v>
+        <v>6787.847023368945</v>
       </c>
       <c r="B84">
-        <v>984.9595544837277</v>
+        <v>1026.564314523828</v>
       </c>
       <c r="C84">
-        <v>11392.96745339686</v>
+        <v>11268.11350583977</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4501.910530529649</v>
+        <v>4091.439134814176</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.035491907137</v>
+        <v>6787.847023368945</v>
       </c>
       <c r="I84">
-        <v>21705</v>
+        <v>21535</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12377.92700788058</v>
+        <v>12294.6778203636</v>
       </c>
       <c r="O84">
-        <v>4501.910530529649</v>
+        <v>4091.439134814176</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>9.929945890138736</v>
+        <v>5.569003436401024</v>
       </c>
       <c r="R84">
-        <v>527.2688743061481</v>
+        <v>557.9105340060954</v>
       </c>
       <c r="S84">
-        <v>537.1988201962868</v>
+        <v>563.4795374424964</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1507.935680055776</v>
+        <v>1507.91876305016</v>
       </c>
       <c r="B85">
-        <v>215.851447401445</v>
+        <v>233.295649269703</v>
       </c>
       <c r="C85">
-        <v>2495.481065554202</v>
+        <v>2574.434754101867</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>962.4201965340056</v>
+        <v>829.3797408804555</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1507.935680055776</v>
+        <v>1507.91876305016</v>
       </c>
       <c r="I85">
-        <v>4917</v>
+        <v>5036</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2711.332512955647</v>
+        <v>2807.73040337157</v>
       </c>
       <c r="O85">
-        <v>962.4201965340056</v>
+        <v>829.3797408804555</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.70696528148892</v>
+        <v>1.048953733496176</v>
       </c>
       <c r="R85">
-        <v>119.2798197090965</v>
+        <v>106.8143978143642</v>
       </c>
       <c r="S85">
-        <v>119.9867849905854</v>
+        <v>107.8633515478603</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25213.15215452862</v>
+        <v>25212.84825102354</v>
       </c>
       <c r="B86">
-        <v>3592.487214127358</v>
+        <v>3474.218554024441</v>
       </c>
       <c r="C86">
-        <v>43943.92736295387</v>
+        <v>41035.503958038</v>
       </c>
       <c r="D86">
-        <v>596.2882660346592</v>
+        <v>669.3172348982118</v>
       </c>
       <c r="E86">
-        <v>15538.51449892684</v>
+        <v>14523.68218845571</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25213.15215452862</v>
+        <v>25212.84825102354</v>
       </c>
       <c r="I86">
-        <v>77223</v>
+        <v>78608</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>47536.41457708123</v>
+        <v>44509.72251206244</v>
       </c>
       <c r="O86">
-        <v>16134.8027649615</v>
+        <v>15192.99942335392</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>19.98742917703832</v>
+        <v>25.51398317827604</v>
       </c>
       <c r="R86">
-        <v>1866.233162749696</v>
+        <v>1896.534740882761</v>
       </c>
       <c r="S86">
-        <v>1886.220591926734</v>
+        <v>1922.048724061037</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.091917369257</v>
+        <v>6444.098855924854</v>
       </c>
       <c r="B87">
-        <v>898.2824824076814</v>
+        <v>944.8552820783132</v>
       </c>
       <c r="C87">
-        <v>10537.09407721184</v>
+        <v>10703.56951219324</v>
       </c>
       <c r="D87">
-        <v>158.7853973086019</v>
+        <v>145.2843887418759</v>
       </c>
       <c r="E87">
-        <v>3570.747778196809</v>
+        <v>3498.749356587793</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.091917369257</v>
+        <v>6444.098855924854</v>
       </c>
       <c r="I87">
-        <v>21121</v>
+        <v>20283</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11435.37655961952</v>
+        <v>11648.42479427156</v>
       </c>
       <c r="O87">
-        <v>3729.533175505411</v>
+        <v>3644.033745329668</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>5.462507451294695</v>
+        <v>5.801162446117351</v>
       </c>
       <c r="R87">
-        <v>437.046837288515</v>
+        <v>484.3801464140682</v>
       </c>
       <c r="S87">
-        <v>442.5093447398097</v>
+        <v>490.1813088601856</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.04649782452</v>
+        <v>55704.06842704352</v>
       </c>
       <c r="B88">
-        <v>7737.090641822066</v>
+        <v>8117.752880115144</v>
       </c>
       <c r="C88">
-        <v>93770.27411756499</v>
+        <v>92538.67849793981</v>
       </c>
       <c r="D88">
-        <v>1411.47652977182</v>
+        <v>1544.908946700421</v>
       </c>
       <c r="E88">
-        <v>34908.65550399348</v>
+        <v>36947.79993278707</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.04649782452</v>
+        <v>55704.06842704352</v>
       </c>
       <c r="I88">
-        <v>174699</v>
+        <v>174396</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>101507.3647593871</v>
+        <v>100656.431378055</v>
       </c>
       <c r="O88">
-        <v>36320.1320337653</v>
+        <v>38492.70887948749</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>91.97135658720362</v>
+        <v>48.34250486854153</v>
       </c>
       <c r="R88">
-        <v>4171.932336959111</v>
+        <v>4235.098920845124</v>
       </c>
       <c r="S88">
-        <v>4263.903693546315</v>
+        <v>4283.441425713665</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.1541695161</v>
+        <v>201455.9967030527</v>
       </c>
       <c r="B89">
-        <v>31757.50927896198</v>
+        <v>30447.88384103528</v>
       </c>
       <c r="C89">
-        <v>348879.608745632</v>
+        <v>345468.1379688048</v>
       </c>
       <c r="D89">
-        <v>4411.742181475827</v>
+        <v>5107.841955591619</v>
       </c>
       <c r="E89">
-        <v>134966.7546582136</v>
+        <v>121284.5590525145</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.1541695161</v>
+        <v>201455.9967030527</v>
       </c>
       <c r="I89">
-        <v>635516</v>
+        <v>640396</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>380637.118024594</v>
+        <v>375916.0218098401</v>
       </c>
       <c r="O89">
-        <v>139378.4968396894</v>
+        <v>126392.4010081062</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>101.4017032756999</v>
+        <v>260.1038829707327</v>
       </c>
       <c r="R89">
-        <v>13981.50598656974</v>
+        <v>13788.4882658819</v>
       </c>
       <c r="S89">
-        <v>14082.90768984544</v>
+        <v>14048.59214885264</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.84458447859</v>
+        <v>15486.0009301791</v>
       </c>
       <c r="B90">
-        <v>2258.105756626771</v>
+        <v>2160.532680848948</v>
       </c>
       <c r="C90">
-        <v>25901.64689836109</v>
+        <v>26416.34240251218</v>
       </c>
       <c r="D90">
-        <v>353.7433910366718</v>
+        <v>396.1856280523747</v>
       </c>
       <c r="E90">
-        <v>8487.650914189362</v>
+        <v>9374.657379734021</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.84458447859</v>
+        <v>15486.0009301791</v>
       </c>
       <c r="I90">
-        <v>48944</v>
+        <v>49305</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28159.75265498786</v>
+        <v>28576.87508336112</v>
       </c>
       <c r="O90">
-        <v>8841.394305226035</v>
+        <v>9770.843007786396</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>11.43409212639715</v>
+        <v>14.52534395596174</v>
       </c>
       <c r="R90">
-        <v>1154.666505566007</v>
+        <v>1003.765037952507</v>
       </c>
       <c r="S90">
-        <v>1166.100597692405</v>
+        <v>1018.290381908469</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.95522137215</v>
+        <v>14404.09699827041</v>
       </c>
       <c r="B91">
-        <v>2024.179376310709</v>
+        <v>2159.882900271932</v>
       </c>
       <c r="C91">
-        <v>24243.39846501828</v>
+        <v>23878.79902478882</v>
       </c>
       <c r="D91">
-        <v>375.4461468314826</v>
+        <v>371.0277469350373</v>
       </c>
       <c r="E91">
-        <v>9188.319097058566</v>
+        <v>8486.007146518577</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.95522137215</v>
+        <v>14404.09699827041</v>
       </c>
       <c r="I91">
-        <v>45466</v>
+        <v>46076</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26267.57784132899</v>
+        <v>26038.68192506076</v>
       </c>
       <c r="O91">
-        <v>9563.765243890048</v>
+        <v>8857.034893453614</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>22.77216432222498</v>
+        <v>7.6596701352203</v>
       </c>
       <c r="R91">
-        <v>1059.835583855111</v>
+        <v>968.0355274375511</v>
       </c>
       <c r="S91">
-        <v>1082.607748177336</v>
+        <v>975.6951975727714</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46955.87799329645</v>
+        <v>46955.85586043541</v>
       </c>
       <c r="B92">
-        <v>6689.193165479613</v>
+        <v>6859.541963461918</v>
       </c>
       <c r="C92">
-        <v>79085.54187063866</v>
+        <v>78076.79295887303</v>
       </c>
       <c r="D92">
-        <v>1216.4815613985</v>
+        <v>1171.769430088227</v>
       </c>
       <c r="E92">
-        <v>28360.02080017239</v>
+        <v>27974.04787440692</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46955.87799329645</v>
+        <v>46955.85586043541</v>
       </c>
       <c r="I92">
-        <v>148760</v>
+        <v>150420</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>85774.73503611826</v>
+        <v>84936.33492233495</v>
       </c>
       <c r="O92">
-        <v>29576.50236157089</v>
+        <v>29145.81730449515</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>23.30205664664837</v>
+        <v>9.926627779095817</v>
       </c>
       <c r="R92">
-        <v>3737.925195615496</v>
+        <v>2365.110626009127</v>
       </c>
       <c r="S92">
-        <v>3761.227252262144</v>
+        <v>2375.037253788222</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24420.02304360403</v>
+        <v>24419.97713877426</v>
       </c>
       <c r="B93">
-        <v>3604.757415964299</v>
+        <v>3445.359936669809</v>
       </c>
       <c r="C93">
-        <v>42619.566873625</v>
+        <v>41376.31532974573</v>
       </c>
       <c r="D93">
-        <v>615.364040642734</v>
+        <v>522.7462122809507</v>
       </c>
       <c r="E93">
-        <v>15099.04205746586</v>
+        <v>14277.54678047595</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24420.02304360403</v>
+        <v>24419.97713877426</v>
       </c>
       <c r="I93">
-        <v>75153</v>
+        <v>79885</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>46224.3242895893</v>
+        <v>44821.67526641554</v>
       </c>
       <c r="O93">
-        <v>15714.4060981086</v>
+        <v>14800.2929927569</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>8.795219431420922</v>
+        <v>13.20892100724202</v>
       </c>
       <c r="R93">
-        <v>1429.772372430957</v>
+        <v>1809.11693709628</v>
       </c>
       <c r="S93">
-        <v>1438.567591862378</v>
+        <v>1822.325858103522</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.92005709175</v>
+        <v>70372.15791665697</v>
       </c>
       <c r="B94">
-        <v>9746.080229237688</v>
+        <v>9530.284283859288</v>
       </c>
       <c r="C94">
-        <v>112923.0924471571</v>
+        <v>118401.3255817284</v>
       </c>
       <c r="D94">
-        <v>1742.140034087191</v>
+        <v>2222.897490858058</v>
       </c>
       <c r="E94">
-        <v>44315.52652962628</v>
+        <v>48289.92600384924</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.92005709175</v>
+        <v>70372.15791665697</v>
       </c>
       <c r="I94">
-        <v>227491</v>
+        <v>215411</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>122669.1726763948</v>
+        <v>127931.6098655877</v>
       </c>
       <c r="O94">
-        <v>46057.66656371347</v>
+        <v>50512.82349470729</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>104.7567627059816</v>
+        <v>75.54700038434757</v>
       </c>
       <c r="R94">
-        <v>4691.447407118943</v>
+        <v>4836.380190332549</v>
       </c>
       <c r="S94">
-        <v>4796.204169824925</v>
+        <v>4911.927190716897</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.973672199128</v>
+        <v>7573.961622959272</v>
       </c>
       <c r="B95">
-        <v>1131.581829170866</v>
+        <v>1134.416805703497</v>
       </c>
       <c r="C95">
-        <v>12717.18301009565</v>
+        <v>12620.19424173362</v>
       </c>
       <c r="D95">
-        <v>220.1183175483031</v>
+        <v>203.9744879466343</v>
       </c>
       <c r="E95">
-        <v>4741.198407622282</v>
+        <v>4362.429178208942</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.973672199128</v>
+        <v>7573.961622959272</v>
       </c>
       <c r="I95">
-        <v>23981</v>
+        <v>24661</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13848.76483926651</v>
+        <v>13754.61104743712</v>
       </c>
       <c r="O95">
-        <v>4961.316725170585</v>
+        <v>4566.403666155577</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>8.825959744972666</v>
+        <v>5.731087282171662</v>
       </c>
       <c r="R95">
-        <v>520.3328108975938</v>
+        <v>462.4465859256046</v>
       </c>
       <c r="S95">
-        <v>529.1587706425665</v>
+        <v>468.1776732077762</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.1434668727</v>
+        <v>45038.01919696219</v>
       </c>
       <c r="B96">
-        <v>6707.127391362124</v>
+        <v>7010.130141952694</v>
       </c>
       <c r="C96">
-        <v>73834.69886773951</v>
+        <v>77245.93438405974</v>
       </c>
       <c r="D96">
-        <v>1329.682117151713</v>
+        <v>1163.614913274923</v>
       </c>
       <c r="E96">
-        <v>29700.14559452492</v>
+        <v>25966.49233040892</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.1434668727</v>
+        <v>45038.01919696219</v>
       </c>
       <c r="I96">
-        <v>142429</v>
+        <v>146868</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>80541.82625910164</v>
+        <v>84256.06452601244</v>
       </c>
       <c r="O96">
-        <v>31029.82771167663</v>
+        <v>27130.10724368384</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32.35944954824213</v>
+        <v>40.95284864889362</v>
       </c>
       <c r="R96">
-        <v>3518.58944234852</v>
+        <v>4001.410531543399</v>
       </c>
       <c r="S96">
-        <v>3550.948891896762</v>
+        <v>4042.363380192292</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10073.09893138404</v>
+        <v>10072.88219304147</v>
       </c>
       <c r="B97">
-        <v>1451.35642255929</v>
+        <v>1420.100269866921</v>
       </c>
       <c r="C97">
-        <v>16616.00388153132</v>
+        <v>17150.70791461746</v>
       </c>
       <c r="D97">
-        <v>268.2300952081563</v>
+        <v>223.2090010949113</v>
       </c>
       <c r="E97">
-        <v>6060.094063360394</v>
+        <v>5099.037007119837</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10073.09893138404</v>
+        <v>10072.88219304147</v>
       </c>
       <c r="I97">
-        <v>32209</v>
+        <v>30923</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18067.36030409061</v>
+        <v>18570.80818448438</v>
       </c>
       <c r="O97">
-        <v>6328.32415856855</v>
+        <v>5322.246008214748</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>8.741943231842754</v>
+        <v>5.56828979540083</v>
       </c>
       <c r="R97">
-        <v>702.3047509811205</v>
+        <v>772.2477559491787</v>
       </c>
       <c r="S97">
-        <v>711.0466942129633</v>
+        <v>777.8160457445795</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.88831048139</v>
+        <v>11375.88230952929</v>
       </c>
       <c r="B98">
-        <v>2238.110395381666</v>
+        <v>2137.063911888474</v>
       </c>
       <c r="C98">
-        <v>18680.68805752068</v>
+        <v>18464.96619788342</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>7049.433067590674</v>
+        <v>6551.233539888452</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.88831048139</v>
+        <v>11375.88230952929</v>
       </c>
       <c r="I98">
-        <v>30600</v>
+        <v>30750</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20918.79845290235</v>
+        <v>20602.03010977189</v>
       </c>
       <c r="O98">
-        <v>7049.433067590674</v>
+        <v>6551.233539888452</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>120.8216392042895</v>
+        <v>106.2198904325845</v>
       </c>
       <c r="R98">
-        <v>791.102922812757</v>
+        <v>739.6465529744542</v>
       </c>
       <c r="S98">
-        <v>911.9245620170465</v>
+        <v>845.8664434070387</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1599.055567632022</v>
+        <v>1644.351138761896</v>
       </c>
       <c r="V98">
-        <v>1599.055567632022</v>
+        <v>1644.351138761896</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.85622796399</v>
+        <v>93358.90974115841</v>
       </c>
       <c r="B99">
-        <v>19118.50538532405</v>
+        <v>17714.1058726219</v>
       </c>
       <c r="C99">
-        <v>153743.9096802792</v>
+        <v>155168.4116193139</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>53646.23584132986</v>
+        <v>49464.63642394952</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.85622796399</v>
+        <v>93358.90974115841</v>
       </c>
       <c r="I99">
-        <v>266339</v>
+        <v>243263</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>172862.4150656032</v>
+        <v>172882.5174919358</v>
       </c>
       <c r="O99">
-        <v>53646.23584132986</v>
+        <v>49464.63642394952</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>903.1691893430226</v>
+        <v>868.4706036647038</v>
       </c>
       <c r="R99">
-        <v>6249.344857230719</v>
+        <v>5889.3166209769</v>
       </c>
       <c r="S99">
-        <v>7152.514046573741</v>
+        <v>6757.787224641604</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>9854.987850067546</v>
+        <v>13391.40405780797</v>
       </c>
       <c r="V99">
-        <v>9854.987850067546</v>
+        <v>13391.40405780797</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.10251020163</v>
+        <v>20817.10963646723</v>
       </c>
       <c r="B100">
-        <v>4095.131551502513</v>
+        <v>4025.304741030063</v>
       </c>
       <c r="C100">
-        <v>33912.35560819411</v>
+        <v>33601.13828379742</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>13669.62086772399</v>
+        <v>14775.90400173886</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.10251020163</v>
+        <v>20817.10963646723</v>
       </c>
       <c r="I100">
-        <v>58256</v>
+        <v>58057</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>38007.48715969663</v>
+        <v>37626.44302482748</v>
       </c>
       <c r="O100">
-        <v>13669.62086772399</v>
+        <v>14775.90400173886</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>148.2028762841643</v>
+        <v>213.7641376038238</v>
       </c>
       <c r="R100">
-        <v>1257.661806974203</v>
+        <v>1429.20567021961</v>
       </c>
       <c r="S100">
-        <v>1405.864683258367</v>
+        <v>1642.969807823434</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2869.438979761874</v>
+        <v>2826.658768367126</v>
       </c>
       <c r="V100">
-        <v>2869.438979761874</v>
+        <v>2826.658768367126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43953.03245686264</v>
+        <v>43953.10406363104</v>
       </c>
       <c r="B101">
-        <v>8076.984081386683</v>
+        <v>8506.386901828319</v>
       </c>
       <c r="C101">
-        <v>70437.21395224813</v>
+        <v>72087.21643001516</v>
       </c>
       <c r="D101">
-        <v>1903.807011998988</v>
+        <v>2121.40950501971</v>
       </c>
       <c r="E101">
-        <v>22558.20973247957</v>
+        <v>24478.11775643353</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43953.03245686264</v>
+        <v>43953.10406363104</v>
       </c>
       <c r="I101">
-        <v>122927</v>
+        <v>121922</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>78514.19803363481</v>
+        <v>80593.60333184348</v>
       </c>
       <c r="O101">
-        <v>24462.01674447856</v>
+        <v>26599.52726145324</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>295.4779258370559</v>
+        <v>358.1553436858818</v>
       </c>
       <c r="R101">
-        <v>2250.215388463987</v>
+        <v>3236.228352065146</v>
       </c>
       <c r="S101">
-        <v>2545.693314301043</v>
+        <v>3594.383695751028</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5279.508961296875</v>
+        <v>6396.35868829443</v>
       </c>
       <c r="V101">
-        <v>5279.508961296875</v>
+        <v>6396.35868829443</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.1608949605</v>
+        <v>103394.0563683163</v>
       </c>
       <c r="B102">
-        <v>19502.81972742094</v>
+        <v>19505.8028303098</v>
       </c>
       <c r="C102">
-        <v>164475.5216927455</v>
+        <v>170234.2813623864</v>
       </c>
       <c r="D102">
-        <v>4239.290639015203</v>
+        <v>5527.201138571279</v>
       </c>
       <c r="E102">
-        <v>50729.92267346316</v>
+        <v>60721.78461362376</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.1608949605</v>
+        <v>103394.0563683163</v>
       </c>
       <c r="I102">
-        <v>293028</v>
+        <v>278558</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>183978.3414201664</v>
+        <v>189740.0841926962</v>
       </c>
       <c r="O102">
-        <v>54969.21331247837</v>
+        <v>66248.98575219503</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>1088.441983258061</v>
+        <v>889.5912693589667</v>
       </c>
       <c r="R102">
-        <v>7302.199524324979</v>
+        <v>6250.191762924369</v>
       </c>
       <c r="S102">
-        <v>8390.641507583041</v>
+        <v>7139.783032283336</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>15293.34655325133</v>
+        <v>13121.95254540017</v>
       </c>
       <c r="V102">
-        <v>15293.34655325133</v>
+        <v>13121.95254540017</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.04288325517</v>
+        <v>35336.99897947142</v>
       </c>
       <c r="B103">
-        <v>6793.46526758352</v>
+        <v>6903.583068073459</v>
       </c>
       <c r="C103">
-        <v>57501.54420116352</v>
+        <v>57951.82711654178</v>
       </c>
       <c r="D103">
-        <v>1860.307267851793</v>
+        <v>1763.851893130062</v>
       </c>
       <c r="E103">
-        <v>20976.29806725423</v>
+        <v>19422.87355544901</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.04288325517</v>
+        <v>35336.99897947142</v>
       </c>
       <c r="I103">
-        <v>91811</v>
+        <v>97434</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>64295.00946874704</v>
+        <v>64855.41018461523</v>
       </c>
       <c r="O103">
-        <v>22836.60533510602</v>
+        <v>21186.72544857907</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>266.2630436451639</v>
+        <v>275.5203748852481</v>
       </c>
       <c r="R103">
-        <v>2208.10632340827</v>
+        <v>2366.675009837494</v>
       </c>
       <c r="S103">
-        <v>2474.369367053434</v>
+        <v>2642.195384722742</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4399.146307356736</v>
+        <v>4933.80857940826</v>
       </c>
       <c r="V103">
-        <v>4399.146307356736</v>
+        <v>4933.80857940826</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9733995284</v>
+        <v>122130.9277236746</v>
       </c>
       <c r="B104">
-        <v>24296.58665451979</v>
+        <v>25699.41718140487</v>
       </c>
       <c r="C104">
-        <v>200013.1877005461</v>
+        <v>205935.9010460926</v>
       </c>
       <c r="D104">
-        <v>7178.811079614105</v>
+        <v>5537.710787683799</v>
       </c>
       <c r="E104">
-        <v>70409.73135258886</v>
+        <v>69437.92528563285</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9733995284</v>
+        <v>122130.9277236746</v>
       </c>
       <c r="I104">
-        <v>329510</v>
+        <v>340396</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>224309.7743550659</v>
+        <v>231635.3182274975</v>
       </c>
       <c r="O104">
-        <v>77588.54243220296</v>
+        <v>74975.63607331665</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1196.523198906679</v>
+        <v>1213.624254408642</v>
       </c>
       <c r="R104">
-        <v>8084.916414571379</v>
+        <v>8031.189717650055</v>
       </c>
       <c r="S104">
-        <v>9281.439613478058</v>
+        <v>9244.813972058697</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>17995.1916080236</v>
+        <v>17612.89031521886</v>
       </c>
       <c r="V104">
-        <v>17995.1916080236</v>
+        <v>17612.89031521886</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.14081389747</v>
+        <v>81324.07750870159</v>
       </c>
       <c r="B105">
-        <v>15948.58960930202</v>
+        <v>14610.18109329006</v>
       </c>
       <c r="C105">
-        <v>131957.7108451746</v>
+        <v>129080.8364060922</v>
       </c>
       <c r="D105">
-        <v>4154.484051919247</v>
+        <v>3627.119795186657</v>
       </c>
       <c r="E105">
-        <v>46437.3973581797</v>
+        <v>47735.71484570051</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.14081389747</v>
+        <v>81324.07750870159</v>
       </c>
       <c r="I105">
-        <v>217836</v>
+        <v>218055</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>147906.3004544766</v>
+        <v>143691.0174993822</v>
       </c>
       <c r="O105">
-        <v>50591.88141009894</v>
+        <v>51362.83464088717</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>735.481796392743</v>
+        <v>760.2365365347907</v>
       </c>
       <c r="R105">
-        <v>5036.724568262564</v>
+        <v>5568.058417908546</v>
       </c>
       <c r="S105">
-        <v>5772.206364655307</v>
+        <v>6328.294954443337</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>11756.31355915375</v>
+        <v>10017.0994660758</v>
       </c>
       <c r="V105">
-        <v>11756.31355915375</v>
+        <v>10017.0994660758</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77849.85324812881</v>
+        <v>77850.15768465225</v>
       </c>
       <c r="B106">
-        <v>15012.21533292883</v>
+        <v>15667.59534659067</v>
       </c>
       <c r="C106">
-        <v>127110.0562839362</v>
+        <v>124929.2330459994</v>
       </c>
       <c r="D106">
-        <v>4005.835860580794</v>
+        <v>3734.792895383836</v>
       </c>
       <c r="E106">
-        <v>45193.29663108909</v>
+        <v>42080.12532701444</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77849.85324812881</v>
+        <v>77850.15768465225</v>
       </c>
       <c r="I106">
-        <v>211708</v>
+        <v>205507</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>142122.2716168651</v>
+        <v>140596.8283925901</v>
       </c>
       <c r="O106">
-        <v>49199.13249166989</v>
+        <v>45814.91822239827</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>703.3672337040795</v>
+        <v>678.0651634618647</v>
       </c>
       <c r="R106">
-        <v>5715.869612946629</v>
+        <v>5089.988440258003</v>
       </c>
       <c r="S106">
-        <v>6419.236846650709</v>
+        <v>5768.053603719867</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10695.90677599848</v>
+        <v>11991.17428452778</v>
       </c>
       <c r="V106">
-        <v>10695.90677599848</v>
+        <v>11991.17428452778</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86202.90752226264</v>
+        <v>86202.98813970658</v>
       </c>
       <c r="B107">
-        <v>16491.32341664482</v>
+        <v>17351.3261200355</v>
       </c>
       <c r="C107">
-        <v>141911.1182472165</v>
+        <v>137355.4440336652</v>
       </c>
       <c r="D107">
-        <v>4580.38968467265</v>
+        <v>3903.507042619241</v>
       </c>
       <c r="E107">
-        <v>49819.9344287202</v>
+        <v>49130.29912270622</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86202.90752226264</v>
+        <v>86202.98813970658</v>
       </c>
       <c r="I107">
-        <v>231879</v>
+        <v>231665</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>158402.4416638614</v>
+        <v>154706.7701537007</v>
       </c>
       <c r="O107">
-        <v>54400.32411339285</v>
+        <v>53033.80616532546</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>902.0596062111131</v>
+        <v>853.2589168081072</v>
       </c>
       <c r="R107">
-        <v>5811.885296674676</v>
+        <v>5553.443832169624</v>
       </c>
       <c r="S107">
-        <v>6713.944902885789</v>
+        <v>6406.702748977732</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>14052.33353860317</v>
+        <v>11115.52379389303</v>
       </c>
       <c r="V107">
-        <v>14052.33353860317</v>
+        <v>11115.52379389303</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60304.84081604073</v>
+        <v>60305.12948797871</v>
       </c>
       <c r="B108">
-        <v>11513.1345822919</v>
+        <v>11691.67907008696</v>
       </c>
       <c r="C108">
-        <v>99422.32645992065</v>
+        <v>101557.8403388491</v>
       </c>
       <c r="D108">
-        <v>3532.00749793682</v>
+        <v>3090.752507258647</v>
       </c>
       <c r="E108">
-        <v>42155.53379282522</v>
+        <v>34922.24712913528</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60304.84081604073</v>
+        <v>60305.12948797871</v>
       </c>
       <c r="I108">
-        <v>165145</v>
+        <v>164309</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>110935.4610422125</v>
+        <v>113249.519408936</v>
       </c>
       <c r="O108">
-        <v>45687.54129076204</v>
+        <v>38012.99963639393</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>516.2504106100221</v>
+        <v>423.4600036765255</v>
       </c>
       <c r="R108">
-        <v>3704.498912955381</v>
+        <v>4026.74402542282</v>
       </c>
       <c r="S108">
-        <v>4220.749323565403</v>
+        <v>4450.204029099346</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>7039.029390962278</v>
+        <v>8743.115326627009</v>
       </c>
       <c r="V108">
-        <v>7039.029390962278</v>
+        <v>8743.115326627009</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.01185111758</v>
+        <v>25283.03468813028</v>
       </c>
       <c r="B109">
-        <v>5024.589668308261</v>
+        <v>4760.343570842433</v>
       </c>
       <c r="C109">
-        <v>41935.52579087143</v>
+        <v>40906.70641304424</v>
       </c>
       <c r="D109">
-        <v>1288.799577204135</v>
+        <v>1222.719040910281</v>
       </c>
       <c r="E109">
-        <v>13820.27467548576</v>
+        <v>14303.40986990524</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.01185111758</v>
+        <v>25283.03468813028</v>
       </c>
       <c r="I109">
-        <v>66919</v>
+        <v>67520</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>46960.11545917969</v>
+        <v>45667.04998388667</v>
       </c>
       <c r="O109">
-        <v>15109.0742526899</v>
+        <v>15526.12891081552</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>172.7678490501783</v>
+        <v>240.1558733098701</v>
       </c>
       <c r="R109">
-        <v>1494.572728511964</v>
+        <v>1529.613525302827</v>
       </c>
       <c r="S109">
-        <v>1667.340577562142</v>
+        <v>1769.769398612697</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3668.495742860356</v>
+        <v>3797.808502721234</v>
       </c>
       <c r="V109">
-        <v>3668.495742860356</v>
+        <v>3797.808502721234</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.122334686592</v>
+        <v>4048.916967345454</v>
       </c>
       <c r="B110">
-        <v>828.3860494983248</v>
+        <v>764.7794184780552</v>
       </c>
       <c r="C110">
-        <v>6634.602135739063</v>
+        <v>6509.706348735852</v>
       </c>
       <c r="D110">
-        <v>199.1902507756393</v>
+        <v>164.6490512945272</v>
       </c>
       <c r="E110">
-        <v>2283.914829503458</v>
+        <v>2204.327423591298</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.122334686592</v>
+        <v>4048.916967345454</v>
       </c>
       <c r="I110">
-        <v>10680</v>
+        <v>10774</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7462.988185237387</v>
+        <v>7274.485767213907</v>
       </c>
       <c r="O110">
-        <v>2483.105080279097</v>
+        <v>2368.976474885825</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>26.84502988447218</v>
+        <v>32.77421285706135</v>
       </c>
       <c r="R110">
-        <v>210.4720276452301</v>
+        <v>269.4940176813105</v>
       </c>
       <c r="S110">
-        <v>237.3170575297023</v>
+        <v>302.2682305383718</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>494.0883359907159</v>
+        <v>500.0625212701287</v>
       </c>
       <c r="V110">
-        <v>494.0883359907159</v>
+        <v>500.0625212701287</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.896328324126</v>
+        <v>8763.019364592621</v>
       </c>
       <c r="B111">
-        <v>1713.241822635564</v>
+        <v>1672.073806376232</v>
       </c>
       <c r="C111">
-        <v>14177.39244621761</v>
+        <v>13776.28653318702</v>
       </c>
       <c r="D111">
-        <v>497.6909635883181</v>
+        <v>399.3588480718063</v>
       </c>
       <c r="E111">
-        <v>5776.170182173612</v>
+        <v>4690.54663260068</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.896328324126</v>
+        <v>8763.019364592621</v>
       </c>
       <c r="I111">
-        <v>22659</v>
+        <v>23779</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15890.63426885318</v>
+        <v>15448.36033956325</v>
       </c>
       <c r="O111">
-        <v>6273.861145761931</v>
+        <v>5089.905480672486</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>84.71175423408226</v>
+        <v>66.50047237445341</v>
       </c>
       <c r="R111">
-        <v>543.5402466341104</v>
+        <v>508.6333447420437</v>
       </c>
       <c r="S111">
-        <v>628.2520008681927</v>
+        <v>575.1338171164971</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1253.93977654275</v>
+        <v>1155.256651896171</v>
       </c>
       <c r="V111">
-        <v>1253.93977654275</v>
+        <v>1155.256651896171</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.961494696805</v>
+        <v>9927.118086545645</v>
       </c>
       <c r="B112">
-        <v>1947.304779411288</v>
+        <v>1938.675287131944</v>
       </c>
       <c r="C112">
-        <v>16363.41835722793</v>
+        <v>16124.01667259865</v>
       </c>
       <c r="D112">
-        <v>474.9409344734776</v>
+        <v>477.4803198215803</v>
       </c>
       <c r="E112">
-        <v>5340.744385742465</v>
+        <v>5881.831371635024</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.961494696805</v>
+        <v>9927.118086545645</v>
       </c>
       <c r="I112">
-        <v>26686</v>
+        <v>27641</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18310.72313663922</v>
+        <v>18062.6919597306</v>
       </c>
       <c r="O112">
-        <v>5815.685320215943</v>
+        <v>6359.311691456604</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>104.9416288270979</v>
+        <v>78.18414292836616</v>
       </c>
       <c r="R112">
-        <v>685.0674498354301</v>
+        <v>594.667854156412</v>
       </c>
       <c r="S112">
-        <v>790.0090786625281</v>
+        <v>672.8519970847781</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1512.098864990487</v>
+        <v>1421.91755132775</v>
       </c>
       <c r="V112">
-        <v>1512.098864990487</v>
+        <v>1421.91755132775</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.082855940458</v>
+        <v>1551.830220256252</v>
       </c>
       <c r="B113">
-        <v>292.9752411041562</v>
+        <v>289.7955681139994</v>
       </c>
       <c r="C113">
-        <v>2562.573724212988</v>
+        <v>2503.188260003658</v>
       </c>
       <c r="D113">
-        <v>68.93559441500338</v>
+        <v>73.22687254693909</v>
       </c>
       <c r="E113">
-        <v>776.2678903326078</v>
+        <v>898.3877881464681</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.082855940458</v>
+        <v>1551.830220256252</v>
       </c>
       <c r="I113">
-        <v>4135</v>
+        <v>4124</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2855.548965317144</v>
+        <v>2792.983828117658</v>
       </c>
       <c r="O113">
-        <v>845.2034847476111</v>
+        <v>971.6146606934071</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>12.84743025879054</v>
+        <v>16.49338706786432</v>
       </c>
       <c r="R113">
-        <v>94.74994588637897</v>
+        <v>105.5103586507606</v>
       </c>
       <c r="S113">
-        <v>107.5973761451695</v>
+        <v>122.0037457186249</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>198.3210965478539</v>
+        <v>238.3647406034807</v>
       </c>
       <c r="V113">
-        <v>198.3210965478539</v>
+        <v>238.3647406034807</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1068.927961049489</v>
+        <v>1069.033328981312</v>
       </c>
       <c r="B114">
-        <v>1445.722870889871</v>
+        <v>1479.46732486408</v>
       </c>
       <c r="C114">
-        <v>479.3658850917381</v>
+        <v>494.4531913286428</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>667.3070841968593</v>
+        <v>707.3296970641571</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1068.927961049489</v>
+        <v>1069.033328981312</v>
       </c>
       <c r="I114">
-        <v>2862</v>
+        <v>2937</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1925.088755981609</v>
+        <v>1973.920516192723</v>
       </c>
       <c r="O114">
-        <v>667.3070841968593</v>
+        <v>707.3296970641571</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>26.65186855790905</v>
+        <v>21.91773960227194</v>
       </c>
       <c r="R114">
-        <v>63.55001499967023</v>
+        <v>54.83339587681297</v>
       </c>
       <c r="S114">
-        <v>90.20188355757928</v>
+        <v>76.75113547908491</v>
       </c>
       <c r="T114">
-        <v>12.62183640326586</v>
+        <v>14.2224582250455</v>
       </c>
       <c r="U114">
-        <v>129.6561708240703</v>
+        <v>130.5151824101482</v>
       </c>
       <c r="V114">
-        <v>142.2780072273362</v>
+        <v>144.7376406351937</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>405.9583607314852</v>
+        <v>406.0557819868623</v>
       </c>
       <c r="B115">
-        <v>568.1806365982219</v>
+        <v>564.2334986296144</v>
       </c>
       <c r="C115">
-        <v>188.6630795343558</v>
+        <v>188.4074899221577</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>244.6623701662271</v>
+        <v>231.8226457068274</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>405.9583607314852</v>
+        <v>406.0557819868623</v>
       </c>
       <c r="I115">
-        <v>1195</v>
+        <v>1102</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>756.8437161325777</v>
+        <v>752.640988551772</v>
       </c>
       <c r="O115">
-        <v>244.6623701662271</v>
+        <v>231.8226457068274</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>7.432908694611791</v>
+        <v>5.815089902701243</v>
       </c>
       <c r="R115">
-        <v>19.61381601286987</v>
+        <v>24.64353937387546</v>
       </c>
       <c r="S115">
-        <v>27.04672470748166</v>
+        <v>30.4586292765767</v>
       </c>
       <c r="T115">
-        <v>6.664117786759358</v>
+        <v>5.791405367528745</v>
       </c>
       <c r="U115">
-        <v>51.98665164238513</v>
+        <v>49.97277084555167</v>
       </c>
       <c r="V115">
-        <v>58.65076942914448</v>
+        <v>55.76417621308042</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.989159140759</v>
+        <v>5615.892374793314</v>
       </c>
       <c r="B116">
-        <v>7799.970995482287</v>
+        <v>7911.934806680089</v>
       </c>
       <c r="C116">
-        <v>2649.67524686562</v>
+        <v>2550.249310191008</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3692.780245672404</v>
+        <v>3865.226691614335</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.989159140759</v>
+        <v>5615.892374793314</v>
       </c>
       <c r="I116">
-        <v>15869</v>
+        <v>15294</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10449.64624234791</v>
+        <v>10462.1841168711</v>
       </c>
       <c r="O116">
-        <v>3692.780245672404</v>
+        <v>3865.226691614335</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>122.4016096239904</v>
+        <v>106.0043858298782</v>
       </c>
       <c r="R116">
-        <v>303.5115985856997</v>
+        <v>287.7653452975141</v>
       </c>
       <c r="S116">
-        <v>425.9132082096901</v>
+        <v>393.7697311273922</v>
       </c>
       <c r="T116">
-        <v>81.1151301046809</v>
+        <v>78.32463509782124</v>
       </c>
       <c r="U116">
-        <v>716.3757343712806</v>
+        <v>798.7790085584965</v>
       </c>
       <c r="V116">
-        <v>797.4908644759615</v>
+        <v>877.1036436563177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3149.995833733246</v>
+        <v>3149.948968643003</v>
       </c>
       <c r="B117">
-        <v>4433.664303253052</v>
+        <v>4411.004830066548</v>
       </c>
       <c r="C117">
-        <v>1448.593795666214</v>
+        <v>1472.829059359324</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1812.562042926071</v>
+        <v>2028.960795504533</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3149.995833733246</v>
+        <v>3149.948968643003</v>
       </c>
       <c r="I117">
-        <v>8825</v>
+        <v>8751</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5882.258098919266</v>
+        <v>5883.833889425872</v>
       </c>
       <c r="O117">
-        <v>1812.562042926071</v>
+        <v>2028.960795504533</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>51.42807967290477</v>
+        <v>63.75665319361237</v>
       </c>
       <c r="R117">
-        <v>144.7780373112671</v>
+        <v>185.5771697939806</v>
       </c>
       <c r="S117">
-        <v>196.2061169841719</v>
+        <v>249.333822987593</v>
       </c>
       <c r="T117">
-        <v>37.47054375733248</v>
+        <v>47.64345101639174</v>
       </c>
       <c r="U117">
-        <v>346.5712435548304</v>
+        <v>415.0870362011734</v>
       </c>
       <c r="V117">
-        <v>384.0417873121629</v>
+        <v>462.7304872175651</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1816.897151371477</v>
+        <v>1816.984639859158</v>
       </c>
       <c r="B118">
-        <v>2525.648006938727</v>
+        <v>2471.637762863261</v>
       </c>
       <c r="C118">
-        <v>832.6950763064565</v>
+        <v>808.0738055227703</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1170.322313780035</v>
+        <v>1181.199562363664</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1816.897151371477</v>
+        <v>1816.984639859158</v>
       </c>
       <c r="I118">
-        <v>4865</v>
+        <v>5053</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3358.343083245183</v>
+        <v>3279.711568386032</v>
       </c>
       <c r="O118">
-        <v>1170.322313780035</v>
+        <v>1181.199562363664</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>28.93118802711322</v>
+        <v>38.78009412610117</v>
       </c>
       <c r="R118">
-        <v>106.1287921543582</v>
+        <v>102.9589495824789</v>
       </c>
       <c r="S118">
-        <v>135.0599801814715</v>
+        <v>141.73904370858</v>
       </c>
       <c r="T118">
-        <v>31.28079523973623</v>
+        <v>31.42266859256856</v>
       </c>
       <c r="U118">
-        <v>239.2907022469334</v>
+        <v>271.35494184701</v>
       </c>
       <c r="V118">
-        <v>270.5714974866696</v>
+        <v>302.7776104395786</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6396.125937115398</v>
+        <v>6396.147955044729</v>
       </c>
       <c r="B119">
-        <v>9128.713393762737</v>
+        <v>9120.833765145848</v>
       </c>
       <c r="C119">
-        <v>2926.279815906828</v>
+        <v>2906.776963764697</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4450.032944516899</v>
+        <v>3909.072603279454</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6396.125937115398</v>
+        <v>6396.147955044729</v>
       </c>
       <c r="I119">
-        <v>17584</v>
+        <v>18490</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>12054.99320966957</v>
+        <v>12027.61072891055</v>
       </c>
       <c r="O119">
-        <v>4450.032944516899</v>
+        <v>3909.072603279454</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>110.221305665104</v>
+        <v>123.1856973002345</v>
       </c>
       <c r="R119">
-        <v>324.4456859196997</v>
+        <v>393.7854124714831</v>
       </c>
       <c r="S119">
-        <v>434.6669915848037</v>
+        <v>516.9711097717176</v>
       </c>
       <c r="T119">
-        <v>81.85996061542639</v>
+        <v>85.80054409570663</v>
       </c>
       <c r="U119">
-        <v>777.2719600851287</v>
+        <v>862.7360451816701</v>
       </c>
       <c r="V119">
-        <v>859.1319207005552</v>
+        <v>948.5365892773767</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4005.941646925839</v>
+        <v>4005.939485451269</v>
       </c>
       <c r="B120">
-        <v>5460.425704669901</v>
+        <v>5727.94982548103</v>
       </c>
       <c r="C120">
-        <v>1919.446643046309</v>
+        <v>1856.619222155583</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2582.275920912141</v>
+        <v>2486.395555018658</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4005.941646925839</v>
+        <v>4005.939485451269</v>
       </c>
       <c r="I120">
-        <v>11071</v>
+        <v>11551</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7379.87234771621</v>
+        <v>7584.569047636613</v>
       </c>
       <c r="O120">
-        <v>2582.275920912141</v>
+        <v>2486.395555018658</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>94.40679244673567</v>
+        <v>64.85546388468688</v>
       </c>
       <c r="R120">
-        <v>245.6608492669726</v>
+        <v>207.5427757123298</v>
       </c>
       <c r="S120">
-        <v>340.0676417137083</v>
+        <v>272.3982395970166</v>
       </c>
       <c r="T120">
-        <v>54.19233598480346</v>
+        <v>60.05099782273561</v>
       </c>
       <c r="U120">
-        <v>473.7016766669166</v>
+        <v>426.0294603920746</v>
       </c>
       <c r="V120">
-        <v>527.89401265172</v>
+        <v>486.0804582148102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.865352195107</v>
+        <v>1686.854617918596</v>
       </c>
       <c r="B121">
-        <v>2389.36939143042</v>
+        <v>2321.734218014049</v>
       </c>
       <c r="C121">
-        <v>800.2795897053209</v>
+        <v>794.2760576803407</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1099.24579235375</v>
+        <v>1113.66776928327</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.865352195107</v>
+        <v>1686.854617918596</v>
       </c>
       <c r="I121">
-        <v>4870</v>
+        <v>4723</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3189.648981135742</v>
+        <v>3116.010275694389</v>
       </c>
       <c r="O121">
-        <v>1099.24579235375</v>
+        <v>1113.66776928327</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>23.81393080427757</v>
+        <v>31.94820348853277</v>
       </c>
       <c r="R121">
-        <v>73.11350722095571</v>
+        <v>89.46473337619784</v>
       </c>
       <c r="S121">
-        <v>96.92743802523327</v>
+        <v>121.4129368647306</v>
       </c>
       <c r="T121">
-        <v>20.94630917154309</v>
+        <v>33.59366670997871</v>
       </c>
       <c r="U121">
-        <v>177.3620030984786</v>
+        <v>267.665408394842</v>
       </c>
       <c r="V121">
-        <v>198.3083122700217</v>
+        <v>301.2590751048207</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>589.1574165057765</v>
+        <v>588.9509315046844</v>
       </c>
       <c r="B122">
-        <v>828.9607292555527</v>
+        <v>800.620735499169</v>
       </c>
       <c r="C122">
-        <v>266.0643259669369</v>
+        <v>273.0673661622649</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>419.3774049361164</v>
+        <v>372.2883101154826</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>589.1574165057765</v>
+        <v>588.9509315046844</v>
       </c>
       <c r="I122">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1095.02505522249</v>
+        <v>1073.688101661434</v>
       </c>
       <c r="O122">
-        <v>419.3774049361164</v>
+        <v>372.2883101154826</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>11.11277008271624</v>
+        <v>9.205222398695176</v>
       </c>
       <c r="R122">
-        <v>31.80766565648316</v>
+        <v>31.94639069418884</v>
       </c>
       <c r="S122">
-        <v>42.9204357391994</v>
+        <v>41.15161309288401</v>
       </c>
       <c r="T122">
-        <v>7.266756549478369</v>
+        <v>8.374615899411655</v>
       </c>
       <c r="U122">
-        <v>69.96232056864621</v>
+        <v>72.81893753709969</v>
       </c>
       <c r="V122">
-        <v>77.22907711812458</v>
+        <v>81.19355343651134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1709.916396319077</v>
+        <v>1709.989788789631</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3095.724404049262</v>
+        <v>3013.213539202095</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1131.291520355991</v>
+        <v>1052.901849790187</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1709.916396319077</v>
+        <v>1709.989788789631</v>
       </c>
       <c r="I123">
-        <v>5631</v>
+        <v>5554</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3095.724404049262</v>
+        <v>3013.213539202095</v>
       </c>
       <c r="O123">
-        <v>1131.291520355991</v>
+        <v>1052.901849790187</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>32.59215955714305</v>
+        <v>33.1900766981224</v>
       </c>
       <c r="R123">
-        <v>102.3879280543638</v>
+        <v>84.92019889723341</v>
       </c>
       <c r="S123">
-        <v>134.9800876115069</v>
+        <v>118.1102755953558</v>
       </c>
       <c r="T123">
-        <v>24.91614039763315</v>
+        <v>23.39700745458956</v>
       </c>
       <c r="U123">
-        <v>216.9197864192599</v>
+        <v>220.0973004862326</v>
       </c>
       <c r="V123">
-        <v>241.8359268168931</v>
+        <v>243.4943079408222</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.9596916648526</v>
+        <v>199.0753342629378</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>354.5460975971479</v>
+        <v>366.4360977350906</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>104.5206442162768</v>
+        <v>139.4165786261605</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.9596916648526</v>
+        <v>199.0753342629378</v>
       </c>
       <c r="I124">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>354.5460975971479</v>
+        <v>366.4360977350906</v>
       </c>
       <c r="O124">
-        <v>104.5206442162768</v>
+        <v>139.4165786261605</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.909453014022797</v>
+        <v>3.170568332332734</v>
       </c>
       <c r="R124">
-        <v>9.958345785158574</v>
+        <v>9.171568811171238</v>
       </c>
       <c r="S124">
-        <v>13.86779879918137</v>
+        <v>12.34213714350397</v>
       </c>
       <c r="T124">
-        <v>3.137754574345669</v>
+        <v>2.733527223207774</v>
       </c>
       <c r="U124">
-        <v>24.67971235356843</v>
+        <v>29.28918983102501</v>
       </c>
       <c r="V124">
-        <v>27.8174669279141</v>
+        <v>32.02271705423278</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.915241641897</v>
+        <v>9132.933769064126</v>
       </c>
       <c r="B2">
-        <v>4851.04328275568</v>
+        <v>4950.285800038421</v>
       </c>
       <c r="C2">
-        <v>21520.93904401982</v>
+        <v>21195.75572238364</v>
       </c>
       <c r="D2">
-        <v>4869.084968687948</v>
+        <v>5132.424233298074</v>
       </c>
       <c r="E2">
-        <v>10012.75310445404</v>
+        <v>10460.99054081819</v>
       </c>
       <c r="F2">
-        <v>2895.436950608918</v>
+        <v>2644.262940454445</v>
       </c>
       <c r="G2">
-        <v>5643.676433347835</v>
+        <v>5004.471085812631</v>
       </c>
       <c r="H2">
-        <v>9132.915241641897</v>
+        <v>9132.933769064126</v>
       </c>
       <c r="I2">
-        <v>43584</v>
+        <v>42616</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26371.9823267755</v>
+        <v>26146.04152242206</v>
       </c>
       <c r="O2">
-        <v>14881.83807314198</v>
+        <v>15593.41477411627</v>
       </c>
       <c r="P2">
-        <v>8539.113383956754</v>
+        <v>7648.734026267075</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.999358934396</v>
+        <v>7571.083258658742</v>
       </c>
       <c r="B3">
-        <v>4059.779726029748</v>
+        <v>4076.1605845296</v>
       </c>
       <c r="C3">
-        <v>17635.82879512526</v>
+        <v>17776.86109982474</v>
       </c>
       <c r="D3">
-        <v>4610.172498383175</v>
+        <v>4107.432076447133</v>
       </c>
       <c r="E3">
-        <v>9320.008268908905</v>
+        <v>8477.029165774768</v>
       </c>
       <c r="F3">
-        <v>2162.781660835361</v>
+        <v>2335.190773228142</v>
       </c>
       <c r="G3">
-        <v>4099.824567878583</v>
+        <v>4414.17408223241</v>
       </c>
       <c r="H3">
-        <v>7570.999358934396</v>
+        <v>7571.083258658742</v>
       </c>
       <c r="I3">
-        <v>34515</v>
+        <v>34474</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21695.60852115501</v>
+        <v>21853.02168435434</v>
       </c>
       <c r="O3">
-        <v>13930.18076729208</v>
+        <v>12584.4612422219</v>
       </c>
       <c r="P3">
-        <v>6262.606228713945</v>
+        <v>6749.364855460552</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15502.05817230497</v>
+        <v>15501.96020842894</v>
       </c>
       <c r="B4">
-        <v>8586.296490627508</v>
+        <v>8390.391474624414</v>
       </c>
       <c r="C4">
-        <v>37789.11848547893</v>
+        <v>35901.55224928841</v>
       </c>
       <c r="D4">
-        <v>9604.046331147438</v>
+        <v>8520.830383458688</v>
       </c>
       <c r="E4">
-        <v>18324.12875160101</v>
+        <v>16887.13416069545</v>
       </c>
       <c r="F4">
-        <v>4761.835469618728</v>
+        <v>4864.361202152586</v>
       </c>
       <c r="G4">
-        <v>8952.956923365913</v>
+        <v>9226.921462822478</v>
       </c>
       <c r="H4">
-        <v>15502.05817230497</v>
+        <v>15501.96020842894</v>
       </c>
       <c r="I4">
-        <v>72765</v>
+        <v>71710</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46375.41497610644</v>
+        <v>44291.94372391282</v>
       </c>
       <c r="O4">
-        <v>27928.17508274845</v>
+        <v>25407.96454415413</v>
       </c>
       <c r="P4">
-        <v>13714.79239298464</v>
+        <v>14091.28266497506</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.926353431205</v>
+        <v>9669.936043970658</v>
       </c>
       <c r="B5">
-        <v>5380.768468510579</v>
+        <v>5353.613854168354</v>
       </c>
       <c r="C5">
-        <v>23188.28987078996</v>
+        <v>23134.79151818783</v>
       </c>
       <c r="D5">
-        <v>5675.765992571322</v>
+        <v>5373.158134592775</v>
       </c>
       <c r="E5">
-        <v>11197.79895236961</v>
+        <v>10949.74604400097</v>
       </c>
       <c r="F5">
-        <v>2988.853999181979</v>
+        <v>2784.009270786707</v>
       </c>
       <c r="G5">
-        <v>5584.2143820542</v>
+        <v>5523.585565123336</v>
       </c>
       <c r="H5">
-        <v>9669.926353431205</v>
+        <v>9669.936043970658</v>
       </c>
       <c r="I5">
-        <v>45252</v>
+        <v>46492</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28569.05833930054</v>
+        <v>28488.40537235618</v>
       </c>
       <c r="O5">
-        <v>16873.56494494093</v>
+        <v>16322.90417859374</v>
       </c>
       <c r="P5">
-        <v>8573.068381236179</v>
+        <v>8307.594835910044</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.96950152651</v>
+        <v>26787.07059681335</v>
       </c>
       <c r="B6">
-        <v>14603.63827754355</v>
+        <v>13786.71382997604</v>
       </c>
       <c r="C6">
-        <v>62911.32525292204</v>
+        <v>61565.48267664494</v>
       </c>
       <c r="D6">
-        <v>15041.97165538103</v>
+        <v>15286.64619039117</v>
       </c>
       <c r="E6">
-        <v>30560.50596147161</v>
+        <v>30107.38362042226</v>
       </c>
       <c r="F6">
-        <v>8777.708581717499</v>
+        <v>6878.806182437854</v>
       </c>
       <c r="G6">
-        <v>17006.03751442702</v>
+        <v>14659.47209327635</v>
       </c>
       <c r="H6">
-        <v>26786.96950152651</v>
+        <v>26787.07059681335</v>
       </c>
       <c r="I6">
-        <v>112003</v>
+        <v>127179</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>77514.96353046558</v>
+        <v>75352.19650662098</v>
       </c>
       <c r="O6">
-        <v>45602.47761685263</v>
+        <v>45394.02981081344</v>
       </c>
       <c r="P6">
-        <v>25783.74609614451</v>
+        <v>21538.2782757142</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.10656454509</v>
+        <v>15439.03094568837</v>
       </c>
       <c r="B7">
-        <v>8082.144229597654</v>
+        <v>8239.044827661313</v>
       </c>
       <c r="C7">
-        <v>34768.12607476812</v>
+        <v>35362.56113336241</v>
       </c>
       <c r="D7">
-        <v>8281.844694836429</v>
+        <v>8584.779553390395</v>
       </c>
       <c r="E7">
-        <v>16734.89894473861</v>
+        <v>17175.41680901221</v>
       </c>
       <c r="F7">
-        <v>4494.072672451403</v>
+        <v>4864.879581665451</v>
       </c>
       <c r="G7">
-        <v>8409.323617937254</v>
+        <v>9151.730509816754</v>
       </c>
       <c r="H7">
-        <v>15439.10656454509</v>
+        <v>15439.03094568837</v>
       </c>
       <c r="I7">
-        <v>69143</v>
+        <v>71904</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>42850.27030436577</v>
+        <v>43601.60596102373</v>
       </c>
       <c r="O7">
-        <v>25016.74363957504</v>
+        <v>25760.19636240261</v>
       </c>
       <c r="P7">
-        <v>12903.39629038866</v>
+        <v>14016.61009148221</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.044705430244</v>
+        <v>7028.024360689366</v>
       </c>
       <c r="B8">
-        <v>3919.763029261983</v>
+        <v>3878.925251824687</v>
       </c>
       <c r="C8">
-        <v>17238.88617463748</v>
+        <v>17053.48969645327</v>
       </c>
       <c r="D8">
-        <v>4408.602223116015</v>
+        <v>3891.357156847166</v>
       </c>
       <c r="E8">
-        <v>8499.770375076254</v>
+        <v>8031.239208174517</v>
       </c>
       <c r="F8">
-        <v>2138.611457816125</v>
+        <v>2071.559382527638</v>
       </c>
       <c r="G8">
-        <v>3941.189224008794</v>
+        <v>3903.416221225989</v>
       </c>
       <c r="H8">
-        <v>7028.044705430244</v>
+        <v>7028.024360689366</v>
       </c>
       <c r="I8">
-        <v>34093</v>
+        <v>30793</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21158.64920389946</v>
+        <v>20932.41494827795</v>
       </c>
       <c r="O8">
-        <v>12908.37259819227</v>
+        <v>11922.59636502168</v>
       </c>
       <c r="P8">
-        <v>6079.80068182492</v>
+        <v>5974.975603753627</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5006.071418424227</v>
+        <v>5005.942147519883</v>
       </c>
       <c r="B9">
-        <v>2665.168054995023</v>
+        <v>2603.814555991305</v>
       </c>
       <c r="C9">
-        <v>11848.83604212746</v>
+        <v>11563.37876548745</v>
       </c>
       <c r="D9">
-        <v>2778.47223361886</v>
+        <v>2791.045407913578</v>
       </c>
       <c r="E9">
-        <v>5420.7650053995</v>
+        <v>5537.900350785905</v>
       </c>
       <c r="F9">
-        <v>1399.592430620266</v>
+        <v>1589.768267403249</v>
       </c>
       <c r="G9">
-        <v>2794.198954789663</v>
+        <v>3187.696847435253</v>
       </c>
       <c r="H9">
-        <v>5006.071418424227</v>
+        <v>5005.942147519883</v>
       </c>
       <c r="I9">
-        <v>24033</v>
+        <v>24429</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14514.00409712248</v>
+        <v>14167.19332147876</v>
       </c>
       <c r="O9">
-        <v>8199.237239018359</v>
+        <v>8328.945758699483</v>
       </c>
       <c r="P9">
-        <v>4193.791385409929</v>
+        <v>4777.465114838502</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.988663973444</v>
+        <v>5887.069985052078</v>
       </c>
       <c r="B10">
-        <v>3020.842525120415</v>
+        <v>3317.601865550885</v>
       </c>
       <c r="C10">
-        <v>13327.92223539876</v>
+        <v>14089.37850389608</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9990.143955441983</v>
+        <v>9703.7277472692</v>
       </c>
       <c r="F10">
-        <v>1849.207393874579</v>
+        <v>1945.721869936079</v>
       </c>
       <c r="G10">
-        <v>3351.815882511692</v>
+        <v>3758.648945929132</v>
       </c>
       <c r="H10">
-        <v>5886.988663973444</v>
+        <v>5887.069985052078</v>
       </c>
       <c r="I10">
-        <v>29099</v>
+        <v>27189</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16348.76476051918</v>
+        <v>17406.98036944696</v>
       </c>
       <c r="O10">
-        <v>9990.143955441983</v>
+        <v>9703.7277472692</v>
       </c>
       <c r="P10">
-        <v>5201.023276386271</v>
+        <v>5704.370815865212</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.97583585047</v>
+        <v>1726.099063850173</v>
       </c>
       <c r="B11">
-        <v>973.3175092821731</v>
+        <v>920.1524218509137</v>
       </c>
       <c r="C11">
-        <v>4023.076196401891</v>
+        <v>3961.561817668212</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2674.243748207093</v>
+        <v>2787.809667377222</v>
       </c>
       <c r="F11">
-        <v>549.3750709657392</v>
+        <v>488.9556410989143</v>
       </c>
       <c r="G11">
-        <v>1062.669320536917</v>
+        <v>890.5495268133728</v>
       </c>
       <c r="H11">
-        <v>1725.97583585047</v>
+        <v>1726.099063850173</v>
       </c>
       <c r="I11">
-        <v>8625</v>
+        <v>8446</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4996.393705684064</v>
+        <v>4881.714239519126</v>
       </c>
       <c r="O11">
-        <v>2674.243748207093</v>
+        <v>2787.809667377222</v>
       </c>
       <c r="P11">
-        <v>1612.044391502656</v>
+        <v>1379.505167912287</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.0859779079023</v>
+        <v>501.0598021040524</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1414.176191527277</v>
+        <v>1426.096013018433</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>859.3249095220265</v>
+        <v>796.0588670397118</v>
       </c>
       <c r="F12">
-        <v>160.6997391308647</v>
+        <v>160.2699023306292</v>
       </c>
       <c r="G12">
-        <v>308.9933116433234</v>
+        <v>310.651228321619</v>
       </c>
       <c r="H12">
-        <v>501.0859779079023</v>
+        <v>501.0598021040524</v>
       </c>
       <c r="I12">
-        <v>2821</v>
+        <v>2859</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1414.176191527277</v>
+        <v>1426.096013018433</v>
       </c>
       <c r="O12">
-        <v>859.3249095220265</v>
+        <v>796.0588670397118</v>
       </c>
       <c r="P12">
-        <v>469.6930507741881</v>
+        <v>470.9211306522482</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.915808332207</v>
+        <v>1087.93041572099</v>
       </c>
       <c r="B13">
-        <v>486.8108838715812</v>
+        <v>486.4777987637172</v>
       </c>
       <c r="C13">
-        <v>2594.953501479627</v>
+        <v>2597.027049828348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1757.315980207667</v>
+        <v>1853.6887633047</v>
       </c>
       <c r="F13">
-        <v>816.6456333237027</v>
+        <v>831.9641494143433</v>
       </c>
       <c r="G13">
-        <v>138.0356978261868</v>
+        <v>152.961035463928</v>
       </c>
       <c r="H13">
-        <v>1087.915808332207</v>
+        <v>1087.93041572099</v>
       </c>
       <c r="I13">
-        <v>4550</v>
+        <v>4466</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3081.764385351208</v>
+        <v>3083.504848592065</v>
       </c>
       <c r="O13">
-        <v>1757.315980207667</v>
+        <v>1853.6887633047</v>
       </c>
       <c r="P13">
-        <v>954.6813311498895</v>
+        <v>984.9251848782714</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11832.1023877956</v>
+        <v>11831.92024069148</v>
       </c>
       <c r="B14">
-        <v>5472.763379951579</v>
+        <v>5449.616498259405</v>
       </c>
       <c r="C14">
-        <v>28555.84893588995</v>
+        <v>28838.82758151992</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18893.13891592227</v>
+        <v>19559.06875683897</v>
       </c>
       <c r="F14">
-        <v>9102.294756727732</v>
+        <v>9677.013979200367</v>
       </c>
       <c r="G14">
-        <v>1670.197204035032</v>
+        <v>1716.490419814231</v>
       </c>
       <c r="H14">
-        <v>11832.1023877956</v>
+        <v>11831.92024069148</v>
       </c>
       <c r="I14">
-        <v>49872</v>
+        <v>48690</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>34028.61231584153</v>
+        <v>34288.44407977932</v>
       </c>
       <c r="O14">
-        <v>18893.13891592227</v>
+        <v>19559.06875683897</v>
       </c>
       <c r="P14">
-        <v>10772.49196076276</v>
+        <v>11393.5043990146</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.95418348485</v>
+        <v>79021.05102619536</v>
       </c>
       <c r="B15">
-        <v>35865.20732286147</v>
+        <v>36212.9005963043</v>
       </c>
       <c r="C15">
-        <v>192943.5523010842</v>
+        <v>190956.3768603739</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>130576.6549441562</v>
+        <v>131976.9688389465</v>
       </c>
       <c r="F15">
-        <v>57728.54349675298</v>
+        <v>60590.37387830443</v>
       </c>
       <c r="G15">
-        <v>9952.442932858103</v>
+        <v>10342.26572523689</v>
       </c>
       <c r="H15">
-        <v>79020.95418348485</v>
+        <v>79021.05102619536</v>
       </c>
       <c r="I15">
-        <v>338288</v>
+        <v>331760</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>228808.7596239457</v>
+        <v>227169.2774566782</v>
       </c>
       <c r="O15">
-        <v>130576.6549441562</v>
+        <v>131976.9688389465</v>
       </c>
       <c r="P15">
-        <v>67680.98642961108</v>
+        <v>70932.63960354132</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.9590454991</v>
+        <v>160975.1168992001</v>
       </c>
       <c r="B16">
-        <v>71680.50360119973</v>
+        <v>71954.36327988027</v>
       </c>
       <c r="C16">
-        <v>390207.9566877396</v>
+        <v>390399.1294986742</v>
       </c>
       <c r="D16">
-        <v>93294.61457705534</v>
+        <v>94027.0789543841</v>
       </c>
       <c r="E16">
-        <v>175273.2550195545</v>
+        <v>186264.7936382657</v>
       </c>
       <c r="F16">
-        <v>122442.9056695525</v>
+        <v>107720.4537071862</v>
       </c>
       <c r="G16">
-        <v>21213.92178780395</v>
+        <v>20318.99593052677</v>
       </c>
       <c r="H16">
-        <v>160974.9590454991</v>
+        <v>160975.1168992001</v>
       </c>
       <c r="I16">
-        <v>635361</v>
+        <v>631997</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>461888.4602889393</v>
+        <v>462353.4927785545</v>
       </c>
       <c r="O16">
-        <v>268567.8695966099</v>
+        <v>280291.8725926498</v>
       </c>
       <c r="P16">
-        <v>143656.8274573564</v>
+        <v>128039.449637713</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.88205540812</v>
+        <v>52807.89875319298</v>
       </c>
       <c r="B17">
-        <v>25218.03036371903</v>
+        <v>23658.95172330918</v>
       </c>
       <c r="C17">
-        <v>131441.1934234932</v>
+        <v>125275.0151674421</v>
       </c>
       <c r="D17">
-        <v>30438.57782032663</v>
+        <v>31155.1014204868</v>
       </c>
       <c r="E17">
-        <v>59044.3435907961</v>
+        <v>59126.45668182518</v>
       </c>
       <c r="F17">
-        <v>37189.47309331147</v>
+        <v>40915.16477825091</v>
       </c>
       <c r="G17">
-        <v>6854.368332606849</v>
+        <v>7488.442656107327</v>
       </c>
       <c r="H17">
-        <v>52807.88205540812</v>
+        <v>52807.89875319298</v>
       </c>
       <c r="I17">
-        <v>219098</v>
+        <v>208224</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>156659.2237872122</v>
+        <v>148933.9668907513</v>
       </c>
       <c r="O17">
-        <v>89482.92141112272</v>
+        <v>90281.55810231199</v>
       </c>
       <c r="P17">
-        <v>44043.84142591832</v>
+        <v>48403.60743435824</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48665.88975862344</v>
+        <v>48665.9190049656</v>
       </c>
       <c r="B18">
-        <v>22430.97663135377</v>
+        <v>21955.86334228224</v>
       </c>
       <c r="C18">
-        <v>119663.4813409837</v>
+        <v>116257.5872152211</v>
       </c>
       <c r="D18">
-        <v>28901.84543683559</v>
+        <v>28306.91319071774</v>
       </c>
       <c r="E18">
-        <v>55432.31012662823</v>
+        <v>53864.7457405613</v>
       </c>
       <c r="F18">
-        <v>34145.49722213553</v>
+        <v>33634.45230202155</v>
       </c>
       <c r="G18">
-        <v>5908.299952244325</v>
+        <v>5995.734764664091</v>
       </c>
       <c r="H18">
-        <v>48665.88975862344</v>
+        <v>48665.9190049656</v>
       </c>
       <c r="I18">
-        <v>205471</v>
+        <v>184722</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>142094.4579723374</v>
+        <v>138213.4505575034</v>
       </c>
       <c r="O18">
-        <v>84334.15556346381</v>
+        <v>82171.65893127903</v>
       </c>
       <c r="P18">
-        <v>40053.79717437986</v>
+        <v>39630.18706668564</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.93720686147</v>
+        <v>50920.90006810557</v>
       </c>
       <c r="B19">
-        <v>23316.8882858533</v>
+        <v>21788.07089674439</v>
       </c>
       <c r="C19">
-        <v>123678.289134774</v>
+        <v>118552.2266603982</v>
       </c>
       <c r="D19">
-        <v>29539.27470936552</v>
+        <v>28241.74346964775</v>
       </c>
       <c r="E19">
-        <v>58016.40967172377</v>
+        <v>55156.93901980206</v>
       </c>
       <c r="F19">
-        <v>37927.60323313485</v>
+        <v>41142.95790821061</v>
       </c>
       <c r="G19">
-        <v>6484.609465882497</v>
+        <v>7053.836859309072</v>
       </c>
       <c r="H19">
-        <v>50920.93720686147</v>
+        <v>50920.90006810557</v>
       </c>
       <c r="I19">
-        <v>196568</v>
+        <v>209328</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>146995.1774206273</v>
+        <v>140340.2975571426</v>
       </c>
       <c r="O19">
-        <v>87555.68438108929</v>
+        <v>83398.68248944981</v>
       </c>
       <c r="P19">
-        <v>44412.21269901735</v>
+        <v>48196.79476751968</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.98183966074</v>
+        <v>20573.09931804197</v>
       </c>
       <c r="B20">
-        <v>8804.920514428268</v>
+        <v>9439.616964030218</v>
       </c>
       <c r="C20">
-        <v>47480.35036667019</v>
+        <v>49200.76628238653</v>
       </c>
       <c r="D20">
-        <v>11505.3219679</v>
+        <v>10539.23762469026</v>
       </c>
       <c r="E20">
-        <v>22181.14772982481</v>
+        <v>20020.9642670674</v>
       </c>
       <c r="F20">
-        <v>15582.60416968046</v>
+        <v>15235.52652195622</v>
       </c>
       <c r="G20">
-        <v>2833.590631786068</v>
+        <v>2740.733995734107</v>
       </c>
       <c r="H20">
-        <v>20572.98183966074</v>
+        <v>20573.09931804197</v>
       </c>
       <c r="I20">
-        <v>78677</v>
+        <v>83801</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>56285.27088109846</v>
+        <v>58640.38324641674</v>
       </c>
       <c r="O20">
-        <v>33686.46969772481</v>
+        <v>30560.20189175766</v>
       </c>
       <c r="P20">
-        <v>18416.19480146653</v>
+        <v>17976.26051769033</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26961.00641705353</v>
+        <v>26960.90653315068</v>
       </c>
       <c r="B21">
-        <v>13354.56514505063</v>
+        <v>11864.14629176586</v>
       </c>
       <c r="C21">
-        <v>66414.43587439336</v>
+        <v>64451.02851995301</v>
       </c>
       <c r="D21">
-        <v>15441.63190733296</v>
+        <v>14163.147779566</v>
       </c>
       <c r="E21">
-        <v>29869.69365728688</v>
+        <v>27521.06460704727</v>
       </c>
       <c r="F21">
-        <v>21837.67830142761</v>
+        <v>21592.01252005204</v>
       </c>
       <c r="G21">
-        <v>3997.738687637455</v>
+        <v>3364.050803104551</v>
       </c>
       <c r="H21">
-        <v>26961.00641705353</v>
+        <v>26960.90653315068</v>
       </c>
       <c r="I21">
-        <v>109384</v>
+        <v>107614</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>79769.00101944398</v>
+        <v>76315.17481171887</v>
       </c>
       <c r="O21">
-        <v>45311.32556461984</v>
+        <v>41684.21238661327</v>
       </c>
       <c r="P21">
-        <v>25835.41698906507</v>
+        <v>24956.06332315659</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.036393542544</v>
+        <v>3910.123621846717</v>
       </c>
       <c r="B22">
-        <v>1818.629594783145</v>
+        <v>1813.525927355251</v>
       </c>
       <c r="C22">
-        <v>9724.667004288027</v>
+        <v>9596.865067655446</v>
       </c>
       <c r="D22">
-        <v>2350.843442856367</v>
+        <v>2249.791563584736</v>
       </c>
       <c r="E22">
-        <v>4443.608651130079</v>
+        <v>4217.933322707379</v>
       </c>
       <c r="F22">
-        <v>2835.875954994983</v>
+        <v>2936.053524568844</v>
       </c>
       <c r="G22">
-        <v>487.463162894573</v>
+        <v>492.3898498861122</v>
       </c>
       <c r="H22">
-        <v>3910.036393542544</v>
+        <v>3910.123621846717</v>
       </c>
       <c r="I22">
-        <v>16424</v>
+        <v>15207</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11543.29659907117</v>
+        <v>11410.3909950107</v>
       </c>
       <c r="O22">
-        <v>6794.452093986446</v>
+        <v>6467.724886292114</v>
       </c>
       <c r="P22">
-        <v>3323.339117889556</v>
+        <v>3428.443374454956</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>106.0348975808958</v>
+        <v>106.0889297279898</v>
       </c>
       <c r="B23">
-        <v>46.16496993330354</v>
+        <v>44.43318811319143</v>
       </c>
       <c r="C23">
-        <v>256.5350138319885</v>
+        <v>231.3145584171252</v>
       </c>
       <c r="D23">
-        <v>59.5159797140732</v>
+        <v>58.84107289256097</v>
       </c>
       <c r="E23">
-        <v>114.7823839367404</v>
+        <v>113.0465684388899</v>
       </c>
       <c r="F23">
-        <v>74.88896767501699</v>
+        <v>71.21006935929853</v>
       </c>
       <c r="G23">
-        <v>13.03900053427853</v>
+        <v>11.57506671644696</v>
       </c>
       <c r="H23">
-        <v>106.0348975808958</v>
+        <v>106.0889297279898</v>
       </c>
       <c r="I23">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>302.6999837652921</v>
+        <v>275.7477465303167</v>
       </c>
       <c r="O23">
-        <v>174.2983636508136</v>
+        <v>171.8876413314509</v>
       </c>
       <c r="P23">
-        <v>87.92796820929551</v>
+        <v>82.7851360757455</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.07017562681</v>
+        <v>15661.0900687979</v>
       </c>
       <c r="B24">
-        <v>7068.847121315254</v>
+        <v>7077.691049618507</v>
       </c>
       <c r="C24">
-        <v>38237.58764317831</v>
+        <v>39167.68085611141</v>
       </c>
       <c r="D24">
-        <v>7994.041342833362</v>
+        <v>9051.308796631851</v>
       </c>
       <c r="E24">
-        <v>15742.57093217616</v>
+        <v>17364.69105468206</v>
       </c>
       <c r="F24">
-        <v>11286.08005954061</v>
+        <v>11997.71377238</v>
       </c>
       <c r="G24">
-        <v>1999.711465725911</v>
+        <v>2174.768144707277</v>
       </c>
       <c r="H24">
-        <v>15661.07017562681</v>
+        <v>15661.0900687979</v>
       </c>
       <c r="I24">
-        <v>63852</v>
+        <v>62813</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>45306.43476449356</v>
+        <v>46245.37190572992</v>
       </c>
       <c r="O24">
-        <v>23736.61227500952</v>
+        <v>26415.99985131391</v>
       </c>
       <c r="P24">
-        <v>13285.79152526652</v>
+        <v>14172.48191708727</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6607.042181634378</v>
+        <v>6607.083835274884</v>
       </c>
       <c r="B25">
-        <v>1447.801890425983</v>
+        <v>1412.492822400731</v>
       </c>
       <c r="C25">
-        <v>16956.79629854514</v>
+        <v>17723.42191765078</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10305.18251217682</v>
+        <v>11255.72133319935</v>
       </c>
       <c r="F25">
-        <v>5425.353542266347</v>
+        <v>6323.146193948979</v>
       </c>
       <c r="G25">
-        <v>320.2666700646704</v>
+        <v>321.9215630235383</v>
       </c>
       <c r="H25">
-        <v>6607.042181634378</v>
+        <v>6607.083835274884</v>
       </c>
       <c r="I25">
-        <v>31619</v>
+        <v>30785</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18404.59818897112</v>
+        <v>19135.91474005151</v>
       </c>
       <c r="O25">
-        <v>10305.18251217682</v>
+        <v>11255.72133319935</v>
       </c>
       <c r="P25">
-        <v>5745.620212331018</v>
+        <v>6645.067756972518</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.02076986843</v>
+        <v>22423.0957699176</v>
       </c>
       <c r="B26">
-        <v>4736.049735663715</v>
+        <v>4990.400683715494</v>
       </c>
       <c r="C26">
-        <v>58726.69578131185</v>
+        <v>58415.74194401403</v>
       </c>
       <c r="D26">
-        <v>8091.133052443384</v>
+        <v>8427.787711076719</v>
       </c>
       <c r="E26">
-        <v>28168.41398301817</v>
+        <v>29202.90122992794</v>
       </c>
       <c r="F26">
-        <v>17415.48429962374</v>
+        <v>18464.50338022807</v>
       </c>
       <c r="G26">
-        <v>983.9379534713083</v>
+        <v>949.9004068994415</v>
       </c>
       <c r="H26">
-        <v>22423.02076986843</v>
+        <v>22423.0957699176</v>
       </c>
       <c r="I26">
-        <v>104267</v>
+        <v>99846</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>63462.74551697556</v>
+        <v>63406.14262772953</v>
       </c>
       <c r="O26">
-        <v>36259.54703546155</v>
+        <v>37630.68894100466</v>
       </c>
       <c r="P26">
-        <v>18399.42225309504</v>
+        <v>19414.40378712751</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29148.06474805065</v>
+        <v>29147.94388932262</v>
       </c>
       <c r="B27">
-        <v>6041.818646848959</v>
+        <v>6654.053488518</v>
       </c>
       <c r="C27">
-        <v>74467.85683519011</v>
+        <v>78670.17131304064</v>
       </c>
       <c r="D27">
-        <v>12211.78035652349</v>
+        <v>11447.17722851358</v>
       </c>
       <c r="E27">
-        <v>41219.95863780722</v>
+        <v>38559.30337526638</v>
       </c>
       <c r="F27">
-        <v>24190.91786169086</v>
+        <v>24928.25348586094</v>
       </c>
       <c r="G27">
-        <v>1249.812737475717</v>
+        <v>1409.338218952002</v>
       </c>
       <c r="H27">
-        <v>29148.06474805065</v>
+        <v>29147.94388932262</v>
       </c>
       <c r="I27">
-        <v>128253</v>
+        <v>136152</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>80509.67548203906</v>
+        <v>85324.22480155864</v>
       </c>
       <c r="O27">
-        <v>53431.73899433071</v>
+        <v>50006.48060377996</v>
       </c>
       <c r="P27">
-        <v>25440.73059916658</v>
+        <v>26337.59170481295</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.08303872928</v>
+        <v>30698.10891432794</v>
       </c>
       <c r="B28">
-        <v>6708.517544704718</v>
+        <v>6377.228658750036</v>
       </c>
       <c r="C28">
-        <v>80141.66897530748</v>
+        <v>81569.99131643602</v>
       </c>
       <c r="D28">
-        <v>11406.17191276361</v>
+        <v>11167.11479329477</v>
       </c>
       <c r="E28">
-        <v>39150.97393312262</v>
+        <v>38494.35987004522</v>
       </c>
       <c r="F28">
-        <v>27305.26139493101</v>
+        <v>27636.41320715297</v>
       </c>
       <c r="G28">
-        <v>1433.559915149194</v>
+        <v>1409.138465522394</v>
       </c>
       <c r="H28">
-        <v>30698.08303872928</v>
+        <v>30698.10891432794</v>
       </c>
       <c r="I28">
-        <v>143789</v>
+        <v>135622</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>86850.1865200122</v>
+        <v>87947.21997518606</v>
       </c>
       <c r="O28">
-        <v>50557.14584588623</v>
+        <v>49661.47466333999</v>
       </c>
       <c r="P28">
-        <v>28738.82131008021</v>
+        <v>29045.55167267536</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81900.92399987664</v>
+        <v>81900.93208870493</v>
       </c>
       <c r="B29">
-        <v>18372.6020605581</v>
+        <v>17101.02840653524</v>
       </c>
       <c r="C29">
-        <v>221338.9127097729</v>
+        <v>211844.7464152019</v>
       </c>
       <c r="D29">
-        <v>31672.1338443384</v>
+        <v>31630.98644711216</v>
       </c>
       <c r="E29">
-        <v>105742.7942065025</v>
+        <v>104020.0525086683</v>
       </c>
       <c r="F29">
-        <v>70757.08164951488</v>
+        <v>67318.15369310073</v>
       </c>
       <c r="G29">
-        <v>3812.434710870255</v>
+        <v>3414.725275457739</v>
       </c>
       <c r="H29">
-        <v>81900.92399987664</v>
+        <v>81900.93208870493</v>
       </c>
       <c r="I29">
-        <v>370283</v>
+        <v>360234</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>239711.514770331</v>
+        <v>228945.7748217372</v>
       </c>
       <c r="O29">
-        <v>137414.9280508409</v>
+        <v>135651.0389557804</v>
       </c>
       <c r="P29">
-        <v>74569.51636038513</v>
+        <v>70732.87896855846</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65572.06886728406</v>
+        <v>65571.96077533113</v>
       </c>
       <c r="B30">
-        <v>14412.68097025765</v>
+        <v>14415.94019602682</v>
       </c>
       <c r="C30">
-        <v>172615.0026938455</v>
+        <v>172162.0618294345</v>
       </c>
       <c r="D30">
-        <v>24640.61282375022</v>
+        <v>24993.94152847311</v>
       </c>
       <c r="E30">
-        <v>81010.2204667106</v>
+        <v>81396.20170903122</v>
       </c>
       <c r="F30">
-        <v>49664.57495195792</v>
+        <v>61724.10035781706</v>
       </c>
       <c r="G30">
-        <v>2750.868250852412</v>
+        <v>2940.478829767385</v>
       </c>
       <c r="H30">
-        <v>65572.06886728406</v>
+        <v>65571.96077533113</v>
       </c>
       <c r="I30">
-        <v>297432</v>
+        <v>286101</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>187027.6836641032</v>
+        <v>186578.0020254613</v>
       </c>
       <c r="O30">
-        <v>105650.8332904608</v>
+        <v>106390.1432375043</v>
       </c>
       <c r="P30">
-        <v>52415.44320281033</v>
+        <v>64664.57918758445</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.98424558896</v>
+        <v>90327.95038064467</v>
       </c>
       <c r="B31">
-        <v>18622.24719749093</v>
+        <v>18942.78686544188</v>
       </c>
       <c r="C31">
-        <v>232784.4903111962</v>
+        <v>237482.6482181893</v>
       </c>
       <c r="D31">
-        <v>31501.70823294255</v>
+        <v>33757.83033506284</v>
       </c>
       <c r="E31">
-        <v>110330.1365908527</v>
+        <v>109452.5785876314</v>
       </c>
       <c r="F31">
-        <v>73591.27787911537</v>
+        <v>77632.96574218554</v>
       </c>
       <c r="G31">
-        <v>3425.991931135718</v>
+        <v>3859.370893046933</v>
       </c>
       <c r="H31">
-        <v>90327.98424558896</v>
+        <v>90327.95038064467</v>
       </c>
       <c r="I31">
-        <v>430476</v>
+        <v>398609</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>251406.7375086871</v>
+        <v>256425.4350836312</v>
       </c>
       <c r="O31">
-        <v>141831.8448237952</v>
+        <v>143210.4089226942</v>
       </c>
       <c r="P31">
-        <v>77017.26981025109</v>
+        <v>81492.33663523247</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.95052661163</v>
+        <v>36451.08229699896</v>
       </c>
       <c r="B32">
-        <v>7681.457020125677</v>
+        <v>7983.175110034755</v>
       </c>
       <c r="C32">
-        <v>96912.92122975539</v>
+        <v>96077.55228669944</v>
       </c>
       <c r="D32">
-        <v>13964.02856703854</v>
+        <v>14004.31861413659</v>
       </c>
       <c r="E32">
-        <v>45955.33780604776</v>
+        <v>45342.22556301167</v>
       </c>
       <c r="F32">
-        <v>30592.98991314078</v>
+        <v>32023.88825160061</v>
       </c>
       <c r="G32">
-        <v>1388.011964279657</v>
+        <v>1923.408466174114</v>
       </c>
       <c r="H32">
-        <v>36450.95052661163</v>
+        <v>36451.08229699896</v>
       </c>
       <c r="I32">
-        <v>166936</v>
+        <v>168890</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>104594.3782498811</v>
+        <v>104060.7273967342</v>
       </c>
       <c r="O32">
-        <v>59919.36637308629</v>
+        <v>59346.54417714826</v>
       </c>
       <c r="P32">
-        <v>31981.00187742044</v>
+        <v>33947.29671777472</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.89672473531</v>
+        <v>22120.89309975016</v>
       </c>
       <c r="B33">
-        <v>4610.629872972188</v>
+        <v>4712.812910977787</v>
       </c>
       <c r="C33">
-        <v>57275.79087692028</v>
+        <v>57010.03669728975</v>
       </c>
       <c r="D33">
-        <v>8506.299697779143</v>
+        <v>8124.618682737111</v>
       </c>
       <c r="E33">
-        <v>28345.40374071325</v>
+        <v>28356.01956527725</v>
       </c>
       <c r="F33">
-        <v>18788.20588258016</v>
+        <v>18551.77218287946</v>
       </c>
       <c r="G33">
-        <v>916.9921604017698</v>
+        <v>1045.959873436465</v>
       </c>
       <c r="H33">
-        <v>22120.89672473531</v>
+        <v>22120.89309975016</v>
       </c>
       <c r="I33">
-        <v>102303</v>
+        <v>102590</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>61886.42074989247</v>
+        <v>61722.84960826753</v>
       </c>
       <c r="O33">
-        <v>36851.7034384924</v>
+        <v>36480.63824801436</v>
       </c>
       <c r="P33">
-        <v>19705.19804298193</v>
+        <v>19597.73205631592</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.89954659639</v>
+        <v>26863.88913059632</v>
       </c>
       <c r="B34">
-        <v>5885.909638200611</v>
+        <v>5840.036480443137</v>
       </c>
       <c r="C34">
-        <v>72059.83500113666</v>
+        <v>70503.76455813031</v>
       </c>
       <c r="D34">
-        <v>9388.039915564306</v>
+        <v>10362.41347173048</v>
       </c>
       <c r="E34">
-        <v>31297.95227961757</v>
+        <v>35093.34445889031</v>
       </c>
       <c r="F34">
-        <v>21686.75552118446</v>
+        <v>22952.94942141773</v>
       </c>
       <c r="G34">
-        <v>1090.47193150651</v>
+        <v>1070.638725846767</v>
       </c>
       <c r="H34">
-        <v>26863.89954659639</v>
+        <v>26863.88913059632</v>
       </c>
       <c r="I34">
-        <v>124212</v>
+        <v>116369</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>77945.74463933727</v>
+        <v>76343.80103857344</v>
       </c>
       <c r="O34">
-        <v>40685.99219518188</v>
+        <v>45455.75793062079</v>
       </c>
       <c r="P34">
-        <v>22777.22745269097</v>
+        <v>24023.58814726449</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0515694836524</v>
+        <v>454.1000715831087</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1270.468827902284</v>
+        <v>1302.4789250587</v>
       </c>
       <c r="D35">
-        <v>171.8888019034277</v>
+        <v>159.8688639038784</v>
       </c>
       <c r="E35">
-        <v>587.4352241256171</v>
+        <v>547.9397791493215</v>
       </c>
       <c r="F35">
-        <v>413.1595884691456</v>
+        <v>380.5939855277076</v>
       </c>
       <c r="G35">
-        <v>22.30019883456112</v>
+        <v>19.10016015749566</v>
       </c>
       <c r="H35">
-        <v>454.0515694836524</v>
+        <v>454.1000715831087</v>
       </c>
       <c r="I35">
-        <v>2184</v>
+        <v>2163</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1270.468827902284</v>
+        <v>1302.4789250587</v>
       </c>
       <c r="O35">
-        <v>759.3240260290447</v>
+        <v>707.8086430531998</v>
       </c>
       <c r="P35">
-        <v>435.4597873037067</v>
+        <v>399.6941456852033</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9752342825224</v>
+        <v>504.9814004190059</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1429.232108597489</v>
+        <v>1458.8157278532</v>
       </c>
       <c r="D36">
-        <v>191.0786195773048</v>
+        <v>197.1579563835582</v>
       </c>
       <c r="E36">
-        <v>624.2447751725903</v>
+        <v>684.5821157975211</v>
       </c>
       <c r="F36">
-        <v>452.3773358499445</v>
+        <v>421.7154775529104</v>
       </c>
       <c r="G36">
-        <v>24.7213245233978</v>
+        <v>23.28525711835776</v>
       </c>
       <c r="H36">
-        <v>504.9752342825224</v>
+        <v>504.9814004190059</v>
       </c>
       <c r="I36">
-        <v>2610</v>
+        <v>2364</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1429.232108597489</v>
+        <v>1458.8157278532</v>
       </c>
       <c r="O36">
-        <v>815.3233947498951</v>
+        <v>881.7400721810793</v>
       </c>
       <c r="P36">
-        <v>477.0986603733423</v>
+        <v>445.0007346712682</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.00519965963</v>
+        <v>11108.06221037229</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>31064.87974102587</v>
+        <v>31563.85276821506</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>17681.32428189031</v>
+        <v>18534.20876042601</v>
       </c>
       <c r="F37">
-        <v>3528.079110898801</v>
+        <v>3496.644117418212</v>
       </c>
       <c r="G37">
-        <v>6600.919290393465</v>
+        <v>6271.141717372509</v>
       </c>
       <c r="H37">
-        <v>11108.00519965963</v>
+        <v>11108.06221037229</v>
       </c>
       <c r="I37">
-        <v>56851</v>
+        <v>54624</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31064.87974102587</v>
+        <v>31563.85276821506</v>
       </c>
       <c r="O37">
-        <v>17681.32428189031</v>
+        <v>18534.20876042601</v>
       </c>
       <c r="P37">
-        <v>10128.99840129227</v>
+        <v>9767.78583479072</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.989379988935</v>
+        <v>1090.996315852095</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3053.113040609167</v>
+        <v>3002.110338046412</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1687.331585547596</v>
+        <v>1742.982507233361</v>
       </c>
       <c r="F38">
-        <v>340.1037995585692</v>
+        <v>341.4149279186025</v>
       </c>
       <c r="G38">
-        <v>631.5593746265786</v>
+        <v>655.9032873024958</v>
       </c>
       <c r="H38">
-        <v>1090.989379988935</v>
+        <v>1090.996315852095</v>
       </c>
       <c r="I38">
-        <v>5339</v>
+        <v>5538</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3053.113040609167</v>
+        <v>3002.110338046412</v>
       </c>
       <c r="O38">
-        <v>1687.331585547596</v>
+        <v>1742.982507233361</v>
       </c>
       <c r="P38">
-        <v>971.6631741851478</v>
+        <v>997.3182152210983</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9200141193</v>
+        <v>153571.9456979105</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>442666.7102160384</v>
+        <v>430228.5105728452</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>252085.2340206258</v>
+        <v>248502.9881614361</v>
       </c>
       <c r="F39">
-        <v>45599.41022418175</v>
+        <v>47922.69655161201</v>
       </c>
       <c r="G39">
-        <v>88260.11958667707</v>
+        <v>92106.81613128269</v>
       </c>
       <c r="H39">
-        <v>153571.9200141193</v>
+        <v>153571.9456979105</v>
       </c>
       <c r="I39">
-        <v>768429</v>
+        <v>751809</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>442666.7102160384</v>
+        <v>430228.5105728452</v>
       </c>
       <c r="O39">
-        <v>252085.2340206258</v>
+        <v>248502.9881614361</v>
       </c>
       <c r="P39">
-        <v>133859.5298108588</v>
+        <v>140029.5126828947</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152869.0805855907</v>
+        <v>152868.9307628514</v>
       </c>
       <c r="B40">
-        <v>26097.57346739509</v>
+        <v>28872.68003332974</v>
       </c>
       <c r="C40">
-        <v>412760.3062660684</v>
+        <v>418659.3030028819</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>251915.3246730269</v>
+        <v>245635.88854823</v>
       </c>
       <c r="F40">
-        <v>45966.60899819052</v>
+        <v>49532.35274166431</v>
       </c>
       <c r="G40">
-        <v>86380.26757580419</v>
+        <v>96583.08738122029</v>
       </c>
       <c r="H40">
-        <v>152869.0805855907</v>
+        <v>152868.9307628514</v>
       </c>
       <c r="I40">
-        <v>789165</v>
+        <v>816125</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>438857.8797334635</v>
+        <v>447531.9830362117</v>
       </c>
       <c r="O40">
-        <v>251915.3246730269</v>
+        <v>245635.88854823</v>
       </c>
       <c r="P40">
-        <v>132346.8765739947</v>
+        <v>146115.4401228846</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339432.9877600419</v>
+        <v>339432.9766592103</v>
       </c>
       <c r="B41">
-        <v>60915.54371647841</v>
+        <v>58781.30886676777</v>
       </c>
       <c r="C41">
-        <v>892731.4856077966</v>
+        <v>924041.5060982227</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>535868.6188414397</v>
+        <v>526880.5669482865</v>
       </c>
       <c r="F41">
-        <v>111808.8704724279</v>
+        <v>106109.7911680826</v>
       </c>
       <c r="G41">
-        <v>199581.1573446357</v>
+        <v>199819.2023997109</v>
       </c>
       <c r="H41">
-        <v>339432.9877600419</v>
+        <v>339432.9766592103</v>
       </c>
       <c r="I41">
-        <v>1690122</v>
+        <v>1619803</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>953647.029324275</v>
+        <v>982822.8149649905</v>
       </c>
       <c r="O41">
-        <v>535868.6188414397</v>
+        <v>526880.5669482865</v>
       </c>
       <c r="P41">
-        <v>311390.0278170636</v>
+        <v>305928.9935677935</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245458.9251324264</v>
+        <v>245459.0260672717</v>
       </c>
       <c r="B42">
-        <v>44365.78466050412</v>
+        <v>45471.43105521935</v>
       </c>
       <c r="C42">
-        <v>643108.3422503732</v>
+        <v>673959.193508564</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>386637.5292908209</v>
+        <v>399696.8716891048</v>
       </c>
       <c r="F42">
-        <v>75723.73563217062</v>
+        <v>76357.08215446162</v>
       </c>
       <c r="G42">
-        <v>138006.8897455086</v>
+        <v>136501.8835274899</v>
       </c>
       <c r="H42">
-        <v>245458.9251324264</v>
+        <v>245459.0260672717</v>
       </c>
       <c r="I42">
-        <v>1163329</v>
+        <v>1078706</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>687474.1269108773</v>
+        <v>719430.6245637834</v>
       </c>
       <c r="O42">
-        <v>386637.5292908209</v>
+        <v>399696.8716891048</v>
       </c>
       <c r="P42">
-        <v>213730.6253776792</v>
+        <v>212858.9656819515</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367627.0779266137</v>
+        <v>367627.0166535318</v>
       </c>
       <c r="B43">
-        <v>59199.33686142791</v>
+        <v>66553.576084056</v>
       </c>
       <c r="C43">
-        <v>963976.8194151154</v>
+        <v>954364.2455453464</v>
       </c>
       <c r="D43">
-        <v>78633.96434083502</v>
+        <v>78604.96190584522</v>
       </c>
       <c r="E43">
-        <v>509869.4950759076</v>
+        <v>518053.5955734924</v>
       </c>
       <c r="F43">
-        <v>122849.5389649847</v>
+        <v>115924.8959694987</v>
       </c>
       <c r="G43">
-        <v>215948.1842394572</v>
+        <v>211592.7674680447</v>
       </c>
       <c r="H43">
-        <v>367627.0779266137</v>
+        <v>367627.0166535318</v>
       </c>
       <c r="I43">
-        <v>1844436</v>
+        <v>1773936</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1023176.156276543</v>
+        <v>1020917.821629403</v>
       </c>
       <c r="O43">
-        <v>588503.4594167427</v>
+        <v>596658.5574793377</v>
       </c>
       <c r="P43">
-        <v>338797.7232044419</v>
+        <v>327517.6634375433</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470397.0879645433</v>
+        <v>470396.9610748839</v>
       </c>
       <c r="B44">
-        <v>84709.04675402396</v>
+        <v>78588.41366064614</v>
       </c>
       <c r="C44">
-        <v>1307096.863844741</v>
+        <v>1220813.117494416</v>
       </c>
       <c r="D44">
-        <v>109997.7405447999</v>
+        <v>102748.5077217252</v>
       </c>
       <c r="E44">
-        <v>744257.6106083975</v>
+        <v>670346.9548346024</v>
       </c>
       <c r="F44">
-        <v>146169.837710318</v>
+        <v>158173.0448044941</v>
       </c>
       <c r="G44">
-        <v>273120.3052987427</v>
+        <v>278150.9087720704</v>
       </c>
       <c r="H44">
-        <v>470397.0879645433</v>
+        <v>470396.9610748839</v>
       </c>
       <c r="I44">
-        <v>2262697</v>
+        <v>2259625</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1391805.910598765</v>
+        <v>1299401.531155063</v>
       </c>
       <c r="O44">
-        <v>854255.3511531975</v>
+        <v>773095.4625563277</v>
       </c>
       <c r="P44">
-        <v>419290.1430090606</v>
+        <v>436323.9535765646</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9871781051</v>
+        <v>307102.987194059</v>
       </c>
       <c r="B45">
-        <v>56158.10830103532</v>
+        <v>53260.60538717103</v>
       </c>
       <c r="C45">
-        <v>817418.9653565601</v>
+        <v>810844.496412087</v>
       </c>
       <c r="D45">
-        <v>59391.6929711777</v>
+        <v>66175.81745654733</v>
       </c>
       <c r="E45">
-        <v>409555.20416348</v>
+        <v>448172.7748454259</v>
       </c>
       <c r="F45">
-        <v>94878.36905638878</v>
+        <v>91950.13672912354</v>
       </c>
       <c r="G45">
-        <v>173515.5799670854</v>
+        <v>170515.2653117537</v>
       </c>
       <c r="H45">
-        <v>307102.9871781051</v>
+        <v>307102.987194059</v>
       </c>
       <c r="I45">
-        <v>1500766</v>
+        <v>1481763</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>873577.0736575954</v>
+        <v>864105.101799258</v>
       </c>
       <c r="O45">
-        <v>468946.8971346577</v>
+        <v>514348.5923019733</v>
       </c>
       <c r="P45">
-        <v>268393.9490234742</v>
+        <v>262465.4020408773</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9289509248</v>
+        <v>327914.9708480272</v>
       </c>
       <c r="B46">
-        <v>57043.84891458047</v>
+        <v>58785.02936383851</v>
       </c>
       <c r="C46">
-        <v>874359.1948653985</v>
+        <v>897034.1534036291</v>
       </c>
       <c r="D46">
-        <v>71538.06303862816</v>
+        <v>72479.03976994543</v>
       </c>
       <c r="E46">
-        <v>479834.4540039999</v>
+        <v>472600.5791636845</v>
       </c>
       <c r="F46">
-        <v>102791.4521178533</v>
+        <v>101963.2442708315</v>
       </c>
       <c r="G46">
-        <v>190493.5760603186</v>
+        <v>187236.6833253744</v>
       </c>
       <c r="H46">
-        <v>327914.9289509248</v>
+        <v>327914.9708480272</v>
       </c>
       <c r="I46">
-        <v>1547203</v>
+        <v>1611041</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>931403.0437799789</v>
+        <v>955819.1827674676</v>
       </c>
       <c r="O46">
-        <v>551372.5170426281</v>
+        <v>545079.6189336299</v>
       </c>
       <c r="P46">
-        <v>293285.0281781719</v>
+        <v>289199.9275962059</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.0106008833</v>
+        <v>659114.099895443</v>
       </c>
       <c r="B47">
-        <v>116592.4303085391</v>
+        <v>108925.4016444973</v>
       </c>
       <c r="C47">
-        <v>1757511.218663213</v>
+        <v>1823062.136910261</v>
       </c>
       <c r="D47">
-        <v>146597.3802069823</v>
+        <v>159934.2855949389</v>
       </c>
       <c r="E47">
-        <v>990879.8620757646</v>
+        <v>1021618.427431755</v>
       </c>
       <c r="F47">
-        <v>196444.5764379739</v>
+        <v>191151.1807819518</v>
       </c>
       <c r="G47">
-        <v>356308.252623653</v>
+        <v>359526.22848481</v>
       </c>
       <c r="H47">
-        <v>659114.0106008833</v>
+        <v>659114.099895443</v>
       </c>
       <c r="I47">
-        <v>3326334</v>
+        <v>3090529</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1874103.648971752</v>
+        <v>1931987.538554759</v>
       </c>
       <c r="O47">
-        <v>1137477.242282747</v>
+        <v>1181552.713026694</v>
       </c>
       <c r="P47">
-        <v>552752.8290616269</v>
+        <v>550677.4092667617</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.9327793586</v>
+        <v>195931.092563514</v>
       </c>
       <c r="B48">
-        <v>34628.58464726919</v>
+        <v>34909.88699055404</v>
       </c>
       <c r="C48">
-        <v>534623.2997395053</v>
+        <v>515679.5642871201</v>
       </c>
       <c r="D48">
-        <v>38602.73896018768</v>
+        <v>43693.20497362848</v>
       </c>
       <c r="E48">
-        <v>259736.1601928653</v>
+        <v>298506.5836745361</v>
       </c>
       <c r="F48">
-        <v>66297.85806891484</v>
+        <v>66670.03499879672</v>
       </c>
       <c r="G48">
-        <v>119830.6968811768</v>
+        <v>126495.1070172695</v>
       </c>
       <c r="H48">
-        <v>195930.9327793586</v>
+        <v>195931.092563514</v>
       </c>
       <c r="I48">
-        <v>900501</v>
+        <v>905947</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>569251.8843867745</v>
+        <v>550589.4512776741</v>
       </c>
       <c r="O48">
-        <v>298338.899153053</v>
+        <v>342199.7886481645</v>
       </c>
       <c r="P48">
-        <v>186128.5549500916</v>
+        <v>193165.1420160662</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9100599116</v>
+        <v>174399.9710150496</v>
       </c>
       <c r="B49">
-        <v>29551.65138296375</v>
+        <v>32751.08068934027</v>
       </c>
       <c r="C49">
-        <v>476545.0575170204</v>
+        <v>476033.8255779616</v>
       </c>
       <c r="D49">
-        <v>37644.95355974946</v>
+        <v>39081.67386660808</v>
       </c>
       <c r="E49">
-        <v>253665.9991505846</v>
+        <v>249332.8124721968</v>
       </c>
       <c r="F49">
-        <v>56402.35555783068</v>
+        <v>53151.68022846317</v>
       </c>
       <c r="G49">
-        <v>98814.86304784883</v>
+        <v>96685.86666679457</v>
       </c>
       <c r="H49">
-        <v>174399.9100599116</v>
+        <v>174399.9710150496</v>
       </c>
       <c r="I49">
-        <v>904456</v>
+        <v>852310</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>506096.7088999841</v>
+        <v>508784.9062673018</v>
       </c>
       <c r="O49">
-        <v>291310.952710334</v>
+        <v>288414.4863388049</v>
       </c>
       <c r="P49">
-        <v>155217.2186056795</v>
+        <v>149837.5468952577</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.05614432493</v>
+        <v>60248.09790318543</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>164877.1689486906</v>
+        <v>169701.0122546368</v>
       </c>
       <c r="D50">
-        <v>13126.86661796874</v>
+        <v>13814.81930047319</v>
       </c>
       <c r="E50">
-        <v>82748.35637455845</v>
+        <v>93385.10874015346</v>
       </c>
       <c r="F50">
-        <v>20491.96745551183</v>
+        <v>18353.54868497388</v>
       </c>
       <c r="G50">
-        <v>38948.08763666222</v>
+        <v>33960.31692045491</v>
       </c>
       <c r="H50">
-        <v>60248.05614432493</v>
+        <v>60248.09790318543</v>
       </c>
       <c r="I50">
-        <v>280067</v>
+        <v>293720</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>164877.1689486906</v>
+        <v>169701.0122546368</v>
       </c>
       <c r="O50">
-        <v>95875.2229925272</v>
+        <v>107199.9280406267</v>
       </c>
       <c r="P50">
-        <v>59440.05509217405</v>
+        <v>52313.86560542879</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.047018521937</v>
+        <v>8460.904139757644</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23448.59225916943</v>
+        <v>23749.43719415729</v>
       </c>
       <c r="D51">
-        <v>1827.162100245503</v>
+        <v>1746.558086552552</v>
       </c>
       <c r="E51">
-        <v>11978.14834639307</v>
+        <v>11973.09960495293</v>
       </c>
       <c r="F51">
-        <v>2711.254536967093</v>
+        <v>2559.289061373171</v>
       </c>
       <c r="G51">
-        <v>4955.393380686742</v>
+        <v>4668.777025686954</v>
       </c>
       <c r="H51">
-        <v>8461.047018521937</v>
+        <v>8460.904139757644</v>
       </c>
       <c r="I51">
-        <v>42805</v>
+        <v>39833</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23448.59225916943</v>
+        <v>23749.43719415729</v>
       </c>
       <c r="O51">
-        <v>13805.31044663857</v>
+        <v>13719.65769150548</v>
       </c>
       <c r="P51">
-        <v>7666.647917653834</v>
+        <v>7228.066087060124</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2463.033916594931</v>
+        <v>2462.91691333848</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7445.952657283044</v>
+        <v>7716.694616586561</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1136.528590724477</v>
+        <v>1195.117222560352</v>
       </c>
       <c r="F52">
-        <v>5.325985369860229</v>
+        <v>0.8509954493485322</v>
       </c>
       <c r="G52">
-        <v>7.232255554038183</v>
+        <v>8.048278876143867</v>
       </c>
       <c r="H52">
-        <v>2463.033916594931</v>
+        <v>2462.91691333848</v>
       </c>
       <c r="I52">
-        <v>11974</v>
+        <v>11559</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7445.952657283044</v>
+        <v>7716.694616586561</v>
       </c>
       <c r="O52">
-        <v>1136.528590724477</v>
+        <v>1195.117222560352</v>
       </c>
       <c r="P52">
-        <v>12.55824092389841</v>
+        <v>8.899274325492399</v>
       </c>
       <c r="Q52">
-        <v>18.62700662291675</v>
+        <v>11.09530761951164</v>
       </c>
       <c r="R52">
-        <v>60.53860253373423</v>
+        <v>36.32486032460147</v>
       </c>
       <c r="S52">
-        <v>79.16560915665097</v>
+        <v>47.42016794411312</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3703.918400853295</v>
+        <v>3704.040538425594</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11391.77876886127</v>
+        <v>11153.2257183721</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1656.348426485406</v>
+        <v>1560.159490408917</v>
       </c>
       <c r="F53">
-        <v>0.7829891136913277</v>
+        <v>2.123424637507784</v>
       </c>
       <c r="G53">
-        <v>10.7383924202417</v>
+        <v>3.747834635797076</v>
       </c>
       <c r="H53">
-        <v>3703.918400853295</v>
+        <v>3704.040538425594</v>
       </c>
       <c r="I53">
-        <v>16175</v>
+        <v>16648</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11391.77876886127</v>
+        <v>11153.2257183721</v>
       </c>
       <c r="O53">
-        <v>1656.348426485406</v>
+        <v>1560.159490408917</v>
       </c>
       <c r="P53">
-        <v>11.52138153393303</v>
+        <v>5.87125927330486</v>
       </c>
       <c r="Q53">
-        <v>29.72575257745192</v>
+        <v>25.80164858547698</v>
       </c>
       <c r="R53">
-        <v>58.2124039234497</v>
+        <v>67.52359605207214</v>
       </c>
       <c r="S53">
-        <v>87.93815650090161</v>
+        <v>93.32524463754912</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.8819554612</v>
+        <v>169753.8794846698</v>
       </c>
       <c r="B54">
-        <v>41081.11237511736</v>
+        <v>43335.18657422406</v>
       </c>
       <c r="C54">
-        <v>505387.1217087435</v>
+        <v>512507.0368011388</v>
       </c>
       <c r="D54">
-        <v>6486.171545611218</v>
+        <v>5269.9386407696</v>
       </c>
       <c r="E54">
-        <v>78371.0367478336</v>
+        <v>75063.87220962878</v>
       </c>
       <c r="F54">
-        <v>277.6918790328438</v>
+        <v>117.3854329314961</v>
       </c>
       <c r="G54">
-        <v>952.9829085055284</v>
+        <v>341.7551094704612</v>
       </c>
       <c r="H54">
-        <v>169753.8819554612</v>
+        <v>169753.8794846698</v>
       </c>
       <c r="I54">
-        <v>718223</v>
+        <v>702207</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>546468.2340838608</v>
+        <v>555842.2233753629</v>
       </c>
       <c r="O54">
-        <v>84857.20829344481</v>
+        <v>80333.81085039838</v>
       </c>
       <c r="P54">
-        <v>1230.674787538372</v>
+        <v>459.1405424019573</v>
       </c>
       <c r="Q54">
-        <v>635.2455062160825</v>
+        <v>1609.136863016546</v>
       </c>
       <c r="R54">
-        <v>3204.676657684299</v>
+        <v>4951.332143164221</v>
       </c>
       <c r="S54">
-        <v>3839.922163900382</v>
+        <v>6560.469006180767</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301001.0869784965</v>
+        <v>301000.888200283</v>
       </c>
       <c r="B55">
-        <v>70424.68096134624</v>
+        <v>72849.6735022912</v>
       </c>
       <c r="C55">
-        <v>880855.4716204066</v>
+        <v>870807.7813619558</v>
       </c>
       <c r="D55">
-        <v>10373.32441017198</v>
+        <v>9773.483600291593</v>
       </c>
       <c r="E55">
-        <v>123708.3683021434</v>
+        <v>120882.2080775187</v>
       </c>
       <c r="F55">
-        <v>16.03373745272685</v>
+        <v>9.45762207060757</v>
       </c>
       <c r="G55">
-        <v>639.1048985589957</v>
+        <v>452.9558677610617</v>
       </c>
       <c r="H55">
-        <v>301001.0869784965</v>
+        <v>301000.888200283</v>
       </c>
       <c r="I55">
-        <v>1231002</v>
+        <v>1242242</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>951280.1525817529</v>
+        <v>943657.454864247</v>
       </c>
       <c r="O55">
-        <v>134081.6927123154</v>
+        <v>130655.6916778103</v>
       </c>
       <c r="P55">
-        <v>655.1386360117226</v>
+        <v>462.4134898316692</v>
       </c>
       <c r="Q55">
-        <v>3044.840143415248</v>
+        <v>1906.905889938205</v>
       </c>
       <c r="R55">
-        <v>6462.369585080068</v>
+        <v>4502.877523471761</v>
       </c>
       <c r="S55">
-        <v>9507.209728495316</v>
+        <v>6409.783413409966</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485904.0246877881</v>
+        <v>485903.94579287</v>
       </c>
       <c r="B56">
-        <v>125496.9405963472</v>
+        <v>119947.4361056729</v>
       </c>
       <c r="C56">
-        <v>1447860.072551017</v>
+        <v>1448382.589068915</v>
       </c>
       <c r="D56">
-        <v>14259.28366315925</v>
+        <v>15519.08376056479</v>
       </c>
       <c r="E56">
-        <v>206050.3998317549</v>
+        <v>215415.3093027288</v>
       </c>
       <c r="F56">
-        <v>240.2059250808237</v>
+        <v>294.8845003678174</v>
       </c>
       <c r="G56">
-        <v>3008.827795068</v>
+        <v>2308.357603134546</v>
       </c>
       <c r="H56">
-        <v>485904.0246877881</v>
+        <v>485903.94579287</v>
       </c>
       <c r="I56">
-        <v>2138956</v>
+        <v>2082152</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1573357.013147364</v>
+        <v>1568330.025174588</v>
       </c>
       <c r="O56">
-        <v>220309.6834949142</v>
+        <v>230934.3930632936</v>
       </c>
       <c r="P56">
-        <v>3249.033720148824</v>
+        <v>2603.242103502364</v>
       </c>
       <c r="Q56">
-        <v>2488.272280101578</v>
+        <v>3155.455507994087</v>
       </c>
       <c r="R56">
-        <v>6966.43895234244</v>
+        <v>10360.79126476953</v>
       </c>
       <c r="S56">
-        <v>9454.711232444017</v>
+        <v>13516.24677276362</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.0546564433</v>
+        <v>757271.085376972</v>
       </c>
       <c r="B57">
-        <v>178077.8085363874</v>
+        <v>176289.0068271676</v>
       </c>
       <c r="C57">
-        <v>2094631.114870005</v>
+        <v>2112171.033616615</v>
       </c>
       <c r="D57">
-        <v>23353.90504717863</v>
+        <v>25877.45815925637</v>
       </c>
       <c r="E57">
-        <v>334331.0499332089</v>
+        <v>321119.1502255891</v>
       </c>
       <c r="F57">
-        <v>456.3306003364701</v>
+        <v>133.1542557118789</v>
       </c>
       <c r="G57">
-        <v>2632.016177515364</v>
+        <v>1477.382521810086</v>
       </c>
       <c r="H57">
-        <v>757271.0546564433</v>
+        <v>757271.085376972</v>
       </c>
       <c r="I57">
-        <v>3247462</v>
+        <v>3179441</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2272708.923406392</v>
+        <v>2288460.040443782</v>
       </c>
       <c r="O57">
-        <v>357684.9549803875</v>
+        <v>346996.6083848455</v>
       </c>
       <c r="P57">
-        <v>3088.346777851834</v>
+        <v>1610.536777521965</v>
       </c>
       <c r="Q57">
-        <v>3237.109703095342</v>
+        <v>4828.333906779883</v>
       </c>
       <c r="R57">
-        <v>12232.37808539298</v>
+        <v>17798.17976409744</v>
       </c>
       <c r="S57">
-        <v>15469.48778848832</v>
+        <v>22626.51367087733</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.0070323458</v>
+        <v>651329.0995531388</v>
       </c>
       <c r="B58">
-        <v>160312.2924746709</v>
+        <v>167153.6472681924</v>
       </c>
       <c r="C58">
-        <v>1944278.593423834</v>
+        <v>1941458.683985988</v>
       </c>
       <c r="D58">
-        <v>21633.97930242287</v>
+        <v>23418.20301321667</v>
       </c>
       <c r="E58">
-        <v>271024.5817503121</v>
+        <v>303751.6242712537</v>
       </c>
       <c r="F58">
-        <v>434.9612932667791</v>
+        <v>489.2049090980008</v>
       </c>
       <c r="G58">
-        <v>2060.183821954969</v>
+        <v>1349.842136632046</v>
       </c>
       <c r="H58">
-        <v>651329.0070323458</v>
+        <v>651329.0995531388</v>
       </c>
       <c r="I58">
-        <v>2775888</v>
+        <v>2768829</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2104590.885898505</v>
+        <v>2108612.33125418</v>
       </c>
       <c r="O58">
-        <v>292658.5610527349</v>
+        <v>327169.8272844704</v>
       </c>
       <c r="P58">
-        <v>2495.145115221748</v>
+        <v>1839.047045730047</v>
       </c>
       <c r="Q58">
-        <v>4053.915127349406</v>
+        <v>4651.126947783547</v>
       </c>
       <c r="R58">
-        <v>11648.89522280761</v>
+        <v>14345.27331865682</v>
       </c>
       <c r="S58">
-        <v>15702.81035015701</v>
+        <v>18996.40026644037</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889111.9365123401</v>
+        <v>889111.925865773</v>
       </c>
       <c r="B59">
-        <v>216749.9821948703</v>
+        <v>205785.6058938744</v>
       </c>
       <c r="C59">
-        <v>2492384.900141534</v>
+        <v>2603223.045555828</v>
       </c>
       <c r="D59">
-        <v>31900.51161342035</v>
+        <v>30195.81969863075</v>
       </c>
       <c r="E59">
-        <v>392471.7726569857</v>
+        <v>406497.8116522889</v>
       </c>
       <c r="F59">
-        <v>702.9958919962522</v>
+        <v>396.4685616544456</v>
       </c>
       <c r="G59">
-        <v>2324.087328378367</v>
+        <v>3770.869454557131</v>
       </c>
       <c r="H59">
-        <v>889111.9365123401</v>
+        <v>889111.925865773</v>
       </c>
       <c r="I59">
-        <v>3646601</v>
+        <v>3889023</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2709134.882336405</v>
+        <v>2809008.651449703</v>
       </c>
       <c r="O59">
-        <v>424372.284270406</v>
+        <v>436693.6313509197</v>
       </c>
       <c r="P59">
-        <v>3027.08322037462</v>
+        <v>4167.338016211576</v>
       </c>
       <c r="Q59">
-        <v>3957.773172118495</v>
+        <v>6784.064544256952</v>
       </c>
       <c r="R59">
-        <v>14367.99283800064</v>
+        <v>17780.33309054744</v>
       </c>
       <c r="S59">
-        <v>18325.76601011913</v>
+        <v>24564.39763480439</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9007312441</v>
+        <v>465364.9934788792</v>
       </c>
       <c r="B60">
-        <v>111789.5232438906</v>
+        <v>113054.9920537614</v>
       </c>
       <c r="C60">
-        <v>1307172.567109856</v>
+        <v>1414668.689774016</v>
       </c>
       <c r="D60">
-        <v>15502.96975153719</v>
+        <v>15896.0121358212</v>
       </c>
       <c r="E60">
-        <v>201692.3483871633</v>
+        <v>215098.0297050382</v>
       </c>
       <c r="F60">
-        <v>209.79397722276</v>
+        <v>56.1472558505475</v>
       </c>
       <c r="G60">
-        <v>1021.082432430763</v>
+        <v>675.1642323497991</v>
       </c>
       <c r="H60">
-        <v>465364.9007312441</v>
+        <v>465364.9934788792</v>
       </c>
       <c r="I60">
-        <v>2027763</v>
+        <v>1893478</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1418962.090353746</v>
+        <v>1527723.681827777</v>
       </c>
       <c r="O60">
-        <v>217195.3181387005</v>
+        <v>230994.0418408594</v>
       </c>
       <c r="P60">
-        <v>1230.876409653523</v>
+        <v>731.3114882003466</v>
       </c>
       <c r="Q60">
-        <v>2916.044897454671</v>
+        <v>2361.659703790953</v>
       </c>
       <c r="R60">
-        <v>11513.49762558811</v>
+        <v>10405.28051861932</v>
       </c>
       <c r="S60">
-        <v>14429.54252304278</v>
+        <v>12766.94022241027</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9934018881</v>
+        <v>340624.1222318459</v>
       </c>
       <c r="B61">
-        <v>83080.70277803521</v>
+        <v>80251.16640556599</v>
       </c>
       <c r="C61">
-        <v>978407.7978484555</v>
+        <v>982051.3770499837</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>162682.550867816</v>
+        <v>164035.0001902333</v>
       </c>
       <c r="F61">
-        <v>145.1373147802018</v>
+        <v>522.4906948415559</v>
       </c>
       <c r="G61">
-        <v>382.8942706126817</v>
+        <v>1845.128043112494</v>
       </c>
       <c r="H61">
-        <v>340623.9934018881</v>
+        <v>340624.1222318459</v>
       </c>
       <c r="I61">
-        <v>1411581</v>
+        <v>1391059</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1061488.500626491</v>
+        <v>1062302.54345555</v>
       </c>
       <c r="O61">
-        <v>162682.550867816</v>
+        <v>164035.0001902333</v>
       </c>
       <c r="P61">
-        <v>528.0315853928835</v>
+        <v>2367.61873795405</v>
       </c>
       <c r="Q61">
-        <v>2217.480968625303</v>
+        <v>2290.602064572504</v>
       </c>
       <c r="R61">
-        <v>7966.20216619021</v>
+        <v>6797.919784410165</v>
       </c>
       <c r="S61">
-        <v>10183.68313481551</v>
+        <v>9088.521848982669</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.1107050352</v>
+        <v>469691.0070291035</v>
       </c>
       <c r="B62">
-        <v>113368.8953476979</v>
+        <v>113439.2801152407</v>
       </c>
       <c r="C62">
-        <v>1409033.840335431</v>
+        <v>1351886.876441144</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>211007.8312336479</v>
+        <v>225949.1122076615</v>
       </c>
       <c r="F62">
-        <v>174.3690644487964</v>
+        <v>429.6358378720479</v>
       </c>
       <c r="G62">
-        <v>875.0963120517625</v>
+        <v>956.3211830261574</v>
       </c>
       <c r="H62">
-        <v>469691.1107050352</v>
+        <v>469691.0070291035</v>
       </c>
       <c r="I62">
-        <v>1873635</v>
+        <v>1960735</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1522402.735683129</v>
+        <v>1465326.156556384</v>
       </c>
       <c r="O62">
-        <v>211007.8312336479</v>
+        <v>225949.1122076615</v>
       </c>
       <c r="P62">
-        <v>1049.465376500559</v>
+        <v>1385.957020898205</v>
       </c>
       <c r="Q62">
-        <v>3937.394593624817</v>
+        <v>3890.794841455216</v>
       </c>
       <c r="R62">
-        <v>8057.398813204545</v>
+        <v>11312.12655981395</v>
       </c>
       <c r="S62">
-        <v>11994.79340682936</v>
+        <v>15202.92140126917</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20456.95779837183</v>
+        <v>20456.93791407219</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>64487.73429518093</v>
+        <v>64639.68319630605</v>
       </c>
       <c r="D63">
-        <v>690.7252635516048</v>
+        <v>632.0537876399322</v>
       </c>
       <c r="E63">
-        <v>8741.549689242926</v>
+        <v>8008.785524336271</v>
       </c>
       <c r="F63">
-        <v>9.311588046900475</v>
+        <v>8.701712389725092</v>
       </c>
       <c r="G63">
-        <v>62.45874722993271</v>
+        <v>45.58140878411039</v>
       </c>
       <c r="H63">
-        <v>20456.95779837183</v>
+        <v>20456.93791407219</v>
       </c>
       <c r="I63">
-        <v>98504</v>
+        <v>93809</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>64487.73429518093</v>
+        <v>64639.68319630605</v>
       </c>
       <c r="O63">
-        <v>9432.274952794531</v>
+        <v>8640.839311976204</v>
       </c>
       <c r="P63">
-        <v>71.77033527683318</v>
+        <v>54.28312117383548</v>
       </c>
       <c r="Q63">
-        <v>166.0581203123815</v>
+        <v>162.203173077869</v>
       </c>
       <c r="R63">
-        <v>364.1933956223709</v>
+        <v>446.6096767477828</v>
       </c>
       <c r="S63">
-        <v>530.2515159347524</v>
+        <v>608.8128498256518</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20630.88998175356</v>
+        <v>20631.08306761508</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>64158.75815520884</v>
+        <v>63936.54595619566</v>
       </c>
       <c r="D64">
-        <v>737.4236077954346</v>
+        <v>717.9855890607415</v>
       </c>
       <c r="E64">
-        <v>10336.66176498909</v>
+        <v>9299.685243432348</v>
       </c>
       <c r="F64">
-        <v>13.58353518082087</v>
+        <v>13.56230223944335</v>
       </c>
       <c r="G64">
-        <v>69.99998659993925</v>
+        <v>29.71736846034739</v>
       </c>
       <c r="H64">
-        <v>20630.88998175356</v>
+        <v>20631.08306761508</v>
       </c>
       <c r="I64">
-        <v>92565</v>
+        <v>96600</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>64158.75815520884</v>
+        <v>63936.54595619566</v>
       </c>
       <c r="O64">
-        <v>11074.08537278452</v>
+        <v>10017.67083249309</v>
       </c>
       <c r="P64">
-        <v>83.58352178076012</v>
+        <v>43.27967069979074</v>
       </c>
       <c r="Q64">
-        <v>136.0968489182541</v>
+        <v>143.474937679754</v>
       </c>
       <c r="R64">
-        <v>430.963249782187</v>
+        <v>458.2746435803795</v>
       </c>
       <c r="S64">
-        <v>567.0600987004411</v>
+        <v>601.7495812601335</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.899554879308</v>
+        <v>1767.905774126032</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5416.162949865915</v>
+        <v>5579.485256274639</v>
       </c>
       <c r="D65">
-        <v>56.65375616117201</v>
+        <v>62.06046371071466</v>
       </c>
       <c r="E65">
-        <v>737.7322554072466</v>
+        <v>759.1285792416555</v>
       </c>
       <c r="F65">
-        <v>0.5613982553301892</v>
+        <v>2.184978973990612</v>
       </c>
       <c r="G65">
-        <v>4.159144234362819</v>
+        <v>9.896714458533671</v>
       </c>
       <c r="H65">
-        <v>1767.899554879308</v>
+        <v>1767.905774126032</v>
       </c>
       <c r="I65">
-        <v>7921</v>
+        <v>8349</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5416.162949865915</v>
+        <v>5579.485256274639</v>
       </c>
       <c r="O65">
-        <v>794.3860115684187</v>
+        <v>821.1890429523702</v>
       </c>
       <c r="P65">
-        <v>4.720542489693009</v>
+        <v>12.08169343252428</v>
       </c>
       <c r="Q65">
-        <v>14.73992269809861</v>
+        <v>15.43983392445878</v>
       </c>
       <c r="R65">
-        <v>32.29264198456531</v>
+        <v>44.25616938079757</v>
       </c>
       <c r="S65">
-        <v>47.03256468266392</v>
+        <v>59.69600330525634</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>122.9945965565948</v>
+        <v>123.0178198944417</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>348.6559518219648</v>
+        <v>400.519714195992</v>
       </c>
       <c r="D66">
-        <v>2.914382517161099</v>
+        <v>3.606201600215524</v>
       </c>
       <c r="E66">
-        <v>45.52801220193935</v>
+        <v>54.31491121735047</v>
       </c>
       <c r="F66">
-        <v>0.2393891444435728</v>
+        <v>0.0291581441748975</v>
       </c>
       <c r="G66">
-        <v>0.9608476783783295</v>
+        <v>0.2648529009973504</v>
       </c>
       <c r="H66">
-        <v>122.9945965565948</v>
+        <v>123.0178198944417</v>
       </c>
       <c r="I66">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>348.6559518219648</v>
+        <v>400.519714195992</v>
       </c>
       <c r="O66">
-        <v>48.44239471910046</v>
+        <v>57.92111281756599</v>
       </c>
       <c r="P66">
-        <v>1.200236822821902</v>
+        <v>0.2940110451722479</v>
       </c>
       <c r="Q66">
-        <v>0.6224654853640913</v>
+        <v>1.698138472766037</v>
       </c>
       <c r="R66">
-        <v>1.955117275612301</v>
+        <v>3.330095135989788</v>
       </c>
       <c r="S66">
-        <v>2.577582760976392</v>
+        <v>5.028233608755826</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>202.9618140496332</v>
+        <v>202.8943258716319</v>
       </c>
       <c r="B67">
-        <v>43.87406962455761</v>
+        <v>42.52287094415171</v>
       </c>
       <c r="C67">
-        <v>320.7505488491436</v>
+        <v>329.4783320805408</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>108.6271428014002</v>
+        <v>123.5222695294736</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>202.9618140496332</v>
+        <v>202.8943258716319</v>
       </c>
       <c r="I67">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>364.6246184737012</v>
+        <v>372.0012030246925</v>
       </c>
       <c r="O67">
-        <v>108.6271428014002</v>
+        <v>123.5222695294736</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.525462163624988</v>
+        <v>1.70987452516055</v>
       </c>
       <c r="R67">
-        <v>10.31192299119811</v>
+        <v>14.34753303199442</v>
       </c>
       <c r="S67">
-        <v>11.83738515482309</v>
+        <v>16.05740755715497</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.8807814784177</v>
+        <v>261.8797729722078</v>
       </c>
       <c r="B68">
-        <v>64.33204470169432</v>
+        <v>55.84225044749972</v>
       </c>
       <c r="C68">
-        <v>423.8301849295398</v>
+        <v>406.4506235398275</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>148.0411031425166</v>
+        <v>168.5539310838745</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.8807814784177</v>
+        <v>261.8797729722078</v>
       </c>
       <c r="I68">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>488.1622296312341</v>
+        <v>462.2928739873273</v>
       </c>
       <c r="O68">
-        <v>148.0411031425166</v>
+        <v>168.5539310838745</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.795200806750253</v>
+        <v>2.678156480098236</v>
       </c>
       <c r="R68">
-        <v>14.1912718781333</v>
+        <v>17.82142409984069</v>
       </c>
       <c r="S68">
-        <v>15.98647268488356</v>
+        <v>20.49958057993893</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.111499510736</v>
+        <v>2405.959707608589</v>
       </c>
       <c r="B69">
-        <v>545.6594676883416</v>
+        <v>548.7693296430682</v>
       </c>
       <c r="C69">
-        <v>3914.083001718853</v>
+        <v>3928.520738863471</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1363.895074232779</v>
+        <v>1522.966439122807</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.111499510736</v>
+        <v>2405.959707608589</v>
       </c>
       <c r="I69">
-        <v>8053</v>
+        <v>7780</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4459.742469407195</v>
+        <v>4477.29006850654</v>
       </c>
       <c r="O69">
-        <v>1363.895074232779</v>
+        <v>1522.966439122807</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>16.36330147959827</v>
+        <v>16.37721455377058</v>
       </c>
       <c r="R69">
-        <v>134.8481758797704</v>
+        <v>172.7799178605179</v>
       </c>
       <c r="S69">
-        <v>151.2114773593687</v>
+        <v>189.1571324142885</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.939513366171</v>
+        <v>1502.935822233562</v>
       </c>
       <c r="B70">
-        <v>336.8156471596483</v>
+        <v>345.1918403782171</v>
       </c>
       <c r="C70">
-        <v>2410.710972236155</v>
+        <v>2482.437605971845</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>920.840102535578</v>
+        <v>865.9313296016416</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.939513366171</v>
+        <v>1502.935822233562</v>
       </c>
       <c r="I70">
-        <v>4791</v>
+        <v>4994</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2747.526619395803</v>
+        <v>2827.629446350062</v>
       </c>
       <c r="O70">
-        <v>920.840102535578</v>
+        <v>865.9313296016416</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>10.84473726179561</v>
+        <v>13.93928277315368</v>
       </c>
       <c r="R70">
-        <v>97.58863493459936</v>
+        <v>106.6322864965444</v>
       </c>
       <c r="S70">
-        <v>108.433372196395</v>
+        <v>120.5715692696981</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19900.89797156417</v>
+        <v>19901.0956812148</v>
       </c>
       <c r="B71">
-        <v>4483.214244388465</v>
+        <v>4602.776445107937</v>
       </c>
       <c r="C71">
-        <v>32169.08123874893</v>
+        <v>31420.74755821902</v>
       </c>
       <c r="D71">
-        <v>689.169425618624</v>
+        <v>755.4156076142435</v>
       </c>
       <c r="E71">
-        <v>12034.18910087557</v>
+        <v>11206.07143214183</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19900.89797156417</v>
+        <v>19901.0956812148</v>
       </c>
       <c r="I71">
-        <v>61552</v>
+        <v>63167</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36652.29548313739</v>
+        <v>36023.52400332695</v>
       </c>
       <c r="O71">
-        <v>12723.35852649419</v>
+        <v>11961.48703975608</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>163.1875808099473</v>
+        <v>117.7571354906618</v>
       </c>
       <c r="R71">
-        <v>1462.540280371445</v>
+        <v>1226.048340715474</v>
       </c>
       <c r="S71">
-        <v>1625.727861181392</v>
+        <v>1343.805476206136</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41981.95848233776</v>
+        <v>41981.96065055065</v>
       </c>
       <c r="B72">
-        <v>9145.322459861818</v>
+        <v>9799.283648864262</v>
       </c>
       <c r="C72">
-        <v>64752.35395349075</v>
+        <v>67485.32510173606</v>
       </c>
       <c r="D72">
-        <v>1452.778035026733</v>
+        <v>1360.725678412364</v>
       </c>
       <c r="E72">
-        <v>24085.37316977603</v>
+        <v>23719.19785640938</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41981.95848233776</v>
+        <v>41981.96065055065</v>
       </c>
       <c r="I72">
-        <v>134254</v>
+        <v>132510</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>73897.67641335257</v>
+        <v>77284.60875060032</v>
       </c>
       <c r="O72">
-        <v>25538.15120480276</v>
+        <v>25079.92353482175</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>309.1955065507803</v>
+        <v>376.6084798425472</v>
       </c>
       <c r="R72">
-        <v>2358.211119002398</v>
+        <v>2836.039240187612</v>
       </c>
       <c r="S72">
-        <v>2667.406625553179</v>
+        <v>3212.647720030159</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.96692125568</v>
+        <v>44204.92222846001</v>
       </c>
       <c r="B73">
-        <v>10519.67308794869</v>
+        <v>10795.04386083515</v>
       </c>
       <c r="C73">
-        <v>71652.0351100933</v>
+        <v>71163.90007531259</v>
       </c>
       <c r="D73">
-        <v>1795.522593685787</v>
+        <v>1710.845738130473</v>
       </c>
       <c r="E73">
-        <v>27852.80299928726</v>
+        <v>25775.52145231655</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.96692125568</v>
+        <v>44204.92222846001</v>
       </c>
       <c r="I73">
-        <v>145652</v>
+        <v>136385</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>82171.70819804199</v>
+        <v>81958.94393614773</v>
       </c>
       <c r="O73">
-        <v>29648.32559297305</v>
+        <v>27486.36719044702</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>343.5333163346393</v>
+        <v>325.4342142455319</v>
       </c>
       <c r="R73">
-        <v>2929.39647801727</v>
+        <v>2630.343725169571</v>
       </c>
       <c r="S73">
-        <v>3272.929794351909</v>
+        <v>2955.777939415102</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.98453946866</v>
+        <v>78745.98427083483</v>
       </c>
       <c r="B74">
-        <v>17595.81123205313</v>
+        <v>18702.77863054148</v>
       </c>
       <c r="C74">
-        <v>123674.455907995</v>
+        <v>130118.0019246617</v>
       </c>
       <c r="D74">
-        <v>2553.250758223092</v>
+        <v>2798.769181140246</v>
       </c>
       <c r="E74">
-        <v>45858.15835404271</v>
+        <v>49601.12013556432</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.98453946866</v>
+        <v>78745.98427083483</v>
       </c>
       <c r="I74">
-        <v>247121</v>
+        <v>255693</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>141270.2671400481</v>
+        <v>148820.7805552032</v>
       </c>
       <c r="O74">
-        <v>48411.4091122658</v>
+        <v>52399.88931670457</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>388.8820755037115</v>
+        <v>603.4338595637174</v>
       </c>
       <c r="R74">
-        <v>4736.379730141395</v>
+        <v>5287.643175524834</v>
       </c>
       <c r="S74">
-        <v>5125.261805645107</v>
+        <v>5891.077035088551</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.02577408163</v>
+        <v>38059.9954116754</v>
       </c>
       <c r="B75">
-        <v>8493.498194372518</v>
+        <v>8464.010566785481</v>
       </c>
       <c r="C75">
-        <v>61024.79787862727</v>
+        <v>61165.33216841881</v>
       </c>
       <c r="D75">
-        <v>1255.592724445735</v>
+        <v>1284.085093211185</v>
       </c>
       <c r="E75">
-        <v>18728.87604099281</v>
+        <v>22944.91315505623</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.02577408163</v>
+        <v>38059.9954116754</v>
       </c>
       <c r="I75">
-        <v>125772</v>
+        <v>123406</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>69518.29607299979</v>
+        <v>69629.34273520429</v>
       </c>
       <c r="O75">
-        <v>19984.46876543854</v>
+        <v>24228.99824826742</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>320.769511994131</v>
+        <v>315.7616775578649</v>
       </c>
       <c r="R75">
-        <v>2743.296666562368</v>
+        <v>2108.722979528923</v>
       </c>
       <c r="S75">
-        <v>3064.066178556499</v>
+        <v>2424.484657086788</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.92430652671</v>
+        <v>79350.87812081678</v>
       </c>
       <c r="B76">
-        <v>18191.47240031113</v>
+        <v>18741.96336757554</v>
       </c>
       <c r="C76">
-        <v>128584.0674031233</v>
+        <v>127547.4480794128</v>
       </c>
       <c r="D76">
-        <v>2772.679757773227</v>
+        <v>2386.861152594563</v>
       </c>
       <c r="E76">
-        <v>46420.75462317932</v>
+        <v>43930.49489405301</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.92430652671</v>
+        <v>79350.87812081678</v>
       </c>
       <c r="I76">
-        <v>249291</v>
+        <v>258707</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>146775.5398034345</v>
+        <v>146289.4114469883</v>
       </c>
       <c r="O76">
-        <v>49193.43438095255</v>
+        <v>46317.35604664757</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>461.7329148418821</v>
+        <v>415.7240049981944</v>
       </c>
       <c r="R76">
-        <v>5453.584034185801</v>
+        <v>4478.401323947323</v>
       </c>
       <c r="S76">
-        <v>5915.316949027683</v>
+        <v>4894.125328945517</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45068.12509417169</v>
+        <v>45067.95375295803</v>
       </c>
       <c r="B77">
-        <v>10779.07837942438</v>
+        <v>10108.13980151311</v>
       </c>
       <c r="C77">
-        <v>75213.16533982918</v>
+        <v>70086.49853054114</v>
       </c>
       <c r="D77">
-        <v>1545.268847138828</v>
+        <v>1686.229501657711</v>
       </c>
       <c r="E77">
-        <v>26567.66676757731</v>
+        <v>24253.96114631663</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45068.12509417169</v>
+        <v>45067.95375295803</v>
       </c>
       <c r="I77">
-        <v>146314</v>
+        <v>145998</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>85992.24371925356</v>
+        <v>80194.63833205425</v>
       </c>
       <c r="O77">
-        <v>28112.93561471614</v>
+        <v>25940.19064797434</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>370.3583883075986</v>
+        <v>459.086264949486</v>
       </c>
       <c r="R77">
-        <v>2682.519814985838</v>
+        <v>3973.269946944243</v>
       </c>
       <c r="S77">
-        <v>3052.878203293436</v>
+        <v>4432.356211893729</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.13882718579</v>
+        <v>14295.1545648916</v>
       </c>
       <c r="B78">
-        <v>3384.706064137131</v>
+        <v>3213.023413715192</v>
       </c>
       <c r="C78">
-        <v>23103.2880358935</v>
+        <v>23154.95792191292</v>
       </c>
       <c r="D78">
-        <v>471.2530037920509</v>
+        <v>613.3883718473508</v>
       </c>
       <c r="E78">
-        <v>8591.977844510804</v>
+        <v>9644.612073264316</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.13882718579</v>
+        <v>14295.1545648916</v>
       </c>
       <c r="I78">
-        <v>45160</v>
+        <v>45655</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26487.99410003064</v>
+        <v>26367.98133562812</v>
       </c>
       <c r="O78">
-        <v>9063.230848302856</v>
+        <v>10258.00044511167</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>105.8079009579408</v>
+        <v>92.97390892502524</v>
       </c>
       <c r="R78">
-        <v>962.2027247008089</v>
+        <v>922.2476203695759</v>
       </c>
       <c r="S78">
-        <v>1068.01062565875</v>
+        <v>1015.221529294601</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.15700098857</v>
+        <v>27738.13173923452</v>
       </c>
       <c r="B79">
-        <v>6436.115969643835</v>
+        <v>6376.280731272054</v>
       </c>
       <c r="C79">
-        <v>44960.28171424412</v>
+        <v>44406.12154737572</v>
       </c>
       <c r="D79">
-        <v>781.800215848112</v>
+        <v>927.4050096284869</v>
       </c>
       <c r="E79">
-        <v>15624.00651137062</v>
+        <v>17760.30928313731</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.15700098857</v>
+        <v>27738.13173923452</v>
       </c>
       <c r="I79">
-        <v>87652</v>
+        <v>86257</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>51396.39768388795</v>
+        <v>50782.40227864777</v>
       </c>
       <c r="O79">
-        <v>16405.80672721873</v>
+        <v>18687.7142927658</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>204.5764837915181</v>
+        <v>193.8765690362975</v>
       </c>
       <c r="R79">
-        <v>1674.767661445646</v>
+        <v>1851.724820195357</v>
       </c>
       <c r="S79">
-        <v>1879.344145237164</v>
+        <v>2045.601389231654</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.057284666768</v>
+        <v>2820.081558420804</v>
       </c>
       <c r="B80">
-        <v>664.8219059802649</v>
+        <v>627.5807327975992</v>
       </c>
       <c r="C80">
-        <v>4506.803982164999</v>
+        <v>4550.833796786544</v>
       </c>
       <c r="D80">
-        <v>110.3431240526705</v>
+        <v>93.68183801520873</v>
       </c>
       <c r="E80">
-        <v>1888.566394040288</v>
+        <v>1642.35989004194</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.057284666768</v>
+        <v>2820.081558420804</v>
       </c>
       <c r="I80">
-        <v>8946</v>
+        <v>8623</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5171.625888145264</v>
+        <v>5178.414529584143</v>
       </c>
       <c r="O80">
-        <v>1998.909518092958</v>
+        <v>1736.041728057148</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>22.00301559072217</v>
+        <v>19.64113984521205</v>
       </c>
       <c r="R80">
-        <v>218.1838612656516</v>
+        <v>162.0065080093837</v>
       </c>
       <c r="S80">
-        <v>240.1868768563738</v>
+        <v>181.6476478545958</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.859662879352</v>
+        <v>3590.84367244961</v>
       </c>
       <c r="B81">
-        <v>868.1981612615041</v>
+        <v>803.9994020075503</v>
       </c>
       <c r="C81">
-        <v>5950.073038564034</v>
+        <v>5643.825996477594</v>
       </c>
       <c r="D81">
-        <v>119.6848737728747</v>
+        <v>126.9670462024667</v>
       </c>
       <c r="E81">
-        <v>1993.172664086092</v>
+        <v>2090.546706914747</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.859662879352</v>
+        <v>3590.84367244961</v>
       </c>
       <c r="I81">
-        <v>11113</v>
+        <v>11268</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6818.271199825538</v>
+        <v>6447.825398485144</v>
       </c>
       <c r="O81">
-        <v>2112.857537858967</v>
+        <v>2217.513753117214</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>25.13356864388061</v>
+        <v>38.10728221269704</v>
       </c>
       <c r="R81">
-        <v>249.1249593293682</v>
+        <v>277.8666537145896</v>
       </c>
       <c r="S81">
-        <v>274.2585279732488</v>
+        <v>315.9739359272867</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1156.091999980831</v>
+        <v>1155.903504221998</v>
       </c>
       <c r="B82">
-        <v>240.3817947832362</v>
+        <v>259.5129262708962</v>
       </c>
       <c r="C82">
-        <v>1873.470315937792</v>
+        <v>1848.941578486331</v>
       </c>
       <c r="D82">
-        <v>42.79598325949361</v>
+        <v>48.43010886932318</v>
       </c>
       <c r="E82">
-        <v>674.3168780894197</v>
+        <v>764.1413320747182</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1156.091999980831</v>
+        <v>1155.903504221998</v>
       </c>
       <c r="I82">
-        <v>3666</v>
+        <v>3787</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2113.852110721028</v>
+        <v>2108.454504757227</v>
       </c>
       <c r="O82">
-        <v>717.1128613489133</v>
+        <v>812.5714409440413</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>9.251773196612779</v>
+        <v>10.09010577751953</v>
       </c>
       <c r="R82">
-        <v>77.21983072818284</v>
+        <v>75.53733828745757</v>
       </c>
       <c r="S82">
-        <v>86.47160392479562</v>
+        <v>85.6274440649771</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.86936561398</v>
+        <v>13237.89909078495</v>
       </c>
       <c r="B83">
-        <v>1749.501764330247</v>
+        <v>1967.825873355115</v>
       </c>
       <c r="C83">
-        <v>22272.77762567942</v>
+        <v>21842.46002277192</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>8549.972813230328</v>
+        <v>7639.880951327013</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.86936561398</v>
+        <v>13237.89909078495</v>
       </c>
       <c r="I83">
-        <v>43419</v>
+        <v>39885</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24022.27939000967</v>
+        <v>23810.28589612704</v>
       </c>
       <c r="O83">
-        <v>8549.972813230328</v>
+        <v>7639.880951327013</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>6.699956389379977</v>
+        <v>9.706209586707475</v>
       </c>
       <c r="R83">
-        <v>956.0794143301102</v>
+        <v>1034.081942764577</v>
       </c>
       <c r="S83">
-        <v>962.7793707194902</v>
+        <v>1043.788152351284</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6787.847023368945</v>
+        <v>6788.134491349834</v>
       </c>
       <c r="B84">
-        <v>1026.564314523828</v>
+        <v>922.8015038203087</v>
       </c>
       <c r="C84">
-        <v>11268.11350583977</v>
+        <v>11573.58895364077</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4091.439134814176</v>
+        <v>4404.693224025708</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6787.847023368945</v>
+        <v>6788.134491349834</v>
       </c>
       <c r="I84">
-        <v>21535</v>
+        <v>21018</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12294.6778203636</v>
+        <v>12496.39045746108</v>
       </c>
       <c r="O84">
-        <v>4091.439134814176</v>
+        <v>4404.693224025708</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>5.569003436401024</v>
+        <v>4.218406700171498</v>
       </c>
       <c r="R84">
-        <v>557.9105340060954</v>
+        <v>554.8904367795949</v>
       </c>
       <c r="S84">
-        <v>563.4795374424964</v>
+        <v>559.1088434797664</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1507.91876305016</v>
+        <v>1507.924614565356</v>
       </c>
       <c r="B85">
-        <v>233.295649269703</v>
+        <v>233.9520607225179</v>
       </c>
       <c r="C85">
-        <v>2574.434754101867</v>
+        <v>2463.13569020431</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>829.3797408804555</v>
+        <v>1015.415340646654</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1507.91876305016</v>
+        <v>1507.924614565356</v>
       </c>
       <c r="I85">
-        <v>5036</v>
+        <v>4810</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2807.73040337157</v>
+        <v>2697.087750926828</v>
       </c>
       <c r="O85">
-        <v>829.3797408804555</v>
+        <v>1015.415340646654</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.048953733496176</v>
+        <v>1.104221632505615</v>
       </c>
       <c r="R85">
-        <v>106.8143978143642</v>
+        <v>124.7756925356295</v>
       </c>
       <c r="S85">
-        <v>107.8633515478603</v>
+        <v>125.8799141681351</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.84825102354</v>
+        <v>25213.11839655732</v>
       </c>
       <c r="B86">
-        <v>3474.218554024441</v>
+        <v>3697.9482064043</v>
       </c>
       <c r="C86">
-        <v>41035.503958038</v>
+        <v>41654.23761108098</v>
       </c>
       <c r="D86">
-        <v>669.3172348982118</v>
+        <v>665.2530801322457</v>
       </c>
       <c r="E86">
-        <v>14523.68218845571</v>
+        <v>13647.86261585567</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.84825102354</v>
+        <v>25213.11839655732</v>
       </c>
       <c r="I86">
-        <v>78608</v>
+        <v>79398</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>44509.72251206244</v>
+        <v>45352.18581748528</v>
       </c>
       <c r="O86">
-        <v>15192.99942335392</v>
+        <v>14313.11569598792</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>25.51398317827604</v>
+        <v>31.38753676950748</v>
       </c>
       <c r="R86">
-        <v>1896.534740882761</v>
+        <v>2023.354489407911</v>
       </c>
       <c r="S86">
-        <v>1922.048724061037</v>
+        <v>2054.742026177418</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.098855924854</v>
+        <v>6443.975881999738</v>
       </c>
       <c r="B87">
-        <v>944.8552820783132</v>
+        <v>919.8267864824439</v>
       </c>
       <c r="C87">
-        <v>10703.56951219324</v>
+        <v>11089.98532638609</v>
       </c>
       <c r="D87">
-        <v>145.2843887418759</v>
+        <v>159.0935880334943</v>
       </c>
       <c r="E87">
-        <v>3498.749356587793</v>
+        <v>3835.092283984925</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.098855924854</v>
+        <v>6443.975881999738</v>
       </c>
       <c r="I87">
-        <v>20283</v>
+        <v>20048</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11648.42479427156</v>
+        <v>12009.81211286854</v>
       </c>
       <c r="O87">
-        <v>3644.033745329668</v>
+        <v>3994.185872018419</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>5.801162446117351</v>
+        <v>3.834096870654433</v>
       </c>
       <c r="R87">
-        <v>484.3801464140682</v>
+        <v>480.705096937587</v>
       </c>
       <c r="S87">
-        <v>490.1813088601856</v>
+        <v>484.5391938082415</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.06842704352</v>
+        <v>55704.1303491356</v>
       </c>
       <c r="B88">
-        <v>8117.752880115144</v>
+        <v>7443.630796395734</v>
       </c>
       <c r="C88">
-        <v>92538.67849793981</v>
+        <v>93371.92923412964</v>
       </c>
       <c r="D88">
-        <v>1544.908946700421</v>
+        <v>1377.074551130412</v>
       </c>
       <c r="E88">
-        <v>36947.79993278707</v>
+        <v>32076.87353170413</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.06842704352</v>
+        <v>55704.1303491356</v>
       </c>
       <c r="I88">
-        <v>174396</v>
+        <v>179860</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>100656.431378055</v>
+        <v>100815.5600305254</v>
       </c>
       <c r="O88">
-        <v>38492.70887948749</v>
+        <v>33453.94808283454</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>48.34250486854153</v>
+        <v>26.97548032198856</v>
       </c>
       <c r="R88">
-        <v>4235.098920845124</v>
+        <v>3910.926280065165</v>
       </c>
       <c r="S88">
-        <v>4283.441425713665</v>
+        <v>3937.901760387154</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201455.9967030527</v>
+        <v>201456.1477203291</v>
       </c>
       <c r="B89">
-        <v>30447.88384103528</v>
+        <v>29597.84502278975</v>
       </c>
       <c r="C89">
-        <v>345468.1379688048</v>
+        <v>328139.9763125045</v>
       </c>
       <c r="D89">
-        <v>5107.841955591619</v>
+        <v>5125.910004982553</v>
       </c>
       <c r="E89">
-        <v>121284.5590525145</v>
+        <v>115401.1167017901</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201455.9967030527</v>
+        <v>201456.1477203291</v>
       </c>
       <c r="I89">
-        <v>640396</v>
+        <v>665785</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>375916.0218098401</v>
+        <v>357737.8213352942</v>
       </c>
       <c r="O89">
-        <v>126392.4010081062</v>
+        <v>120527.0267067726</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>260.1038829707327</v>
+        <v>341.5186607016917</v>
       </c>
       <c r="R89">
-        <v>13788.4882658819</v>
+        <v>18426.47779551034</v>
       </c>
       <c r="S89">
-        <v>14048.59214885264</v>
+        <v>18767.99645621203</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15486.0009301791</v>
+        <v>15485.98304908781</v>
       </c>
       <c r="B90">
-        <v>2160.532680848948</v>
+        <v>2179.799992516436</v>
       </c>
       <c r="C90">
-        <v>26416.34240251218</v>
+        <v>26311.83441090954</v>
       </c>
       <c r="D90">
-        <v>396.1856280523747</v>
+        <v>362.9749885388432</v>
       </c>
       <c r="E90">
-        <v>9374.657379734021</v>
+        <v>8738.201434984556</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15486.0009301791</v>
+        <v>15485.98304908781</v>
       </c>
       <c r="I90">
-        <v>49305</v>
+        <v>50619</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28576.87508336112</v>
+        <v>28491.63440342598</v>
       </c>
       <c r="O90">
-        <v>9770.843007786396</v>
+        <v>9101.176423523399</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>14.52534395596174</v>
+        <v>13.31337696051036</v>
       </c>
       <c r="R90">
-        <v>1003.765037952507</v>
+        <v>1211.947064565225</v>
       </c>
       <c r="S90">
-        <v>1018.290381908469</v>
+        <v>1225.260441525736</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14404.09699827041</v>
+        <v>14404.11792382543</v>
       </c>
       <c r="B91">
-        <v>2159.882900271932</v>
+        <v>2031.571979367717</v>
       </c>
       <c r="C91">
-        <v>23878.79902478882</v>
+        <v>24068.02750634149</v>
       </c>
       <c r="D91">
-        <v>371.0277469350373</v>
+        <v>275.6851667938815</v>
       </c>
       <c r="E91">
-        <v>8486.007146518577</v>
+        <v>7778.165411999246</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14404.09699827041</v>
+        <v>14404.11792382543</v>
       </c>
       <c r="I91">
-        <v>46076</v>
+        <v>47022</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26038.68192506076</v>
+        <v>26099.59948570921</v>
       </c>
       <c r="O91">
-        <v>8857.034893453614</v>
+        <v>8053.850578793128</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>7.6596701352203</v>
+        <v>12.59494819322699</v>
       </c>
       <c r="R91">
-        <v>968.0355274375511</v>
+        <v>931.8805861951138</v>
       </c>
       <c r="S91">
-        <v>975.6951975727714</v>
+        <v>944.4755343883408</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46955.85586043541</v>
+        <v>46956.08302401558</v>
       </c>
       <c r="B92">
-        <v>6859.541963461918</v>
+        <v>6810.932228731502</v>
       </c>
       <c r="C92">
-        <v>78076.79295887303</v>
+        <v>78682.034669125</v>
       </c>
       <c r="D92">
-        <v>1171.769430088227</v>
+        <v>1098.392815213165</v>
       </c>
       <c r="E92">
-        <v>27974.04787440692</v>
+        <v>26612.56488455788</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46955.85586043541</v>
+        <v>46956.08302401558</v>
       </c>
       <c r="I92">
-        <v>150420</v>
+        <v>147470</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>84936.33492233495</v>
+        <v>85492.9668978565</v>
       </c>
       <c r="O92">
-        <v>29145.81730449515</v>
+        <v>27710.95769977105</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>9.926627779095817</v>
+        <v>28.36004128908145</v>
       </c>
       <c r="R92">
-        <v>2365.110626009127</v>
+        <v>3403.299907221589</v>
       </c>
       <c r="S92">
-        <v>2375.037253788222</v>
+        <v>3431.659948510671</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.97713877426</v>
+        <v>24419.93899649843</v>
       </c>
       <c r="B93">
-        <v>3445.359936669809</v>
+        <v>3286.022296367052</v>
       </c>
       <c r="C93">
-        <v>41376.31532974573</v>
+        <v>40145.76952662139</v>
       </c>
       <c r="D93">
-        <v>522.7462122809507</v>
+        <v>485.7480907510083</v>
       </c>
       <c r="E93">
-        <v>14277.54678047595</v>
+        <v>12998.08655930848</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.97713877426</v>
+        <v>24419.93899649843</v>
       </c>
       <c r="I93">
-        <v>79885</v>
+        <v>79186</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44821.67526641554</v>
+        <v>43431.79182298844</v>
       </c>
       <c r="O93">
-        <v>14800.2929927569</v>
+        <v>13483.83465005949</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>13.20892100724202</v>
+        <v>7.013371246311504</v>
       </c>
       <c r="R93">
-        <v>1809.11693709628</v>
+        <v>1422.540163025875</v>
       </c>
       <c r="S93">
-        <v>1822.325858103522</v>
+        <v>1429.553534272187</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70372.15791665697</v>
+        <v>70371.86621566699</v>
       </c>
       <c r="B94">
-        <v>9530.284283859288</v>
+        <v>10514.78558655534</v>
       </c>
       <c r="C94">
-        <v>118401.3255817284</v>
+        <v>120298.936780232</v>
       </c>
       <c r="D94">
-        <v>2222.897490858058</v>
+        <v>1897.600383693548</v>
       </c>
       <c r="E94">
-        <v>48289.92600384924</v>
+        <v>42134.45181439422</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70372.15791665697</v>
+        <v>70371.86621566699</v>
       </c>
       <c r="I94">
-        <v>215411</v>
+        <v>218242</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>127931.6098655877</v>
+        <v>130813.7223667873</v>
       </c>
       <c r="O94">
-        <v>50512.82349470729</v>
+        <v>44032.05219808777</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>75.54700038434757</v>
+        <v>13.63764378844831</v>
       </c>
       <c r="R94">
-        <v>4836.380190332549</v>
+        <v>4352.148744405738</v>
       </c>
       <c r="S94">
-        <v>4911.927190716897</v>
+        <v>4365.786388194187</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.961622959272</v>
+        <v>7574.09032820421</v>
       </c>
       <c r="B95">
-        <v>1134.416805703497</v>
+        <v>1128.321560217044</v>
       </c>
       <c r="C95">
-        <v>12620.19424173362</v>
+        <v>12817.92399194207</v>
       </c>
       <c r="D95">
-        <v>203.9744879466343</v>
+        <v>184.1798011289655</v>
       </c>
       <c r="E95">
-        <v>4362.429178208942</v>
+        <v>4383.177421580975</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.961622959272</v>
+        <v>7574.09032820421</v>
       </c>
       <c r="I95">
-        <v>24661</v>
+        <v>24247</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13754.61104743712</v>
+        <v>13946.24555215912</v>
       </c>
       <c r="O95">
-        <v>4566.403666155577</v>
+        <v>4567.35722270994</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>5.731087282171662</v>
+        <v>4.538622047713652</v>
       </c>
       <c r="R95">
-        <v>462.4465859256046</v>
+        <v>635.2881221712013</v>
       </c>
       <c r="S95">
-        <v>468.1776732077762</v>
+        <v>639.8267442189149</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.01919696219</v>
+        <v>45037.98360028047</v>
       </c>
       <c r="B96">
-        <v>7010.130141952694</v>
+        <v>6087.658155666387</v>
       </c>
       <c r="C96">
-        <v>77245.93438405974</v>
+        <v>77599.80855076722</v>
       </c>
       <c r="D96">
-        <v>1163.614913274923</v>
+        <v>1136.894112856897</v>
       </c>
       <c r="E96">
-        <v>25966.49233040892</v>
+        <v>27662.67262997088</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.01919696219</v>
+        <v>45037.98360028047</v>
       </c>
       <c r="I96">
-        <v>146868</v>
+        <v>146463</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>84256.06452601244</v>
+        <v>83687.46670643361</v>
       </c>
       <c r="O96">
-        <v>27130.10724368384</v>
+        <v>28799.56674282777</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40.95284864889362</v>
+        <v>56.76837022570678</v>
       </c>
       <c r="R96">
-        <v>4001.410531543399</v>
+        <v>2892.20432166012</v>
       </c>
       <c r="S96">
-        <v>4042.363380192292</v>
+        <v>2948.972691885826</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.88219304147</v>
+        <v>10073.10264667721</v>
       </c>
       <c r="B97">
-        <v>1420.100269866921</v>
+        <v>1491.624248538253</v>
       </c>
       <c r="C97">
-        <v>17150.70791461746</v>
+        <v>16967.38121363528</v>
       </c>
       <c r="D97">
-        <v>223.2090010949113</v>
+        <v>276.4510876283478</v>
       </c>
       <c r="E97">
-        <v>5099.037007119837</v>
+        <v>6267.911332149781</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.88219304147</v>
+        <v>10073.10264667721</v>
       </c>
       <c r="I97">
-        <v>30923</v>
+        <v>31135</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18570.80818448438</v>
+        <v>18459.00546217353</v>
       </c>
       <c r="O97">
-        <v>5322.246008214748</v>
+        <v>6544.362419778128</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>5.56828979540083</v>
+        <v>10.52686074156006</v>
       </c>
       <c r="R97">
-        <v>772.2477559491787</v>
+        <v>793.2902570048236</v>
       </c>
       <c r="S97">
-        <v>777.8160457445795</v>
+        <v>803.8171177463837</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.88230952929</v>
+        <v>11375.92586716011</v>
       </c>
       <c r="B98">
-        <v>2137.063911888474</v>
+        <v>2245.255078274897</v>
       </c>
       <c r="C98">
-        <v>18464.96619788342</v>
+        <v>19024.06935152441</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6551.233539888452</v>
+        <v>7424.130453686804</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.88230952929</v>
+        <v>11375.92586716011</v>
       </c>
       <c r="I98">
-        <v>30750</v>
+        <v>30915</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20602.03010977189</v>
+        <v>21269.32442979931</v>
       </c>
       <c r="O98">
-        <v>6551.233539888452</v>
+        <v>7424.130453686804</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>106.2198904325845</v>
+        <v>93.5711375419223</v>
       </c>
       <c r="R98">
-        <v>739.6465529744542</v>
+        <v>762.9067687415759</v>
       </c>
       <c r="S98">
-        <v>845.8664434070387</v>
+        <v>856.4779062834982</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1644.351138761896</v>
+        <v>1576.446529974894</v>
       </c>
       <c r="V98">
-        <v>1644.351138761896</v>
+        <v>1576.446529974894</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.90974115841</v>
+        <v>93358.83124918259</v>
       </c>
       <c r="B99">
-        <v>17714.1058726219</v>
+        <v>17969.10785730221</v>
       </c>
       <c r="C99">
-        <v>155168.4116193139</v>
+        <v>153754.9606075056</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>49464.63642394952</v>
+        <v>59814.16478984807</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.90974115841</v>
+        <v>93358.83124918259</v>
       </c>
       <c r="I99">
-        <v>243263</v>
+        <v>247402</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>172882.5174919358</v>
+        <v>171724.0684648078</v>
       </c>
       <c r="O99">
-        <v>49464.63642394952</v>
+        <v>59814.16478984807</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>868.4706036647038</v>
+        <v>848.9551784917088</v>
       </c>
       <c r="R99">
-        <v>5889.3166209769</v>
+        <v>6106.099478918539</v>
       </c>
       <c r="S99">
-        <v>6757.787224641604</v>
+        <v>6955.054657410247</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>13391.40405780797</v>
+        <v>11340.26012766984</v>
       </c>
       <c r="V99">
-        <v>13391.40405780797</v>
+        <v>11340.26012766984</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.10963646723</v>
+        <v>20816.91846622044</v>
       </c>
       <c r="B100">
-        <v>4025.304741030063</v>
+        <v>3854.97223294989</v>
       </c>
       <c r="C100">
-        <v>33601.13828379742</v>
+        <v>34241.45867819819</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>14775.90400173886</v>
+        <v>13340.09734169966</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.10963646723</v>
+        <v>20816.91846622044</v>
       </c>
       <c r="I100">
-        <v>58057</v>
+        <v>57837</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>37626.44302482748</v>
+        <v>38096.43091114808</v>
       </c>
       <c r="O100">
-        <v>14775.90400173886</v>
+        <v>13340.09734169966</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>213.7641376038238</v>
+        <v>224.3372603664102</v>
       </c>
       <c r="R100">
-        <v>1429.20567021961</v>
+        <v>1456.291550440431</v>
       </c>
       <c r="S100">
-        <v>1642.969807823434</v>
+        <v>1680.628810806841</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2826.658768367126</v>
+        <v>2886.278079497588</v>
       </c>
       <c r="V100">
-        <v>2826.658768367126</v>
+        <v>2886.278079497588</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43953.10406363104</v>
+        <v>43953.09214344715</v>
       </c>
       <c r="B101">
-        <v>8506.386901828319</v>
+        <v>8560.049184875183</v>
       </c>
       <c r="C101">
-        <v>72087.21643001516</v>
+        <v>72886.202709985</v>
       </c>
       <c r="D101">
-        <v>2121.40950501971</v>
+        <v>1979.153154962089</v>
       </c>
       <c r="E101">
-        <v>24478.11775643353</v>
+        <v>24671.68574323871</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43953.10406363104</v>
+        <v>43953.09214344715</v>
       </c>
       <c r="I101">
-        <v>121922</v>
+        <v>120338</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>80593.60333184348</v>
+        <v>81446.25189486018</v>
       </c>
       <c r="O101">
-        <v>26599.52726145324</v>
+        <v>26650.8388982008</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>358.1553436858818</v>
+        <v>371.0728824818482</v>
       </c>
       <c r="R101">
-        <v>3236.228352065146</v>
+        <v>2780.569188799147</v>
       </c>
       <c r="S101">
-        <v>3594.383695751028</v>
+        <v>3151.642071280995</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>6396.35868829443</v>
+        <v>6712.984621102628</v>
       </c>
       <c r="V101">
-        <v>6396.35868829443</v>
+        <v>6712.984621102628</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.0563683163</v>
+        <v>103394.1449253544</v>
       </c>
       <c r="B102">
-        <v>19505.8028303098</v>
+        <v>21164.51869708525</v>
       </c>
       <c r="C102">
-        <v>170234.2813623864</v>
+        <v>171928.2770152772</v>
       </c>
       <c r="D102">
-        <v>5527.201138571279</v>
+        <v>6390.972642473333</v>
       </c>
       <c r="E102">
-        <v>60721.78461362376</v>
+        <v>62317.50976029386</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.0563683163</v>
+        <v>103394.1449253544</v>
       </c>
       <c r="I102">
-        <v>278558</v>
+        <v>284959</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>189740.0841926962</v>
+        <v>193092.7957123625</v>
       </c>
       <c r="O102">
-        <v>66248.98575219503</v>
+        <v>68708.4824027672</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>889.5912693589667</v>
+        <v>1077.670751897321</v>
       </c>
       <c r="R102">
-        <v>6250.191762924369</v>
+        <v>6744.330132317223</v>
       </c>
       <c r="S102">
-        <v>7139.783032283336</v>
+        <v>7822.000884214544</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>13121.95254540017</v>
+        <v>13668.27564096215</v>
       </c>
       <c r="V102">
-        <v>13121.95254540017</v>
+        <v>13668.27564096215</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35336.99897947142</v>
+        <v>35337.13380807592</v>
       </c>
       <c r="B103">
-        <v>6903.583068073459</v>
+        <v>6946.743663055063</v>
       </c>
       <c r="C103">
-        <v>57951.82711654178</v>
+        <v>57690.2779438822</v>
       </c>
       <c r="D103">
-        <v>1763.851893130062</v>
+        <v>1947.195383590448</v>
       </c>
       <c r="E103">
-        <v>19422.87355544901</v>
+        <v>21213.23377145554</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35336.99897947142</v>
+        <v>35337.13380807592</v>
       </c>
       <c r="I103">
-        <v>97434</v>
+        <v>95356</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>64855.41018461523</v>
+        <v>64637.02160693727</v>
       </c>
       <c r="O103">
-        <v>21186.72544857907</v>
+        <v>23160.42915504598</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>275.5203748852481</v>
+        <v>304.1713861389066</v>
       </c>
       <c r="R103">
-        <v>2366.675009837494</v>
+        <v>2372.733449597779</v>
       </c>
       <c r="S103">
-        <v>2642.195384722742</v>
+        <v>2676.904835736686</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4933.80857940826</v>
+        <v>4141.057815212039</v>
       </c>
       <c r="V103">
-        <v>4933.80857940826</v>
+        <v>4141.057815212039</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9277236746</v>
+        <v>122130.9318731651</v>
       </c>
       <c r="B104">
-        <v>25699.41718140487</v>
+        <v>23530.44017989683</v>
       </c>
       <c r="C104">
-        <v>205935.9010460926</v>
+        <v>202867.3210435098</v>
       </c>
       <c r="D104">
-        <v>5537.710787683799</v>
+        <v>5427.574620889612</v>
       </c>
       <c r="E104">
-        <v>69437.92528563285</v>
+        <v>61756.59933366092</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9277236746</v>
+        <v>122130.9318731651</v>
       </c>
       <c r="I104">
-        <v>340396</v>
+        <v>338031</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>231635.3182274975</v>
+        <v>226397.7612234066</v>
       </c>
       <c r="O104">
-        <v>74975.63607331665</v>
+        <v>67184.17395455054</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1213.624254408642</v>
+        <v>1361.618052613577</v>
       </c>
       <c r="R104">
-        <v>8031.189717650055</v>
+        <v>7603.262502176663</v>
       </c>
       <c r="S104">
-        <v>9244.813972058697</v>
+        <v>8964.880554790239</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>17612.89031521886</v>
+        <v>16379.69835603729</v>
       </c>
       <c r="V104">
-        <v>17612.89031521886</v>
+        <v>16379.69835603729</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.07750870159</v>
+        <v>81324.15648304379</v>
       </c>
       <c r="B105">
-        <v>14610.18109329006</v>
+        <v>15889.06618593457</v>
       </c>
       <c r="C105">
-        <v>129080.8364060922</v>
+        <v>136213.1423137376</v>
       </c>
       <c r="D105">
-        <v>3627.119795186657</v>
+        <v>3770.674756810667</v>
       </c>
       <c r="E105">
-        <v>47735.71484570051</v>
+        <v>46985.73566544854</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.07750870159</v>
+        <v>81324.15648304379</v>
       </c>
       <c r="I105">
-        <v>218055</v>
+        <v>216568</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>143691.0174993822</v>
+        <v>152102.2084996722</v>
       </c>
       <c r="O105">
-        <v>51362.83464088717</v>
+        <v>50756.41042225921</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>760.2365365347907</v>
+        <v>724.1006954223531</v>
       </c>
       <c r="R105">
-        <v>5568.058417908546</v>
+        <v>5125.715710400055</v>
       </c>
       <c r="S105">
-        <v>6328.294954443337</v>
+        <v>5849.816405822408</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>10017.0994660758</v>
+        <v>12082.1571370534</v>
       </c>
       <c r="V105">
-        <v>10017.0994660758</v>
+        <v>12082.1571370534</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.15768465225</v>
+        <v>77850.1344163623</v>
       </c>
       <c r="B106">
-        <v>15667.59534659067</v>
+        <v>14808.0768637031</v>
       </c>
       <c r="C106">
-        <v>124929.2330459994</v>
+        <v>126849.0969169332</v>
       </c>
       <c r="D106">
-        <v>3734.792895383836</v>
+        <v>4480.501700465125</v>
       </c>
       <c r="E106">
-        <v>42080.12532701444</v>
+        <v>50892.47359962387</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.15768465225</v>
+        <v>77850.1344163623</v>
       </c>
       <c r="I106">
-        <v>205507</v>
+        <v>208678</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>140596.8283925901</v>
+        <v>141657.1737806363</v>
       </c>
       <c r="O106">
-        <v>45814.91822239827</v>
+        <v>55372.97530008899</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>678.0651634618647</v>
+        <v>550.9195495248852</v>
       </c>
       <c r="R106">
-        <v>5089.988440258003</v>
+        <v>5011.625555136669</v>
       </c>
       <c r="S106">
-        <v>5768.053603719867</v>
+        <v>5562.545104661554</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>11991.17428452778</v>
+        <v>10399.96072725355</v>
       </c>
       <c r="V106">
-        <v>11991.17428452778</v>
+        <v>10399.96072725355</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86202.98813970658</v>
+        <v>86203.10517090959</v>
       </c>
       <c r="B107">
-        <v>17351.3261200355</v>
+        <v>15961.20095464788</v>
       </c>
       <c r="C107">
-        <v>137355.4440336652</v>
+        <v>136204.7712603823</v>
       </c>
       <c r="D107">
-        <v>3903.507042619241</v>
+        <v>4213.195595938177</v>
       </c>
       <c r="E107">
-        <v>49130.29912270622</v>
+        <v>48147.21483612167</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86202.98813970658</v>
+        <v>86203.10517090959</v>
       </c>
       <c r="I107">
-        <v>231665</v>
+        <v>231526</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>154706.7701537007</v>
+        <v>152165.9722150301</v>
       </c>
       <c r="O107">
-        <v>53033.80616532546</v>
+        <v>52360.41043205984</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>853.2589168081072</v>
+        <v>692.1625347439162</v>
       </c>
       <c r="R107">
-        <v>5553.443832169624</v>
+        <v>5751.367333626828</v>
       </c>
       <c r="S107">
-        <v>6406.702748977732</v>
+        <v>6443.529868370744</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>11115.52379389303</v>
+        <v>12879.51098389689</v>
       </c>
       <c r="V107">
-        <v>11115.52379389303</v>
+        <v>12879.51098389689</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.12948797871</v>
+        <v>60304.83648733977</v>
       </c>
       <c r="B108">
-        <v>11691.67907008696</v>
+        <v>11507.71466777643</v>
       </c>
       <c r="C108">
-        <v>101557.8403388491</v>
+        <v>100096.0595921398</v>
       </c>
       <c r="D108">
-        <v>3090.752507258647</v>
+        <v>3142.012095517241</v>
       </c>
       <c r="E108">
-        <v>34922.24712913528</v>
+        <v>34657.57913472002</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.12948797871</v>
+        <v>60304.83648733977</v>
       </c>
       <c r="I108">
-        <v>164309</v>
+        <v>160483</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>113249.519408936</v>
+        <v>111603.7742599162</v>
       </c>
       <c r="O108">
-        <v>38012.99963639393</v>
+        <v>37799.59123023726</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>423.4600036765255</v>
+        <v>450.2022437747213</v>
       </c>
       <c r="R108">
-        <v>4026.74402542282</v>
+        <v>3109.631897055193</v>
       </c>
       <c r="S108">
-        <v>4450.204029099346</v>
+        <v>3559.834140829914</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>8743.115326627009</v>
+        <v>7170.255898596113</v>
       </c>
       <c r="V108">
-        <v>8743.115326627009</v>
+        <v>7170.255898596113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.03468813028</v>
+        <v>25282.95093262933</v>
       </c>
       <c r="B109">
-        <v>4760.343570842433</v>
+        <v>4809.067279339849</v>
       </c>
       <c r="C109">
-        <v>40906.70641304424</v>
+        <v>40726.43965063241</v>
       </c>
       <c r="D109">
-        <v>1222.719040910281</v>
+        <v>1179.426562324685</v>
       </c>
       <c r="E109">
-        <v>14303.40986990524</v>
+        <v>13397.90539362001</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.03468813028</v>
+        <v>25282.95093262933</v>
       </c>
       <c r="I109">
-        <v>67520</v>
+        <v>68320</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>45667.04998388667</v>
+        <v>45535.50692997226</v>
       </c>
       <c r="O109">
-        <v>15526.12891081552</v>
+        <v>14577.33195594469</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>240.1558733098701</v>
+        <v>233.6765867324561</v>
       </c>
       <c r="R109">
-        <v>1529.613525302827</v>
+        <v>1745.02856588269</v>
       </c>
       <c r="S109">
-        <v>1769.769398612697</v>
+        <v>1978.705152615146</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3797.808502721234</v>
+        <v>3650.397238556507</v>
       </c>
       <c r="V109">
-        <v>3797.808502721234</v>
+        <v>3650.397238556507</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4048.916967345454</v>
+        <v>4049.027150770133</v>
       </c>
       <c r="B110">
-        <v>764.7794184780552</v>
+        <v>824.080721711187</v>
       </c>
       <c r="C110">
-        <v>6509.706348735852</v>
+        <v>6609.128232635669</v>
       </c>
       <c r="D110">
-        <v>164.6490512945272</v>
+        <v>188.7606116569055</v>
       </c>
       <c r="E110">
-        <v>2204.327423591298</v>
+        <v>2380.734124650006</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4048.916967345454</v>
+        <v>4049.027150770133</v>
       </c>
       <c r="I110">
-        <v>10774</v>
+        <v>10960</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7274.485767213907</v>
+        <v>7433.208954346856</v>
       </c>
       <c r="O110">
-        <v>2368.976474885825</v>
+        <v>2569.494736306912</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>32.77421285706135</v>
+        <v>40.68163618047502</v>
       </c>
       <c r="R110">
-        <v>269.4940176813105</v>
+        <v>236.1988634729642</v>
       </c>
       <c r="S110">
-        <v>302.2682305383718</v>
+        <v>276.8804996534392</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>500.0625212701287</v>
+        <v>500.0093179259866</v>
       </c>
       <c r="V110">
-        <v>500.0625212701287</v>
+        <v>500.0093179259866</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8763.019364592621</v>
+        <v>8763.056520310005</v>
       </c>
       <c r="B111">
-        <v>1672.073806376232</v>
+        <v>1701.467067131789</v>
       </c>
       <c r="C111">
-        <v>13776.28653318702</v>
+        <v>14306.98582863791</v>
       </c>
       <c r="D111">
-        <v>399.3588480718063</v>
+        <v>474.6753985805371</v>
       </c>
       <c r="E111">
-        <v>4690.54663260068</v>
+        <v>5861.763973871674</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8763.019364592621</v>
+        <v>8763.056520310005</v>
       </c>
       <c r="I111">
-        <v>23779</v>
+        <v>23809</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15448.36033956325</v>
+        <v>16008.4528957697</v>
       </c>
       <c r="O111">
-        <v>5089.905480672486</v>
+        <v>6336.439372452212</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>66.50047237445341</v>
+        <v>80.61900957787366</v>
       </c>
       <c r="R111">
-        <v>508.6333447420437</v>
+        <v>518.1760612296235</v>
       </c>
       <c r="S111">
-        <v>575.1338171164971</v>
+        <v>598.7950708074972</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1155.256651896171</v>
+        <v>1239.055804275459</v>
       </c>
       <c r="V111">
-        <v>1155.256651896171</v>
+        <v>1239.055804275459</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9927.118086545645</v>
+        <v>9926.937530687479</v>
       </c>
       <c r="B112">
-        <v>1938.675287131944</v>
+        <v>2003.198838324664</v>
       </c>
       <c r="C112">
-        <v>16124.01667259865</v>
+        <v>16515.12999417472</v>
       </c>
       <c r="D112">
-        <v>477.4803198215803</v>
+        <v>493.9376901753857</v>
       </c>
       <c r="E112">
-        <v>5881.831371635024</v>
+        <v>5738.551602924187</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9927.118086545645</v>
+        <v>9926.937530687479</v>
       </c>
       <c r="I112">
-        <v>27641</v>
+        <v>26208</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18062.6919597306</v>
+        <v>18518.32883249939</v>
       </c>
       <c r="O112">
-        <v>6359.311691456604</v>
+        <v>6232.489293099573</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>78.18414292836616</v>
+        <v>86.36647743299172</v>
       </c>
       <c r="R112">
-        <v>594.667854156412</v>
+        <v>612.81284254295</v>
       </c>
       <c r="S112">
-        <v>672.8519970847781</v>
+        <v>699.1793199759417</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1421.91755132775</v>
+        <v>1024.724392741896</v>
       </c>
       <c r="V112">
-        <v>1421.91755132775</v>
+        <v>1024.724392741896</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1551.830220256252</v>
+        <v>1552.035182962665</v>
       </c>
       <c r="B113">
-        <v>289.7955681139994</v>
+        <v>302.2056542574956</v>
       </c>
       <c r="C113">
-        <v>2503.188260003658</v>
+        <v>2515.970312392471</v>
       </c>
       <c r="D113">
-        <v>73.22687254693909</v>
+        <v>83.85867117009835</v>
       </c>
       <c r="E113">
-        <v>898.3877881464681</v>
+        <v>878.9148382268055</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1551.830220256252</v>
+        <v>1552.035182962665</v>
       </c>
       <c r="I113">
-        <v>4124</v>
+        <v>4305</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2792.983828117658</v>
+        <v>2818.175966649967</v>
       </c>
       <c r="O113">
-        <v>971.6146606934071</v>
+        <v>962.7735093969038</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>16.49338706786432</v>
+        <v>10.59488180239954</v>
       </c>
       <c r="R113">
-        <v>105.5103586507606</v>
+        <v>111.3158099063696</v>
       </c>
       <c r="S113">
-        <v>122.0037457186249</v>
+        <v>121.9106917087691</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>238.3647406034807</v>
+        <v>193.6285976923621</v>
       </c>
       <c r="V113">
-        <v>238.3647406034807</v>
+        <v>193.6285976923621</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.033328981312</v>
+        <v>1069.099174468455</v>
       </c>
       <c r="B114">
-        <v>1479.46732486408</v>
+        <v>1531.177135524026</v>
       </c>
       <c r="C114">
-        <v>494.4531913286428</v>
+        <v>488.3685033738126</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>707.3296970641571</v>
+        <v>672.0876452514245</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.033328981312</v>
+        <v>1069.099174468455</v>
       </c>
       <c r="I114">
-        <v>2937</v>
+        <v>3003</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1973.920516192723</v>
+        <v>2019.545638897838</v>
       </c>
       <c r="O114">
-        <v>707.3296970641571</v>
+        <v>672.0876452514245</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>21.91773960227194</v>
+        <v>23.06789201746159</v>
       </c>
       <c r="R114">
-        <v>54.83339587681297</v>
+        <v>68.94105405232222</v>
       </c>
       <c r="S114">
-        <v>76.75113547908491</v>
+        <v>92.0089460697838</v>
       </c>
       <c r="T114">
-        <v>14.2224582250455</v>
+        <v>13.37196572323805</v>
       </c>
       <c r="U114">
-        <v>130.5151824101482</v>
+        <v>128.9489167265098</v>
       </c>
       <c r="V114">
-        <v>144.7376406351937</v>
+        <v>142.3208824497479</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>406.0557819868623</v>
+        <v>406.0233085823255</v>
       </c>
       <c r="B115">
-        <v>564.2334986296144</v>
+        <v>564.9237407814616</v>
       </c>
       <c r="C115">
-        <v>188.4074899221577</v>
+        <v>189.3439103414994</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>231.8226457068274</v>
+        <v>258.4717809495035</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>406.0557819868623</v>
+        <v>406.0233085823255</v>
       </c>
       <c r="I115">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>752.640988551772</v>
+        <v>754.267651122961</v>
       </c>
       <c r="O115">
-        <v>231.8226457068274</v>
+        <v>258.4717809495035</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>5.815089902701243</v>
+        <v>7.338792438312932</v>
       </c>
       <c r="R115">
-        <v>24.64353937387546</v>
+        <v>21.98858319573399</v>
       </c>
       <c r="S115">
-        <v>30.4586292765767</v>
+        <v>29.32737563404692</v>
       </c>
       <c r="T115">
-        <v>5.791405367528745</v>
+        <v>5.511129701640078</v>
       </c>
       <c r="U115">
-        <v>49.97277084555167</v>
+        <v>48.75549996684669</v>
       </c>
       <c r="V115">
-        <v>55.76417621308042</v>
+        <v>54.26662966848677</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.892374793314</v>
+        <v>5616.0919998727</v>
       </c>
       <c r="B116">
-        <v>7911.934806680089</v>
+        <v>7330.990717675671</v>
       </c>
       <c r="C116">
-        <v>2550.249310191008</v>
+        <v>2568.202396404625</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3865.226691614335</v>
+        <v>3310.817662039933</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.892374793314</v>
+        <v>5616.0919998727</v>
       </c>
       <c r="I116">
-        <v>15294</v>
+        <v>15495</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10462.1841168711</v>
+        <v>9899.193114080295</v>
       </c>
       <c r="O116">
-        <v>3865.226691614335</v>
+        <v>3310.817662039933</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>106.0043858298782</v>
+        <v>120.437204458967</v>
       </c>
       <c r="R116">
-        <v>287.7653452975141</v>
+        <v>310.3979353161977</v>
       </c>
       <c r="S116">
-        <v>393.7697311273922</v>
+        <v>430.8351397751647</v>
       </c>
       <c r="T116">
-        <v>78.32463509782124</v>
+        <v>85.38671276922197</v>
       </c>
       <c r="U116">
-        <v>798.7790085584965</v>
+        <v>747.6636785803011</v>
       </c>
       <c r="V116">
-        <v>877.1036436563177</v>
+        <v>833.050391349523</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3149.948968643003</v>
+        <v>3149.976264933677</v>
       </c>
       <c r="B117">
-        <v>4411.004830066548</v>
+        <v>4270.861232209082</v>
       </c>
       <c r="C117">
-        <v>1472.829059359324</v>
+        <v>1449.37532286167</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>2028.960795504533</v>
+        <v>1845.591389007324</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3149.948968643003</v>
+        <v>3149.976264933677</v>
       </c>
       <c r="I117">
-        <v>8751</v>
+        <v>9018</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5883.833889425872</v>
+        <v>5720.236555070752</v>
       </c>
       <c r="O117">
-        <v>2028.960795504533</v>
+        <v>1845.591389007324</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>63.75665319361237</v>
+        <v>61.09285654337924</v>
       </c>
       <c r="R117">
-        <v>185.5771697939806</v>
+        <v>175.7109587197993</v>
       </c>
       <c r="S117">
-        <v>249.333822987593</v>
+        <v>236.8038152631785</v>
       </c>
       <c r="T117">
-        <v>47.64345101639174</v>
+        <v>49.45133329721119</v>
       </c>
       <c r="U117">
-        <v>415.0870362011734</v>
+        <v>391.2706638197267</v>
       </c>
       <c r="V117">
-        <v>462.7304872175651</v>
+        <v>440.7219971169379</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1816.984639859158</v>
+        <v>1817.126602278208</v>
       </c>
       <c r="B118">
-        <v>2471.637762863261</v>
+        <v>2501.737218845333</v>
       </c>
       <c r="C118">
-        <v>808.0738055227703</v>
+        <v>848.3942748379131</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1181.199562363664</v>
+        <v>1253.339084677247</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1816.984639859158</v>
+        <v>1817.126602278208</v>
       </c>
       <c r="I118">
-        <v>5053</v>
+        <v>4995</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3279.711568386032</v>
+        <v>3350.131493683246</v>
       </c>
       <c r="O118">
-        <v>1181.199562363664</v>
+        <v>1253.339084677247</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38.78009412610117</v>
+        <v>38.95450960838616</v>
       </c>
       <c r="R118">
-        <v>102.9589495824789</v>
+        <v>109.3662640038688</v>
       </c>
       <c r="S118">
-        <v>141.73904370858</v>
+        <v>148.320773612255</v>
       </c>
       <c r="T118">
-        <v>31.42266859256856</v>
+        <v>19.60396827257338</v>
       </c>
       <c r="U118">
-        <v>271.35494184701</v>
+        <v>180.5287531311946</v>
       </c>
       <c r="V118">
-        <v>302.7776104395786</v>
+        <v>200.132721403768</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6396.147955044729</v>
+        <v>6395.969484169937</v>
       </c>
       <c r="B119">
-        <v>9120.833765145848</v>
+        <v>9020.992236248821</v>
       </c>
       <c r="C119">
-        <v>2906.776963764697</v>
+        <v>2902.069526317169</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>3909.072603279454</v>
+        <v>4094.906862636446</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6396.147955044729</v>
+        <v>6395.969484169937</v>
       </c>
       <c r="I119">
-        <v>18490</v>
+        <v>16967</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>12027.61072891055</v>
+        <v>11923.06176256599</v>
       </c>
       <c r="O119">
-        <v>3909.072603279454</v>
+        <v>4094.906862636446</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>123.1856973002345</v>
+        <v>119.5477775157448</v>
       </c>
       <c r="R119">
-        <v>393.7854124714831</v>
+        <v>336.6959851294411</v>
       </c>
       <c r="S119">
-        <v>516.9711097717176</v>
+        <v>456.2437626451859</v>
       </c>
       <c r="T119">
-        <v>85.80054409570663</v>
+        <v>84.0614448890568</v>
       </c>
       <c r="U119">
-        <v>862.7360451816701</v>
+        <v>859.7900644485472</v>
       </c>
       <c r="V119">
-        <v>948.5365892773767</v>
+        <v>943.8515093376041</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4005.939485451269</v>
+        <v>4006.140851014175</v>
       </c>
       <c r="B120">
-        <v>5727.94982548103</v>
+        <v>5649.063694798388</v>
       </c>
       <c r="C120">
-        <v>1856.619222155583</v>
+        <v>1804.644162525655</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2486.395555018658</v>
+        <v>2450.251482304443</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4005.939485451269</v>
+        <v>4006.140851014175</v>
       </c>
       <c r="I120">
-        <v>11551</v>
+        <v>10724</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7584.569047636613</v>
+        <v>7453.707857324042</v>
       </c>
       <c r="O120">
-        <v>2486.395555018658</v>
+        <v>2450.251482304443</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>64.85546388468688</v>
+        <v>79.00693319292809</v>
       </c>
       <c r="R120">
-        <v>207.5427757123298</v>
+        <v>220.8406242287136</v>
       </c>
       <c r="S120">
-        <v>272.3982395970166</v>
+        <v>299.8475574216417</v>
       </c>
       <c r="T120">
-        <v>60.05099782273561</v>
+        <v>57.99032509411565</v>
       </c>
       <c r="U120">
-        <v>426.0294603920746</v>
+        <v>434.7570257093244</v>
       </c>
       <c r="V120">
-        <v>486.0804582148102</v>
+        <v>492.74735080344</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.854617918596</v>
+        <v>1686.986368466683</v>
       </c>
       <c r="B121">
-        <v>2321.734218014049</v>
+        <v>2341.282594954616</v>
       </c>
       <c r="C121">
-        <v>794.2760576803407</v>
+        <v>810.1757915215975</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1113.66776928327</v>
+        <v>1040.456814787338</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.854617918596</v>
+        <v>1686.986368466683</v>
       </c>
       <c r="I121">
-        <v>4723</v>
+        <v>4714</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3116.010275694389</v>
+        <v>3151.458386476214</v>
       </c>
       <c r="O121">
-        <v>1113.66776928327</v>
+        <v>1040.456814787338</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>31.94820348853277</v>
+        <v>28.56237551022284</v>
       </c>
       <c r="R121">
-        <v>89.46473337619784</v>
+        <v>93.92982376815731</v>
       </c>
       <c r="S121">
-        <v>121.4129368647306</v>
+        <v>122.4921992783802</v>
       </c>
       <c r="T121">
-        <v>33.59366670997871</v>
+        <v>28.15450296324961</v>
       </c>
       <c r="U121">
-        <v>267.665408394842</v>
+        <v>204.8471635167468</v>
       </c>
       <c r="V121">
-        <v>301.2590751048207</v>
+        <v>233.0016664799964</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.9509315046844</v>
+        <v>588.8826477068975</v>
       </c>
       <c r="B122">
-        <v>800.620735499169</v>
+        <v>828.5544369664673</v>
       </c>
       <c r="C122">
-        <v>273.0673661622649</v>
+        <v>271.9799524514597</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>372.2883101154826</v>
+        <v>391.8199794410551</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.9509315046844</v>
+        <v>588.8826477068975</v>
       </c>
       <c r="I122">
-        <v>1623</v>
+        <v>1666</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1073.688101661434</v>
+        <v>1100.534389417927</v>
       </c>
       <c r="O122">
-        <v>372.2883101154826</v>
+        <v>391.8199794410551</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>9.205222398695176</v>
+        <v>12.35861986988079</v>
       </c>
       <c r="R122">
-        <v>31.94639069418884</v>
+        <v>30.17602933957271</v>
       </c>
       <c r="S122">
-        <v>41.15161309288401</v>
+        <v>42.5346492094535</v>
       </c>
       <c r="T122">
-        <v>8.374615899411655</v>
+        <v>8.806852633916437</v>
       </c>
       <c r="U122">
-        <v>72.81893753709969</v>
+        <v>72.89186840437247</v>
       </c>
       <c r="V122">
-        <v>81.19355343651134</v>
+        <v>81.69872103828891</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1709.989788789631</v>
+        <v>1709.950612089575</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3013.213539202095</v>
+        <v>3129.588390585095</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1052.901849790187</v>
+        <v>1078.263679642391</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1709.989788789631</v>
+        <v>1709.950612089575</v>
       </c>
       <c r="I123">
-        <v>5554</v>
+        <v>5538</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3013.213539202095</v>
+        <v>3129.588390585095</v>
       </c>
       <c r="O123">
-        <v>1052.901849790187</v>
+        <v>1078.263679642391</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>33.1900766981224</v>
+        <v>34.77743944409752</v>
       </c>
       <c r="R123">
-        <v>84.92019889723341</v>
+        <v>104.510789465894</v>
       </c>
       <c r="S123">
-        <v>118.1102755953558</v>
+        <v>139.2882289099916</v>
       </c>
       <c r="T123">
-        <v>23.39700745458956</v>
+        <v>19.62672796217256</v>
       </c>
       <c r="U123">
-        <v>220.0973004862326</v>
+        <v>202.4614674584322</v>
       </c>
       <c r="V123">
-        <v>243.4943079408222</v>
+        <v>222.0881954206048</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>199.0753342629378</v>
+        <v>198.9272769347351</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>366.4360977350906</v>
+        <v>361.0079999023712</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>139.4165786261605</v>
+        <v>113.1987393251048</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>199.0753342629378</v>
+        <v>198.9272769347351</v>
       </c>
       <c r="I124">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>366.4360977350906</v>
+        <v>361.0079999023712</v>
       </c>
       <c r="O124">
-        <v>139.4165786261605</v>
+        <v>113.1987393251048</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.170568332332734</v>
+        <v>3.578486655369684</v>
       </c>
       <c r="R124">
-        <v>9.171568811171238</v>
+        <v>11.87929783041541</v>
       </c>
       <c r="S124">
-        <v>12.34213714350397</v>
+        <v>15.45778448578509</v>
       </c>
       <c r="T124">
-        <v>2.733527223207774</v>
+        <v>4.094229911394064</v>
       </c>
       <c r="U124">
-        <v>29.28918983102501</v>
+        <v>34.54361005007215</v>
       </c>
       <c r="V124">
-        <v>32.02271705423278</v>
+        <v>38.63783996146622</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.933769064126</v>
+        <v>9132.936132179149</v>
       </c>
       <c r="B2">
-        <v>4950.285800038421</v>
+        <v>4857.586029981575</v>
       </c>
       <c r="C2">
-        <v>21195.75572238364</v>
+        <v>20998.86606993771</v>
       </c>
       <c r="D2">
-        <v>5132.424233298074</v>
+        <v>5069.305311599502</v>
       </c>
       <c r="E2">
-        <v>10460.99054081819</v>
+        <v>10324.38905003311</v>
       </c>
       <c r="F2">
-        <v>2644.262940454445</v>
+        <v>2561.812450882156</v>
       </c>
       <c r="G2">
-        <v>5004.471085812631</v>
+        <v>5195.221314491711</v>
       </c>
       <c r="H2">
-        <v>9132.933769064126</v>
+        <v>9132.936132179149</v>
       </c>
       <c r="I2">
-        <v>42616</v>
+        <v>43148</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26146.04152242206</v>
+        <v>25856.45209991929</v>
       </c>
       <c r="O2">
-        <v>15593.41477411627</v>
+        <v>15393.69436163261</v>
       </c>
       <c r="P2">
-        <v>7648.734026267075</v>
+        <v>7757.033765373866</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7571.083258658742</v>
+        <v>7570.992566479623</v>
       </c>
       <c r="B3">
-        <v>4076.1605845296</v>
+        <v>3849.334742783214</v>
       </c>
       <c r="C3">
-        <v>17776.86109982474</v>
+        <v>16893.01151999535</v>
       </c>
       <c r="D3">
-        <v>4107.432076447133</v>
+        <v>4277.202266029039</v>
       </c>
       <c r="E3">
-        <v>8477.029165774768</v>
+        <v>8614.148179300571</v>
       </c>
       <c r="F3">
-        <v>2335.190773228142</v>
+        <v>2430.375513363488</v>
       </c>
       <c r="G3">
-        <v>4414.17408223241</v>
+        <v>4596.876559799611</v>
       </c>
       <c r="H3">
-        <v>7571.083258658742</v>
+        <v>7570.992566479623</v>
       </c>
       <c r="I3">
-        <v>34474</v>
+        <v>34419</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21853.02168435434</v>
+        <v>20742.34626277856</v>
       </c>
       <c r="O3">
-        <v>12584.4612422219</v>
+        <v>12891.35044532961</v>
       </c>
       <c r="P3">
-        <v>6749.364855460552</v>
+        <v>7027.252073163099</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.96020842894</v>
+        <v>15501.8935382038</v>
       </c>
       <c r="B4">
-        <v>8390.391474624414</v>
+        <v>8078.435027931057</v>
       </c>
       <c r="C4">
-        <v>35901.55224928841</v>
+        <v>36239.99834563521</v>
       </c>
       <c r="D4">
-        <v>8520.830383458688</v>
+        <v>8660.840170945075</v>
       </c>
       <c r="E4">
-        <v>16887.13416069545</v>
+        <v>16732.22521675156</v>
       </c>
       <c r="F4">
-        <v>4864.361202152586</v>
+        <v>4678.068992405459</v>
       </c>
       <c r="G4">
-        <v>9226.921462822478</v>
+        <v>9548.78787403569</v>
       </c>
       <c r="H4">
-        <v>15501.96020842894</v>
+        <v>15501.8935382038</v>
       </c>
       <c r="I4">
-        <v>71710</v>
+        <v>70795</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44291.94372391282</v>
+        <v>44318.43337356627</v>
       </c>
       <c r="O4">
-        <v>25407.96454415413</v>
+        <v>25393.06538769663</v>
       </c>
       <c r="P4">
-        <v>14091.28266497506</v>
+        <v>14226.85686644115</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.936043970658</v>
+        <v>9670.050449026967</v>
       </c>
       <c r="B5">
-        <v>5353.613854168354</v>
+        <v>5376.924855818213</v>
       </c>
       <c r="C5">
-        <v>23134.79151818783</v>
+        <v>23172.39729788469</v>
       </c>
       <c r="D5">
-        <v>5373.158134592775</v>
+        <v>5878.610533495622</v>
       </c>
       <c r="E5">
-        <v>10949.74604400097</v>
+        <v>11344.02679861027</v>
       </c>
       <c r="F5">
-        <v>2784.009270786707</v>
+        <v>3047.977053960127</v>
       </c>
       <c r="G5">
-        <v>5523.585565123336</v>
+        <v>5777.39595960987</v>
       </c>
       <c r="H5">
-        <v>9669.936043970658</v>
+        <v>9670.050449026967</v>
       </c>
       <c r="I5">
-        <v>46492</v>
+        <v>45007</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28488.40537235618</v>
+        <v>28549.3221537029</v>
       </c>
       <c r="O5">
-        <v>16322.90417859374</v>
+        <v>17222.63733210589</v>
       </c>
       <c r="P5">
-        <v>8307.594835910044</v>
+        <v>8825.373013569997</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26787.07059681335</v>
+        <v>26786.95829605151</v>
       </c>
       <c r="B6">
-        <v>13786.71382997604</v>
+        <v>14227.28759188703</v>
       </c>
       <c r="C6">
-        <v>61565.48267664494</v>
+        <v>60782.67059361604</v>
       </c>
       <c r="D6">
-        <v>15286.64619039117</v>
+        <v>13969.13586129227</v>
       </c>
       <c r="E6">
-        <v>30107.38362042226</v>
+        <v>27993.69028276363</v>
       </c>
       <c r="F6">
-        <v>6878.806182437854</v>
+        <v>8093.830714731894</v>
       </c>
       <c r="G6">
-        <v>14659.47209327635</v>
+        <v>14976.47773681588</v>
       </c>
       <c r="H6">
-        <v>26787.07059681335</v>
+        <v>26786.95829605151</v>
       </c>
       <c r="I6">
-        <v>127179</v>
+        <v>117428</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>75352.19650662098</v>
+        <v>75009.95818550307</v>
       </c>
       <c r="O6">
-        <v>45394.02981081344</v>
+        <v>41962.82614405589</v>
       </c>
       <c r="P6">
-        <v>21538.2782757142</v>
+        <v>23070.30845154778</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.03094568837</v>
+        <v>15438.97532075728</v>
       </c>
       <c r="B7">
-        <v>8239.044827661313</v>
+        <v>8429.108434951171</v>
       </c>
       <c r="C7">
-        <v>35362.56113336241</v>
+        <v>35872.2621174901</v>
       </c>
       <c r="D7">
-        <v>8584.779553390395</v>
+        <v>8425.005320390075</v>
       </c>
       <c r="E7">
-        <v>17175.41680901221</v>
+        <v>17032.47026423557</v>
       </c>
       <c r="F7">
-        <v>4864.879581665451</v>
+        <v>4653.736018552212</v>
       </c>
       <c r="G7">
-        <v>9151.730509816754</v>
+        <v>9073.521707858128</v>
       </c>
       <c r="H7">
-        <v>15439.03094568837</v>
+        <v>15438.97532075728</v>
       </c>
       <c r="I7">
-        <v>71904</v>
+        <v>72979</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>43601.60596102373</v>
+        <v>44301.37055244127</v>
       </c>
       <c r="O7">
-        <v>25760.19636240261</v>
+        <v>25457.47558462565</v>
       </c>
       <c r="P7">
-        <v>14016.61009148221</v>
+        <v>13727.25772641034</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.024360689366</v>
+        <v>7027.936799376304</v>
       </c>
       <c r="B8">
-        <v>3878.925251824687</v>
+        <v>3731.789352923627</v>
       </c>
       <c r="C8">
-        <v>17053.48969645327</v>
+        <v>16177.47118071222</v>
       </c>
       <c r="D8">
-        <v>3891.357156847166</v>
+        <v>3812.825776515072</v>
       </c>
       <c r="E8">
-        <v>8031.239208174517</v>
+        <v>7592.42260220153</v>
       </c>
       <c r="F8">
-        <v>2071.559382527638</v>
+        <v>2199.686011608612</v>
       </c>
       <c r="G8">
-        <v>3903.416221225989</v>
+        <v>4111.115811238295</v>
       </c>
       <c r="H8">
-        <v>7028.024360689366</v>
+        <v>7027.936799376304</v>
       </c>
       <c r="I8">
-        <v>30793</v>
+        <v>31653</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20932.41494827795</v>
+        <v>19909.26053363585</v>
       </c>
       <c r="O8">
-        <v>11922.59636502168</v>
+        <v>11405.2483787166</v>
       </c>
       <c r="P8">
-        <v>5974.975603753627</v>
+        <v>6310.801822846906</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.942147519883</v>
+        <v>5006.017976174287</v>
       </c>
       <c r="B9">
-        <v>2603.814555991305</v>
+        <v>2710.811621575934</v>
       </c>
       <c r="C9">
-        <v>11563.37876548745</v>
+        <v>11760.11710060646</v>
       </c>
       <c r="D9">
-        <v>2791.045407913578</v>
+        <v>2976.852418253347</v>
       </c>
       <c r="E9">
-        <v>5537.900350785905</v>
+        <v>5670.383768471377</v>
       </c>
       <c r="F9">
-        <v>1589.768267403249</v>
+        <v>1477.78067978478</v>
       </c>
       <c r="G9">
-        <v>3187.696847435253</v>
+        <v>2784.147231494988</v>
       </c>
       <c r="H9">
-        <v>5005.942147519883</v>
+        <v>5006.017976174287</v>
       </c>
       <c r="I9">
-        <v>24429</v>
+        <v>23142</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14167.19332147876</v>
+        <v>14470.92872218239</v>
       </c>
       <c r="O9">
-        <v>8328.945758699483</v>
+        <v>8647.236186724724</v>
       </c>
       <c r="P9">
-        <v>4777.465114838502</v>
+        <v>4261.927911279769</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5887.069985052078</v>
+        <v>5886.990029276341</v>
       </c>
       <c r="B10">
-        <v>3317.601865550885</v>
+        <v>3187.954515128599</v>
       </c>
       <c r="C10">
-        <v>14089.37850389608</v>
+        <v>13478.308592741</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9703.7277472692</v>
+        <v>9728.440195613885</v>
       </c>
       <c r="F10">
-        <v>1945.721869936079</v>
+        <v>1795.78185004898</v>
       </c>
       <c r="G10">
-        <v>3758.648945929132</v>
+        <v>3532.953081706437</v>
       </c>
       <c r="H10">
-        <v>5887.069985052078</v>
+        <v>5886.990029276341</v>
       </c>
       <c r="I10">
-        <v>27189</v>
+        <v>28642</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17406.98036944696</v>
+        <v>16666.2631078696</v>
       </c>
       <c r="O10">
-        <v>9703.7277472692</v>
+        <v>9728.440195613885</v>
       </c>
       <c r="P10">
-        <v>5704.370815865212</v>
+        <v>5328.734931755416</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.099063850173</v>
+        <v>1726.071642479459</v>
       </c>
       <c r="B11">
-        <v>920.1524218509137</v>
+        <v>948.8995029931041</v>
       </c>
       <c r="C11">
-        <v>3961.561817668212</v>
+        <v>4019.358754862342</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2787.809667377222</v>
+        <v>2817.503136391282</v>
       </c>
       <c r="F11">
-        <v>488.9556410989143</v>
+        <v>580.9696920563425</v>
       </c>
       <c r="G11">
-        <v>890.5495268133728</v>
+        <v>1067.036452276604</v>
       </c>
       <c r="H11">
-        <v>1726.099063850173</v>
+        <v>1726.071642479459</v>
       </c>
       <c r="I11">
-        <v>8446</v>
+        <v>8504</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4881.714239519126</v>
+        <v>4968.258257855447</v>
       </c>
       <c r="O11">
-        <v>2787.809667377222</v>
+        <v>2817.503136391282</v>
       </c>
       <c r="P11">
-        <v>1379.505167912287</v>
+        <v>1648.006144332947</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.0598021040524</v>
+        <v>501.016911814632</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1426.096013018433</v>
+        <v>1410.453233024416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>796.0588670397118</v>
+        <v>815.8539167492968</v>
       </c>
       <c r="F12">
-        <v>160.2699023306292</v>
+        <v>148.9283046056441</v>
       </c>
       <c r="G12">
-        <v>310.651228321619</v>
+        <v>292.2317649121649</v>
       </c>
       <c r="H12">
-        <v>501.0598021040524</v>
+        <v>501.016911814632</v>
       </c>
       <c r="I12">
-        <v>2859</v>
+        <v>2887</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1426.096013018433</v>
+        <v>1410.453233024416</v>
       </c>
       <c r="O12">
-        <v>796.0588670397118</v>
+        <v>815.8539167492968</v>
       </c>
       <c r="P12">
-        <v>470.9211306522482</v>
+        <v>441.160069517809</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.93041572099</v>
+        <v>1087.97391302975</v>
       </c>
       <c r="B13">
-        <v>486.4777987637172</v>
+        <v>505.1006562897855</v>
       </c>
       <c r="C13">
-        <v>2597.027049828348</v>
+        <v>2627.75131364094</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1853.6887633047</v>
+        <v>1725.783019474283</v>
       </c>
       <c r="F13">
-        <v>831.9641494143433</v>
+        <v>822.9825228320143</v>
       </c>
       <c r="G13">
-        <v>152.961035463928</v>
+        <v>137.8905997841896</v>
       </c>
       <c r="H13">
-        <v>1087.93041572099</v>
+        <v>1087.97391302975</v>
       </c>
       <c r="I13">
-        <v>4466</v>
+        <v>4519</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3083.504848592065</v>
+        <v>3132.851969930725</v>
       </c>
       <c r="O13">
-        <v>1853.6887633047</v>
+        <v>1725.783019474283</v>
       </c>
       <c r="P13">
-        <v>984.9251848782714</v>
+        <v>960.8731226162039</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.92024069148</v>
+        <v>11832.09028330231</v>
       </c>
       <c r="B14">
-        <v>5449.616498259405</v>
+        <v>5368.921904576087</v>
       </c>
       <c r="C14">
-        <v>28838.82758151992</v>
+        <v>28434.36416922744</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19559.06875683897</v>
+        <v>18517.95242895367</v>
       </c>
       <c r="F14">
-        <v>9677.013979200367</v>
+        <v>8912.784250975583</v>
       </c>
       <c r="G14">
-        <v>1716.490419814231</v>
+        <v>1655.624301443531</v>
       </c>
       <c r="H14">
-        <v>11831.92024069148</v>
+        <v>11832.09028330231</v>
       </c>
       <c r="I14">
-        <v>48690</v>
+        <v>49428</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>34288.44407977932</v>
+        <v>33803.28607380352</v>
       </c>
       <c r="O14">
-        <v>19559.06875683897</v>
+        <v>18517.95242895367</v>
       </c>
       <c r="P14">
-        <v>11393.5043990146</v>
+        <v>10568.40855241911</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.05102619536</v>
+        <v>79020.96879103909</v>
       </c>
       <c r="B15">
-        <v>36212.9005963043</v>
+        <v>36329.16995114498</v>
       </c>
       <c r="C15">
-        <v>190956.3768603739</v>
+        <v>189852.3303468679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>131976.9688389465</v>
+        <v>127115.3676331883</v>
       </c>
       <c r="F15">
-        <v>60590.37387830443</v>
+        <v>68380.95191994797</v>
       </c>
       <c r="G15">
-        <v>10342.26572523689</v>
+        <v>12650.98011457105</v>
       </c>
       <c r="H15">
-        <v>79021.05102619536</v>
+        <v>79020.96879103909</v>
       </c>
       <c r="I15">
-        <v>331760</v>
+        <v>321713</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>227169.2774566782</v>
+        <v>226181.5002980128</v>
       </c>
       <c r="O15">
-        <v>131976.9688389465</v>
+        <v>127115.3676331883</v>
       </c>
       <c r="P15">
-        <v>70932.63960354132</v>
+        <v>81031.93203451902</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.1168992001</v>
+        <v>160975.1123105368</v>
       </c>
       <c r="B16">
-        <v>71954.36327988027</v>
+        <v>70973.49588775719</v>
       </c>
       <c r="C16">
-        <v>390399.1294986742</v>
+        <v>393494.1793267347</v>
       </c>
       <c r="D16">
-        <v>94027.0789543841</v>
+        <v>93407.28619350756</v>
       </c>
       <c r="E16">
-        <v>186264.7936382657</v>
+        <v>184221.7908667576</v>
       </c>
       <c r="F16">
-        <v>107720.4537071862</v>
+        <v>120604.5409747686</v>
       </c>
       <c r="G16">
-        <v>20318.99593052677</v>
+        <v>21011.41835224709</v>
       </c>
       <c r="H16">
-        <v>160975.1168992001</v>
+        <v>160975.1123105368</v>
       </c>
       <c r="I16">
-        <v>631997</v>
+        <v>615527</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>462353.4927785545</v>
+        <v>464467.6752144919</v>
       </c>
       <c r="O16">
-        <v>280291.8725926498</v>
+        <v>277629.0770602651</v>
       </c>
       <c r="P16">
-        <v>128039.449637713</v>
+        <v>141615.9593270156</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.89875319298</v>
+        <v>52807.8880338175</v>
       </c>
       <c r="B17">
-        <v>23658.95172330918</v>
+        <v>25219.12014774313</v>
       </c>
       <c r="C17">
-        <v>125275.0151674421</v>
+        <v>133235.326678734</v>
       </c>
       <c r="D17">
-        <v>31155.1014204868</v>
+        <v>30715.68376652841</v>
       </c>
       <c r="E17">
-        <v>59126.45668182518</v>
+        <v>59349.80112377923</v>
       </c>
       <c r="F17">
-        <v>40915.16477825091</v>
+        <v>39523.034931479</v>
       </c>
       <c r="G17">
-        <v>7488.442656107327</v>
+        <v>7163.743319568536</v>
       </c>
       <c r="H17">
-        <v>52807.89875319298</v>
+        <v>52807.8880338175</v>
       </c>
       <c r="I17">
-        <v>208224</v>
+        <v>210233</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>148933.9668907513</v>
+        <v>158454.4468264771</v>
       </c>
       <c r="O17">
-        <v>90281.55810231199</v>
+        <v>90065.48489030763</v>
       </c>
       <c r="P17">
-        <v>48403.60743435824</v>
+        <v>46686.77825104754</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48665.9190049656</v>
+        <v>48666.01672618352</v>
       </c>
       <c r="B18">
-        <v>21955.86334228224</v>
+        <v>22082.11558775302</v>
       </c>
       <c r="C18">
-        <v>116257.5872152211</v>
+        <v>114249.4323711087</v>
       </c>
       <c r="D18">
-        <v>28306.91319071774</v>
+        <v>26995.35624079603</v>
       </c>
       <c r="E18">
-        <v>53864.7457405613</v>
+        <v>51313.05399298281</v>
       </c>
       <c r="F18">
-        <v>33634.45230202155</v>
+        <v>33502.10188565319</v>
       </c>
       <c r="G18">
-        <v>5995.734764664091</v>
+        <v>6405.55235796768</v>
       </c>
       <c r="H18">
-        <v>48665.9190049656</v>
+        <v>48666.01672618352</v>
       </c>
       <c r="I18">
-        <v>184722</v>
+        <v>200049</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>138213.4505575034</v>
+        <v>136331.5479588617</v>
       </c>
       <c r="O18">
-        <v>82171.65893127903</v>
+        <v>78308.41023377884</v>
       </c>
       <c r="P18">
-        <v>39630.18706668564</v>
+        <v>39907.65424362087</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.90006810557</v>
+        <v>50920.88704819731</v>
       </c>
       <c r="B19">
-        <v>21788.07089674439</v>
+        <v>23466.93599318968</v>
       </c>
       <c r="C19">
-        <v>118552.2266603982</v>
+        <v>122372.0656291532</v>
       </c>
       <c r="D19">
-        <v>28241.74346964775</v>
+        <v>29291.71911796941</v>
       </c>
       <c r="E19">
-        <v>55156.93901980206</v>
+        <v>53152.0966687856</v>
       </c>
       <c r="F19">
-        <v>41142.95790821061</v>
+        <v>39407.24804201062</v>
       </c>
       <c r="G19">
-        <v>7053.836859309072</v>
+        <v>6643.848843442706</v>
       </c>
       <c r="H19">
-        <v>50920.90006810557</v>
+        <v>50920.88704819731</v>
       </c>
       <c r="I19">
-        <v>209328</v>
+        <v>205502</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>140340.2975571426</v>
+        <v>145839.0016223429</v>
       </c>
       <c r="O19">
-        <v>83398.68248944981</v>
+        <v>82443.815786755</v>
       </c>
       <c r="P19">
-        <v>48196.79476751968</v>
+        <v>46051.09688545332</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20573.09931804197</v>
+        <v>20572.87813148472</v>
       </c>
       <c r="B20">
-        <v>9439.616964030218</v>
+        <v>9684.396654979144</v>
       </c>
       <c r="C20">
-        <v>49200.76628238653</v>
+        <v>50850.72611458063</v>
       </c>
       <c r="D20">
-        <v>10539.23762469026</v>
+        <v>12228.44022405906</v>
       </c>
       <c r="E20">
-        <v>20020.9642670674</v>
+        <v>23193.1832544821</v>
       </c>
       <c r="F20">
-        <v>15235.52652195622</v>
+        <v>15785.74968226508</v>
       </c>
       <c r="G20">
-        <v>2740.733995734107</v>
+        <v>2787.709396699361</v>
       </c>
       <c r="H20">
-        <v>20573.09931804197</v>
+        <v>20572.87813148472</v>
       </c>
       <c r="I20">
-        <v>83801</v>
+        <v>84371</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>58640.38324641674</v>
+        <v>60535.12276955978</v>
       </c>
       <c r="O20">
-        <v>30560.20189175766</v>
+        <v>35421.62347854116</v>
       </c>
       <c r="P20">
-        <v>17976.26051769033</v>
+        <v>18573.45907896444</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.90653315068</v>
+        <v>26960.98594267518</v>
       </c>
       <c r="B21">
-        <v>11864.14629176586</v>
+        <v>11994.68751240541</v>
       </c>
       <c r="C21">
-        <v>64451.02851995301</v>
+        <v>63275.19922506003</v>
       </c>
       <c r="D21">
-        <v>14163.147779566</v>
+        <v>14832.54019229217</v>
       </c>
       <c r="E21">
-        <v>27521.06460704727</v>
+        <v>29578.26542371988</v>
       </c>
       <c r="F21">
-        <v>21592.01252005204</v>
+        <v>19788.38098148113</v>
       </c>
       <c r="G21">
-        <v>3364.050803104551</v>
+        <v>3473.05803991706</v>
       </c>
       <c r="H21">
-        <v>26960.90653315068</v>
+        <v>26960.98594267518</v>
       </c>
       <c r="I21">
-        <v>107614</v>
+        <v>113163</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>76315.17481171887</v>
+        <v>75269.88673746545</v>
       </c>
       <c r="O21">
-        <v>41684.21238661327</v>
+        <v>44410.80561601205</v>
       </c>
       <c r="P21">
-        <v>24956.06332315659</v>
+        <v>23261.43902139819</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.123621846717</v>
+        <v>3910.070018261748</v>
       </c>
       <c r="B22">
-        <v>1813.525927355251</v>
+        <v>1737.594728940475</v>
       </c>
       <c r="C22">
-        <v>9596.865067655446</v>
+        <v>9134.029536732071</v>
       </c>
       <c r="D22">
-        <v>2249.791563584736</v>
+        <v>2225.725248451745</v>
       </c>
       <c r="E22">
-        <v>4217.933322707379</v>
+        <v>4196.630683553359</v>
       </c>
       <c r="F22">
-        <v>2936.053524568844</v>
+        <v>2968.082632484926</v>
       </c>
       <c r="G22">
-        <v>492.3898498861122</v>
+        <v>545.544371057205</v>
       </c>
       <c r="H22">
-        <v>3910.123621846717</v>
+        <v>3910.070018261748</v>
       </c>
       <c r="I22">
-        <v>15207</v>
+        <v>15973</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11410.3909950107</v>
+        <v>10871.62426567255</v>
       </c>
       <c r="O22">
-        <v>6467.724886292114</v>
+        <v>6422.355932005105</v>
       </c>
       <c r="P22">
-        <v>3428.443374454956</v>
+        <v>3513.627003542131</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>106.0889297279898</v>
+        <v>105.9246177708072</v>
       </c>
       <c r="B23">
-        <v>44.43318811319143</v>
+        <v>46.92310933755429</v>
       </c>
       <c r="C23">
-        <v>231.3145584171252</v>
+        <v>262.1578604529752</v>
       </c>
       <c r="D23">
-        <v>58.84107289256097</v>
+        <v>58.53251278771081</v>
       </c>
       <c r="E23">
-        <v>113.0465684388899</v>
+        <v>114.7343062539324</v>
       </c>
       <c r="F23">
-        <v>71.21006935929853</v>
+        <v>87.57670074387934</v>
       </c>
       <c r="G23">
-        <v>11.57506671644696</v>
+        <v>14.5085330247959</v>
       </c>
       <c r="H23">
-        <v>106.0889297279898</v>
+        <v>105.9246177708072</v>
       </c>
       <c r="I23">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>275.7477465303167</v>
+        <v>309.0809697905295</v>
       </c>
       <c r="O23">
-        <v>171.8876413314509</v>
+        <v>173.2668190416432</v>
       </c>
       <c r="P23">
-        <v>82.7851360757455</v>
+        <v>102.0852337686752</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.0900687979</v>
+        <v>15661.05240460887</v>
       </c>
       <c r="B24">
-        <v>7077.691049618507</v>
+        <v>7471.903812315194</v>
       </c>
       <c r="C24">
-        <v>39167.68085611141</v>
+        <v>38813.02569578568</v>
       </c>
       <c r="D24">
-        <v>9051.308796631851</v>
+        <v>9648.274239885501</v>
       </c>
       <c r="E24">
-        <v>17364.69105468206</v>
+        <v>18505.31249873051</v>
       </c>
       <c r="F24">
-        <v>11997.71377238</v>
+        <v>13514.67697326388</v>
       </c>
       <c r="G24">
-        <v>2174.768144707277</v>
+        <v>2352.0467006173</v>
       </c>
       <c r="H24">
-        <v>15661.0900687979</v>
+        <v>15661.05240460887</v>
       </c>
       <c r="I24">
-        <v>62813</v>
+        <v>62205</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>46245.37190572992</v>
+        <v>46284.92950810088</v>
       </c>
       <c r="O24">
-        <v>26415.99985131391</v>
+        <v>28153.58673861601</v>
       </c>
       <c r="P24">
-        <v>14172.48191708727</v>
+        <v>15866.72367388118</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6607.083835274884</v>
+        <v>6606.98683752509</v>
       </c>
       <c r="B25">
-        <v>1412.492822400731</v>
+        <v>1444.528228881748</v>
       </c>
       <c r="C25">
-        <v>17723.42191765078</v>
+        <v>17692.00368555158</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11255.72133319935</v>
+        <v>11316.32337915228</v>
       </c>
       <c r="F25">
-        <v>6323.146193948979</v>
+        <v>5300.358474593413</v>
       </c>
       <c r="G25">
-        <v>321.9215630235383</v>
+        <v>265.6764169773432</v>
       </c>
       <c r="H25">
-        <v>6607.083835274884</v>
+        <v>6606.98683752509</v>
       </c>
       <c r="I25">
-        <v>30785</v>
+        <v>31252</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19135.91474005151</v>
+        <v>19136.53191443332</v>
       </c>
       <c r="O25">
-        <v>11255.72133319935</v>
+        <v>11316.32337915228</v>
       </c>
       <c r="P25">
-        <v>6645.067756972518</v>
+        <v>5566.034891570756</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.0957699176</v>
+        <v>22423.03105097418</v>
       </c>
       <c r="B26">
-        <v>4990.400683715494</v>
+        <v>5058.740032305213</v>
       </c>
       <c r="C26">
-        <v>58415.74194401403</v>
+        <v>60588.28928027849</v>
       </c>
       <c r="D26">
-        <v>8427.787711076719</v>
+        <v>8172.172022817876</v>
       </c>
       <c r="E26">
-        <v>29202.90122992794</v>
+        <v>27844.26142028582</v>
       </c>
       <c r="F26">
-        <v>18464.50338022807</v>
+        <v>20197.10857491713</v>
       </c>
       <c r="G26">
-        <v>949.9004068994415</v>
+        <v>1023.884683671489</v>
       </c>
       <c r="H26">
-        <v>22423.0957699176</v>
+        <v>22423.03105097418</v>
       </c>
       <c r="I26">
-        <v>99846</v>
+        <v>97122</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>63406.14262772953</v>
+        <v>65647.02931258371</v>
       </c>
       <c r="O26">
-        <v>37630.68894100466</v>
+        <v>36016.4334431037</v>
       </c>
       <c r="P26">
-        <v>19414.40378712751</v>
+        <v>21220.99325858862</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.94388932262</v>
+        <v>29147.88969712394</v>
       </c>
       <c r="B27">
-        <v>6654.053488518</v>
+        <v>6382.575314873559</v>
       </c>
       <c r="C27">
-        <v>78670.17131304064</v>
+        <v>75748.55949141065</v>
       </c>
       <c r="D27">
-        <v>11447.17722851358</v>
+        <v>11188.2463082108</v>
       </c>
       <c r="E27">
-        <v>38559.30337526638</v>
+        <v>38286.30175344712</v>
       </c>
       <c r="F27">
-        <v>24928.25348586094</v>
+        <v>27017.99933281545</v>
       </c>
       <c r="G27">
-        <v>1409.338218952002</v>
+        <v>1540.597745977956</v>
       </c>
       <c r="H27">
-        <v>29147.94388932262</v>
+        <v>29147.88969712394</v>
       </c>
       <c r="I27">
-        <v>136152</v>
+        <v>128383</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>85324.22480155864</v>
+        <v>82131.1348062842</v>
       </c>
       <c r="O27">
-        <v>50006.48060377996</v>
+        <v>49474.54806165792</v>
       </c>
       <c r="P27">
-        <v>26337.59170481295</v>
+        <v>28558.5970787934</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.10891432794</v>
+        <v>30698.10238819028</v>
       </c>
       <c r="B28">
-        <v>6377.228658750036</v>
+        <v>6694.416592254966</v>
       </c>
       <c r="C28">
-        <v>81569.99131643602</v>
+        <v>83039.90850012581</v>
       </c>
       <c r="D28">
-        <v>11167.11479329477</v>
+        <v>11537.03708481881</v>
       </c>
       <c r="E28">
-        <v>38494.35987004522</v>
+        <v>38026.12726523525</v>
       </c>
       <c r="F28">
-        <v>27636.41320715297</v>
+        <v>27516.16594000013</v>
       </c>
       <c r="G28">
-        <v>1409.138465522394</v>
+        <v>1327.791936362901</v>
       </c>
       <c r="H28">
-        <v>30698.10891432794</v>
+        <v>30698.10238819028</v>
       </c>
       <c r="I28">
-        <v>135622</v>
+        <v>138298</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>87947.21997518606</v>
+        <v>89734.32509238078</v>
       </c>
       <c r="O28">
-        <v>49661.47466333999</v>
+        <v>49563.16435005406</v>
       </c>
       <c r="P28">
-        <v>29045.55167267536</v>
+        <v>28843.95787636303</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81900.93208870493</v>
+        <v>81901.04711129289</v>
       </c>
       <c r="B29">
-        <v>17101.02840653524</v>
+        <v>18206.36763816952</v>
       </c>
       <c r="C29">
-        <v>211844.7464152019</v>
+        <v>222259.3546150908</v>
       </c>
       <c r="D29">
-        <v>31630.98644711216</v>
+        <v>27055.48392160021</v>
       </c>
       <c r="E29">
-        <v>104020.0525086683</v>
+        <v>96258.1988999235</v>
       </c>
       <c r="F29">
-        <v>67318.15369310073</v>
+        <v>69744.65196833287</v>
       </c>
       <c r="G29">
-        <v>3414.725275457739</v>
+        <v>3795.27310225179</v>
       </c>
       <c r="H29">
-        <v>81900.93208870493</v>
+        <v>81901.04711129289</v>
       </c>
       <c r="I29">
-        <v>360234</v>
+        <v>378715</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>228945.7748217372</v>
+        <v>240465.7222532603</v>
       </c>
       <c r="O29">
-        <v>135651.0389557804</v>
+        <v>123313.6828215237</v>
       </c>
       <c r="P29">
-        <v>70732.87896855846</v>
+        <v>73539.92507058465</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.96077533113</v>
+        <v>65571.89550189592</v>
       </c>
       <c r="B30">
-        <v>14415.94019602682</v>
+        <v>13673.89719344776</v>
       </c>
       <c r="C30">
-        <v>172162.0618294345</v>
+        <v>171771.7836419989</v>
       </c>
       <c r="D30">
-        <v>24993.94152847311</v>
+        <v>24616.26585117954</v>
       </c>
       <c r="E30">
-        <v>81396.20170903122</v>
+        <v>80634.67807791013</v>
       </c>
       <c r="F30">
-        <v>61724.10035781706</v>
+        <v>59576.63246707366</v>
       </c>
       <c r="G30">
-        <v>2940.478829767385</v>
+        <v>3080.579787775698</v>
       </c>
       <c r="H30">
-        <v>65571.96077533113</v>
+        <v>65571.89550189592</v>
       </c>
       <c r="I30">
-        <v>286101</v>
+        <v>308000</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>186578.0020254613</v>
+        <v>185445.6808354466</v>
       </c>
       <c r="O30">
-        <v>106390.1432375043</v>
+        <v>105250.9439290897</v>
       </c>
       <c r="P30">
-        <v>64664.57918758445</v>
+        <v>62657.21225484936</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.95038064467</v>
+        <v>90327.89406186563</v>
       </c>
       <c r="B31">
-        <v>18942.78686544188</v>
+        <v>19334.93671716281</v>
       </c>
       <c r="C31">
-        <v>237482.6482181893</v>
+        <v>238531.2415693751</v>
       </c>
       <c r="D31">
-        <v>33757.83033506284</v>
+        <v>34383.37396930064</v>
       </c>
       <c r="E31">
-        <v>109452.5785876314</v>
+        <v>119199.8030640737</v>
       </c>
       <c r="F31">
-        <v>77632.96574218554</v>
+        <v>74583.95184788268</v>
       </c>
       <c r="G31">
-        <v>3859.370893046933</v>
+        <v>4000.191415462493</v>
       </c>
       <c r="H31">
-        <v>90327.95038064467</v>
+        <v>90327.89406186563</v>
       </c>
       <c r="I31">
-        <v>398609</v>
+        <v>423093</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>256425.4350836312</v>
+        <v>257866.1782865379</v>
       </c>
       <c r="O31">
-        <v>143210.4089226942</v>
+        <v>153583.1770333744</v>
       </c>
       <c r="P31">
-        <v>81492.33663523247</v>
+        <v>78584.14326334518</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36451.08229699896</v>
+        <v>36450.90698792004</v>
       </c>
       <c r="B32">
-        <v>7983.175110034755</v>
+        <v>8385.734080402031</v>
       </c>
       <c r="C32">
-        <v>96077.55228669944</v>
+        <v>99952.02473200468</v>
       </c>
       <c r="D32">
-        <v>14004.31861413659</v>
+        <v>13143.20338141846</v>
       </c>
       <c r="E32">
-        <v>45342.22556301167</v>
+        <v>46537.54889173295</v>
       </c>
       <c r="F32">
-        <v>32023.88825160061</v>
+        <v>28745.05838754605</v>
       </c>
       <c r="G32">
-        <v>1923.408466174114</v>
+        <v>1598.872959049991</v>
       </c>
       <c r="H32">
-        <v>36451.08229699896</v>
+        <v>36450.90698792004</v>
       </c>
       <c r="I32">
-        <v>168890</v>
+        <v>156420</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>104060.7273967342</v>
+        <v>108337.7588124067</v>
       </c>
       <c r="O32">
-        <v>59346.54417714826</v>
+        <v>59680.7522731514</v>
       </c>
       <c r="P32">
-        <v>33947.29671777472</v>
+        <v>30343.93134659604</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.89309975016</v>
+        <v>22121.1054928519</v>
       </c>
       <c r="B33">
-        <v>4712.812910977787</v>
+        <v>4762.070037944474</v>
       </c>
       <c r="C33">
-        <v>57010.03669728975</v>
+        <v>58173.56878653286</v>
       </c>
       <c r="D33">
-        <v>8124.618682737111</v>
+        <v>8733.576784169498</v>
       </c>
       <c r="E33">
-        <v>28356.01956527725</v>
+        <v>29492.22968563352</v>
       </c>
       <c r="F33">
-        <v>18551.77218287946</v>
+        <v>19632.76338853779</v>
       </c>
       <c r="G33">
-        <v>1045.959873436465</v>
+        <v>980.4321015309027</v>
       </c>
       <c r="H33">
-        <v>22120.89309975016</v>
+        <v>22121.1054928519</v>
       </c>
       <c r="I33">
-        <v>102590</v>
+        <v>100759</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>61722.84960826753</v>
+        <v>62935.63882447733</v>
       </c>
       <c r="O33">
-        <v>36480.63824801436</v>
+        <v>38225.80646980302</v>
       </c>
       <c r="P33">
-        <v>19597.73205631592</v>
+        <v>20613.19549006869</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.88913059632</v>
+        <v>26863.98970464452</v>
       </c>
       <c r="B34">
-        <v>5840.036480443137</v>
+        <v>5818.456303021048</v>
       </c>
       <c r="C34">
-        <v>70503.76455813031</v>
+        <v>69685.6938126765</v>
       </c>
       <c r="D34">
-        <v>10362.41347173048</v>
+        <v>9342.550560078349</v>
       </c>
       <c r="E34">
-        <v>35093.34445889031</v>
+        <v>32616.4823957941</v>
       </c>
       <c r="F34">
-        <v>22952.94942141773</v>
+        <v>22268.47129831244</v>
       </c>
       <c r="G34">
-        <v>1070.638725846767</v>
+        <v>1159.815014717043</v>
       </c>
       <c r="H34">
-        <v>26863.88913059632</v>
+        <v>26863.98970464452</v>
       </c>
       <c r="I34">
-        <v>116369</v>
+        <v>115447</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>76343.80103857344</v>
+        <v>75504.15011569756</v>
       </c>
       <c r="O34">
-        <v>45455.75793062079</v>
+        <v>41959.03295587245</v>
       </c>
       <c r="P34">
-        <v>24023.58814726449</v>
+        <v>23428.28631302948</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.1000715831087</v>
+        <v>454.0072616361138</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1302.4789250587</v>
+        <v>1258.852807633579</v>
       </c>
       <c r="D35">
-        <v>159.8688639038784</v>
+        <v>185.595916569074</v>
       </c>
       <c r="E35">
-        <v>547.9397791493215</v>
+        <v>600.7729445595464</v>
       </c>
       <c r="F35">
-        <v>380.5939855277076</v>
+        <v>377.4321423357603</v>
       </c>
       <c r="G35">
-        <v>19.10016015749566</v>
+        <v>20.23652440823472</v>
       </c>
       <c r="H35">
-        <v>454.1000715831087</v>
+        <v>454.0072616361138</v>
       </c>
       <c r="I35">
-        <v>2163</v>
+        <v>2242</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1302.4789250587</v>
+        <v>1258.852807633579</v>
       </c>
       <c r="O35">
-        <v>707.8086430531998</v>
+        <v>786.3688611286204</v>
       </c>
       <c r="P35">
-        <v>399.6941456852033</v>
+        <v>397.668666743995</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9814004190059</v>
+        <v>505.0887145504179</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1458.8157278532</v>
+        <v>1475.052267386396</v>
       </c>
       <c r="D36">
-        <v>197.1579563835582</v>
+        <v>177.6693731866912</v>
       </c>
       <c r="E36">
-        <v>684.5821157975211</v>
+        <v>584.9077797003066</v>
       </c>
       <c r="F36">
-        <v>421.7154775529104</v>
+        <v>454.7570334800199</v>
       </c>
       <c r="G36">
-        <v>23.28525711835776</v>
+        <v>25.43840385689576</v>
       </c>
       <c r="H36">
-        <v>504.9814004190059</v>
+        <v>505.0887145504179</v>
       </c>
       <c r="I36">
-        <v>2364</v>
+        <v>2378</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1458.8157278532</v>
+        <v>1475.052267386396</v>
       </c>
       <c r="O36">
-        <v>881.7400721810793</v>
+        <v>762.5771528869977</v>
       </c>
       <c r="P36">
-        <v>445.0007346712682</v>
+        <v>480.1954373369157</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.06221037229</v>
+        <v>11108.06566906398</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>31563.85276821506</v>
+        <v>31785.55905557444</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>18534.20876042601</v>
+        <v>18125.74761494736</v>
       </c>
       <c r="F37">
-        <v>3496.644117418212</v>
+        <v>3678.907287418716</v>
       </c>
       <c r="G37">
-        <v>6271.141717372509</v>
+        <v>6598.766652305641</v>
       </c>
       <c r="H37">
-        <v>11108.06221037229</v>
+        <v>11108.06566906398</v>
       </c>
       <c r="I37">
-        <v>54624</v>
+        <v>54021</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31563.85276821506</v>
+        <v>31785.55905557444</v>
       </c>
       <c r="O37">
-        <v>18534.20876042601</v>
+        <v>18125.74761494736</v>
       </c>
       <c r="P37">
-        <v>9767.78583479072</v>
+        <v>10277.67393972436</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1090.996315852095</v>
+        <v>1091.013237673755</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3002.110338046412</v>
+        <v>3002.543862756202</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1742.982507233361</v>
+        <v>1711.722731013518</v>
       </c>
       <c r="F38">
-        <v>341.4149279186025</v>
+        <v>323.1008731144402</v>
       </c>
       <c r="G38">
-        <v>655.9032873024958</v>
+        <v>617.3577317324256</v>
       </c>
       <c r="H38">
-        <v>1090.996315852095</v>
+        <v>1091.013237673755</v>
       </c>
       <c r="I38">
-        <v>5538</v>
+        <v>5406</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3002.110338046412</v>
+        <v>3002.543862756202</v>
       </c>
       <c r="O38">
-        <v>1742.982507233361</v>
+        <v>1711.722731013518</v>
       </c>
       <c r="P38">
-        <v>997.3182152210983</v>
+        <v>940.4586048468657</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9456979105</v>
+        <v>153572.0304732219</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>430228.5105728452</v>
+        <v>429253.4734474738</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>248502.9881614361</v>
+        <v>235407.7872754477</v>
       </c>
       <c r="F39">
-        <v>47922.69655161201</v>
+        <v>49234.87825571873</v>
       </c>
       <c r="G39">
-        <v>92106.81613128269</v>
+        <v>90920.64402234679</v>
       </c>
       <c r="H39">
-        <v>153571.9456979105</v>
+        <v>153572.0304732219</v>
       </c>
       <c r="I39">
-        <v>751809</v>
+        <v>745255</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>430228.5105728452</v>
+        <v>429253.4734474738</v>
       </c>
       <c r="O39">
-        <v>248502.9881614361</v>
+        <v>235407.7872754477</v>
       </c>
       <c r="P39">
-        <v>140029.5126828947</v>
+        <v>140155.5222780655</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9307628514</v>
+        <v>152868.9361579431</v>
       </c>
       <c r="B40">
-        <v>28872.68003332974</v>
+        <v>26072.92244257165</v>
       </c>
       <c r="C40">
-        <v>418659.3030028819</v>
+        <v>405852.5828459021</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>245635.88854823</v>
+        <v>264267.3651218771</v>
       </c>
       <c r="F40">
-        <v>49532.35274166431</v>
+        <v>48187.04019579534</v>
       </c>
       <c r="G40">
-        <v>96583.08738122029</v>
+        <v>90812.17819386024</v>
       </c>
       <c r="H40">
-        <v>152868.9307628514</v>
+        <v>152868.9361579431</v>
       </c>
       <c r="I40">
-        <v>816125</v>
+        <v>714774</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>447531.9830362117</v>
+        <v>431925.5052884737</v>
       </c>
       <c r="O40">
-        <v>245635.88854823</v>
+        <v>264267.3651218771</v>
       </c>
       <c r="P40">
-        <v>146115.4401228846</v>
+        <v>138999.2183896556</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339432.9766592103</v>
+        <v>339433.0564844532</v>
       </c>
       <c r="B41">
-        <v>58781.30886676777</v>
+        <v>62313.58185033876</v>
       </c>
       <c r="C41">
-        <v>924041.5060982227</v>
+        <v>922187.6339802861</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>526880.5669482865</v>
+        <v>559569.3558804758</v>
       </c>
       <c r="F41">
-        <v>106109.7911680826</v>
+        <v>98011.9016262071</v>
       </c>
       <c r="G41">
-        <v>199819.2023997109</v>
+        <v>194271.1255973631</v>
       </c>
       <c r="H41">
-        <v>339432.9766592103</v>
+        <v>339433.0564844532</v>
       </c>
       <c r="I41">
-        <v>1619803</v>
+        <v>1672399</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>982822.8149649905</v>
+        <v>984501.2158306248</v>
       </c>
       <c r="O41">
-        <v>526880.5669482865</v>
+        <v>559569.3558804758</v>
       </c>
       <c r="P41">
-        <v>305928.9935677935</v>
+        <v>292283.0272235702</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.0260672717</v>
+        <v>245459.010380729</v>
       </c>
       <c r="B42">
-        <v>45471.43105521935</v>
+        <v>40041.82475146223</v>
       </c>
       <c r="C42">
-        <v>673959.193508564</v>
+        <v>641866.2795222718</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>399696.8716891048</v>
+        <v>408264.6010356707</v>
       </c>
       <c r="F42">
-        <v>76357.08215446162</v>
+        <v>75161.34993169371</v>
       </c>
       <c r="G42">
-        <v>136501.8835274899</v>
+        <v>135383.4773336003</v>
       </c>
       <c r="H42">
-        <v>245459.0260672717</v>
+        <v>245459.010380729</v>
       </c>
       <c r="I42">
-        <v>1078706</v>
+        <v>1243035</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>719430.6245637834</v>
+        <v>681908.104273734</v>
       </c>
       <c r="O42">
-        <v>399696.8716891048</v>
+        <v>408264.6010356707</v>
       </c>
       <c r="P42">
-        <v>212858.9656819515</v>
+        <v>210544.827265294</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367627.0166535318</v>
+        <v>367627.0263167004</v>
       </c>
       <c r="B43">
-        <v>66553.576084056</v>
+        <v>65795.71243385025</v>
       </c>
       <c r="C43">
-        <v>954364.2455453464</v>
+        <v>980229.7251015861</v>
       </c>
       <c r="D43">
-        <v>78604.96190584522</v>
+        <v>85152.50843242618</v>
       </c>
       <c r="E43">
-        <v>518053.5955734924</v>
+        <v>540714.3796858819</v>
       </c>
       <c r="F43">
-        <v>115924.8959694987</v>
+        <v>126274.6867703908</v>
       </c>
       <c r="G43">
-        <v>211592.7674680447</v>
+        <v>229501.5751321696</v>
       </c>
       <c r="H43">
-        <v>367627.0166535318</v>
+        <v>367627.0263167004</v>
       </c>
       <c r="I43">
-        <v>1773936</v>
+        <v>1789102</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1020917.821629403</v>
+        <v>1046025.437535436</v>
       </c>
       <c r="O43">
-        <v>596658.5574793377</v>
+        <v>625866.888118308</v>
       </c>
       <c r="P43">
-        <v>327517.6634375433</v>
+        <v>355776.2619025604</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9610748839</v>
+        <v>470396.9046384845</v>
       </c>
       <c r="B44">
-        <v>78588.41366064614</v>
+        <v>78848.22031562352</v>
       </c>
       <c r="C44">
-        <v>1220813.117494416</v>
+        <v>1260142.247741303</v>
       </c>
       <c r="D44">
-        <v>102748.5077217252</v>
+        <v>99871.369596447</v>
       </c>
       <c r="E44">
-        <v>670346.9548346024</v>
+        <v>655614.5877725929</v>
       </c>
       <c r="F44">
-        <v>158173.0448044941</v>
+        <v>141974.2945414885</v>
       </c>
       <c r="G44">
-        <v>278150.9087720704</v>
+        <v>273785.673705604</v>
       </c>
       <c r="H44">
-        <v>470396.9610748839</v>
+        <v>470396.9046384845</v>
       </c>
       <c r="I44">
-        <v>2259625</v>
+        <v>2200416</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1299401.531155063</v>
+        <v>1338990.468056927</v>
       </c>
       <c r="O44">
-        <v>773095.4625563277</v>
+        <v>755485.9573690399</v>
       </c>
       <c r="P44">
-        <v>436323.9535765646</v>
+        <v>415759.9682470925</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.987194059</v>
+        <v>307102.8962983373</v>
       </c>
       <c r="B45">
-        <v>53260.60538717103</v>
+        <v>56693.67312441127</v>
       </c>
       <c r="C45">
-        <v>810844.496412087</v>
+        <v>837026.9293496541</v>
       </c>
       <c r="D45">
-        <v>66175.81745654733</v>
+        <v>65217.72812707943</v>
       </c>
       <c r="E45">
-        <v>448172.7748454259</v>
+        <v>423987.7764121746</v>
       </c>
       <c r="F45">
-        <v>91950.13672912354</v>
+        <v>88930.60795586437</v>
       </c>
       <c r="G45">
-        <v>170515.2653117537</v>
+        <v>167597.5036229247</v>
       </c>
       <c r="H45">
-        <v>307102.987194059</v>
+        <v>307102.8962983373</v>
       </c>
       <c r="I45">
-        <v>1481763</v>
+        <v>1453795</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>864105.101799258</v>
+        <v>893720.6024740654</v>
       </c>
       <c r="O45">
-        <v>514348.5923019733</v>
+        <v>489205.5045392541</v>
       </c>
       <c r="P45">
-        <v>262465.4020408773</v>
+        <v>256528.111578789</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9708480272</v>
+        <v>327915.0231424851</v>
       </c>
       <c r="B46">
-        <v>58785.02936383851</v>
+        <v>53719.16960376096</v>
       </c>
       <c r="C46">
-        <v>897034.1534036291</v>
+        <v>881485.0115145977</v>
       </c>
       <c r="D46">
-        <v>72479.03976994543</v>
+        <v>70527.03559464235</v>
       </c>
       <c r="E46">
-        <v>472600.5791636845</v>
+        <v>481059.6363541727</v>
       </c>
       <c r="F46">
-        <v>101963.2442708315</v>
+        <v>102431.6861331817</v>
       </c>
       <c r="G46">
-        <v>187236.6833253744</v>
+        <v>199846.9349511357</v>
       </c>
       <c r="H46">
-        <v>327914.9708480272</v>
+        <v>327915.0231424851</v>
       </c>
       <c r="I46">
-        <v>1611041</v>
+        <v>1550142</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>955819.1827674676</v>
+        <v>935204.1811183586</v>
       </c>
       <c r="O46">
-        <v>545079.6189336299</v>
+        <v>551586.6719488151</v>
       </c>
       <c r="P46">
-        <v>289199.9275962059</v>
+        <v>302278.6210843174</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.099895443</v>
+        <v>659114.0357348993</v>
       </c>
       <c r="B47">
-        <v>108925.4016444973</v>
+        <v>109967.6768356323</v>
       </c>
       <c r="C47">
-        <v>1823062.136910261</v>
+        <v>1748790.976292121</v>
       </c>
       <c r="D47">
-        <v>159934.2855949389</v>
+        <v>145738.3959088594</v>
       </c>
       <c r="E47">
-        <v>1021618.427431755</v>
+        <v>931336.4373455879</v>
       </c>
       <c r="F47">
-        <v>191151.1807819518</v>
+        <v>209103.8331311283</v>
       </c>
       <c r="G47">
-        <v>359526.22848481</v>
+        <v>394655.0950099246</v>
       </c>
       <c r="H47">
-        <v>659114.099895443</v>
+        <v>659114.0357348993</v>
       </c>
       <c r="I47">
-        <v>3090529</v>
+        <v>3156059</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1931987.538554759</v>
+        <v>1858758.653127753</v>
       </c>
       <c r="O47">
-        <v>1181552.713026694</v>
+        <v>1077074.833254447</v>
       </c>
       <c r="P47">
-        <v>550677.4092667617</v>
+        <v>603758.9281410528</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195931.092563514</v>
+        <v>195930.9215836613</v>
       </c>
       <c r="B48">
-        <v>34909.88699055404</v>
+        <v>34918.27758079925</v>
       </c>
       <c r="C48">
-        <v>515679.5642871201</v>
+        <v>516097.6755691911</v>
       </c>
       <c r="D48">
-        <v>43693.20497362848</v>
+        <v>42734.3750875601</v>
       </c>
       <c r="E48">
-        <v>298506.5836745361</v>
+        <v>264607.1905826765</v>
       </c>
       <c r="F48">
-        <v>66670.03499879672</v>
+        <v>61521.69558673514</v>
       </c>
       <c r="G48">
-        <v>126495.1070172695</v>
+        <v>116024.5643600249</v>
       </c>
       <c r="H48">
-        <v>195931.092563514</v>
+        <v>195930.9215836613</v>
       </c>
       <c r="I48">
-        <v>905947</v>
+        <v>955429</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>550589.4512776741</v>
+        <v>551015.9531499903</v>
       </c>
       <c r="O48">
-        <v>342199.7886481645</v>
+        <v>307341.5656702366</v>
       </c>
       <c r="P48">
-        <v>193165.1420160662</v>
+        <v>177546.25994676</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9710150496</v>
+        <v>174400.041855327</v>
       </c>
       <c r="B49">
-        <v>32751.08068934027</v>
+        <v>29711.74675734483</v>
       </c>
       <c r="C49">
-        <v>476033.8255779616</v>
+        <v>475463.7910088705</v>
       </c>
       <c r="D49">
-        <v>39081.67386660808</v>
+        <v>39601.32590312987</v>
       </c>
       <c r="E49">
-        <v>249332.8124721968</v>
+        <v>269654.7970194871</v>
       </c>
       <c r="F49">
-        <v>53151.68022846317</v>
+        <v>59625.41669093504</v>
       </c>
       <c r="G49">
-        <v>96685.86666679457</v>
+        <v>112309.9993190057</v>
       </c>
       <c r="H49">
-        <v>174399.9710150496</v>
+        <v>174400.041855327</v>
       </c>
       <c r="I49">
-        <v>852310</v>
+        <v>829225</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>508784.9062673018</v>
+        <v>505175.5377662153</v>
       </c>
       <c r="O49">
-        <v>288414.4863388049</v>
+        <v>309256.122922617</v>
       </c>
       <c r="P49">
-        <v>149837.5468952577</v>
+        <v>171935.4160099407</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.09790318543</v>
+        <v>60248.02459982371</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>169701.0122546368</v>
+        <v>168690.3844984109</v>
       </c>
       <c r="D50">
-        <v>13814.81930047319</v>
+        <v>12734.54694948446</v>
       </c>
       <c r="E50">
-        <v>93385.10874015346</v>
+        <v>87206.66632510838</v>
       </c>
       <c r="F50">
-        <v>18353.54868497388</v>
+        <v>18112.5421560425</v>
       </c>
       <c r="G50">
-        <v>33960.31692045491</v>
+        <v>33894.66592817127</v>
       </c>
       <c r="H50">
-        <v>60248.09790318543</v>
+        <v>60248.02459982371</v>
       </c>
       <c r="I50">
-        <v>293720</v>
+        <v>296068</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>169701.0122546368</v>
+        <v>168690.3844984109</v>
       </c>
       <c r="O50">
-        <v>107199.9280406267</v>
+        <v>99941.21327459284</v>
       </c>
       <c r="P50">
-        <v>52313.86560542879</v>
+        <v>52007.20808421377</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8460.904139757644</v>
+        <v>8461.042279946216</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23749.43719415729</v>
+        <v>23922.27251672863</v>
       </c>
       <c r="D51">
-        <v>1746.558086552552</v>
+        <v>1938.404677067267</v>
       </c>
       <c r="E51">
-        <v>11973.09960495293</v>
+        <v>12563.38685367922</v>
       </c>
       <c r="F51">
-        <v>2559.289061373171</v>
+        <v>2709.044421378159</v>
       </c>
       <c r="G51">
-        <v>4668.777025686954</v>
+        <v>4937.228740631816</v>
       </c>
       <c r="H51">
-        <v>8460.904139757644</v>
+        <v>8461.042279946216</v>
       </c>
       <c r="I51">
-        <v>39833</v>
+        <v>41570</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23749.43719415729</v>
+        <v>23922.27251672863</v>
       </c>
       <c r="O51">
-        <v>13719.65769150548</v>
+        <v>14501.79153074648</v>
       </c>
       <c r="P51">
-        <v>7228.066087060124</v>
+        <v>7646.273162009976</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.91691333848</v>
+        <v>2462.897512879703</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7716.694616586561</v>
+        <v>7505.924367520417</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1195.117222560352</v>
+        <v>1104.992966977745</v>
       </c>
       <c r="F52">
-        <v>0.8509954493485322</v>
+        <v>1.17535703431642</v>
       </c>
       <c r="G52">
-        <v>8.048278876143867</v>
+        <v>11.39663703504048</v>
       </c>
       <c r="H52">
-        <v>2462.91691333848</v>
+        <v>2462.897512879703</v>
       </c>
       <c r="I52">
-        <v>11559</v>
+        <v>10913</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7716.694616586561</v>
+        <v>7505.924367520417</v>
       </c>
       <c r="O52">
-        <v>1195.117222560352</v>
+        <v>1104.992966977745</v>
       </c>
       <c r="P52">
-        <v>8.899274325492399</v>
+        <v>12.5719940693569</v>
       </c>
       <c r="Q52">
-        <v>11.09530761951164</v>
+        <v>25.05453569957755</v>
       </c>
       <c r="R52">
-        <v>36.32486032460147</v>
+        <v>54.55513165154126</v>
       </c>
       <c r="S52">
-        <v>47.42016794411312</v>
+        <v>79.6096673511188</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.040538425594</v>
+        <v>3704.001693999077</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11153.2257183721</v>
+        <v>11222.4214683982</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1560.159490408917</v>
+        <v>1736.156685676013</v>
       </c>
       <c r="F53">
-        <v>2.123424637507784</v>
+        <v>4.158910939342192</v>
       </c>
       <c r="G53">
-        <v>3.747834635797076</v>
+        <v>9.809496163943175</v>
       </c>
       <c r="H53">
-        <v>3704.040538425594</v>
+        <v>3704.001693999077</v>
       </c>
       <c r="I53">
-        <v>16648</v>
+        <v>16564</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11153.2257183721</v>
+        <v>11222.4214683982</v>
       </c>
       <c r="O53">
-        <v>1560.159490408917</v>
+        <v>1736.156685676013</v>
       </c>
       <c r="P53">
-        <v>5.87125927330486</v>
+        <v>13.96840710328537</v>
       </c>
       <c r="Q53">
-        <v>25.80164858547698</v>
+        <v>33.37556431162534</v>
       </c>
       <c r="R53">
-        <v>67.52359605207214</v>
+        <v>58.35477269510126</v>
       </c>
       <c r="S53">
-        <v>93.32524463754912</v>
+        <v>91.7303370067266</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.8794846698</v>
+        <v>169753.8838612454</v>
       </c>
       <c r="B54">
-        <v>43335.18657422406</v>
+        <v>40484.58401473525</v>
       </c>
       <c r="C54">
-        <v>512507.0368011388</v>
+        <v>480511.3986411534</v>
       </c>
       <c r="D54">
-        <v>5269.9386407696</v>
+        <v>4726.728042479611</v>
       </c>
       <c r="E54">
-        <v>75063.87220962878</v>
+        <v>70164.87212959437</v>
       </c>
       <c r="F54">
-        <v>117.3854329314961</v>
+        <v>239.8278403625502</v>
       </c>
       <c r="G54">
-        <v>341.7551094704612</v>
+        <v>796.4099308328564</v>
       </c>
       <c r="H54">
-        <v>169753.8794846698</v>
+        <v>169753.8838612454</v>
       </c>
       <c r="I54">
-        <v>702207</v>
+        <v>706821</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>555842.2233753629</v>
+        <v>520995.9826558886</v>
       </c>
       <c r="O54">
-        <v>80333.81085039838</v>
+        <v>74891.60017207397</v>
       </c>
       <c r="P54">
-        <v>459.1405424019573</v>
+        <v>1036.237771195407</v>
       </c>
       <c r="Q54">
-        <v>1609.136863016546</v>
+        <v>1101.227275307698</v>
       </c>
       <c r="R54">
-        <v>4951.332143164221</v>
+        <v>3369.463234373599</v>
       </c>
       <c r="S54">
-        <v>6560.469006180767</v>
+        <v>4470.690509681298</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.888200283</v>
+        <v>301001.0121599516</v>
       </c>
       <c r="B55">
-        <v>72849.6735022912</v>
+        <v>73139.19885076447</v>
       </c>
       <c r="C55">
-        <v>870807.7813619558</v>
+        <v>907088.3185944199</v>
       </c>
       <c r="D55">
-        <v>9773.483600291593</v>
+        <v>10698.16991785106</v>
       </c>
       <c r="E55">
-        <v>120882.2080775187</v>
+        <v>129143.1926223842</v>
       </c>
       <c r="F55">
-        <v>9.45762207060757</v>
+        <v>187.3617975099982</v>
       </c>
       <c r="G55">
-        <v>452.9558677610617</v>
+        <v>1015.194063737428</v>
       </c>
       <c r="H55">
-        <v>301000.888200283</v>
+        <v>301001.0121599516</v>
       </c>
       <c r="I55">
-        <v>1242242</v>
+        <v>1206068</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>943657.454864247</v>
+        <v>980227.5174451843</v>
       </c>
       <c r="O55">
-        <v>130655.6916778103</v>
+        <v>139841.3625402353</v>
       </c>
       <c r="P55">
-        <v>462.4134898316692</v>
+        <v>1202.555861247426</v>
       </c>
       <c r="Q55">
-        <v>1906.905889938205</v>
+        <v>1702.713653805711</v>
       </c>
       <c r="R55">
-        <v>4502.877523471761</v>
+        <v>5004.489041472639</v>
       </c>
       <c r="S55">
-        <v>6409.783413409966</v>
+        <v>6707.202695278349</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.94579287</v>
+        <v>485903.9552954413</v>
       </c>
       <c r="B56">
-        <v>119947.4361056729</v>
+        <v>121790.5370560727</v>
       </c>
       <c r="C56">
-        <v>1448382.589068915</v>
+        <v>1408441.128076764</v>
       </c>
       <c r="D56">
-        <v>15519.08376056479</v>
+        <v>15863.08421662613</v>
       </c>
       <c r="E56">
-        <v>215415.3093027288</v>
+        <v>210612.2998150899</v>
       </c>
       <c r="F56">
-        <v>294.8845003678174</v>
+        <v>115.3170574404061</v>
       </c>
       <c r="G56">
-        <v>2308.357603134546</v>
+        <v>973.7219502274912</v>
       </c>
       <c r="H56">
-        <v>485903.94579287</v>
+        <v>485903.9552954413</v>
       </c>
       <c r="I56">
-        <v>2082152</v>
+        <v>2082455</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1568330.025174588</v>
+        <v>1530231.665132836</v>
       </c>
       <c r="O56">
-        <v>230934.3930632936</v>
+        <v>226475.384031716</v>
       </c>
       <c r="P56">
-        <v>2603.242103502364</v>
+        <v>1089.039007667897</v>
       </c>
       <c r="Q56">
-        <v>3155.455507994087</v>
+        <v>3442.991891861404</v>
       </c>
       <c r="R56">
-        <v>10360.79126476953</v>
+        <v>7648.484913933736</v>
       </c>
       <c r="S56">
-        <v>13516.24677276362</v>
+        <v>11091.47680579514</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.085376972</v>
+        <v>757270.9262210444</v>
       </c>
       <c r="B57">
-        <v>176289.0068271676</v>
+        <v>189958.4176895455</v>
       </c>
       <c r="C57">
-        <v>2112171.033616615</v>
+        <v>2201848.629900582</v>
       </c>
       <c r="D57">
-        <v>25877.45815925637</v>
+        <v>28090.32614576198</v>
       </c>
       <c r="E57">
-        <v>321119.1502255891</v>
+        <v>354217.2529530036</v>
       </c>
       <c r="F57">
-        <v>133.1542557118789</v>
+        <v>619.1272835454057</v>
       </c>
       <c r="G57">
-        <v>1477.382521810086</v>
+        <v>3394.117666949074</v>
       </c>
       <c r="H57">
-        <v>757271.085376972</v>
+        <v>757270.9262210444</v>
       </c>
       <c r="I57">
-        <v>3179441</v>
+        <v>3011971</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2288460.040443782</v>
+        <v>2391807.047590128</v>
       </c>
       <c r="O57">
-        <v>346996.6083848455</v>
+        <v>382307.5790987656</v>
       </c>
       <c r="P57">
-        <v>1610.536777521965</v>
+        <v>4013.244950494479</v>
       </c>
       <c r="Q57">
-        <v>4828.333906779883</v>
+        <v>5325.279664520308</v>
       </c>
       <c r="R57">
-        <v>17798.17976409744</v>
+        <v>17867.44619344778</v>
       </c>
       <c r="S57">
-        <v>22626.51367087733</v>
+        <v>23192.72585796809</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.0995531388</v>
+        <v>651329.0266307504</v>
       </c>
       <c r="B58">
-        <v>167153.6472681924</v>
+        <v>163997.9179612972</v>
       </c>
       <c r="C58">
-        <v>1941458.683985988</v>
+        <v>1919463.092113092</v>
       </c>
       <c r="D58">
-        <v>23418.20301321667</v>
+        <v>19645.50975707891</v>
       </c>
       <c r="E58">
-        <v>303751.6242712537</v>
+        <v>271969.5957010342</v>
       </c>
       <c r="F58">
-        <v>489.2049090980008</v>
+        <v>444.1821469073571</v>
       </c>
       <c r="G58">
-        <v>1349.842136632046</v>
+        <v>3458.42575241207</v>
       </c>
       <c r="H58">
-        <v>651329.0995531388</v>
+        <v>651329.0266307504</v>
       </c>
       <c r="I58">
-        <v>2768829</v>
+        <v>2706831</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2108612.33125418</v>
+        <v>2083461.010074389</v>
       </c>
       <c r="O58">
-        <v>327169.8272844704</v>
+        <v>291615.1054581131</v>
       </c>
       <c r="P58">
-        <v>1839.047045730047</v>
+        <v>3902.607899319427</v>
       </c>
       <c r="Q58">
-        <v>4651.126947783547</v>
+        <v>4655.51407739097</v>
       </c>
       <c r="R58">
-        <v>14345.27331865682</v>
+        <v>11776.80529498018</v>
       </c>
       <c r="S58">
-        <v>18996.40026644037</v>
+        <v>16432.31937237115</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889111.925865773</v>
+        <v>889112.062172464</v>
       </c>
       <c r="B59">
-        <v>205785.6058938744</v>
+        <v>216402.110372969</v>
       </c>
       <c r="C59">
-        <v>2603223.045555828</v>
+        <v>2508208.956025136</v>
       </c>
       <c r="D59">
-        <v>30195.81969863075</v>
+        <v>32074.75051959042</v>
       </c>
       <c r="E59">
-        <v>406497.8116522889</v>
+        <v>392678.1516028374</v>
       </c>
       <c r="F59">
-        <v>396.4685616544456</v>
+        <v>84.24922720170171</v>
       </c>
       <c r="G59">
-        <v>3770.869454557131</v>
+        <v>1144.467284625549</v>
       </c>
       <c r="H59">
-        <v>889111.925865773</v>
+        <v>889112.062172464</v>
       </c>
       <c r="I59">
-        <v>3889023</v>
+        <v>3656234</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2809008.651449703</v>
+        <v>2724611.066398105</v>
       </c>
       <c r="O59">
-        <v>436693.6313509197</v>
+        <v>424752.9021224278</v>
       </c>
       <c r="P59">
-        <v>4167.338016211576</v>
+        <v>1228.71651182725</v>
       </c>
       <c r="Q59">
-        <v>6784.064544256952</v>
+        <v>8451.044895086014</v>
       </c>
       <c r="R59">
-        <v>17780.33309054744</v>
+        <v>14708.72960690015</v>
       </c>
       <c r="S59">
-        <v>24564.39763480439</v>
+        <v>23159.77450198617</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9934788792</v>
+        <v>465364.9691332759</v>
       </c>
       <c r="B60">
-        <v>113054.9920537614</v>
+        <v>111927.8446635705</v>
       </c>
       <c r="C60">
-        <v>1414668.689774016</v>
+        <v>1342416.16482128</v>
       </c>
       <c r="D60">
-        <v>15896.0121358212</v>
+        <v>15496.50172732744</v>
       </c>
       <c r="E60">
-        <v>215098.0297050382</v>
+        <v>176368.276479176</v>
       </c>
       <c r="F60">
-        <v>56.1472558505475</v>
+        <v>591.2840403205859</v>
       </c>
       <c r="G60">
-        <v>675.1642323497991</v>
+        <v>2478.919510942576</v>
       </c>
       <c r="H60">
-        <v>465364.9934788792</v>
+        <v>465364.9691332759</v>
       </c>
       <c r="I60">
-        <v>1893478</v>
+        <v>1923768</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1527723.681827777</v>
+        <v>1454344.00948485</v>
       </c>
       <c r="O60">
-        <v>230994.0418408594</v>
+        <v>191864.7782065035</v>
       </c>
       <c r="P60">
-        <v>731.3114882003466</v>
+        <v>3070.203551263162</v>
       </c>
       <c r="Q60">
-        <v>2361.659703790953</v>
+        <v>3827.597672627641</v>
       </c>
       <c r="R60">
-        <v>10405.28051861932</v>
+        <v>10930.69196116056</v>
       </c>
       <c r="S60">
-        <v>12766.94022241027</v>
+        <v>14758.28963378821</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340624.1222318459</v>
+        <v>340624.0776499817</v>
       </c>
       <c r="B61">
-        <v>80251.16640556599</v>
+        <v>86808.14165881058</v>
       </c>
       <c r="C61">
-        <v>982051.3770499837</v>
+        <v>998256.2810530794</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>164035.0001902333</v>
+        <v>165097.8494461577</v>
       </c>
       <c r="F61">
-        <v>522.4906948415559</v>
+        <v>138.8116805305084</v>
       </c>
       <c r="G61">
-        <v>1845.128043112494</v>
+        <v>1262.726890858323</v>
       </c>
       <c r="H61">
-        <v>340624.1222318459</v>
+        <v>340624.0776499817</v>
       </c>
       <c r="I61">
-        <v>1391059</v>
+        <v>1532402</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1062302.54345555</v>
+        <v>1085064.42271189</v>
       </c>
       <c r="O61">
-        <v>164035.0001902333</v>
+        <v>165097.8494461577</v>
       </c>
       <c r="P61">
-        <v>2367.61873795405</v>
+        <v>1401.538571388831</v>
       </c>
       <c r="Q61">
-        <v>2290.602064572504</v>
+        <v>1971.707084858892</v>
       </c>
       <c r="R61">
-        <v>6797.919784410165</v>
+        <v>6484.172763948203</v>
       </c>
       <c r="S61">
-        <v>9088.521848982669</v>
+        <v>8455.879848807095</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.0070291035</v>
+        <v>469690.8898182905</v>
       </c>
       <c r="B62">
-        <v>113439.2801152407</v>
+        <v>115679.2430979463</v>
       </c>
       <c r="C62">
-        <v>1351886.876441144</v>
+        <v>1370345.528814176</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>225949.1122076615</v>
+        <v>225815.6835008562</v>
       </c>
       <c r="F62">
-        <v>429.6358378720479</v>
+        <v>325.230808861754</v>
       </c>
       <c r="G62">
-        <v>956.3211830261574</v>
+        <v>1269.723754968035</v>
       </c>
       <c r="H62">
-        <v>469691.0070291035</v>
+        <v>469690.8898182905</v>
       </c>
       <c r="I62">
-        <v>1960735</v>
+        <v>1881626</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1465326.156556384</v>
+        <v>1486024.771912122</v>
       </c>
       <c r="O62">
-        <v>225949.1122076615</v>
+        <v>225815.6835008562</v>
       </c>
       <c r="P62">
-        <v>1385.957020898205</v>
+        <v>1594.954563829789</v>
       </c>
       <c r="Q62">
-        <v>3890.794841455216</v>
+        <v>3785.289596355266</v>
       </c>
       <c r="R62">
-        <v>11312.12655981395</v>
+        <v>7397.075069297699</v>
       </c>
       <c r="S62">
-        <v>15202.92140126917</v>
+        <v>11182.36466565297</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20456.93791407219</v>
+        <v>20457.02028384922</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>64639.68319630605</v>
+        <v>64503.73564409645</v>
       </c>
       <c r="D63">
-        <v>632.0537876399322</v>
+        <v>702.793475864653</v>
       </c>
       <c r="E63">
-        <v>8008.785524336271</v>
+        <v>8604.676516453703</v>
       </c>
       <c r="F63">
-        <v>8.701712389725092</v>
+        <v>7.395137931121253</v>
       </c>
       <c r="G63">
-        <v>45.58140878411039</v>
+        <v>49.42738872763548</v>
       </c>
       <c r="H63">
-        <v>20456.93791407219</v>
+        <v>20457.02028384922</v>
       </c>
       <c r="I63">
-        <v>93809</v>
+        <v>96788</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>64639.68319630605</v>
+        <v>64503.73564409645</v>
       </c>
       <c r="O63">
-        <v>8640.839311976204</v>
+        <v>9307.469992318356</v>
       </c>
       <c r="P63">
-        <v>54.28312117383548</v>
+        <v>56.82252665875674</v>
       </c>
       <c r="Q63">
-        <v>162.203173077869</v>
+        <v>136.8678529927524</v>
       </c>
       <c r="R63">
-        <v>446.6096767477828</v>
+        <v>404.159467492151</v>
       </c>
       <c r="S63">
-        <v>608.8128498256518</v>
+        <v>541.0273204849034</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.08306761508</v>
+        <v>20631.03048122557</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>63936.54595619566</v>
+        <v>63851.34706168281</v>
       </c>
       <c r="D64">
-        <v>717.9855890607415</v>
+        <v>647.5261753256842</v>
       </c>
       <c r="E64">
-        <v>9299.685243432348</v>
+        <v>8885.860563072247</v>
       </c>
       <c r="F64">
-        <v>13.56230223944335</v>
+        <v>24.33939644823022</v>
       </c>
       <c r="G64">
-        <v>29.71736846034739</v>
+        <v>93.28668358497446</v>
       </c>
       <c r="H64">
-        <v>20631.08306761508</v>
+        <v>20631.03048122557</v>
       </c>
       <c r="I64">
-        <v>96600</v>
+        <v>93681</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>63936.54595619566</v>
+        <v>63851.34706168281</v>
       </c>
       <c r="O64">
-        <v>10017.67083249309</v>
+        <v>9533.386738397931</v>
       </c>
       <c r="P64">
-        <v>43.27967069979074</v>
+        <v>117.6260800332047</v>
       </c>
       <c r="Q64">
-        <v>143.474937679754</v>
+        <v>143.2977946993484</v>
       </c>
       <c r="R64">
-        <v>458.2746435803795</v>
+        <v>369.4691664797904</v>
       </c>
       <c r="S64">
-        <v>601.7495812601335</v>
+        <v>512.7669611791389</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.905774126032</v>
+        <v>1767.922450998223</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5579.485256274639</v>
+        <v>5308.077464165257</v>
       </c>
       <c r="D65">
-        <v>62.06046371071466</v>
+        <v>54.24595283405605</v>
       </c>
       <c r="E65">
-        <v>759.1285792416555</v>
+        <v>791.2019881859204</v>
       </c>
       <c r="F65">
-        <v>2.184978973990612</v>
+        <v>0.300773457342802</v>
       </c>
       <c r="G65">
-        <v>9.896714458533671</v>
+        <v>1.819680217219755</v>
       </c>
       <c r="H65">
-        <v>1767.905774126032</v>
+        <v>1767.922450998223</v>
       </c>
       <c r="I65">
-        <v>8349</v>
+        <v>8203</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5579.485256274639</v>
+        <v>5308.077464165257</v>
       </c>
       <c r="O65">
-        <v>821.1890429523702</v>
+        <v>845.4479410199765</v>
       </c>
       <c r="P65">
-        <v>12.08169343252428</v>
+        <v>2.120453674562556</v>
       </c>
       <c r="Q65">
-        <v>15.43983392445878</v>
+        <v>15.81899202742399</v>
       </c>
       <c r="R65">
-        <v>44.25616938079757</v>
+        <v>50.67881944243361</v>
       </c>
       <c r="S65">
-        <v>59.69600330525634</v>
+        <v>66.49781146985761</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0178198944417</v>
+        <v>123.0482054385415</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>400.519714195992</v>
+        <v>381.2553679353205</v>
       </c>
       <c r="D66">
-        <v>3.606201600215524</v>
+        <v>4.429980411687319</v>
       </c>
       <c r="E66">
-        <v>54.31491121735047</v>
+        <v>60.71880126746028</v>
       </c>
       <c r="F66">
-        <v>0.0291581441748975</v>
+        <v>0.0602261442085683</v>
       </c>
       <c r="G66">
-        <v>0.2648529009973504</v>
+        <v>0.426665637968889</v>
       </c>
       <c r="H66">
-        <v>123.0178198944417</v>
+        <v>123.0482054385415</v>
       </c>
       <c r="I66">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>400.519714195992</v>
+        <v>381.2553679353205</v>
       </c>
       <c r="O66">
-        <v>57.92111281756599</v>
+        <v>65.1487816791476</v>
       </c>
       <c r="P66">
-        <v>0.2940110451722479</v>
+        <v>0.4868917821774573</v>
       </c>
       <c r="Q66">
-        <v>1.698138472766037</v>
+        <v>0.2781499278734491</v>
       </c>
       <c r="R66">
-        <v>3.330095135989788</v>
+        <v>3.13584500244312</v>
       </c>
       <c r="S66">
-        <v>5.028233608755826</v>
+        <v>3.413994930316569</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>202.8943258716319</v>
+        <v>203.1287731525368</v>
       </c>
       <c r="B67">
-        <v>42.52287094415171</v>
+        <v>46.75002336071969</v>
       </c>
       <c r="C67">
-        <v>329.4783320805408</v>
+        <v>314.693677758926</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>123.5222695294736</v>
+        <v>118.4783557872577</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>202.8943258716319</v>
+        <v>203.1287731525368</v>
       </c>
       <c r="I67">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>372.0012030246925</v>
+        <v>361.4437011196457</v>
       </c>
       <c r="O67">
-        <v>123.5222695294736</v>
+        <v>118.4783557872577</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.70987452516055</v>
+        <v>1.368210276681248</v>
       </c>
       <c r="R67">
-        <v>14.34753303199442</v>
+        <v>14.84948963099165</v>
       </c>
       <c r="S67">
-        <v>16.05740755715497</v>
+        <v>16.2176999076729</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.8797729722078</v>
+        <v>261.8674344847576</v>
       </c>
       <c r="B68">
-        <v>55.84225044749972</v>
+        <v>59.38930455147423</v>
       </c>
       <c r="C68">
-        <v>406.4506235398275</v>
+        <v>420.3990121467566</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>168.5539310838745</v>
+        <v>146.9256704551376</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.8797729722078</v>
+        <v>261.8674344847576</v>
       </c>
       <c r="I68">
-        <v>899</v>
+        <v>834</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>462.2928739873273</v>
+        <v>479.7883166982309</v>
       </c>
       <c r="O68">
-        <v>168.5539310838745</v>
+        <v>146.9256704551376</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.678156480098236</v>
+        <v>1.390569052770891</v>
       </c>
       <c r="R68">
-        <v>17.82142409984069</v>
+        <v>16.12985640723825</v>
       </c>
       <c r="S68">
-        <v>20.49958057993893</v>
+        <v>17.52042546000914</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2405.959707608589</v>
+        <v>2405.870868932577</v>
       </c>
       <c r="B69">
-        <v>548.7693296430682</v>
+        <v>538.0945031830411</v>
       </c>
       <c r="C69">
-        <v>3928.520738863471</v>
+        <v>3903.629057737951</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1522.966439122807</v>
+        <v>1424.788468562615</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2405.959707608589</v>
+        <v>2405.870868932577</v>
       </c>
       <c r="I69">
-        <v>7780</v>
+        <v>7696</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4477.29006850654</v>
+        <v>4441.723560920992</v>
       </c>
       <c r="O69">
-        <v>1522.966439122807</v>
+        <v>1424.788468562615</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>16.37721455377058</v>
+        <v>17.60975760294105</v>
       </c>
       <c r="R69">
-        <v>172.7799178605179</v>
+        <v>165.304423646166</v>
       </c>
       <c r="S69">
-        <v>189.1571324142885</v>
+        <v>182.9141812491071</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.935822233562</v>
+        <v>1503.062664471367</v>
       </c>
       <c r="B70">
-        <v>345.1918403782171</v>
+        <v>368.5888893415248</v>
       </c>
       <c r="C70">
-        <v>2482.437605971845</v>
+        <v>2530.120525123052</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>865.9313296016416</v>
+        <v>910.1733438770443</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.935822233562</v>
+        <v>1503.062664471367</v>
       </c>
       <c r="I70">
-        <v>4994</v>
+        <v>4634</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2827.629446350062</v>
+        <v>2898.709414464577</v>
       </c>
       <c r="O70">
-        <v>865.9313296016416</v>
+        <v>910.1733438770443</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>13.93928277315368</v>
+        <v>10.52549614954284</v>
       </c>
       <c r="R70">
-        <v>106.6322864965444</v>
+        <v>110.6899116297723</v>
       </c>
       <c r="S70">
-        <v>120.5715692696981</v>
+        <v>121.2154077793152</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.0956812148</v>
+        <v>19901.06507555573</v>
       </c>
       <c r="B71">
-        <v>4602.776445107937</v>
+        <v>4744.366164897966</v>
       </c>
       <c r="C71">
-        <v>31420.74755821902</v>
+        <v>32133.49293537327</v>
       </c>
       <c r="D71">
-        <v>755.4156076142435</v>
+        <v>663.9161131442336</v>
       </c>
       <c r="E71">
-        <v>11206.07143214183</v>
+        <v>11334.46699338024</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.0956812148</v>
+        <v>19901.06507555573</v>
       </c>
       <c r="I71">
-        <v>63167</v>
+        <v>62406</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36023.52400332695</v>
+        <v>36877.85910027124</v>
       </c>
       <c r="O71">
-        <v>11961.48703975608</v>
+        <v>11998.38310652447</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>117.7571354906618</v>
+        <v>144.4628218584105</v>
       </c>
       <c r="R71">
-        <v>1226.048340715474</v>
+        <v>1378.276672263272</v>
       </c>
       <c r="S71">
-        <v>1343.805476206136</v>
+        <v>1522.739494121682</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41981.96065055065</v>
+        <v>41982.13146818613</v>
       </c>
       <c r="B72">
-        <v>9799.283648864262</v>
+        <v>9654.34586737957</v>
       </c>
       <c r="C72">
-        <v>67485.32510173606</v>
+        <v>68567.68185815313</v>
       </c>
       <c r="D72">
-        <v>1360.725678412364</v>
+        <v>1261.141464343603</v>
       </c>
       <c r="E72">
-        <v>23719.19785640938</v>
+        <v>24164.59249924452</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41981.96065055065</v>
+        <v>41982.13146818613</v>
       </c>
       <c r="I72">
-        <v>132510</v>
+        <v>141055</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>77284.60875060032</v>
+        <v>78222.0277255327</v>
       </c>
       <c r="O72">
-        <v>25079.92353482175</v>
+        <v>25425.73396358813</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>376.6084798425472</v>
+        <v>287.6326565835784</v>
       </c>
       <c r="R72">
-        <v>2836.039240187612</v>
+        <v>2484.839113482704</v>
       </c>
       <c r="S72">
-        <v>3212.647720030159</v>
+        <v>2772.471770066283</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.92222846001</v>
+        <v>44204.96950347452</v>
       </c>
       <c r="B73">
-        <v>10795.04386083515</v>
+        <v>10015.06645972813</v>
       </c>
       <c r="C73">
-        <v>71163.90007531259</v>
+        <v>70082.52611316805</v>
       </c>
       <c r="D73">
-        <v>1710.845738130473</v>
+        <v>1622.644456296875</v>
       </c>
       <c r="E73">
-        <v>25775.52145231655</v>
+        <v>26455.41033586529</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.92222846001</v>
+        <v>44204.96950347452</v>
       </c>
       <c r="I73">
-        <v>136385</v>
+        <v>146044</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>81958.94393614773</v>
+        <v>80097.59257289617</v>
       </c>
       <c r="O73">
-        <v>27486.36719044702</v>
+        <v>28078.05479216216</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>325.4342142455319</v>
+        <v>335.7792303875923</v>
       </c>
       <c r="R73">
-        <v>2630.343725169571</v>
+        <v>2882.438298686509</v>
       </c>
       <c r="S73">
-        <v>2955.777939415102</v>
+        <v>3218.217529074101</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78745.98427083483</v>
+        <v>78746.04862756122</v>
       </c>
       <c r="B74">
-        <v>18702.77863054148</v>
+        <v>18385.03026587952</v>
       </c>
       <c r="C74">
-        <v>130118.0019246617</v>
+        <v>128250.1841621715</v>
       </c>
       <c r="D74">
-        <v>2798.769181140246</v>
+        <v>2631.102558210266</v>
       </c>
       <c r="E74">
-        <v>49601.12013556432</v>
+        <v>45595.91880494475</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78745.98427083483</v>
+        <v>78746.04862756122</v>
       </c>
       <c r="I74">
-        <v>255693</v>
+        <v>251979</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>148820.7805552032</v>
+        <v>146635.214428051</v>
       </c>
       <c r="O74">
-        <v>52399.88931670457</v>
+        <v>48227.02136315501</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>603.4338595637174</v>
+        <v>535.2714816744635</v>
       </c>
       <c r="R74">
-        <v>5287.643175524834</v>
+        <v>4822.87938023982</v>
       </c>
       <c r="S74">
-        <v>5891.077035088551</v>
+        <v>5358.150861914283</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38059.9954116754</v>
+        <v>38060.13497168575</v>
       </c>
       <c r="B75">
-        <v>8464.010566785481</v>
+        <v>8699.237924254885</v>
       </c>
       <c r="C75">
-        <v>61165.33216841881</v>
+        <v>61807.78985419095</v>
       </c>
       <c r="D75">
-        <v>1284.085093211185</v>
+        <v>1705.753589227805</v>
       </c>
       <c r="E75">
-        <v>22944.91315505623</v>
+        <v>26143.11862290996</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38059.9954116754</v>
+        <v>38060.13497168575</v>
       </c>
       <c r="I75">
-        <v>123406</v>
+        <v>125631</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>69629.34273520429</v>
+        <v>70507.02777844583</v>
       </c>
       <c r="O75">
-        <v>24228.99824826742</v>
+        <v>27848.87221213776</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>315.7616775578649</v>
+        <v>276.9599813537805</v>
       </c>
       <c r="R75">
-        <v>2108.722979528923</v>
+        <v>2486.222385574991</v>
       </c>
       <c r="S75">
-        <v>2424.484657086788</v>
+        <v>2763.182366928772</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.87812081678</v>
+        <v>79351.05376099004</v>
       </c>
       <c r="B76">
-        <v>18741.96336757554</v>
+        <v>18674.38608541576</v>
       </c>
       <c r="C76">
-        <v>127547.4480794128</v>
+        <v>129253.224703783</v>
       </c>
       <c r="D76">
-        <v>2386.861152594563</v>
+        <v>2914.346771505174</v>
       </c>
       <c r="E76">
-        <v>43930.49489405301</v>
+        <v>47194.2120221331</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.87812081678</v>
+        <v>79351.05376099004</v>
       </c>
       <c r="I76">
-        <v>258707</v>
+        <v>253105</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>146289.4114469883</v>
+        <v>147927.6107891987</v>
       </c>
       <c r="O76">
-        <v>46317.35604664757</v>
+        <v>50108.55879363827</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>415.7240049981944</v>
+        <v>603.5307177235698</v>
       </c>
       <c r="R76">
-        <v>4478.401323947323</v>
+        <v>5369.931697964397</v>
       </c>
       <c r="S76">
-        <v>4894.125328945517</v>
+        <v>5973.462415687967</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.95375295803</v>
+        <v>45068.07429395043</v>
       </c>
       <c r="B77">
-        <v>10108.13980151311</v>
+        <v>10253.2499357166</v>
       </c>
       <c r="C77">
-        <v>70086.49853054114</v>
+        <v>73121.98334356146</v>
       </c>
       <c r="D77">
-        <v>1686.229501657711</v>
+        <v>1387.716730849328</v>
       </c>
       <c r="E77">
-        <v>24253.96114631663</v>
+        <v>27032.35673902301</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.95375295803</v>
+        <v>45068.07429395043</v>
       </c>
       <c r="I77">
-        <v>145998</v>
+        <v>152646</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>80194.63833205425</v>
+        <v>83375.23327927805</v>
       </c>
       <c r="O77">
-        <v>25940.19064797434</v>
+        <v>28420.07346987234</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>459.086264949486</v>
+        <v>274.8939966594615</v>
       </c>
       <c r="R77">
-        <v>3973.269946944243</v>
+        <v>2571.774417440499</v>
       </c>
       <c r="S77">
-        <v>4432.356211893729</v>
+        <v>2846.668414099961</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.1545648916</v>
+        <v>14295.05510456403</v>
       </c>
       <c r="B78">
-        <v>3213.023413715192</v>
+        <v>3403.753068152001</v>
       </c>
       <c r="C78">
-        <v>23154.95792191292</v>
+        <v>23660.60030118496</v>
       </c>
       <c r="D78">
-        <v>613.3883718473508</v>
+        <v>436.0719026589076</v>
       </c>
       <c r="E78">
-        <v>9644.612073264316</v>
+        <v>8604.297435085457</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.1545648916</v>
+        <v>14295.05510456403</v>
       </c>
       <c r="I78">
-        <v>45655</v>
+        <v>46662</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26367.98133562812</v>
+        <v>27064.35336933696</v>
       </c>
       <c r="O78">
-        <v>10258.00044511167</v>
+        <v>9040.369337744363</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>92.97390892502524</v>
+        <v>100.9997584894446</v>
       </c>
       <c r="R78">
-        <v>922.2476203695759</v>
+        <v>931.2401942323668</v>
       </c>
       <c r="S78">
-        <v>1015.221529294601</v>
+        <v>1032.239952721811</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.13173923452</v>
+        <v>27737.8514569415</v>
       </c>
       <c r="B79">
-        <v>6376.280731272054</v>
+        <v>6223.465619130289</v>
       </c>
       <c r="C79">
-        <v>44406.12154737572</v>
+        <v>45442.10435450188</v>
       </c>
       <c r="D79">
-        <v>927.4050096284869</v>
+        <v>1064.338787141724</v>
       </c>
       <c r="E79">
-        <v>17760.30928313731</v>
+        <v>17797.17974735553</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.13173923452</v>
+        <v>27737.8514569415</v>
       </c>
       <c r="I79">
-        <v>86257</v>
+        <v>90784</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>50782.40227864777</v>
+        <v>51665.56997363217</v>
       </c>
       <c r="O79">
-        <v>18687.7142927658</v>
+        <v>18861.51853449726</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>193.8765690362975</v>
+        <v>152.3894844542579</v>
       </c>
       <c r="R79">
-        <v>1851.724820195357</v>
+        <v>1587.162333571778</v>
       </c>
       <c r="S79">
-        <v>2045.601389231654</v>
+        <v>1739.551818026035</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.081558420804</v>
+        <v>2820.047381327503</v>
       </c>
       <c r="B80">
-        <v>627.5807327975992</v>
+        <v>645.3707633860749</v>
       </c>
       <c r="C80">
-        <v>4550.833796786544</v>
+        <v>4542.946602100345</v>
       </c>
       <c r="D80">
-        <v>93.68183801520873</v>
+        <v>82.49957476054327</v>
       </c>
       <c r="E80">
-        <v>1642.35989004194</v>
+        <v>1652.468157834444</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.081558420804</v>
+        <v>2820.047381327503</v>
       </c>
       <c r="I80">
-        <v>8623</v>
+        <v>9285</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5178.414529584143</v>
+        <v>5188.31736548642</v>
       </c>
       <c r="O80">
-        <v>1736.041728057148</v>
+        <v>1734.967732594987</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>19.64113984521205</v>
+        <v>30.69533970881907</v>
       </c>
       <c r="R80">
-        <v>162.0065080093837</v>
+        <v>230.4949805197346</v>
       </c>
       <c r="S80">
-        <v>181.6476478545958</v>
+        <v>261.1903202285537</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.84367244961</v>
+        <v>3591.081869371819</v>
       </c>
       <c r="B81">
-        <v>803.9994020075503</v>
+        <v>828.9155157328955</v>
       </c>
       <c r="C81">
-        <v>5643.825996477594</v>
+        <v>5837.750604665433</v>
       </c>
       <c r="D81">
-        <v>126.9670462024667</v>
+        <v>114.6635787443781</v>
       </c>
       <c r="E81">
-        <v>2090.546706914747</v>
+        <v>2123.506189739705</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.84367244961</v>
+        <v>3591.081869371819</v>
       </c>
       <c r="I81">
-        <v>11268</v>
+        <v>11239</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6447.825398485144</v>
+        <v>6666.666120398328</v>
       </c>
       <c r="O81">
-        <v>2217.513753117214</v>
+        <v>2238.169768484084</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>38.10728221269704</v>
+        <v>22.57628925801031</v>
       </c>
       <c r="R81">
-        <v>277.8666537145896</v>
+        <v>224.1036536368559</v>
       </c>
       <c r="S81">
-        <v>315.9739359272867</v>
+        <v>246.6799428948662</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.903504221998</v>
+        <v>1155.988301878114</v>
       </c>
       <c r="B82">
-        <v>259.5129262708962</v>
+        <v>262.9185054210092</v>
       </c>
       <c r="C82">
-        <v>1848.941578486331</v>
+        <v>1929.912203779797</v>
       </c>
       <c r="D82">
-        <v>48.43010886932318</v>
+        <v>37.2420624981207</v>
       </c>
       <c r="E82">
-        <v>764.1413320747182</v>
+        <v>717.2687471700745</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.903504221998</v>
+        <v>1155.988301878114</v>
       </c>
       <c r="I82">
-        <v>3787</v>
+        <v>3638</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2108.454504757227</v>
+        <v>2192.830709200807</v>
       </c>
       <c r="O82">
-        <v>812.5714409440413</v>
+        <v>754.5108096681952</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>10.09010577751953</v>
+        <v>8.311635045488153</v>
       </c>
       <c r="R82">
-        <v>75.53733828745757</v>
+        <v>56.15897266566406</v>
       </c>
       <c r="S82">
-        <v>85.6274440649771</v>
+        <v>64.47060771115221</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.89909078495</v>
+        <v>13237.96446796384</v>
       </c>
       <c r="B83">
-        <v>1967.825873355115</v>
+        <v>1908.5839136119</v>
       </c>
       <c r="C83">
-        <v>21842.46002277192</v>
+        <v>22254.55973466974</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>7639.880951327013</v>
+        <v>9888.503929285138</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.89909078495</v>
+        <v>13237.96446796384</v>
       </c>
       <c r="I83">
-        <v>39885</v>
+        <v>44142</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>23810.28589612704</v>
+        <v>24163.14364828164</v>
       </c>
       <c r="O83">
-        <v>7639.880951327013</v>
+        <v>9888.503929285138</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>9.706209586707475</v>
+        <v>9.209537662039143</v>
       </c>
       <c r="R83">
-        <v>1034.081942764577</v>
+        <v>1021.429908254051</v>
       </c>
       <c r="S83">
-        <v>1043.788152351284</v>
+        <v>1030.63944591609</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.134491349834</v>
+        <v>6787.963038636801</v>
       </c>
       <c r="B84">
-        <v>922.8015038203087</v>
+        <v>993.4368552123465</v>
       </c>
       <c r="C84">
-        <v>11573.58895364077</v>
+        <v>11179.86448289526</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4404.693224025708</v>
+        <v>4257.904530461374</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.134491349834</v>
+        <v>6787.963038636801</v>
       </c>
       <c r="I84">
-        <v>21018</v>
+        <v>21927</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12496.39045746108</v>
+        <v>12173.30133810761</v>
       </c>
       <c r="O84">
-        <v>4404.693224025708</v>
+        <v>4257.904530461374</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>4.218406700171498</v>
+        <v>7.506540931926632</v>
       </c>
       <c r="R84">
-        <v>554.8904367795949</v>
+        <v>507.786178186362</v>
       </c>
       <c r="S84">
-        <v>559.1088434797664</v>
+        <v>515.2927191182887</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1507.924614565356</v>
+        <v>1508.087438513181</v>
       </c>
       <c r="B85">
-        <v>233.9520607225179</v>
+        <v>214.2641392965392</v>
       </c>
       <c r="C85">
-        <v>2463.13569020431</v>
+        <v>2520.04303119519</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1015.415340646654</v>
+        <v>895.9291813415579</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1507.924614565356</v>
+        <v>1508.087438513181</v>
       </c>
       <c r="I85">
-        <v>4810</v>
+        <v>4788</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2697.087750926828</v>
+        <v>2734.307170491729</v>
       </c>
       <c r="O85">
-        <v>1015.415340646654</v>
+        <v>895.9291813415579</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.104221632505615</v>
+        <v>1.416119204344178</v>
       </c>
       <c r="R85">
-        <v>124.7756925356295</v>
+        <v>99.68723444399575</v>
       </c>
       <c r="S85">
-        <v>125.8799141681351</v>
+        <v>101.1033536483399</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25213.11839655732</v>
+        <v>25213.0411488987</v>
       </c>
       <c r="B86">
-        <v>3697.9482064043</v>
+        <v>3764.831960992116</v>
       </c>
       <c r="C86">
-        <v>41654.23761108098</v>
+        <v>42728.4708992746</v>
       </c>
       <c r="D86">
-        <v>665.2530801322457</v>
+        <v>612.0582857407654</v>
       </c>
       <c r="E86">
-        <v>13647.86261585567</v>
+        <v>15164.37612346744</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25213.11839655732</v>
+        <v>25213.0411488987</v>
       </c>
       <c r="I86">
-        <v>79398</v>
+        <v>77950</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>45352.18581748528</v>
+        <v>46493.30286026672</v>
       </c>
       <c r="O86">
-        <v>14313.11569598792</v>
+        <v>15776.43440920821</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31.38753676950748</v>
+        <v>13.38868879124801</v>
       </c>
       <c r="R86">
-        <v>2023.354489407911</v>
+        <v>1832.789426022666</v>
       </c>
       <c r="S86">
-        <v>2054.742026177418</v>
+        <v>1846.178114813914</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6443.975881999738</v>
+        <v>6444.136074021375</v>
       </c>
       <c r="B87">
-        <v>919.8267864824439</v>
+        <v>889.3541430165141</v>
       </c>
       <c r="C87">
-        <v>11089.98532638609</v>
+        <v>10978.2079922471</v>
       </c>
       <c r="D87">
-        <v>159.0935880334943</v>
+        <v>168.5649166697974</v>
       </c>
       <c r="E87">
-        <v>3835.092283984925</v>
+        <v>3805.485806858901</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6443.975881999738</v>
+        <v>6444.136074021375</v>
       </c>
       <c r="I87">
-        <v>20048</v>
+        <v>21033</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>12009.81211286854</v>
+        <v>11867.56213526362</v>
       </c>
       <c r="O87">
-        <v>3994.185872018419</v>
+        <v>3974.050723528699</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>3.834096870654433</v>
+        <v>3.433446883019069</v>
       </c>
       <c r="R87">
-        <v>480.705096937587</v>
+        <v>423.0817800622884</v>
       </c>
       <c r="S87">
-        <v>484.5391938082415</v>
+        <v>426.5152269453075</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.1303491356</v>
+        <v>55704.00397875706</v>
       </c>
       <c r="B88">
-        <v>7443.630796395734</v>
+        <v>7219.55018716299</v>
       </c>
       <c r="C88">
-        <v>93371.92923412964</v>
+        <v>94979.60095689276</v>
       </c>
       <c r="D88">
-        <v>1377.074551130412</v>
+        <v>1277.875796200258</v>
       </c>
       <c r="E88">
-        <v>32076.87353170413</v>
+        <v>29270.49126454439</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.1303491356</v>
+        <v>55704.00397875706</v>
       </c>
       <c r="I88">
-        <v>179860</v>
+        <v>180436</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>100815.5600305254</v>
+        <v>102199.1511440557</v>
       </c>
       <c r="O88">
-        <v>33453.94808283454</v>
+        <v>30548.36706074464</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>26.97548032198856</v>
+        <v>87.33964591591582</v>
       </c>
       <c r="R88">
-        <v>3910.926280065165</v>
+        <v>3311.656785922952</v>
       </c>
       <c r="S88">
-        <v>3937.901760387154</v>
+        <v>3398.996431838868</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.1477203291</v>
+        <v>201456.1083069105</v>
       </c>
       <c r="B89">
-        <v>29597.84502278975</v>
+        <v>29576.42191429367</v>
       </c>
       <c r="C89">
-        <v>328139.9763125045</v>
+        <v>344755.1177905537</v>
       </c>
       <c r="D89">
-        <v>5125.910004982553</v>
+        <v>5189.327329787791</v>
       </c>
       <c r="E89">
-        <v>115401.1167017901</v>
+        <v>116527.4634373235</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.1477203291</v>
+        <v>201456.1083069105</v>
       </c>
       <c r="I89">
-        <v>665785</v>
+        <v>675001</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>357737.8213352942</v>
+        <v>374331.5397048474</v>
       </c>
       <c r="O89">
-        <v>120527.0267067726</v>
+        <v>121716.7907671113</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>341.5186607016917</v>
+        <v>81.31646383152676</v>
       </c>
       <c r="R89">
-        <v>18426.47779551034</v>
+        <v>12276.16415505532</v>
       </c>
       <c r="S89">
-        <v>18767.99645621203</v>
+        <v>12357.48061888685</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.98304908781</v>
+        <v>15486.09211482463</v>
       </c>
       <c r="B90">
-        <v>2179.799992516436</v>
+        <v>2193.467828029774</v>
       </c>
       <c r="C90">
-        <v>26311.83441090954</v>
+        <v>26091.12671549067</v>
       </c>
       <c r="D90">
-        <v>362.9749885388432</v>
+        <v>416.7540633270537</v>
       </c>
       <c r="E90">
-        <v>8738.201434984556</v>
+        <v>9641.928158991974</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.98304908781</v>
+        <v>15486.09211482463</v>
       </c>
       <c r="I90">
-        <v>50619</v>
+        <v>49710</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28491.63440342598</v>
+        <v>28284.59454352045</v>
       </c>
       <c r="O90">
-        <v>9101.176423523399</v>
+        <v>10058.68222231903</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>13.31337696051036</v>
+        <v>9.278389925923021</v>
       </c>
       <c r="R90">
-        <v>1211.947064565225</v>
+        <v>1199.65534663844</v>
       </c>
       <c r="S90">
-        <v>1225.260441525736</v>
+        <v>1208.933736564363</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14404.11792382543</v>
+        <v>14403.8477854898</v>
       </c>
       <c r="B91">
-        <v>2031.571979367717</v>
+        <v>2111.136074279127</v>
       </c>
       <c r="C91">
-        <v>24068.02750634149</v>
+        <v>24429.74876065932</v>
       </c>
       <c r="D91">
-        <v>275.6851667938815</v>
+        <v>396.6658447603438</v>
       </c>
       <c r="E91">
-        <v>7778.165411999246</v>
+        <v>8465.747932419001</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14404.11792382543</v>
+        <v>14403.8477854898</v>
       </c>
       <c r="I91">
-        <v>47022</v>
+        <v>45785</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26099.59948570921</v>
+        <v>26540.88483493845</v>
       </c>
       <c r="O91">
-        <v>8053.850578793128</v>
+        <v>8862.413777179345</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>12.59494819322699</v>
+        <v>16.53206084865039</v>
       </c>
       <c r="R91">
-        <v>931.8805861951138</v>
+        <v>1444.069970881072</v>
       </c>
       <c r="S91">
-        <v>944.4755343883408</v>
+        <v>1460.602031729723</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.08302401558</v>
+        <v>46956.08179242403</v>
       </c>
       <c r="B92">
-        <v>6810.932228731502</v>
+        <v>6462.44543788567</v>
       </c>
       <c r="C92">
-        <v>78682.034669125</v>
+        <v>78916.87561994213</v>
       </c>
       <c r="D92">
-        <v>1098.392815213165</v>
+        <v>998.4611272968878</v>
       </c>
       <c r="E92">
-        <v>26612.56488455788</v>
+        <v>26563.93744812034</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.08302401558</v>
+        <v>46956.08179242403</v>
       </c>
       <c r="I92">
-        <v>147470</v>
+        <v>150081</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>85492.9668978565</v>
+        <v>85379.32105782781</v>
       </c>
       <c r="O92">
-        <v>27710.95769977105</v>
+        <v>27562.39857541722</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>28.36004128908145</v>
+        <v>14.07365886621129</v>
       </c>
       <c r="R92">
-        <v>3403.299907221589</v>
+        <v>3370.076674376364</v>
       </c>
       <c r="S92">
-        <v>3431.659948510671</v>
+        <v>3384.150333242575</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.93899649843</v>
+        <v>24420.10613763573</v>
       </c>
       <c r="B93">
-        <v>3286.022296367052</v>
+        <v>3456.297074824678</v>
       </c>
       <c r="C93">
-        <v>40145.76952662139</v>
+        <v>40387.57437779039</v>
       </c>
       <c r="D93">
-        <v>485.7480907510083</v>
+        <v>660.3220921237557</v>
       </c>
       <c r="E93">
-        <v>12998.08655930848</v>
+        <v>15518.46238314807</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.93899649843</v>
+        <v>24420.10613763573</v>
       </c>
       <c r="I93">
-        <v>79186</v>
+        <v>80397</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>43431.79182298844</v>
+        <v>43843.87145261507</v>
       </c>
       <c r="O93">
-        <v>13483.83465005949</v>
+        <v>16178.78447527183</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>7.013371246311504</v>
+        <v>16.50233482731084</v>
       </c>
       <c r="R93">
-        <v>1422.540163025875</v>
+        <v>1625.521752151995</v>
       </c>
       <c r="S93">
-        <v>1429.553534272187</v>
+        <v>1642.024086979305</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.86621566699</v>
+        <v>70372.13949832968</v>
       </c>
       <c r="B94">
-        <v>10514.78558655534</v>
+        <v>10378.17174172293</v>
       </c>
       <c r="C94">
-        <v>120298.936780232</v>
+        <v>119128.246482024</v>
       </c>
       <c r="D94">
-        <v>1897.600383693548</v>
+        <v>1632.506092747201</v>
       </c>
       <c r="E94">
-        <v>42134.45181439422</v>
+        <v>34902.7672971481</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.86621566699</v>
+        <v>70372.13949832968</v>
       </c>
       <c r="I94">
-        <v>218242</v>
+        <v>240294</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>130813.7223667873</v>
+        <v>129506.4182237469</v>
       </c>
       <c r="O94">
-        <v>44032.05219808777</v>
+        <v>36535.2733898953</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>13.63764378844831</v>
+        <v>37.39726660625589</v>
       </c>
       <c r="R94">
-        <v>4352.148744405738</v>
+        <v>4936.967865786886</v>
       </c>
       <c r="S94">
-        <v>4365.786388194187</v>
+        <v>4974.365132393142</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7574.09032820421</v>
+        <v>7574.096065695793</v>
       </c>
       <c r="B95">
-        <v>1128.321560217044</v>
+        <v>1106.853054289697</v>
       </c>
       <c r="C95">
-        <v>12817.92399194207</v>
+        <v>12603.54800933419</v>
       </c>
       <c r="D95">
-        <v>184.1798011289655</v>
+        <v>183.2796336337538</v>
       </c>
       <c r="E95">
-        <v>4383.177421580975</v>
+        <v>4307.859655326744</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7574.09032820421</v>
+        <v>7574.096065695793</v>
       </c>
       <c r="I95">
-        <v>24247</v>
+        <v>23572</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13946.24555215912</v>
+        <v>13710.40106362389</v>
       </c>
       <c r="O95">
-        <v>4567.35722270994</v>
+        <v>4491.139288960499</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>4.538622047713652</v>
+        <v>6.020364936498471</v>
       </c>
       <c r="R95">
-        <v>635.2881221712013</v>
+        <v>525.8647305395082</v>
       </c>
       <c r="S95">
-        <v>639.8267442189149</v>
+        <v>531.8850954760067</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45037.98360028047</v>
+        <v>45038.07157720395</v>
       </c>
       <c r="B96">
-        <v>6087.658155666387</v>
+        <v>6696.698957449815</v>
       </c>
       <c r="C96">
-        <v>77599.80855076722</v>
+        <v>75319.3467429103</v>
       </c>
       <c r="D96">
-        <v>1136.894112856897</v>
+        <v>1292.570094817592</v>
       </c>
       <c r="E96">
-        <v>27662.67262997088</v>
+        <v>28308.9760250116</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45037.98360028047</v>
+        <v>45038.07157720395</v>
       </c>
       <c r="I96">
-        <v>146463</v>
+        <v>142758</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>83687.46670643361</v>
+        <v>82016.04570036012</v>
       </c>
       <c r="O96">
-        <v>28799.56674282777</v>
+        <v>29601.54611982919</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>56.76837022570678</v>
+        <v>42.71516033437153</v>
       </c>
       <c r="R96">
-        <v>2892.20432166012</v>
+        <v>3150.359911922744</v>
       </c>
       <c r="S96">
-        <v>2948.972691885826</v>
+        <v>3193.075072257115</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10073.10264667721</v>
+        <v>10072.85945821086</v>
       </c>
       <c r="B97">
-        <v>1491.624248538253</v>
+        <v>1472.159180203817</v>
       </c>
       <c r="C97">
-        <v>16967.38121363528</v>
+        <v>17761.56665610059</v>
       </c>
       <c r="D97">
-        <v>276.4510876283478</v>
+        <v>277.1663970654029</v>
       </c>
       <c r="E97">
-        <v>6267.911332149781</v>
+        <v>6477.530695945973</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10073.10264667721</v>
+        <v>10072.85945821086</v>
       </c>
       <c r="I97">
-        <v>31135</v>
+        <v>32398</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18459.00546217353</v>
+        <v>19233.7258363044</v>
       </c>
       <c r="O97">
-        <v>6544.362419778128</v>
+        <v>6754.697093011376</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>10.52686074156006</v>
+        <v>3.771228683512765</v>
       </c>
       <c r="R97">
-        <v>793.2902570048236</v>
+        <v>602.5593493280969</v>
       </c>
       <c r="S97">
-        <v>803.8171177463837</v>
+        <v>606.3305780116097</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.92586716011</v>
+        <v>11376.01257462026</v>
       </c>
       <c r="B98">
-        <v>2245.255078274897</v>
+        <v>2092.442413838854</v>
       </c>
       <c r="C98">
-        <v>19024.06935152441</v>
+        <v>18015.9793325377</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>7424.130453686804</v>
+        <v>6330.73185525808</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.92586716011</v>
+        <v>11376.01257462026</v>
       </c>
       <c r="I98">
-        <v>30915</v>
+        <v>30254</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>21269.32442979931</v>
+        <v>20108.42174637655</v>
       </c>
       <c r="O98">
-        <v>7424.130453686804</v>
+        <v>6330.73185525808</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>93.5711375419223</v>
+        <v>103.751946861375</v>
       </c>
       <c r="R98">
-        <v>762.9067687415759</v>
+        <v>701.9071013313597</v>
       </c>
       <c r="S98">
-        <v>856.4779062834982</v>
+        <v>805.6590481927348</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1576.446529974894</v>
+        <v>1681.532396953543</v>
       </c>
       <c r="V98">
-        <v>1576.446529974894</v>
+        <v>1681.532396953543</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.83124918259</v>
+        <v>93358.95586153341</v>
       </c>
       <c r="B99">
-        <v>17969.10785730221</v>
+        <v>18165.43518598464</v>
       </c>
       <c r="C99">
-        <v>153754.9606075056</v>
+        <v>148265.1621657489</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>59814.16478984807</v>
+        <v>56169.47083953088</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.83124918259</v>
+        <v>93358.95586153341</v>
       </c>
       <c r="I99">
-        <v>247402</v>
+        <v>258805</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>171724.0684648078</v>
+        <v>166430.5973517336</v>
       </c>
       <c r="O99">
-        <v>59814.16478984807</v>
+        <v>56169.47083953088</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>848.9551784917088</v>
+        <v>1031.703656118838</v>
       </c>
       <c r="R99">
-        <v>6106.099478918539</v>
+        <v>5575.712328668913</v>
       </c>
       <c r="S99">
-        <v>6955.054657410247</v>
+        <v>6607.415984787751</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>11340.26012766984</v>
+        <v>13464.40211992348</v>
       </c>
       <c r="V99">
-        <v>11340.26012766984</v>
+        <v>13464.40211992348</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20816.91846622044</v>
+        <v>20816.84784951399</v>
       </c>
       <c r="B100">
-        <v>3854.97223294989</v>
+        <v>4331.836480927233</v>
       </c>
       <c r="C100">
-        <v>34241.45867819819</v>
+        <v>35197.12215174085</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>13340.09734169966</v>
+        <v>13114.81910653354</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20816.91846622044</v>
+        <v>20816.84784951399</v>
       </c>
       <c r="I100">
-        <v>57837</v>
+        <v>55073</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>38096.43091114808</v>
+        <v>39528.95863266808</v>
       </c>
       <c r="O100">
-        <v>13340.09734169966</v>
+        <v>13114.81910653354</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>224.3372603664102</v>
+        <v>211.4777012731106</v>
       </c>
       <c r="R100">
-        <v>1456.291550440431</v>
+        <v>1531.418476812822</v>
       </c>
       <c r="S100">
-        <v>1680.628810806841</v>
+        <v>1742.896178085932</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2886.278079497588</v>
+        <v>3407.891984532572</v>
       </c>
       <c r="V100">
-        <v>2886.278079497588</v>
+        <v>3407.891984532572</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43953.09214344715</v>
+        <v>43953.03754918715</v>
       </c>
       <c r="B101">
-        <v>8560.049184875183</v>
+        <v>8465.975444395608</v>
       </c>
       <c r="C101">
-        <v>72886.202709985</v>
+        <v>73316.45739616746</v>
       </c>
       <c r="D101">
-        <v>1979.153154962089</v>
+        <v>2093.941981726659</v>
       </c>
       <c r="E101">
-        <v>24671.68574323871</v>
+        <v>25542.66202574857</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43953.09214344715</v>
+        <v>43953.03754918715</v>
       </c>
       <c r="I101">
-        <v>120338</v>
+        <v>114290</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>81446.25189486018</v>
+        <v>81782.43284056307</v>
       </c>
       <c r="O101">
-        <v>26650.8388982008</v>
+        <v>27636.60400747523</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>371.0728824818482</v>
+        <v>422.6780630300668</v>
       </c>
       <c r="R101">
-        <v>2780.569188799147</v>
+        <v>2453.92407432038</v>
       </c>
       <c r="S101">
-        <v>3151.642071280995</v>
+        <v>2876.602137350447</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>6712.984621102628</v>
+        <v>5741.459568151049</v>
       </c>
       <c r="V101">
-        <v>6712.984621102628</v>
+        <v>5741.459568151049</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.1449253544</v>
+        <v>103394.0799292839</v>
       </c>
       <c r="B102">
-        <v>21164.51869708525</v>
+        <v>20369.5531159</v>
       </c>
       <c r="C102">
-        <v>171928.2770152772</v>
+        <v>168806.6168280272</v>
       </c>
       <c r="D102">
-        <v>6390.972642473333</v>
+        <v>4528.006130418458</v>
       </c>
       <c r="E102">
-        <v>62317.50976029386</v>
+        <v>54482.29542757862</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.1449253544</v>
+        <v>103394.0799292839</v>
       </c>
       <c r="I102">
-        <v>284959</v>
+        <v>274441</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>193092.7957123625</v>
+        <v>189176.1699439272</v>
       </c>
       <c r="O102">
-        <v>68708.4824027672</v>
+        <v>59010.30155799707</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>1077.670751897321</v>
+        <v>746.5354080579613</v>
       </c>
       <c r="R102">
-        <v>6744.330132317223</v>
+        <v>7247.794841961392</v>
       </c>
       <c r="S102">
-        <v>7822.000884214544</v>
+        <v>7994.330250019353</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>13668.27564096215</v>
+        <v>13743.44997780758</v>
       </c>
       <c r="V102">
-        <v>13668.27564096215</v>
+        <v>13743.44997780758</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.13380807592</v>
+        <v>35337.02016155244</v>
       </c>
       <c r="B103">
-        <v>6946.743663055063</v>
+        <v>6599.725154936132</v>
       </c>
       <c r="C103">
-        <v>57690.2779438822</v>
+        <v>56347.24897970798</v>
       </c>
       <c r="D103">
-        <v>1947.195383590448</v>
+        <v>1640.651475374086</v>
       </c>
       <c r="E103">
-        <v>21213.23377145554</v>
+        <v>18428.17701846621</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.13380807592</v>
+        <v>35337.02016155244</v>
       </c>
       <c r="I103">
-        <v>95356</v>
+        <v>97073</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>64637.02160693727</v>
+        <v>62946.97413464412</v>
       </c>
       <c r="O103">
-        <v>23160.42915504598</v>
+        <v>20068.8284938403</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>304.1713861389066</v>
+        <v>363.7062782383001</v>
       </c>
       <c r="R103">
-        <v>2372.733449597779</v>
+        <v>2403.381103572237</v>
       </c>
       <c r="S103">
-        <v>2676.904835736686</v>
+        <v>2767.087381810537</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4141.057815212039</v>
+        <v>5795.275617579796</v>
       </c>
       <c r="V103">
-        <v>4141.057815212039</v>
+        <v>5795.275617579796</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.9318731651</v>
+        <v>122131.0751413993</v>
       </c>
       <c r="B104">
-        <v>23530.44017989683</v>
+        <v>24270.33128432931</v>
       </c>
       <c r="C104">
-        <v>202867.3210435098</v>
+        <v>198878.3809118342</v>
       </c>
       <c r="D104">
-        <v>5427.574620889612</v>
+        <v>6108.286953288401</v>
       </c>
       <c r="E104">
-        <v>61756.59933366092</v>
+        <v>73112.97666260567</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.9318731651</v>
+        <v>122131.0751413993</v>
       </c>
       <c r="I104">
-        <v>338031</v>
+        <v>334515</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>226397.7612234066</v>
+        <v>223148.7121961635</v>
       </c>
       <c r="O104">
-        <v>67184.17395455054</v>
+        <v>79221.26361589407</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1361.618052613577</v>
+        <v>1019.585028944928</v>
       </c>
       <c r="R104">
-        <v>7603.262502176663</v>
+        <v>7736.872688610802</v>
       </c>
       <c r="S104">
-        <v>8964.880554790239</v>
+        <v>8756.45771755573</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>16379.69835603729</v>
+        <v>18293.68046572444</v>
       </c>
       <c r="V104">
-        <v>16379.69835603729</v>
+        <v>18293.68046572444</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.15648304379</v>
+        <v>81323.83701469538</v>
       </c>
       <c r="B105">
-        <v>15889.06618593457</v>
+        <v>15583.43755198529</v>
       </c>
       <c r="C105">
-        <v>136213.1423137376</v>
+        <v>133778.0637311234</v>
       </c>
       <c r="D105">
-        <v>3770.674756810667</v>
+        <v>4148.54651722842</v>
       </c>
       <c r="E105">
-        <v>46985.73566544854</v>
+        <v>49821.9700706431</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.15648304379</v>
+        <v>81323.83701469538</v>
       </c>
       <c r="I105">
-        <v>216568</v>
+        <v>217731</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>152102.2084996722</v>
+        <v>149361.5012831087</v>
       </c>
       <c r="O105">
-        <v>50756.41042225921</v>
+        <v>53970.51658787152</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>724.1006954223531</v>
+        <v>654.1518018881809</v>
       </c>
       <c r="R105">
-        <v>5125.715710400055</v>
+        <v>5875.352184473324</v>
       </c>
       <c r="S105">
-        <v>5849.816405822408</v>
+        <v>6529.503986361505</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>12082.1571370534</v>
+        <v>10355.32065191914</v>
       </c>
       <c r="V105">
-        <v>12082.1571370534</v>
+        <v>10355.32065191914</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.1344163623</v>
+        <v>77850.09377802209</v>
       </c>
       <c r="B106">
-        <v>14808.0768637031</v>
+        <v>15250.74003603296</v>
       </c>
       <c r="C106">
-        <v>126849.0969169332</v>
+        <v>125686.863121374</v>
       </c>
       <c r="D106">
-        <v>4480.501700465125</v>
+        <v>3946.406607183653</v>
       </c>
       <c r="E106">
-        <v>50892.47359962387</v>
+        <v>47675.45146736813</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.1344163623</v>
+        <v>77850.09377802209</v>
       </c>
       <c r="I106">
-        <v>208678</v>
+        <v>221523</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>141657.1737806363</v>
+        <v>140937.603157407</v>
       </c>
       <c r="O106">
-        <v>55372.97530008899</v>
+        <v>51621.85807455178</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>550.9195495248852</v>
+        <v>570.2354068913488</v>
       </c>
       <c r="R106">
-        <v>5011.625555136669</v>
+        <v>4356.596254516748</v>
       </c>
       <c r="S106">
-        <v>5562.545104661554</v>
+        <v>4926.831661408097</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10399.96072725355</v>
+        <v>10791.77780256166</v>
       </c>
       <c r="V106">
-        <v>10399.96072725355</v>
+        <v>10791.77780256166</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.10517090959</v>
+        <v>86202.95977340351</v>
       </c>
       <c r="B107">
-        <v>15961.20095464788</v>
+        <v>16783.63097725375</v>
       </c>
       <c r="C107">
-        <v>136204.7712603823</v>
+        <v>142295.7385671006</v>
       </c>
       <c r="D107">
-        <v>4213.195595938177</v>
+        <v>4113.356506787427</v>
       </c>
       <c r="E107">
-        <v>48147.21483612167</v>
+        <v>51858.26688609307</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.10517090959</v>
+        <v>86202.95977340351</v>
       </c>
       <c r="I107">
-        <v>231526</v>
+        <v>235454</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>152165.9722150301</v>
+        <v>159079.3695443543</v>
       </c>
       <c r="O107">
-        <v>52360.41043205984</v>
+        <v>55971.6233928805</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>692.1625347439162</v>
+        <v>601.8612474408542</v>
       </c>
       <c r="R107">
-        <v>5751.367333626828</v>
+        <v>5957.402505467695</v>
       </c>
       <c r="S107">
-        <v>6443.529868370744</v>
+        <v>6559.26375290855</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>12879.51098389689</v>
+        <v>12102.89810571063</v>
       </c>
       <c r="V107">
-        <v>12879.51098389689</v>
+        <v>12102.89810571063</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60304.83648733977</v>
+        <v>60304.9394644439</v>
       </c>
       <c r="B108">
-        <v>11507.71466777643</v>
+        <v>11359.91718462514</v>
       </c>
       <c r="C108">
-        <v>100096.0595921398</v>
+        <v>95077.35218141221</v>
       </c>
       <c r="D108">
-        <v>3142.012095517241</v>
+        <v>3046.434204450426</v>
       </c>
       <c r="E108">
-        <v>34657.57913472002</v>
+        <v>35542.54853556799</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60304.83648733977</v>
+        <v>60304.9394644439</v>
       </c>
       <c r="I108">
-        <v>160483</v>
+        <v>162427</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>111603.7742599162</v>
+        <v>106437.2693660374</v>
       </c>
       <c r="O108">
-        <v>37799.59123023726</v>
+        <v>38588.98274001841</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>450.2022437747213</v>
+        <v>583.038982097693</v>
       </c>
       <c r="R108">
-        <v>3109.631897055193</v>
+        <v>4114.419155944075</v>
       </c>
       <c r="S108">
-        <v>3559.834140829914</v>
+        <v>4697.458138041768</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>7170.255898596113</v>
+        <v>8488.437485885612</v>
       </c>
       <c r="V108">
-        <v>7170.255898596113</v>
+        <v>8488.437485885612</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25282.95093262933</v>
+        <v>25283.14169078782</v>
       </c>
       <c r="B109">
-        <v>4809.067279339849</v>
+        <v>4803.750362607177</v>
       </c>
       <c r="C109">
-        <v>40726.43965063241</v>
+        <v>40351.40378886287</v>
       </c>
       <c r="D109">
-        <v>1179.426562324685</v>
+        <v>1124.170036834127</v>
       </c>
       <c r="E109">
-        <v>13397.90539362001</v>
+        <v>14020.44368170749</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25282.95093262933</v>
+        <v>25283.14169078782</v>
       </c>
       <c r="I109">
-        <v>68320</v>
+        <v>68592</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>45535.50692997226</v>
+        <v>45155.15415147004</v>
       </c>
       <c r="O109">
-        <v>14577.33195594469</v>
+        <v>15144.61371854162</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>233.6765867324561</v>
+        <v>292.398565074433</v>
       </c>
       <c r="R109">
-        <v>1745.02856588269</v>
+        <v>1716.178668463664</v>
       </c>
       <c r="S109">
-        <v>1978.705152615146</v>
+        <v>2008.577233538097</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3650.397238556507</v>
+        <v>3593.292471580776</v>
       </c>
       <c r="V109">
-        <v>3650.397238556507</v>
+        <v>3593.292471580776</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.027150770133</v>
+        <v>4049.102989251055</v>
       </c>
       <c r="B110">
-        <v>824.080721711187</v>
+        <v>780.3206329408811</v>
       </c>
       <c r="C110">
-        <v>6609.128232635669</v>
+        <v>6684.988723389432</v>
       </c>
       <c r="D110">
-        <v>188.7606116569055</v>
+        <v>181.7845803492289</v>
       </c>
       <c r="E110">
-        <v>2380.734124650006</v>
+        <v>2278.978146565111</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.027150770133</v>
+        <v>4049.102989251055</v>
       </c>
       <c r="I110">
-        <v>10960</v>
+        <v>11288</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7433.208954346856</v>
+        <v>7465.309356330313</v>
       </c>
       <c r="O110">
-        <v>2569.494736306912</v>
+        <v>2460.76272691434</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40.68163618047502</v>
+        <v>35.39961694645468</v>
       </c>
       <c r="R110">
-        <v>236.1988634729642</v>
+        <v>255.7399467596364</v>
       </c>
       <c r="S110">
-        <v>276.8804996534392</v>
+        <v>291.1395637060911</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>500.0093179259866</v>
+        <v>597.1762364214183</v>
       </c>
       <c r="V110">
-        <v>500.0093179259866</v>
+        <v>597.1762364214183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8763.056520310005</v>
+        <v>8762.837416863731</v>
       </c>
       <c r="B111">
-        <v>1701.467067131789</v>
+        <v>1717.188708669265</v>
       </c>
       <c r="C111">
-        <v>14306.98582863791</v>
+        <v>14645.76613305383</v>
       </c>
       <c r="D111">
-        <v>474.6753985805371</v>
+        <v>418.263195546093</v>
       </c>
       <c r="E111">
-        <v>5861.763973871674</v>
+        <v>5124.671884048096</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8763.056520310005</v>
+        <v>8762.837416863731</v>
       </c>
       <c r="I111">
-        <v>23809</v>
+        <v>23749</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>16008.4528957697</v>
+        <v>16362.95484172309</v>
       </c>
       <c r="O111">
-        <v>6336.439372452212</v>
+        <v>5542.935079594189</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>80.61900957787366</v>
+        <v>63.14026778829805</v>
       </c>
       <c r="R111">
-        <v>518.1760612296235</v>
+        <v>463.7735268922172</v>
       </c>
       <c r="S111">
-        <v>598.7950708074972</v>
+        <v>526.9137946805151</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1239.055804275459</v>
+        <v>1127.739461825397</v>
       </c>
       <c r="V111">
-        <v>1239.055804275459</v>
+        <v>1127.739461825397</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.937530687479</v>
+        <v>9926.922699505218</v>
       </c>
       <c r="B112">
-        <v>2003.198838324664</v>
+        <v>1969.432626447495</v>
       </c>
       <c r="C112">
-        <v>16515.12999417472</v>
+        <v>16059.14772867231</v>
       </c>
       <c r="D112">
-        <v>493.9376901753857</v>
+        <v>439.8603101060258</v>
       </c>
       <c r="E112">
-        <v>5738.551602924187</v>
+        <v>5303.266665703121</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.937530687479</v>
+        <v>9926.922699505218</v>
       </c>
       <c r="I112">
-        <v>26208</v>
+        <v>26498</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18518.32883249939</v>
+        <v>18028.58035511981</v>
       </c>
       <c r="O112">
-        <v>6232.489293099573</v>
+        <v>5743.126975809147</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>86.36647743299172</v>
+        <v>87.04492809586422</v>
       </c>
       <c r="R112">
-        <v>612.81284254295</v>
+        <v>628.2505605722321</v>
       </c>
       <c r="S112">
-        <v>699.1793199759417</v>
+        <v>715.2954886680963</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1024.724392741896</v>
+        <v>1277.904502002606</v>
       </c>
       <c r="V112">
-        <v>1024.724392741896</v>
+        <v>1277.904502002606</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.035182962665</v>
+        <v>1551.93164539682</v>
       </c>
       <c r="B113">
-        <v>302.2056542574956</v>
+        <v>316.4325636668499</v>
       </c>
       <c r="C113">
-        <v>2515.970312392471</v>
+        <v>2503.641854984268</v>
       </c>
       <c r="D113">
-        <v>83.85867117009835</v>
+        <v>75.11222703409787</v>
       </c>
       <c r="E113">
-        <v>878.9148382268055</v>
+        <v>890.8037872684367</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.035182962665</v>
+        <v>1551.93164539682</v>
       </c>
       <c r="I113">
-        <v>4305</v>
+        <v>4061</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2818.175966649967</v>
+        <v>2820.074418651118</v>
       </c>
       <c r="O113">
-        <v>962.7735093969038</v>
+        <v>965.9160143025346</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>10.59488180239954</v>
+        <v>15.11487548579462</v>
       </c>
       <c r="R113">
-        <v>111.3158099063696</v>
+        <v>89.12679686506957</v>
       </c>
       <c r="S113">
-        <v>121.9106917087691</v>
+        <v>104.2416723508642</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>193.6285976923621</v>
+        <v>235.8081430785111</v>
       </c>
       <c r="V113">
-        <v>193.6285976923621</v>
+        <v>235.8081430785111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.099174468455</v>
+        <v>1069.172514515176</v>
       </c>
       <c r="B114">
-        <v>1531.177135524026</v>
+        <v>1472.247602213445</v>
       </c>
       <c r="C114">
-        <v>488.3685033738126</v>
+        <v>486.3826468308842</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>672.0876452514245</v>
+        <v>739.5159761863531</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.099174468455</v>
+        <v>1069.172514515176</v>
       </c>
       <c r="I114">
-        <v>3003</v>
+        <v>2987</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>2019.545638897838</v>
+        <v>1958.630249044329</v>
       </c>
       <c r="O114">
-        <v>672.0876452514245</v>
+        <v>739.5159761863531</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>23.06789201746159</v>
+        <v>20.43925307084245</v>
       </c>
       <c r="R114">
-        <v>68.94105405232222</v>
+        <v>56.28445466632952</v>
       </c>
       <c r="S114">
-        <v>92.0089460697838</v>
+        <v>76.72370773717196</v>
       </c>
       <c r="T114">
-        <v>13.37196572323805</v>
+        <v>16.17998106851296</v>
       </c>
       <c r="U114">
-        <v>128.9489167265098</v>
+        <v>119.4263296421491</v>
       </c>
       <c r="V114">
-        <v>142.3208824497479</v>
+        <v>135.606310710662</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>406.0233085823255</v>
+        <v>406.1386014568104</v>
       </c>
       <c r="B115">
-        <v>564.9237407814616</v>
+        <v>574.9083028785908</v>
       </c>
       <c r="C115">
-        <v>189.3439103414994</v>
+        <v>192.2408828873284</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>258.4717809495035</v>
+        <v>239.3494433721447</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>406.0233085823255</v>
+        <v>406.1386014568104</v>
       </c>
       <c r="I115">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>754.267651122961</v>
+        <v>767.1491857659191</v>
       </c>
       <c r="O115">
-        <v>258.4717809495035</v>
+        <v>239.3494433721447</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>7.338792438312932</v>
+        <v>7.31184739804391</v>
       </c>
       <c r="R115">
-        <v>21.98858319573399</v>
+        <v>20.96550476124736</v>
       </c>
       <c r="S115">
-        <v>29.32737563404692</v>
+        <v>28.27735215929127</v>
       </c>
       <c r="T115">
-        <v>5.511129701640078</v>
+        <v>5.770878133957819</v>
       </c>
       <c r="U115">
-        <v>48.75549996684669</v>
+        <v>53.98245204596979</v>
       </c>
       <c r="V115">
-        <v>54.26662966848677</v>
+        <v>59.75333017992762</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5616.0919998727</v>
+        <v>5615.861460859776</v>
       </c>
       <c r="B116">
-        <v>7330.990717675671</v>
+        <v>7639.62327245337</v>
       </c>
       <c r="C116">
-        <v>2568.202396404625</v>
+        <v>2516.066530707745</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3310.817662039933</v>
+        <v>3313.54076479617</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5616.0919998727</v>
+        <v>5615.861460859776</v>
       </c>
       <c r="I116">
-        <v>15495</v>
+        <v>15117</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>9899.193114080295</v>
+        <v>10155.68980316111</v>
       </c>
       <c r="O116">
-        <v>3310.817662039933</v>
+        <v>3313.54076479617</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>120.437204458967</v>
+        <v>102.4172621924834</v>
       </c>
       <c r="R116">
-        <v>310.3979353161977</v>
+        <v>313.5369827872959</v>
       </c>
       <c r="S116">
-        <v>430.8351397751647</v>
+        <v>415.9542449797793</v>
       </c>
       <c r="T116">
-        <v>85.38671276922197</v>
+        <v>95.42464218297765</v>
       </c>
       <c r="U116">
-        <v>747.6636785803011</v>
+        <v>765.9752019983496</v>
       </c>
       <c r="V116">
-        <v>833.050391349523</v>
+        <v>861.3998441813272</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3149.976264933677</v>
+        <v>3150.152139191399</v>
       </c>
       <c r="B117">
-        <v>4270.861232209082</v>
+        <v>4311.185664605019</v>
       </c>
       <c r="C117">
-        <v>1449.37532286167</v>
+        <v>1405.000894773286</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1845.591389007324</v>
+        <v>1961.21649376687</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3149.976264933677</v>
+        <v>3150.152139191399</v>
       </c>
       <c r="I117">
-        <v>9018</v>
+        <v>8890</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5720.236555070752</v>
+        <v>5716.186559378305</v>
       </c>
       <c r="O117">
-        <v>1845.591389007324</v>
+        <v>1961.21649376687</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>61.09285654337924</v>
+        <v>53.24457801174211</v>
       </c>
       <c r="R117">
-        <v>175.7109587197993</v>
+        <v>157.7051216479579</v>
       </c>
       <c r="S117">
-        <v>236.8038152631785</v>
+        <v>210.9496996597</v>
       </c>
       <c r="T117">
-        <v>49.45133329721119</v>
+        <v>37.18440953833058</v>
       </c>
       <c r="U117">
-        <v>391.2706638197267</v>
+        <v>421.7414797398538</v>
       </c>
       <c r="V117">
-        <v>440.7219971169379</v>
+        <v>458.9258892781844</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1817.126602278208</v>
+        <v>1816.999606094138</v>
       </c>
       <c r="B118">
-        <v>2501.737218845333</v>
+        <v>2590.729931515031</v>
       </c>
       <c r="C118">
-        <v>848.3942748379131</v>
+        <v>855.2128666316431</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1253.339084677247</v>
+        <v>1171.654938313164</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1817.126602278208</v>
+        <v>1816.999606094138</v>
       </c>
       <c r="I118">
-        <v>4995</v>
+        <v>5016</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3350.131493683246</v>
+        <v>3445.942798146674</v>
       </c>
       <c r="O118">
-        <v>1253.339084677247</v>
+        <v>1171.654938313164</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38.95450960838616</v>
+        <v>36.45843276058332</v>
       </c>
       <c r="R118">
-        <v>109.3662640038688</v>
+        <v>106.8746272983679</v>
       </c>
       <c r="S118">
-        <v>148.320773612255</v>
+        <v>143.3330600589512</v>
       </c>
       <c r="T118">
-        <v>19.60396827257338</v>
+        <v>16.93327244451271</v>
       </c>
       <c r="U118">
-        <v>180.5287531311946</v>
+        <v>190.7605567170358</v>
       </c>
       <c r="V118">
-        <v>200.132721403768</v>
+        <v>207.6938291615485</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6395.969484169937</v>
+        <v>6396.001293671134</v>
       </c>
       <c r="B119">
-        <v>9020.992236248821</v>
+        <v>8971.728003491251</v>
       </c>
       <c r="C119">
-        <v>2902.069526317169</v>
+        <v>3033.188088316398</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4094.906862636446</v>
+        <v>4283.138387078407</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6395.969484169937</v>
+        <v>6396.001293671134</v>
       </c>
       <c r="I119">
-        <v>16967</v>
+        <v>18246</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>11923.06176256599</v>
+        <v>12004.91609180765</v>
       </c>
       <c r="O119">
-        <v>4094.906862636446</v>
+        <v>4283.138387078407</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>119.5477775157448</v>
+        <v>128.0866033002315</v>
       </c>
       <c r="R119">
-        <v>336.6959851294411</v>
+        <v>389.2817062526608</v>
       </c>
       <c r="S119">
-        <v>456.2437626451859</v>
+        <v>517.3683095528922</v>
       </c>
       <c r="T119">
-        <v>84.0614448890568</v>
+        <v>97.30876642044224</v>
       </c>
       <c r="U119">
-        <v>859.7900644485472</v>
+        <v>888.9636154351372</v>
       </c>
       <c r="V119">
-        <v>943.8515093376041</v>
+        <v>986.2723818555794</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4006.140851014175</v>
+        <v>4005.837525733942</v>
       </c>
       <c r="B120">
-        <v>5649.063694798388</v>
+        <v>5610.971664955053</v>
       </c>
       <c r="C120">
-        <v>1804.644162525655</v>
+        <v>1920.670264689306</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2450.251482304443</v>
+        <v>2727.427676871193</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4006.140851014175</v>
+        <v>4005.837525733942</v>
       </c>
       <c r="I120">
-        <v>10724</v>
+        <v>11037</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7453.707857324042</v>
+        <v>7531.641929644359</v>
       </c>
       <c r="O120">
-        <v>2450.251482304443</v>
+        <v>2727.427676871193</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>79.00693319292809</v>
+        <v>63.75741623520184</v>
       </c>
       <c r="R120">
-        <v>220.8406242287136</v>
+        <v>186.7917703038384</v>
       </c>
       <c r="S120">
-        <v>299.8475574216417</v>
+        <v>250.5491865390403</v>
       </c>
       <c r="T120">
-        <v>57.99032509411565</v>
+        <v>55.16318122223741</v>
       </c>
       <c r="U120">
-        <v>434.7570257093244</v>
+        <v>494.9795883944901</v>
       </c>
       <c r="V120">
-        <v>492.74735080344</v>
+        <v>550.1427696167275</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.986368466683</v>
+        <v>1686.880256188566</v>
       </c>
       <c r="B121">
-        <v>2341.282594954616</v>
+        <v>2386.135654600191</v>
       </c>
       <c r="C121">
-        <v>810.1757915215975</v>
+        <v>776.821559511535</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1040.456814787338</v>
+        <v>997.6532750154883</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.986368466683</v>
+        <v>1686.880256188566</v>
       </c>
       <c r="I121">
-        <v>4714</v>
+        <v>4523</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3151.458386476214</v>
+        <v>3162.957214111726</v>
       </c>
       <c r="O121">
-        <v>1040.456814787338</v>
+        <v>997.6532750154883</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>28.56237551022284</v>
+        <v>32.35172606070885</v>
       </c>
       <c r="R121">
-        <v>93.92982376815731</v>
+        <v>92.61166570378968</v>
       </c>
       <c r="S121">
-        <v>122.4921992783802</v>
+        <v>124.9633917644985</v>
       </c>
       <c r="T121">
-        <v>28.15450296324961</v>
+        <v>19.80636755406176</v>
       </c>
       <c r="U121">
-        <v>204.8471635167468</v>
+        <v>172.802606615092</v>
       </c>
       <c r="V121">
-        <v>233.0016664799964</v>
+        <v>192.6089741691537</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.8826477068975</v>
+        <v>588.8284984531903</v>
       </c>
       <c r="B122">
-        <v>828.5544369664673</v>
+        <v>822.483287414035</v>
       </c>
       <c r="C122">
-        <v>271.9799524514597</v>
+        <v>272.4581234555941</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>391.8199794410551</v>
+        <v>410.2095367021758</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.8826477068975</v>
+        <v>588.8284984531903</v>
       </c>
       <c r="I122">
-        <v>1666</v>
+        <v>1542</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1100.534389417927</v>
+        <v>1094.941410869629</v>
       </c>
       <c r="O122">
-        <v>391.8199794410551</v>
+        <v>410.2095367021758</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>12.35861986988079</v>
+        <v>12.68496216733001</v>
       </c>
       <c r="R122">
-        <v>30.17602933957271</v>
+        <v>34.03130986726605</v>
       </c>
       <c r="S122">
-        <v>42.5346492094535</v>
+        <v>46.71627203459606</v>
       </c>
       <c r="T122">
-        <v>8.806852633916437</v>
+        <v>9.891029117843054</v>
       </c>
       <c r="U122">
-        <v>72.89186840437247</v>
+        <v>82.17037075404684</v>
       </c>
       <c r="V122">
-        <v>81.69872103828891</v>
+        <v>92.0613998718899</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1709.950612089575</v>
+        <v>1710.050055069911</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3129.588390585095</v>
+        <v>3065.373716531867</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1078.263679642391</v>
+        <v>1010.264719413017</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1709.950612089575</v>
+        <v>1710.050055069911</v>
       </c>
       <c r="I123">
-        <v>5538</v>
+        <v>5542</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3129.588390585095</v>
+        <v>3065.373716531867</v>
       </c>
       <c r="O123">
-        <v>1078.263679642391</v>
+        <v>1010.264719413017</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>34.77743944409752</v>
+        <v>33.49722737498647</v>
       </c>
       <c r="R123">
-        <v>104.510789465894</v>
+        <v>95.89574882110458</v>
       </c>
       <c r="S123">
-        <v>139.2882289099916</v>
+        <v>129.392976196091</v>
       </c>
       <c r="T123">
-        <v>19.62672796217256</v>
+        <v>30.01289464380804</v>
       </c>
       <c r="U123">
-        <v>202.4614674584322</v>
+        <v>236.3939929746418</v>
       </c>
       <c r="V123">
-        <v>222.0881954206048</v>
+        <v>266.4068876184498</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.9272769347351</v>
+        <v>198.9908257355034</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>361.0079999023712</v>
+        <v>373.0649443986923</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>113.1987393251048</v>
+        <v>129.4170518922811</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.9272769347351</v>
+        <v>198.9908257355034</v>
       </c>
       <c r="I124">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>361.0079999023712</v>
+        <v>373.0649443986923</v>
       </c>
       <c r="O124">
-        <v>113.1987393251048</v>
+        <v>129.4170518922811</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.578486655369684</v>
+        <v>3.096851913304331</v>
       </c>
       <c r="R124">
-        <v>11.87929783041541</v>
+        <v>11.3218906086243</v>
       </c>
       <c r="S124">
-        <v>15.45778448578509</v>
+        <v>14.41874252192863</v>
       </c>
       <c r="T124">
-        <v>4.094229911394064</v>
+        <v>2.826812991085066</v>
       </c>
       <c r="U124">
-        <v>34.54361005007215</v>
+        <v>31.0656808734406</v>
       </c>
       <c r="V124">
-        <v>38.63783996146622</v>
+        <v>33.89249386452567</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.936132179149</v>
+        <v>9132.941105660333</v>
       </c>
       <c r="B2">
-        <v>4857.586029981575</v>
+        <v>4781.75137174294</v>
       </c>
       <c r="C2">
-        <v>20998.86606993771</v>
+        <v>20674.09469934196</v>
       </c>
       <c r="D2">
-        <v>5069.305311599502</v>
+        <v>4670.755258973054</v>
       </c>
       <c r="E2">
-        <v>10324.38905003311</v>
+        <v>9280.551358923953</v>
       </c>
       <c r="F2">
-        <v>2561.812450882156</v>
+        <v>2689.2111741648</v>
       </c>
       <c r="G2">
-        <v>5195.221314491711</v>
+        <v>5260.060809582697</v>
       </c>
       <c r="H2">
-        <v>9132.936132179149</v>
+        <v>9132.941105660333</v>
       </c>
       <c r="I2">
-        <v>43148</v>
+        <v>43480</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25856.45209991929</v>
+        <v>25455.8460710849</v>
       </c>
       <c r="O2">
-        <v>15393.69436163261</v>
+        <v>13951.30661789701</v>
       </c>
       <c r="P2">
-        <v>7757.033765373866</v>
+        <v>7949.271983747498</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.992566479623</v>
+        <v>7570.909815950338</v>
       </c>
       <c r="B3">
-        <v>3849.334742783214</v>
+        <v>3904.497373383684</v>
       </c>
       <c r="C3">
-        <v>16893.01151999535</v>
+        <v>17274.08683209548</v>
       </c>
       <c r="D3">
-        <v>4277.202266029039</v>
+        <v>4205.77894671693</v>
       </c>
       <c r="E3">
-        <v>8614.148179300571</v>
+        <v>8450.087825893243</v>
       </c>
       <c r="F3">
-        <v>2430.375513363488</v>
+        <v>2345.654884371061</v>
       </c>
       <c r="G3">
-        <v>4596.876559799611</v>
+        <v>4607.595223388396</v>
       </c>
       <c r="H3">
-        <v>7570.992566479623</v>
+        <v>7570.909815950338</v>
       </c>
       <c r="I3">
-        <v>34419</v>
+        <v>36784</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20742.34626277856</v>
+        <v>21178.58420547917</v>
       </c>
       <c r="O3">
-        <v>12891.35044532961</v>
+        <v>12655.86677261017</v>
       </c>
       <c r="P3">
-        <v>7027.252073163099</v>
+        <v>6953.250107759457</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.8935382038</v>
+        <v>15501.97567076143</v>
       </c>
       <c r="B4">
-        <v>8078.435027931057</v>
+        <v>8074.830047513744</v>
       </c>
       <c r="C4">
-        <v>36239.99834563521</v>
+        <v>35781.58567600259</v>
       </c>
       <c r="D4">
-        <v>8660.840170945075</v>
+        <v>7944.640000315481</v>
       </c>
       <c r="E4">
-        <v>16732.22521675156</v>
+        <v>15890.73764031521</v>
       </c>
       <c r="F4">
-        <v>4678.068992405459</v>
+        <v>4776.70173951278</v>
       </c>
       <c r="G4">
-        <v>9548.78787403569</v>
+        <v>9597.203203675113</v>
       </c>
       <c r="H4">
-        <v>15501.8935382038</v>
+        <v>15501.97567076143</v>
       </c>
       <c r="I4">
-        <v>70795</v>
+        <v>70022</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44318.43337356627</v>
+        <v>43856.41572351634</v>
       </c>
       <c r="O4">
-        <v>25393.06538769663</v>
+        <v>23835.37764063069</v>
       </c>
       <c r="P4">
-        <v>14226.85686644115</v>
+        <v>14373.90494318789</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9670.050449026967</v>
+        <v>9669.947260968744</v>
       </c>
       <c r="B5">
-        <v>5376.924855818213</v>
+        <v>5291.21773294848</v>
       </c>
       <c r="C5">
-        <v>23172.39729788469</v>
+        <v>23367.92953370866</v>
       </c>
       <c r="D5">
-        <v>5878.610533495622</v>
+        <v>5579.161070006854</v>
       </c>
       <c r="E5">
-        <v>11344.02679861027</v>
+        <v>11082.28929279509</v>
       </c>
       <c r="F5">
-        <v>3047.977053960127</v>
+        <v>2830.019604199995</v>
       </c>
       <c r="G5">
-        <v>5777.39595960987</v>
+        <v>5605.088974846392</v>
       </c>
       <c r="H5">
-        <v>9670.050449026967</v>
+        <v>9669.947260968744</v>
       </c>
       <c r="I5">
-        <v>45007</v>
+        <v>46105</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28549.3221537029</v>
+        <v>28659.14726665714</v>
       </c>
       <c r="O5">
-        <v>17222.63733210589</v>
+        <v>16661.45036280194</v>
       </c>
       <c r="P5">
-        <v>8825.373013569997</v>
+        <v>8435.108579046388</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.95829605151</v>
+        <v>26786.9188680039</v>
       </c>
       <c r="B6">
-        <v>14227.28759188703</v>
+        <v>14491.2401713458</v>
       </c>
       <c r="C6">
-        <v>60782.67059361604</v>
+        <v>63553.98710046419</v>
       </c>
       <c r="D6">
-        <v>13969.13586129227</v>
+        <v>14420.77775640989</v>
       </c>
       <c r="E6">
-        <v>27993.69028276363</v>
+        <v>29401.71537217978</v>
       </c>
       <c r="F6">
-        <v>8093.830714731894</v>
+        <v>7636.611104150314</v>
       </c>
       <c r="G6">
-        <v>14976.47773681588</v>
+        <v>15373.34715966507</v>
       </c>
       <c r="H6">
-        <v>26786.95829605151</v>
+        <v>26786.9188680039</v>
       </c>
       <c r="I6">
-        <v>117428</v>
+        <v>127097</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>75009.95818550307</v>
+        <v>78045.22727180999</v>
       </c>
       <c r="O6">
-        <v>41962.82614405589</v>
+        <v>43822.49312858966</v>
       </c>
       <c r="P6">
-        <v>23070.30845154778</v>
+        <v>23009.95826381539</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.97532075728</v>
+        <v>15439.06976868178</v>
       </c>
       <c r="B7">
-        <v>8429.108434951171</v>
+        <v>8229.923818294692</v>
       </c>
       <c r="C7">
-        <v>35872.2621174901</v>
+        <v>35609.39146316359</v>
       </c>
       <c r="D7">
-        <v>8425.005320390075</v>
+        <v>8184.403411002132</v>
       </c>
       <c r="E7">
-        <v>17032.47026423557</v>
+        <v>16620.83197037139</v>
       </c>
       <c r="F7">
-        <v>4653.736018552212</v>
+        <v>4935.457267012144</v>
       </c>
       <c r="G7">
-        <v>9073.521707858128</v>
+        <v>9439.306094397209</v>
       </c>
       <c r="H7">
-        <v>15438.97532075728</v>
+        <v>15439.06976868178</v>
       </c>
       <c r="I7">
-        <v>72979</v>
+        <v>73387</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>44301.37055244127</v>
+        <v>43839.31528145829</v>
       </c>
       <c r="O7">
-        <v>25457.47558462565</v>
+        <v>24805.23538137352</v>
       </c>
       <c r="P7">
-        <v>13727.25772641034</v>
+        <v>14374.76336140935</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.936799376304</v>
+        <v>7027.992302130503</v>
       </c>
       <c r="B8">
-        <v>3731.789352923627</v>
+        <v>3901.884970817116</v>
       </c>
       <c r="C8">
-        <v>16177.47118071222</v>
+        <v>16923.77988562355</v>
       </c>
       <c r="D8">
-        <v>3812.825776515072</v>
+        <v>4046.937536787737</v>
       </c>
       <c r="E8">
-        <v>7592.42260220153</v>
+        <v>8198.87010813594</v>
       </c>
       <c r="F8">
-        <v>2199.686011608612</v>
+        <v>1951.846447409397</v>
       </c>
       <c r="G8">
-        <v>4111.115811238295</v>
+        <v>3870.187376960937</v>
       </c>
       <c r="H8">
-        <v>7027.936799376304</v>
+        <v>7027.992302130503</v>
       </c>
       <c r="I8">
-        <v>31653</v>
+        <v>32632</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19909.26053363585</v>
+        <v>20825.66485644066</v>
       </c>
       <c r="O8">
-        <v>11405.2483787166</v>
+        <v>12245.80764492368</v>
       </c>
       <c r="P8">
-        <v>6310.801822846906</v>
+        <v>5822.033824370335</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5006.017976174287</v>
+        <v>5005.956402515286</v>
       </c>
       <c r="B9">
-        <v>2710.811621575934</v>
+        <v>2852.91156602149</v>
       </c>
       <c r="C9">
-        <v>11760.11710060646</v>
+        <v>12118.00265247391</v>
       </c>
       <c r="D9">
-        <v>2976.852418253347</v>
+        <v>2836.023461565054</v>
       </c>
       <c r="E9">
-        <v>5670.383768471377</v>
+        <v>5678.248628930371</v>
       </c>
       <c r="F9">
-        <v>1477.78067978478</v>
+        <v>1437.542876496849</v>
       </c>
       <c r="G9">
-        <v>2784.147231494988</v>
+        <v>2795.988564457141</v>
       </c>
       <c r="H9">
-        <v>5006.017976174287</v>
+        <v>5005.956402515286</v>
       </c>
       <c r="I9">
-        <v>23142</v>
+        <v>23337</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14470.92872218239</v>
+        <v>14970.9142184954</v>
       </c>
       <c r="O9">
-        <v>8647.236186724724</v>
+        <v>8514.272090495424</v>
       </c>
       <c r="P9">
-        <v>4261.927911279769</v>
+        <v>4233.53144095399</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.990029276341</v>
+        <v>5886.982928971812</v>
       </c>
       <c r="B10">
-        <v>3187.954515128599</v>
+        <v>3215.63067187726</v>
       </c>
       <c r="C10">
-        <v>13478.308592741</v>
+        <v>14019.00693843081</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9728.440195613885</v>
+        <v>9947.219051078502</v>
       </c>
       <c r="F10">
-        <v>1795.78185004898</v>
+        <v>1992.227574450574</v>
       </c>
       <c r="G10">
-        <v>3532.953081706437</v>
+        <v>3562.751590994379</v>
       </c>
       <c r="H10">
-        <v>5886.990029276341</v>
+        <v>5886.982928971812</v>
       </c>
       <c r="I10">
-        <v>28642</v>
+        <v>29975</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16666.2631078696</v>
+        <v>17234.63761030807</v>
       </c>
       <c r="O10">
-        <v>9728.440195613885</v>
+        <v>9947.219051078502</v>
       </c>
       <c r="P10">
-        <v>5328.734931755416</v>
+        <v>5554.979165444953</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.071642479459</v>
+        <v>1725.95534136368</v>
       </c>
       <c r="B11">
-        <v>948.8995029931041</v>
+        <v>986.6093971900141</v>
       </c>
       <c r="C11">
-        <v>4019.358754862342</v>
+        <v>4182.547950233015</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2817.503136391282</v>
+        <v>2795.711858724668</v>
       </c>
       <c r="F11">
-        <v>580.9696920563425</v>
+        <v>538.2254009304957</v>
       </c>
       <c r="G11">
-        <v>1067.036452276604</v>
+        <v>1031.238366146429</v>
       </c>
       <c r="H11">
-        <v>1726.071642479459</v>
+        <v>1725.95534136368</v>
       </c>
       <c r="I11">
-        <v>8504</v>
+        <v>8244</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4968.258257855447</v>
+        <v>5169.15734742303</v>
       </c>
       <c r="O11">
-        <v>2817.503136391282</v>
+        <v>2795.711858724668</v>
       </c>
       <c r="P11">
-        <v>1648.006144332947</v>
+        <v>1569.463767076925</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.016911814632</v>
+        <v>500.9240144037178</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1410.453233024416</v>
+        <v>1450.882294427749</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>815.8539167492968</v>
+        <v>834.7306688139661</v>
       </c>
       <c r="F12">
-        <v>148.9283046056441</v>
+        <v>149.7340117372999</v>
       </c>
       <c r="G12">
-        <v>292.2317649121649</v>
+        <v>285.7299180747031</v>
       </c>
       <c r="H12">
-        <v>501.016911814632</v>
+        <v>500.9240144037178</v>
       </c>
       <c r="I12">
-        <v>2887</v>
+        <v>2896</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1410.453233024416</v>
+        <v>1450.882294427749</v>
       </c>
       <c r="O12">
-        <v>815.8539167492968</v>
+        <v>834.7306688139661</v>
       </c>
       <c r="P12">
-        <v>441.160069517809</v>
+        <v>435.4639298120029</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.97391302975</v>
+        <v>1087.900926899989</v>
       </c>
       <c r="B13">
-        <v>505.1006562897855</v>
+        <v>496.667725734264</v>
       </c>
       <c r="C13">
-        <v>2627.75131364094</v>
+        <v>2661.75145843975</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1725.783019474283</v>
+        <v>1888.43471703067</v>
       </c>
       <c r="F13">
-        <v>822.9825228320143</v>
+        <v>885.1131690124557</v>
       </c>
       <c r="G13">
-        <v>137.8905997841896</v>
+        <v>150.7583262942565</v>
       </c>
       <c r="H13">
-        <v>1087.97391302975</v>
+        <v>1087.900926899989</v>
       </c>
       <c r="I13">
-        <v>4519</v>
+        <v>4558</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3132.851969930725</v>
+        <v>3158.419184174014</v>
       </c>
       <c r="O13">
-        <v>1725.783019474283</v>
+        <v>1888.43471703067</v>
       </c>
       <c r="P13">
-        <v>960.8731226162039</v>
+        <v>1035.871495306712</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11832.09028330231</v>
+        <v>11832.09591457029</v>
       </c>
       <c r="B14">
-        <v>5368.921904576087</v>
+        <v>5205.574960735701</v>
       </c>
       <c r="C14">
-        <v>28434.36416922744</v>
+        <v>28914.21497611589</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18517.95242895367</v>
+        <v>19380.49186699885</v>
       </c>
       <c r="F14">
-        <v>8912.784250975583</v>
+        <v>9088.793343964762</v>
       </c>
       <c r="G14">
-        <v>1655.624301443531</v>
+        <v>1557.650898163178</v>
       </c>
       <c r="H14">
-        <v>11832.09028330231</v>
+        <v>11832.09591457029</v>
       </c>
       <c r="I14">
-        <v>49428</v>
+        <v>48808</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>33803.28607380352</v>
+        <v>34119.78993685159</v>
       </c>
       <c r="O14">
-        <v>18517.95242895367</v>
+        <v>19380.49186699885</v>
       </c>
       <c r="P14">
-        <v>10568.40855241911</v>
+        <v>10646.44424212794</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.96879103909</v>
+        <v>79020.95528814207</v>
       </c>
       <c r="B15">
-        <v>36329.16995114498</v>
+        <v>35683.95772239294</v>
       </c>
       <c r="C15">
-        <v>189852.3303468679</v>
+        <v>189163.9912904885</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>127115.3676331883</v>
+        <v>122868.0587681344</v>
       </c>
       <c r="F15">
-        <v>68380.95191994797</v>
+        <v>59543.01054825559</v>
       </c>
       <c r="G15">
-        <v>12650.98011457105</v>
+        <v>10123.14893290813</v>
       </c>
       <c r="H15">
-        <v>79020.96879103909</v>
+        <v>79020.95528814207</v>
       </c>
       <c r="I15">
-        <v>321713</v>
+        <v>337724</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>226181.5002980128</v>
+        <v>224847.9490128814</v>
       </c>
       <c r="O15">
-        <v>127115.3676331883</v>
+        <v>122868.0587681344</v>
       </c>
       <c r="P15">
-        <v>81031.93203451902</v>
+        <v>69666.15948116372</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160975.1123105368</v>
+        <v>160974.8855571646</v>
       </c>
       <c r="B16">
-        <v>70973.49588775719</v>
+        <v>73717.48339725108</v>
       </c>
       <c r="C16">
-        <v>393494.1793267347</v>
+        <v>400450.6971617962</v>
       </c>
       <c r="D16">
-        <v>93407.28619350756</v>
+        <v>89942.77985777499</v>
       </c>
       <c r="E16">
-        <v>184221.7908667576</v>
+        <v>184159.528036807</v>
       </c>
       <c r="F16">
-        <v>120604.5409747686</v>
+        <v>123740.3007895867</v>
       </c>
       <c r="G16">
-        <v>21011.41835224709</v>
+        <v>21331.80874301537</v>
       </c>
       <c r="H16">
-        <v>160975.1123105368</v>
+        <v>160974.8855571646</v>
       </c>
       <c r="I16">
-        <v>615527</v>
+        <v>701389</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>464467.6752144919</v>
+        <v>474168.1805590473</v>
       </c>
       <c r="O16">
-        <v>277629.0770602651</v>
+        <v>274102.3078945821</v>
       </c>
       <c r="P16">
-        <v>141615.9593270156</v>
+        <v>145072.1095326021</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.8880338175</v>
+        <v>52808.03055579693</v>
       </c>
       <c r="B17">
-        <v>25219.12014774313</v>
+        <v>24038.44812857972</v>
       </c>
       <c r="C17">
-        <v>133235.326678734</v>
+        <v>125847.0271963381</v>
       </c>
       <c r="D17">
-        <v>30715.68376652841</v>
+        <v>29778.71720878959</v>
       </c>
       <c r="E17">
-        <v>59349.80112377923</v>
+        <v>55750.86511192226</v>
       </c>
       <c r="F17">
-        <v>39523.034931479</v>
+        <v>41335.26364457334</v>
       </c>
       <c r="G17">
-        <v>7163.743319568536</v>
+        <v>7301.226603023015</v>
       </c>
       <c r="H17">
-        <v>52807.8880338175</v>
+        <v>52808.03055579693</v>
       </c>
       <c r="I17">
-        <v>210233</v>
+        <v>214023</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>158454.4468264771</v>
+        <v>149885.4753249178</v>
       </c>
       <c r="O17">
-        <v>90065.48489030763</v>
+        <v>85529.58232071184</v>
       </c>
       <c r="P17">
-        <v>46686.77825104754</v>
+        <v>48636.49024759636</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.01672618352</v>
+        <v>48666.0625361124</v>
       </c>
       <c r="B18">
-        <v>22082.11558775302</v>
+        <v>21597.88792571588</v>
       </c>
       <c r="C18">
-        <v>114249.4323711087</v>
+        <v>112319.215216851</v>
       </c>
       <c r="D18">
-        <v>26995.35624079603</v>
+        <v>26145.02324972153</v>
       </c>
       <c r="E18">
-        <v>51313.05399298281</v>
+        <v>51532.63562622736</v>
       </c>
       <c r="F18">
-        <v>33502.10188565319</v>
+        <v>40684.89292253959</v>
       </c>
       <c r="G18">
-        <v>6405.55235796768</v>
+        <v>7057.402528602467</v>
       </c>
       <c r="H18">
-        <v>48666.01672618352</v>
+        <v>48666.0625361124</v>
       </c>
       <c r="I18">
-        <v>200049</v>
+        <v>192635</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>136331.5479588617</v>
+        <v>133917.1031425668</v>
       </c>
       <c r="O18">
-        <v>78308.41023377884</v>
+        <v>77677.65887594888</v>
       </c>
       <c r="P18">
-        <v>39907.65424362087</v>
+        <v>47742.29545114206</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.88704819731</v>
+        <v>50920.92460778889</v>
       </c>
       <c r="B19">
-        <v>23466.93599318968</v>
+        <v>23542.37530826527</v>
       </c>
       <c r="C19">
-        <v>122372.0656291532</v>
+        <v>123324.2655385563</v>
       </c>
       <c r="D19">
-        <v>29291.71911796941</v>
+        <v>27665.56670736433</v>
       </c>
       <c r="E19">
-        <v>53152.0966687856</v>
+        <v>55544.31616620299</v>
       </c>
       <c r="F19">
-        <v>39407.24804201062</v>
+        <v>36321.61780003509</v>
       </c>
       <c r="G19">
-        <v>6643.848843442706</v>
+        <v>7302.483649975904</v>
       </c>
       <c r="H19">
-        <v>50920.88704819731</v>
+        <v>50920.92460778889</v>
       </c>
       <c r="I19">
-        <v>205502</v>
+        <v>202442</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>145839.0016223429</v>
+        <v>146866.6408468216</v>
       </c>
       <c r="O19">
-        <v>82443.815786755</v>
+        <v>83209.88287356732</v>
       </c>
       <c r="P19">
-        <v>46051.09688545332</v>
+        <v>43624.101450011</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.87813148472</v>
+        <v>20572.91191160428</v>
       </c>
       <c r="B20">
-        <v>9684.396654979144</v>
+        <v>9709.561394244176</v>
       </c>
       <c r="C20">
-        <v>50850.72611458063</v>
+        <v>49953.28900398193</v>
       </c>
       <c r="D20">
-        <v>12228.44022405906</v>
+        <v>11384.05664820659</v>
       </c>
       <c r="E20">
-        <v>23193.1832544821</v>
+        <v>22545.62697600043</v>
       </c>
       <c r="F20">
-        <v>15785.74968226508</v>
+        <v>17487.48950708266</v>
       </c>
       <c r="G20">
-        <v>2787.709396699361</v>
+        <v>3099.784286928752</v>
       </c>
       <c r="H20">
-        <v>20572.87813148472</v>
+        <v>20572.91191160428</v>
       </c>
       <c r="I20">
-        <v>84371</v>
+        <v>86761</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>60535.12276955978</v>
+        <v>59662.85039822611</v>
       </c>
       <c r="O20">
-        <v>35421.62347854116</v>
+        <v>33929.68362420703</v>
       </c>
       <c r="P20">
-        <v>18573.45907896444</v>
+        <v>20587.27379401141</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.98594267518</v>
+        <v>26960.97471976712</v>
       </c>
       <c r="B21">
-        <v>11994.68751240541</v>
+        <v>11927.44337845563</v>
       </c>
       <c r="C21">
-        <v>63275.19922506003</v>
+        <v>65059.63509866313</v>
       </c>
       <c r="D21">
-        <v>14832.54019229217</v>
+        <v>16153.60547154232</v>
       </c>
       <c r="E21">
-        <v>29578.26542371988</v>
+        <v>31138.08243355819</v>
       </c>
       <c r="F21">
-        <v>19788.38098148113</v>
+        <v>21469.2724714024</v>
       </c>
       <c r="G21">
-        <v>3473.05803991706</v>
+        <v>3523.278111929523</v>
       </c>
       <c r="H21">
-        <v>26960.98594267518</v>
+        <v>26960.97471976712</v>
       </c>
       <c r="I21">
-        <v>113163</v>
+        <v>110654</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>75269.88673746545</v>
+        <v>76987.07847711876</v>
       </c>
       <c r="O21">
-        <v>44410.80561601205</v>
+        <v>47291.68790510051</v>
       </c>
       <c r="P21">
-        <v>23261.43902139819</v>
+        <v>24992.55058333193</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.070018261748</v>
+        <v>3910.098914910582</v>
       </c>
       <c r="B22">
-        <v>1737.594728940475</v>
+        <v>1766.561444245519</v>
       </c>
       <c r="C22">
-        <v>9134.029536732071</v>
+        <v>9574.187268418615</v>
       </c>
       <c r="D22">
-        <v>2225.725248451745</v>
+        <v>2217.649490742186</v>
       </c>
       <c r="E22">
-        <v>4196.630683553359</v>
+        <v>4384.409532738637</v>
       </c>
       <c r="F22">
-        <v>2968.082632484926</v>
+        <v>2940.493211321676</v>
       </c>
       <c r="G22">
-        <v>545.544371057205</v>
+        <v>508.4724012136913</v>
       </c>
       <c r="H22">
-        <v>3910.070018261748</v>
+        <v>3910.098914910582</v>
       </c>
       <c r="I22">
-        <v>15973</v>
+        <v>15276</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10871.62426567255</v>
+        <v>11340.74871266413</v>
       </c>
       <c r="O22">
-        <v>6422.355932005105</v>
+        <v>6602.059023480822</v>
       </c>
       <c r="P22">
-        <v>3513.627003542131</v>
+        <v>3448.965612535368</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9246177708072</v>
+        <v>106.0520459742259</v>
       </c>
       <c r="B23">
-        <v>46.92310933755429</v>
+        <v>50.71259876022707</v>
       </c>
       <c r="C23">
-        <v>262.1578604529752</v>
+        <v>260.6163208422224</v>
       </c>
       <c r="D23">
-        <v>58.53251278771081</v>
+        <v>71.84366651821948</v>
       </c>
       <c r="E23">
-        <v>114.7343062539324</v>
+        <v>116.8377601641014</v>
       </c>
       <c r="F23">
-        <v>87.57670074387934</v>
+        <v>89.95235234577449</v>
       </c>
       <c r="G23">
-        <v>14.5085330247959</v>
+        <v>15.37996402637739</v>
       </c>
       <c r="H23">
-        <v>105.9246177708072</v>
+        <v>106.0520459742259</v>
       </c>
       <c r="I23">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>309.0809697905295</v>
+        <v>311.3289196024495</v>
       </c>
       <c r="O23">
-        <v>173.2668190416432</v>
+        <v>188.6814266823209</v>
       </c>
       <c r="P23">
-        <v>102.0852337686752</v>
+        <v>105.3323163721519</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.05240460887</v>
+        <v>15661.01686364181</v>
       </c>
       <c r="B24">
-        <v>7471.903812315194</v>
+        <v>7275.703755488459</v>
       </c>
       <c r="C24">
-        <v>38813.02569578568</v>
+        <v>37656.17431913461</v>
       </c>
       <c r="D24">
-        <v>9648.274239885501</v>
+        <v>8910.690283610153</v>
       </c>
       <c r="E24">
-        <v>18505.31249873051</v>
+        <v>17198.34686776429</v>
       </c>
       <c r="F24">
-        <v>13514.67697326388</v>
+        <v>13209.58322984446</v>
       </c>
       <c r="G24">
-        <v>2352.0467006173</v>
+        <v>2297.640424759367</v>
       </c>
       <c r="H24">
-        <v>15661.05240460887</v>
+        <v>15661.01686364181</v>
       </c>
       <c r="I24">
-        <v>62205</v>
+        <v>63982</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>46284.92950810088</v>
+        <v>44931.87807462307</v>
       </c>
       <c r="O24">
-        <v>28153.58673861601</v>
+        <v>26109.03715137445</v>
       </c>
       <c r="P24">
-        <v>15866.72367388118</v>
+        <v>15507.22365460383</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.98683752509</v>
+        <v>6606.952265677583</v>
       </c>
       <c r="B25">
-        <v>1444.528228881748</v>
+        <v>1355.212538898675</v>
       </c>
       <c r="C25">
-        <v>17692.00368555158</v>
+        <v>16461.20465510672</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11316.32337915228</v>
+        <v>10997.47143890777</v>
       </c>
       <c r="F25">
-        <v>5300.358474593413</v>
+        <v>5839.800832983872</v>
       </c>
       <c r="G25">
-        <v>265.6764169773432</v>
+        <v>297.5538217856345</v>
       </c>
       <c r="H25">
-        <v>6606.98683752509</v>
+        <v>6606.952265677583</v>
       </c>
       <c r="I25">
-        <v>31252</v>
+        <v>32704</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19136.53191443332</v>
+        <v>17816.41719400539</v>
       </c>
       <c r="O25">
-        <v>11316.32337915228</v>
+        <v>10997.47143890777</v>
       </c>
       <c r="P25">
-        <v>5566.034891570756</v>
+        <v>6137.354654769507</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.03105097418</v>
+        <v>22423.01324159402</v>
       </c>
       <c r="B26">
-        <v>5058.740032305213</v>
+        <v>4855.439843729114</v>
       </c>
       <c r="C26">
-        <v>60588.28928027849</v>
+        <v>61211.14697549033</v>
       </c>
       <c r="D26">
-        <v>8172.172022817876</v>
+        <v>8724.334869960007</v>
       </c>
       <c r="E26">
-        <v>27844.26142028582</v>
+        <v>28148.26840159896</v>
       </c>
       <c r="F26">
-        <v>20197.10857491713</v>
+        <v>19179.79863886256</v>
       </c>
       <c r="G26">
-        <v>1023.884683671489</v>
+        <v>1045.033113816614</v>
       </c>
       <c r="H26">
-        <v>22423.03105097418</v>
+        <v>22423.01324159402</v>
       </c>
       <c r="I26">
-        <v>97122</v>
+        <v>102151</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>65647.02931258371</v>
+        <v>66066.58681921945</v>
       </c>
       <c r="O26">
-        <v>36016.4334431037</v>
+        <v>36872.60327155897</v>
       </c>
       <c r="P26">
-        <v>21220.99325858862</v>
+        <v>20224.83175267917</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.88969712394</v>
+        <v>29148.0242844779</v>
       </c>
       <c r="B27">
-        <v>6382.575314873559</v>
+        <v>5802.091117109029</v>
       </c>
       <c r="C27">
-        <v>75748.55949141065</v>
+        <v>73126.6058517861</v>
       </c>
       <c r="D27">
-        <v>11188.2463082108</v>
+        <v>10069.21433685055</v>
       </c>
       <c r="E27">
-        <v>38286.30175344712</v>
+        <v>34364.65039813872</v>
       </c>
       <c r="F27">
-        <v>27017.99933281545</v>
+        <v>26364.04605777188</v>
       </c>
       <c r="G27">
-        <v>1540.597745977956</v>
+        <v>1536.264722206396</v>
       </c>
       <c r="H27">
-        <v>29147.88969712394</v>
+        <v>29148.0242844779</v>
       </c>
       <c r="I27">
-        <v>128383</v>
+        <v>137393</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>82131.1348062842</v>
+        <v>78928.69696889512</v>
       </c>
       <c r="O27">
-        <v>49474.54806165792</v>
+        <v>44433.86473498927</v>
       </c>
       <c r="P27">
-        <v>28558.5970787934</v>
+        <v>27900.31077997828</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.10238819028</v>
+        <v>30697.93128297515</v>
       </c>
       <c r="B28">
-        <v>6694.416592254966</v>
+        <v>6382.338499608027</v>
       </c>
       <c r="C28">
-        <v>83039.90850012581</v>
+        <v>80791.59444882139</v>
       </c>
       <c r="D28">
-        <v>11537.03708481881</v>
+        <v>11927.24083622755</v>
       </c>
       <c r="E28">
-        <v>38026.12726523525</v>
+        <v>38554.06817243671</v>
       </c>
       <c r="F28">
-        <v>27516.16594000013</v>
+        <v>25331.91116404523</v>
       </c>
       <c r="G28">
-        <v>1327.791936362901</v>
+        <v>1364.59948845701</v>
       </c>
       <c r="H28">
-        <v>30698.10238819028</v>
+        <v>30697.93128297515</v>
       </c>
       <c r="I28">
-        <v>138298</v>
+        <v>136811</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>89734.32509238078</v>
+        <v>87173.93294842941</v>
       </c>
       <c r="O28">
-        <v>49563.16435005406</v>
+        <v>50481.30900866426</v>
       </c>
       <c r="P28">
-        <v>28843.95787636303</v>
+        <v>26696.51065250224</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.04711129289</v>
+        <v>81900.98917713309</v>
       </c>
       <c r="B29">
-        <v>18206.36763816952</v>
+        <v>17704.25110074206</v>
       </c>
       <c r="C29">
-        <v>222259.3546150908</v>
+        <v>206870.8068345787</v>
       </c>
       <c r="D29">
-        <v>27055.48392160021</v>
+        <v>30739.35063858086</v>
       </c>
       <c r="E29">
-        <v>96258.1988999235</v>
+        <v>102927.1262785035</v>
       </c>
       <c r="F29">
-        <v>69744.65196833287</v>
+        <v>71743.25255565325</v>
       </c>
       <c r="G29">
-        <v>3795.27310225179</v>
+        <v>3693.939679568755</v>
       </c>
       <c r="H29">
-        <v>81901.04711129289</v>
+        <v>81900.98917713309</v>
       </c>
       <c r="I29">
-        <v>378715</v>
+        <v>354049</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>240465.7222532603</v>
+        <v>224575.0579353207</v>
       </c>
       <c r="O29">
-        <v>123313.6828215237</v>
+        <v>133666.4769170844</v>
       </c>
       <c r="P29">
-        <v>73539.92507058465</v>
+        <v>75437.192235222</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.89550189592</v>
+        <v>65571.91417103364</v>
       </c>
       <c r="B30">
-        <v>13673.89719344776</v>
+        <v>13488.96021387689</v>
       </c>
       <c r="C30">
-        <v>171771.7836419989</v>
+        <v>172526.4826201528</v>
       </c>
       <c r="D30">
-        <v>24616.26585117954</v>
+        <v>24620.61042692207</v>
       </c>
       <c r="E30">
-        <v>80634.67807791013</v>
+        <v>83948.99345705674</v>
       </c>
       <c r="F30">
-        <v>59576.63246707366</v>
+        <v>53001.66162560609</v>
       </c>
       <c r="G30">
-        <v>3080.579787775698</v>
+        <v>2723.399779355857</v>
       </c>
       <c r="H30">
-        <v>65571.89550189592</v>
+        <v>65571.91417103364</v>
       </c>
       <c r="I30">
-        <v>308000</v>
+        <v>306346</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>185445.6808354466</v>
+        <v>186015.4428340297</v>
       </c>
       <c r="O30">
-        <v>105250.9439290897</v>
+        <v>108569.6038839788</v>
       </c>
       <c r="P30">
-        <v>62657.21225484936</v>
+        <v>55725.06140496195</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.89406186563</v>
+        <v>90327.93667959191</v>
       </c>
       <c r="B31">
-        <v>19334.93671716281</v>
+        <v>20338.14913536988</v>
       </c>
       <c r="C31">
-        <v>238531.2415693751</v>
+        <v>239823.6905786963</v>
       </c>
       <c r="D31">
-        <v>34383.37396930064</v>
+        <v>32120.55080024272</v>
       </c>
       <c r="E31">
-        <v>119199.8030640737</v>
+        <v>109638.6958072594</v>
       </c>
       <c r="F31">
-        <v>74583.95184788268</v>
+        <v>76560.65313012571</v>
       </c>
       <c r="G31">
-        <v>4000.191415462493</v>
+        <v>4423.14064270532</v>
       </c>
       <c r="H31">
-        <v>90327.89406186563</v>
+        <v>90327.93667959191</v>
       </c>
       <c r="I31">
-        <v>423093</v>
+        <v>384642</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>257866.1782865379</v>
+        <v>260161.8397140662</v>
       </c>
       <c r="O31">
-        <v>153583.1770333744</v>
+        <v>141759.2466075021</v>
       </c>
       <c r="P31">
-        <v>78584.14326334518</v>
+        <v>80983.79377283102</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.90698792004</v>
+        <v>36451.09641868978</v>
       </c>
       <c r="B32">
-        <v>8385.734080402031</v>
+        <v>8069.033698729635</v>
       </c>
       <c r="C32">
-        <v>99952.02473200468</v>
+        <v>97345.9160722387</v>
       </c>
       <c r="D32">
-        <v>13143.20338141846</v>
+        <v>13923.25942669646</v>
       </c>
       <c r="E32">
-        <v>46537.54889173295</v>
+        <v>46313.83994286486</v>
       </c>
       <c r="F32">
-        <v>28745.05838754605</v>
+        <v>30654.65719573054</v>
       </c>
       <c r="G32">
-        <v>1598.872959049991</v>
+        <v>1469.162600719732</v>
       </c>
       <c r="H32">
-        <v>36450.90698792004</v>
+        <v>36451.09641868978</v>
       </c>
       <c r="I32">
-        <v>156420</v>
+        <v>167303</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>108337.7588124067</v>
+        <v>105414.9497709683</v>
       </c>
       <c r="O32">
-        <v>59680.7522731514</v>
+        <v>60237.09936956131</v>
       </c>
       <c r="P32">
-        <v>30343.93134659604</v>
+        <v>32123.81979645027</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22121.1054928519</v>
+        <v>22120.98383595423</v>
       </c>
       <c r="B33">
-        <v>4762.070037944474</v>
+        <v>4818.956478666241</v>
       </c>
       <c r="C33">
-        <v>58173.56878653286</v>
+        <v>58355.10430378019</v>
       </c>
       <c r="D33">
-        <v>8733.576784169498</v>
+        <v>8874.042861800161</v>
       </c>
       <c r="E33">
-        <v>29492.22968563352</v>
+        <v>28691.89412659242</v>
       </c>
       <c r="F33">
-        <v>19632.76338853779</v>
+        <v>18571.64807470119</v>
       </c>
       <c r="G33">
-        <v>980.4321015309027</v>
+        <v>914.9070449801609</v>
       </c>
       <c r="H33">
-        <v>22121.1054928519</v>
+        <v>22120.98383595423</v>
       </c>
       <c r="I33">
-        <v>100759</v>
+        <v>100782</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>62935.63882447733</v>
+        <v>63174.06078244642</v>
       </c>
       <c r="O33">
-        <v>38225.80646980302</v>
+        <v>37565.93698839258</v>
       </c>
       <c r="P33">
-        <v>20613.19549006869</v>
+        <v>19486.55511968135</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26863.98970464452</v>
+        <v>26864.05867847549</v>
       </c>
       <c r="B34">
-        <v>5818.456303021048</v>
+        <v>5498.288741559379</v>
       </c>
       <c r="C34">
-        <v>69685.6938126765</v>
+        <v>68744.84885640281</v>
       </c>
       <c r="D34">
-        <v>9342.550560078349</v>
+        <v>10238.8037574394</v>
       </c>
       <c r="E34">
-        <v>32616.4823957941</v>
+        <v>34760.23672698254</v>
       </c>
       <c r="F34">
-        <v>22268.47129831244</v>
+        <v>23603.63344254944</v>
       </c>
       <c r="G34">
-        <v>1159.815014717043</v>
+        <v>1037.243533281188</v>
       </c>
       <c r="H34">
-        <v>26863.98970464452</v>
+        <v>26864.05867847549</v>
       </c>
       <c r="I34">
-        <v>115447</v>
+        <v>118996</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>75504.15011569756</v>
+        <v>74243.13759796218</v>
       </c>
       <c r="O34">
-        <v>41959.03295587245</v>
+        <v>44999.04048442194</v>
       </c>
       <c r="P34">
-        <v>23428.28631302948</v>
+        <v>24640.87697583062</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0072616361138</v>
+        <v>454.0708839969736</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1258.852807633579</v>
+        <v>1270.899838217724</v>
       </c>
       <c r="D35">
-        <v>185.595916569074</v>
+        <v>169.872000437338</v>
       </c>
       <c r="E35">
-        <v>600.7729445595464</v>
+        <v>555.7562326662934</v>
       </c>
       <c r="F35">
-        <v>377.4321423357603</v>
+        <v>385.8621846762832</v>
       </c>
       <c r="G35">
-        <v>20.23652440823472</v>
+        <v>20.91451807588017</v>
       </c>
       <c r="H35">
-        <v>454.0072616361138</v>
+        <v>454.0708839969736</v>
       </c>
       <c r="I35">
-        <v>2242</v>
+        <v>2209</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1258.852807633579</v>
+        <v>1270.899838217724</v>
       </c>
       <c r="O35">
-        <v>786.3688611286204</v>
+        <v>725.6282331036314</v>
       </c>
       <c r="P35">
-        <v>397.668666743995</v>
+        <v>406.7767027521633</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>505.0887145504179</v>
+        <v>505.008089422716</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1475.052267386396</v>
+        <v>1467.928084075933</v>
       </c>
       <c r="D36">
-        <v>177.6693731866912</v>
+        <v>189.0852326987207</v>
       </c>
       <c r="E36">
-        <v>584.9077797003066</v>
+        <v>650.9070008737232</v>
       </c>
       <c r="F36">
-        <v>454.7570334800199</v>
+        <v>401.4906485970532</v>
       </c>
       <c r="G36">
-        <v>25.43840385689576</v>
+        <v>19.67202572834015</v>
       </c>
       <c r="H36">
-        <v>505.0887145504179</v>
+        <v>505.008089422716</v>
       </c>
       <c r="I36">
-        <v>2378</v>
+        <v>2513</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1475.052267386396</v>
+        <v>1467.928084075933</v>
       </c>
       <c r="O36">
-        <v>762.5771528869977</v>
+        <v>839.9922335724439</v>
       </c>
       <c r="P36">
-        <v>480.1954373369157</v>
+        <v>421.1626743253933</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11108.06566906398</v>
+        <v>11107.92388039346</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>31785.55905557444</v>
+        <v>32060.13369577302</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>18125.74761494736</v>
+        <v>16753.86901232391</v>
       </c>
       <c r="F37">
-        <v>3678.907287418716</v>
+        <v>3562.724675512831</v>
       </c>
       <c r="G37">
-        <v>6598.766652305641</v>
+        <v>6302.250350214148</v>
       </c>
       <c r="H37">
-        <v>11108.06566906398</v>
+        <v>11107.92388039346</v>
       </c>
       <c r="I37">
-        <v>54021</v>
+        <v>54558</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31785.55905557444</v>
+        <v>32060.13369577302</v>
       </c>
       <c r="O37">
-        <v>18125.74761494736</v>
+        <v>16753.86901232391</v>
       </c>
       <c r="P37">
-        <v>10277.67393972436</v>
+        <v>9864.975025726979</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1091.013237673755</v>
+        <v>1091.063052347153</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3002.543862756202</v>
+        <v>3073.297803650028</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1711.722731013518</v>
+        <v>1768.899982889262</v>
       </c>
       <c r="F38">
-        <v>323.1008731144402</v>
+        <v>328.9830912380375</v>
       </c>
       <c r="G38">
-        <v>617.3577317324256</v>
+        <v>603.8191844714327</v>
       </c>
       <c r="H38">
-        <v>1091.013237673755</v>
+        <v>1091.063052347153</v>
       </c>
       <c r="I38">
-        <v>5406</v>
+        <v>5581</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3002.543862756202</v>
+        <v>3073.297803650028</v>
       </c>
       <c r="O38">
-        <v>1711.722731013518</v>
+        <v>1768.899982889262</v>
       </c>
       <c r="P38">
-        <v>940.4586048468657</v>
+        <v>932.8022757094701</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153572.0304732219</v>
+        <v>153571.9626130583</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>429253.4734474738</v>
+        <v>429821.2216920487</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>235407.7872754477</v>
+        <v>240822.2574407877</v>
       </c>
       <c r="F39">
-        <v>49234.87825571873</v>
+        <v>54096.82145755009</v>
       </c>
       <c r="G39">
-        <v>90920.64402234679</v>
+        <v>107768.8087780422</v>
       </c>
       <c r="H39">
-        <v>153572.0304732219</v>
+        <v>153571.9626130583</v>
       </c>
       <c r="I39">
-        <v>745255</v>
+        <v>797300</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>429253.4734474738</v>
+        <v>429821.2216920487</v>
       </c>
       <c r="O39">
-        <v>235407.7872754477</v>
+        <v>240822.2574407877</v>
       </c>
       <c r="P39">
-        <v>140155.5222780655</v>
+        <v>161865.6302355923</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9361579431</v>
+        <v>152868.9949758681</v>
       </c>
       <c r="B40">
-        <v>26072.92244257165</v>
+        <v>27353.99684208167</v>
       </c>
       <c r="C40">
-        <v>405852.5828459021</v>
+        <v>398950.3937615219</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>264267.3651218771</v>
+        <v>244814.9179085572</v>
       </c>
       <c r="F40">
-        <v>48187.04019579534</v>
+        <v>47517.79611025046</v>
       </c>
       <c r="G40">
-        <v>90812.17819386024</v>
+        <v>86534.70572548192</v>
       </c>
       <c r="H40">
-        <v>152868.9361579431</v>
+        <v>152868.9949758681</v>
       </c>
       <c r="I40">
-        <v>714774</v>
+        <v>714903</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>431925.5052884737</v>
+        <v>426304.3906036035</v>
       </c>
       <c r="O40">
-        <v>264267.3651218771</v>
+        <v>244814.9179085572</v>
       </c>
       <c r="P40">
-        <v>138999.2183896556</v>
+        <v>134052.5018357324</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0564844532</v>
+        <v>339433.0388131684</v>
       </c>
       <c r="B41">
-        <v>62313.58185033876</v>
+        <v>60580.04042097677</v>
       </c>
       <c r="C41">
-        <v>922187.6339802861</v>
+        <v>911168.4215879872</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>559569.3558804758</v>
+        <v>547132.0104340456</v>
       </c>
       <c r="F41">
-        <v>98011.9016262071</v>
+        <v>106407.0906220162</v>
       </c>
       <c r="G41">
-        <v>194271.1255973631</v>
+        <v>209080.7370892099</v>
       </c>
       <c r="H41">
-        <v>339433.0564844532</v>
+        <v>339433.0388131684</v>
       </c>
       <c r="I41">
-        <v>1672399</v>
+        <v>1685466</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>984501.2158306248</v>
+        <v>971748.462008964</v>
       </c>
       <c r="O41">
-        <v>559569.3558804758</v>
+        <v>547132.0104340456</v>
       </c>
       <c r="P41">
-        <v>292283.0272235702</v>
+        <v>315487.8277112261</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245459.010380729</v>
+        <v>245458.9005700947</v>
       </c>
       <c r="B42">
-        <v>40041.82475146223</v>
+        <v>46395.38575995735</v>
       </c>
       <c r="C42">
-        <v>641866.2795222718</v>
+        <v>656754.1674510737</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>408264.6010356707</v>
+        <v>408522.7228487603</v>
       </c>
       <c r="F42">
-        <v>75161.34993169371</v>
+        <v>69459.43507073332</v>
       </c>
       <c r="G42">
-        <v>135383.4773336003</v>
+        <v>131151.7735735074</v>
       </c>
       <c r="H42">
-        <v>245459.010380729</v>
+        <v>245458.9005700947</v>
       </c>
       <c r="I42">
-        <v>1243035</v>
+        <v>1204889</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>681908.104273734</v>
+        <v>703149.553211031</v>
       </c>
       <c r="O42">
-        <v>408264.6010356707</v>
+        <v>408522.7228487603</v>
       </c>
       <c r="P42">
-        <v>210544.827265294</v>
+        <v>200611.2086442408</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367627.0263167004</v>
+        <v>367626.9022064356</v>
       </c>
       <c r="B43">
-        <v>65795.71243385025</v>
+        <v>61710.72678055208</v>
       </c>
       <c r="C43">
-        <v>980229.7251015861</v>
+        <v>996861.4790248382</v>
       </c>
       <c r="D43">
-        <v>85152.50843242618</v>
+        <v>80893.95063974419</v>
       </c>
       <c r="E43">
-        <v>540714.3796858819</v>
+        <v>547076.3858642668</v>
       </c>
       <c r="F43">
-        <v>126274.6867703908</v>
+        <v>113221.5613727942</v>
       </c>
       <c r="G43">
-        <v>229501.5751321696</v>
+        <v>215111.7844019368</v>
       </c>
       <c r="H43">
-        <v>367627.0263167004</v>
+        <v>367626.9022064356</v>
       </c>
       <c r="I43">
-        <v>1789102</v>
+        <v>1705143</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1046025.437535436</v>
+        <v>1058572.20580539</v>
       </c>
       <c r="O43">
-        <v>625866.888118308</v>
+        <v>627970.336504011</v>
       </c>
       <c r="P43">
-        <v>355776.2619025604</v>
+        <v>328333.345774731</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470396.9046384845</v>
+        <v>470397.0227812809</v>
       </c>
       <c r="B44">
-        <v>78848.22031562352</v>
+        <v>83260.51313859559</v>
       </c>
       <c r="C44">
-        <v>1260142.247741303</v>
+        <v>1237611.845883552</v>
       </c>
       <c r="D44">
-        <v>99871.369596447</v>
+        <v>99608.48924401109</v>
       </c>
       <c r="E44">
-        <v>655614.5877725929</v>
+        <v>631206.0286261103</v>
       </c>
       <c r="F44">
-        <v>141974.2945414885</v>
+        <v>141678.0149159264</v>
       </c>
       <c r="G44">
-        <v>273785.673705604</v>
+        <v>258608.5367130646</v>
       </c>
       <c r="H44">
-        <v>470396.9046384845</v>
+        <v>470397.0227812809</v>
       </c>
       <c r="I44">
-        <v>2200416</v>
+        <v>2226370</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1338990.468056927</v>
+        <v>1320872.359022147</v>
       </c>
       <c r="O44">
-        <v>755485.9573690399</v>
+        <v>730814.5178701214</v>
       </c>
       <c r="P44">
-        <v>415759.9682470925</v>
+        <v>400286.551628991</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.8962983373</v>
+        <v>307102.9871229209</v>
       </c>
       <c r="B45">
-        <v>56693.67312441127</v>
+        <v>55991.75708919263</v>
       </c>
       <c r="C45">
-        <v>837026.9293496541</v>
+        <v>830434.8950179084</v>
       </c>
       <c r="D45">
-        <v>65217.72812707943</v>
+        <v>75929.41106573053</v>
       </c>
       <c r="E45">
-        <v>423987.7764121746</v>
+        <v>469279.7402435094</v>
       </c>
       <c r="F45">
-        <v>88930.60795586437</v>
+        <v>95454.92054473033</v>
       </c>
       <c r="G45">
-        <v>167597.5036229247</v>
+        <v>175984.5508983132</v>
       </c>
       <c r="H45">
-        <v>307102.8962983373</v>
+        <v>307102.9871229209</v>
       </c>
       <c r="I45">
-        <v>1453795</v>
+        <v>1501166</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>893720.6024740654</v>
+        <v>886426.6521071011</v>
       </c>
       <c r="O45">
-        <v>489205.5045392541</v>
+        <v>545209.1513092399</v>
       </c>
       <c r="P45">
-        <v>256528.111578789</v>
+        <v>271439.4714430436</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327915.0231424851</v>
+        <v>327914.9999917505</v>
       </c>
       <c r="B46">
-        <v>53719.16960376096</v>
+        <v>60898.19102310254</v>
       </c>
       <c r="C46">
-        <v>881485.0115145977</v>
+        <v>885716.2881181747</v>
       </c>
       <c r="D46">
-        <v>70527.03559464235</v>
+        <v>71816.4196055028</v>
       </c>
       <c r="E46">
-        <v>481059.6363541727</v>
+        <v>448964.3026488486</v>
       </c>
       <c r="F46">
-        <v>102431.6861331817</v>
+        <v>102487.7660453595</v>
       </c>
       <c r="G46">
-        <v>199846.9349511357</v>
+        <v>192221.0845159276</v>
       </c>
       <c r="H46">
-        <v>327915.0231424851</v>
+        <v>327914.9999917505</v>
       </c>
       <c r="I46">
-        <v>1550142</v>
+        <v>1558894</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>935204.1811183586</v>
+        <v>946614.4791412771</v>
       </c>
       <c r="O46">
-        <v>551586.6719488151</v>
+        <v>520780.7222543514</v>
       </c>
       <c r="P46">
-        <v>302278.6210843174</v>
+        <v>294708.8505612871</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659114.0357348993</v>
+        <v>659113.9158852699</v>
       </c>
       <c r="B47">
-        <v>109967.6768356323</v>
+        <v>113586.0964044309</v>
       </c>
       <c r="C47">
-        <v>1748790.976292121</v>
+        <v>1745691.323273697</v>
       </c>
       <c r="D47">
-        <v>145738.3959088594</v>
+        <v>138789.6526059062</v>
       </c>
       <c r="E47">
-        <v>931336.4373455879</v>
+        <v>971863.2127715412</v>
       </c>
       <c r="F47">
-        <v>209103.8331311283</v>
+        <v>218644.3802232506</v>
       </c>
       <c r="G47">
-        <v>394655.0950099246</v>
+        <v>388493.1092842721</v>
       </c>
       <c r="H47">
-        <v>659114.0357348993</v>
+        <v>659113.9158852699</v>
       </c>
       <c r="I47">
-        <v>3156059</v>
+        <v>3165075</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1858758.653127753</v>
+        <v>1859277.419678128</v>
       </c>
       <c r="O47">
-        <v>1077074.833254447</v>
+        <v>1110652.865377447</v>
       </c>
       <c r="P47">
-        <v>603758.9281410528</v>
+        <v>607137.4895075227</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.9215836613</v>
+        <v>195930.9575972564</v>
       </c>
       <c r="B48">
-        <v>34918.27758079925</v>
+        <v>34696.38689010178</v>
       </c>
       <c r="C48">
-        <v>516097.6755691911</v>
+        <v>514009.3722358426</v>
       </c>
       <c r="D48">
-        <v>42734.3750875601</v>
+        <v>41179.73680266523</v>
       </c>
       <c r="E48">
-        <v>264607.1905826765</v>
+        <v>271530.9449457363</v>
       </c>
       <c r="F48">
-        <v>61521.69558673514</v>
+        <v>62754.96835921682</v>
       </c>
       <c r="G48">
-        <v>116024.5643600249</v>
+        <v>117576.8545873702</v>
       </c>
       <c r="H48">
-        <v>195930.9215836613</v>
+        <v>195930.9575972564</v>
       </c>
       <c r="I48">
-        <v>955429</v>
+        <v>882934</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>551015.9531499903</v>
+        <v>548705.7591259443</v>
       </c>
       <c r="O48">
-        <v>307341.5656702366</v>
+        <v>312710.6817484016</v>
       </c>
       <c r="P48">
-        <v>177546.25994676</v>
+        <v>180331.822946587</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174400.041855327</v>
+        <v>174399.9115537261</v>
       </c>
       <c r="B49">
-        <v>29711.74675734483</v>
+        <v>31772.00537461983</v>
       </c>
       <c r="C49">
-        <v>475463.7910088705</v>
+        <v>475307.5369948707</v>
       </c>
       <c r="D49">
-        <v>39601.32590312987</v>
+        <v>36120.80042474944</v>
       </c>
       <c r="E49">
-        <v>269654.7970194871</v>
+        <v>246365.9837030932</v>
       </c>
       <c r="F49">
-        <v>59625.41669093504</v>
+        <v>53852.65944353553</v>
       </c>
       <c r="G49">
-        <v>112309.9993190057</v>
+        <v>101965.5570518082</v>
       </c>
       <c r="H49">
-        <v>174400.041855327</v>
+        <v>174399.9115537261</v>
       </c>
       <c r="I49">
-        <v>829225</v>
+        <v>855954</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>505175.5377662153</v>
+        <v>507079.5423694906</v>
       </c>
       <c r="O49">
-        <v>309256.122922617</v>
+        <v>282486.7841278426</v>
       </c>
       <c r="P49">
-        <v>171935.4160099407</v>
+        <v>155818.2164953437</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.02459982371</v>
+        <v>60247.93596480594</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>168690.3844984109</v>
+        <v>170989.4279414305</v>
       </c>
       <c r="D50">
-        <v>12734.54694948446</v>
+        <v>12743.98878519381</v>
       </c>
       <c r="E50">
-        <v>87206.66632510838</v>
+        <v>88861.93409186458</v>
       </c>
       <c r="F50">
-        <v>18112.5421560425</v>
+        <v>20373.92396348232</v>
       </c>
       <c r="G50">
-        <v>33894.66592817127</v>
+        <v>36376.48035963721</v>
       </c>
       <c r="H50">
-        <v>60248.02459982371</v>
+        <v>60247.93596480594</v>
       </c>
       <c r="I50">
-        <v>296068</v>
+        <v>315280</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>168690.3844984109</v>
+        <v>170989.4279414305</v>
       </c>
       <c r="O50">
-        <v>99941.21327459284</v>
+        <v>101605.9228770584</v>
       </c>
       <c r="P50">
-        <v>52007.20808421377</v>
+        <v>56750.40432311953</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.042279946216</v>
+        <v>8461.014102359808</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23922.27251672863</v>
+        <v>23270.49365442242</v>
       </c>
       <c r="D51">
-        <v>1938.404677067267</v>
+        <v>1830.315119992718</v>
       </c>
       <c r="E51">
-        <v>12563.38685367922</v>
+        <v>11760.12533313861</v>
       </c>
       <c r="F51">
-        <v>2709.044421378159</v>
+        <v>2254.829949172972</v>
       </c>
       <c r="G51">
-        <v>4937.228740631816</v>
+        <v>4293.201928344885</v>
       </c>
       <c r="H51">
-        <v>8461.042279946216</v>
+        <v>8461.014102359808</v>
       </c>
       <c r="I51">
-        <v>41570</v>
+        <v>41646</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23922.27251672863</v>
+        <v>23270.49365442242</v>
       </c>
       <c r="O51">
-        <v>14501.79153074648</v>
+        <v>13590.44045313133</v>
       </c>
       <c r="P51">
-        <v>7646.273162009976</v>
+        <v>6548.031877517857</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.897512879703</v>
+        <v>2463.040365641116</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7505.924367520417</v>
+        <v>7443.169136183393</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1104.992966977745</v>
+        <v>1033.941867099582</v>
       </c>
       <c r="F52">
-        <v>1.17535703431642</v>
+        <v>1.003723158120848</v>
       </c>
       <c r="G52">
-        <v>11.39663703504048</v>
+        <v>7.356669451385392</v>
       </c>
       <c r="H52">
-        <v>2462.897512879703</v>
+        <v>2463.040365641116</v>
       </c>
       <c r="I52">
-        <v>10913</v>
+        <v>11639</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7505.924367520417</v>
+        <v>7443.169136183393</v>
       </c>
       <c r="O52">
-        <v>1104.992966977745</v>
+        <v>1033.941867099582</v>
       </c>
       <c r="P52">
-        <v>12.5719940693569</v>
+        <v>8.36039260950624</v>
       </c>
       <c r="Q52">
-        <v>25.05453569957755</v>
+        <v>18.12846634428409</v>
       </c>
       <c r="R52">
-        <v>54.55513165154126</v>
+        <v>51.5617566593972</v>
       </c>
       <c r="S52">
-        <v>79.6096673511188</v>
+        <v>69.69022300368128</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.001693999077</v>
+        <v>3703.915493965673</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11222.4214683982</v>
+        <v>11650.29611498711</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1736.156685676013</v>
+        <v>1601.246302503161</v>
       </c>
       <c r="F53">
-        <v>4.158910939342192</v>
+        <v>2.143989438824379</v>
       </c>
       <c r="G53">
-        <v>9.809496163943175</v>
+        <v>12.41954372400332</v>
       </c>
       <c r="H53">
-        <v>3704.001693999077</v>
+        <v>3703.915493965673</v>
       </c>
       <c r="I53">
-        <v>16564</v>
+        <v>16919</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11222.4214683982</v>
+        <v>11650.29611498711</v>
       </c>
       <c r="O53">
-        <v>1736.156685676013</v>
+        <v>1601.246302503161</v>
       </c>
       <c r="P53">
-        <v>13.96840710328537</v>
+        <v>14.56353316282769</v>
       </c>
       <c r="Q53">
-        <v>33.37556431162534</v>
+        <v>26.33521999984169</v>
       </c>
       <c r="R53">
-        <v>58.35477269510126</v>
+        <v>70.91543973647057</v>
       </c>
       <c r="S53">
-        <v>91.7303370067266</v>
+        <v>97.25065973631227</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169753.8838612454</v>
+        <v>169754.1203424419</v>
       </c>
       <c r="B54">
-        <v>40484.58401473525</v>
+        <v>40701.41376937398</v>
       </c>
       <c r="C54">
-        <v>480511.3986411534</v>
+        <v>494896.4948803159</v>
       </c>
       <c r="D54">
-        <v>4726.728042479611</v>
+        <v>6093.898446324625</v>
       </c>
       <c r="E54">
-        <v>70164.87212959437</v>
+        <v>80562.76671990923</v>
       </c>
       <c r="F54">
-        <v>239.8278403625502</v>
+        <v>228.8702685078943</v>
       </c>
       <c r="G54">
-        <v>796.4099308328564</v>
+        <v>821.8078242806594</v>
       </c>
       <c r="H54">
-        <v>169753.8838612454</v>
+        <v>169754.1203424419</v>
       </c>
       <c r="I54">
-        <v>706821</v>
+        <v>690202</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>520995.9826558886</v>
+        <v>535597.9086496899</v>
       </c>
       <c r="O54">
-        <v>74891.60017207397</v>
+        <v>86656.66516623386</v>
       </c>
       <c r="P54">
-        <v>1036.237771195407</v>
+        <v>1050.678092788554</v>
       </c>
       <c r="Q54">
-        <v>1101.227275307698</v>
+        <v>1335.164173448029</v>
       </c>
       <c r="R54">
-        <v>3369.463234373599</v>
+        <v>4038.602572737305</v>
       </c>
       <c r="S54">
-        <v>4470.690509681298</v>
+        <v>5373.766746185334</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301001.0121599516</v>
+        <v>301000.9013432047</v>
       </c>
       <c r="B55">
-        <v>73139.19885076447</v>
+        <v>69273.66619490842</v>
       </c>
       <c r="C55">
-        <v>907088.3185944199</v>
+        <v>877951.284879901</v>
       </c>
       <c r="D55">
-        <v>10698.16991785106</v>
+        <v>9460.45218924023</v>
       </c>
       <c r="E55">
-        <v>129143.1926223842</v>
+        <v>130182.6577312062</v>
       </c>
       <c r="F55">
-        <v>187.3617975099982</v>
+        <v>171.5845222210605</v>
       </c>
       <c r="G55">
-        <v>1015.194063737428</v>
+        <v>257.7790753714844</v>
       </c>
       <c r="H55">
-        <v>301001.0121599516</v>
+        <v>301000.9013432047</v>
       </c>
       <c r="I55">
-        <v>1206068</v>
+        <v>1242297</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>980227.5174451843</v>
+        <v>947224.9510748094</v>
       </c>
       <c r="O55">
-        <v>139841.3625402353</v>
+        <v>139643.1099204465</v>
       </c>
       <c r="P55">
-        <v>1202.555861247426</v>
+        <v>429.3635975925449</v>
       </c>
       <c r="Q55">
-        <v>1702.713653805711</v>
+        <v>1870.451445758141</v>
       </c>
       <c r="R55">
-        <v>5004.489041472639</v>
+        <v>5433.999460686587</v>
       </c>
       <c r="S55">
-        <v>6707.202695278349</v>
+        <v>7304.450906444728</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.9552954413</v>
+        <v>485904.0672887503</v>
       </c>
       <c r="B56">
-        <v>121790.5370560727</v>
+        <v>120527.636968865</v>
       </c>
       <c r="C56">
-        <v>1408441.128076764</v>
+        <v>1427818.52028654</v>
       </c>
       <c r="D56">
-        <v>15863.08421662613</v>
+        <v>17254.01383198231</v>
       </c>
       <c r="E56">
-        <v>210612.2998150899</v>
+        <v>215007.4320825895</v>
       </c>
       <c r="F56">
-        <v>115.3170574404061</v>
+        <v>294.6355763445302</v>
       </c>
       <c r="G56">
-        <v>973.7219502274912</v>
+        <v>2096.718840698691</v>
       </c>
       <c r="H56">
-        <v>485903.9552954413</v>
+        <v>485904.0672887503</v>
       </c>
       <c r="I56">
-        <v>2082455</v>
+        <v>1927922</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1530231.665132836</v>
+        <v>1548346.157255405</v>
       </c>
       <c r="O56">
-        <v>226475.384031716</v>
+        <v>232261.4459145718</v>
       </c>
       <c r="P56">
-        <v>1089.039007667897</v>
+        <v>2391.354417043221</v>
       </c>
       <c r="Q56">
-        <v>3442.991891861404</v>
+        <v>2494.755264452313</v>
       </c>
       <c r="R56">
-        <v>7648.484913933736</v>
+        <v>9426.966829268093</v>
       </c>
       <c r="S56">
-        <v>11091.47680579514</v>
+        <v>11921.72209372041</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757270.9262210444</v>
+        <v>757271.0070406756</v>
       </c>
       <c r="B57">
-        <v>189958.4176895455</v>
+        <v>186031.7956938317</v>
       </c>
       <c r="C57">
-        <v>2201848.629900582</v>
+        <v>2164224.256372091</v>
       </c>
       <c r="D57">
-        <v>28090.32614576198</v>
+        <v>22602.2064648674</v>
       </c>
       <c r="E57">
-        <v>354217.2529530036</v>
+        <v>347059.541854667</v>
       </c>
       <c r="F57">
-        <v>619.1272835454057</v>
+        <v>368.9270863416906</v>
       </c>
       <c r="G57">
-        <v>3394.117666949074</v>
+        <v>2090.268910812149</v>
       </c>
       <c r="H57">
-        <v>757270.9262210444</v>
+        <v>757271.0070406756</v>
       </c>
       <c r="I57">
-        <v>3011971</v>
+        <v>3178994</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2391807.047590128</v>
+        <v>2350256.052065922</v>
       </c>
       <c r="O57">
-        <v>382307.5790987656</v>
+        <v>369661.7483195344</v>
       </c>
       <c r="P57">
-        <v>4013.244950494479</v>
+        <v>2459.19599715384</v>
       </c>
       <c r="Q57">
-        <v>5325.279664520308</v>
+        <v>4637.537568543843</v>
       </c>
       <c r="R57">
-        <v>17867.44619344778</v>
+        <v>15137.57148265201</v>
       </c>
       <c r="S57">
-        <v>23192.72585796809</v>
+        <v>19775.10905119585</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651329.0266307504</v>
+        <v>651328.9618552207</v>
       </c>
       <c r="B58">
-        <v>163997.9179612972</v>
+        <v>158626.4612397647</v>
       </c>
       <c r="C58">
-        <v>1919463.092113092</v>
+        <v>1872142.707176826</v>
       </c>
       <c r="D58">
-        <v>19645.50975707891</v>
+        <v>23193.54138791173</v>
       </c>
       <c r="E58">
-        <v>271969.5957010342</v>
+        <v>302597.862196983</v>
       </c>
       <c r="F58">
-        <v>444.1821469073571</v>
+        <v>222.9053663461148</v>
       </c>
       <c r="G58">
-        <v>3458.42575241207</v>
+        <v>1676.092816282254</v>
       </c>
       <c r="H58">
-        <v>651329.0266307504</v>
+        <v>651328.9618552207</v>
       </c>
       <c r="I58">
-        <v>2706831</v>
+        <v>2582552</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2083461.010074389</v>
+        <v>2030769.16841659</v>
       </c>
       <c r="O58">
-        <v>291615.1054581131</v>
+        <v>325791.4035848947</v>
       </c>
       <c r="P58">
-        <v>3902.607899319427</v>
+        <v>1898.998182628369</v>
       </c>
       <c r="Q58">
-        <v>4655.51407739097</v>
+        <v>3499.20538426689</v>
       </c>
       <c r="R58">
-        <v>11776.80529498018</v>
+        <v>13488.83163217527</v>
       </c>
       <c r="S58">
-        <v>16432.31937237115</v>
+        <v>16988.03701644216</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.062172464</v>
+        <v>889112.0653825211</v>
       </c>
       <c r="B59">
-        <v>216402.110372969</v>
+        <v>201807.4586101898</v>
       </c>
       <c r="C59">
-        <v>2508208.956025136</v>
+        <v>2497508.07040394</v>
       </c>
       <c r="D59">
-        <v>32074.75051959042</v>
+        <v>27560.78586142458</v>
       </c>
       <c r="E59">
-        <v>392678.1516028374</v>
+        <v>363416.1702642061</v>
       </c>
       <c r="F59">
-        <v>84.24922720170171</v>
+        <v>580.1180162168537</v>
       </c>
       <c r="G59">
-        <v>1144.467284625549</v>
+        <v>3955.372851552637</v>
       </c>
       <c r="H59">
-        <v>889112.062172464</v>
+        <v>889112.0653825211</v>
       </c>
       <c r="I59">
-        <v>3656234</v>
+        <v>3559715</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2724611.066398105</v>
+        <v>2699315.52901413</v>
       </c>
       <c r="O59">
-        <v>424752.9021224278</v>
+        <v>390976.9561256307</v>
       </c>
       <c r="P59">
-        <v>1228.71651182725</v>
+        <v>4535.490867769491</v>
       </c>
       <c r="Q59">
-        <v>8451.044895086014</v>
+        <v>6265.724215140916</v>
       </c>
       <c r="R59">
-        <v>14708.72960690015</v>
+        <v>15925.29664991629</v>
       </c>
       <c r="S59">
-        <v>23159.77450198617</v>
+        <v>22191.02086505721</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9691332759</v>
+        <v>465365.09903546</v>
       </c>
       <c r="B60">
-        <v>111927.8446635705</v>
+        <v>116627.8946168965</v>
       </c>
       <c r="C60">
-        <v>1342416.16482128</v>
+        <v>1334844.481982894</v>
       </c>
       <c r="D60">
-        <v>15496.50172732744</v>
+        <v>16682.79298274923</v>
       </c>
       <c r="E60">
-        <v>176368.276479176</v>
+        <v>220190.9579783517</v>
       </c>
       <c r="F60">
-        <v>591.2840403205859</v>
+        <v>218.2377711723228</v>
       </c>
       <c r="G60">
-        <v>2478.919510942576</v>
+        <v>1159.456822314217</v>
       </c>
       <c r="H60">
-        <v>465364.9691332759</v>
+        <v>465365.09903546</v>
       </c>
       <c r="I60">
-        <v>1923768</v>
+        <v>1976018</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1454344.00948485</v>
+        <v>1451472.37659979</v>
       </c>
       <c r="O60">
-        <v>191864.7782065035</v>
+        <v>236873.7509611009</v>
       </c>
       <c r="P60">
-        <v>3070.203551263162</v>
+        <v>1377.69459348654</v>
       </c>
       <c r="Q60">
-        <v>3827.597672627641</v>
+        <v>2745.574483850877</v>
       </c>
       <c r="R60">
-        <v>10930.69196116056</v>
+        <v>7710.843299382636</v>
       </c>
       <c r="S60">
-        <v>14758.28963378821</v>
+        <v>10456.41778323351</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340624.0776499817</v>
+        <v>340623.9031777511</v>
       </c>
       <c r="B61">
-        <v>86808.14165881058</v>
+        <v>83784.90472567055</v>
       </c>
       <c r="C61">
-        <v>998256.2810530794</v>
+        <v>1008073.964203725</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>165097.8494461577</v>
+        <v>155160.3949597996</v>
       </c>
       <c r="F61">
-        <v>138.8116805305084</v>
+        <v>77.00497725706414</v>
       </c>
       <c r="G61">
-        <v>1262.726890858323</v>
+        <v>146.1239420606901</v>
       </c>
       <c r="H61">
-        <v>340624.0776499817</v>
+        <v>340623.9031777511</v>
       </c>
       <c r="I61">
-        <v>1532402</v>
+        <v>1410566</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1085064.42271189</v>
+        <v>1091858.868929396</v>
       </c>
       <c r="O61">
-        <v>165097.8494461577</v>
+        <v>155160.3949597996</v>
       </c>
       <c r="P61">
-        <v>1401.538571388831</v>
+        <v>223.1289193177543</v>
       </c>
       <c r="Q61">
-        <v>1971.707084858892</v>
+        <v>2188.89590184168</v>
       </c>
       <c r="R61">
-        <v>6484.172763948203</v>
+        <v>6912.461985246122</v>
       </c>
       <c r="S61">
-        <v>8455.879848807095</v>
+        <v>9101.357887087801</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469690.8898182905</v>
+        <v>469691.0201735105</v>
       </c>
       <c r="B62">
-        <v>115679.2430979463</v>
+        <v>121788.5929937607</v>
       </c>
       <c r="C62">
-        <v>1370345.528814176</v>
+        <v>1403009.288428576</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>225815.6835008562</v>
+        <v>214954.1497097016</v>
       </c>
       <c r="F62">
-        <v>325.230808861754</v>
+        <v>350.537366147118</v>
       </c>
       <c r="G62">
-        <v>1269.723754968035</v>
+        <v>1355.391100453203</v>
       </c>
       <c r="H62">
-        <v>469690.8898182905</v>
+        <v>469691.0201735105</v>
       </c>
       <c r="I62">
-        <v>1881626</v>
+        <v>1861718</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1486024.771912122</v>
+        <v>1524797.881422337</v>
       </c>
       <c r="O62">
-        <v>225815.6835008562</v>
+        <v>214954.1497097016</v>
       </c>
       <c r="P62">
-        <v>1594.954563829789</v>
+        <v>1705.928466600321</v>
       </c>
       <c r="Q62">
-        <v>3785.289596355266</v>
+        <v>3598.384251500101</v>
       </c>
       <c r="R62">
-        <v>7397.075069297699</v>
+        <v>9738.520456035405</v>
       </c>
       <c r="S62">
-        <v>11182.36466565297</v>
+        <v>13336.90470753551</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.02028384922</v>
+        <v>20456.94673569403</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>64503.73564409645</v>
+        <v>65300.88526205449</v>
       </c>
       <c r="D63">
-        <v>702.793475864653</v>
+        <v>622.8711887316921</v>
       </c>
       <c r="E63">
-        <v>8604.676516453703</v>
+        <v>8520.490949898305</v>
       </c>
       <c r="F63">
-        <v>7.395137931121253</v>
+        <v>27.01471990938737</v>
       </c>
       <c r="G63">
-        <v>49.42738872763548</v>
+        <v>91.1142382978765</v>
       </c>
       <c r="H63">
-        <v>20457.02028384922</v>
+        <v>20456.94673569403</v>
       </c>
       <c r="I63">
-        <v>96788</v>
+        <v>89843</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>64503.73564409645</v>
+        <v>65300.88526205449</v>
       </c>
       <c r="O63">
-        <v>9307.469992318356</v>
+        <v>9143.362138629997</v>
       </c>
       <c r="P63">
-        <v>56.82252665875674</v>
+        <v>118.1289582072639</v>
       </c>
       <c r="Q63">
-        <v>136.8678529927524</v>
+        <v>135.8243882371544</v>
       </c>
       <c r="R63">
-        <v>404.159467492151</v>
+        <v>386.7339694539701</v>
       </c>
       <c r="S63">
-        <v>541.0273204849034</v>
+        <v>522.5583576911245</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.03048122557</v>
+        <v>20630.98003478442</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>63851.34706168281</v>
+        <v>63724.12000468322</v>
       </c>
       <c r="D64">
-        <v>647.5261753256842</v>
+        <v>685.4868821051656</v>
       </c>
       <c r="E64">
-        <v>8885.860563072247</v>
+        <v>8612.751937700401</v>
       </c>
       <c r="F64">
-        <v>24.33939644823022</v>
+        <v>15.01078762689049</v>
       </c>
       <c r="G64">
-        <v>93.28668358497446</v>
+        <v>24.8778130296466</v>
       </c>
       <c r="H64">
-        <v>20631.03048122557</v>
+        <v>20630.98003478442</v>
       </c>
       <c r="I64">
-        <v>93681</v>
+        <v>92116</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>63851.34706168281</v>
+        <v>63724.12000468322</v>
       </c>
       <c r="O64">
-        <v>9533.386738397931</v>
+        <v>9298.238819805567</v>
       </c>
       <c r="P64">
-        <v>117.6260800332047</v>
+        <v>39.88860065653709</v>
       </c>
       <c r="Q64">
-        <v>143.2977946993484</v>
+        <v>144.60358418954</v>
       </c>
       <c r="R64">
-        <v>369.4691664797904</v>
+        <v>369.3480052467804</v>
       </c>
       <c r="S64">
-        <v>512.7669611791389</v>
+        <v>513.9515894363203</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.922450998223</v>
+        <v>1767.897375921427</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5308.077464165257</v>
+        <v>5320.462645860754</v>
       </c>
       <c r="D65">
-        <v>54.24595283405605</v>
+        <v>58.28611406254745</v>
       </c>
       <c r="E65">
-        <v>791.2019881859204</v>
+        <v>743.8376870298228</v>
       </c>
       <c r="F65">
-        <v>0.300773457342802</v>
+        <v>1.224004330601923</v>
       </c>
       <c r="G65">
-        <v>1.819680217219755</v>
+        <v>10.28967812016829</v>
       </c>
       <c r="H65">
-        <v>1767.922450998223</v>
+        <v>1767.897375921427</v>
       </c>
       <c r="I65">
-        <v>8203</v>
+        <v>8357</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5308.077464165257</v>
+        <v>5320.462645860754</v>
       </c>
       <c r="O65">
-        <v>845.4479410199765</v>
+        <v>802.1238010923702</v>
       </c>
       <c r="P65">
-        <v>2.120453674562556</v>
+        <v>11.51368245077021</v>
       </c>
       <c r="Q65">
-        <v>15.81899202742399</v>
+        <v>12.7462106941365</v>
       </c>
       <c r="R65">
-        <v>50.67881944243361</v>
+        <v>31.47344367195039</v>
       </c>
       <c r="S65">
-        <v>66.49781146985761</v>
+        <v>44.21965436608689</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0482054385415</v>
+        <v>122.9354459261181</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>381.2553679353205</v>
+        <v>376.7061895503975</v>
       </c>
       <c r="D66">
-        <v>4.429980411687319</v>
+        <v>3.310724598144423</v>
       </c>
       <c r="E66">
-        <v>60.71880126746028</v>
+        <v>46.1477712249822</v>
       </c>
       <c r="F66">
-        <v>0.0602261442085683</v>
+        <v>0.106704597389479</v>
       </c>
       <c r="G66">
-        <v>0.426665637968889</v>
+        <v>0.3760111402172146</v>
       </c>
       <c r="H66">
-        <v>123.0482054385415</v>
+        <v>122.9354459261181</v>
       </c>
       <c r="I66">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>381.2553679353205</v>
+        <v>376.7061895503975</v>
       </c>
       <c r="O66">
-        <v>65.1487816791476</v>
+        <v>49.45849582312663</v>
       </c>
       <c r="P66">
-        <v>0.4868917821774573</v>
+        <v>0.4827157376066936</v>
       </c>
       <c r="Q66">
-        <v>0.2781499278734491</v>
+        <v>1.535415832561216</v>
       </c>
       <c r="R66">
-        <v>3.13584500244312</v>
+        <v>2.955990084312148</v>
       </c>
       <c r="S66">
-        <v>3.413994930316569</v>
+        <v>4.491405916873363</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.1287731525368</v>
+        <v>203.1209922194001</v>
       </c>
       <c r="B67">
-        <v>46.75002336071969</v>
+        <v>47.20874447473047</v>
       </c>
       <c r="C67">
-        <v>314.693677758926</v>
+        <v>324.8803935332386</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>118.4783557872577</v>
+        <v>137.0383697593871</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.1287731525368</v>
+        <v>203.1209922194001</v>
       </c>
       <c r="I67">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>361.4437011196457</v>
+        <v>372.089138007969</v>
       </c>
       <c r="O67">
-        <v>118.4783557872577</v>
+        <v>137.0383697593871</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.368210276681248</v>
+        <v>2.632011821190811</v>
       </c>
       <c r="R67">
-        <v>14.84948963099165</v>
+        <v>18.95752354619059</v>
       </c>
       <c r="S67">
-        <v>16.2176999076729</v>
+        <v>21.5895353673814</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.8674344847576</v>
+        <v>261.9598067952655</v>
       </c>
       <c r="B68">
-        <v>59.38930455147423</v>
+        <v>58.31616212355415</v>
       </c>
       <c r="C68">
-        <v>420.3990121467566</v>
+        <v>433.8388859003853</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>146.9256704551376</v>
+        <v>151.6008745388389</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.8674344847576</v>
+        <v>261.9598067952655</v>
       </c>
       <c r="I68">
-        <v>834</v>
+        <v>911</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>479.7883166982309</v>
+        <v>492.1550480239394</v>
       </c>
       <c r="O68">
-        <v>146.9256704551376</v>
+        <v>151.6008745388389</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.390569052770891</v>
+        <v>1.251413584771798</v>
       </c>
       <c r="R68">
-        <v>16.12985640723825</v>
+        <v>16.2354990815514</v>
       </c>
       <c r="S68">
-        <v>17.52042546000914</v>
+        <v>17.4869126663232</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2405.870868932577</v>
+        <v>2406.095892317251</v>
       </c>
       <c r="B69">
-        <v>538.0945031830411</v>
+        <v>565.177040490496</v>
       </c>
       <c r="C69">
-        <v>3903.629057737951</v>
+        <v>3889.734535810619</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1424.788468562615</v>
+        <v>1491.784836330879</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2405.870868932577</v>
+        <v>2406.095892317251</v>
       </c>
       <c r="I69">
-        <v>7696</v>
+        <v>7675</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4441.723560920992</v>
+        <v>4454.911576301114</v>
       </c>
       <c r="O69">
-        <v>1424.788468562615</v>
+        <v>1491.784836330879</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>17.60975760294105</v>
+        <v>14.68152526117992</v>
       </c>
       <c r="R69">
-        <v>165.304423646166</v>
+        <v>157.4852976235205</v>
       </c>
       <c r="S69">
-        <v>182.9141812491071</v>
+        <v>172.1668228847004</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1503.062664471367</v>
+        <v>1503.091725471137</v>
       </c>
       <c r="B70">
-        <v>368.5888893415248</v>
+        <v>366.4287114757347</v>
       </c>
       <c r="C70">
-        <v>2530.120525123052</v>
+        <v>2431.696651722653</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>910.1733438770443</v>
+        <v>992.3669229973198</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1503.062664471367</v>
+        <v>1503.091725471137</v>
       </c>
       <c r="I70">
-        <v>4634</v>
+        <v>4732</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2898.709414464577</v>
+        <v>2798.125363198388</v>
       </c>
       <c r="O70">
-        <v>910.1733438770443</v>
+        <v>992.3669229973198</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>10.52549614954284</v>
+        <v>11.53087336943445</v>
       </c>
       <c r="R70">
-        <v>110.6899116297723</v>
+        <v>91.57075190726893</v>
       </c>
       <c r="S70">
-        <v>121.2154077793152</v>
+        <v>103.1016252767034</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.06507555573</v>
+        <v>19901.03310282849</v>
       </c>
       <c r="B71">
-        <v>4744.366164897966</v>
+        <v>4722.999038136408</v>
       </c>
       <c r="C71">
-        <v>32133.49293537327</v>
+        <v>31465.29112391443</v>
       </c>
       <c r="D71">
-        <v>663.9161131442336</v>
+        <v>646.6643869832853</v>
       </c>
       <c r="E71">
-        <v>11334.46699338024</v>
+        <v>10717.15323180955</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.06507555573</v>
+        <v>19901.03310282849</v>
       </c>
       <c r="I71">
-        <v>62406</v>
+        <v>66702</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36877.85910027124</v>
+        <v>36188.29016205084</v>
       </c>
       <c r="O71">
-        <v>11998.38310652447</v>
+        <v>11363.81761879284</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>144.4628218584105</v>
+        <v>176.1960246996207</v>
       </c>
       <c r="R71">
-        <v>1378.276672263272</v>
+        <v>1121.958671419748</v>
       </c>
       <c r="S71">
-        <v>1522.739494121682</v>
+        <v>1298.154696119368</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.13146818613</v>
+        <v>41982.13112156752</v>
       </c>
       <c r="B72">
-        <v>9654.34586737957</v>
+        <v>10250.9057278935</v>
       </c>
       <c r="C72">
-        <v>68567.68185815313</v>
+        <v>68799.41892553584</v>
       </c>
       <c r="D72">
-        <v>1261.141464343603</v>
+        <v>1808.228558430153</v>
       </c>
       <c r="E72">
-        <v>24164.59249924452</v>
+        <v>27215.43042114503</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.13146818613</v>
+        <v>41982.13112156752</v>
       </c>
       <c r="I72">
-        <v>141055</v>
+        <v>138105</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>78222.0277255327</v>
+        <v>79050.32465342933</v>
       </c>
       <c r="O72">
-        <v>25425.73396358813</v>
+        <v>29023.65897957519</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>287.6326565835784</v>
+        <v>286.441495868456</v>
       </c>
       <c r="R72">
-        <v>2484.839113482704</v>
+        <v>2385.933190049717</v>
       </c>
       <c r="S72">
-        <v>2772.471770066283</v>
+        <v>2672.374685918173</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.96950347452</v>
+        <v>44204.9075263042</v>
       </c>
       <c r="B73">
-        <v>10015.06645972813</v>
+        <v>10239.33680015401</v>
       </c>
       <c r="C73">
-        <v>70082.52611316805</v>
+        <v>71736.26984922812</v>
       </c>
       <c r="D73">
-        <v>1622.644456296875</v>
+        <v>1470.86843406705</v>
       </c>
       <c r="E73">
-        <v>26455.41033586529</v>
+        <v>24141.93032080563</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.96950347452</v>
+        <v>44204.9075263042</v>
       </c>
       <c r="I73">
-        <v>146044</v>
+        <v>143182</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>80097.59257289617</v>
+        <v>81975.60664938213</v>
       </c>
       <c r="O73">
-        <v>28078.05479216216</v>
+        <v>25612.79875487268</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>335.7792303875923</v>
+        <v>279.4887498929415</v>
       </c>
       <c r="R73">
-        <v>2882.438298686509</v>
+        <v>3004.609532452422</v>
       </c>
       <c r="S73">
-        <v>3218.217529074101</v>
+        <v>3284.098282345363</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78746.04862756122</v>
+        <v>78746.07425517775</v>
       </c>
       <c r="B74">
-        <v>18385.03026587952</v>
+        <v>17140.90716751132</v>
       </c>
       <c r="C74">
-        <v>128250.1841621715</v>
+        <v>120446.1748019137</v>
       </c>
       <c r="D74">
-        <v>2631.102558210266</v>
+        <v>2582.501556681027</v>
       </c>
       <c r="E74">
-        <v>45595.91880494475</v>
+        <v>42988.97746066097</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78746.04862756122</v>
+        <v>78746.07425517775</v>
       </c>
       <c r="I74">
-        <v>251979</v>
+        <v>264030</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>146635.214428051</v>
+        <v>137587.081969425</v>
       </c>
       <c r="O74">
-        <v>48227.02136315501</v>
+        <v>45571.479017342</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>535.2714816744635</v>
+        <v>432.2326739568194</v>
       </c>
       <c r="R74">
-        <v>4822.87938023982</v>
+        <v>5234.123006978983</v>
       </c>
       <c r="S74">
-        <v>5358.150861914283</v>
+        <v>5666.355680935802</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.13497168575</v>
+        <v>38059.90214268472</v>
       </c>
       <c r="B75">
-        <v>8699.237924254885</v>
+        <v>8515.136039738083</v>
       </c>
       <c r="C75">
-        <v>61807.78985419095</v>
+        <v>60758.64722278009</v>
       </c>
       <c r="D75">
-        <v>1705.753589227805</v>
+        <v>1158.304490225919</v>
       </c>
       <c r="E75">
-        <v>26143.11862290996</v>
+        <v>20054.34880983879</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.13497168575</v>
+        <v>38059.90214268472</v>
       </c>
       <c r="I75">
-        <v>125631</v>
+        <v>122976</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>70507.02777844583</v>
+        <v>69273.78326251818</v>
       </c>
       <c r="O75">
-        <v>27848.87221213776</v>
+        <v>21212.65330006471</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>276.9599813537805</v>
+        <v>290.7940985186481</v>
       </c>
       <c r="R75">
-        <v>2486.222385574991</v>
+        <v>2629.931535452976</v>
       </c>
       <c r="S75">
-        <v>2763.182366928772</v>
+        <v>2920.725633971625</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79351.05376099004</v>
+        <v>79351.09672165135</v>
       </c>
       <c r="B76">
-        <v>18674.38608541576</v>
+        <v>18854.70075163345</v>
       </c>
       <c r="C76">
-        <v>129253.224703783</v>
+        <v>130108.0468429078</v>
       </c>
       <c r="D76">
-        <v>2914.346771505174</v>
+        <v>2475.0045238516</v>
       </c>
       <c r="E76">
-        <v>47194.2120221331</v>
+        <v>46085.66878999935</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79351.05376099004</v>
+        <v>79351.09672165135</v>
       </c>
       <c r="I76">
-        <v>253105</v>
+        <v>259864</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>147927.6107891987</v>
+        <v>148962.7475945413</v>
       </c>
       <c r="O76">
-        <v>50108.55879363827</v>
+        <v>48560.67331385095</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>603.5307177235698</v>
+        <v>647.4569902709491</v>
       </c>
       <c r="R76">
-        <v>5369.931697964397</v>
+        <v>5518.061270862887</v>
       </c>
       <c r="S76">
-        <v>5973.462415687967</v>
+        <v>6165.518261133836</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45068.07429395043</v>
+        <v>45067.99627523153</v>
       </c>
       <c r="B77">
-        <v>10253.2499357166</v>
+        <v>9933.187629825658</v>
       </c>
       <c r="C77">
-        <v>73121.98334356146</v>
+        <v>71065.54991005336</v>
       </c>
       <c r="D77">
-        <v>1387.716730849328</v>
+        <v>1485.6283167232</v>
       </c>
       <c r="E77">
-        <v>27032.35673902301</v>
+        <v>24115.93508480223</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45068.07429395043</v>
+        <v>45067.99627523153</v>
       </c>
       <c r="I77">
-        <v>152646</v>
+        <v>147298</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>83375.23327927805</v>
+        <v>80998.73753987902</v>
       </c>
       <c r="O77">
-        <v>28420.07346987234</v>
+        <v>25601.56340152543</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>274.8939966594615</v>
+        <v>358.6209694056889</v>
       </c>
       <c r="R77">
-        <v>2571.774417440499</v>
+        <v>2928.480583989409</v>
       </c>
       <c r="S77">
-        <v>2846.668414099961</v>
+        <v>3287.101553395098</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14295.05510456403</v>
+        <v>14294.87122686461</v>
       </c>
       <c r="B78">
-        <v>3403.753068152001</v>
+        <v>3284.443613204448</v>
       </c>
       <c r="C78">
-        <v>23660.60030118496</v>
+        <v>23553.53452244211</v>
       </c>
       <c r="D78">
-        <v>436.0719026589076</v>
+        <v>527.8541962016343</v>
       </c>
       <c r="E78">
-        <v>8604.297435085457</v>
+        <v>9840.671101333412</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14295.05510456403</v>
+        <v>14294.87122686461</v>
       </c>
       <c r="I78">
-        <v>46662</v>
+        <v>45795</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>27064.35336933696</v>
+        <v>26837.97813564656</v>
       </c>
       <c r="O78">
-        <v>9040.369337744363</v>
+        <v>10368.52529753505</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>100.9997584894446</v>
+        <v>99.18205964528532</v>
       </c>
       <c r="R78">
-        <v>931.2401942323668</v>
+        <v>1072.99374324914</v>
       </c>
       <c r="S78">
-        <v>1032.239952721811</v>
+        <v>1172.175802894425</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27737.8514569415</v>
+        <v>27737.8919564537</v>
       </c>
       <c r="B79">
-        <v>6223.465619130289</v>
+        <v>6109.736723157349</v>
       </c>
       <c r="C79">
-        <v>45442.10435450188</v>
+        <v>43338.34256867244</v>
       </c>
       <c r="D79">
-        <v>1064.338787141724</v>
+        <v>863.2578988428697</v>
       </c>
       <c r="E79">
-        <v>17797.17974735553</v>
+        <v>14701.64973948602</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27737.8514569415</v>
+        <v>27737.8919564537</v>
       </c>
       <c r="I79">
-        <v>90784</v>
+        <v>89357</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>51665.56997363217</v>
+        <v>49448.0792918298</v>
       </c>
       <c r="O79">
-        <v>18861.51853449726</v>
+        <v>15564.90763832889</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>152.3894844542579</v>
+        <v>231.6392039676703</v>
       </c>
       <c r="R79">
-        <v>1587.162333571778</v>
+        <v>2049.987135078279</v>
       </c>
       <c r="S79">
-        <v>1739.551818026035</v>
+        <v>2281.626339045949</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.047381327503</v>
+        <v>2820.071057004624</v>
       </c>
       <c r="B80">
-        <v>645.3707633860749</v>
+        <v>659.4465099463488</v>
       </c>
       <c r="C80">
-        <v>4542.946602100345</v>
+        <v>4485.326848356584</v>
       </c>
       <c r="D80">
-        <v>82.49957476054327</v>
+        <v>90.59535582372682</v>
       </c>
       <c r="E80">
-        <v>1652.468157834444</v>
+        <v>1502.050845614351</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.047381327503</v>
+        <v>2820.071057004624</v>
       </c>
       <c r="I80">
-        <v>9285</v>
+        <v>9446</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5188.31736548642</v>
+        <v>5144.773358302932</v>
       </c>
       <c r="O80">
-        <v>1734.967732594987</v>
+        <v>1592.646201438077</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30.69533970881907</v>
+        <v>18.69210689457434</v>
       </c>
       <c r="R80">
-        <v>230.4949805197346</v>
+        <v>160.4665893121979</v>
       </c>
       <c r="S80">
-        <v>261.1903202285537</v>
+        <v>179.1586962067723</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3591.081869371819</v>
+        <v>3590.989126043567</v>
       </c>
       <c r="B81">
-        <v>828.9155157328955</v>
+        <v>878.2546095374069</v>
       </c>
       <c r="C81">
-        <v>5837.750604665433</v>
+        <v>5862.633749153193</v>
       </c>
       <c r="D81">
-        <v>114.6635787443781</v>
+        <v>132.290421792739</v>
       </c>
       <c r="E81">
-        <v>2123.506189739705</v>
+        <v>2092.599243246223</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3591.081869371819</v>
+        <v>3590.989126043567</v>
       </c>
       <c r="I81">
-        <v>11239</v>
+        <v>11700</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6666.666120398328</v>
+        <v>6740.8883586906</v>
       </c>
       <c r="O81">
-        <v>2238.169768484084</v>
+        <v>2224.889665038962</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>22.57628925801031</v>
+        <v>19.3570288494701</v>
       </c>
       <c r="R81">
-        <v>224.1036536368559</v>
+        <v>204.9142265005727</v>
       </c>
       <c r="S81">
-        <v>246.6799428948662</v>
+        <v>224.2712553500428</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.988301878114</v>
+        <v>1156.131160258414</v>
       </c>
       <c r="B82">
-        <v>262.9185054210092</v>
+        <v>252.7933921769388</v>
       </c>
       <c r="C82">
-        <v>1929.912203779797</v>
+        <v>1780.406339122046</v>
       </c>
       <c r="D82">
-        <v>37.2420624981207</v>
+        <v>40.49495064281837</v>
       </c>
       <c r="E82">
-        <v>717.2687471700745</v>
+        <v>637.9770357447721</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.988301878114</v>
+        <v>1156.131160258414</v>
       </c>
       <c r="I82">
-        <v>3638</v>
+        <v>3856</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2192.830709200807</v>
+        <v>2033.199731298985</v>
       </c>
       <c r="O82">
-        <v>754.5108096681952</v>
+        <v>678.4719863875905</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8.311635045488153</v>
+        <v>8.897352235861678</v>
       </c>
       <c r="R82">
-        <v>56.15897266566406</v>
+        <v>84.17780917390749</v>
       </c>
       <c r="S82">
-        <v>64.47060771115221</v>
+        <v>93.07516140976917</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.96446796384</v>
+        <v>13237.90579063105</v>
       </c>
       <c r="B83">
-        <v>1908.5839136119</v>
+        <v>1859.522427776203</v>
       </c>
       <c r="C83">
-        <v>22254.55973466974</v>
+        <v>21586.47840543946</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>9888.503929285138</v>
+        <v>8180.103228168597</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.96446796384</v>
+        <v>13237.90579063105</v>
       </c>
       <c r="I83">
-        <v>44142</v>
+        <v>42388</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24163.14364828164</v>
+        <v>23446.00083321566</v>
       </c>
       <c r="O83">
-        <v>9888.503929285138</v>
+        <v>8180.103228168597</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>9.209537662039143</v>
+        <v>9.302516496550233</v>
       </c>
       <c r="R83">
-        <v>1021.429908254051</v>
+        <v>895.6273996319872</v>
       </c>
       <c r="S83">
-        <v>1030.63944591609</v>
+        <v>904.9299161285373</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6787.963038636801</v>
+        <v>6788.073078760825</v>
       </c>
       <c r="B84">
-        <v>993.4368552123465</v>
+        <v>987.8294841604718</v>
       </c>
       <c r="C84">
-        <v>11179.86448289526</v>
+        <v>11870.69196084673</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4257.904530461374</v>
+        <v>4197.093604345195</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6787.963038636801</v>
+        <v>6788.073078760825</v>
       </c>
       <c r="I84">
-        <v>21927</v>
+        <v>21740</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12173.30133810761</v>
+        <v>12858.5214450072</v>
       </c>
       <c r="O84">
-        <v>4257.904530461374</v>
+        <v>4197.093604345195</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>7.506540931926632</v>
+        <v>6.151112547306643</v>
       </c>
       <c r="R84">
-        <v>507.786178186362</v>
+        <v>480.3190448452911</v>
       </c>
       <c r="S84">
-        <v>515.2927191182887</v>
+        <v>486.4701573925977</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.087438513181</v>
+        <v>1508.039534279898</v>
       </c>
       <c r="B85">
-        <v>214.2641392965392</v>
+        <v>220.522906611194</v>
       </c>
       <c r="C85">
-        <v>2520.04303119519</v>
+        <v>2495.582493196268</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>895.9291813415579</v>
+        <v>955.2497648718681</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.087438513181</v>
+        <v>1508.039534279898</v>
       </c>
       <c r="I85">
-        <v>4788</v>
+        <v>4889</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2734.307170491729</v>
+        <v>2716.105399807463</v>
       </c>
       <c r="O85">
-        <v>895.9291813415579</v>
+        <v>955.2497648718681</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.416119204344178</v>
+        <v>0.9698273552080201</v>
       </c>
       <c r="R85">
-        <v>99.68723444399575</v>
+        <v>101.031459307881</v>
       </c>
       <c r="S85">
-        <v>101.1033536483399</v>
+        <v>102.001286663089</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25213.0411488987</v>
+        <v>25212.96296896553</v>
       </c>
       <c r="B86">
-        <v>3764.831960992116</v>
+        <v>3545.478573976962</v>
       </c>
       <c r="C86">
-        <v>42728.4708992746</v>
+        <v>40878.90209412875</v>
       </c>
       <c r="D86">
-        <v>612.0582857407654</v>
+        <v>685.371388418516</v>
       </c>
       <c r="E86">
-        <v>15164.37612346744</v>
+        <v>16656.27251509254</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25213.0411488987</v>
+        <v>25212.96296896553</v>
       </c>
       <c r="I86">
-        <v>77950</v>
+        <v>78513</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>46493.30286026672</v>
+        <v>44424.38066810571</v>
       </c>
       <c r="O86">
-        <v>15776.43440920821</v>
+        <v>17341.64390351106</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>13.38868879124801</v>
+        <v>26.68855766976134</v>
       </c>
       <c r="R86">
-        <v>1832.789426022666</v>
+        <v>1936.841905474583</v>
       </c>
       <c r="S86">
-        <v>1846.178114813914</v>
+        <v>1963.530463144344</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.136074021375</v>
+        <v>6443.956892061885</v>
       </c>
       <c r="B87">
-        <v>889.3541430165141</v>
+        <v>931.5320906587567</v>
       </c>
       <c r="C87">
-        <v>10978.2079922471</v>
+        <v>10736.84447098905</v>
       </c>
       <c r="D87">
-        <v>168.5649166697974</v>
+        <v>179.692716575071</v>
       </c>
       <c r="E87">
-        <v>3805.485806858901</v>
+        <v>3961.208925363111</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.136074021375</v>
+        <v>6443.956892061885</v>
       </c>
       <c r="I87">
-        <v>21033</v>
+        <v>21817</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11867.56213526362</v>
+        <v>11668.37656164781</v>
       </c>
       <c r="O87">
-        <v>3974.050723528699</v>
+        <v>4140.901641938182</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>3.433446883019069</v>
+        <v>1.922953732607274</v>
       </c>
       <c r="R87">
-        <v>423.0817800622884</v>
+        <v>499.3549368329271</v>
       </c>
       <c r="S87">
-        <v>426.5152269453075</v>
+        <v>501.2778905655343</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.00397875706</v>
+        <v>55704.12389458194</v>
       </c>
       <c r="B88">
-        <v>7219.55018716299</v>
+        <v>8157.309796141739</v>
       </c>
       <c r="C88">
-        <v>94979.60095689276</v>
+        <v>91742.55215886426</v>
       </c>
       <c r="D88">
-        <v>1277.875796200258</v>
+        <v>1273.93781000431</v>
       </c>
       <c r="E88">
-        <v>29270.49126454439</v>
+        <v>29909.07548303397</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.00397875706</v>
+        <v>55704.12389458194</v>
       </c>
       <c r="I88">
-        <v>180436</v>
+        <v>171470</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>102199.1511440557</v>
+        <v>99899.861955006</v>
       </c>
       <c r="O88">
-        <v>30548.36706074464</v>
+        <v>31183.01329303828</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>87.33964591591582</v>
+        <v>49.06859970557044</v>
       </c>
       <c r="R88">
-        <v>3311.656785922952</v>
+        <v>4041.728510187716</v>
       </c>
       <c r="S88">
-        <v>3398.996431838868</v>
+        <v>4090.797109893286</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.1083069105</v>
+        <v>201456.0629894844</v>
       </c>
       <c r="B89">
-        <v>29576.42191429367</v>
+        <v>32608.30598317038</v>
       </c>
       <c r="C89">
-        <v>344755.1177905537</v>
+        <v>351078.2522775202</v>
       </c>
       <c r="D89">
-        <v>5189.327329787791</v>
+        <v>5680.122900607722</v>
       </c>
       <c r="E89">
-        <v>116527.4634373235</v>
+        <v>132134.9204627717</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.1083069105</v>
+        <v>201456.0629894844</v>
       </c>
       <c r="I89">
-        <v>675001</v>
+        <v>642199</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>374331.5397048474</v>
+        <v>383686.5582606906</v>
       </c>
       <c r="O89">
-        <v>121716.7907671113</v>
+        <v>137815.0433633795</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>81.31646383152676</v>
+        <v>237.8650630063023</v>
       </c>
       <c r="R89">
-        <v>12276.16415505532</v>
+        <v>15698.96411448306</v>
       </c>
       <c r="S89">
-        <v>12357.48061888685</v>
+        <v>15936.82917748937</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15486.09211482463</v>
+        <v>15485.89344397089</v>
       </c>
       <c r="B90">
-        <v>2193.467828029774</v>
+        <v>2220.655328286312</v>
       </c>
       <c r="C90">
-        <v>26091.12671549067</v>
+        <v>25658.07881191105</v>
       </c>
       <c r="D90">
-        <v>416.7540633270537</v>
+        <v>388.7635176240575</v>
       </c>
       <c r="E90">
-        <v>9641.928158991974</v>
+        <v>10109.76279739729</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15486.09211482463</v>
+        <v>15485.89344397089</v>
       </c>
       <c r="I90">
-        <v>49710</v>
+        <v>50943</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28284.59454352045</v>
+        <v>27878.73414019736</v>
       </c>
       <c r="O90">
-        <v>10058.68222231903</v>
+        <v>10498.52631502135</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>9.278389925923021</v>
+        <v>16.08124994859923</v>
       </c>
       <c r="R90">
-        <v>1199.65534663844</v>
+        <v>1145.190725156577</v>
       </c>
       <c r="S90">
-        <v>1208.933736564363</v>
+        <v>1161.271975105176</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.8477854898</v>
+        <v>14403.88586860573</v>
       </c>
       <c r="B91">
-        <v>2111.136074279127</v>
+        <v>2033.27333398876</v>
       </c>
       <c r="C91">
-        <v>24429.74876065932</v>
+        <v>24027.64750360853</v>
       </c>
       <c r="D91">
-        <v>396.6658447603438</v>
+        <v>345.5815869746976</v>
       </c>
       <c r="E91">
-        <v>8465.747932419001</v>
+        <v>8899.197643419913</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.8477854898</v>
+        <v>14403.88586860573</v>
       </c>
       <c r="I91">
-        <v>45785</v>
+        <v>47432</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26540.88483493845</v>
+        <v>26060.92083759729</v>
       </c>
       <c r="O91">
-        <v>8862.413777179345</v>
+        <v>9244.779230394612</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>16.53206084865039</v>
+        <v>4.904885306658896</v>
       </c>
       <c r="R91">
-        <v>1444.069970881072</v>
+        <v>1129.427266960023</v>
       </c>
       <c r="S91">
-        <v>1460.602031729723</v>
+        <v>1134.332152266681</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.08179242403</v>
+        <v>46956.01727031415</v>
       </c>
       <c r="B92">
-        <v>6462.44543788567</v>
+        <v>6699.648349784517</v>
       </c>
       <c r="C92">
-        <v>78916.87561994213</v>
+        <v>80484.25325239223</v>
       </c>
       <c r="D92">
-        <v>998.4611272968878</v>
+        <v>1195.296753920337</v>
       </c>
       <c r="E92">
-        <v>26563.93744812034</v>
+        <v>27029.93850953148</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.08179242403</v>
+        <v>46956.01727031415</v>
       </c>
       <c r="I92">
-        <v>150081</v>
+        <v>153920</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>85379.32105782781</v>
+        <v>87183.90160217675</v>
       </c>
       <c r="O92">
-        <v>27562.39857541722</v>
+        <v>28225.23526345182</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>14.07365886621129</v>
+        <v>45.33990798539698</v>
       </c>
       <c r="R92">
-        <v>3370.076674376364</v>
+        <v>3301.112554237296</v>
       </c>
       <c r="S92">
-        <v>3384.150333242575</v>
+        <v>3346.452462222693</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24420.10613763573</v>
+        <v>24419.8725166774</v>
       </c>
       <c r="B93">
-        <v>3456.297074824678</v>
+        <v>3642.072870440954</v>
       </c>
       <c r="C93">
-        <v>40387.57437779039</v>
+        <v>40937.55920110996</v>
       </c>
       <c r="D93">
-        <v>660.3220921237557</v>
+        <v>590.5241653053888</v>
       </c>
       <c r="E93">
-        <v>15518.46238314807</v>
+        <v>14738.99210681609</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24420.10613763573</v>
+        <v>24419.8725166774</v>
       </c>
       <c r="I93">
-        <v>80397</v>
+        <v>76246</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>43843.87145261507</v>
+        <v>44579.63207155091</v>
       </c>
       <c r="O93">
-        <v>16178.78447527183</v>
+        <v>15329.51627212148</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>16.50233482731084</v>
+        <v>17.43671999518719</v>
       </c>
       <c r="R93">
-        <v>1625.521752151995</v>
+        <v>1670.567566694848</v>
       </c>
       <c r="S93">
-        <v>1642.024086979305</v>
+        <v>1688.004286690035</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70372.13949832968</v>
+        <v>70371.92648884049</v>
       </c>
       <c r="B94">
-        <v>10378.17174172293</v>
+        <v>10276.08195504667</v>
       </c>
       <c r="C94">
-        <v>119128.246482024</v>
+        <v>116137.9586241846</v>
       </c>
       <c r="D94">
-        <v>1632.506092747201</v>
+        <v>1526.603863483136</v>
       </c>
       <c r="E94">
-        <v>34902.7672971481</v>
+        <v>39572.88388054376</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70372.13949832968</v>
+        <v>70371.92648884049</v>
       </c>
       <c r="I94">
-        <v>240294</v>
+        <v>219378</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>129506.4182237469</v>
+        <v>126414.0405792313</v>
       </c>
       <c r="O94">
-        <v>36535.2733898953</v>
+        <v>41099.48774402689</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37.39726660625589</v>
+        <v>65.81151722548056</v>
       </c>
       <c r="R94">
-        <v>4936.967865786886</v>
+        <v>4694.502118766843</v>
       </c>
       <c r="S94">
-        <v>4974.365132393142</v>
+        <v>4760.313635992323</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7574.096065695793</v>
+        <v>7573.874699588427</v>
       </c>
       <c r="B95">
-        <v>1106.853054289697</v>
+        <v>1098.21368231131</v>
       </c>
       <c r="C95">
-        <v>12603.54800933419</v>
+        <v>12590.03305200559</v>
       </c>
       <c r="D95">
-        <v>183.2796336337538</v>
+        <v>194.2646123345545</v>
       </c>
       <c r="E95">
-        <v>4307.859655326744</v>
+        <v>4864.636382861626</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7574.096065695793</v>
+        <v>7573.874699588427</v>
       </c>
       <c r="I95">
-        <v>23572</v>
+        <v>24667</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13710.40106362389</v>
+        <v>13688.24673431689</v>
       </c>
       <c r="O95">
-        <v>4491.139288960499</v>
+        <v>5058.900995196181</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>6.020364936498471</v>
+        <v>8.766680485498901</v>
       </c>
       <c r="R95">
-        <v>525.8647305395082</v>
+        <v>708.5753688259833</v>
       </c>
       <c r="S95">
-        <v>531.8850954760067</v>
+        <v>717.3420493114822</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45038.07157720395</v>
+        <v>45037.96373801734</v>
       </c>
       <c r="B96">
-        <v>6696.698957449815</v>
+        <v>6569.386628934931</v>
       </c>
       <c r="C96">
-        <v>75319.3467429103</v>
+        <v>74847.59578612004</v>
       </c>
       <c r="D96">
-        <v>1292.570094817592</v>
+        <v>1031.455862140257</v>
       </c>
       <c r="E96">
-        <v>28308.9760250116</v>
+        <v>25815.00601442918</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45038.07157720395</v>
+        <v>45037.96373801734</v>
       </c>
       <c r="I96">
-        <v>142758</v>
+        <v>137789</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>82016.04570036012</v>
+        <v>81416.98241505497</v>
       </c>
       <c r="O96">
-        <v>29601.54611982919</v>
+        <v>26846.46187656944</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>42.71516033437153</v>
+        <v>25.81712142100779</v>
       </c>
       <c r="R96">
-        <v>3150.359911922744</v>
+        <v>2545.46718732123</v>
       </c>
       <c r="S96">
-        <v>3193.075072257115</v>
+        <v>2571.284308742238</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.85945821086</v>
+        <v>10072.85308584077</v>
       </c>
       <c r="B97">
-        <v>1472.159180203817</v>
+        <v>1368.994851779348</v>
       </c>
       <c r="C97">
-        <v>17761.56665610059</v>
+        <v>16579.72387647159</v>
       </c>
       <c r="D97">
-        <v>277.1663970654029</v>
+        <v>256.0420841030929</v>
       </c>
       <c r="E97">
-        <v>6477.530695945973</v>
+        <v>5795.990985530357</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.85945821086</v>
+        <v>10072.85308584077</v>
       </c>
       <c r="I97">
-        <v>32398</v>
+        <v>32421</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>19233.7258363044</v>
+        <v>17948.71872825094</v>
       </c>
       <c r="O97">
-        <v>6754.697093011376</v>
+        <v>6052.03306963345</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>3.771228683512765</v>
+        <v>6.285044668564406</v>
       </c>
       <c r="R97">
-        <v>602.5593493280969</v>
+        <v>757.3210056080656</v>
       </c>
       <c r="S97">
-        <v>606.3305780116097</v>
+        <v>763.60605027663</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11376.01257462026</v>
+        <v>11375.81891522825</v>
       </c>
       <c r="B98">
-        <v>2092.442413838854</v>
+        <v>2272.593186822007</v>
       </c>
       <c r="C98">
-        <v>18015.9793325377</v>
+        <v>18550.64116327569</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6330.73185525808</v>
+        <v>7570.666101374235</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11376.01257462026</v>
+        <v>11375.81891522825</v>
       </c>
       <c r="I98">
-        <v>30254</v>
+        <v>28297</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20108.42174637655</v>
+        <v>20823.2343500977</v>
       </c>
       <c r="O98">
-        <v>6330.73185525808</v>
+        <v>7570.666101374235</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>103.751946861375</v>
+        <v>111.689223163569</v>
       </c>
       <c r="R98">
-        <v>701.9071013313597</v>
+        <v>743.4749282309513</v>
       </c>
       <c r="S98">
-        <v>805.6590481927348</v>
+        <v>855.1641513945202</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1681.532396953543</v>
+        <v>1496.544504210363</v>
       </c>
       <c r="V98">
-        <v>1681.532396953543</v>
+        <v>1496.544504210363</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93358.95586153341</v>
+        <v>93359.01748281594</v>
       </c>
       <c r="B99">
-        <v>18165.43518598464</v>
+        <v>17684.98240947309</v>
       </c>
       <c r="C99">
-        <v>148265.1621657489</v>
+        <v>152523.8695137038</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>56169.47083953088</v>
+        <v>58982.3077583858</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93358.95586153341</v>
+        <v>93359.01748281594</v>
       </c>
       <c r="I99">
-        <v>258805</v>
+        <v>255378</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>166430.5973517336</v>
+        <v>170208.8519231768</v>
       </c>
       <c r="O99">
-        <v>56169.47083953088</v>
+        <v>58982.3077583858</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>1031.703656118838</v>
+        <v>589.0195257290355</v>
       </c>
       <c r="R99">
-        <v>5575.712328668913</v>
+        <v>5375.697326713607</v>
       </c>
       <c r="S99">
-        <v>6607.415984787751</v>
+        <v>5964.716852442642</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>13464.40211992348</v>
+        <v>12614.43526571205</v>
       </c>
       <c r="V99">
-        <v>13464.40211992348</v>
+        <v>12614.43526571205</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20816.84784951399</v>
+        <v>20817.00752159711</v>
       </c>
       <c r="B100">
-        <v>4331.836480927233</v>
+        <v>4153.463953360855</v>
       </c>
       <c r="C100">
-        <v>35197.12215174085</v>
+        <v>33134.88551904198</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>13114.81910653354</v>
+        <v>12246.78403733959</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20816.84784951399</v>
+        <v>20817.00752159711</v>
       </c>
       <c r="I100">
-        <v>55073</v>
+        <v>59394</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>39528.95863266808</v>
+        <v>37288.34947240284</v>
       </c>
       <c r="O100">
-        <v>13114.81910653354</v>
+        <v>12246.78403733959</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>211.4777012731106</v>
+        <v>218.3622521310909</v>
       </c>
       <c r="R100">
-        <v>1531.418476812822</v>
+        <v>1352.237167301184</v>
       </c>
       <c r="S100">
-        <v>1742.896178085932</v>
+        <v>1570.599419432275</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>3407.891984532572</v>
+        <v>2992.322263309272</v>
       </c>
       <c r="V100">
-        <v>3407.891984532572</v>
+        <v>2992.322263309272</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43953.03754918715</v>
+        <v>43952.86018398088</v>
       </c>
       <c r="B101">
-        <v>8465.975444395608</v>
+        <v>8657.806303847036</v>
       </c>
       <c r="C101">
-        <v>73316.45739616746</v>
+        <v>72447.77157195087</v>
       </c>
       <c r="D101">
-        <v>2093.941981726659</v>
+        <v>2124.302556264859</v>
       </c>
       <c r="E101">
-        <v>25542.66202574857</v>
+        <v>24851.11651157446</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43953.03754918715</v>
+        <v>43952.86018398088</v>
       </c>
       <c r="I101">
-        <v>114290</v>
+        <v>115889</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>81782.43284056307</v>
+        <v>81105.5778757979</v>
       </c>
       <c r="O101">
-        <v>27636.60400747523</v>
+        <v>26975.41906783932</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>422.6780630300668</v>
+        <v>363.1325352585895</v>
       </c>
       <c r="R101">
-        <v>2453.92407432038</v>
+        <v>3575.277645356634</v>
       </c>
       <c r="S101">
-        <v>2876.602137350447</v>
+        <v>3938.410180615224</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5741.459568151049</v>
+        <v>4937.048478193652</v>
       </c>
       <c r="V101">
-        <v>5741.459568151049</v>
+        <v>4937.048478193652</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103394.0799292839</v>
+        <v>103393.8675721854</v>
       </c>
       <c r="B102">
-        <v>20369.5531159</v>
+        <v>19543.71815110909</v>
       </c>
       <c r="C102">
-        <v>168806.6168280272</v>
+        <v>170575.5575416625</v>
       </c>
       <c r="D102">
-        <v>4528.006130418458</v>
+        <v>4466.947655615892</v>
       </c>
       <c r="E102">
-        <v>54482.29542757862</v>
+        <v>58207.64614964191</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103394.0799292839</v>
+        <v>103393.8675721854</v>
       </c>
       <c r="I102">
-        <v>274441</v>
+        <v>289568</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>189176.1699439272</v>
+        <v>190119.2756927716</v>
       </c>
       <c r="O102">
-        <v>59010.30155799707</v>
+        <v>62674.5938052578</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>746.5354080579613</v>
+        <v>983.7809026313183</v>
       </c>
       <c r="R102">
-        <v>7247.794841961392</v>
+        <v>6422.731555555953</v>
       </c>
       <c r="S102">
-        <v>7994.330250019353</v>
+        <v>7406.512458187271</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>13743.44997780758</v>
+        <v>15616.97592899131</v>
       </c>
       <c r="V102">
-        <v>13743.44997780758</v>
+        <v>15616.97592899131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.02016155244</v>
+        <v>35337.13972765338</v>
       </c>
       <c r="B103">
-        <v>6599.725154936132</v>
+        <v>7101.050675702809</v>
       </c>
       <c r="C103">
-        <v>56347.24897970798</v>
+        <v>58701.48853521019</v>
       </c>
       <c r="D103">
-        <v>1640.651475374086</v>
+        <v>1948.434548229519</v>
       </c>
       <c r="E103">
-        <v>18428.17701846621</v>
+        <v>20086.74491892625</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.02016155244</v>
+        <v>35337.13972765338</v>
       </c>
       <c r="I103">
-        <v>97073</v>
+        <v>96754</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>62946.97413464412</v>
+        <v>65802.539210913</v>
       </c>
       <c r="O103">
-        <v>20068.8284938403</v>
+        <v>22035.17946715577</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>363.7062782383001</v>
+        <v>281.2278853588695</v>
       </c>
       <c r="R103">
-        <v>2403.381103572237</v>
+        <v>2081.401873043598</v>
       </c>
       <c r="S103">
-        <v>2767.087381810537</v>
+        <v>2362.629758402467</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>5795.275617579796</v>
+        <v>5447.904945892276</v>
       </c>
       <c r="V103">
-        <v>5795.275617579796</v>
+        <v>5447.904945892276</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122131.0751413993</v>
+        <v>122131.0476287216</v>
       </c>
       <c r="B104">
-        <v>24270.33128432931</v>
+        <v>22361.30658661667</v>
       </c>
       <c r="C104">
-        <v>198878.3809118342</v>
+        <v>199130.9686753764</v>
       </c>
       <c r="D104">
-        <v>6108.286953288401</v>
+        <v>5205.61921307681</v>
       </c>
       <c r="E104">
-        <v>73112.97666260567</v>
+        <v>67401.14463399196</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122131.0751413993</v>
+        <v>122131.0476287216</v>
       </c>
       <c r="I104">
-        <v>334515</v>
+        <v>324952</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>223148.7121961635</v>
+        <v>221492.2752619931</v>
       </c>
       <c r="O104">
-        <v>79221.26361589407</v>
+        <v>72606.76384706877</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1019.585028944928</v>
+        <v>1133.744930562291</v>
       </c>
       <c r="R104">
-        <v>7736.872688610802</v>
+        <v>8119.628699289573</v>
       </c>
       <c r="S104">
-        <v>8756.45771755573</v>
+        <v>9253.373629851863</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>18293.68046572444</v>
+        <v>17139.02712531831</v>
       </c>
       <c r="V104">
-        <v>18293.68046572444</v>
+        <v>17139.02712531831</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81323.83701469538</v>
+        <v>81323.95174329057</v>
       </c>
       <c r="B105">
-        <v>15583.43755198529</v>
+        <v>15013.98596642098</v>
       </c>
       <c r="C105">
-        <v>133778.0637311234</v>
+        <v>132256.7360045782</v>
       </c>
       <c r="D105">
-        <v>4148.54651722842</v>
+        <v>4244.688746220221</v>
       </c>
       <c r="E105">
-        <v>49821.9700706431</v>
+        <v>47477.23693993524</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81323.83701469538</v>
+        <v>81323.95174329057</v>
       </c>
       <c r="I105">
-        <v>217731</v>
+        <v>211909</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>149361.5012831087</v>
+        <v>147270.7219709992</v>
       </c>
       <c r="O105">
-        <v>53970.51658787152</v>
+        <v>51721.92568615546</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>654.1518018881809</v>
+        <v>617.6473119104221</v>
       </c>
       <c r="R105">
-        <v>5875.352184473324</v>
+        <v>4446.60674989875</v>
       </c>
       <c r="S105">
-        <v>6529.503986361505</v>
+        <v>5064.254061809173</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>10355.32065191914</v>
+        <v>10634.34410956786</v>
       </c>
       <c r="V105">
-        <v>10355.32065191914</v>
+        <v>10634.34410956786</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.09377802209</v>
+        <v>77850.13054388213</v>
       </c>
       <c r="B106">
-        <v>15250.74003603296</v>
+        <v>14464.88182120124</v>
       </c>
       <c r="C106">
-        <v>125686.863121374</v>
+        <v>126682.5489825496</v>
       </c>
       <c r="D106">
-        <v>3946.406607183653</v>
+        <v>3582.786272507099</v>
       </c>
       <c r="E106">
-        <v>47675.45146736813</v>
+        <v>41202.7846631986</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.09377802209</v>
+        <v>77850.13054388213</v>
       </c>
       <c r="I106">
-        <v>221523</v>
+        <v>216904</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>140937.603157407</v>
+        <v>141147.4308037509</v>
       </c>
       <c r="O106">
-        <v>51621.85807455178</v>
+        <v>44785.5709357057</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>570.2354068913488</v>
+        <v>631.1419348411199</v>
       </c>
       <c r="R106">
-        <v>4356.596254516748</v>
+        <v>5147.001403540415</v>
       </c>
       <c r="S106">
-        <v>4926.831661408097</v>
+        <v>5778.143338381535</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>10791.77780256166</v>
+        <v>9838.764925285686</v>
       </c>
       <c r="V106">
-        <v>10791.77780256166</v>
+        <v>9838.764925285686</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86202.95977340351</v>
+        <v>86203.0466921905</v>
       </c>
       <c r="B107">
-        <v>16783.63097725375</v>
+        <v>16114.52316898257</v>
       </c>
       <c r="C107">
-        <v>142295.7385671006</v>
+        <v>141519.0446870084</v>
       </c>
       <c r="D107">
-        <v>4113.356506787427</v>
+        <v>3837.415860114555</v>
       </c>
       <c r="E107">
-        <v>51858.26688609307</v>
+        <v>40842.40469291745</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86202.95977340351</v>
+        <v>86203.0466921905</v>
       </c>
       <c r="I107">
-        <v>235454</v>
+        <v>239484</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>159079.3695443543</v>
+        <v>157633.567855991</v>
       </c>
       <c r="O107">
-        <v>55971.6233928805</v>
+        <v>44679.82055303201</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>601.8612474408542</v>
+        <v>618.599819549236</v>
       </c>
       <c r="R107">
-        <v>5957.402505467695</v>
+        <v>4763.224877221691</v>
       </c>
       <c r="S107">
-        <v>6559.26375290855</v>
+        <v>5381.824696770927</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>12102.89810571063</v>
+        <v>12918.03059564594</v>
       </c>
       <c r="V107">
-        <v>12102.89810571063</v>
+        <v>12918.03059564594</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60304.9394644439</v>
+        <v>60304.85798287833</v>
       </c>
       <c r="B108">
-        <v>11359.91718462514</v>
+        <v>11512.25876765311</v>
       </c>
       <c r="C108">
-        <v>95077.35218141221</v>
+        <v>99204.12740233276</v>
       </c>
       <c r="D108">
-        <v>3046.434204450426</v>
+        <v>3406.649096781866</v>
       </c>
       <c r="E108">
-        <v>35542.54853556799</v>
+        <v>39718.80909077669</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60304.9394644439</v>
+        <v>60304.85798287833</v>
       </c>
       <c r="I108">
-        <v>162427</v>
+        <v>161305</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>106437.2693660374</v>
+        <v>110716.3861699859</v>
       </c>
       <c r="O108">
-        <v>38588.98274001841</v>
+        <v>43125.45818755856</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>583.038982097693</v>
+        <v>623.0993303812082</v>
       </c>
       <c r="R108">
-        <v>4114.419155944075</v>
+        <v>4499.309449320674</v>
       </c>
       <c r="S108">
-        <v>4697.458138041768</v>
+        <v>5122.408779701882</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>8488.437485885612</v>
+        <v>7624.908772523593</v>
       </c>
       <c r="V108">
-        <v>8488.437485885612</v>
+        <v>7624.908772523593</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.14169078782</v>
+        <v>25283.09277986744</v>
       </c>
       <c r="B109">
-        <v>4803.750362607177</v>
+        <v>4682.328164725475</v>
       </c>
       <c r="C109">
-        <v>40351.40378886287</v>
+        <v>41763.87798822056</v>
       </c>
       <c r="D109">
-        <v>1124.170036834127</v>
+        <v>1209.552172130213</v>
       </c>
       <c r="E109">
-        <v>14020.44368170749</v>
+        <v>15122.37175516526</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.14169078782</v>
+        <v>25283.09277986744</v>
       </c>
       <c r="I109">
-        <v>68592</v>
+        <v>72290</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>45155.15415147004</v>
+        <v>46446.20615294603</v>
       </c>
       <c r="O109">
-        <v>15144.61371854162</v>
+        <v>16331.92392729547</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>292.398565074433</v>
+        <v>217.4310784648872</v>
       </c>
       <c r="R109">
-        <v>1716.178668463664</v>
+        <v>1293.393315418784</v>
       </c>
       <c r="S109">
-        <v>2008.577233538097</v>
+        <v>1510.824393883671</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3593.292471580776</v>
+        <v>3428.250272019339</v>
       </c>
       <c r="V109">
-        <v>3593.292471580776</v>
+        <v>3428.250272019339</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.102989251055</v>
+        <v>4049.048957037389</v>
       </c>
       <c r="B110">
-        <v>780.3206329408811</v>
+        <v>792.2579503073827</v>
       </c>
       <c r="C110">
-        <v>6684.988723389432</v>
+        <v>6624.301453591074</v>
       </c>
       <c r="D110">
-        <v>181.7845803492289</v>
+        <v>187.9793585149206</v>
       </c>
       <c r="E110">
-        <v>2278.978146565111</v>
+        <v>2258.950885829458</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.102989251055</v>
+        <v>4049.048957037389</v>
       </c>
       <c r="I110">
-        <v>11288</v>
+        <v>10845</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7465.309356330313</v>
+        <v>7416.559403898457</v>
       </c>
       <c r="O110">
-        <v>2460.76272691434</v>
+        <v>2446.930244344379</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>35.39961694645468</v>
+        <v>44.60824477502631</v>
       </c>
       <c r="R110">
-        <v>255.7399467596364</v>
+        <v>265.5786605045722</v>
       </c>
       <c r="S110">
-        <v>291.1395637060911</v>
+        <v>310.1869052795985</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>597.1762364214183</v>
+        <v>498.7398812623815</v>
       </c>
       <c r="V110">
-        <v>597.1762364214183</v>
+        <v>498.7398812623815</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.837416863731</v>
+        <v>8762.968976752914</v>
       </c>
       <c r="B111">
-        <v>1717.188708669265</v>
+        <v>1674.28369425799</v>
       </c>
       <c r="C111">
-        <v>14645.76613305383</v>
+        <v>14153.97832769</v>
       </c>
       <c r="D111">
-        <v>418.263195546093</v>
+        <v>419.5779453129293</v>
       </c>
       <c r="E111">
-        <v>5124.671884048096</v>
+        <v>5173.000812320342</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.837416863731</v>
+        <v>8762.968976752914</v>
       </c>
       <c r="I111">
-        <v>23749</v>
+        <v>24553</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>16362.95484172309</v>
+        <v>15828.26202194799</v>
       </c>
       <c r="O111">
-        <v>5542.935079594189</v>
+        <v>5592.578757633271</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>63.14026778829805</v>
+        <v>82.55796818506897</v>
       </c>
       <c r="R111">
-        <v>463.7735268922172</v>
+        <v>557.626457669891</v>
       </c>
       <c r="S111">
-        <v>526.9137946805151</v>
+        <v>640.18442585496</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1127.739461825397</v>
+        <v>1341.321090538828</v>
       </c>
       <c r="V111">
-        <v>1127.739461825397</v>
+        <v>1341.321090538828</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.922699505218</v>
+        <v>9927.151578196495</v>
       </c>
       <c r="B112">
-        <v>1969.432626447495</v>
+        <v>2019.172220277376</v>
       </c>
       <c r="C112">
-        <v>16059.14772867231</v>
+        <v>16224.73665236971</v>
       </c>
       <c r="D112">
-        <v>439.8603101060258</v>
+        <v>538.8518863780895</v>
       </c>
       <c r="E112">
-        <v>5303.266665703121</v>
+        <v>5924.942995339112</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.922699505218</v>
+        <v>9927.151578196495</v>
       </c>
       <c r="I112">
-        <v>26498</v>
+        <v>27329</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18028.58035511981</v>
+        <v>18243.90887264709</v>
       </c>
       <c r="O112">
-        <v>5743.126975809147</v>
+        <v>6463.794881717201</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>87.04492809586422</v>
+        <v>95.36987513147825</v>
       </c>
       <c r="R112">
-        <v>628.2505605722321</v>
+        <v>600.8104404092888</v>
       </c>
       <c r="S112">
-        <v>715.2954886680963</v>
+        <v>696.1803155407671</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1277.904502002606</v>
+        <v>1612.952165474003</v>
       </c>
       <c r="V112">
-        <v>1277.904502002606</v>
+        <v>1612.952165474003</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1551.93164539682</v>
+        <v>1552.123402431875</v>
       </c>
       <c r="B113">
-        <v>316.4325636668499</v>
+        <v>310.0606348176689</v>
       </c>
       <c r="C113">
-        <v>2503.641854984268</v>
+        <v>2559.340472553797</v>
       </c>
       <c r="D113">
-        <v>75.11222703409787</v>
+        <v>79.3590404998921</v>
       </c>
       <c r="E113">
-        <v>890.8037872684367</v>
+        <v>908.4550806024068</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1551.93164539682</v>
+        <v>1552.123402431875</v>
       </c>
       <c r="I113">
-        <v>4061</v>
+        <v>4196</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,48 +8506,48 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2820.074418651118</v>
+        <v>2869.401107371466</v>
       </c>
       <c r="O113">
-        <v>965.9160143025346</v>
+        <v>987.8141211022989</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>15.11487548579462</v>
+        <v>12.38920913552204</v>
       </c>
       <c r="R113">
-        <v>89.12679686506957</v>
+        <v>87.75276459122286</v>
       </c>
       <c r="S113">
-        <v>104.2416723508642</v>
+        <v>100.1419737267449</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>235.8081430785111</v>
+        <v>217.739241802625</v>
       </c>
       <c r="V113">
-        <v>235.8081430785111</v>
+        <v>217.739241802625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1069.172514515176</v>
+        <v>1069.074128557394</v>
       </c>
       <c r="B114">
-        <v>1472.247602213445</v>
+        <v>1479.975504693876</v>
       </c>
       <c r="C114">
-        <v>486.3826468308842</v>
+        <v>491.1058601495213</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>739.5159761863531</v>
+        <v>717.7870317691926</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1069.172514515176</v>
+        <v>1069.074128557394</v>
       </c>
       <c r="I114">
-        <v>2987</v>
+        <v>2904</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -8578,48 +8578,48 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1958.630249044329</v>
+        <v>1971.081364843398</v>
       </c>
       <c r="O114">
-        <v>739.5159761863531</v>
+        <v>717.7870317691926</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>20.43925307084245</v>
+        <v>21.73444128132424</v>
       </c>
       <c r="R114">
-        <v>56.28445466632952</v>
+        <v>57.94125368639161</v>
       </c>
       <c r="S114">
-        <v>76.72370773717196</v>
+        <v>79.67569496771584</v>
       </c>
       <c r="T114">
-        <v>16.17998106851296</v>
+        <v>14.40531629068657</v>
       </c>
       <c r="U114">
-        <v>119.4263296421491</v>
+        <v>109.5298987467022</v>
       </c>
       <c r="V114">
-        <v>135.606310710662</v>
+        <v>123.9352150373888</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>406.1386014568104</v>
+        <v>406.1853668148891</v>
       </c>
       <c r="B115">
-        <v>574.9083028785908</v>
+        <v>552.4886463484048</v>
       </c>
       <c r="C115">
-        <v>192.2408828873284</v>
+        <v>182.4361764203212</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>239.3494433721447</v>
+        <v>251.2489015674528</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>406.1386014568104</v>
+        <v>406.1853668148891</v>
       </c>
       <c r="I115">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -8650,48 +8650,48 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>767.1491857659191</v>
+        <v>734.924822768726</v>
       </c>
       <c r="O115">
-        <v>239.3494433721447</v>
+        <v>251.2489015674528</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>7.31184739804391</v>
+        <v>6.405370922887838</v>
       </c>
       <c r="R115">
-        <v>20.96550476124736</v>
+        <v>19.50425653651483</v>
       </c>
       <c r="S115">
-        <v>28.27735215929127</v>
+        <v>25.90962745940266</v>
       </c>
       <c r="T115">
-        <v>5.770878133957819</v>
+        <v>6.365334796281568</v>
       </c>
       <c r="U115">
-        <v>53.98245204596979</v>
+        <v>47.62911986546348</v>
       </c>
       <c r="V115">
-        <v>59.75333017992762</v>
+        <v>53.99445466174505</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>5615.861460859776</v>
+        <v>5616.049803240395</v>
       </c>
       <c r="B116">
-        <v>7639.62327245337</v>
+        <v>7298.067589666284</v>
       </c>
       <c r="C116">
-        <v>2516.066530707745</v>
+        <v>2476.690823128232</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3313.54076479617</v>
+        <v>3020.706303698369</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5615.861460859776</v>
+        <v>5616.049803240395</v>
       </c>
       <c r="I116">
-        <v>15117</v>
+        <v>15557</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -8722,48 +8722,48 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>10155.68980316111</v>
+        <v>9774.758412794516</v>
       </c>
       <c r="O116">
-        <v>3313.54076479617</v>
+        <v>3020.706303698369</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>102.4172621924834</v>
+        <v>89.04439864187364</v>
       </c>
       <c r="R116">
-        <v>313.5369827872959</v>
+        <v>281.0571483091472</v>
       </c>
       <c r="S116">
-        <v>415.9542449797793</v>
+        <v>370.1015469510209</v>
       </c>
       <c r="T116">
-        <v>95.42464218297765</v>
+        <v>100.2959628992233</v>
       </c>
       <c r="U116">
-        <v>765.9752019983496</v>
+        <v>659.4236276672256</v>
       </c>
       <c r="V116">
-        <v>861.3998441813272</v>
+        <v>759.7195905664488</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>3150.152139191399</v>
+        <v>3149.941526714262</v>
       </c>
       <c r="B117">
-        <v>4311.185664605019</v>
+        <v>4404.341838804957</v>
       </c>
       <c r="C117">
-        <v>1405.000894773286</v>
+        <v>1445.482965416477</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1961.21649376687</v>
+        <v>2170.035971135516</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>3150.152139191399</v>
+        <v>3149.941526714262</v>
       </c>
       <c r="I117">
-        <v>8890</v>
+        <v>8714</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -8794,48 +8794,48 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5716.186559378305</v>
+        <v>5849.824804221434</v>
       </c>
       <c r="O117">
-        <v>1961.21649376687</v>
+        <v>2170.035971135516</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>53.24457801174211</v>
+        <v>56.66842534836888</v>
       </c>
       <c r="R117">
-        <v>157.7051216479579</v>
+        <v>143.3484310626167</v>
       </c>
       <c r="S117">
-        <v>210.9496996597</v>
+        <v>200.0168564109856</v>
       </c>
       <c r="T117">
-        <v>37.18440953833058</v>
+        <v>39.10772947090579</v>
       </c>
       <c r="U117">
-        <v>421.7414797398538</v>
+        <v>438.8781410109212</v>
       </c>
       <c r="V117">
-        <v>458.9258892781844</v>
+        <v>477.985870481827</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1816.999606094138</v>
+        <v>1816.932768373015</v>
       </c>
       <c r="B118">
-        <v>2590.729931515031</v>
+        <v>2466.428695247931</v>
       </c>
       <c r="C118">
-        <v>855.2128666316431</v>
+        <v>833.4923117530577</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1171.654938313164</v>
+        <v>1018.253530096391</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1816.999606094138</v>
+        <v>1816.932768373015</v>
       </c>
       <c r="I118">
-        <v>5016</v>
+        <v>5258</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -8866,48 +8866,48 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>3445.942798146674</v>
+        <v>3299.921007000989</v>
       </c>
       <c r="O118">
-        <v>1171.654938313164</v>
+        <v>1018.253530096391</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>36.45843276058332</v>
+        <v>34.07573863015163</v>
       </c>
       <c r="R118">
-        <v>106.8746272983679</v>
+        <v>116.1890657767203</v>
       </c>
       <c r="S118">
-        <v>143.3330600589512</v>
+        <v>150.264804406872</v>
       </c>
       <c r="T118">
-        <v>16.93327244451271</v>
+        <v>31.15666891866557</v>
       </c>
       <c r="U118">
-        <v>190.7605567170358</v>
+        <v>211.7033931357464</v>
       </c>
       <c r="V118">
-        <v>207.6938291615485</v>
+        <v>242.860062054412</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6396.001293671134</v>
+        <v>6396.129719867115</v>
       </c>
       <c r="B119">
-        <v>8971.728003491251</v>
+        <v>8869.313081901024</v>
       </c>
       <c r="C119">
-        <v>3033.188088316398</v>
+        <v>3001.011036185096</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4283.138387078407</v>
+        <v>3153.72909638157</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6396.001293671134</v>
+        <v>6396.129719867115</v>
       </c>
       <c r="I119">
-        <v>18246</v>
+        <v>18328</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -8938,48 +8938,48 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>12004.91609180765</v>
+        <v>11870.32411808612</v>
       </c>
       <c r="O119">
-        <v>4283.138387078407</v>
+        <v>3153.72909638157</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>128.0866033002315</v>
+        <v>122.2785794309508</v>
       </c>
       <c r="R119">
-        <v>389.2817062526608</v>
+        <v>309.6785250643739</v>
       </c>
       <c r="S119">
-        <v>517.3683095528922</v>
+        <v>431.9571044953246</v>
       </c>
       <c r="T119">
-        <v>97.30876642044224</v>
+        <v>65.14921836763541</v>
       </c>
       <c r="U119">
-        <v>888.9636154351372</v>
+        <v>674.6955097562534</v>
       </c>
       <c r="V119">
-        <v>986.2723818555794</v>
+        <v>739.8447281238888</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4005.837525733942</v>
+        <v>4006.10476720634</v>
       </c>
       <c r="B120">
-        <v>5610.971664955053</v>
+        <v>5615.472970440768</v>
       </c>
       <c r="C120">
-        <v>1920.670264689306</v>
+        <v>1887.260111664981</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2727.427676871193</v>
+        <v>2333.505640030448</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4005.837525733942</v>
+        <v>4006.10476720634</v>
       </c>
       <c r="I120">
-        <v>11037</v>
+        <v>10587</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -9010,48 +9010,48 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>7531.641929644359</v>
+        <v>7502.733082105749</v>
       </c>
       <c r="O120">
-        <v>2727.427676871193</v>
+        <v>2333.505640030448</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>63.75741623520184</v>
+        <v>82.86727147546088</v>
       </c>
       <c r="R120">
-        <v>186.7917703038384</v>
+        <v>202.5126455273144</v>
       </c>
       <c r="S120">
-        <v>250.5491865390403</v>
+        <v>285.3799170027753</v>
       </c>
       <c r="T120">
-        <v>55.16318122223741</v>
+        <v>51.58741875209596</v>
       </c>
       <c r="U120">
-        <v>494.9795883944901</v>
+        <v>498.2664666978164</v>
       </c>
       <c r="V120">
-        <v>550.1427696167275</v>
+        <v>549.8538854499124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1686.880256188566</v>
+        <v>1686.889435977725</v>
       </c>
       <c r="B121">
-        <v>2386.135654600191</v>
+        <v>2357.882458689042</v>
       </c>
       <c r="C121">
-        <v>776.821559511535</v>
+        <v>769.9980305455297</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>997.6532750154883</v>
+        <v>1093.757891434021</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1686.880256188566</v>
+        <v>1686.889435977725</v>
       </c>
       <c r="I121">
-        <v>4523</v>
+        <v>4562</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -9082,48 +9082,48 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3162.957214111726</v>
+        <v>3127.880489234572</v>
       </c>
       <c r="O121">
-        <v>997.6532750154883</v>
+        <v>1093.757891434021</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>32.35172606070885</v>
+        <v>33.16458230807282</v>
       </c>
       <c r="R121">
-        <v>92.61166570378968</v>
+        <v>108.2735436796228</v>
       </c>
       <c r="S121">
-        <v>124.9633917644985</v>
+        <v>141.4381259876956</v>
       </c>
       <c r="T121">
-        <v>19.80636755406176</v>
+        <v>24.96472664428762</v>
       </c>
       <c r="U121">
-        <v>172.802606615092</v>
+        <v>226.0799542252733</v>
       </c>
       <c r="V121">
-        <v>192.6089741691537</v>
+        <v>251.0446808695609</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>588.8284984531903</v>
+        <v>589.1596497245116</v>
       </c>
       <c r="B122">
-        <v>822.483287414035</v>
+        <v>806.0260003512994</v>
       </c>
       <c r="C122">
-        <v>272.4581234555941</v>
+        <v>270.1910105606415</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>410.2095367021758</v>
+        <v>357.2173016118167</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>588.8284984531903</v>
+        <v>589.1596497245116</v>
       </c>
       <c r="I122">
-        <v>1542</v>
+        <v>1661</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -9154,48 +9154,48 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>1094.941410869629</v>
+        <v>1076.217010911941</v>
       </c>
       <c r="O122">
-        <v>410.2095367021758</v>
+        <v>357.2173016118167</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>12.68496216733001</v>
+        <v>11.68977651795208</v>
       </c>
       <c r="R122">
-        <v>34.03130986726605</v>
+        <v>37.03902551765369</v>
       </c>
       <c r="S122">
-        <v>46.71627203459606</v>
+        <v>48.72880203560577</v>
       </c>
       <c r="T122">
-        <v>9.891029117843054</v>
+        <v>8.431237473752422</v>
       </c>
       <c r="U122">
-        <v>82.17037075404684</v>
+        <v>71.04605753888623</v>
       </c>
       <c r="V122">
-        <v>92.0613998718899</v>
+        <v>79.47729501263865</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1710.050055069911</v>
+        <v>1709.934693079908</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3065.373716531867</v>
+        <v>3117.025294401605</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1010.264719413017</v>
+        <v>999.3274886807051</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1710.050055069911</v>
+        <v>1709.934693079908</v>
       </c>
       <c r="I123">
-        <v>5542</v>
+        <v>5454</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -9226,48 +9226,48 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>3065.373716531867</v>
+        <v>3117.025294401605</v>
       </c>
       <c r="O123">
-        <v>1010.264719413017</v>
+        <v>999.3274886807051</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>33.49722737498647</v>
+        <v>31.26469888647703</v>
       </c>
       <c r="R123">
-        <v>95.89574882110458</v>
+        <v>92.18007478055461</v>
       </c>
       <c r="S123">
-        <v>129.392976196091</v>
+        <v>123.4447736670316</v>
       </c>
       <c r="T123">
-        <v>30.01289464380804</v>
+        <v>18.94710793399544</v>
       </c>
       <c r="U123">
-        <v>236.3939929746418</v>
+        <v>188.8950953757393</v>
       </c>
       <c r="V123">
-        <v>266.4068876184498</v>
+        <v>207.8422033097347</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>198.9908257355034</v>
+        <v>199.0018634522255</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>373.0649443986923</v>
+        <v>363.2420509781377</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>129.4170518922811</v>
+        <v>109.4844667340309</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>198.9908257355034</v>
+        <v>199.0018634522255</v>
       </c>
       <c r="I124">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -9298,31 +9298,31 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>373.0649443986923</v>
+        <v>363.2420509781377</v>
       </c>
       <c r="O124">
-        <v>129.4170518922811</v>
+        <v>109.4844667340309</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3.096851913304331</v>
+        <v>4.87648150482134</v>
       </c>
       <c r="R124">
-        <v>11.3218906086243</v>
+        <v>11.44566633261659</v>
       </c>
       <c r="S124">
-        <v>14.41874252192863</v>
+        <v>16.32214783743793</v>
       </c>
       <c r="T124">
-        <v>2.826812991085066</v>
+        <v>2.974831879838487</v>
       </c>
       <c r="U124">
-        <v>31.0656808734406</v>
+        <v>24.6042992577088</v>
       </c>
       <c r="V124">
-        <v>33.89249386452567</v>
+        <v>27.57913113754729</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.941105660333</v>
+        <v>9133.053442055316</v>
       </c>
       <c r="B2">
-        <v>4781.75137174294</v>
+        <v>4692.33073780606</v>
       </c>
       <c r="C2">
-        <v>20674.09469934196</v>
+        <v>21411.459407719</v>
       </c>
       <c r="D2">
-        <v>4670.755258973054</v>
+        <v>4917.685959685927</v>
       </c>
       <c r="E2">
-        <v>9280.551358923953</v>
+        <v>9539.021619513771</v>
       </c>
       <c r="F2">
-        <v>2689.2111741648</v>
+        <v>2738.911621780936</v>
       </c>
       <c r="G2">
-        <v>5260.060809582697</v>
+        <v>5068.297456388063</v>
       </c>
       <c r="H2">
-        <v>9132.941105660333</v>
+        <v>9133.053442055316</v>
       </c>
       <c r="I2">
-        <v>43480</v>
+        <v>42817</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25455.8460710849</v>
+        <v>26103.79014552506</v>
       </c>
       <c r="O2">
-        <v>13951.30661789701</v>
+        <v>14456.7075791997</v>
       </c>
       <c r="P2">
-        <v>7949.271983747498</v>
+        <v>7807.209078168999</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.909815950338</v>
+        <v>7570.966431527743</v>
       </c>
       <c r="B3">
-        <v>3904.497373383684</v>
+        <v>3792.142405595448</v>
       </c>
       <c r="C3">
-        <v>17274.08683209548</v>
+        <v>17939.85899422465</v>
       </c>
       <c r="D3">
-        <v>4205.77894671693</v>
+        <v>4170.211989944232</v>
       </c>
       <c r="E3">
-        <v>8450.087825893243</v>
+        <v>8690.001072962017</v>
       </c>
       <c r="F3">
-        <v>2345.654884371061</v>
+        <v>2079.194756483217</v>
       </c>
       <c r="G3">
-        <v>4607.595223388396</v>
+        <v>4288.984914792053</v>
       </c>
       <c r="H3">
-        <v>7570.909815950338</v>
+        <v>7570.966431527743</v>
       </c>
       <c r="I3">
-        <v>36784</v>
+        <v>34366</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21178.58420547917</v>
+        <v>21732.0013998201</v>
       </c>
       <c r="O3">
-        <v>12655.86677261017</v>
+        <v>12860.21306290625</v>
       </c>
       <c r="P3">
-        <v>6953.250107759457</v>
+        <v>6368.17967127527</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.97567076143</v>
+        <v>15501.88871880693</v>
       </c>
       <c r="B4">
-        <v>8074.830047513744</v>
+        <v>8318.327789289619</v>
       </c>
       <c r="C4">
-        <v>35781.58567600259</v>
+        <v>36725.06336212947</v>
       </c>
       <c r="D4">
-        <v>7944.640000315481</v>
+        <v>8435.741155341468</v>
       </c>
       <c r="E4">
-        <v>15890.73764031521</v>
+        <v>17384.43570353411</v>
       </c>
       <c r="F4">
-        <v>4776.70173951278</v>
+        <v>4715.102979837096</v>
       </c>
       <c r="G4">
-        <v>9597.203203675113</v>
+        <v>9013.353685064825</v>
       </c>
       <c r="H4">
-        <v>15501.97567076143</v>
+        <v>15501.88871880693</v>
       </c>
       <c r="I4">
-        <v>70022</v>
+        <v>69135</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>43856.41572351634</v>
+        <v>45043.39115141908</v>
       </c>
       <c r="O4">
-        <v>23835.37764063069</v>
+        <v>25820.17685887558</v>
       </c>
       <c r="P4">
-        <v>14373.90494318789</v>
+        <v>13728.45666490192</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.947260968744</v>
+        <v>9669.968235082668</v>
       </c>
       <c r="B5">
-        <v>5291.21773294848</v>
+        <v>5117.528331918463</v>
       </c>
       <c r="C5">
-        <v>23367.92953370866</v>
+        <v>22349.49137709243</v>
       </c>
       <c r="D5">
-        <v>5579.161070006854</v>
+        <v>5300.032325988995</v>
       </c>
       <c r="E5">
-        <v>11082.28929279509</v>
+        <v>10776.48614669647</v>
       </c>
       <c r="F5">
-        <v>2830.019604199995</v>
+        <v>3021.761349754466</v>
       </c>
       <c r="G5">
-        <v>5605.088974846392</v>
+        <v>5922.423628309473</v>
       </c>
       <c r="H5">
-        <v>9669.947260968744</v>
+        <v>9669.968235082668</v>
       </c>
       <c r="I5">
-        <v>46105</v>
+        <v>43249</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28659.14726665714</v>
+        <v>27467.01970901089</v>
       </c>
       <c r="O5">
-        <v>16661.45036280194</v>
+        <v>16076.51847268546</v>
       </c>
       <c r="P5">
-        <v>8435.108579046388</v>
+        <v>8944.184978063939</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.9188680039</v>
+        <v>26786.91540748749</v>
       </c>
       <c r="B6">
-        <v>14491.2401713458</v>
+        <v>14537.7529155106</v>
       </c>
       <c r="C6">
-        <v>63553.98710046419</v>
+        <v>61680.29975872103</v>
       </c>
       <c r="D6">
-        <v>14420.77775640989</v>
+        <v>13745.32574544144</v>
       </c>
       <c r="E6">
-        <v>29401.71537217978</v>
+        <v>27217.86358837052</v>
       </c>
       <c r="F6">
-        <v>7636.611104150314</v>
+        <v>7950.952266101994</v>
       </c>
       <c r="G6">
-        <v>15373.34715966507</v>
+        <v>14849.62392540373</v>
       </c>
       <c r="H6">
-        <v>26786.9188680039</v>
+        <v>26786.91540748749</v>
       </c>
       <c r="I6">
-        <v>127097</v>
+        <v>125536</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>78045.22727180999</v>
+        <v>76218.05267423161</v>
       </c>
       <c r="O6">
-        <v>43822.49312858966</v>
+        <v>40963.18933381196</v>
       </c>
       <c r="P6">
-        <v>23009.95826381539</v>
+        <v>22800.57619150573</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15439.06976868178</v>
+        <v>15438.96524125951</v>
       </c>
       <c r="B7">
-        <v>8229.923818294692</v>
+        <v>8424.204613194597</v>
       </c>
       <c r="C7">
-        <v>35609.39146316359</v>
+        <v>35882.85760289154</v>
       </c>
       <c r="D7">
-        <v>8184.403411002132</v>
+        <v>8769.456064383412</v>
       </c>
       <c r="E7">
-        <v>16620.83197037139</v>
+        <v>17765.95768423558</v>
       </c>
       <c r="F7">
-        <v>4935.457267012144</v>
+        <v>4440.651157015219</v>
       </c>
       <c r="G7">
-        <v>9439.306094397209</v>
+        <v>8504.170324318313</v>
       </c>
       <c r="H7">
-        <v>15439.06976868178</v>
+        <v>15438.96524125951</v>
       </c>
       <c r="I7">
-        <v>73387</v>
+        <v>71168</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>43839.31528145829</v>
+        <v>44307.06221608614</v>
       </c>
       <c r="O7">
-        <v>24805.23538137352</v>
+        <v>26535.41374861899</v>
       </c>
       <c r="P7">
-        <v>14374.76336140935</v>
+        <v>12944.82148133353</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.992302130503</v>
+        <v>7027.955117881585</v>
       </c>
       <c r="B8">
-        <v>3901.884970817116</v>
+        <v>3771.676370632787</v>
       </c>
       <c r="C8">
-        <v>16923.77988562355</v>
+        <v>16153.13585309234</v>
       </c>
       <c r="D8">
-        <v>4046.937536787737</v>
+        <v>3992.361356099574</v>
       </c>
       <c r="E8">
-        <v>8198.87010813594</v>
+        <v>7697.341201147254</v>
       </c>
       <c r="F8">
-        <v>1951.846447409397</v>
+        <v>2033.800302517009</v>
       </c>
       <c r="G8">
-        <v>3870.187376960937</v>
+        <v>4122.42324885491</v>
       </c>
       <c r="H8">
-        <v>7027.992302130503</v>
+        <v>7027.955117881585</v>
       </c>
       <c r="I8">
-        <v>32632</v>
+        <v>34748</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20825.66485644066</v>
+        <v>19924.81222372513</v>
       </c>
       <c r="O8">
-        <v>12245.80764492368</v>
+        <v>11689.70255724683</v>
       </c>
       <c r="P8">
-        <v>5822.033824370335</v>
+        <v>6156.223551371919</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.956402515286</v>
+        <v>5005.897483797761</v>
       </c>
       <c r="B9">
-        <v>2852.91156602149</v>
+        <v>2629.622033556876</v>
       </c>
       <c r="C9">
-        <v>12118.00265247391</v>
+        <v>11816.28749278208</v>
       </c>
       <c r="D9">
-        <v>2836.023461565054</v>
+        <v>2776.800238660862</v>
       </c>
       <c r="E9">
-        <v>5678.248628930371</v>
+        <v>5969.534951880616</v>
       </c>
       <c r="F9">
-        <v>1437.542876496849</v>
+        <v>1534.189179143096</v>
       </c>
       <c r="G9">
-        <v>2795.988564457141</v>
+        <v>2964.044651328936</v>
       </c>
       <c r="H9">
-        <v>5005.956402515286</v>
+        <v>5005.897483797761</v>
       </c>
       <c r="I9">
-        <v>23337</v>
+        <v>21940</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14970.9142184954</v>
+        <v>14445.90952633895</v>
       </c>
       <c r="O9">
-        <v>8514.272090495424</v>
+        <v>8746.335190541478</v>
       </c>
       <c r="P9">
-        <v>4233.53144095399</v>
+        <v>4498.233830472032</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.982928971812</v>
+        <v>5886.964659824233</v>
       </c>
       <c r="B10">
-        <v>3215.63067187726</v>
+        <v>3270.835390733482</v>
       </c>
       <c r="C10">
-        <v>14019.00693843081</v>
+        <v>14329.60542500642</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9947.219051078502</v>
+        <v>10076.49993636401</v>
       </c>
       <c r="F10">
-        <v>1992.227574450574</v>
+        <v>1734.91259278077</v>
       </c>
       <c r="G10">
-        <v>3562.751590994379</v>
+        <v>3347.499116692842</v>
       </c>
       <c r="H10">
-        <v>5886.982928971812</v>
+        <v>5886.964659824233</v>
       </c>
       <c r="I10">
-        <v>29975</v>
+        <v>27711</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17234.63761030807</v>
+        <v>17600.44081573991</v>
       </c>
       <c r="O10">
-        <v>9947.219051078502</v>
+        <v>10076.49993636401</v>
       </c>
       <c r="P10">
-        <v>5554.979165444953</v>
+        <v>5082.411709473612</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.95534136368</v>
+        <v>1726.068638614919</v>
       </c>
       <c r="B11">
-        <v>986.6093971900141</v>
+        <v>880.5586608967145</v>
       </c>
       <c r="C11">
-        <v>4182.547950233015</v>
+        <v>4042.813147790399</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2795.711858724668</v>
+        <v>2584.978948292096</v>
       </c>
       <c r="F11">
-        <v>538.2254009304957</v>
+        <v>505.0381219146943</v>
       </c>
       <c r="G11">
-        <v>1031.238366146429</v>
+        <v>1014.301883814619</v>
       </c>
       <c r="H11">
-        <v>1725.95534136368</v>
+        <v>1726.068638614919</v>
       </c>
       <c r="I11">
-        <v>8244</v>
+        <v>8561</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5169.15734742303</v>
+        <v>4923.371808687113</v>
       </c>
       <c r="O11">
-        <v>2795.711858724668</v>
+        <v>2584.978948292096</v>
       </c>
       <c r="P11">
-        <v>1569.463767076925</v>
+        <v>1519.340005729313</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>500.9240144037178</v>
+        <v>501.082332334755</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1450.882294427749</v>
+        <v>1434.948253758904</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>834.7306688139661</v>
+        <v>795.2269897988485</v>
       </c>
       <c r="F12">
-        <v>149.7340117372999</v>
+        <v>148.3627951330565</v>
       </c>
       <c r="G12">
-        <v>285.7299180747031</v>
+        <v>279.1766151032692</v>
       </c>
       <c r="H12">
-        <v>500.9240144037178</v>
+        <v>501.082332334755</v>
       </c>
       <c r="I12">
-        <v>2896</v>
+        <v>2927</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1450.882294427749</v>
+        <v>1434.948253758904</v>
       </c>
       <c r="O12">
-        <v>834.7306688139661</v>
+        <v>795.2269897988485</v>
       </c>
       <c r="P12">
-        <v>435.4639298120029</v>
+        <v>427.5394102363257</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1087.900926899989</v>
+        <v>1088.077432023559</v>
       </c>
       <c r="B13">
-        <v>496.667725734264</v>
+        <v>480.947855283464</v>
       </c>
       <c r="C13">
-        <v>2661.75145843975</v>
+        <v>2611.844776300923</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1888.43471703067</v>
+        <v>1793.498995261969</v>
       </c>
       <c r="F13">
-        <v>885.1131690124557</v>
+        <v>865.3772395435989</v>
       </c>
       <c r="G13">
-        <v>150.7583262942565</v>
+        <v>132.596776219469</v>
       </c>
       <c r="H13">
-        <v>1087.900926899989</v>
+        <v>1088.077432023559</v>
       </c>
       <c r="I13">
-        <v>4558</v>
+        <v>4655</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3158.419184174014</v>
+        <v>3092.792631584387</v>
       </c>
       <c r="O13">
-        <v>1888.43471703067</v>
+        <v>1793.498995261969</v>
       </c>
       <c r="P13">
-        <v>1035.871495306712</v>
+        <v>997.9740157630679</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11832.09591457029</v>
+        <v>11831.95380033614</v>
       </c>
       <c r="B14">
-        <v>5205.574960735701</v>
+        <v>5233.627598108659</v>
       </c>
       <c r="C14">
-        <v>28914.21497611589</v>
+        <v>28286.94998225702</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19380.49186699885</v>
+        <v>18605.30668768081</v>
       </c>
       <c r="F14">
-        <v>9088.793343964762</v>
+        <v>9410.362555928827</v>
       </c>
       <c r="G14">
-        <v>1557.650898163178</v>
+        <v>1405.076519521252</v>
       </c>
       <c r="H14">
-        <v>11832.09591457029</v>
+        <v>11831.95380033614</v>
       </c>
       <c r="I14">
-        <v>48808</v>
+        <v>49657</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>34119.78993685159</v>
+        <v>33520.57758036568</v>
       </c>
       <c r="O14">
-        <v>19380.49186699885</v>
+        <v>18605.30668768081</v>
       </c>
       <c r="P14">
-        <v>10646.44424212794</v>
+        <v>10815.43907545008</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.95528814207</v>
+        <v>79020.92741365958</v>
       </c>
       <c r="B15">
-        <v>35683.95772239294</v>
+        <v>37010.25218275991</v>
       </c>
       <c r="C15">
-        <v>189163.9912904885</v>
+        <v>196297.4307845498</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>122868.0587681344</v>
+        <v>127418.6212501708</v>
       </c>
       <c r="F15">
-        <v>59543.01054825559</v>
+        <v>63973.64974024343</v>
       </c>
       <c r="G15">
-        <v>10123.14893290813</v>
+        <v>11181.454966855</v>
       </c>
       <c r="H15">
-        <v>79020.95528814207</v>
+        <v>79020.92741365958</v>
       </c>
       <c r="I15">
-        <v>337724</v>
+        <v>328166</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>224847.9490128814</v>
+        <v>233307.6829673097</v>
       </c>
       <c r="O15">
-        <v>122868.0587681344</v>
+        <v>127418.6212501708</v>
       </c>
       <c r="P15">
-        <v>69666.15948116372</v>
+        <v>75155.10470709844</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.8855571646</v>
+        <v>160974.8779041574</v>
       </c>
       <c r="B16">
-        <v>73717.48339725108</v>
+        <v>73187.51859511779</v>
       </c>
       <c r="C16">
-        <v>400450.6971617962</v>
+        <v>392987.2279905981</v>
       </c>
       <c r="D16">
-        <v>89942.77985777499</v>
+        <v>86419.74644833601</v>
       </c>
       <c r="E16">
-        <v>184159.528036807</v>
+        <v>191662.3459454084</v>
       </c>
       <c r="F16">
-        <v>123740.3007895867</v>
+        <v>108842.3116327097</v>
       </c>
       <c r="G16">
-        <v>21331.80874301537</v>
+        <v>17196.23468879146</v>
       </c>
       <c r="H16">
-        <v>160974.8855571646</v>
+        <v>160974.8779041574</v>
       </c>
       <c r="I16">
-        <v>701389</v>
+        <v>659095</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>474168.1805590473</v>
+        <v>466174.7465857159</v>
       </c>
       <c r="O16">
-        <v>274102.3078945821</v>
+        <v>278082.0923937444</v>
       </c>
       <c r="P16">
-        <v>145072.1095326021</v>
+        <v>126038.5463215012</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.03055579693</v>
+        <v>52807.96069202416</v>
       </c>
       <c r="B17">
-        <v>24038.44812857972</v>
+        <v>23499.27722683743</v>
       </c>
       <c r="C17">
-        <v>125847.0271963381</v>
+        <v>126215.0931197642</v>
       </c>
       <c r="D17">
-        <v>29778.71720878959</v>
+        <v>28809.84441008147</v>
       </c>
       <c r="E17">
-        <v>55750.86511192226</v>
+        <v>60688.37458443662</v>
       </c>
       <c r="F17">
-        <v>41335.26364457334</v>
+        <v>39501.37065724513</v>
       </c>
       <c r="G17">
-        <v>7301.226603023015</v>
+        <v>6019.752102241349</v>
       </c>
       <c r="H17">
-        <v>52808.03055579693</v>
+        <v>52807.96069202416</v>
       </c>
       <c r="I17">
-        <v>214023</v>
+        <v>217684</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>149885.4753249178</v>
+        <v>149714.3703466016</v>
       </c>
       <c r="O17">
-        <v>85529.58232071184</v>
+        <v>89498.21899451809</v>
       </c>
       <c r="P17">
-        <v>48636.49024759636</v>
+        <v>45521.12275948648</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.0625361124</v>
+        <v>48665.97133471831</v>
       </c>
       <c r="B18">
-        <v>21597.88792571588</v>
+        <v>21856.60763327651</v>
       </c>
       <c r="C18">
-        <v>112319.215216851</v>
+        <v>118360.9851269293</v>
       </c>
       <c r="D18">
-        <v>26145.02324972153</v>
+        <v>26051.1155259108</v>
       </c>
       <c r="E18">
-        <v>51532.63562622736</v>
+        <v>56977.7494066689</v>
       </c>
       <c r="F18">
-        <v>40684.89292253959</v>
+        <v>36507.91645835579</v>
       </c>
       <c r="G18">
-        <v>7057.402528602467</v>
+        <v>5041.183078423751</v>
       </c>
       <c r="H18">
-        <v>48666.0625361124</v>
+        <v>48665.97133471831</v>
       </c>
       <c r="I18">
-        <v>192635</v>
+        <v>194591</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>133917.1031425668</v>
+        <v>140217.5927602058</v>
       </c>
       <c r="O18">
-        <v>77677.65887594888</v>
+        <v>83028.8649325797</v>
       </c>
       <c r="P18">
-        <v>47742.29545114206</v>
+        <v>41549.09953677954</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.92460778889</v>
+        <v>50920.99430750154</v>
       </c>
       <c r="B19">
-        <v>23542.37530826527</v>
+        <v>24062.06193672156</v>
       </c>
       <c r="C19">
-        <v>123324.2655385563</v>
+        <v>125942.5689914005</v>
       </c>
       <c r="D19">
-        <v>27665.56670736433</v>
+        <v>25732.76973634782</v>
       </c>
       <c r="E19">
-        <v>55544.31616620299</v>
+        <v>55534.2085788813</v>
       </c>
       <c r="F19">
-        <v>36321.61780003509</v>
+        <v>43086.49313839185</v>
       </c>
       <c r="G19">
-        <v>7302.483649975904</v>
+        <v>7099.989568411499</v>
       </c>
       <c r="H19">
-        <v>50920.92460778889</v>
+        <v>50920.99430750154</v>
       </c>
       <c r="I19">
-        <v>202442</v>
+        <v>194085</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>146866.6408468216</v>
+        <v>150004.6309281221</v>
       </c>
       <c r="O19">
-        <v>83209.88287356732</v>
+        <v>81266.97831522912</v>
       </c>
       <c r="P19">
-        <v>43624.101450011</v>
+        <v>50186.48270680334</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.91191160428</v>
+        <v>20572.98459102494</v>
       </c>
       <c r="B20">
-        <v>9709.561394244176</v>
+        <v>9468.083449453379</v>
       </c>
       <c r="C20">
-        <v>49953.28900398193</v>
+        <v>50156.52286056877</v>
       </c>
       <c r="D20">
-        <v>11384.05664820659</v>
+        <v>11441.26008865161</v>
       </c>
       <c r="E20">
-        <v>22545.62697600043</v>
+        <v>24938.2089601646</v>
       </c>
       <c r="F20">
-        <v>17487.48950708266</v>
+        <v>16336.60678248491</v>
       </c>
       <c r="G20">
-        <v>3099.784286928752</v>
+        <v>2493.411499549978</v>
       </c>
       <c r="H20">
-        <v>20572.91191160428</v>
+        <v>20572.98459102494</v>
       </c>
       <c r="I20">
-        <v>86761</v>
+        <v>80471</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59662.85039822611</v>
+        <v>59624.60631002215</v>
       </c>
       <c r="O20">
-        <v>33929.68362420703</v>
+        <v>36379.46904881621</v>
       </c>
       <c r="P20">
-        <v>20587.27379401141</v>
+        <v>18830.01828203489</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.97471976712</v>
+        <v>26960.92530438881</v>
       </c>
       <c r="B21">
-        <v>11927.44337845563</v>
+        <v>12432.21543057522</v>
       </c>
       <c r="C21">
-        <v>65059.63509866313</v>
+        <v>65148.33826373606</v>
       </c>
       <c r="D21">
-        <v>16153.60547154232</v>
+        <v>21113.33753280783</v>
       </c>
       <c r="E21">
-        <v>31138.08243355819</v>
+        <v>25470.13745994971</v>
       </c>
       <c r="F21">
-        <v>21469.2724714024</v>
+        <v>20707.50001660307</v>
       </c>
       <c r="G21">
-        <v>3523.278111929523</v>
+        <v>3421.157888577109</v>
       </c>
       <c r="H21">
-        <v>26960.97471976712</v>
+        <v>26960.92530438881</v>
       </c>
       <c r="I21">
-        <v>110654</v>
+        <v>108187</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>76987.07847711876</v>
+        <v>77580.55369431128</v>
       </c>
       <c r="O21">
-        <v>47291.68790510051</v>
+        <v>46583.47499275755</v>
       </c>
       <c r="P21">
-        <v>24992.55058333193</v>
+        <v>24128.65790518018</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.098914910582</v>
+        <v>3909.957119736539</v>
       </c>
       <c r="B22">
-        <v>1766.561444245519</v>
+        <v>1825.357225610808</v>
       </c>
       <c r="C22">
-        <v>9574.187268418615</v>
+        <v>9287.103961393897</v>
       </c>
       <c r="D22">
-        <v>2217.649490742186</v>
+        <v>3054.611724492729</v>
       </c>
       <c r="E22">
-        <v>4384.409532738637</v>
+        <v>3899.719058775354</v>
       </c>
       <c r="F22">
-        <v>2940.493211321676</v>
+        <v>3382.233518060919</v>
       </c>
       <c r="G22">
-        <v>508.4724012136913</v>
+        <v>527.0255625460675</v>
       </c>
       <c r="H22">
-        <v>3910.098914910582</v>
+        <v>3909.957119736539</v>
       </c>
       <c r="I22">
-        <v>15276</v>
+        <v>15321</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11340.74871266413</v>
+        <v>11112.46118700471</v>
       </c>
       <c r="O22">
-        <v>6602.059023480822</v>
+        <v>6954.330783268083</v>
       </c>
       <c r="P22">
-        <v>3448.965612535368</v>
+        <v>3909.259080606987</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>106.0520459742259</v>
+        <v>105.9386231095848</v>
       </c>
       <c r="B23">
-        <v>50.71259876022707</v>
+        <v>45.59456759823804</v>
       </c>
       <c r="C23">
-        <v>260.6163208422224</v>
+        <v>252.5267629142854</v>
       </c>
       <c r="D23">
-        <v>71.84366651821948</v>
+        <v>91.02971740542553</v>
       </c>
       <c r="E23">
-        <v>116.8377601641014</v>
+        <v>104.9958853750699</v>
       </c>
       <c r="F23">
-        <v>89.95235234577449</v>
+        <v>92.68166609865028</v>
       </c>
       <c r="G23">
-        <v>15.37996402637739</v>
+        <v>10.86361283193106</v>
       </c>
       <c r="H23">
-        <v>106.0520459742259</v>
+        <v>105.9386231095848</v>
       </c>
       <c r="I23">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>311.3289196024495</v>
+        <v>298.1213305125234</v>
       </c>
       <c r="O23">
-        <v>188.6814266823209</v>
+        <v>196.0256027804954</v>
       </c>
       <c r="P23">
-        <v>105.3323163721519</v>
+        <v>103.5452789305814</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.01686364181</v>
+        <v>15661.10075195526</v>
       </c>
       <c r="B24">
-        <v>7275.703755488459</v>
+        <v>7051.039099991468</v>
       </c>
       <c r="C24">
-        <v>37656.17431913461</v>
+        <v>36702.25326408452</v>
       </c>
       <c r="D24">
-        <v>8910.690283610153</v>
+        <v>11680.28428042145</v>
       </c>
       <c r="E24">
-        <v>17198.34686776429</v>
+        <v>13507.15665768399</v>
       </c>
       <c r="F24">
-        <v>13209.58322984446</v>
+        <v>11408.12235290717</v>
       </c>
       <c r="G24">
-        <v>2297.640424759367</v>
+        <v>1770.885021677307</v>
       </c>
       <c r="H24">
-        <v>15661.01686364181</v>
+        <v>15661.10075195526</v>
       </c>
       <c r="I24">
-        <v>63982</v>
+        <v>56167</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>44931.87807462307</v>
+        <v>43753.29236407599</v>
       </c>
       <c r="O24">
-        <v>26109.03715137445</v>
+        <v>25187.44093810544</v>
       </c>
       <c r="P24">
-        <v>15507.22365460383</v>
+        <v>13179.00737458448</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6606.952265677583</v>
+        <v>6607.03610959117</v>
       </c>
       <c r="B25">
-        <v>1355.212538898675</v>
+        <v>1406.123952726894</v>
       </c>
       <c r="C25">
-        <v>16461.20465510672</v>
+        <v>17745.56227486029</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10997.47143890777</v>
+        <v>11329.77134538939</v>
       </c>
       <c r="F25">
-        <v>5839.800832983872</v>
+        <v>5847.287065744275</v>
       </c>
       <c r="G25">
-        <v>297.5538217856345</v>
+        <v>358.9675164244588</v>
       </c>
       <c r="H25">
-        <v>6606.952265677583</v>
+        <v>6607.03610959117</v>
       </c>
       <c r="I25">
-        <v>32704</v>
+        <v>29584</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17816.41719400539</v>
+        <v>19151.68622758718</v>
       </c>
       <c r="O25">
-        <v>10997.47143890777</v>
+        <v>11329.77134538939</v>
       </c>
       <c r="P25">
-        <v>6137.354654769507</v>
+        <v>6206.254582168735</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.01324159402</v>
+        <v>22423.01039285584</v>
       </c>
       <c r="B26">
-        <v>4855.439843729114</v>
+        <v>4937.46103173154</v>
       </c>
       <c r="C26">
-        <v>61211.14697549033</v>
+        <v>60122.2179622311</v>
       </c>
       <c r="D26">
-        <v>8724.334869960007</v>
+        <v>8302.381943166683</v>
       </c>
       <c r="E26">
-        <v>28148.26840159896</v>
+        <v>29033.23174794225</v>
       </c>
       <c r="F26">
-        <v>19179.79863886256</v>
+        <v>18159.83894667592</v>
       </c>
       <c r="G26">
-        <v>1045.033113816614</v>
+        <v>1035.02286816044</v>
       </c>
       <c r="H26">
-        <v>22423.01324159402</v>
+        <v>22423.01039285584</v>
       </c>
       <c r="I26">
-        <v>102151</v>
+        <v>104206</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>66066.58681921945</v>
+        <v>65059.67899396264</v>
       </c>
       <c r="O26">
-        <v>36872.60327155897</v>
+        <v>37335.61369110893</v>
       </c>
       <c r="P26">
-        <v>20224.83175267917</v>
+        <v>19194.86181483636</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29148.0242844779</v>
+        <v>29147.97425437151</v>
       </c>
       <c r="B27">
-        <v>5802.091117109029</v>
+        <v>6498.005487496977</v>
       </c>
       <c r="C27">
-        <v>73126.6058517861</v>
+        <v>75716.00953795241</v>
       </c>
       <c r="D27">
-        <v>10069.21433685055</v>
+        <v>11429.32649899414</v>
       </c>
       <c r="E27">
-        <v>34364.65039813872</v>
+        <v>40521.4795755536</v>
       </c>
       <c r="F27">
-        <v>26364.04605777188</v>
+        <v>24650.14649834134</v>
       </c>
       <c r="G27">
-        <v>1536.264722206396</v>
+        <v>1252.230472447789</v>
       </c>
       <c r="H27">
-        <v>29148.0242844779</v>
+        <v>29147.97425437151</v>
       </c>
       <c r="I27">
-        <v>137393</v>
+        <v>132905</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>78928.69696889512</v>
+        <v>82214.01502544939</v>
       </c>
       <c r="O27">
-        <v>44433.86473498927</v>
+        <v>51950.80607454774</v>
       </c>
       <c r="P27">
-        <v>27900.31077997828</v>
+        <v>25902.37697078912</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30697.93128297515</v>
+        <v>30698.06485041917</v>
       </c>
       <c r="B28">
-        <v>6382.338499608027</v>
+        <v>6469.493048317167</v>
       </c>
       <c r="C28">
-        <v>80791.59444882139</v>
+        <v>81232.08011580666</v>
       </c>
       <c r="D28">
-        <v>11927.24083622755</v>
+        <v>10963.41702883899</v>
       </c>
       <c r="E28">
-        <v>38554.06817243671</v>
+        <v>39474.88932962306</v>
       </c>
       <c r="F28">
-        <v>25331.91116404523</v>
+        <v>24916.1274642746</v>
       </c>
       <c r="G28">
-        <v>1364.59948845701</v>
+        <v>1151.422971129345</v>
       </c>
       <c r="H28">
-        <v>30697.93128297515</v>
+        <v>30698.06485041917</v>
       </c>
       <c r="I28">
-        <v>136811</v>
+        <v>143714</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>87173.93294842941</v>
+        <v>87701.57316412382</v>
       </c>
       <c r="O28">
-        <v>50481.30900866426</v>
+        <v>50438.30635846205</v>
       </c>
       <c r="P28">
-        <v>26696.51065250224</v>
+        <v>26067.55043540394</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81900.98917713309</v>
+        <v>81901.09333108927</v>
       </c>
       <c r="B29">
-        <v>17704.25110074206</v>
+        <v>17697.23572869668</v>
       </c>
       <c r="C29">
-        <v>206870.8068345787</v>
+        <v>208608.2737032985</v>
       </c>
       <c r="D29">
-        <v>30739.35063858086</v>
+        <v>29327.17131512036</v>
       </c>
       <c r="E29">
-        <v>102927.1262785035</v>
+        <v>101021.1768178965</v>
       </c>
       <c r="F29">
-        <v>71743.25255565325</v>
+        <v>73642.48365827954</v>
       </c>
       <c r="G29">
-        <v>3693.939679568755</v>
+        <v>3664.259015789295</v>
       </c>
       <c r="H29">
-        <v>81900.98917713309</v>
+        <v>81901.09333108927</v>
       </c>
       <c r="I29">
-        <v>354049</v>
+        <v>392547</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>224575.0579353207</v>
+        <v>226305.5094319952</v>
       </c>
       <c r="O29">
-        <v>133666.4769170844</v>
+        <v>130348.3481330169</v>
       </c>
       <c r="P29">
-        <v>75437.192235222</v>
+        <v>77306.74267406884</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65571.91417103364</v>
+        <v>65572.06527383349</v>
       </c>
       <c r="B30">
-        <v>13488.96021387689</v>
+        <v>14322.42936712557</v>
       </c>
       <c r="C30">
-        <v>172526.4826201528</v>
+        <v>172732.2658403567</v>
       </c>
       <c r="D30">
-        <v>24620.61042692207</v>
+        <v>26226.88416093446</v>
       </c>
       <c r="E30">
-        <v>83948.99345705674</v>
+        <v>89736.45448874097</v>
       </c>
       <c r="F30">
-        <v>53001.66162560609</v>
+        <v>54773.02223630117</v>
       </c>
       <c r="G30">
-        <v>2723.399779355857</v>
+        <v>3444.405402522545</v>
       </c>
       <c r="H30">
-        <v>65571.91417103364</v>
+        <v>65572.06527383349</v>
       </c>
       <c r="I30">
-        <v>306346</v>
+        <v>283279</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>186015.4428340297</v>
+        <v>187054.6952074823</v>
       </c>
       <c r="O30">
-        <v>108569.6038839788</v>
+        <v>115963.3386496754</v>
       </c>
       <c r="P30">
-        <v>55725.06140496195</v>
+        <v>58217.42763882372</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.93667959191</v>
+        <v>90327.96387099328</v>
       </c>
       <c r="B31">
-        <v>20338.14913536988</v>
+        <v>19449.74724145606</v>
       </c>
       <c r="C31">
-        <v>239823.6905786963</v>
+        <v>231016.9572083952</v>
       </c>
       <c r="D31">
-        <v>32120.55080024272</v>
+        <v>33024.79700131111</v>
       </c>
       <c r="E31">
-        <v>109638.6958072594</v>
+        <v>113035.6042969547</v>
       </c>
       <c r="F31">
-        <v>76560.65313012571</v>
+        <v>89723.62627336534</v>
       </c>
       <c r="G31">
-        <v>4423.14064270532</v>
+        <v>5450.568789754772</v>
       </c>
       <c r="H31">
-        <v>90327.93667959191</v>
+        <v>90327.96387099328</v>
       </c>
       <c r="I31">
-        <v>384642</v>
+        <v>407886</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>260161.8397140662</v>
+        <v>250466.7044498513</v>
       </c>
       <c r="O31">
-        <v>141759.2466075021</v>
+        <v>146060.4012982658</v>
       </c>
       <c r="P31">
-        <v>80983.79377283102</v>
+        <v>95174.19506312012</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36451.09641868978</v>
+        <v>36450.94028094883</v>
       </c>
       <c r="B32">
-        <v>8069.033698729635</v>
+        <v>7561.195674226336</v>
       </c>
       <c r="C32">
-        <v>97345.9160722387</v>
+        <v>95443.45369774672</v>
       </c>
       <c r="D32">
-        <v>13923.25942669646</v>
+        <v>13562.38630258687</v>
       </c>
       <c r="E32">
-        <v>46313.83994286486</v>
+        <v>49514.56852555472</v>
       </c>
       <c r="F32">
-        <v>30654.65719573054</v>
+        <v>30847.73922784315</v>
       </c>
       <c r="G32">
-        <v>1469.162600719732</v>
+        <v>1633.156908791758</v>
       </c>
       <c r="H32">
-        <v>36451.09641868978</v>
+        <v>36450.94028094883</v>
       </c>
       <c r="I32">
-        <v>167303</v>
+        <v>165179</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>105414.9497709683</v>
+        <v>103004.6493719731</v>
       </c>
       <c r="O32">
-        <v>60237.09936956131</v>
+        <v>63076.95482814159</v>
       </c>
       <c r="P32">
-        <v>32123.81979645027</v>
+        <v>32480.89613663491</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22120.98383595423</v>
+        <v>22121.01890891697</v>
       </c>
       <c r="B33">
-        <v>4818.956478666241</v>
+        <v>4820.349510794023</v>
       </c>
       <c r="C33">
-        <v>58355.10430378019</v>
+        <v>59694.44609955289</v>
       </c>
       <c r="D33">
-        <v>8874.042861800161</v>
+        <v>8667.066939209115</v>
       </c>
       <c r="E33">
-        <v>28691.89412659242</v>
+        <v>28992.1757334592</v>
       </c>
       <c r="F33">
-        <v>18571.64807470119</v>
+        <v>19982.68276010369</v>
       </c>
       <c r="G33">
-        <v>914.9070449801609</v>
+        <v>939.6246486423813</v>
       </c>
       <c r="H33">
-        <v>22120.98383595423</v>
+        <v>22121.01890891697</v>
       </c>
       <c r="I33">
-        <v>100782</v>
+        <v>99828</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>63174.06078244642</v>
+        <v>64514.79561034691</v>
       </c>
       <c r="O33">
-        <v>37565.93698839258</v>
+        <v>37659.24267266832</v>
       </c>
       <c r="P33">
-        <v>19486.55511968135</v>
+        <v>20922.30740874607</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26864.05867847549</v>
+        <v>26864.04959246473</v>
       </c>
       <c r="B34">
-        <v>5498.288741559379</v>
+        <v>6002.463419384635</v>
       </c>
       <c r="C34">
-        <v>68744.84885640281</v>
+        <v>71418.17594883315</v>
       </c>
       <c r="D34">
-        <v>10238.8037574394</v>
+        <v>9628.494913475779</v>
       </c>
       <c r="E34">
-        <v>34760.23672698254</v>
+        <v>32950.44134836696</v>
       </c>
       <c r="F34">
-        <v>23603.63344254944</v>
+        <v>22454.04276575735</v>
       </c>
       <c r="G34">
-        <v>1037.243533281188</v>
+        <v>1085.818697802039</v>
       </c>
       <c r="H34">
-        <v>26864.05867847549</v>
+        <v>26864.04959246473</v>
       </c>
       <c r="I34">
-        <v>118996</v>
+        <v>125709</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>74243.13759796218</v>
+        <v>77420.63936821777</v>
       </c>
       <c r="O34">
-        <v>44999.04048442194</v>
+        <v>42578.93626184274</v>
       </c>
       <c r="P34">
-        <v>24640.87697583062</v>
+        <v>23539.86146355939</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>454.0708839969736</v>
+        <v>453.916601477492</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1270.899838217724</v>
+        <v>1305.785627280525</v>
       </c>
       <c r="D35">
-        <v>169.872000437338</v>
+        <v>162.6297465375992</v>
       </c>
       <c r="E35">
-        <v>555.7562326662934</v>
+        <v>592.9192166151048</v>
       </c>
       <c r="F35">
-        <v>385.8621846762832</v>
+        <v>379.7052531549848</v>
       </c>
       <c r="G35">
-        <v>20.91451807588017</v>
+        <v>15.85694402059722</v>
       </c>
       <c r="H35">
-        <v>454.0708839969736</v>
+        <v>453.916601477492</v>
       </c>
       <c r="I35">
-        <v>2209</v>
+        <v>2225</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1270.899838217724</v>
+        <v>1305.785627280525</v>
       </c>
       <c r="O35">
-        <v>725.6282331036314</v>
+        <v>755.548963152704</v>
       </c>
       <c r="P35">
-        <v>406.7767027521633</v>
+        <v>395.562197175582</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>505.008089422716</v>
+        <v>504.9093011865317</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1467.928084075933</v>
+        <v>1433.451423663998</v>
       </c>
       <c r="D36">
-        <v>189.0852326987207</v>
+        <v>183.9517922576294</v>
       </c>
       <c r="E36">
-        <v>650.9070008737232</v>
+        <v>637.9832791113666</v>
       </c>
       <c r="F36">
-        <v>401.4906485970532</v>
+        <v>418.5388393202857</v>
       </c>
       <c r="G36">
-        <v>19.67202572834015</v>
+        <v>21.34256674883989</v>
       </c>
       <c r="H36">
-        <v>505.008089422716</v>
+        <v>504.9093011865317</v>
       </c>
       <c r="I36">
-        <v>2513</v>
+        <v>2435</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1467.928084075933</v>
+        <v>1433.451423663998</v>
       </c>
       <c r="O36">
-        <v>839.9922335724439</v>
+        <v>821.935071368996</v>
       </c>
       <c r="P36">
-        <v>421.1626743253933</v>
+        <v>439.8814060691256</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11107.92388039346</v>
+        <v>11107.91977194214</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>32060.13369577302</v>
+        <v>29821.53671509122</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>16753.86901232391</v>
+        <v>16592.55823213892</v>
       </c>
       <c r="F37">
-        <v>3562.724675512831</v>
+        <v>3387.295731959249</v>
       </c>
       <c r="G37">
-        <v>6302.250350214148</v>
+        <v>6443.608904897434</v>
       </c>
       <c r="H37">
-        <v>11107.92388039346</v>
+        <v>11107.91977194214</v>
       </c>
       <c r="I37">
-        <v>54558</v>
+        <v>56410</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>32060.13369577302</v>
+        <v>29821.53671509122</v>
       </c>
       <c r="O37">
-        <v>16753.86901232391</v>
+        <v>16592.55823213892</v>
       </c>
       <c r="P37">
-        <v>9864.975025726979</v>
+        <v>9830.904636856683</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1091.063052347153</v>
+        <v>1091.059385622232</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3073.297803650028</v>
+        <v>3073.911518033952</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1768.899982889262</v>
+        <v>1676.383858659257</v>
       </c>
       <c r="F38">
-        <v>328.9830912380375</v>
+        <v>354.9666462045897</v>
       </c>
       <c r="G38">
-        <v>603.8191844714327</v>
+        <v>611.8212433464629</v>
       </c>
       <c r="H38">
-        <v>1091.063052347153</v>
+        <v>1091.059385622232</v>
       </c>
       <c r="I38">
-        <v>5581</v>
+        <v>5671</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3073.297803650028</v>
+        <v>3073.911518033952</v>
       </c>
       <c r="O38">
-        <v>1768.899982889262</v>
+        <v>1676.383858659257</v>
       </c>
       <c r="P38">
-        <v>932.8022757094701</v>
+        <v>966.7878895510526</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9626130583</v>
+        <v>153571.9979375686</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>429821.2216920487</v>
+        <v>420335.7388161217</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>240822.2574407877</v>
+        <v>251237.9276137516</v>
       </c>
       <c r="F39">
-        <v>54096.82145755009</v>
+        <v>47254.63964374729</v>
       </c>
       <c r="G39">
-        <v>107768.8087780422</v>
+        <v>87006.87936486838</v>
       </c>
       <c r="H39">
-        <v>153571.9626130583</v>
+        <v>153571.9979375686</v>
       </c>
       <c r="I39">
-        <v>797300</v>
+        <v>734482</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>429821.2216920487</v>
+        <v>420335.7388161217</v>
       </c>
       <c r="O39">
-        <v>240822.2574407877</v>
+        <v>251237.9276137516</v>
       </c>
       <c r="P39">
-        <v>161865.6302355923</v>
+        <v>134261.5190086157</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152868.9949758681</v>
+        <v>152869.01831196</v>
       </c>
       <c r="B40">
-        <v>27353.99684208167</v>
+        <v>28270.16265155139</v>
       </c>
       <c r="C40">
-        <v>398950.3937615219</v>
+        <v>409552.3870238314</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>244814.9179085572</v>
+        <v>250241.1061652461</v>
       </c>
       <c r="F40">
-        <v>47517.79611025046</v>
+        <v>51836.07221029651</v>
       </c>
       <c r="G40">
-        <v>86534.70572548192</v>
+        <v>89446.8765322944</v>
       </c>
       <c r="H40">
-        <v>152868.9949758681</v>
+        <v>152869.01831196</v>
       </c>
       <c r="I40">
-        <v>714903</v>
+        <v>738035</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>426304.3906036035</v>
+        <v>437822.5496753828</v>
       </c>
       <c r="O40">
-        <v>244814.9179085572</v>
+        <v>250241.1061652461</v>
       </c>
       <c r="P40">
-        <v>134052.5018357324</v>
+        <v>141282.9487425909</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.0388131684</v>
+        <v>339433.1016991629</v>
       </c>
       <c r="B41">
-        <v>60580.04042097677</v>
+        <v>59687.57933073592</v>
       </c>
       <c r="C41">
-        <v>911168.4215879872</v>
+        <v>963391.375127977</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>547132.0104340456</v>
+        <v>604207.7697664253</v>
       </c>
       <c r="F41">
-        <v>106407.0906220162</v>
+        <v>87392.79964019926</v>
       </c>
       <c r="G41">
-        <v>209080.7370892099</v>
+        <v>168985.8552393943</v>
       </c>
       <c r="H41">
-        <v>339433.0388131684</v>
+        <v>339433.1016991629</v>
       </c>
       <c r="I41">
-        <v>1685466</v>
+        <v>1607312</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>971748.462008964</v>
+        <v>1023078.954458713</v>
       </c>
       <c r="O41">
-        <v>547132.0104340456</v>
+        <v>604207.7697664253</v>
       </c>
       <c r="P41">
-        <v>315487.8277112261</v>
+        <v>256378.6548795936</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245458.9005700947</v>
+        <v>245458.9666942237</v>
       </c>
       <c r="B42">
-        <v>46395.38575995735</v>
+        <v>41419.36082704285</v>
       </c>
       <c r="C42">
-        <v>656754.1674510737</v>
+        <v>661598.2914434664</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>408522.7228487603</v>
+        <v>396911.7976532434</v>
       </c>
       <c r="F42">
-        <v>69459.43507073332</v>
+        <v>79953.30633162122</v>
       </c>
       <c r="G42">
-        <v>131151.7735735074</v>
+        <v>134940.4586845868</v>
       </c>
       <c r="H42">
-        <v>245458.9005700947</v>
+        <v>245458.9666942237</v>
       </c>
       <c r="I42">
-        <v>1204889</v>
+        <v>1216632</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>703149.553211031</v>
+        <v>703017.6522705093</v>
       </c>
       <c r="O42">
-        <v>408522.7228487603</v>
+        <v>396911.7976532434</v>
       </c>
       <c r="P42">
-        <v>200611.2086442408</v>
+        <v>214893.765016208</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.9022064356</v>
+        <v>367626.9073327679</v>
       </c>
       <c r="B43">
-        <v>61710.72678055208</v>
+        <v>66940.97792752707</v>
       </c>
       <c r="C43">
-        <v>996861.4790248382</v>
+        <v>988275.7545750686</v>
       </c>
       <c r="D43">
-        <v>80893.95063974419</v>
+        <v>73649.60271567812</v>
       </c>
       <c r="E43">
-        <v>547076.3858642668</v>
+        <v>494860.1505520634</v>
       </c>
       <c r="F43">
-        <v>113221.5613727942</v>
+        <v>119810.6670369732</v>
       </c>
       <c r="G43">
-        <v>215111.7844019368</v>
+        <v>209097.4191570389</v>
       </c>
       <c r="H43">
-        <v>367626.9022064356</v>
+        <v>367626.9073327679</v>
       </c>
       <c r="I43">
-        <v>1705143</v>
+        <v>1687488</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1058572.20580539</v>
+        <v>1055216.732502596</v>
       </c>
       <c r="O43">
-        <v>627970.336504011</v>
+        <v>568509.7532677415</v>
       </c>
       <c r="P43">
-        <v>328333.345774731</v>
+        <v>328908.086194012</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470397.0227812809</v>
+        <v>470397.0395949812</v>
       </c>
       <c r="B44">
-        <v>83260.51313859559</v>
+        <v>88116.52567445253</v>
       </c>
       <c r="C44">
-        <v>1237611.845883552</v>
+        <v>1263716.406296821</v>
       </c>
       <c r="D44">
-        <v>99608.48924401109</v>
+        <v>110414.1798166409</v>
       </c>
       <c r="E44">
-        <v>631206.0286261103</v>
+        <v>705533.5809790352</v>
       </c>
       <c r="F44">
-        <v>141678.0149159264</v>
+        <v>153034.1401442307</v>
       </c>
       <c r="G44">
-        <v>258608.5367130646</v>
+        <v>269424.9220996814</v>
       </c>
       <c r="H44">
-        <v>470397.0227812809</v>
+        <v>470397.0395949812</v>
       </c>
       <c r="I44">
-        <v>2226370</v>
+        <v>2162591</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1320872.359022147</v>
+        <v>1351832.931971273</v>
       </c>
       <c r="O44">
-        <v>730814.5178701214</v>
+        <v>815947.7607956762</v>
       </c>
       <c r="P44">
-        <v>400286.551628991</v>
+        <v>422459.0622439121</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9871229209</v>
+        <v>307102.9263256985</v>
       </c>
       <c r="B45">
-        <v>55991.75708919263</v>
+        <v>57712.13826774466</v>
       </c>
       <c r="C45">
-        <v>830434.8950179084</v>
+        <v>828709.9408094756</v>
       </c>
       <c r="D45">
-        <v>75929.41106573053</v>
+        <v>66360.21402919269</v>
       </c>
       <c r="E45">
-        <v>469279.7402435094</v>
+        <v>447453.9109069013</v>
       </c>
       <c r="F45">
-        <v>95454.92054473033</v>
+        <v>92846.90732762635</v>
       </c>
       <c r="G45">
-        <v>175984.5508983132</v>
+        <v>166900.6944052789</v>
       </c>
       <c r="H45">
-        <v>307102.9871229209</v>
+        <v>307102.9263256985</v>
       </c>
       <c r="I45">
-        <v>1501166</v>
+        <v>1514409</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>886426.6521071011</v>
+        <v>886422.0790772203</v>
       </c>
       <c r="O45">
-        <v>545209.1513092399</v>
+        <v>513814.124936094</v>
       </c>
       <c r="P45">
-        <v>271439.4714430436</v>
+        <v>259747.6017329053</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327914.9999917505</v>
+        <v>327915.0225576284</v>
       </c>
       <c r="B46">
-        <v>60898.19102310254</v>
+        <v>60257.5856693839</v>
       </c>
       <c r="C46">
-        <v>885716.2881181747</v>
+        <v>901921.4010521979</v>
       </c>
       <c r="D46">
-        <v>71816.4196055028</v>
+        <v>68817.05017237575</v>
       </c>
       <c r="E46">
-        <v>448964.3026488486</v>
+        <v>471121.8282774428</v>
       </c>
       <c r="F46">
-        <v>102487.7660453595</v>
+        <v>106391.8373408886</v>
       </c>
       <c r="G46">
-        <v>192221.0845159276</v>
+        <v>203589.990996242</v>
       </c>
       <c r="H46">
-        <v>327914.9999917505</v>
+        <v>327915.0225576284</v>
       </c>
       <c r="I46">
-        <v>1558894</v>
+        <v>1547204</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>946614.4791412771</v>
+        <v>962178.9867215818</v>
       </c>
       <c r="O46">
-        <v>520780.7222543514</v>
+        <v>539938.8784498186</v>
       </c>
       <c r="P46">
-        <v>294708.8505612871</v>
+        <v>309981.8283371305</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659113.9158852699</v>
+        <v>659113.969532397</v>
       </c>
       <c r="B47">
-        <v>113586.0964044309</v>
+        <v>124417.9789587161</v>
       </c>
       <c r="C47">
-        <v>1745691.323273697</v>
+        <v>1849439.450370282</v>
       </c>
       <c r="D47">
-        <v>138789.6526059062</v>
+        <v>131833.1244998371</v>
       </c>
       <c r="E47">
-        <v>971863.2127715412</v>
+        <v>903227.7528596134</v>
       </c>
       <c r="F47">
-        <v>218644.3802232506</v>
+        <v>218829.8089325316</v>
       </c>
       <c r="G47">
-        <v>388493.1092842721</v>
+        <v>371064.8185751337</v>
       </c>
       <c r="H47">
-        <v>659113.9158852699</v>
+        <v>659113.969532397</v>
       </c>
       <c r="I47">
-        <v>3165075</v>
+        <v>3179120</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1859277.419678128</v>
+        <v>1973857.429328999</v>
       </c>
       <c r="O47">
-        <v>1110652.865377447</v>
+        <v>1035060.877359451</v>
       </c>
       <c r="P47">
-        <v>607137.4895075227</v>
+        <v>589894.6275076653</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.9575972564</v>
+        <v>195930.90355997</v>
       </c>
       <c r="B48">
-        <v>34696.38689010178</v>
+        <v>32976.84815995998</v>
       </c>
       <c r="C48">
-        <v>514009.3722358426</v>
+        <v>507476.2447546519</v>
       </c>
       <c r="D48">
-        <v>41179.73680266523</v>
+        <v>48714.50755918476</v>
       </c>
       <c r="E48">
-        <v>271530.9449457363</v>
+        <v>272773.284854707</v>
       </c>
       <c r="F48">
-        <v>62754.96835921682</v>
+        <v>60683.27590269459</v>
       </c>
       <c r="G48">
-        <v>117576.8545873702</v>
+        <v>104026.8764118331</v>
       </c>
       <c r="H48">
-        <v>195930.9575972564</v>
+        <v>195930.90355997</v>
       </c>
       <c r="I48">
-        <v>882934</v>
+        <v>943399</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>548705.7591259443</v>
+        <v>540453.0929146119</v>
       </c>
       <c r="O48">
-        <v>312710.6817484016</v>
+        <v>321487.7924138918</v>
       </c>
       <c r="P48">
-        <v>180331.822946587</v>
+        <v>164710.1523145277</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174399.9115537261</v>
+        <v>174400.0651824221</v>
       </c>
       <c r="B49">
-        <v>31772.00537461983</v>
+        <v>29534.83023171893</v>
       </c>
       <c r="C49">
-        <v>475307.5369948707</v>
+        <v>480939.536496859</v>
       </c>
       <c r="D49">
-        <v>36120.80042474944</v>
+        <v>43538.99733360639</v>
       </c>
       <c r="E49">
-        <v>246365.9837030932</v>
+        <v>248087.4682300212</v>
       </c>
       <c r="F49">
-        <v>53852.65944353553</v>
+        <v>52097.1318539529</v>
       </c>
       <c r="G49">
-        <v>101965.5570518082</v>
+        <v>95833.71156326709</v>
       </c>
       <c r="H49">
-        <v>174399.9115537261</v>
+        <v>174400.0651824221</v>
       </c>
       <c r="I49">
-        <v>855954</v>
+        <v>863390</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>507079.5423694906</v>
+        <v>510474.3667285779</v>
       </c>
       <c r="O49">
-        <v>282486.7841278426</v>
+        <v>291626.4655636277</v>
       </c>
       <c r="P49">
-        <v>155818.2164953437</v>
+        <v>147930.84341722</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60247.93596480594</v>
+        <v>60248.06816985692</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>170989.4279414305</v>
+        <v>161891.704057609</v>
       </c>
       <c r="D50">
-        <v>12743.98878519381</v>
+        <v>14306.14607550346</v>
       </c>
       <c r="E50">
-        <v>88861.93409186458</v>
+        <v>83239.83793873669</v>
       </c>
       <c r="F50">
-        <v>20373.92396348232</v>
+        <v>18653.79479502007</v>
       </c>
       <c r="G50">
-        <v>36376.48035963721</v>
+        <v>33498.82303303525</v>
       </c>
       <c r="H50">
-        <v>60247.93596480594</v>
+        <v>60248.06816985692</v>
       </c>
       <c r="I50">
-        <v>315280</v>
+        <v>297582</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>170989.4279414305</v>
+        <v>161891.704057609</v>
       </c>
       <c r="O50">
-        <v>101605.9228770584</v>
+        <v>97545.98401424015</v>
       </c>
       <c r="P50">
-        <v>56750.40432311953</v>
+        <v>52152.61782805531</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8461.014102359808</v>
+        <v>8460.918960281068</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23270.49365442242</v>
+        <v>23715.15759553406</v>
       </c>
       <c r="D51">
-        <v>1830.315119992718</v>
+        <v>2088.186856469676</v>
       </c>
       <c r="E51">
-        <v>11760.12533313861</v>
+        <v>11776.32622728455</v>
       </c>
       <c r="F51">
-        <v>2254.829949172972</v>
+        <v>2806.834673023887</v>
       </c>
       <c r="G51">
-        <v>4293.201928344885</v>
+        <v>4763.057286486363</v>
       </c>
       <c r="H51">
-        <v>8461.014102359808</v>
+        <v>8460.918960281068</v>
       </c>
       <c r="I51">
-        <v>41646</v>
+        <v>38973</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23270.49365442242</v>
+        <v>23715.15759553406</v>
       </c>
       <c r="O51">
-        <v>13590.44045313133</v>
+        <v>13864.51308375422</v>
       </c>
       <c r="P51">
-        <v>6548.031877517857</v>
+        <v>7569.891959510251</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2463.040365641116</v>
+        <v>2462.938588898251</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7443.169136183393</v>
+        <v>7602.901503186362</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1033.941867099582</v>
+        <v>1130.992149208842</v>
       </c>
       <c r="F52">
-        <v>1.003723158120848</v>
+        <v>1.186059003221031</v>
       </c>
       <c r="G52">
-        <v>7.356669451385392</v>
+        <v>9.162553510284971</v>
       </c>
       <c r="H52">
-        <v>2463.040365641116</v>
+        <v>2462.938588898251</v>
       </c>
       <c r="I52">
-        <v>11639</v>
+        <v>11346</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7443.169136183393</v>
+        <v>7602.901503186362</v>
       </c>
       <c r="O52">
-        <v>1033.941867099582</v>
+        <v>1130.992149208842</v>
       </c>
       <c r="P52">
-        <v>8.36039260950624</v>
+        <v>10.348612513506</v>
       </c>
       <c r="Q52">
-        <v>18.12846634428409</v>
+        <v>22.27076737327671</v>
       </c>
       <c r="R52">
-        <v>51.5617566593972</v>
+        <v>50.29045214283536</v>
       </c>
       <c r="S52">
-        <v>69.69022300368128</v>
+        <v>72.56121951611208</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3703.915493965673</v>
+        <v>3704.043154210372</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11650.29611498711</v>
+        <v>11605.75475972934</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1601.246302503161</v>
+        <v>2040.797110845219</v>
       </c>
       <c r="F53">
-        <v>2.143989438824379</v>
+        <v>2.354354063891214</v>
       </c>
       <c r="G53">
-        <v>12.41954372400332</v>
+        <v>8.386163740586618</v>
       </c>
       <c r="H53">
-        <v>3703.915493965673</v>
+        <v>3704.043154210372</v>
       </c>
       <c r="I53">
-        <v>16919</v>
+        <v>16810</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11650.29611498711</v>
+        <v>11605.75475972934</v>
       </c>
       <c r="O53">
-        <v>1601.246302503161</v>
+        <v>2040.797110845219</v>
       </c>
       <c r="P53">
-        <v>14.56353316282769</v>
+        <v>10.74051780447783</v>
       </c>
       <c r="Q53">
-        <v>26.33521999984169</v>
+        <v>20.78495670318062</v>
       </c>
       <c r="R53">
-        <v>70.91543973647057</v>
+        <v>58.65394574267953</v>
       </c>
       <c r="S53">
-        <v>97.25065973631227</v>
+        <v>79.43890244586015</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169754.1203424419</v>
+        <v>169754.0441829002</v>
       </c>
       <c r="B54">
-        <v>40701.41376937398</v>
+        <v>43260.7430315605</v>
       </c>
       <c r="C54">
-        <v>494896.4948803159</v>
+        <v>517187.0531759887</v>
       </c>
       <c r="D54">
-        <v>6093.898446324625</v>
+        <v>6838.466234293364</v>
       </c>
       <c r="E54">
-        <v>80562.76671990923</v>
+        <v>74939.59014850078</v>
       </c>
       <c r="F54">
-        <v>228.8702685078943</v>
+        <v>28.36714856455987</v>
       </c>
       <c r="G54">
-        <v>821.8078242806594</v>
+        <v>327.447431363954</v>
       </c>
       <c r="H54">
-        <v>169754.1203424419</v>
+        <v>169754.0441829002</v>
       </c>
       <c r="I54">
-        <v>690202</v>
+        <v>725402</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>535597.9086496899</v>
+        <v>560447.7962075493</v>
       </c>
       <c r="O54">
-        <v>86656.66516623386</v>
+        <v>81778.05638279414</v>
       </c>
       <c r="P54">
-        <v>1050.678092788554</v>
+        <v>355.8145799285139</v>
       </c>
       <c r="Q54">
-        <v>1335.164173448029</v>
+        <v>1068.849217326527</v>
       </c>
       <c r="R54">
-        <v>4038.602572737305</v>
+        <v>3882.225568430699</v>
       </c>
       <c r="S54">
-        <v>5373.766746185334</v>
+        <v>4951.074785757227</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.9013432047</v>
+        <v>301000.9781158562</v>
       </c>
       <c r="B55">
-        <v>69273.66619490842</v>
+        <v>73232.36705478482</v>
       </c>
       <c r="C55">
-        <v>877951.284879901</v>
+        <v>899567.0509548308</v>
       </c>
       <c r="D55">
-        <v>9460.45218924023</v>
+        <v>10625.24384984057</v>
       </c>
       <c r="E55">
-        <v>130182.6577312062</v>
+        <v>124947.2387959726</v>
       </c>
       <c r="F55">
-        <v>171.5845222210605</v>
+        <v>50.05717918179386</v>
       </c>
       <c r="G55">
-        <v>257.7790753714844</v>
+        <v>1163.039495014073</v>
       </c>
       <c r="H55">
-        <v>301000.9013432047</v>
+        <v>301000.9781158562</v>
       </c>
       <c r="I55">
-        <v>1242297</v>
+        <v>1221207</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>947224.9510748094</v>
+        <v>972799.4180096156</v>
       </c>
       <c r="O55">
-        <v>139643.1099204465</v>
+        <v>135572.4826458131</v>
       </c>
       <c r="P55">
-        <v>429.3635975925449</v>
+        <v>1213.096674195867</v>
       </c>
       <c r="Q55">
-        <v>1870.451445758141</v>
+        <v>1802.74806876517</v>
       </c>
       <c r="R55">
-        <v>5433.999460686587</v>
+        <v>3861.029013761475</v>
       </c>
       <c r="S55">
-        <v>7304.450906444728</v>
+        <v>5663.777082526645</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485904.0672887503</v>
+        <v>485903.9812354456</v>
       </c>
       <c r="B56">
-        <v>120527.636968865</v>
+        <v>122897.9655481939</v>
       </c>
       <c r="C56">
-        <v>1427818.52028654</v>
+        <v>1415521.383467897</v>
       </c>
       <c r="D56">
-        <v>17254.01383198231</v>
+        <v>18197.34674268087</v>
       </c>
       <c r="E56">
-        <v>215007.4320825895</v>
+        <v>190563.9894574383</v>
       </c>
       <c r="F56">
-        <v>294.6355763445302</v>
+        <v>360.8606502074771</v>
       </c>
       <c r="G56">
-        <v>2096.718840698691</v>
+        <v>3577.148232546263</v>
       </c>
       <c r="H56">
-        <v>485904.0672887503</v>
+        <v>485903.9812354456</v>
       </c>
       <c r="I56">
-        <v>1927922</v>
+        <v>1967536</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1548346.157255405</v>
+        <v>1538419.349016091</v>
       </c>
       <c r="O56">
-        <v>232261.4459145718</v>
+        <v>208761.3362001192</v>
       </c>
       <c r="P56">
-        <v>2391.354417043221</v>
+        <v>3938.00888275374</v>
       </c>
       <c r="Q56">
-        <v>2494.755264452313</v>
+        <v>4955.2525191202</v>
       </c>
       <c r="R56">
-        <v>9426.966829268093</v>
+        <v>12210.9541878827</v>
       </c>
       <c r="S56">
-        <v>11921.72209372041</v>
+        <v>17166.2067070029</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757271.0070406756</v>
+        <v>757270.9503635824</v>
       </c>
       <c r="B57">
-        <v>186031.7956938317</v>
+        <v>187281.8469488304</v>
       </c>
       <c r="C57">
-        <v>2164224.256372091</v>
+        <v>2144987.069551586</v>
       </c>
       <c r="D57">
-        <v>22602.2064648674</v>
+        <v>29591.11269501719</v>
       </c>
       <c r="E57">
-        <v>347059.541854667</v>
+        <v>345036.5160941221</v>
       </c>
       <c r="F57">
-        <v>368.9270863416906</v>
+        <v>731.1554930811174</v>
       </c>
       <c r="G57">
-        <v>2090.268910812149</v>
+        <v>2535.758829612353</v>
       </c>
       <c r="H57">
-        <v>757271.0070406756</v>
+        <v>757270.9503635824</v>
       </c>
       <c r="I57">
-        <v>3178994</v>
+        <v>3022309</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2350256.052065922</v>
+        <v>2332268.916500417</v>
       </c>
       <c r="O57">
-        <v>369661.7483195344</v>
+        <v>374627.6287891393</v>
       </c>
       <c r="P57">
-        <v>2459.19599715384</v>
+        <v>3266.91432269347</v>
       </c>
       <c r="Q57">
-        <v>4637.537568543843</v>
+        <v>3399.337099457351</v>
       </c>
       <c r="R57">
-        <v>15137.57148265201</v>
+        <v>12506.86498603068</v>
       </c>
       <c r="S57">
-        <v>19775.10905119585</v>
+        <v>15906.20208548803</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651328.9618552207</v>
+        <v>651328.9705690165</v>
       </c>
       <c r="B58">
-        <v>158626.4612397647</v>
+        <v>171333.3395728064</v>
       </c>
       <c r="C58">
-        <v>1872142.707176826</v>
+        <v>1929566.523365772</v>
       </c>
       <c r="D58">
-        <v>23193.54138791173</v>
+        <v>24121.72103076285</v>
       </c>
       <c r="E58">
-        <v>302597.862196983</v>
+        <v>295735.1556687484</v>
       </c>
       <c r="F58">
-        <v>222.9053663461148</v>
+        <v>265.0864014486015</v>
       </c>
       <c r="G58">
-        <v>1676.092816282254</v>
+        <v>2636.420380879207</v>
       </c>
       <c r="H58">
-        <v>651328.9618552207</v>
+        <v>651328.9705690165</v>
       </c>
       <c r="I58">
-        <v>2582552</v>
+        <v>2689266</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2030769.16841659</v>
+        <v>2100899.862938578</v>
       </c>
       <c r="O58">
-        <v>325791.4035848947</v>
+        <v>319856.8766995112</v>
       </c>
       <c r="P58">
-        <v>1898.998182628369</v>
+        <v>2901.506782327809</v>
       </c>
       <c r="Q58">
-        <v>3499.20538426689</v>
+        <v>4923.852112834461</v>
       </c>
       <c r="R58">
-        <v>13488.83163217527</v>
+        <v>12273.49097561452</v>
       </c>
       <c r="S58">
-        <v>16988.03701644216</v>
+        <v>17197.34308844899</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.0653825211</v>
+        <v>889112.0025393739</v>
       </c>
       <c r="B59">
-        <v>201807.4586101898</v>
+        <v>230362.7811761169</v>
       </c>
       <c r="C59">
-        <v>2497508.07040394</v>
+        <v>2679635.427546962</v>
       </c>
       <c r="D59">
-        <v>27560.78586142458</v>
+        <v>28849.12826388512</v>
       </c>
       <c r="E59">
-        <v>363416.1702642061</v>
+        <v>362516.6829171776</v>
       </c>
       <c r="F59">
-        <v>580.1180162168537</v>
+        <v>796.427187662724</v>
       </c>
       <c r="G59">
-        <v>3955.372851552637</v>
+        <v>3770.479827435554</v>
       </c>
       <c r="H59">
-        <v>889112.0653825211</v>
+        <v>889112.0025393739</v>
       </c>
       <c r="I59">
-        <v>3559715</v>
+        <v>3743270</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2699315.52901413</v>
+        <v>2909998.208723079</v>
       </c>
       <c r="O59">
-        <v>390976.9561256307</v>
+        <v>391365.8111810627</v>
       </c>
       <c r="P59">
-        <v>4535.490867769491</v>
+        <v>4566.907015098278</v>
       </c>
       <c r="Q59">
-        <v>6265.724215140916</v>
+        <v>7822.7742901375</v>
       </c>
       <c r="R59">
-        <v>15925.29664991629</v>
+        <v>19563.02863992399</v>
       </c>
       <c r="S59">
-        <v>22191.02086505721</v>
+        <v>27385.80293006149</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465365.09903546</v>
+        <v>465364.9653230005</v>
       </c>
       <c r="B60">
-        <v>116627.8946168965</v>
+        <v>121934.7672505461</v>
       </c>
       <c r="C60">
-        <v>1334844.481982894</v>
+        <v>1363180.924222741</v>
       </c>
       <c r="D60">
-        <v>16682.79298274923</v>
+        <v>18558.22737375234</v>
       </c>
       <c r="E60">
-        <v>220190.9579783517</v>
+        <v>221066.1970745279</v>
       </c>
       <c r="F60">
-        <v>218.2377711723228</v>
+        <v>213.9752311514338</v>
       </c>
       <c r="G60">
-        <v>1159.456822314217</v>
+        <v>1895.076050115961</v>
       </c>
       <c r="H60">
-        <v>465365.09903546</v>
+        <v>465364.9653230005</v>
       </c>
       <c r="I60">
-        <v>1976018</v>
+        <v>1939284</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1451472.37659979</v>
+        <v>1485115.691473287</v>
       </c>
       <c r="O60">
-        <v>236873.7509611009</v>
+        <v>239624.4244482802</v>
       </c>
       <c r="P60">
-        <v>1377.69459348654</v>
+        <v>2109.051281267395</v>
       </c>
       <c r="Q60">
-        <v>2745.574483850877</v>
+        <v>3459.374460696095</v>
       </c>
       <c r="R60">
-        <v>7710.843299382636</v>
+        <v>9156.25114345628</v>
       </c>
       <c r="S60">
-        <v>10456.41778323351</v>
+        <v>12615.62560415238</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9031777511</v>
+        <v>340623.9363845385</v>
       </c>
       <c r="B61">
-        <v>83784.90472567055</v>
+        <v>86123.72657099037</v>
       </c>
       <c r="C61">
-        <v>1008073.964203725</v>
+        <v>1015161.792121896</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>155160.3949597996</v>
+        <v>152013.3209554836</v>
       </c>
       <c r="F61">
-        <v>77.00497725706414</v>
+        <v>215.8298790011784</v>
       </c>
       <c r="G61">
-        <v>146.1239420606901</v>
+        <v>797.7082305109676</v>
       </c>
       <c r="H61">
-        <v>340623.9031777511</v>
+        <v>340623.9363845385</v>
       </c>
       <c r="I61">
-        <v>1410566</v>
+        <v>1369881</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1091858.868929396</v>
+        <v>1101285.518692887</v>
       </c>
       <c r="O61">
-        <v>155160.3949597996</v>
+        <v>152013.3209554836</v>
       </c>
       <c r="P61">
-        <v>223.1289193177543</v>
+        <v>1013.538109512146</v>
       </c>
       <c r="Q61">
-        <v>2188.89590184168</v>
+        <v>2160.26786714802</v>
       </c>
       <c r="R61">
-        <v>6912.461985246122</v>
+        <v>8605.645078761061</v>
       </c>
       <c r="S61">
-        <v>9101.357887087801</v>
+        <v>10765.91294590908</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469691.0201735105</v>
+        <v>469690.8969569539</v>
       </c>
       <c r="B62">
-        <v>121788.5929937607</v>
+        <v>118751.8911588101</v>
       </c>
       <c r="C62">
-        <v>1403009.288428576</v>
+        <v>1309408.971482248</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>214954.1497097016</v>
+        <v>204259.0119221442</v>
       </c>
       <c r="F62">
-        <v>350.537366147118</v>
+        <v>81.8911703634472</v>
       </c>
       <c r="G62">
-        <v>1355.391100453203</v>
+        <v>2538.726529759503</v>
       </c>
       <c r="H62">
-        <v>469691.0201735105</v>
+        <v>469690.8969569539</v>
       </c>
       <c r="I62">
-        <v>1861718</v>
+        <v>1986262</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1524797.881422337</v>
+        <v>1428160.862641058</v>
       </c>
       <c r="O62">
-        <v>214954.1497097016</v>
+        <v>204259.0119221442</v>
       </c>
       <c r="P62">
-        <v>1705.928466600321</v>
+        <v>2620.61770012295</v>
       </c>
       <c r="Q62">
-        <v>3598.384251500101</v>
+        <v>3163.468070460967</v>
       </c>
       <c r="R62">
-        <v>9738.520456035405</v>
+        <v>9519.147684498938</v>
       </c>
       <c r="S62">
-        <v>13336.90470753551</v>
+        <v>12682.61575495991</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20456.94673569403</v>
+        <v>20457.07278554089</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>65300.88526205449</v>
+        <v>65612.23423173491</v>
       </c>
       <c r="D63">
-        <v>622.8711887316921</v>
+        <v>791.999586299068</v>
       </c>
       <c r="E63">
-        <v>8520.490949898305</v>
+        <v>9176.987569137509</v>
       </c>
       <c r="F63">
-        <v>27.01471990938737</v>
+        <v>16.63965939474749</v>
       </c>
       <c r="G63">
-        <v>91.1142382978765</v>
+        <v>96.71886467552331</v>
       </c>
       <c r="H63">
-        <v>20456.94673569403</v>
+        <v>20457.07278554089</v>
       </c>
       <c r="I63">
-        <v>89843</v>
+        <v>95230</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>65300.88526205449</v>
+        <v>65612.23423173491</v>
       </c>
       <c r="O63">
-        <v>9143.362138629997</v>
+        <v>9968.987155436576</v>
       </c>
       <c r="P63">
-        <v>118.1289582072639</v>
+        <v>113.3585240702708</v>
       </c>
       <c r="Q63">
-        <v>135.8243882371544</v>
+        <v>120.8865904283739</v>
       </c>
       <c r="R63">
-        <v>386.7339694539701</v>
+        <v>306.0544910952097</v>
       </c>
       <c r="S63">
-        <v>522.5583576911245</v>
+        <v>426.9410815235836</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20630.98003478442</v>
+        <v>20631.05663993112</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>63724.12000468322</v>
+        <v>67279.3669413225</v>
       </c>
       <c r="D64">
-        <v>685.4868821051656</v>
+        <v>927.6098387836205</v>
       </c>
       <c r="E64">
-        <v>8612.751937700401</v>
+        <v>10713.6764644487</v>
       </c>
       <c r="F64">
-        <v>15.01078762689049</v>
+        <v>21.16552261195997</v>
       </c>
       <c r="G64">
-        <v>24.8778130296466</v>
+        <v>120.8670553290621</v>
       </c>
       <c r="H64">
-        <v>20630.98003478442</v>
+        <v>20631.05663993112</v>
       </c>
       <c r="I64">
-        <v>92116</v>
+        <v>98385</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>63724.12000468322</v>
+        <v>67279.3669413225</v>
       </c>
       <c r="O64">
-        <v>9298.238819805567</v>
+        <v>11641.28630323232</v>
       </c>
       <c r="P64">
-        <v>39.88860065653709</v>
+        <v>142.0325779410221</v>
       </c>
       <c r="Q64">
-        <v>144.60358418954</v>
+        <v>142.7655932758967</v>
       </c>
       <c r="R64">
-        <v>369.3480052467804</v>
+        <v>454.6056787903651</v>
       </c>
       <c r="S64">
-        <v>513.9515894363203</v>
+        <v>597.3712720662618</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.897375921427</v>
+        <v>1767.982827232674</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5320.462645860754</v>
+        <v>5312.846283970611</v>
       </c>
       <c r="D65">
-        <v>58.28611406254745</v>
+        <v>64.65439377777123</v>
       </c>
       <c r="E65">
-        <v>743.8376870298228</v>
+        <v>731.0878092237055</v>
       </c>
       <c r="F65">
-        <v>1.224004330601923</v>
+        <v>0.4651141557803842</v>
       </c>
       <c r="G65">
-        <v>10.28967812016829</v>
+        <v>4.707650930727514</v>
       </c>
       <c r="H65">
-        <v>1767.897375921427</v>
+        <v>1767.982827232674</v>
       </c>
       <c r="I65">
-        <v>8357</v>
+        <v>7706</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5320.462645860754</v>
+        <v>5312.846283970611</v>
       </c>
       <c r="O65">
-        <v>802.1238010923702</v>
+        <v>795.7422030014767</v>
       </c>
       <c r="P65">
-        <v>11.51368245077021</v>
+        <v>5.172765086507898</v>
       </c>
       <c r="Q65">
-        <v>12.7462106941365</v>
+        <v>13.43086584136286</v>
       </c>
       <c r="R65">
-        <v>31.47344367195039</v>
+        <v>31.40175641721678</v>
       </c>
       <c r="S65">
-        <v>44.21965436608689</v>
+        <v>44.83262225857964</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>122.9354459261181</v>
+        <v>123.0423139316789</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>376.7061895503975</v>
+        <v>374.5036151061205</v>
       </c>
       <c r="D66">
-        <v>3.310724598144423</v>
+        <v>4.690968841613724</v>
       </c>
       <c r="E66">
-        <v>46.1477712249822</v>
+        <v>52.89432920791789</v>
       </c>
       <c r="F66">
-        <v>0.106704597389479</v>
+        <v>0.1514032103537794</v>
       </c>
       <c r="G66">
-        <v>0.3760111402172146</v>
+        <v>0.3489150495671068</v>
       </c>
       <c r="H66">
-        <v>122.9354459261181</v>
+        <v>123.0423139316789</v>
       </c>
       <c r="I66">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>376.7061895503975</v>
+        <v>374.5036151061205</v>
       </c>
       <c r="O66">
-        <v>49.45849582312663</v>
+        <v>57.58529804953162</v>
       </c>
       <c r="P66">
-        <v>0.4827157376066936</v>
+        <v>0.5003182599208862</v>
       </c>
       <c r="Q66">
-        <v>1.535415832561216</v>
+        <v>1.477201335034429</v>
       </c>
       <c r="R66">
-        <v>2.955990084312148</v>
+        <v>2.53689582668075</v>
       </c>
       <c r="S66">
-        <v>4.491405916873363</v>
+        <v>4.014097161715179</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.1209922194001</v>
+        <v>203.0210291093963</v>
       </c>
       <c r="B67">
-        <v>47.20874447473047</v>
+        <v>43.86614861361763</v>
       </c>
       <c r="C67">
-        <v>324.8803935332386</v>
+        <v>330.0716709547595</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>137.0383697593871</v>
+        <v>112.4549888775208</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.1209922194001</v>
+        <v>203.0210291093963</v>
       </c>
       <c r="I67">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>372.089138007969</v>
+        <v>373.9378195683771</v>
       </c>
       <c r="O67">
-        <v>137.0383697593871</v>
+        <v>112.4549888775208</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2.632011821190811</v>
+        <v>2.105114454112046</v>
       </c>
       <c r="R67">
-        <v>18.95752354619059</v>
+        <v>16.99120836611047</v>
       </c>
       <c r="S67">
-        <v>21.5895353673814</v>
+        <v>19.09632282022252</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>261.9598067952655</v>
+        <v>262.0754995342426</v>
       </c>
       <c r="B68">
-        <v>58.31616212355415</v>
+        <v>58.6798783826783</v>
       </c>
       <c r="C68">
-        <v>433.8388859003853</v>
+        <v>422.1294780737745</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>151.6008745388389</v>
+        <v>158.6543250796151</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>261.9598067952655</v>
+        <v>262.0754995342426</v>
       </c>
       <c r="I68">
-        <v>911</v>
+        <v>839</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>492.1550480239394</v>
+        <v>480.8093564564528</v>
       </c>
       <c r="O68">
-        <v>151.6008745388389</v>
+        <v>158.6543250796151</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.251413584771798</v>
+        <v>2.128213637062951</v>
       </c>
       <c r="R68">
-        <v>16.2354990815514</v>
+        <v>19.68728158826149</v>
       </c>
       <c r="S68">
-        <v>17.4869126663232</v>
+        <v>21.81549522532444</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2406.095892317251</v>
+        <v>2405.952321586088</v>
       </c>
       <c r="B69">
-        <v>565.177040490496</v>
+        <v>553.3577990496816</v>
       </c>
       <c r="C69">
-        <v>3889.734535810619</v>
+        <v>3926.083874125365</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1491.784836330879</v>
+        <v>1602.527177220438</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2406.095892317251</v>
+        <v>2405.952321586088</v>
       </c>
       <c r="I69">
-        <v>7675</v>
+        <v>7577</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4454.911576301114</v>
+        <v>4479.441673175047</v>
       </c>
       <c r="O69">
-        <v>1491.784836330879</v>
+        <v>1602.527177220438</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>14.68152526117992</v>
+        <v>19.3234276735417</v>
       </c>
       <c r="R69">
-        <v>157.4852976235205</v>
+        <v>146.570956759756</v>
       </c>
       <c r="S69">
-        <v>172.1668228847004</v>
+        <v>165.8943844332977</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1503.091725471137</v>
+        <v>1502.853812963371</v>
       </c>
       <c r="B70">
-        <v>366.4287114757347</v>
+        <v>336.6049211827064</v>
       </c>
       <c r="C70">
-        <v>2431.696651722653</v>
+        <v>2410.459174716774</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>992.3669229973198</v>
+        <v>791.6421370572949</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1503.091725471137</v>
+        <v>1502.853812963371</v>
       </c>
       <c r="I70">
-        <v>4732</v>
+        <v>4772</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2798.125363198388</v>
+        <v>2747.06409589948</v>
       </c>
       <c r="O70">
-        <v>992.3669229973198</v>
+        <v>791.6421370572949</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>11.53087336943445</v>
+        <v>10.66407626480307</v>
       </c>
       <c r="R70">
-        <v>91.57075190726893</v>
+        <v>84.28343286616536</v>
       </c>
       <c r="S70">
-        <v>103.1016252767034</v>
+        <v>94.94750913096843</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.03310282849</v>
+        <v>19901.08441125277</v>
       </c>
       <c r="B71">
-        <v>4722.999038136408</v>
+        <v>4506.936874404365</v>
       </c>
       <c r="C71">
-        <v>31465.29112391443</v>
+        <v>32152.2089700179</v>
       </c>
       <c r="D71">
-        <v>646.6643869832853</v>
+        <v>706.9952043914794</v>
       </c>
       <c r="E71">
-        <v>10717.15323180955</v>
+        <v>10911.04634787977</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.03310282849</v>
+        <v>19901.08441125277</v>
       </c>
       <c r="I71">
-        <v>66702</v>
+        <v>59839</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36188.29016205084</v>
+        <v>36659.14584442227</v>
       </c>
       <c r="O71">
-        <v>11363.81761879284</v>
+        <v>11618.04155227125</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>176.1960246996207</v>
+        <v>163.152676815331</v>
       </c>
       <c r="R71">
-        <v>1121.958671419748</v>
+        <v>1239.409703778954</v>
       </c>
       <c r="S71">
-        <v>1298.154696119368</v>
+        <v>1402.562380594285</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41982.13112156752</v>
+        <v>41981.9211318396</v>
       </c>
       <c r="B72">
-        <v>10250.9057278935</v>
+        <v>9231.216659719206</v>
       </c>
       <c r="C72">
-        <v>68799.41892553584</v>
+        <v>65762.24468814877</v>
       </c>
       <c r="D72">
-        <v>1808.228558430153</v>
+        <v>1712.108823585342</v>
       </c>
       <c r="E72">
-        <v>27215.43042114503</v>
+        <v>27028.62511295635</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41982.13112156752</v>
+        <v>41981.9211318396</v>
       </c>
       <c r="I72">
-        <v>138105</v>
+        <v>135135</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>79050.32465342933</v>
+        <v>74993.46134786798</v>
       </c>
       <c r="O72">
-        <v>29023.65897957519</v>
+        <v>28740.73393654169</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>286.441495868456</v>
+        <v>260.1909809753813</v>
       </c>
       <c r="R72">
-        <v>2385.933190049717</v>
+        <v>2555.275547162546</v>
       </c>
       <c r="S72">
-        <v>2672.374685918173</v>
+        <v>2815.466528137928</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44204.9075263042</v>
+        <v>44205.12525746594</v>
       </c>
       <c r="B73">
-        <v>10239.33680015401</v>
+        <v>10277.93524738197</v>
       </c>
       <c r="C73">
-        <v>71736.26984922812</v>
+        <v>70260.13378302239</v>
       </c>
       <c r="D73">
-        <v>1470.86843406705</v>
+        <v>1848.840526193355</v>
       </c>
       <c r="E73">
-        <v>24141.93032080563</v>
+        <v>27739.79405339876</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44204.9075263042</v>
+        <v>44205.12525746594</v>
       </c>
       <c r="I73">
-        <v>143182</v>
+        <v>141220</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>81975.60664938213</v>
+        <v>80538.06903040435</v>
       </c>
       <c r="O73">
-        <v>25612.79875487268</v>
+        <v>29588.63457959212</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>279.4887498929415</v>
+        <v>324.6009365679932</v>
       </c>
       <c r="R73">
-        <v>3004.609532452422</v>
+        <v>2804.547616334839</v>
       </c>
       <c r="S73">
-        <v>3284.098282345363</v>
+        <v>3129.148552902832</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78746.07425517775</v>
+        <v>78746.13328018214</v>
       </c>
       <c r="B74">
-        <v>17140.90716751132</v>
+        <v>18009.00527728118</v>
       </c>
       <c r="C74">
-        <v>120446.1748019137</v>
+        <v>122831.0352549708</v>
       </c>
       <c r="D74">
-        <v>2582.501556681027</v>
+        <v>2465.107726454394</v>
       </c>
       <c r="E74">
-        <v>42988.97746066097</v>
+        <v>45412.55581806241</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78746.07425517775</v>
+        <v>78746.13328018214</v>
       </c>
       <c r="I74">
-        <v>264030</v>
+        <v>247739</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>137587.081969425</v>
+        <v>140840.040532252</v>
       </c>
       <c r="O74">
-        <v>45571.479017342</v>
+        <v>47877.66354451681</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>432.2326739568194</v>
+        <v>597.6401905339131</v>
       </c>
       <c r="R74">
-        <v>5234.123006978983</v>
+        <v>5446.787999838066</v>
       </c>
       <c r="S74">
-        <v>5666.355680935802</v>
+        <v>6044.428190371979</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38059.90214268472</v>
+        <v>38060.07595879404</v>
       </c>
       <c r="B75">
-        <v>8515.136039738083</v>
+        <v>9272.786428107183</v>
       </c>
       <c r="C75">
-        <v>60758.64722278009</v>
+        <v>62284.76458492076</v>
       </c>
       <c r="D75">
-        <v>1158.304490225919</v>
+        <v>1330.271848308719</v>
       </c>
       <c r="E75">
-        <v>20054.34880983879</v>
+        <v>20874.11185159801</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38059.90214268472</v>
+        <v>38060.07595879404</v>
       </c>
       <c r="I75">
-        <v>122976</v>
+        <v>125652</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>69273.78326251818</v>
+        <v>71557.55101302794</v>
       </c>
       <c r="O75">
-        <v>21212.65330006471</v>
+        <v>22204.38369990673</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>290.7940985186481</v>
+        <v>294.4199717679618</v>
       </c>
       <c r="R75">
-        <v>2629.931535452976</v>
+        <v>2456.309335002004</v>
       </c>
       <c r="S75">
-        <v>2920.725633971625</v>
+        <v>2750.729306769966</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79351.09672165135</v>
+        <v>79350.96825406051</v>
       </c>
       <c r="B76">
-        <v>18854.70075163345</v>
+        <v>18533.87908746109</v>
       </c>
       <c r="C76">
-        <v>130108.0468429078</v>
+        <v>127887.1722638907</v>
       </c>
       <c r="D76">
-        <v>2475.0045238516</v>
+        <v>2950.201819610162</v>
       </c>
       <c r="E76">
-        <v>46085.66878999935</v>
+        <v>47075.50885880564</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79351.09672165135</v>
+        <v>79350.96825406051</v>
       </c>
       <c r="I76">
-        <v>259864</v>
+        <v>261170</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>148962.7475945413</v>
+        <v>146421.0513513518</v>
       </c>
       <c r="O76">
-        <v>48560.67331385095</v>
+        <v>50025.7106784158</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>647.4569902709491</v>
+        <v>563.5300598234704</v>
       </c>
       <c r="R76">
-        <v>5518.061270862887</v>
+        <v>4692.022252704417</v>
       </c>
       <c r="S76">
-        <v>6165.518261133836</v>
+        <v>5255.552312527888</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.99627523153</v>
+        <v>45067.9825597323</v>
       </c>
       <c r="B77">
-        <v>9933.187629825658</v>
+        <v>9915.088294605699</v>
       </c>
       <c r="C77">
-        <v>71065.54991005336</v>
+        <v>71601.50713647425</v>
       </c>
       <c r="D77">
-        <v>1485.6283167232</v>
+        <v>1760.612659309662</v>
       </c>
       <c r="E77">
-        <v>24115.93508480223</v>
+        <v>26260.88936907518</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.99627523153</v>
+        <v>45067.9825597323</v>
       </c>
       <c r="I77">
-        <v>147298</v>
+        <v>148185</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>80998.73753987902</v>
+        <v>81516.59543107994</v>
       </c>
       <c r="O77">
-        <v>25601.56340152543</v>
+        <v>28021.50202838484</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>358.6209694056889</v>
+        <v>410.9317991329868</v>
       </c>
       <c r="R77">
-        <v>2928.480583989409</v>
+        <v>3237.511152074804</v>
       </c>
       <c r="S77">
-        <v>3287.101553395098</v>
+        <v>3648.44295120779</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14294.87122686461</v>
+        <v>14294.94303421317</v>
       </c>
       <c r="B78">
-        <v>3284.443613204448</v>
+        <v>3401.367653174557</v>
       </c>
       <c r="C78">
-        <v>23553.53452244211</v>
+        <v>23004.9936531807</v>
       </c>
       <c r="D78">
-        <v>527.8541962016343</v>
+        <v>554.2612551679407</v>
       </c>
       <c r="E78">
-        <v>9840.671101333412</v>
+        <v>9056.594882568996</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14294.87122686461</v>
+        <v>14294.94303421317</v>
       </c>
       <c r="I78">
-        <v>45795</v>
+        <v>45437</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26837.97813564656</v>
+        <v>26406.36130635526</v>
       </c>
       <c r="O78">
-        <v>10368.52529753505</v>
+        <v>9610.856137736937</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>99.18205964528532</v>
+        <v>81.10908256033099</v>
       </c>
       <c r="R78">
-        <v>1072.99374324914</v>
+        <v>846.061892971001</v>
       </c>
       <c r="S78">
-        <v>1172.175802894425</v>
+        <v>927.170975531332</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27737.8919564537</v>
+        <v>27738.13830686835</v>
       </c>
       <c r="B79">
-        <v>6109.736723157349</v>
+        <v>6530.396215213163</v>
       </c>
       <c r="C79">
-        <v>43338.34256867244</v>
+        <v>43769.37875112126</v>
       </c>
       <c r="D79">
-        <v>863.2578988428697</v>
+        <v>1162.508686429056</v>
       </c>
       <c r="E79">
-        <v>14701.64973948602</v>
+        <v>16120.57116923586</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27737.8919564537</v>
+        <v>27738.13830686835</v>
       </c>
       <c r="I79">
-        <v>89357</v>
+        <v>90767</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>49448.0792918298</v>
+        <v>50299.77496633442</v>
       </c>
       <c r="O79">
-        <v>15564.90763832889</v>
+        <v>17283.07985566492</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>231.6392039676703</v>
+        <v>242.8011758659764</v>
       </c>
       <c r="R79">
-        <v>2049.987135078279</v>
+        <v>2027.18987573814</v>
       </c>
       <c r="S79">
-        <v>2281.626339045949</v>
+        <v>2269.991051604116</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.071057004624</v>
+        <v>2820.004720524263</v>
       </c>
       <c r="B80">
-        <v>659.4465099463488</v>
+        <v>639.5480141865547</v>
       </c>
       <c r="C80">
-        <v>4485.326848356584</v>
+        <v>4595.894296655324</v>
       </c>
       <c r="D80">
-        <v>90.59535582372682</v>
+        <v>105.169500641644</v>
       </c>
       <c r="E80">
-        <v>1502.050845614351</v>
+        <v>1714.283803393593</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.071057004624</v>
+        <v>2820.004720524263</v>
       </c>
       <c r="I80">
-        <v>9446</v>
+        <v>9012</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5144.773358302932</v>
+        <v>5235.442310841879</v>
       </c>
       <c r="O80">
-        <v>1592.646201438077</v>
+        <v>1819.453304035236</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>18.69210689457434</v>
+        <v>23.83627456204856</v>
       </c>
       <c r="R80">
-        <v>160.4665893121979</v>
+        <v>175.9058478954971</v>
       </c>
       <c r="S80">
-        <v>179.1586962067723</v>
+        <v>199.7421224575456</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.989126043567</v>
+        <v>3590.953206082611</v>
       </c>
       <c r="B81">
-        <v>878.2546095374069</v>
+        <v>815.7526433717106</v>
       </c>
       <c r="C81">
-        <v>5862.633749153193</v>
+        <v>5832.700926372686</v>
       </c>
       <c r="D81">
-        <v>132.290421792739</v>
+        <v>118.7745199207533</v>
       </c>
       <c r="E81">
-        <v>2092.599243246223</v>
+        <v>1821.37787839963</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.989126043567</v>
+        <v>3590.953206082611</v>
       </c>
       <c r="I81">
-        <v>11700</v>
+        <v>11548</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6740.8883586906</v>
+        <v>6648.453569744396</v>
       </c>
       <c r="O81">
-        <v>2224.889665038962</v>
+        <v>1940.152398320383</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>19.3570288494701</v>
+        <v>26.24617016351331</v>
       </c>
       <c r="R81">
-        <v>204.9142265005727</v>
+        <v>230.6101155341747</v>
       </c>
       <c r="S81">
-        <v>224.2712553500428</v>
+        <v>256.856285697688</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1156.131160258414</v>
+        <v>1155.903123915458</v>
       </c>
       <c r="B82">
-        <v>252.7933921769388</v>
+        <v>261.0610243651151</v>
       </c>
       <c r="C82">
-        <v>1780.406339122046</v>
+        <v>1818.07386246201</v>
       </c>
       <c r="D82">
-        <v>40.49495064281837</v>
+        <v>41.46019624522334</v>
       </c>
       <c r="E82">
-        <v>637.9770357447721</v>
+        <v>702.1389933145122</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1156.131160258414</v>
+        <v>1155.903123915458</v>
       </c>
       <c r="I82">
-        <v>3856</v>
+        <v>3640</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2033.199731298985</v>
+        <v>2079.134886827125</v>
       </c>
       <c r="O82">
-        <v>678.4719863875905</v>
+        <v>743.5991895597355</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8.897352235861678</v>
+        <v>8.610387529908969</v>
       </c>
       <c r="R82">
-        <v>84.17780917390749</v>
+        <v>78.44750699831313</v>
       </c>
       <c r="S82">
-        <v>93.07516140976917</v>
+        <v>87.05789452822211</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13237.90579063105</v>
+        <v>13238.00906077587</v>
       </c>
       <c r="B83">
-        <v>1859.522427776203</v>
+        <v>1941.333666429381</v>
       </c>
       <c r="C83">
-        <v>21586.47840543946</v>
+        <v>22226.35053541491</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>8180.103228168597</v>
+        <v>7766.893077501925</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13237.90579063105</v>
+        <v>13238.00906077587</v>
       </c>
       <c r="I83">
-        <v>42388</v>
+        <v>44931</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>23446.00083321566</v>
+        <v>24167.6842018443</v>
       </c>
       <c r="O83">
-        <v>8180.103228168597</v>
+        <v>7766.893077501925</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>9.302516496550233</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>895.6273996319872</v>
+        <v>850.6668542776382</v>
       </c>
       <c r="S83">
-        <v>904.9299161285373</v>
+        <v>850.6668542776382</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.073078760825</v>
+        <v>6788.001605678313</v>
       </c>
       <c r="B84">
-        <v>987.8294841604718</v>
+        <v>1000.869554249136</v>
       </c>
       <c r="C84">
-        <v>11870.69196084673</v>
+        <v>11293.76300323242</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4197.093604345195</v>
+        <v>4276.654568657579</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.073078760825</v>
+        <v>6788.001605678313</v>
       </c>
       <c r="I84">
-        <v>21740</v>
+        <v>22050</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12858.5214450072</v>
+        <v>12294.63255748156</v>
       </c>
       <c r="O84">
-        <v>4197.093604345195</v>
+        <v>4276.654568657579</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>6.151112547306643</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>480.3190448452911</v>
+        <v>481.2502486014935</v>
       </c>
       <c r="S84">
-        <v>486.4701573925977</v>
+        <v>481.2502486014935</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1508.039534279898</v>
+        <v>1507.889660281061</v>
       </c>
       <c r="B85">
-        <v>220.522906611194</v>
+        <v>203.4619781689767</v>
       </c>
       <c r="C85">
-        <v>2495.582493196268</v>
+        <v>2464.382559106652</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>955.2497648718681</v>
+        <v>860.0056683436595</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1508.039534279898</v>
+        <v>1507.889660281061</v>
       </c>
       <c r="I85">
-        <v>4889</v>
+        <v>4998</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,22 +6490,22 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2716.105399807463</v>
+        <v>2667.844537275629</v>
       </c>
       <c r="O85">
-        <v>955.2497648718681</v>
+        <v>860.0056683436595</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.9698273552080201</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>101.031459307881</v>
+        <v>100.3174209118854</v>
       </c>
       <c r="S85">
-        <v>102.001286663089</v>
+        <v>100.3174209118854</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.96296896553</v>
+        <v>25212.97596710918</v>
       </c>
       <c r="B86">
-        <v>3545.478573976962</v>
+        <v>3846.254074771216</v>
       </c>
       <c r="C86">
-        <v>40878.90209412875</v>
+        <v>43644.3545870548</v>
       </c>
       <c r="D86">
-        <v>685.371388418516</v>
+        <v>606.6263621421934</v>
       </c>
       <c r="E86">
-        <v>16656.27251509254</v>
+        <v>15030.73444326684</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.96296896553</v>
+        <v>25212.97596710918</v>
       </c>
       <c r="I86">
-        <v>78513</v>
+        <v>75852</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>44424.38066810571</v>
+        <v>47490.60866182602</v>
       </c>
       <c r="O86">
-        <v>17341.64390351106</v>
+        <v>15637.36080540903</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>26.68855766976134</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1936.841905474583</v>
+        <v>1948.007638257344</v>
       </c>
       <c r="S86">
-        <v>1963.530463144344</v>
+        <v>1948.007638257344</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6443.956892061885</v>
+        <v>6444.134858534833</v>
       </c>
       <c r="B87">
-        <v>931.5320906587567</v>
+        <v>969.6601696870285</v>
       </c>
       <c r="C87">
-        <v>10736.84447098905</v>
+        <v>11090.58258279183</v>
       </c>
       <c r="D87">
-        <v>179.692716575071</v>
+        <v>174.704428206154</v>
       </c>
       <c r="E87">
-        <v>3961.208925363111</v>
+        <v>4053.487210329706</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6443.956892061885</v>
+        <v>6444.134858534833</v>
       </c>
       <c r="I87">
-        <v>21817</v>
+        <v>20508</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,22 +6634,22 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11668.37656164781</v>
+        <v>12060.24275247886</v>
       </c>
       <c r="O87">
-        <v>4140.901641938182</v>
+        <v>4228.19163853586</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1.922953732607274</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>499.3549368329271</v>
+        <v>426.0592636812801</v>
       </c>
       <c r="S87">
-        <v>501.2778905655343</v>
+        <v>426.0592636812801</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55704.12389458194</v>
+        <v>55703.89508500056</v>
       </c>
       <c r="B88">
-        <v>8157.309796141739</v>
+        <v>7782.394231427978</v>
       </c>
       <c r="C88">
-        <v>91742.55215886426</v>
+        <v>91990.80646036037</v>
       </c>
       <c r="D88">
-        <v>1273.93781000431</v>
+        <v>1412.250437785702</v>
       </c>
       <c r="E88">
-        <v>29909.07548303397</v>
+        <v>32758.83667819854</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55704.12389458194</v>
+        <v>55703.89508500056</v>
       </c>
       <c r="I88">
-        <v>171470</v>
+        <v>180953</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,22 +6706,22 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>99899.861955006</v>
+        <v>99773.20069178836</v>
       </c>
       <c r="O88">
-        <v>31183.01329303828</v>
+        <v>34171.08711598424</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>49.06859970557044</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>4041.728510187716</v>
+        <v>4330.271531544589</v>
       </c>
       <c r="S88">
-        <v>4090.797109893286</v>
+        <v>4330.271531544589</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.0629894844</v>
+        <v>201456.0709741876</v>
       </c>
       <c r="B89">
-        <v>32608.30598317038</v>
+        <v>29879.11259066668</v>
       </c>
       <c r="C89">
-        <v>351078.2522775202</v>
+        <v>339216.976035131</v>
       </c>
       <c r="D89">
-        <v>5680.122900607722</v>
+        <v>4193.355578408412</v>
       </c>
       <c r="E89">
-        <v>132134.9204627717</v>
+        <v>112031.1992286423</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.0629894844</v>
+        <v>201456.0709741876</v>
       </c>
       <c r="I89">
-        <v>642199</v>
+        <v>653495</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>383686.5582606906</v>
+        <v>369096.0886257977</v>
       </c>
       <c r="O89">
-        <v>137815.0433633795</v>
+        <v>116224.5548070508</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>237.8650630063023</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>15698.96411448306</v>
+        <v>14378.42836089859</v>
       </c>
       <c r="S89">
-        <v>15936.82917748937</v>
+        <v>14378.42836089859</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15485.89344397089</v>
+        <v>15486.02720359195</v>
       </c>
       <c r="B90">
-        <v>2220.655328286312</v>
+        <v>2270.625980933322</v>
       </c>
       <c r="C90">
-        <v>25658.07881191105</v>
+        <v>26221.14493041163</v>
       </c>
       <c r="D90">
-        <v>388.7635176240575</v>
+        <v>411.9187167974289</v>
       </c>
       <c r="E90">
-        <v>10109.76279739729</v>
+        <v>8769.651743114062</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15485.89344397089</v>
+        <v>15486.02720359195</v>
       </c>
       <c r="I90">
-        <v>50943</v>
+        <v>51825</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,22 +6850,22 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>27878.73414019736</v>
+        <v>28491.77091134495</v>
       </c>
       <c r="O90">
-        <v>10498.52631502135</v>
+        <v>9181.570459911491</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>16.08124994859923</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1145.190725156577</v>
+        <v>1320.146000743587</v>
       </c>
       <c r="S90">
-        <v>1161.271975105176</v>
+        <v>1320.146000743587</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.88586860573</v>
+        <v>14403.86578181623</v>
       </c>
       <c r="B91">
-        <v>2033.27333398876</v>
+        <v>2133.852276290261</v>
       </c>
       <c r="C91">
-        <v>24027.64750360853</v>
+        <v>24435.74198842167</v>
       </c>
       <c r="D91">
-        <v>345.5815869746976</v>
+        <v>319.4850531831947</v>
       </c>
       <c r="E91">
-        <v>8899.197643419913</v>
+        <v>8046.420075606163</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.88586860573</v>
+        <v>14403.86578181623</v>
       </c>
       <c r="I91">
-        <v>47432</v>
+        <v>46201</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,22 +6922,22 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26060.92083759729</v>
+        <v>26569.59426471193</v>
       </c>
       <c r="O91">
-        <v>9244.779230394612</v>
+        <v>8365.905128789358</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>4.904885306658896</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1129.427266960023</v>
+        <v>977.6053763247486</v>
       </c>
       <c r="S91">
-        <v>1134.332152266681</v>
+        <v>977.6053763247486</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46956.01727031415</v>
+        <v>46955.8622661305</v>
       </c>
       <c r="B92">
-        <v>6699.648349784517</v>
+        <v>6699.379920201095</v>
       </c>
       <c r="C92">
-        <v>80484.25325239223</v>
+        <v>76588.31067093414</v>
       </c>
       <c r="D92">
-        <v>1195.296753920337</v>
+        <v>1401.338151324951</v>
       </c>
       <c r="E92">
-        <v>27029.93850953148</v>
+        <v>28214.77322880875</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46956.01727031415</v>
+        <v>46955.8622661305</v>
       </c>
       <c r="I92">
-        <v>153920</v>
+        <v>150405</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>87183.90160217675</v>
+        <v>83287.69059113524</v>
       </c>
       <c r="O92">
-        <v>28225.23526345182</v>
+        <v>29616.1113801337</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>45.33990798539698</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>3301.112554237296</v>
+        <v>3450.929374583093</v>
       </c>
       <c r="S92">
-        <v>3346.452462222693</v>
+        <v>3450.929374583093</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24419.8725166774</v>
+        <v>24420.01757368297</v>
       </c>
       <c r="B93">
-        <v>3642.072870440954</v>
+        <v>3517.855241599807</v>
       </c>
       <c r="C93">
-        <v>40937.55920110996</v>
+        <v>41310.17139493519</v>
       </c>
       <c r="D93">
-        <v>590.5241653053888</v>
+        <v>575.2628071605582</v>
       </c>
       <c r="E93">
-        <v>14738.99210681609</v>
+        <v>13887.10380900831</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24419.8725166774</v>
+        <v>24420.01757368297</v>
       </c>
       <c r="I93">
-        <v>76246</v>
+        <v>78476</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44579.63207155091</v>
+        <v>44828.026636535</v>
       </c>
       <c r="O93">
-        <v>15329.51627212148</v>
+        <v>14462.36661616887</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>17.43671999518719</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1670.567566694848</v>
+        <v>1640.238204100168</v>
       </c>
       <c r="S93">
-        <v>1688.004286690035</v>
+        <v>1640.238204100168</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.92648884049</v>
+        <v>70371.91971047857</v>
       </c>
       <c r="B94">
-        <v>10276.08195504667</v>
+        <v>10763.8768064859</v>
       </c>
       <c r="C94">
-        <v>116137.9586241846</v>
+        <v>120249.9870123147</v>
       </c>
       <c r="D94">
-        <v>1526.603863483136</v>
+        <v>1780.205785137858</v>
       </c>
       <c r="E94">
-        <v>39572.88388054376</v>
+        <v>42571.89262692563</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.92648884049</v>
+        <v>70371.91971047857</v>
       </c>
       <c r="I94">
-        <v>219378</v>
+        <v>223282</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>126414.0405792313</v>
+        <v>131013.8638188006</v>
       </c>
       <c r="O94">
-        <v>41099.48774402689</v>
+        <v>44352.09841206348</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>65.81151722548056</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>4694.502118766843</v>
+        <v>5067.58852402599</v>
       </c>
       <c r="S94">
-        <v>4760.313635992323</v>
+        <v>5067.58852402599</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.874699588427</v>
+        <v>7573.873961717178</v>
       </c>
       <c r="B95">
-        <v>1098.21368231131</v>
+        <v>1061.003868251934</v>
       </c>
       <c r="C95">
-        <v>12590.03305200559</v>
+        <v>12718.27307085426</v>
       </c>
       <c r="D95">
-        <v>194.2646123345545</v>
+        <v>197.5175674159601</v>
       </c>
       <c r="E95">
-        <v>4864.636382861626</v>
+        <v>4492.4782860856</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.874699588427</v>
+        <v>7573.873961717178</v>
       </c>
       <c r="I95">
-        <v>24667</v>
+        <v>24459</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,22 +7210,22 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13688.24673431689</v>
+        <v>13779.27693910619</v>
       </c>
       <c r="O95">
-        <v>5058.900995196181</v>
+        <v>4689.99585350156</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>8.766680485498901</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>708.5753688259833</v>
+        <v>496.5681398029704</v>
       </c>
       <c r="S95">
-        <v>717.3420493114822</v>
+        <v>496.5681398029704</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45037.96373801734</v>
+        <v>45037.97409822464</v>
       </c>
       <c r="B96">
-        <v>6569.386628934931</v>
+        <v>6207.258502700473</v>
       </c>
       <c r="C96">
-        <v>74847.59578612004</v>
+        <v>73675.30882111154</v>
       </c>
       <c r="D96">
-        <v>1031.455862140257</v>
+        <v>1224.721481982911</v>
       </c>
       <c r="E96">
-        <v>25815.00601442918</v>
+        <v>26101.39844066318</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45037.96373801734</v>
+        <v>45037.97409822464</v>
       </c>
       <c r="I96">
-        <v>137789</v>
+        <v>141619</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,22 +7282,22 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>81416.98241505497</v>
+        <v>79882.56732381201</v>
       </c>
       <c r="O96">
-        <v>26846.46187656944</v>
+        <v>27326.11992264609</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>25.81712142100779</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2545.46718732123</v>
+        <v>3065.220987623417</v>
       </c>
       <c r="S96">
-        <v>2571.284308742238</v>
+        <v>3065.220987623417</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10072.85308584077</v>
+        <v>10073.08424576577</v>
       </c>
       <c r="B97">
-        <v>1368.994851779348</v>
+        <v>1539.723401644652</v>
       </c>
       <c r="C97">
-        <v>16579.72387647159</v>
+        <v>17246.35816165409</v>
       </c>
       <c r="D97">
-        <v>256.0420841030929</v>
+        <v>279.7606933507293</v>
       </c>
       <c r="E97">
-        <v>5795.990985530357</v>
+        <v>6056.982293529369</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10072.85308584077</v>
+        <v>10073.08424576577</v>
       </c>
       <c r="I97">
-        <v>32421</v>
+        <v>31775</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,22 +7354,22 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>17948.71872825094</v>
+        <v>18786.08156329875</v>
       </c>
       <c r="O97">
-        <v>6052.03306963345</v>
+        <v>6336.742986880098</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>6.285044668564406</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>757.3210056080656</v>
+        <v>763.8178799333736</v>
       </c>
       <c r="S97">
-        <v>763.60605027663</v>
+        <v>763.8178799333736</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11375.81891522825</v>
+        <v>11376.18172945828</v>
       </c>
       <c r="B98">
-        <v>2272.593186822007</v>
+        <v>2202.078461710129</v>
       </c>
       <c r="C98">
-        <v>18550.64116327569</v>
+        <v>18506.2177238077</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>7570.666101374235</v>
+        <v>6856.555625862575</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11375.81891522825</v>
+        <v>11376.18172945828</v>
       </c>
       <c r="I98">
-        <v>28297</v>
+        <v>30449</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20823.2343500977</v>
+        <v>20708.29618551783</v>
       </c>
       <c r="O98">
-        <v>7570.666101374235</v>
+        <v>6856.555625862575</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>111.689223163569</v>
+        <v>100.4215394243788</v>
       </c>
       <c r="R98">
-        <v>743.4749282309513</v>
+        <v>741.5475209769322</v>
       </c>
       <c r="S98">
-        <v>855.1641513945202</v>
+        <v>841.969060401311</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1496.544504210363</v>
+        <v>1691.363609579581</v>
       </c>
       <c r="V98">
-        <v>1496.544504210363</v>
+        <v>1691.363609579581</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93359.01748281594</v>
+        <v>93359.17167650165</v>
       </c>
       <c r="B99">
-        <v>17684.98240947309</v>
+        <v>17712.34460814855</v>
       </c>
       <c r="C99">
-        <v>152523.8695137038</v>
+        <v>151878.1690754693</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>58982.3077583858</v>
+        <v>57234.83151968927</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93359.01748281594</v>
+        <v>93359.17167650165</v>
       </c>
       <c r="I99">
-        <v>255378</v>
+        <v>267478</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>170208.8519231768</v>
+        <v>169590.5136836179</v>
       </c>
       <c r="O99">
-        <v>58982.3077583858</v>
+        <v>57234.83151968927</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>589.0195257290355</v>
+        <v>656.3626879603112</v>
       </c>
       <c r="R99">
-        <v>5375.697326713607</v>
+        <v>5586.382677590294</v>
       </c>
       <c r="S99">
-        <v>5964.716852442642</v>
+        <v>6242.745365550605</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>12614.43526571205</v>
+        <v>12703.7140793612</v>
       </c>
       <c r="V99">
-        <v>12614.43526571205</v>
+        <v>12703.7140793612</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20817.00752159711</v>
+        <v>20816.8408433445</v>
       </c>
       <c r="B100">
-        <v>4153.463953360855</v>
+        <v>3905.634304703994</v>
       </c>
       <c r="C100">
-        <v>33134.88551904198</v>
+        <v>32894.55738565887</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>12246.78403733959</v>
+        <v>14141.71158083076</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20817.00752159711</v>
+        <v>20816.8408433445</v>
       </c>
       <c r="I100">
-        <v>59394</v>
+        <v>58272</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>37288.34947240284</v>
+        <v>36800.19169036286</v>
       </c>
       <c r="O100">
-        <v>12246.78403733959</v>
+        <v>14141.71158083076</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>218.3622521310909</v>
+        <v>142.5496609755553</v>
       </c>
       <c r="R100">
-        <v>1352.237167301184</v>
+        <v>1320.959524579845</v>
       </c>
       <c r="S100">
-        <v>1570.599419432275</v>
+        <v>1463.5091855554</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>2992.322263309272</v>
+        <v>3034.495727940769</v>
       </c>
       <c r="V100">
-        <v>2992.322263309272</v>
+        <v>3034.495727940769</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.86018398088</v>
+        <v>43952.98641172776</v>
       </c>
       <c r="B101">
-        <v>8657.806303847036</v>
+        <v>8944.719915181588</v>
       </c>
       <c r="C101">
-        <v>72447.77157195087</v>
+        <v>70818.31300362073</v>
       </c>
       <c r="D101">
-        <v>2124.302556264859</v>
+        <v>2292.556792558045</v>
       </c>
       <c r="E101">
-        <v>24851.11651157446</v>
+        <v>25504.74325472615</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.86018398088</v>
+        <v>43952.98641172776</v>
       </c>
       <c r="I101">
-        <v>115889</v>
+        <v>122556</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>81105.5778757979</v>
+        <v>79763.03291880232</v>
       </c>
       <c r="O101">
-        <v>26975.41906783932</v>
+        <v>27797.3000472842</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>363.1325352585895</v>
+        <v>281.8809004449847</v>
       </c>
       <c r="R101">
-        <v>3575.277645356634</v>
+        <v>2798.886566912642</v>
       </c>
       <c r="S101">
-        <v>3938.410180615224</v>
+        <v>3080.767467357627</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>4937.048478193652</v>
+        <v>5320.801519733348</v>
       </c>
       <c r="V101">
-        <v>4937.048478193652</v>
+        <v>5320.801519733348</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103393.8675721854</v>
+        <v>103393.9756156788</v>
       </c>
       <c r="B102">
-        <v>19543.71815110909</v>
+        <v>18927.02011022968</v>
       </c>
       <c r="C102">
-        <v>170575.5575416625</v>
+        <v>172435.5193377909</v>
       </c>
       <c r="D102">
-        <v>4466.947655615892</v>
+        <v>5362.109271171236</v>
       </c>
       <c r="E102">
-        <v>58207.64614964191</v>
+        <v>58998.07380558832</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103393.8675721854</v>
+        <v>103393.9756156788</v>
       </c>
       <c r="I102">
-        <v>289568</v>
+        <v>265624</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>190119.2756927716</v>
+        <v>191362.5394480205</v>
       </c>
       <c r="O102">
-        <v>62674.5938052578</v>
+        <v>64360.18307675955</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>983.7809026313183</v>
+        <v>666.1663182614941</v>
       </c>
       <c r="R102">
-        <v>6422.731555555953</v>
+        <v>5972.392800776322</v>
       </c>
       <c r="S102">
-        <v>7406.512458187271</v>
+        <v>6638.559119037815</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>15616.97592899131</v>
+        <v>15646.08244922806</v>
       </c>
       <c r="V102">
-        <v>15616.97592899131</v>
+        <v>15646.08244922806</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.13972765338</v>
+        <v>35337.14731946342</v>
       </c>
       <c r="B103">
-        <v>7101.050675702809</v>
+        <v>6813.730856644939</v>
       </c>
       <c r="C103">
-        <v>58701.48853521019</v>
+        <v>58932.77342323522</v>
       </c>
       <c r="D103">
-        <v>1948.434548229519</v>
+        <v>1825.222896448784</v>
       </c>
       <c r="E103">
-        <v>20086.74491892625</v>
+        <v>21413.86938640564</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.13972765338</v>
+        <v>35337.14731946342</v>
       </c>
       <c r="I103">
-        <v>96754</v>
+        <v>96888</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>65802.539210913</v>
+        <v>65746.50427988016</v>
       </c>
       <c r="O103">
-        <v>22035.17946715577</v>
+        <v>23239.09228285442</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>281.2278853588695</v>
+        <v>199.2826110153089</v>
       </c>
       <c r="R103">
-        <v>2081.401873043598</v>
+        <v>2199.261657978272</v>
       </c>
       <c r="S103">
-        <v>2362.629758402467</v>
+        <v>2398.544268993581</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>5447.904945892276</v>
+        <v>4534.050097224967</v>
       </c>
       <c r="V103">
-        <v>5447.904945892276</v>
+        <v>4534.050097224967</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122131.0476287216</v>
+        <v>122130.8195931026</v>
       </c>
       <c r="B104">
-        <v>22361.30658661667</v>
+        <v>22992.77696606718</v>
       </c>
       <c r="C104">
-        <v>199130.9686753764</v>
+        <v>203276.5471443322</v>
       </c>
       <c r="D104">
-        <v>5205.61921307681</v>
+        <v>6501.882505515392</v>
       </c>
       <c r="E104">
-        <v>67401.14463399196</v>
+        <v>69940.95597221307</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122131.0476287216</v>
+        <v>122130.8195931026</v>
       </c>
       <c r="I104">
-        <v>324952</v>
+        <v>319332</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>221492.2752619931</v>
+        <v>226269.3241103994</v>
       </c>
       <c r="O104">
-        <v>72606.76384706877</v>
+        <v>76442.83847772845</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>1133.744930562291</v>
+        <v>688.3848138335517</v>
       </c>
       <c r="R104">
-        <v>8119.628699289573</v>
+        <v>6965.121856615975</v>
       </c>
       <c r="S104">
-        <v>9253.373629851863</v>
+        <v>7653.506670449527</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>17139.02712531831</v>
+        <v>17672.38806334049</v>
       </c>
       <c r="V104">
-        <v>17139.02712531831</v>
+        <v>17672.38806334049</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81323.95174329057</v>
+        <v>81324.08336561719</v>
       </c>
       <c r="B105">
-        <v>15013.98596642098</v>
+        <v>16342.2535463827</v>
       </c>
       <c r="C105">
-        <v>132256.7360045782</v>
+        <v>135884.5930102843</v>
       </c>
       <c r="D105">
-        <v>4244.688746220221</v>
+        <v>3748.447691513934</v>
       </c>
       <c r="E105">
-        <v>47477.23693993524</v>
+        <v>47112.45263913689</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81323.95174329057</v>
+        <v>81324.08336561719</v>
       </c>
       <c r="I105">
-        <v>211909</v>
+        <v>221206</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>147270.7219709992</v>
+        <v>152226.846556667</v>
       </c>
       <c r="O105">
-        <v>51721.92568615546</v>
+        <v>50860.90033065082</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>617.6473119104221</v>
+        <v>595.765939307934</v>
       </c>
       <c r="R105">
-        <v>4446.60674989875</v>
+        <v>6000.393280753426</v>
       </c>
       <c r="S105">
-        <v>5064.254061809173</v>
+        <v>6596.15922006136</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>10634.34410956786</v>
+        <v>10731.07323686098</v>
       </c>
       <c r="V105">
-        <v>10634.34410956786</v>
+        <v>10731.07323686098</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77850.13054388213</v>
+        <v>77849.95656028455</v>
       </c>
       <c r="B106">
-        <v>14464.88182120124</v>
+        <v>15297.33476899096</v>
       </c>
       <c r="C106">
-        <v>126682.5489825496</v>
+        <v>132281.7994478245</v>
       </c>
       <c r="D106">
-        <v>3582.786272507099</v>
+        <v>3975.780432882461</v>
       </c>
       <c r="E106">
-        <v>41202.7846631986</v>
+        <v>45137.59912131548</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77850.13054388213</v>
+        <v>77849.95656028455</v>
       </c>
       <c r="I106">
-        <v>216904</v>
+        <v>211178</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>141147.4308037509</v>
+        <v>147579.1342168154</v>
       </c>
       <c r="O106">
-        <v>44785.5709357057</v>
+        <v>49113.37955419794</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>631.1419348411199</v>
+        <v>437.4991616219124</v>
       </c>
       <c r="R106">
-        <v>5147.001403540415</v>
+        <v>4669.143368872527</v>
       </c>
       <c r="S106">
-        <v>5778.143338381535</v>
+        <v>5106.64253049444</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>9838.764925285686</v>
+        <v>12153.16374193932</v>
       </c>
       <c r="V106">
-        <v>9838.764925285686</v>
+        <v>12153.16374193932</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86203.0466921905</v>
+        <v>86202.96899889679</v>
       </c>
       <c r="B107">
-        <v>16114.52316898257</v>
+        <v>17182.22948441277</v>
       </c>
       <c r="C107">
-        <v>141519.0446870084</v>
+        <v>141756.164882596</v>
       </c>
       <c r="D107">
-        <v>3837.415860114555</v>
+        <v>3605.831341326157</v>
       </c>
       <c r="E107">
-        <v>40842.40469291745</v>
+        <v>43980.7519362286</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86203.0466921905</v>
+        <v>86202.96899889679</v>
       </c>
       <c r="I107">
-        <v>239484</v>
+        <v>232528</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>157633.567855991</v>
+        <v>158938.3943670088</v>
       </c>
       <c r="O107">
-        <v>44679.82055303201</v>
+        <v>47586.58327755475</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>618.599819549236</v>
+        <v>679.8753354689749</v>
       </c>
       <c r="R107">
-        <v>4763.224877221691</v>
+        <v>5628.576980549409</v>
       </c>
       <c r="S107">
-        <v>5381.824696770927</v>
+        <v>6308.452316018384</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>12918.03059564594</v>
+        <v>11874.77058001569</v>
       </c>
       <c r="V107">
-        <v>12918.03059564594</v>
+        <v>11874.77058001569</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60304.85798287833</v>
+        <v>60305.16029179276</v>
       </c>
       <c r="B108">
-        <v>11512.25876765311</v>
+        <v>11949.25295465833</v>
       </c>
       <c r="C108">
-        <v>99204.12740233276</v>
+        <v>99871.33454068191</v>
       </c>
       <c r="D108">
-        <v>3406.649096781866</v>
+        <v>3460.027746326245</v>
       </c>
       <c r="E108">
-        <v>39718.80909077669</v>
+        <v>36819.95951977658</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60304.85798287833</v>
+        <v>60305.16029179276</v>
       </c>
       <c r="I108">
-        <v>161305</v>
+        <v>171796</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>110716.3861699859</v>
+        <v>111820.5874953402</v>
       </c>
       <c r="O108">
-        <v>43125.45818755856</v>
+        <v>40279.98726610283</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>623.0993303812082</v>
+        <v>382.1707635907661</v>
       </c>
       <c r="R108">
-        <v>4499.309449320674</v>
+        <v>3194.411538721765</v>
       </c>
       <c r="S108">
-        <v>5122.408779701882</v>
+        <v>3576.582302312531</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>7624.908772523593</v>
+        <v>7315.146574582909</v>
       </c>
       <c r="V108">
-        <v>7624.908772523593</v>
+        <v>7315.146574582909</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25283.09277986744</v>
+        <v>25282.86152889174</v>
       </c>
       <c r="B109">
-        <v>4682.328164725475</v>
+        <v>4833.103865011639</v>
       </c>
       <c r="C109">
-        <v>41763.87798822056</v>
+        <v>40331.43417965414</v>
       </c>
       <c r="D109">
-        <v>1209.552172130213</v>
+        <v>1256.49026940383</v>
       </c>
       <c r="E109">
-        <v>15122.37175516526</v>
+        <v>14491.80972801166</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25283.09277986744</v>
+        <v>25282.86152889174</v>
       </c>
       <c r="I109">
-        <v>72290</v>
+        <v>64542</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>46446.20615294603</v>
+        <v>45164.53804466578</v>
       </c>
       <c r="O109">
-        <v>16331.92392729547</v>
+        <v>15748.29999741549</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>217.4310784648872</v>
+        <v>164.1150645949213</v>
       </c>
       <c r="R109">
-        <v>1293.393315418784</v>
+        <v>1995.666538664652</v>
       </c>
       <c r="S109">
-        <v>1510.824393883671</v>
+        <v>2159.781603259574</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3428.250272019339</v>
+        <v>3380.476301887387</v>
       </c>
       <c r="V109">
-        <v>3428.250272019339</v>
+        <v>3380.476301887387</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4049.048957037389</v>
+        <v>4048.824297812175</v>
       </c>
       <c r="B110">
-        <v>792.2579503073827</v>
+        <v>812.6337085342211</v>
       </c>
       <c r="C110">
-        <v>6624.301453591074</v>
+        <v>6740.409997634655</v>
       </c>
       <c r="D110">
-        <v>187.9793585149206</v>
+        <v>217.610207425441</v>
       </c>
       <c r="E110">
-        <v>2258.950885829458</v>
+        <v>2423.827741979438</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4049.048957037389</v>
+        <v>4048.824297812175</v>
       </c>
       <c r="I110">
-        <v>10845</v>
+        <v>11193</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7416.559403898457</v>
+        <v>7553.043706168876</v>
       </c>
       <c r="O110">
-        <v>2446.930244344379</v>
+        <v>2641.437949404879</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44.60824477502631</v>
+        <v>25.66394964372233</v>
       </c>
       <c r="R110">
-        <v>265.5786605045722</v>
+        <v>243.6593509412952</v>
       </c>
       <c r="S110">
-        <v>310.1869052795985</v>
+        <v>269.3233005850175</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>498.7398812623815</v>
+        <v>588.6603832001831</v>
       </c>
       <c r="V110">
-        <v>498.7398812623815</v>
+        <v>588.6603832001831</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.968976752914</v>
+        <v>8762.947369457068</v>
       </c>
       <c r="B111">
-        <v>1674.28369425799</v>
+        <v>1677.913260601441</v>
       </c>
       <c r="C111">
-        <v>14153.97832769</v>
+        <v>14355.37853017314</v>
       </c>
       <c r="D111">
-        <v>419.5779453129293</v>
+        <v>454.180957525447</v>
       </c>
       <c r="E111">
-        <v>5173.000812320342</v>
+        <v>5073.788857939268</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.968976752914</v>
+        <v>8762.947369457068</v>
       </c>
       <c r="I111">
-        <v>24553</v>
+        <v>23553</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>15828.26202194799</v>
+        <v>16033.29179077459</v>
       </c>
       <c r="O111">
-        <v>5592.578757633271</v>
+        <v>5527.969815464714</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>82.55796818506897</v>
+        <v>55.58003790512711</v>
       </c>
       <c r="R111">
-        <v>557.626457669891</v>
+        <v>486.8348718458514</v>
       </c>
       <c r="S111">
-        <v>640.18442585496</v>
+        <v>542.4149097509785</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1341.321090538828</v>
+        <v>1319.557654451504</v>
       </c>
       <c r="V111">
-        <v>1341.321090538828</v>
+        <v>1319.557654451504</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9927.151578196495</v>
+        <v>9926.95831132776</v>
       </c>
       <c r="B112">
-        <v>2019.172220277376</v>
+        <v>1874.493587123382</v>
       </c>
       <c r="C112">
-        <v>16224.73665236971</v>
+        <v>16271.98726371974</v>
       </c>
       <c r="D112">
-        <v>538.8518863780895</v>
+        <v>499.2339085446595</v>
       </c>
       <c r="E112">
-        <v>5924.942995339112</v>
+        <v>5540.867351771317</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9927.151578196495</v>
+        <v>9926.95831132776</v>
       </c>
       <c r="I112">
-        <v>27329</v>
+        <v>27927</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18243.90887264709</v>
+        <v>18146.48085084312</v>
       </c>
       <c r="O112">
-        <v>6463.794881717201</v>
+        <v>6040.101260315976</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>95.36987513147825</v>
+        <v>96.56701326055118</v>
       </c>
       <c r="R112">
-        <v>600.8104404092888</v>
+        <v>829.3735150580993</v>
       </c>
       <c r="S112">
-        <v>696.1803155407671</v>
+        <v>925.9405283186505</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1612.952165474003</v>
+        <v>1275.385309867035</v>
       </c>
       <c r="V112">
-        <v>1612.952165474003</v>
+        <v>1275.385309867035</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.123402431875</v>
+        <v>1552.121233563609</v>
       </c>
       <c r="B113">
-        <v>310.0606348176689</v>
+        <v>300.6858729531982</v>
       </c>
       <c r="C113">
-        <v>2559.340472553797</v>
+        <v>2555.127412285559</v>
       </c>
       <c r="D113">
-        <v>79.3590404998921</v>
+        <v>72.68347633719056</v>
       </c>
       <c r="E113">
-        <v>908.4550806024068</v>
+        <v>879.6802321236722</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.123402431875</v>
+        <v>1552.121233563609</v>
       </c>
       <c r="I113">
-        <v>4196</v>
+        <v>4371</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,823 +8506,31 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2869.401107371466</v>
+        <v>2855.813285238757</v>
       </c>
       <c r="O113">
-        <v>987.8141211022989</v>
+        <v>952.3637084608628</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>12.38920913552204</v>
+        <v>12.46276502924282</v>
       </c>
       <c r="R113">
-        <v>87.75276459122286</v>
+        <v>104.5805117539385</v>
       </c>
       <c r="S113">
-        <v>100.1419737267449</v>
+        <v>117.0432767831814</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>217.739241802625</v>
+        <v>207.4318888848962</v>
       </c>
       <c r="V113">
-        <v>217.739241802625</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>1069.074128557394</v>
-      </c>
-      <c r="B114">
-        <v>1479.975504693876</v>
-      </c>
-      <c r="C114">
-        <v>491.1058601495213</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>717.7870317691926</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>1069.074128557394</v>
-      </c>
-      <c r="I114">
-        <v>2904</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>1971.081364843398</v>
-      </c>
-      <c r="O114">
-        <v>717.7870317691926</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>21.73444128132424</v>
-      </c>
-      <c r="R114">
-        <v>57.94125368639161</v>
-      </c>
-      <c r="S114">
-        <v>79.67569496771584</v>
-      </c>
-      <c r="T114">
-        <v>14.40531629068657</v>
-      </c>
-      <c r="U114">
-        <v>109.5298987467022</v>
-      </c>
-      <c r="V114">
-        <v>123.9352150373888</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>406.1853668148891</v>
-      </c>
-      <c r="B115">
-        <v>552.4886463484048</v>
-      </c>
-      <c r="C115">
-        <v>182.4361764203212</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>251.2489015674528</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>406.1853668148891</v>
-      </c>
-      <c r="I115">
-        <v>1079</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>734.924822768726</v>
-      </c>
-      <c r="O115">
-        <v>251.2489015674528</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>6.405370922887838</v>
-      </c>
-      <c r="R115">
-        <v>19.50425653651483</v>
-      </c>
-      <c r="S115">
-        <v>25.90962745940266</v>
-      </c>
-      <c r="T115">
-        <v>6.365334796281568</v>
-      </c>
-      <c r="U115">
-        <v>47.62911986546348</v>
-      </c>
-      <c r="V115">
-        <v>53.99445466174505</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>5616.049803240395</v>
-      </c>
-      <c r="B116">
-        <v>7298.067589666284</v>
-      </c>
-      <c r="C116">
-        <v>2476.690823128232</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>3020.706303698369</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>5616.049803240395</v>
-      </c>
-      <c r="I116">
-        <v>15557</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116">
-        <v>9774.758412794516</v>
-      </c>
-      <c r="O116">
-        <v>3020.706303698369</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>89.04439864187364</v>
-      </c>
-      <c r="R116">
-        <v>281.0571483091472</v>
-      </c>
-      <c r="S116">
-        <v>370.1015469510209</v>
-      </c>
-      <c r="T116">
-        <v>100.2959628992233</v>
-      </c>
-      <c r="U116">
-        <v>659.4236276672256</v>
-      </c>
-      <c r="V116">
-        <v>759.7195905664488</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>3149.941526714262</v>
-      </c>
-      <c r="B117">
-        <v>4404.341838804957</v>
-      </c>
-      <c r="C117">
-        <v>1445.482965416477</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>2170.035971135516</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>3149.941526714262</v>
-      </c>
-      <c r="I117">
-        <v>8714</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <v>5849.824804221434</v>
-      </c>
-      <c r="O117">
-        <v>2170.035971135516</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>56.66842534836888</v>
-      </c>
-      <c r="R117">
-        <v>143.3484310626167</v>
-      </c>
-      <c r="S117">
-        <v>200.0168564109856</v>
-      </c>
-      <c r="T117">
-        <v>39.10772947090579</v>
-      </c>
-      <c r="U117">
-        <v>438.8781410109212</v>
-      </c>
-      <c r="V117">
-        <v>477.985870481827</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>1816.932768373015</v>
-      </c>
-      <c r="B118">
-        <v>2466.428695247931</v>
-      </c>
-      <c r="C118">
-        <v>833.4923117530577</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>1018.253530096391</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>1816.932768373015</v>
-      </c>
-      <c r="I118">
-        <v>5258</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>3299.921007000989</v>
-      </c>
-      <c r="O118">
-        <v>1018.253530096391</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>34.07573863015163</v>
-      </c>
-      <c r="R118">
-        <v>116.1890657767203</v>
-      </c>
-      <c r="S118">
-        <v>150.264804406872</v>
-      </c>
-      <c r="T118">
-        <v>31.15666891866557</v>
-      </c>
-      <c r="U118">
-        <v>211.7033931357464</v>
-      </c>
-      <c r="V118">
-        <v>242.860062054412</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>6396.129719867115</v>
-      </c>
-      <c r="B119">
-        <v>8869.313081901024</v>
-      </c>
-      <c r="C119">
-        <v>3001.011036185096</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>3153.72909638157</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>6396.129719867115</v>
-      </c>
-      <c r="I119">
-        <v>18328</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <v>11870.32411808612</v>
-      </c>
-      <c r="O119">
-        <v>3153.72909638157</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>122.2785794309508</v>
-      </c>
-      <c r="R119">
-        <v>309.6785250643739</v>
-      </c>
-      <c r="S119">
-        <v>431.9571044953246</v>
-      </c>
-      <c r="T119">
-        <v>65.14921836763541</v>
-      </c>
-      <c r="U119">
-        <v>674.6955097562534</v>
-      </c>
-      <c r="V119">
-        <v>739.8447281238888</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>4006.10476720634</v>
-      </c>
-      <c r="B120">
-        <v>5615.472970440768</v>
-      </c>
-      <c r="C120">
-        <v>1887.260111664981</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>2333.505640030448</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>4006.10476720634</v>
-      </c>
-      <c r="I120">
-        <v>10587</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>7502.733082105749</v>
-      </c>
-      <c r="O120">
-        <v>2333.505640030448</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>82.86727147546088</v>
-      </c>
-      <c r="R120">
-        <v>202.5126455273144</v>
-      </c>
-      <c r="S120">
-        <v>285.3799170027753</v>
-      </c>
-      <c r="T120">
-        <v>51.58741875209596</v>
-      </c>
-      <c r="U120">
-        <v>498.2664666978164</v>
-      </c>
-      <c r="V120">
-        <v>549.8538854499124</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>1686.889435977725</v>
-      </c>
-      <c r="B121">
-        <v>2357.882458689042</v>
-      </c>
-      <c r="C121">
-        <v>769.9980305455297</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>1093.757891434021</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1686.889435977725</v>
-      </c>
-      <c r="I121">
-        <v>4562</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>3127.880489234572</v>
-      </c>
-      <c r="O121">
-        <v>1093.757891434021</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>33.16458230807282</v>
-      </c>
-      <c r="R121">
-        <v>108.2735436796228</v>
-      </c>
-      <c r="S121">
-        <v>141.4381259876956</v>
-      </c>
-      <c r="T121">
-        <v>24.96472664428762</v>
-      </c>
-      <c r="U121">
-        <v>226.0799542252733</v>
-      </c>
-      <c r="V121">
-        <v>251.0446808695609</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>589.1596497245116</v>
-      </c>
-      <c r="B122">
-        <v>806.0260003512994</v>
-      </c>
-      <c r="C122">
-        <v>270.1910105606415</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>357.2173016118167</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>589.1596497245116</v>
-      </c>
-      <c r="I122">
-        <v>1661</v>
-      </c>
-      <c r="J122">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>1076.217010911941</v>
-      </c>
-      <c r="O122">
-        <v>357.2173016118167</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>11.68977651795208</v>
-      </c>
-      <c r="R122">
-        <v>37.03902551765369</v>
-      </c>
-      <c r="S122">
-        <v>48.72880203560577</v>
-      </c>
-      <c r="T122">
-        <v>8.431237473752422</v>
-      </c>
-      <c r="U122">
-        <v>71.04605753888623</v>
-      </c>
-      <c r="V122">
-        <v>79.47729501263865</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>1709.934693079908</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>3117.025294401605</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>999.3274886807051</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>1709.934693079908</v>
-      </c>
-      <c r="I123">
-        <v>5454</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>3117.025294401605</v>
-      </c>
-      <c r="O123">
-        <v>999.3274886807051</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>31.26469888647703</v>
-      </c>
-      <c r="R123">
-        <v>92.18007478055461</v>
-      </c>
-      <c r="S123">
-        <v>123.4447736670316</v>
-      </c>
-      <c r="T123">
-        <v>18.94710793399544</v>
-      </c>
-      <c r="U123">
-        <v>188.8950953757393</v>
-      </c>
-      <c r="V123">
-        <v>207.8422033097347</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>199.0018634522255</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>363.2420509781377</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>109.4844667340309</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>199.0018634522255</v>
-      </c>
-      <c r="I124">
-        <v>648</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>363.2420509781377</v>
-      </c>
-      <c r="O124">
-        <v>109.4844667340309</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>4.87648150482134</v>
-      </c>
-      <c r="R124">
-        <v>11.44566633261659</v>
-      </c>
-      <c r="S124">
-        <v>16.32214783743793</v>
-      </c>
-      <c r="T124">
-        <v>2.974831879838487</v>
-      </c>
-      <c r="U124">
-        <v>24.6042992577088</v>
-      </c>
-      <c r="V124">
-        <v>27.57913113754729</v>
+        <v>207.4318888848962</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9133.053442055316</v>
+        <v>9132.986068273174</v>
       </c>
       <c r="B2">
-        <v>4692.33073780606</v>
+        <v>4895.470198752491</v>
       </c>
       <c r="C2">
-        <v>21411.459407719</v>
+        <v>21381.06125169948</v>
       </c>
       <c r="D2">
-        <v>4917.685959685927</v>
+        <v>4977.415369176008</v>
       </c>
       <c r="E2">
-        <v>9539.021619513771</v>
+        <v>8300.72981272293</v>
       </c>
       <c r="F2">
-        <v>2738.911621780936</v>
+        <v>2564.822728286114</v>
       </c>
       <c r="G2">
-        <v>5068.297456388063</v>
+        <v>4952.876078005376</v>
       </c>
       <c r="H2">
-        <v>9133.053442055316</v>
+        <v>9132.986068273174</v>
       </c>
       <c r="I2">
-        <v>42817</v>
+        <v>41347</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26103.79014552506</v>
+        <v>26276.53145045198</v>
       </c>
       <c r="O2">
-        <v>14456.7075791997</v>
+        <v>13278.14518189894</v>
       </c>
       <c r="P2">
-        <v>7807.209078168999</v>
+        <v>7517.698806291491</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7570.966431527743</v>
+        <v>7571.02823581271</v>
       </c>
       <c r="B3">
-        <v>3792.142405595448</v>
+        <v>4139.179078202232</v>
       </c>
       <c r="C3">
-        <v>17939.85899422465</v>
+        <v>17150.55106146079</v>
       </c>
       <c r="D3">
-        <v>4170.211989944232</v>
+        <v>3949.848109612219</v>
       </c>
       <c r="E3">
-        <v>8690.001072962017</v>
+        <v>5932.952616990053</v>
       </c>
       <c r="F3">
-        <v>2079.194756483217</v>
+        <v>2345.815061068346</v>
       </c>
       <c r="G3">
-        <v>4288.984914792053</v>
+        <v>4637.745143733842</v>
       </c>
       <c r="H3">
-        <v>7570.966431527743</v>
+        <v>7571.02823581271</v>
       </c>
       <c r="I3">
-        <v>34366</v>
+        <v>36046</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21732.0013998201</v>
+        <v>21289.73013966303</v>
       </c>
       <c r="O3">
-        <v>12860.21306290625</v>
+        <v>9882.800726602272</v>
       </c>
       <c r="P3">
-        <v>6368.17967127527</v>
+        <v>6983.560204802188</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15501.88871880693</v>
+        <v>15502.00990180921</v>
       </c>
       <c r="B4">
-        <v>8318.327789289619</v>
+        <v>8335.698404064509</v>
       </c>
       <c r="C4">
-        <v>36725.06336212947</v>
+        <v>34781.36932824739</v>
       </c>
       <c r="D4">
-        <v>8435.741155341468</v>
+        <v>8471.625818237109</v>
       </c>
       <c r="E4">
-        <v>17384.43570353411</v>
+        <v>13119.67184712236</v>
       </c>
       <c r="F4">
-        <v>4715.102979837096</v>
+        <v>4725.295892215155</v>
       </c>
       <c r="G4">
-        <v>9013.353685064825</v>
+        <v>9644.249905332883</v>
       </c>
       <c r="H4">
-        <v>15501.88871880693</v>
+        <v>15502.00990180921</v>
       </c>
       <c r="I4">
-        <v>69135</v>
+        <v>66815</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>45043.39115141908</v>
+        <v>43117.0677323119</v>
       </c>
       <c r="O4">
-        <v>25820.17685887558</v>
+        <v>21591.29766535947</v>
       </c>
       <c r="P4">
-        <v>13728.45666490192</v>
+        <v>14369.54579754804</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.968235082668</v>
+        <v>9669.891388540911</v>
       </c>
       <c r="B5">
-        <v>5117.528331918463</v>
+        <v>5045.820416807143</v>
       </c>
       <c r="C5">
-        <v>22349.49137709243</v>
+        <v>21217.48790741422</v>
       </c>
       <c r="D5">
-        <v>5300.032325988995</v>
+        <v>5295.248865739043</v>
       </c>
       <c r="E5">
-        <v>10776.48614669647</v>
+        <v>8826.121689331223</v>
       </c>
       <c r="F5">
-        <v>3021.761349754466</v>
+        <v>2909.45361813714</v>
       </c>
       <c r="G5">
-        <v>5922.423628309473</v>
+        <v>5768.626532484707</v>
       </c>
       <c r="H5">
-        <v>9669.968235082668</v>
+        <v>9669.891388540911</v>
       </c>
       <c r="I5">
-        <v>43249</v>
+        <v>43502</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>27467.01970901089</v>
+        <v>26263.30832422137</v>
       </c>
       <c r="O5">
-        <v>16076.51847268546</v>
+        <v>14121.37055507027</v>
       </c>
       <c r="P5">
-        <v>8944.184978063939</v>
+        <v>8678.080150621847</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26786.91540748749</v>
+        <v>26787.01647921063</v>
       </c>
       <c r="B6">
-        <v>14537.7529155106</v>
+        <v>13980.02570338613</v>
       </c>
       <c r="C6">
-        <v>61680.29975872103</v>
+        <v>60260.50249304296</v>
       </c>
       <c r="D6">
-        <v>13745.32574544144</v>
+        <v>14821.85063605563</v>
       </c>
       <c r="E6">
-        <v>27217.86358837052</v>
+        <v>23431.31695209297</v>
       </c>
       <c r="F6">
-        <v>7950.952266101994</v>
+        <v>8206.552748723694</v>
       </c>
       <c r="G6">
-        <v>14849.62392540373</v>
+        <v>15865.0562513122</v>
       </c>
       <c r="H6">
-        <v>26786.91540748749</v>
+        <v>26787.01647921063</v>
       </c>
       <c r="I6">
-        <v>125536</v>
+        <v>122762</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>76218.05267423161</v>
+        <v>74240.52819642908</v>
       </c>
       <c r="O6">
-        <v>40963.18933381196</v>
+        <v>38253.1675881486</v>
       </c>
       <c r="P6">
-        <v>22800.57619150573</v>
+        <v>24071.6090000359</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.96524125951</v>
+        <v>15438.91809765226</v>
       </c>
       <c r="B7">
-        <v>8424.204613194597</v>
+        <v>8296.47218275133</v>
       </c>
       <c r="C7">
-        <v>35882.85760289154</v>
+        <v>35293.20862685944</v>
       </c>
       <c r="D7">
-        <v>8769.456064383412</v>
+        <v>8458.109093755638</v>
       </c>
       <c r="E7">
-        <v>17765.95768423558</v>
+        <v>13929.57161051497</v>
       </c>
       <c r="F7">
-        <v>4440.651157015219</v>
+        <v>4367.687415156436</v>
       </c>
       <c r="G7">
-        <v>8504.170324318313</v>
+        <v>8359.631949343531</v>
       </c>
       <c r="H7">
-        <v>15438.96524125951</v>
+        <v>15438.91809765226</v>
       </c>
       <c r="I7">
-        <v>71168</v>
+        <v>70257</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>44307.06221608614</v>
+        <v>43589.68080961077</v>
       </c>
       <c r="O7">
-        <v>26535.41374861899</v>
+        <v>22387.68070427061</v>
       </c>
       <c r="P7">
-        <v>12944.82148133353</v>
+        <v>12727.31936449997</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7027.955117881585</v>
+        <v>7028.010117724604</v>
       </c>
       <c r="B8">
-        <v>3771.676370632787</v>
+        <v>3637.786041695746</v>
       </c>
       <c r="C8">
-        <v>16153.13585309234</v>
+        <v>16085.70720525538</v>
       </c>
       <c r="D8">
-        <v>3992.361356099574</v>
+        <v>3841.412007652354</v>
       </c>
       <c r="E8">
-        <v>7697.341201147254</v>
+        <v>6309.890372295027</v>
       </c>
       <c r="F8">
-        <v>2033.800302517009</v>
+        <v>2058.708279271722</v>
       </c>
       <c r="G8">
-        <v>4122.42324885491</v>
+        <v>3966.71992237828</v>
       </c>
       <c r="H8">
-        <v>7027.955117881585</v>
+        <v>7028.010117724604</v>
       </c>
       <c r="I8">
-        <v>34748</v>
+        <v>31441</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19924.81222372513</v>
+        <v>19723.49324695112</v>
       </c>
       <c r="O8">
-        <v>11689.70255724683</v>
+        <v>10151.30237994738</v>
       </c>
       <c r="P8">
-        <v>6156.223551371919</v>
+        <v>6025.428201650002</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.897483797761</v>
+        <v>5005.941109167221</v>
       </c>
       <c r="B9">
-        <v>2629.622033556876</v>
+        <v>2645.370171592866</v>
       </c>
       <c r="C9">
-        <v>11816.28749278208</v>
+        <v>11410.12624707706</v>
       </c>
       <c r="D9">
-        <v>2776.800238660862</v>
+        <v>2903.219959926983</v>
       </c>
       <c r="E9">
-        <v>5969.534951880616</v>
+        <v>4485.234924899365</v>
       </c>
       <c r="F9">
-        <v>1534.189179143096</v>
+        <v>1536.004279505613</v>
       </c>
       <c r="G9">
-        <v>2964.044651328936</v>
+        <v>2826.247272193613</v>
       </c>
       <c r="H9">
-        <v>5005.897483797761</v>
+        <v>5005.941109167221</v>
       </c>
       <c r="I9">
-        <v>21940</v>
+        <v>24671</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14445.90952633895</v>
+        <v>14055.49641866993</v>
       </c>
       <c r="O9">
-        <v>8746.335190541478</v>
+        <v>7388.454884826348</v>
       </c>
       <c r="P9">
-        <v>4498.233830472032</v>
+        <v>4362.251551699225</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5886.964659824233</v>
+        <v>5887.007440784337</v>
       </c>
       <c r="B10">
-        <v>3270.835390733482</v>
+        <v>3079.261832545938</v>
       </c>
       <c r="C10">
-        <v>14329.60542500642</v>
+        <v>13369.46115177681</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10076.49993636401</v>
+        <v>8412.906495641199</v>
       </c>
       <c r="F10">
-        <v>1734.91259278077</v>
+        <v>1760.659737754307</v>
       </c>
       <c r="G10">
-        <v>3347.499116692842</v>
+        <v>3332.082503215471</v>
       </c>
       <c r="H10">
-        <v>5886.964659824233</v>
+        <v>5887.007440784337</v>
       </c>
       <c r="I10">
-        <v>27711</v>
+        <v>27377</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17600.44081573991</v>
+        <v>16448.72298432275</v>
       </c>
       <c r="O10">
-        <v>10076.49993636401</v>
+        <v>8412.906495641199</v>
       </c>
       <c r="P10">
-        <v>5082.411709473612</v>
+        <v>5092.742240969778</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1726.068638614919</v>
+        <v>1725.92860455349</v>
       </c>
       <c r="B11">
-        <v>880.5586608967145</v>
+        <v>929.0188616538237</v>
       </c>
       <c r="C11">
-        <v>4042.813147790399</v>
+        <v>3937.809892129649</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2584.978948292096</v>
+        <v>2437.132348856059</v>
       </c>
       <c r="F11">
-        <v>505.0381219146943</v>
+        <v>518.0015243527541</v>
       </c>
       <c r="G11">
-        <v>1014.301883814619</v>
+        <v>1018.575854055191</v>
       </c>
       <c r="H11">
-        <v>1726.068638614919</v>
+        <v>1725.92860455349</v>
       </c>
       <c r="I11">
-        <v>8561</v>
+        <v>9185</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4923.371808687113</v>
+        <v>4866.828753783472</v>
       </c>
       <c r="O11">
-        <v>2584.978948292096</v>
+        <v>2437.132348856059</v>
       </c>
       <c r="P11">
-        <v>1519.340005729313</v>
+        <v>1536.577378407945</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.082332334755</v>
+        <v>501.0732044590141</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1434.948253758904</v>
+        <v>1397.740233251169</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>795.2269897988485</v>
+        <v>647.0641861882006</v>
       </c>
       <c r="F12">
-        <v>148.3627951330565</v>
+        <v>148.1488481284611</v>
       </c>
       <c r="G12">
-        <v>279.1766151032692</v>
+        <v>286.5088628922716</v>
       </c>
       <c r="H12">
-        <v>501.082332334755</v>
+        <v>501.0732044590141</v>
       </c>
       <c r="I12">
-        <v>2927</v>
+        <v>2717</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1434.948253758904</v>
+        <v>1397.740233251169</v>
       </c>
       <c r="O12">
-        <v>795.2269897988485</v>
+        <v>647.0641861882006</v>
       </c>
       <c r="P12">
-        <v>427.5394102363257</v>
+        <v>434.6577110207327</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.077432023559</v>
+        <v>1088.105811684806</v>
       </c>
       <c r="B13">
-        <v>480.947855283464</v>
+        <v>508.3573735253006</v>
       </c>
       <c r="C13">
-        <v>2611.844776300923</v>
+        <v>2501.069621556088</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1793.498995261969</v>
+        <v>1581.976491469474</v>
       </c>
       <c r="F13">
-        <v>865.3772395435989</v>
+        <v>823.2379973246871</v>
       </c>
       <c r="G13">
-        <v>132.596776219469</v>
+        <v>123.296757557822</v>
       </c>
       <c r="H13">
-        <v>1088.077432023559</v>
+        <v>1088.105811684806</v>
       </c>
       <c r="I13">
-        <v>4655</v>
+        <v>4641</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3092.792631584387</v>
+        <v>3009.426995081389</v>
       </c>
       <c r="O13">
-        <v>1793.498995261969</v>
+        <v>1581.976491469474</v>
       </c>
       <c r="P13">
-        <v>997.9740157630679</v>
+        <v>946.534754882509</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.95380033614</v>
+        <v>11831.94352883526</v>
       </c>
       <c r="B14">
-        <v>5233.627598108659</v>
+        <v>5580.980273754644</v>
       </c>
       <c r="C14">
-        <v>28286.94998225702</v>
+        <v>27297.45902342073</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18605.30668768081</v>
+        <v>16765.43771093725</v>
       </c>
       <c r="F14">
-        <v>9410.362555928827</v>
+        <v>9432.327710783398</v>
       </c>
       <c r="G14">
-        <v>1405.076519521252</v>
+        <v>1250.172024144689</v>
       </c>
       <c r="H14">
-        <v>11831.95380033614</v>
+        <v>11831.94352883526</v>
       </c>
       <c r="I14">
-        <v>49657</v>
+        <v>48496</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>33520.57758036568</v>
+        <v>32878.43929717538</v>
       </c>
       <c r="O14">
-        <v>18605.30668768081</v>
+        <v>16765.43771093725</v>
       </c>
       <c r="P14">
-        <v>10815.43907545008</v>
+        <v>10682.49973492809</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79020.92741365958</v>
+        <v>79021.09234660486</v>
       </c>
       <c r="B15">
-        <v>37010.25218275991</v>
+        <v>37069.9554965791</v>
       </c>
       <c r="C15">
-        <v>196297.4307845498</v>
+        <v>183325.4185444894</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>127418.6212501708</v>
+        <v>113486.0218182471</v>
       </c>
       <c r="F15">
-        <v>63973.64974024343</v>
+        <v>63651.11681990852</v>
       </c>
       <c r="G15">
-        <v>11181.454966855</v>
+        <v>8492.895810859312</v>
       </c>
       <c r="H15">
-        <v>79020.92741365958</v>
+        <v>79021.09234660486</v>
       </c>
       <c r="I15">
-        <v>328166</v>
+        <v>324051</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>233307.6829673097</v>
+        <v>220395.3740410685</v>
       </c>
       <c r="O15">
-        <v>127418.6212501708</v>
+        <v>113486.0218182471</v>
       </c>
       <c r="P15">
-        <v>75155.10470709844</v>
+        <v>72144.01263076783</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.8779041574</v>
+        <v>160974.9652371227</v>
       </c>
       <c r="B16">
-        <v>73187.51859511779</v>
+        <v>74068.49094042204</v>
       </c>
       <c r="C16">
-        <v>392987.2279905981</v>
+        <v>364763.3373389643</v>
       </c>
       <c r="D16">
-        <v>86419.74644833601</v>
+        <v>86541.48175986543</v>
       </c>
       <c r="E16">
-        <v>191662.3459454084</v>
+        <v>149398.3870501811</v>
       </c>
       <c r="F16">
-        <v>108842.3116327097</v>
+        <v>123986.3147120853</v>
       </c>
       <c r="G16">
-        <v>17196.23468879146</v>
+        <v>18600.09099479313</v>
       </c>
       <c r="H16">
-        <v>160974.8779041574</v>
+        <v>160974.9652371227</v>
       </c>
       <c r="I16">
-        <v>659095</v>
+        <v>628158</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>466174.7465857159</v>
+        <v>438831.8282793863</v>
       </c>
       <c r="O16">
-        <v>278082.0923937444</v>
+        <v>235939.8688100465</v>
       </c>
       <c r="P16">
-        <v>126038.5463215012</v>
+        <v>142586.4057068785</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52807.96069202416</v>
+        <v>52808.09863093105</v>
       </c>
       <c r="B17">
-        <v>23499.27722683743</v>
+        <v>25510.23428374283</v>
       </c>
       <c r="C17">
-        <v>126215.0931197642</v>
+        <v>122952.6073427422</v>
       </c>
       <c r="D17">
-        <v>28809.84441008147</v>
+        <v>27614.92224693091</v>
       </c>
       <c r="E17">
-        <v>60688.37458443662</v>
+        <v>49391.58227266161</v>
       </c>
       <c r="F17">
-        <v>39501.37065724513</v>
+        <v>41885.7240237597</v>
       </c>
       <c r="G17">
-        <v>6019.752102241349</v>
+        <v>6728.765336191542</v>
       </c>
       <c r="H17">
-        <v>52807.96069202416</v>
+        <v>52808.09863093105</v>
       </c>
       <c r="I17">
-        <v>217684</v>
+        <v>207365</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>149714.3703466016</v>
+        <v>148462.8416264851</v>
       </c>
       <c r="O17">
-        <v>89498.21899451809</v>
+        <v>77006.50451959252</v>
       </c>
       <c r="P17">
-        <v>45521.12275948648</v>
+        <v>48614.48935995124</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48665.97133471831</v>
+        <v>48666.00388578139</v>
       </c>
       <c r="B18">
-        <v>21856.60763327651</v>
+        <v>21823.61620364825</v>
       </c>
       <c r="C18">
-        <v>118360.9851269293</v>
+        <v>113130.1859149382</v>
       </c>
       <c r="D18">
-        <v>26051.1155259108</v>
+        <v>24593.2690499708</v>
       </c>
       <c r="E18">
-        <v>56977.7494066689</v>
+        <v>41884.2509206593</v>
       </c>
       <c r="F18">
-        <v>36507.91645835579</v>
+        <v>39562.30525032771</v>
       </c>
       <c r="G18">
-        <v>5041.183078423751</v>
+        <v>6159.614447867521</v>
       </c>
       <c r="H18">
-        <v>48665.97133471831</v>
+        <v>48666.00388578139</v>
       </c>
       <c r="I18">
-        <v>194591</v>
+        <v>193572</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>140217.5927602058</v>
+        <v>134953.8021185865</v>
       </c>
       <c r="O18">
-        <v>83028.8649325797</v>
+        <v>66477.51997063011</v>
       </c>
       <c r="P18">
-        <v>41549.09953677954</v>
+        <v>45721.91969819523</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.99430750154</v>
+        <v>50920.95162517452</v>
       </c>
       <c r="B19">
-        <v>24062.06193672156</v>
+        <v>24262.82773723641</v>
       </c>
       <c r="C19">
-        <v>125942.5689914005</v>
+        <v>121271.7243935299</v>
       </c>
       <c r="D19">
-        <v>25732.76973634782</v>
+        <v>27079.53911789879</v>
       </c>
       <c r="E19">
-        <v>55534.2085788813</v>
+        <v>48417.89106925463</v>
       </c>
       <c r="F19">
-        <v>43086.49313839185</v>
+        <v>37326.45758075296</v>
       </c>
       <c r="G19">
-        <v>7099.989568411499</v>
+        <v>5508.647622801507</v>
       </c>
       <c r="H19">
-        <v>50920.99430750154</v>
+        <v>50920.95162517452</v>
       </c>
       <c r="I19">
-        <v>194085</v>
+        <v>196114</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>150004.6309281221</v>
+        <v>145534.5521307663</v>
       </c>
       <c r="O19">
-        <v>81266.97831522912</v>
+        <v>75497.43018715343</v>
       </c>
       <c r="P19">
-        <v>50186.48270680334</v>
+        <v>42835.10520355447</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.98459102494</v>
+        <v>20572.95426593596</v>
       </c>
       <c r="B20">
-        <v>9468.083449453379</v>
+        <v>9223.585935552699</v>
       </c>
       <c r="C20">
-        <v>50156.52286056877</v>
+        <v>45817.8510169099</v>
       </c>
       <c r="D20">
-        <v>11441.26008865161</v>
+        <v>10463.17441113071</v>
       </c>
       <c r="E20">
-        <v>24938.2089601646</v>
+        <v>17504.62184826084</v>
       </c>
       <c r="F20">
-        <v>16336.60678248491</v>
+        <v>15556.96513432902</v>
       </c>
       <c r="G20">
-        <v>2493.411499549978</v>
+        <v>2202.929084160521</v>
       </c>
       <c r="H20">
-        <v>20572.98459102494</v>
+        <v>20572.95426593596</v>
       </c>
       <c r="I20">
-        <v>80471</v>
+        <v>83276</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>59624.60631002215</v>
+        <v>55041.43695246259</v>
       </c>
       <c r="O20">
-        <v>36379.46904881621</v>
+        <v>27967.79625939155</v>
       </c>
       <c r="P20">
-        <v>18830.01828203489</v>
+        <v>17759.89421848954</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.92530438881</v>
+        <v>26960.99720830035</v>
       </c>
       <c r="B21">
-        <v>12432.21543057522</v>
+        <v>13062.49132167462</v>
       </c>
       <c r="C21">
-        <v>65148.33826373606</v>
+        <v>63216.5079243372</v>
       </c>
       <c r="D21">
-        <v>21113.33753280783</v>
+        <v>19244.61509018045</v>
       </c>
       <c r="E21">
-        <v>25470.13745994971</v>
+        <v>18378.21813269022</v>
       </c>
       <c r="F21">
-        <v>20707.50001660307</v>
+        <v>19096.33619647631</v>
       </c>
       <c r="G21">
-        <v>3421.157888577109</v>
+        <v>2518.555799566373</v>
       </c>
       <c r="H21">
-        <v>26960.92530438881</v>
+        <v>26960.99720830035</v>
       </c>
       <c r="I21">
-        <v>108187</v>
+        <v>109783</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>77580.55369431128</v>
+        <v>76278.99924601181</v>
       </c>
       <c r="O21">
-        <v>46583.47499275755</v>
+        <v>37622.83322287067</v>
       </c>
       <c r="P21">
-        <v>24128.65790518018</v>
+        <v>21614.89199604268</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3909.957119736539</v>
+        <v>3910.020012843706</v>
       </c>
       <c r="B22">
-        <v>1825.357225610808</v>
+        <v>1816.618085400974</v>
       </c>
       <c r="C22">
-        <v>9287.103961393897</v>
+        <v>9021.711926659758</v>
       </c>
       <c r="D22">
-        <v>3054.611724492729</v>
+        <v>2841.448281099531</v>
       </c>
       <c r="E22">
-        <v>3899.719058775354</v>
+        <v>2679.174056097874</v>
       </c>
       <c r="F22">
-        <v>3382.233518060919</v>
+        <v>3018.565978940034</v>
       </c>
       <c r="G22">
-        <v>527.0255625460675</v>
+        <v>404.2860994244437</v>
       </c>
       <c r="H22">
-        <v>3909.957119736539</v>
+        <v>3910.020012843706</v>
       </c>
       <c r="I22">
-        <v>15321</v>
+        <v>15499</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11112.46118700471</v>
+        <v>10838.33001206073</v>
       </c>
       <c r="O22">
-        <v>6954.330783268083</v>
+        <v>5520.622337197405</v>
       </c>
       <c r="P22">
-        <v>3909.259080606987</v>
+        <v>3422.852078364478</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.9386231095848</v>
+        <v>105.8798201424825</v>
       </c>
       <c r="B23">
-        <v>45.59456759823804</v>
+        <v>45.49677684067148</v>
       </c>
       <c r="C23">
-        <v>252.5267629142854</v>
+        <v>240.4243352002397</v>
       </c>
       <c r="D23">
-        <v>91.02971740542553</v>
+        <v>84.44271527157764</v>
       </c>
       <c r="E23">
-        <v>104.9958853750699</v>
+        <v>76.65063370912509</v>
       </c>
       <c r="F23">
-        <v>92.68166609865028</v>
+        <v>90.66039120341215</v>
       </c>
       <c r="G23">
-        <v>10.86361283193106</v>
+        <v>11.93424387393885</v>
       </c>
       <c r="H23">
-        <v>105.9386231095848</v>
+        <v>105.8798201424825</v>
       </c>
       <c r="I23">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>298.1213305125234</v>
+        <v>285.9211120409112</v>
       </c>
       <c r="O23">
-        <v>196.0256027804954</v>
+        <v>161.0933489807027</v>
       </c>
       <c r="P23">
-        <v>103.5452789305814</v>
+        <v>102.594635077351</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>15661.10075195526</v>
+        <v>15660.9988294901</v>
       </c>
       <c r="B24">
-        <v>7051.039099991468</v>
+        <v>7409.870576019288</v>
       </c>
       <c r="C24">
-        <v>36702.25326408452</v>
+        <v>36296.84325263841</v>
       </c>
       <c r="D24">
-        <v>11680.28428042145</v>
+        <v>11961.95585410662</v>
       </c>
       <c r="E24">
-        <v>13507.15665768399</v>
+        <v>11104.23600790165</v>
       </c>
       <c r="F24">
-        <v>11408.12235290717</v>
+        <v>11935.38179180026</v>
       </c>
       <c r="G24">
-        <v>1770.885021677307</v>
+        <v>1690.928511670301</v>
       </c>
       <c r="H24">
-        <v>15661.10075195526</v>
+        <v>15660.9988294901</v>
       </c>
       <c r="I24">
-        <v>56167</v>
+        <v>59350</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>43753.29236407599</v>
+        <v>43706.7138286577</v>
       </c>
       <c r="O24">
-        <v>25187.44093810544</v>
+        <v>23066.19186200827</v>
       </c>
       <c r="P24">
-        <v>13179.00737458448</v>
+        <v>13626.31030347056</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6607.03610959117</v>
+        <v>6607.086760994107</v>
       </c>
       <c r="B25">
-        <v>1406.123952726894</v>
+        <v>1479.055830889829</v>
       </c>
       <c r="C25">
-        <v>17745.56227486029</v>
+        <v>16491.36440114704</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11329.77134538939</v>
+        <v>9996.771195922656</v>
       </c>
       <c r="F25">
-        <v>5847.287065744275</v>
+        <v>5473.679803273288</v>
       </c>
       <c r="G25">
-        <v>358.9675164244588</v>
+        <v>148.8287476684074</v>
       </c>
       <c r="H25">
-        <v>6607.03610959117</v>
+        <v>6607.086760994107</v>
       </c>
       <c r="I25">
-        <v>29584</v>
+        <v>31341</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19151.68622758718</v>
+        <v>17970.42023203687</v>
       </c>
       <c r="O25">
-        <v>11329.77134538939</v>
+        <v>9996.771195922656</v>
       </c>
       <c r="P25">
-        <v>6206.254582168735</v>
+        <v>5622.508550941695</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>22423.01039285584</v>
+        <v>22422.97255416402</v>
       </c>
       <c r="B26">
-        <v>4937.46103173154</v>
+        <v>4728.957302524999</v>
       </c>
       <c r="C26">
-        <v>60122.2179622311</v>
+        <v>56092.47657244154</v>
       </c>
       <c r="D26">
-        <v>8302.381943166683</v>
+        <v>8683.050609184884</v>
       </c>
       <c r="E26">
-        <v>29033.23174794225</v>
+        <v>23008.46916780733</v>
       </c>
       <c r="F26">
-        <v>18159.83894667592</v>
+        <v>20470.6419766932</v>
       </c>
       <c r="G26">
-        <v>1035.02286816044</v>
+        <v>769.6400878191107</v>
       </c>
       <c r="H26">
-        <v>22423.01039285584</v>
+        <v>22422.97255416402</v>
       </c>
       <c r="I26">
-        <v>104206</v>
+        <v>100529</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>65059.67899396264</v>
+        <v>60821.43387496654</v>
       </c>
       <c r="O26">
-        <v>37335.61369110893</v>
+        <v>31691.51977699221</v>
       </c>
       <c r="P26">
-        <v>19194.86181483636</v>
+        <v>21240.28206451231</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2271,31 +2271,31 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>29147.97425437151</v>
+        <v>29147.91128869895</v>
       </c>
       <c r="B27">
-        <v>6498.005487496977</v>
+        <v>6371.033019851183</v>
       </c>
       <c r="C27">
-        <v>75716.00953795241</v>
+        <v>71463.67535195834</v>
       </c>
       <c r="D27">
-        <v>11429.32649899414</v>
+        <v>10805.01722832467</v>
       </c>
       <c r="E27">
-        <v>40521.4795755536</v>
+        <v>30320.78713001087</v>
       </c>
       <c r="F27">
-        <v>24650.14649834134</v>
+        <v>25696.33673335371</v>
       </c>
       <c r="G27">
-        <v>1252.230472447789</v>
+        <v>840.997544868185</v>
       </c>
       <c r="H27">
-        <v>29147.97425437151</v>
+        <v>29147.91128869895</v>
       </c>
       <c r="I27">
-        <v>132905</v>
+        <v>142275</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>82214.01502544939</v>
+        <v>77834.70837180952</v>
       </c>
       <c r="O27">
-        <v>51950.80607454774</v>
+        <v>41125.80435833553</v>
       </c>
       <c r="P27">
-        <v>25902.37697078912</v>
+        <v>26537.3342782219</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>30698.06485041917</v>
+        <v>30698.01908784003</v>
       </c>
       <c r="B28">
-        <v>6469.493048317167</v>
+        <v>7070.11951895376</v>
       </c>
       <c r="C28">
-        <v>81232.08011580666</v>
+        <v>78520.48678187866</v>
       </c>
       <c r="D28">
-        <v>10963.41702883899</v>
+        <v>11459.19460358474</v>
       </c>
       <c r="E28">
-        <v>39474.88932962306</v>
+        <v>30821.48374690601</v>
       </c>
       <c r="F28">
-        <v>24916.1274642746</v>
+        <v>26774.18440936189</v>
       </c>
       <c r="G28">
-        <v>1151.422971129345</v>
+        <v>1478.997919287825</v>
       </c>
       <c r="H28">
-        <v>30698.06485041917</v>
+        <v>30698.01908784003</v>
       </c>
       <c r="I28">
-        <v>143714</v>
+        <v>144437</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>87701.57316412382</v>
+        <v>85590.60630083241</v>
       </c>
       <c r="O28">
-        <v>50438.30635846205</v>
+        <v>42280.67835049075</v>
       </c>
       <c r="P28">
-        <v>26067.55043540394</v>
+        <v>28253.18232864972</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2415,31 +2415,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>81901.09333108927</v>
+        <v>81900.99875103052</v>
       </c>
       <c r="B29">
-        <v>17697.23572869668</v>
+        <v>18608.07603235897</v>
       </c>
       <c r="C29">
-        <v>208608.2737032985</v>
+        <v>207213.3584719985</v>
       </c>
       <c r="D29">
-        <v>29327.17131512036</v>
+        <v>31234.62883524976</v>
       </c>
       <c r="E29">
-        <v>101021.1768178965</v>
+        <v>83339.55621452202</v>
       </c>
       <c r="F29">
-        <v>73642.48365827954</v>
+        <v>64906.80140651503</v>
       </c>
       <c r="G29">
-        <v>3664.259015789295</v>
+        <v>1317.202242841682</v>
       </c>
       <c r="H29">
-        <v>81901.09333108927</v>
+        <v>81900.99875103052</v>
       </c>
       <c r="I29">
-        <v>392547</v>
+        <v>377269</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>226305.5094319952</v>
+        <v>225821.4345043575</v>
       </c>
       <c r="O29">
-        <v>130348.3481330169</v>
+        <v>114574.1850497718</v>
       </c>
       <c r="P29">
-        <v>77306.74267406884</v>
+        <v>66224.0036493567</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2487,31 +2487,31 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>65572.06527383349</v>
+        <v>65572.03218274536</v>
       </c>
       <c r="B30">
-        <v>14322.42936712557</v>
+        <v>13275.1683662017</v>
       </c>
       <c r="C30">
-        <v>172732.2658403567</v>
+        <v>161204.9137335724</v>
       </c>
       <c r="D30">
-        <v>26226.88416093446</v>
+        <v>23054.1883895766</v>
       </c>
       <c r="E30">
-        <v>89736.45448874097</v>
+        <v>59397.06989418504</v>
       </c>
       <c r="F30">
-        <v>54773.02223630117</v>
+        <v>55351.31975446329</v>
       </c>
       <c r="G30">
-        <v>3444.405402522545</v>
+        <v>1824.414048729759</v>
       </c>
       <c r="H30">
-        <v>65572.06527383349</v>
+        <v>65572.03218274536</v>
       </c>
       <c r="I30">
-        <v>283279</v>
+        <v>308061</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>187054.6952074823</v>
+        <v>174480.0820997741</v>
       </c>
       <c r="O30">
-        <v>115963.3386496754</v>
+        <v>82451.25828376164</v>
       </c>
       <c r="P30">
-        <v>58217.42763882372</v>
+        <v>57175.73380319304</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2559,31 +2559,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>90327.96387099328</v>
+        <v>90327.90455782911</v>
       </c>
       <c r="B31">
-        <v>19449.74724145606</v>
+        <v>19556.02125262935</v>
       </c>
       <c r="C31">
-        <v>231016.9572083952</v>
+        <v>222210.5963756517</v>
       </c>
       <c r="D31">
-        <v>33024.79700131111</v>
+        <v>35111.67759515751</v>
       </c>
       <c r="E31">
-        <v>113035.6042969547</v>
+        <v>90054.76821256807</v>
       </c>
       <c r="F31">
-        <v>89723.62627336534</v>
+        <v>74653.66873454691</v>
       </c>
       <c r="G31">
-        <v>5450.568789754772</v>
+        <v>2284.612643945632</v>
       </c>
       <c r="H31">
-        <v>90327.96387099328</v>
+        <v>90327.90455782911</v>
       </c>
       <c r="I31">
-        <v>407886</v>
+        <v>421181</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>250466.7044498513</v>
+        <v>241766.6176282811</v>
       </c>
       <c r="O31">
-        <v>146060.4012982658</v>
+        <v>125166.4458077256</v>
       </c>
       <c r="P31">
-        <v>95174.19506312012</v>
+        <v>76938.28137849254</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>36450.94028094883</v>
+        <v>36450.95260020379</v>
       </c>
       <c r="B32">
-        <v>7561.195674226336</v>
+        <v>8204.1572024736</v>
       </c>
       <c r="C32">
-        <v>95443.45369774672</v>
+        <v>93865.82044752275</v>
       </c>
       <c r="D32">
-        <v>13562.38630258687</v>
+        <v>14939.28565940031</v>
       </c>
       <c r="E32">
-        <v>49514.56852555472</v>
+        <v>40921.2771216291</v>
       </c>
       <c r="F32">
-        <v>30847.73922784315</v>
+        <v>35218.26898274477</v>
       </c>
       <c r="G32">
-        <v>1633.156908791758</v>
+        <v>1536.154836970327</v>
       </c>
       <c r="H32">
-        <v>36450.94028094883</v>
+        <v>36450.95260020379</v>
       </c>
       <c r="I32">
-        <v>165179</v>
+        <v>173826</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>103004.6493719731</v>
+        <v>102069.9776499964</v>
       </c>
       <c r="O32">
-        <v>63076.95482814159</v>
+        <v>55860.56278102941</v>
       </c>
       <c r="P32">
-        <v>32480.89613663491</v>
+        <v>36754.42381971509</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2703,31 +2703,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22121.01890891697</v>
+        <v>22120.95463334604</v>
       </c>
       <c r="B33">
-        <v>4820.349510794023</v>
+        <v>5103.954772611793</v>
       </c>
       <c r="C33">
-        <v>59694.44609955289</v>
+        <v>56895.52563931249</v>
       </c>
       <c r="D33">
-        <v>8667.066939209115</v>
+        <v>8687.256137010592</v>
       </c>
       <c r="E33">
-        <v>28992.1757334592</v>
+        <v>22958.89090274638</v>
       </c>
       <c r="F33">
-        <v>19982.68276010369</v>
+        <v>17994.60442038513</v>
       </c>
       <c r="G33">
-        <v>939.6246486423813</v>
+        <v>690.0438693526303</v>
       </c>
       <c r="H33">
-        <v>22121.01890891697</v>
+        <v>22120.95463334604</v>
       </c>
       <c r="I33">
-        <v>99828</v>
+        <v>98892</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>64514.79561034691</v>
+        <v>61999.48041192428</v>
       </c>
       <c r="O33">
-        <v>37659.24267266832</v>
+        <v>31646.14703975697</v>
       </c>
       <c r="P33">
-        <v>20922.30740874607</v>
+        <v>18684.64828973776</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>26864.04959246473</v>
+        <v>26863.96973503105</v>
       </c>
       <c r="B34">
-        <v>6002.463419384635</v>
+        <v>5636.638948172909</v>
       </c>
       <c r="C34">
-        <v>71418.17594883315</v>
+        <v>68935.42533446311</v>
       </c>
       <c r="D34">
-        <v>9628.494913475779</v>
+        <v>10301.31442012538</v>
       </c>
       <c r="E34">
-        <v>32950.44134836696</v>
+        <v>27151.8766553237</v>
       </c>
       <c r="F34">
-        <v>22454.04276575735</v>
+        <v>23429.4461139499</v>
       </c>
       <c r="G34">
-        <v>1085.818697802039</v>
+        <v>893.7835749894385</v>
       </c>
       <c r="H34">
-        <v>26864.04959246473</v>
+        <v>26863.96973503105</v>
       </c>
       <c r="I34">
-        <v>125709</v>
+        <v>129575</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>77420.63936821777</v>
+        <v>74572.06428263603</v>
       </c>
       <c r="O34">
-        <v>42578.93626184274</v>
+        <v>37453.19107544908</v>
       </c>
       <c r="P34">
-        <v>23539.86146355939</v>
+        <v>24323.22968893934</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2847,31 +2847,31 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>453.916601477492</v>
+        <v>454.0154587568231</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1305.785627280525</v>
+        <v>1220.812229862298</v>
       </c>
       <c r="D35">
-        <v>162.6297465375992</v>
+        <v>181.9524197740193</v>
       </c>
       <c r="E35">
-        <v>592.9192166151048</v>
+        <v>476.3803068431416</v>
       </c>
       <c r="F35">
-        <v>379.7052531549848</v>
+        <v>374.4745951374057</v>
       </c>
       <c r="G35">
-        <v>15.85694402059722</v>
+        <v>9.878516110118934</v>
       </c>
       <c r="H35">
-        <v>453.916601477492</v>
+        <v>454.0154587568231</v>
       </c>
       <c r="I35">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1305.785627280525</v>
+        <v>1220.812229862298</v>
       </c>
       <c r="O35">
-        <v>755.548963152704</v>
+        <v>658.3327266171608</v>
       </c>
       <c r="P35">
-        <v>395.562197175582</v>
+        <v>384.3531112475246</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>504.9093011865317</v>
+        <v>504.9871004035171</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1433.451423663998</v>
+        <v>1340.994877918098</v>
       </c>
       <c r="D36">
-        <v>183.9517922576294</v>
+        <v>203.326286179204</v>
       </c>
       <c r="E36">
-        <v>637.9832791113666</v>
+        <v>522.9467667505699</v>
       </c>
       <c r="F36">
-        <v>418.5388393202857</v>
+        <v>409.9440280417649</v>
       </c>
       <c r="G36">
-        <v>21.34256674883989</v>
+        <v>15.39784031400367</v>
       </c>
       <c r="H36">
-        <v>504.9093011865317</v>
+        <v>504.9871004035171</v>
       </c>
       <c r="I36">
-        <v>2435</v>
+        <v>2716</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1433.451423663998</v>
+        <v>1340.994877918098</v>
       </c>
       <c r="O36">
-        <v>821.935071368996</v>
+        <v>726.2730529297738</v>
       </c>
       <c r="P36">
-        <v>439.8814060691256</v>
+        <v>425.3418683557686</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>11107.91977194214</v>
+        <v>11107.95772531546</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>29821.53671509122</v>
+        <v>29865.58987984172</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>16592.55823213892</v>
+        <v>15518.71596955723</v>
       </c>
       <c r="F37">
-        <v>3387.295731959249</v>
+        <v>3368.419286766049</v>
       </c>
       <c r="G37">
-        <v>6443.608904897434</v>
+        <v>6596.887637190494</v>
       </c>
       <c r="H37">
-        <v>11107.91977194214</v>
+        <v>11107.95772531546</v>
       </c>
       <c r="I37">
-        <v>56410</v>
+        <v>53586</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>29821.53671509122</v>
+        <v>29865.58987984172</v>
       </c>
       <c r="O37">
-        <v>16592.55823213892</v>
+        <v>15518.71596955723</v>
       </c>
       <c r="P37">
-        <v>9830.904636856683</v>
+        <v>9965.306923956541</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3063,31 +3063,31 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1091.059385622232</v>
+        <v>1090.908949442242</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3073.911518033952</v>
+        <v>2977.46731229243</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1676.383858659257</v>
+        <v>1549.088209324538</v>
       </c>
       <c r="F38">
-        <v>354.9666462045897</v>
+        <v>348.4753047266533</v>
       </c>
       <c r="G38">
-        <v>611.8212433464629</v>
+        <v>665.6607633828387</v>
       </c>
       <c r="H38">
-        <v>1091.059385622232</v>
+        <v>1090.908949442242</v>
       </c>
       <c r="I38">
-        <v>5671</v>
+        <v>5701</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3073.911518033952</v>
+        <v>2977.46731229243</v>
       </c>
       <c r="O38">
-        <v>1676.383858659257</v>
+        <v>1549.088209324538</v>
       </c>
       <c r="P38">
-        <v>966.7878895510526</v>
+        <v>1014.136068109492</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3135,31 +3135,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>153571.9979375686</v>
+        <v>153572.0111781851</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>420335.7388161217</v>
+        <v>414481.5695077491</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>251237.9276137516</v>
+        <v>212451.1752150335</v>
       </c>
       <c r="F39">
-        <v>47254.63964374729</v>
+        <v>48462.29561579978</v>
       </c>
       <c r="G39">
-        <v>87006.87936486838</v>
+        <v>89526.07544960633</v>
       </c>
       <c r="H39">
-        <v>153571.9979375686</v>
+        <v>153572.0111781851</v>
       </c>
       <c r="I39">
-        <v>734482</v>
+        <v>754880</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3178,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>420335.7388161217</v>
+        <v>414481.5695077491</v>
       </c>
       <c r="O39">
-        <v>251237.9276137516</v>
+        <v>212451.1752150335</v>
       </c>
       <c r="P39">
-        <v>134261.5190086157</v>
+        <v>137988.3710654061</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>152869.01831196</v>
+        <v>152868.9515313064</v>
       </c>
       <c r="B40">
-        <v>28270.16265155139</v>
+        <v>27793.53583421675</v>
       </c>
       <c r="C40">
-        <v>409552.3870238314</v>
+        <v>414319.2074477942</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>250241.1061652461</v>
+        <v>202082.3279161012</v>
       </c>
       <c r="F40">
-        <v>51836.07221029651</v>
+        <v>42890.76359389161</v>
       </c>
       <c r="G40">
-        <v>89446.8765322944</v>
+        <v>80123.10011303674</v>
       </c>
       <c r="H40">
-        <v>152869.01831196</v>
+        <v>152868.9515313064</v>
       </c>
       <c r="I40">
-        <v>738035</v>
+        <v>715174</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>437822.5496753828</v>
+        <v>442112.743282011</v>
       </c>
       <c r="O40">
-        <v>250241.1061652461</v>
+        <v>202082.3279161012</v>
       </c>
       <c r="P40">
-        <v>141282.9487425909</v>
+        <v>123013.8637069283</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3279,31 +3279,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>339433.1016991629</v>
+        <v>339433.0724161376</v>
       </c>
       <c r="B41">
-        <v>59687.57933073592</v>
+        <v>60877.69452268193</v>
       </c>
       <c r="C41">
-        <v>963391.375127977</v>
+        <v>878262.841374044</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>604207.7697664253</v>
+        <v>502012.5428130004</v>
       </c>
       <c r="F41">
-        <v>87392.79964019926</v>
+        <v>105814.4330835918</v>
       </c>
       <c r="G41">
-        <v>168985.8552393943</v>
+        <v>194301.2930819177</v>
       </c>
       <c r="H41">
-        <v>339433.1016991629</v>
+        <v>339433.0724161376</v>
       </c>
       <c r="I41">
-        <v>1607312</v>
+        <v>1648044</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1023078.954458713</v>
+        <v>939140.5358967258</v>
       </c>
       <c r="O41">
-        <v>604207.7697664253</v>
+        <v>502012.5428130004</v>
       </c>
       <c r="P41">
-        <v>256378.6548795936</v>
+        <v>300115.7261655094</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3351,31 +3351,31 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>245458.9666942237</v>
+        <v>245458.952050796</v>
       </c>
       <c r="B42">
-        <v>41419.36082704285</v>
+        <v>43525.09279421642</v>
       </c>
       <c r="C42">
-        <v>661598.2914434664</v>
+        <v>616642.4836288828</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>396911.7976532434</v>
+        <v>318324.5479082121</v>
       </c>
       <c r="F42">
-        <v>79953.30633162122</v>
+        <v>77914.53154131572</v>
       </c>
       <c r="G42">
-        <v>134940.4586845868</v>
+        <v>141285.2559971565</v>
       </c>
       <c r="H42">
-        <v>245458.9666942237</v>
+        <v>245458.952050796</v>
       </c>
       <c r="I42">
-        <v>1216632</v>
+        <v>1251240</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>703017.6522705093</v>
+        <v>660167.5764230993</v>
       </c>
       <c r="O42">
-        <v>396911.7976532434</v>
+        <v>318324.5479082121</v>
       </c>
       <c r="P42">
-        <v>214893.765016208</v>
+        <v>219199.7875384722</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>367626.9073327679</v>
+        <v>367626.9298818982</v>
       </c>
       <c r="B43">
-        <v>66940.97792752707</v>
+        <v>61147.62602806382</v>
       </c>
       <c r="C43">
-        <v>988275.7545750686</v>
+        <v>945639.2261852977</v>
       </c>
       <c r="D43">
-        <v>73649.60271567812</v>
+        <v>76129.69929433071</v>
       </c>
       <c r="E43">
-        <v>494860.1505520634</v>
+        <v>430634.9089700938</v>
       </c>
       <c r="F43">
-        <v>119810.6670369732</v>
+        <v>114914.0317200089</v>
       </c>
       <c r="G43">
-        <v>209097.4191570389</v>
+        <v>214978.2872065829</v>
       </c>
       <c r="H43">
-        <v>367626.9073327679</v>
+        <v>367626.9298818982</v>
       </c>
       <c r="I43">
-        <v>1687488</v>
+        <v>1807252</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1055216.732502596</v>
+        <v>1006786.852213362</v>
       </c>
       <c r="O43">
-        <v>568509.7532677415</v>
+        <v>506764.6082644245</v>
       </c>
       <c r="P43">
-        <v>328908.086194012</v>
+        <v>329892.3189265918</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3495,31 +3495,31 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>470397.0395949812</v>
+        <v>470396.958517089</v>
       </c>
       <c r="B44">
-        <v>88116.52567445253</v>
+        <v>80421.43712093325</v>
       </c>
       <c r="C44">
-        <v>1263716.406296821</v>
+        <v>1184046.504833416</v>
       </c>
       <c r="D44">
-        <v>110414.1798166409</v>
+        <v>93727.92501138602</v>
       </c>
       <c r="E44">
-        <v>705533.5809790352</v>
+        <v>560694.8138417276</v>
       </c>
       <c r="F44">
-        <v>153034.1401442307</v>
+        <v>144410.9560224967</v>
       </c>
       <c r="G44">
-        <v>269424.9220996814</v>
+        <v>265622.3871173659</v>
       </c>
       <c r="H44">
-        <v>470397.0395949812</v>
+        <v>470396.958517089</v>
       </c>
       <c r="I44">
-        <v>2162591</v>
+        <v>2100102</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1351832.931971273</v>
+        <v>1264467.94195435</v>
       </c>
       <c r="O44">
-        <v>815947.7607956762</v>
+        <v>654422.7388531136</v>
       </c>
       <c r="P44">
-        <v>422459.0622439121</v>
+        <v>410033.3431398626</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3567,31 +3567,31 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>307102.9263256985</v>
+        <v>307103.0947249071</v>
       </c>
       <c r="B45">
-        <v>57712.13826774466</v>
+        <v>51515.87915932189</v>
       </c>
       <c r="C45">
-        <v>828709.9408094756</v>
+        <v>771512.0687268588</v>
       </c>
       <c r="D45">
-        <v>66360.21402919269</v>
+        <v>66693.5885778003</v>
       </c>
       <c r="E45">
-        <v>447453.9109069013</v>
+        <v>363289.6222992175</v>
       </c>
       <c r="F45">
-        <v>92846.90732762635</v>
+        <v>97806.06868393908</v>
       </c>
       <c r="G45">
-        <v>166900.6944052789</v>
+        <v>173996.646469451</v>
       </c>
       <c r="H45">
-        <v>307102.9263256985</v>
+        <v>307103.0947249071</v>
       </c>
       <c r="I45">
-        <v>1514409</v>
+        <v>1528944</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>886422.0790772203</v>
+        <v>823027.9478861807</v>
       </c>
       <c r="O45">
-        <v>513814.124936094</v>
+        <v>429983.2108770178</v>
       </c>
       <c r="P45">
-        <v>259747.6017329053</v>
+        <v>271802.7151533901</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3639,31 +3639,31 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>327915.0225576284</v>
+        <v>327914.9931845952</v>
       </c>
       <c r="B46">
-        <v>60257.5856693839</v>
+        <v>59287.49026788845</v>
       </c>
       <c r="C46">
-        <v>901921.4010521979</v>
+        <v>865663.8506235407</v>
       </c>
       <c r="D46">
-        <v>68817.05017237575</v>
+        <v>69428.27479204907</v>
       </c>
       <c r="E46">
-        <v>471121.8282774428</v>
+        <v>385366.7873499811</v>
       </c>
       <c r="F46">
-        <v>106391.8373408886</v>
+        <v>103719.1188402372</v>
       </c>
       <c r="G46">
-        <v>203589.990996242</v>
+        <v>190288.7392592231</v>
       </c>
       <c r="H46">
-        <v>327915.0225576284</v>
+        <v>327914.9931845952</v>
       </c>
       <c r="I46">
-        <v>1547204</v>
+        <v>1570860</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>962178.9867215818</v>
+        <v>924951.3408914291</v>
       </c>
       <c r="O46">
-        <v>539938.8784498186</v>
+        <v>454795.0621420302</v>
       </c>
       <c r="P46">
-        <v>309981.8283371305</v>
+        <v>294007.8580994603</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3711,31 +3711,31 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>659113.969532397</v>
+        <v>659113.9784211939</v>
       </c>
       <c r="B47">
-        <v>124417.9789587161</v>
+        <v>107318.9728861688</v>
       </c>
       <c r="C47">
-        <v>1849439.450370282</v>
+        <v>1619236.058789798</v>
       </c>
       <c r="D47">
-        <v>131833.1244998371</v>
+        <v>131493.7146389746</v>
       </c>
       <c r="E47">
-        <v>903227.7528596134</v>
+        <v>759116.3202156576</v>
       </c>
       <c r="F47">
-        <v>218829.8089325316</v>
+        <v>196513.8751835066</v>
       </c>
       <c r="G47">
-        <v>371064.8185751337</v>
+        <v>387165.1186724703</v>
       </c>
       <c r="H47">
-        <v>659113.969532397</v>
+        <v>659113.9784211939</v>
       </c>
       <c r="I47">
-        <v>3179120</v>
+        <v>3159173</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1973857.429328999</v>
+        <v>1726555.031675967</v>
       </c>
       <c r="O47">
-        <v>1035060.877359451</v>
+        <v>890610.0348546322</v>
       </c>
       <c r="P47">
-        <v>589894.6275076653</v>
+        <v>583678.993855977</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>195930.90355997</v>
+        <v>195930.9714869311</v>
       </c>
       <c r="B48">
-        <v>32976.84815995998</v>
+        <v>34286.58694228739</v>
       </c>
       <c r="C48">
-        <v>507476.2447546519</v>
+        <v>489130.3634342568</v>
       </c>
       <c r="D48">
-        <v>48714.50755918476</v>
+        <v>43616.63900707474</v>
       </c>
       <c r="E48">
-        <v>272773.284854707</v>
+        <v>214996.5356770908</v>
       </c>
       <c r="F48">
-        <v>60683.27590269459</v>
+        <v>63320.03926427171</v>
       </c>
       <c r="G48">
-        <v>104026.8764118331</v>
+        <v>115953.6925426825</v>
       </c>
       <c r="H48">
-        <v>195930.90355997</v>
+        <v>195930.9714869311</v>
       </c>
       <c r="I48">
-        <v>943399</v>
+        <v>918952</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>540453.0929146119</v>
+        <v>523416.9503765442</v>
       </c>
       <c r="O48">
-        <v>321487.7924138918</v>
+        <v>258613.1746841655</v>
       </c>
       <c r="P48">
-        <v>164710.1523145277</v>
+        <v>179273.7318069543</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>174400.0651824221</v>
+        <v>174399.9825381193</v>
       </c>
       <c r="B49">
-        <v>29534.83023171893</v>
+        <v>29832.98545287852</v>
       </c>
       <c r="C49">
-        <v>480939.536496859</v>
+        <v>427153.5035185562</v>
       </c>
       <c r="D49">
-        <v>43538.99733360639</v>
+        <v>40431.84237714842</v>
       </c>
       <c r="E49">
-        <v>248087.4682300212</v>
+        <v>200611.6528124896</v>
       </c>
       <c r="F49">
-        <v>52097.1318539529</v>
+        <v>58685.10034118668</v>
       </c>
       <c r="G49">
-        <v>95833.71156326709</v>
+        <v>106163.0543987943</v>
       </c>
       <c r="H49">
-        <v>174400.0651824221</v>
+        <v>174399.9825381193</v>
       </c>
       <c r="I49">
-        <v>863390</v>
+        <v>842564</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>510474.3667285779</v>
+        <v>456986.4889714347</v>
       </c>
       <c r="O49">
-        <v>291626.4655636277</v>
+        <v>241043.4951896381</v>
       </c>
       <c r="P49">
-        <v>147930.84341722</v>
+        <v>164848.154739981</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>60248.06816985692</v>
+        <v>60247.99319645051</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>161891.704057609</v>
+        <v>153435.4264628496</v>
       </c>
       <c r="D50">
-        <v>14306.14607550346</v>
+        <v>15089.94974991644</v>
       </c>
       <c r="E50">
-        <v>83239.83793873669</v>
+        <v>70644.71472933875</v>
       </c>
       <c r="F50">
-        <v>18653.79479502007</v>
+        <v>19823.98533473804</v>
       </c>
       <c r="G50">
-        <v>33498.82303303525</v>
+        <v>35919.40383664949</v>
       </c>
       <c r="H50">
-        <v>60248.06816985692</v>
+        <v>60247.99319645051</v>
       </c>
       <c r="I50">
-        <v>297582</v>
+        <v>298100</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>161891.704057609</v>
+        <v>153435.4264628496</v>
       </c>
       <c r="O50">
-        <v>97545.98401424015</v>
+        <v>85734.6644792552</v>
       </c>
       <c r="P50">
-        <v>52152.61782805531</v>
+        <v>55743.38917138753</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3999,31 +3999,31 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8460.918960281068</v>
+        <v>8460.94169803861</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>23715.15759553406</v>
+        <v>22719.00616000156</v>
       </c>
       <c r="D51">
-        <v>2088.186856469676</v>
+        <v>1965.387518083253</v>
       </c>
       <c r="E51">
-        <v>11776.32622728455</v>
+        <v>9540.24784066577</v>
       </c>
       <c r="F51">
-        <v>2806.834673023887</v>
+        <v>2647.231245003855</v>
       </c>
       <c r="G51">
-        <v>4763.057286486363</v>
+        <v>4711.609478280099</v>
       </c>
       <c r="H51">
-        <v>8460.918960281068</v>
+        <v>8460.94169803861</v>
       </c>
       <c r="I51">
-        <v>38973</v>
+        <v>42711</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>23715.15759553406</v>
+        <v>22719.00616000156</v>
       </c>
       <c r="O51">
-        <v>13864.51308375422</v>
+        <v>11505.63535874902</v>
       </c>
       <c r="P51">
-        <v>7569.891959510251</v>
+        <v>7358.840723283955</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2462.938588898251</v>
+        <v>2463.025429443223</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>7602.901503186362</v>
+        <v>7452.145370787417</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1130.992149208842</v>
+        <v>939.9864516398275</v>
       </c>
       <c r="F52">
-        <v>1.186059003221031</v>
+        <v>4.140792267907451</v>
       </c>
       <c r="G52">
-        <v>9.162553510284971</v>
+        <v>12.64172570564937</v>
       </c>
       <c r="H52">
-        <v>2462.938588898251</v>
+        <v>2463.025429443223</v>
       </c>
       <c r="I52">
-        <v>11346</v>
+        <v>11266</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4114,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>7602.901503186362</v>
+        <v>7452.145370787417</v>
       </c>
       <c r="O52">
-        <v>1130.992149208842</v>
+        <v>939.9864516398275</v>
       </c>
       <c r="P52">
-        <v>10.348612513506</v>
+        <v>16.78251797355682</v>
       </c>
       <c r="Q52">
-        <v>22.27076737327671</v>
+        <v>17.5788545212588</v>
       </c>
       <c r="R52">
-        <v>50.29045214283536</v>
+        <v>42.58322400345888</v>
       </c>
       <c r="S52">
-        <v>72.56121951611208</v>
+        <v>60.16207852471768</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4143,31 +4143,31 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3704.043154210372</v>
+        <v>3703.897108540556</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>11605.75475972934</v>
+        <v>10846.14675343268</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2040.797110845219</v>
+        <v>1533.64386730338</v>
       </c>
       <c r="F53">
-        <v>2.354354063891214</v>
+        <v>2.613488837364627</v>
       </c>
       <c r="G53">
-        <v>8.386163740586618</v>
+        <v>19.29711489941513</v>
       </c>
       <c r="H53">
-        <v>3704.043154210372</v>
+        <v>3703.897108540556</v>
       </c>
       <c r="I53">
-        <v>16810</v>
+        <v>16478</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>11605.75475972934</v>
+        <v>10846.14675343268</v>
       </c>
       <c r="O53">
-        <v>2040.797110845219</v>
+        <v>1533.64386730338</v>
       </c>
       <c r="P53">
-        <v>10.74051780447783</v>
+        <v>21.91060373677976</v>
       </c>
       <c r="Q53">
-        <v>20.78495670318062</v>
+        <v>29.40039570611384</v>
       </c>
       <c r="R53">
-        <v>58.65394574267953</v>
+        <v>66.75362614859584</v>
       </c>
       <c r="S53">
-        <v>79.43890244586015</v>
+        <v>96.15402185470968</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4215,31 +4215,31 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>169754.0441829002</v>
+        <v>169753.9082694323</v>
       </c>
       <c r="B54">
-        <v>43260.7430315605</v>
+        <v>40563.45531629367</v>
       </c>
       <c r="C54">
-        <v>517187.0531759887</v>
+        <v>471737.2567249023</v>
       </c>
       <c r="D54">
-        <v>6838.466234293364</v>
+        <v>5081.763080213273</v>
       </c>
       <c r="E54">
-        <v>74939.59014850078</v>
+        <v>60772.76493763563</v>
       </c>
       <c r="F54">
-        <v>28.36714856455987</v>
+        <v>59.31810571367174</v>
       </c>
       <c r="G54">
-        <v>327.447431363954</v>
+        <v>560.3671487386615</v>
       </c>
       <c r="H54">
-        <v>169754.0441829002</v>
+        <v>169753.9082694323</v>
       </c>
       <c r="I54">
-        <v>725402</v>
+        <v>706796</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4258,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>560447.7962075493</v>
+        <v>512300.712041196</v>
       </c>
       <c r="O54">
-        <v>81778.05638279414</v>
+        <v>65854.52801784891</v>
       </c>
       <c r="P54">
-        <v>355.8145799285139</v>
+        <v>619.6852544523333</v>
       </c>
       <c r="Q54">
-        <v>1068.849217326527</v>
+        <v>978.6807897429168</v>
       </c>
       <c r="R54">
-        <v>3882.225568430699</v>
+        <v>3332.474349099138</v>
       </c>
       <c r="S54">
-        <v>4951.074785757227</v>
+        <v>4311.155138842055</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4287,31 +4287,31 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>301000.9781158562</v>
+        <v>301001.0555495748</v>
       </c>
       <c r="B55">
-        <v>73232.36705478482</v>
+        <v>71375.64188645051</v>
       </c>
       <c r="C55">
-        <v>899567.0509548308</v>
+        <v>823493.3783387106</v>
       </c>
       <c r="D55">
-        <v>10625.24384984057</v>
+        <v>8757.874858158068</v>
       </c>
       <c r="E55">
-        <v>124947.2387959726</v>
+        <v>109624.1865273956</v>
       </c>
       <c r="F55">
-        <v>50.05717918179386</v>
+        <v>472.905156356956</v>
       </c>
       <c r="G55">
-        <v>1163.039495014073</v>
+        <v>3036.927730872194</v>
       </c>
       <c r="H55">
-        <v>301000.9781158562</v>
+        <v>301001.0555495748</v>
       </c>
       <c r="I55">
-        <v>1221207</v>
+        <v>1198557</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>972799.4180096156</v>
+        <v>894869.0202251611</v>
       </c>
       <c r="O55">
-        <v>135572.4826458131</v>
+        <v>118382.0613855537</v>
       </c>
       <c r="P55">
-        <v>1213.096674195867</v>
+        <v>3509.83288722915</v>
       </c>
       <c r="Q55">
-        <v>1802.74806876517</v>
+        <v>2245.845191850217</v>
       </c>
       <c r="R55">
-        <v>3861.029013761475</v>
+        <v>5222.01543201325</v>
       </c>
       <c r="S55">
-        <v>5663.777082526645</v>
+        <v>7467.860623863466</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>485903.9812354456</v>
+        <v>485903.9308724832</v>
       </c>
       <c r="B56">
-        <v>122897.9655481939</v>
+        <v>116205.7248237279</v>
       </c>
       <c r="C56">
-        <v>1415521.383467897</v>
+        <v>1313286.52888186</v>
       </c>
       <c r="D56">
-        <v>18197.34674268087</v>
+        <v>16089.78487912931</v>
       </c>
       <c r="E56">
-        <v>190563.9894574383</v>
+        <v>175995.8223956657</v>
       </c>
       <c r="F56">
-        <v>360.8606502074771</v>
+        <v>270.9046652202899</v>
       </c>
       <c r="G56">
-        <v>3577.148232546263</v>
+        <v>1758.600114918381</v>
       </c>
       <c r="H56">
-        <v>485903.9812354456</v>
+        <v>485903.9308724832</v>
       </c>
       <c r="I56">
-        <v>1967536</v>
+        <v>2134898</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1538419.349016091</v>
+        <v>1429492.253705588</v>
       </c>
       <c r="O56">
-        <v>208761.3362001192</v>
+        <v>192085.607274795</v>
       </c>
       <c r="P56">
-        <v>3938.00888275374</v>
+        <v>2029.504780138671</v>
       </c>
       <c r="Q56">
-        <v>4955.2525191202</v>
+        <v>4433.454190488997</v>
       </c>
       <c r="R56">
-        <v>12210.9541878827</v>
+        <v>10635.7842796023</v>
       </c>
       <c r="S56">
-        <v>17166.2067070029</v>
+        <v>15069.2384700913</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>757270.9503635824</v>
+        <v>757271.0378099314</v>
       </c>
       <c r="B57">
-        <v>187281.8469488304</v>
+        <v>192451.8092661363</v>
       </c>
       <c r="C57">
-        <v>2144987.069551586</v>
+        <v>2177220.941372146</v>
       </c>
       <c r="D57">
-        <v>29591.11269501719</v>
+        <v>20847.79082646361</v>
       </c>
       <c r="E57">
-        <v>345036.5160941221</v>
+        <v>300769.0756960654</v>
       </c>
       <c r="F57">
-        <v>731.1554930811174</v>
+        <v>341.6143008710587</v>
       </c>
       <c r="G57">
-        <v>2535.758829612353</v>
+        <v>1734.570860547757</v>
       </c>
       <c r="H57">
-        <v>757270.9503635824</v>
+        <v>757271.0378099314</v>
       </c>
       <c r="I57">
-        <v>3022309</v>
+        <v>3226868</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2332268.916500417</v>
+        <v>2369672.750638282</v>
       </c>
       <c r="O57">
-        <v>374627.6287891393</v>
+        <v>321616.8665225291</v>
       </c>
       <c r="P57">
-        <v>3266.91432269347</v>
+        <v>2076.185161418816</v>
       </c>
       <c r="Q57">
-        <v>3399.337099457351</v>
+        <v>5076.490550195544</v>
       </c>
       <c r="R57">
-        <v>12506.86498603068</v>
+        <v>13623.76262445198</v>
       </c>
       <c r="S57">
-        <v>15906.20208548803</v>
+        <v>18700.25317464753</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4503,31 +4503,31 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>651328.9705690165</v>
+        <v>651329.0613273538</v>
       </c>
       <c r="B58">
-        <v>171333.3395728064</v>
+        <v>152754.8702899146</v>
       </c>
       <c r="C58">
-        <v>1929566.523365772</v>
+        <v>1758107.052638133</v>
       </c>
       <c r="D58">
-        <v>24121.72103076285</v>
+        <v>19388.26463986049</v>
       </c>
       <c r="E58">
-        <v>295735.1556687484</v>
+        <v>257626.2672511786</v>
       </c>
       <c r="F58">
-        <v>265.0864014486015</v>
+        <v>1405.655365331609</v>
       </c>
       <c r="G58">
-        <v>2636.420380879207</v>
+        <v>3749.090700899588</v>
       </c>
       <c r="H58">
-        <v>651328.9705690165</v>
+        <v>651329.0613273538</v>
       </c>
       <c r="I58">
-        <v>2689266</v>
+        <v>2777115</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4546,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2100899.862938578</v>
+        <v>1910861.922928048</v>
       </c>
       <c r="O58">
-        <v>319856.8766995112</v>
+        <v>277014.5318910391</v>
       </c>
       <c r="P58">
-        <v>2901.506782327809</v>
+        <v>5154.746066231197</v>
       </c>
       <c r="Q58">
-        <v>4923.852112834461</v>
+        <v>4396.303353722101</v>
       </c>
       <c r="R58">
-        <v>12273.49097561452</v>
+        <v>12995.33030519985</v>
       </c>
       <c r="S58">
-        <v>17197.34308844899</v>
+        <v>17391.63365892195</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -4575,31 +4575,31 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>889112.0025393739</v>
+        <v>889111.9310066482</v>
       </c>
       <c r="B59">
-        <v>230362.7811761169</v>
+        <v>218840.7891863083</v>
       </c>
       <c r="C59">
-        <v>2679635.427546962</v>
+        <v>2420811.506682765</v>
       </c>
       <c r="D59">
-        <v>28849.12826388512</v>
+        <v>23927.27245674861</v>
       </c>
       <c r="E59">
-        <v>362516.6829171776</v>
+        <v>323653.1331306809</v>
       </c>
       <c r="F59">
-        <v>796.427187662724</v>
+        <v>341.0109552340398</v>
       </c>
       <c r="G59">
-        <v>3770.479827435554</v>
+        <v>4091.676530015015</v>
       </c>
       <c r="H59">
-        <v>889112.0025393739</v>
+        <v>889111.9310066482</v>
       </c>
       <c r="I59">
-        <v>3743270</v>
+        <v>3650340</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4618,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2909998.208723079</v>
+        <v>2639652.295869073</v>
       </c>
       <c r="O59">
-        <v>391365.8111810627</v>
+        <v>347580.4055874295</v>
       </c>
       <c r="P59">
-        <v>4566.907015098278</v>
+        <v>4432.687485249055</v>
       </c>
       <c r="Q59">
-        <v>7822.7742901375</v>
+        <v>6244.126685204388</v>
       </c>
       <c r="R59">
-        <v>19563.02863992399</v>
+        <v>17323.6992467139</v>
       </c>
       <c r="S59">
-        <v>27385.80293006149</v>
+        <v>23567.82593191829</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4647,31 +4647,31 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>465364.9653230005</v>
+        <v>465365.0676292109</v>
       </c>
       <c r="B60">
-        <v>121934.7672505461</v>
+        <v>110403.7234474952</v>
       </c>
       <c r="C60">
-        <v>1363180.924222741</v>
+        <v>1252734.77006271</v>
       </c>
       <c r="D60">
-        <v>18558.22737375234</v>
+        <v>15773.26266801307</v>
       </c>
       <c r="E60">
-        <v>221066.1970745279</v>
+        <v>185215.648903076</v>
       </c>
       <c r="F60">
-        <v>213.9752311514338</v>
+        <v>274.069003161402</v>
       </c>
       <c r="G60">
-        <v>1895.076050115961</v>
+        <v>3707.725168060613</v>
       </c>
       <c r="H60">
-        <v>465364.9653230005</v>
+        <v>465365.0676292109</v>
       </c>
       <c r="I60">
-        <v>1939284</v>
+        <v>1923138</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4690,22 +4690,22 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1485115.691473287</v>
+        <v>1363138.493510206</v>
       </c>
       <c r="O60">
-        <v>239624.4244482802</v>
+        <v>200988.9115710891</v>
       </c>
       <c r="P60">
-        <v>2109.051281267395</v>
+        <v>3981.794171222015</v>
       </c>
       <c r="Q60">
-        <v>3459.374460696095</v>
+        <v>2754.910259452553</v>
       </c>
       <c r="R60">
-        <v>9156.25114345628</v>
+        <v>9217.973711117735</v>
       </c>
       <c r="S60">
-        <v>12615.62560415238</v>
+        <v>11972.88397057029</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4719,31 +4719,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>340623.9363845385</v>
+        <v>340624.0872963753</v>
       </c>
       <c r="B61">
-        <v>86123.72657099037</v>
+        <v>78535.61486813429</v>
       </c>
       <c r="C61">
-        <v>1015161.792121896</v>
+        <v>897418.2742759917</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>152013.3209554836</v>
+        <v>149678.9549611747</v>
       </c>
       <c r="F61">
-        <v>215.8298790011784</v>
+        <v>18.96721480661783</v>
       </c>
       <c r="G61">
-        <v>797.7082305109676</v>
+        <v>453.4448196409173</v>
       </c>
       <c r="H61">
-        <v>340623.9363845385</v>
+        <v>340624.0872963753</v>
       </c>
       <c r="I61">
-        <v>1369881</v>
+        <v>1464805</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4762,22 +4762,22 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1101285.518692887</v>
+        <v>975953.889144126</v>
       </c>
       <c r="O61">
-        <v>152013.3209554836</v>
+        <v>149678.9549611747</v>
       </c>
       <c r="P61">
-        <v>1013.538109512146</v>
+        <v>472.4120344475352</v>
       </c>
       <c r="Q61">
-        <v>2160.26786714802</v>
+        <v>1754.809551449067</v>
       </c>
       <c r="R61">
-        <v>8605.645078761061</v>
+        <v>6020.280819068429</v>
       </c>
       <c r="S61">
-        <v>10765.91294590908</v>
+        <v>7775.090370517497</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>469690.8969569539</v>
+        <v>469690.886420399</v>
       </c>
       <c r="B62">
-        <v>118751.8911588101</v>
+        <v>105324.8073398753</v>
       </c>
       <c r="C62">
-        <v>1309408.971482248</v>
+        <v>1249725.271281934</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>204259.0119221442</v>
+        <v>206065.315096207</v>
       </c>
       <c r="F62">
-        <v>81.8911703634472</v>
+        <v>258.1663080520461</v>
       </c>
       <c r="G62">
-        <v>2538.726529759503</v>
+        <v>2843.67154941576</v>
       </c>
       <c r="H62">
-        <v>469690.8969569539</v>
+        <v>469690.886420399</v>
       </c>
       <c r="I62">
-        <v>1986262</v>
+        <v>2008268</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4834,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1428160.862641058</v>
+        <v>1355050.07862181</v>
       </c>
       <c r="O62">
-        <v>204259.0119221442</v>
+        <v>206065.315096207</v>
       </c>
       <c r="P62">
-        <v>2620.61770012295</v>
+        <v>3101.837857467806</v>
       </c>
       <c r="Q62">
-        <v>3163.468070460967</v>
+        <v>3321.866852456128</v>
       </c>
       <c r="R62">
-        <v>9519.147684498938</v>
+        <v>9096.764452817339</v>
       </c>
       <c r="S62">
-        <v>12682.61575495991</v>
+        <v>12418.63130527347</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4863,31 +4863,31 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>20457.07278554089</v>
+        <v>20456.89802099798</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>65612.23423173491</v>
+        <v>59674.56384408698</v>
       </c>
       <c r="D63">
-        <v>791.999586299068</v>
+        <v>759.730990700838</v>
       </c>
       <c r="E63">
-        <v>9176.987569137509</v>
+        <v>8704.586519572486</v>
       </c>
       <c r="F63">
-        <v>16.63965939474749</v>
+        <v>15.80429968186821</v>
       </c>
       <c r="G63">
-        <v>96.71886467552331</v>
+        <v>83.63027396527582</v>
       </c>
       <c r="H63">
-        <v>20457.07278554089</v>
+        <v>20456.89802099798</v>
       </c>
       <c r="I63">
-        <v>95230</v>
+        <v>91454</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>65612.23423173491</v>
+        <v>59674.56384408698</v>
       </c>
       <c r="O63">
-        <v>9968.987155436576</v>
+        <v>9464.317510273324</v>
       </c>
       <c r="P63">
-        <v>113.3585240702708</v>
+        <v>99.43457364714402</v>
       </c>
       <c r="Q63">
-        <v>120.8865904283739</v>
+        <v>134.3599766659998</v>
       </c>
       <c r="R63">
-        <v>306.0544910952097</v>
+        <v>303.2032465372264</v>
       </c>
       <c r="S63">
-        <v>426.9410815235836</v>
+        <v>437.5632232032261</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>20631.05663993112</v>
+        <v>20631.05292694214</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>67279.3669413225</v>
+        <v>61957.64998799962</v>
       </c>
       <c r="D64">
-        <v>927.6098387836205</v>
+        <v>783.9120649878765</v>
       </c>
       <c r="E64">
-        <v>10713.6764644487</v>
+        <v>8406.070850840055</v>
       </c>
       <c r="F64">
-        <v>21.16552261195997</v>
+        <v>11.79344115450136</v>
       </c>
       <c r="G64">
-        <v>120.8670553290621</v>
+        <v>94.76365671737226</v>
       </c>
       <c r="H64">
-        <v>20631.05663993112</v>
+        <v>20631.05292694214</v>
       </c>
       <c r="I64">
-        <v>98385</v>
+        <v>93681</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -4978,22 +4978,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>67279.3669413225</v>
+        <v>61957.64998799962</v>
       </c>
       <c r="O64">
-        <v>11641.28630323232</v>
+        <v>9189.982915827932</v>
       </c>
       <c r="P64">
-        <v>142.0325779410221</v>
+        <v>106.5570978718736</v>
       </c>
       <c r="Q64">
-        <v>142.7655932758967</v>
+        <v>149.6611755240353</v>
       </c>
       <c r="R64">
-        <v>454.6056787903651</v>
+        <v>340.5498853995553</v>
       </c>
       <c r="S64">
-        <v>597.3712720662618</v>
+        <v>490.2110609235905</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5007,31 +5007,31 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1767.982827232674</v>
+        <v>1768.09265891268</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>5312.846283970611</v>
+        <v>5003.155855526856</v>
       </c>
       <c r="D65">
-        <v>64.65439377777123</v>
+        <v>57.06476097768242</v>
       </c>
       <c r="E65">
-        <v>731.0878092237055</v>
+        <v>656.7387760183788</v>
       </c>
       <c r="F65">
-        <v>0.4651141557803842</v>
+        <v>1.060353847252701</v>
       </c>
       <c r="G65">
-        <v>4.707650930727514</v>
+        <v>7.467243845415094</v>
       </c>
       <c r="H65">
-        <v>1767.982827232674</v>
+        <v>1768.09265891268</v>
       </c>
       <c r="I65">
-        <v>7706</v>
+        <v>7807</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5050,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5312.846283970611</v>
+        <v>5003.155855526856</v>
       </c>
       <c r="O65">
-        <v>795.7422030014767</v>
+        <v>713.8035369960612</v>
       </c>
       <c r="P65">
-        <v>5.172765086507898</v>
+        <v>8.527597692667795</v>
       </c>
       <c r="Q65">
-        <v>13.43086584136286</v>
+        <v>8.756849414343972</v>
       </c>
       <c r="R65">
-        <v>31.40175641721678</v>
+        <v>32.7632873749439</v>
       </c>
       <c r="S65">
-        <v>44.83262225857964</v>
+        <v>41.52013678928788</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>123.0423139316789</v>
+        <v>123.0416589777786</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>374.5036151061205</v>
+        <v>368.8663555176623</v>
       </c>
       <c r="D66">
-        <v>4.690968841613724</v>
+        <v>4.876369821704656</v>
       </c>
       <c r="E66">
-        <v>52.89432920791789</v>
+        <v>55.82940041663578</v>
       </c>
       <c r="F66">
-        <v>0.1514032103537794</v>
+        <v>0.007063207001516009</v>
       </c>
       <c r="G66">
-        <v>0.3489150495671068</v>
+        <v>0.3077848903229526</v>
       </c>
       <c r="H66">
-        <v>123.0423139316789</v>
+        <v>123.0416589777786</v>
       </c>
       <c r="I66">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>374.5036151061205</v>
+        <v>368.8663555176623</v>
       </c>
       <c r="O66">
-        <v>57.58529804953162</v>
+        <v>60.70577023834044</v>
       </c>
       <c r="P66">
-        <v>0.5003182599208862</v>
+        <v>0.3148480973244687</v>
       </c>
       <c r="Q66">
-        <v>1.477201335034429</v>
+        <v>0.9718410554544482</v>
       </c>
       <c r="R66">
-        <v>2.53689582668075</v>
+        <v>1.892181670015595</v>
       </c>
       <c r="S66">
-        <v>4.014097161715179</v>
+        <v>2.864022725470043</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>203.0210291093963</v>
+        <v>203.0915299798013</v>
       </c>
       <c r="B67">
-        <v>43.86614861361763</v>
+        <v>45.30373180681032</v>
       </c>
       <c r="C67">
-        <v>330.0716709547595</v>
+        <v>305.4290078941639</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>112.4549888775208</v>
+        <v>115.3930470759924</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>203.0210291093963</v>
+        <v>203.0915299798013</v>
       </c>
       <c r="I67">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5194,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>373.9378195683771</v>
+        <v>350.7327397009742</v>
       </c>
       <c r="O67">
-        <v>112.4549888775208</v>
+        <v>115.3930470759924</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2.105114454112046</v>
+        <v>1.253036680059509</v>
       </c>
       <c r="R67">
-        <v>16.99120836611047</v>
+        <v>11.54641268221411</v>
       </c>
       <c r="S67">
-        <v>19.09632282022252</v>
+        <v>12.79944936227362</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5223,19 +5223,19 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>262.0754995342426</v>
+        <v>262.0931815731304</v>
       </c>
       <c r="B68">
-        <v>58.6798783826783</v>
+        <v>60.18729934254574</v>
       </c>
       <c r="C68">
-        <v>422.1294780737745</v>
+        <v>400.186742065439</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>158.6543250796151</v>
+        <v>155.1479715631211</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>262.0754995342426</v>
+        <v>262.0931815731304</v>
       </c>
       <c r="I68">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5266,22 +5266,22 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>480.8093564564528</v>
+        <v>460.3740414079848</v>
       </c>
       <c r="O68">
-        <v>158.6543250796151</v>
+        <v>155.1479715631211</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.128213637062951</v>
+        <v>2.248002890205491</v>
       </c>
       <c r="R68">
-        <v>19.68728158826149</v>
+        <v>17.31444979014758</v>
       </c>
       <c r="S68">
-        <v>21.81549522532444</v>
+        <v>19.56245268035307</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -5295,19 +5295,19 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2405.952321586088</v>
+        <v>2406.105152411448</v>
       </c>
       <c r="B69">
-        <v>553.3577990496816</v>
+        <v>543.0659605662492</v>
       </c>
       <c r="C69">
-        <v>3926.083874125365</v>
+        <v>3590.641575807352</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1602.527177220438</v>
+        <v>1429.669105326108</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2405.952321586088</v>
+        <v>2406.105152411448</v>
       </c>
       <c r="I69">
-        <v>7577</v>
+        <v>8078</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5338,22 +5338,22 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4479.441673175047</v>
+        <v>4133.707536373601</v>
       </c>
       <c r="O69">
-        <v>1602.527177220438</v>
+        <v>1429.669105326108</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>19.3234276735417</v>
+        <v>23.34347955897148</v>
       </c>
       <c r="R69">
-        <v>146.570956759756</v>
+        <v>147.5826163147218</v>
       </c>
       <c r="S69">
-        <v>165.8943844332977</v>
+        <v>170.9260958736933</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1502.853812963371</v>
+        <v>1502.961836839469</v>
       </c>
       <c r="B70">
-        <v>336.6049211827064</v>
+        <v>317.2119951466756</v>
       </c>
       <c r="C70">
-        <v>2410.459174716774</v>
+        <v>2192.422585888062</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>791.6421370572949</v>
+        <v>833.5169609550397</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1502.853812963371</v>
+        <v>1502.961836839469</v>
       </c>
       <c r="I70">
-        <v>4772</v>
+        <v>4886</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2747.06409589948</v>
+        <v>2509.634581034738</v>
       </c>
       <c r="O70">
-        <v>791.6421370572949</v>
+        <v>833.5169609550397</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>10.66407626480307</v>
+        <v>10.64278163140578</v>
       </c>
       <c r="R70">
-        <v>84.28343286616536</v>
+        <v>82.33590832717013</v>
       </c>
       <c r="S70">
-        <v>94.94750913096843</v>
+        <v>92.97868995857591</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>19901.08441125277</v>
+        <v>19900.90712829649</v>
       </c>
       <c r="B71">
-        <v>4506.936874404365</v>
+        <v>4712.06885099106</v>
       </c>
       <c r="C71">
-        <v>32152.2089700179</v>
+        <v>31044.60407887485</v>
       </c>
       <c r="D71">
-        <v>706.9952043914794</v>
+        <v>741.2970342902019</v>
       </c>
       <c r="E71">
-        <v>10911.04634787977</v>
+        <v>11228.12824222658</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>19901.08441125277</v>
+        <v>19900.90712829649</v>
       </c>
       <c r="I71">
-        <v>59839</v>
+        <v>67709</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5482,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>36659.14584442227</v>
+        <v>35756.67292986591</v>
       </c>
       <c r="O71">
-        <v>11618.04155227125</v>
+        <v>11969.42527651678</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>163.152676815331</v>
+        <v>149.3586797147862</v>
       </c>
       <c r="R71">
-        <v>1239.409703778954</v>
+        <v>1150.713802430295</v>
       </c>
       <c r="S71">
-        <v>1402.562380594285</v>
+        <v>1300.072482145081</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>41981.9211318396</v>
+        <v>41981.90536892352</v>
       </c>
       <c r="B72">
-        <v>9231.216659719206</v>
+        <v>8879.745435710365</v>
       </c>
       <c r="C72">
-        <v>65762.24468814877</v>
+        <v>61666.80368101551</v>
       </c>
       <c r="D72">
-        <v>1712.108823585342</v>
+        <v>1452.326645724358</v>
       </c>
       <c r="E72">
-        <v>27028.62511295635</v>
+        <v>25141.39590073744</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>41981.9211318396</v>
+        <v>41981.90536892352</v>
       </c>
       <c r="I72">
-        <v>135135</v>
+        <v>137029</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5554,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>74993.46134786798</v>
+        <v>70546.54911672587</v>
       </c>
       <c r="O72">
-        <v>28740.73393654169</v>
+        <v>26593.7225464618</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>260.1909809753813</v>
+        <v>241.7833220494053</v>
       </c>
       <c r="R72">
-        <v>2555.275547162546</v>
+        <v>2255.018908245798</v>
       </c>
       <c r="S72">
-        <v>2815.466528137928</v>
+        <v>2496.802230295203</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -5583,19 +5583,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>44205.12525746594</v>
+        <v>44205.04722663659</v>
       </c>
       <c r="B73">
-        <v>10277.93524738197</v>
+        <v>10028.20568955214</v>
       </c>
       <c r="C73">
-        <v>70260.13378302239</v>
+        <v>68352.76376875759</v>
       </c>
       <c r="D73">
-        <v>1848.840526193355</v>
+        <v>1516.87891979145</v>
       </c>
       <c r="E73">
-        <v>27739.79405339876</v>
+        <v>24135.06369721771</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44205.12525746594</v>
+        <v>44205.04722663659</v>
       </c>
       <c r="I73">
-        <v>141220</v>
+        <v>136661</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>80538.06903040435</v>
+        <v>78380.96945830973</v>
       </c>
       <c r="O73">
-        <v>29588.63457959212</v>
+        <v>25651.94261700916</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>324.6009365679932</v>
+        <v>477.577104713418</v>
       </c>
       <c r="R73">
-        <v>2804.547616334839</v>
+        <v>3153.747308043829</v>
       </c>
       <c r="S73">
-        <v>3129.148552902832</v>
+        <v>3631.324412757247</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -5655,19 +5655,19 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>78746.13328018214</v>
+        <v>78745.98370345385</v>
       </c>
       <c r="B74">
-        <v>18009.00527728118</v>
+        <v>17358.72750123237</v>
       </c>
       <c r="C74">
-        <v>122831.0352549708</v>
+        <v>119058.7613230843</v>
       </c>
       <c r="D74">
-        <v>2465.107726454394</v>
+        <v>2759.548440274917</v>
       </c>
       <c r="E74">
-        <v>45412.55581806241</v>
+        <v>44731.50782828018</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>78746.13328018214</v>
+        <v>78745.98370345385</v>
       </c>
       <c r="I74">
-        <v>247739</v>
+        <v>255474</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5698,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>140840.040532252</v>
+        <v>136417.4888243167</v>
       </c>
       <c r="O74">
-        <v>47877.66354451681</v>
+        <v>47491.0562685551</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>597.6401905339131</v>
+        <v>760.999762925603</v>
       </c>
       <c r="R74">
-        <v>5446.787999838066</v>
+        <v>6318.599439867343</v>
       </c>
       <c r="S74">
-        <v>6044.428190371979</v>
+        <v>7079.599202792946</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>38060.07595879404</v>
+        <v>38059.96635504766</v>
       </c>
       <c r="B75">
-        <v>9272.786428107183</v>
+        <v>8603.784061990022</v>
       </c>
       <c r="C75">
-        <v>62284.76458492076</v>
+        <v>58666.69390349632</v>
       </c>
       <c r="D75">
-        <v>1330.271848308719</v>
+        <v>1296.612217746773</v>
       </c>
       <c r="E75">
-        <v>20874.11185159801</v>
+        <v>20666.22859911521</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>38060.07595879404</v>
+        <v>38059.96635504766</v>
       </c>
       <c r="I75">
-        <v>125652</v>
+        <v>120531</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5770,22 +5770,22 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>71557.55101302794</v>
+        <v>67270.47796548634</v>
       </c>
       <c r="O75">
-        <v>22204.38369990673</v>
+        <v>21962.84081686198</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>294.4199717679618</v>
+        <v>228.555489111633</v>
       </c>
       <c r="R75">
-        <v>2456.309335002004</v>
+        <v>2644.957830783156</v>
       </c>
       <c r="S75">
-        <v>2750.729306769966</v>
+        <v>2873.513319894789</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>79350.96825406051</v>
+        <v>79350.98708186056</v>
       </c>
       <c r="B76">
-        <v>18533.87908746109</v>
+        <v>17975.39254418185</v>
       </c>
       <c r="C76">
-        <v>127887.1722638907</v>
+        <v>124858.4893377528</v>
       </c>
       <c r="D76">
-        <v>2950.201819610162</v>
+        <v>2659.315146254981</v>
       </c>
       <c r="E76">
-        <v>47075.50885880564</v>
+        <v>44869.67692673106</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79350.96825406051</v>
+        <v>79350.98708186056</v>
       </c>
       <c r="I76">
-        <v>261170</v>
+        <v>255243</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>146421.0513513518</v>
+        <v>142833.8818819347</v>
       </c>
       <c r="O76">
-        <v>50025.7106784158</v>
+        <v>47528.99207298604</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>563.5300598234704</v>
+        <v>591.3259927536252</v>
       </c>
       <c r="R76">
-        <v>4692.022252704417</v>
+        <v>5262.133055619884</v>
       </c>
       <c r="S76">
-        <v>5255.552312527888</v>
+        <v>5853.459048373509</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>45067.9825597323</v>
+        <v>45068.12015300336</v>
       </c>
       <c r="B77">
-        <v>9915.088294605699</v>
+        <v>10426.96217530087</v>
       </c>
       <c r="C77">
-        <v>71601.50713647425</v>
+        <v>69456.73151031396</v>
       </c>
       <c r="D77">
-        <v>1760.612659309662</v>
+        <v>1808.339257742062</v>
       </c>
       <c r="E77">
-        <v>26260.88936907518</v>
+        <v>27344.54062086011</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>45067.9825597323</v>
+        <v>45068.12015300336</v>
       </c>
       <c r="I77">
-        <v>148185</v>
+        <v>141097</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5914,22 +5914,22 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>81516.59543107994</v>
+        <v>79883.69368561482</v>
       </c>
       <c r="O77">
-        <v>28021.50202838484</v>
+        <v>29152.87987860217</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>410.9317991329868</v>
+        <v>365.5762461143174</v>
       </c>
       <c r="R77">
-        <v>3237.511152074804</v>
+        <v>3351.95997440362</v>
       </c>
       <c r="S77">
-        <v>3648.44295120779</v>
+        <v>3717.536220517937</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>14294.94303421317</v>
+        <v>14294.86489081494</v>
       </c>
       <c r="B78">
-        <v>3401.367653174557</v>
+        <v>3007.911950228861</v>
       </c>
       <c r="C78">
-        <v>23004.9936531807</v>
+        <v>21887.50228531889</v>
       </c>
       <c r="D78">
-        <v>554.2612551679407</v>
+        <v>484.1698560992597</v>
       </c>
       <c r="E78">
-        <v>9056.594882568996</v>
+        <v>7614.391873236455</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14294.94303421317</v>
+        <v>14294.86489081494</v>
       </c>
       <c r="I78">
-        <v>45437</v>
+        <v>45393</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5986,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>26406.36130635526</v>
+        <v>24895.41423554775</v>
       </c>
       <c r="O78">
-        <v>9610.856137736937</v>
+        <v>8098.561729335715</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>81.10908256033099</v>
+        <v>92.85010953744033</v>
       </c>
       <c r="R78">
-        <v>846.061892971001</v>
+        <v>900.859470840735</v>
       </c>
       <c r="S78">
-        <v>927.170975531332</v>
+        <v>993.7095803781753</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>27738.13830686835</v>
+        <v>27738.01095559894</v>
       </c>
       <c r="B79">
-        <v>6530.396215213163</v>
+        <v>6073.130235125866</v>
       </c>
       <c r="C79">
-        <v>43769.37875112126</v>
+        <v>42238.58065547096</v>
       </c>
       <c r="D79">
-        <v>1162.508686429056</v>
+        <v>972.3180055127398</v>
       </c>
       <c r="E79">
-        <v>16120.57116923586</v>
+        <v>13876.23864254096</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27738.13830686835</v>
+        <v>27738.01095559894</v>
       </c>
       <c r="I79">
-        <v>90767</v>
+        <v>89533</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -6058,22 +6058,22 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>50299.77496633442</v>
+        <v>48311.71089059683</v>
       </c>
       <c r="O79">
-        <v>17283.07985566492</v>
+        <v>14848.5566480537</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>242.8011758659764</v>
+        <v>229.0923203629311</v>
       </c>
       <c r="R79">
-        <v>2027.18987573814</v>
+        <v>2030.602764812274</v>
       </c>
       <c r="S79">
-        <v>2269.991051604116</v>
+        <v>2259.695085175204</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2820.004720524263</v>
+        <v>2820.010388514458</v>
       </c>
       <c r="B80">
-        <v>639.5480141865547</v>
+        <v>640.6176939508388</v>
       </c>
       <c r="C80">
-        <v>4595.894296655324</v>
+        <v>4242.233787379251</v>
       </c>
       <c r="D80">
-        <v>105.169500641644</v>
+        <v>99.01382413295704</v>
       </c>
       <c r="E80">
-        <v>1714.283803393593</v>
+        <v>1592.197645561542</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2820.004720524263</v>
+        <v>2820.010388514458</v>
       </c>
       <c r="I80">
-        <v>9012</v>
+        <v>9153</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5235.442310841879</v>
+        <v>4882.85148133009</v>
       </c>
       <c r="O80">
-        <v>1819.453304035236</v>
+        <v>1691.211469694499</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>23.83627456204856</v>
+        <v>20.23661320558449</v>
       </c>
       <c r="R80">
-        <v>175.9058478954971</v>
+        <v>183.5219140059424</v>
       </c>
       <c r="S80">
-        <v>199.7421224575456</v>
+        <v>203.7585272115269</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>3590.953206082611</v>
+        <v>3591.139316941158</v>
       </c>
       <c r="B81">
-        <v>815.7526433717106</v>
+        <v>798.593603104037</v>
       </c>
       <c r="C81">
-        <v>5832.700926372686</v>
+        <v>5559.538534038616</v>
       </c>
       <c r="D81">
-        <v>118.7745199207533</v>
+        <v>117.8972763379821</v>
       </c>
       <c r="E81">
-        <v>1821.37787839963</v>
+        <v>1814.642994885947</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3590.953206082611</v>
+        <v>3591.139316941158</v>
       </c>
       <c r="I81">
-        <v>11548</v>
+        <v>11370</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6648.453569744396</v>
+        <v>6358.132137142653</v>
       </c>
       <c r="O81">
-        <v>1940.152398320383</v>
+        <v>1932.540271223929</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>26.24617016351331</v>
+        <v>25.41243745874936</v>
       </c>
       <c r="R81">
-        <v>230.6101155341747</v>
+        <v>222.0523600362075</v>
       </c>
       <c r="S81">
-        <v>256.856285697688</v>
+        <v>247.4647974949569</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1155.903123915458</v>
+        <v>1156.102947590743</v>
       </c>
       <c r="B82">
-        <v>261.0610243651151</v>
+        <v>258.5906217522389</v>
       </c>
       <c r="C82">
-        <v>1818.07386246201</v>
+        <v>1754.875493302691</v>
       </c>
       <c r="D82">
-        <v>41.46019624522334</v>
+        <v>36.83197825088723</v>
       </c>
       <c r="E82">
-        <v>702.1389933145122</v>
+        <v>569.4757034957673</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1155.903123915458</v>
+        <v>1156.102947590743</v>
       </c>
       <c r="I82">
-        <v>3640</v>
+        <v>3662</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2079.134886827125</v>
+        <v>2013.46611505493</v>
       </c>
       <c r="O82">
-        <v>743.5991895597355</v>
+        <v>606.3076817466546</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8.610387529908969</v>
+        <v>9.069001629712133</v>
       </c>
       <c r="R82">
-        <v>78.44750699831313</v>
+        <v>79.34055899630177</v>
       </c>
       <c r="S82">
-        <v>87.05789452822211</v>
+        <v>88.4095606260139</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>13238.00906077587</v>
+        <v>13237.90139173296</v>
       </c>
       <c r="B83">
-        <v>1941.333666429381</v>
+        <v>1920.967881008008</v>
       </c>
       <c r="C83">
-        <v>22226.35053541491</v>
+        <v>20952.488042561</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>7766.893077501925</v>
+        <v>7485.95816569596</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13238.00906077587</v>
+        <v>13237.90139173296</v>
       </c>
       <c r="I83">
-        <v>44931</v>
+        <v>43242</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6346,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>24167.6842018443</v>
+        <v>22873.455923569</v>
       </c>
       <c r="O83">
-        <v>7766.893077501925</v>
+        <v>7485.95816569596</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -6358,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>850.6668542776382</v>
+        <v>847.6465968213216</v>
       </c>
       <c r="S83">
-        <v>850.6668542776382</v>
+        <v>847.6465968213216</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6375,19 +6375,19 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>6788.001605678313</v>
+        <v>6788.123379296426</v>
       </c>
       <c r="B84">
-        <v>1000.869554249136</v>
+        <v>976.2086235188402</v>
       </c>
       <c r="C84">
-        <v>11293.76300323242</v>
+        <v>10790.80413943825</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4276.654568657579</v>
+        <v>4238.95459592624</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6788.001605678313</v>
+        <v>6788.123379296426</v>
       </c>
       <c r="I84">
-        <v>22050</v>
+        <v>21595</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>12294.63255748156</v>
+        <v>11767.01276295709</v>
       </c>
       <c r="O84">
-        <v>4276.654568657579</v>
+        <v>4238.95459592624</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>481.2502486014935</v>
+        <v>363.0369726525804</v>
       </c>
       <c r="S84">
-        <v>481.2502486014935</v>
+        <v>363.0369726525804</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>1507.889660281061</v>
+        <v>1508.134481647645</v>
       </c>
       <c r="B85">
-        <v>203.4619781689767</v>
+        <v>213.3348659928137</v>
       </c>
       <c r="C85">
-        <v>2464.382559106652</v>
+        <v>2423.081933943161</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>860.0056683436595</v>
+        <v>803.3346832364554</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1507.889660281061</v>
+        <v>1508.134481647645</v>
       </c>
       <c r="I85">
-        <v>4998</v>
+        <v>4961</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6490,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>2667.844537275629</v>
+        <v>2636.416799935975</v>
       </c>
       <c r="O85">
-        <v>860.0056683436595</v>
+        <v>803.3346832364554</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>100.3174209118854</v>
+        <v>111.5737588556968</v>
       </c>
       <c r="S85">
-        <v>100.3174209118854</v>
+        <v>111.5737588556968</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>25212.97596710918</v>
+        <v>25212.93034885092</v>
       </c>
       <c r="B86">
-        <v>3846.254074771216</v>
+        <v>3365.551580171489</v>
       </c>
       <c r="C86">
-        <v>43644.3545870548</v>
+        <v>39172.7614896469</v>
       </c>
       <c r="D86">
-        <v>606.6263621421934</v>
+        <v>643.0822974779273</v>
       </c>
       <c r="E86">
-        <v>15030.73444326684</v>
+        <v>13740.64845625012</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>25212.97596710918</v>
+        <v>25212.93034885092</v>
       </c>
       <c r="I86">
-        <v>75852</v>
+        <v>80842</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>47490.60866182602</v>
+        <v>42538.31306981839</v>
       </c>
       <c r="O86">
-        <v>15637.36080540903</v>
+        <v>14383.73075372805</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -6574,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>1948.007638257344</v>
+        <v>2025.368703611237</v>
       </c>
       <c r="S86">
-        <v>1948.007638257344</v>
+        <v>2025.368703611237</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6444.134858534833</v>
+        <v>6444.009927951437</v>
       </c>
       <c r="B87">
-        <v>969.6601696870285</v>
+        <v>952.4728709764498</v>
       </c>
       <c r="C87">
-        <v>11090.58258279183</v>
+        <v>10592.3625038006</v>
       </c>
       <c r="D87">
-        <v>174.704428206154</v>
+        <v>171.896172034896</v>
       </c>
       <c r="E87">
-        <v>4053.487210329706</v>
+        <v>3896.907048146026</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>6444.134858534833</v>
+        <v>6444.009927951437</v>
       </c>
       <c r="I87">
-        <v>20508</v>
+        <v>20757</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -6634,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>12060.24275247886</v>
+        <v>11544.83537477705</v>
       </c>
       <c r="O87">
-        <v>4228.19163853586</v>
+        <v>4068.803220180922</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6646,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>426.0592636812801</v>
+        <v>570.8018362696196</v>
       </c>
       <c r="S87">
-        <v>426.0592636812801</v>
+        <v>570.8018362696196</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6663,19 +6663,19 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>55703.89508500056</v>
+        <v>55704.01473923785</v>
       </c>
       <c r="B88">
-        <v>7782.394231427978</v>
+        <v>8172.446994492839</v>
       </c>
       <c r="C88">
-        <v>91990.80646036037</v>
+        <v>90166.05923878099</v>
       </c>
       <c r="D88">
-        <v>1412.250437785702</v>
+        <v>1339.577926942719</v>
       </c>
       <c r="E88">
-        <v>32758.83667819854</v>
+        <v>32825.51781672435</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55703.89508500056</v>
+        <v>55704.01473923785</v>
       </c>
       <c r="I88">
-        <v>180953</v>
+        <v>175342</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -6706,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>99773.20069178836</v>
+        <v>98338.50623327383</v>
       </c>
       <c r="O88">
-        <v>34171.08711598424</v>
+        <v>34165.09574366707</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -6718,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>4330.271531544589</v>
+        <v>3271.767422344809</v>
       </c>
       <c r="S88">
-        <v>4330.271531544589</v>
+        <v>3271.767422344809</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6735,19 +6735,19 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>201456.0709741876</v>
+        <v>201456.0237413683</v>
       </c>
       <c r="B89">
-        <v>29879.11259066668</v>
+        <v>28687.75450205121</v>
       </c>
       <c r="C89">
-        <v>339216.976035131</v>
+        <v>321626.4758635523</v>
       </c>
       <c r="D89">
-        <v>4193.355578408412</v>
+        <v>4066.204817404507</v>
       </c>
       <c r="E89">
-        <v>112031.1992286423</v>
+        <v>106960.183358489</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>201456.0709741876</v>
+        <v>201456.0237413683</v>
       </c>
       <c r="I89">
-        <v>653495</v>
+        <v>633820</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>369096.0886257977</v>
+        <v>350314.2303656035</v>
       </c>
       <c r="O89">
-        <v>116224.5548070508</v>
+        <v>111026.3881758935</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -6790,10 +6790,10 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>14378.42836089859</v>
+        <v>15215.24444874991</v>
       </c>
       <c r="S89">
-        <v>14378.42836089859</v>
+        <v>15215.24444874991</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6807,19 +6807,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15486.02720359195</v>
+        <v>15485.89635433091</v>
       </c>
       <c r="B90">
-        <v>2270.625980933322</v>
+        <v>2214.484164572887</v>
       </c>
       <c r="C90">
-        <v>26221.14493041163</v>
+        <v>24884.14029579259</v>
       </c>
       <c r="D90">
-        <v>411.9187167974289</v>
+        <v>399.2953594328382</v>
       </c>
       <c r="E90">
-        <v>8769.651743114062</v>
+        <v>8669.600854784085</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15486.02720359195</v>
+        <v>15485.89635433091</v>
       </c>
       <c r="I90">
-        <v>51825</v>
+        <v>49308</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6850,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28491.77091134495</v>
+        <v>27098.62446036548</v>
       </c>
       <c r="O90">
-        <v>9181.570459911491</v>
+        <v>9068.896214216922</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -6862,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1320.146000743587</v>
+        <v>1125.568650559524</v>
       </c>
       <c r="S90">
-        <v>1320.146000743587</v>
+        <v>1125.568650559524</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>14403.86578181623</v>
+        <v>14403.86815646684</v>
       </c>
       <c r="B91">
-        <v>2133.852276290261</v>
+        <v>2040.086219507212</v>
       </c>
       <c r="C91">
-        <v>24435.74198842167</v>
+        <v>23027.25387141001</v>
       </c>
       <c r="D91">
-        <v>319.4850531831947</v>
+        <v>300.7520445434607</v>
       </c>
       <c r="E91">
-        <v>8046.420075606163</v>
+        <v>8214.887959059677</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>14403.86578181623</v>
+        <v>14403.86815646684</v>
       </c>
       <c r="I91">
-        <v>46201</v>
+        <v>46319</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -6922,10 +6922,10 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>26569.59426471193</v>
+        <v>25067.34009091722</v>
       </c>
       <c r="O91">
-        <v>8365.905128789358</v>
+        <v>8515.640003603137</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -6934,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>977.6053763247486</v>
+        <v>945.0653714345752</v>
       </c>
       <c r="S91">
-        <v>977.6053763247486</v>
+        <v>945.0653714345752</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>46955.8622661305</v>
+        <v>46955.88009048027</v>
       </c>
       <c r="B92">
-        <v>6699.379920201095</v>
+        <v>6521.781743932724</v>
       </c>
       <c r="C92">
-        <v>76588.31067093414</v>
+        <v>72043.28881700599</v>
       </c>
       <c r="D92">
-        <v>1401.338151324951</v>
+        <v>1184.887501424145</v>
       </c>
       <c r="E92">
-        <v>28214.77322880875</v>
+        <v>26378.65726324788</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>46955.8622661305</v>
+        <v>46955.88009048027</v>
       </c>
       <c r="I92">
-        <v>150405</v>
+        <v>145853</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -6994,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>83287.69059113524</v>
+        <v>78565.07056093871</v>
       </c>
       <c r="O92">
-        <v>29616.1113801337</v>
+        <v>27563.54476467202</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7006,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>3450.929374583093</v>
+        <v>3434.060088933898</v>
       </c>
       <c r="S92">
-        <v>3450.929374583093</v>
+        <v>3434.060088933898</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>24420.01757368297</v>
+        <v>24419.88786445699</v>
       </c>
       <c r="B93">
-        <v>3517.855241599807</v>
+        <v>3444.019053383353</v>
       </c>
       <c r="C93">
-        <v>41310.17139493519</v>
+        <v>38763.77371067723</v>
       </c>
       <c r="D93">
-        <v>575.2628071605582</v>
+        <v>598.1730785537832</v>
       </c>
       <c r="E93">
-        <v>13887.10380900831</v>
+        <v>13105.39825972998</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24420.01757368297</v>
+        <v>24419.88786445699</v>
       </c>
       <c r="I93">
-        <v>78476</v>
+        <v>79201</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -7066,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>44828.026636535</v>
+        <v>42207.79276406059</v>
       </c>
       <c r="O93">
-        <v>14462.36661616887</v>
+        <v>13703.57133828377</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -7078,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1640.238204100168</v>
+        <v>1652.854167679927</v>
       </c>
       <c r="S93">
-        <v>1640.238204100168</v>
+        <v>1652.854167679927</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>70371.91971047857</v>
+        <v>70372.03579731652</v>
       </c>
       <c r="B94">
-        <v>10763.8768064859</v>
+        <v>9838.33660345755</v>
       </c>
       <c r="C94">
-        <v>120249.9870123147</v>
+        <v>113166.6370143983</v>
       </c>
       <c r="D94">
-        <v>1780.205785137858</v>
+        <v>1547.60276168232</v>
       </c>
       <c r="E94">
-        <v>42571.89262692563</v>
+        <v>38220.20327367313</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7116,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>70371.91971047857</v>
+        <v>70372.03579731652</v>
       </c>
       <c r="I94">
-        <v>223282</v>
+        <v>226514</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -7138,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>131013.8638188006</v>
+        <v>123004.9736178559</v>
       </c>
       <c r="O94">
-        <v>44352.09841206348</v>
+        <v>39767.80603535545</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -7150,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>5067.58852402599</v>
+        <v>4603.622418234675</v>
       </c>
       <c r="S94">
-        <v>5067.58852402599</v>
+        <v>4603.622418234675</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>7573.873961717178</v>
+        <v>7573.925103371704</v>
       </c>
       <c r="B95">
-        <v>1061.003868251934</v>
+        <v>1080.303250116496</v>
       </c>
       <c r="C95">
-        <v>12718.27307085426</v>
+        <v>12302.59368823914</v>
       </c>
       <c r="D95">
-        <v>197.5175674159601</v>
+        <v>216.9966965675043</v>
       </c>
       <c r="E95">
-        <v>4492.4782860856</v>
+        <v>5008.653066145628</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7573.873961717178</v>
+        <v>7573.925103371704</v>
       </c>
       <c r="I95">
-        <v>24459</v>
+        <v>24068</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -7210,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>13779.27693910619</v>
+        <v>13382.89693835563</v>
       </c>
       <c r="O95">
-        <v>4689.99585350156</v>
+        <v>5225.649762713132</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -7222,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>496.5681398029704</v>
+        <v>603.7972879971002</v>
       </c>
       <c r="S95">
-        <v>496.5681398029704</v>
+        <v>603.7972879971002</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -7239,19 +7239,19 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>45037.97409822464</v>
+        <v>45037.99992055301</v>
       </c>
       <c r="B96">
-        <v>6207.258502700473</v>
+        <v>6800.136316432129</v>
       </c>
       <c r="C96">
-        <v>73675.30882111154</v>
+        <v>72964.56950156826</v>
       </c>
       <c r="D96">
-        <v>1224.721481982911</v>
+        <v>1051.564767548685</v>
       </c>
       <c r="E96">
-        <v>26101.39844066318</v>
+        <v>25541.43978929439</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>45037.97409822464</v>
+        <v>45037.99992055301</v>
       </c>
       <c r="I96">
-        <v>141619</v>
+        <v>146091</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7282,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>79882.56732381201</v>
+        <v>79764.70581800038</v>
       </c>
       <c r="O96">
-        <v>27326.11992264609</v>
+        <v>26593.00455684307</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>3065.220987623417</v>
+        <v>2524.778564646906</v>
       </c>
       <c r="S96">
-        <v>3065.220987623417</v>
+        <v>2524.778564646906</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>10073.08424576577</v>
+        <v>10072.98389444209</v>
       </c>
       <c r="B97">
-        <v>1539.723401644652</v>
+        <v>1374.507137571552</v>
       </c>
       <c r="C97">
-        <v>17246.35816165409</v>
+        <v>16127.53563150758</v>
       </c>
       <c r="D97">
-        <v>279.7606933507293</v>
+        <v>255.032416983853</v>
       </c>
       <c r="E97">
-        <v>6056.982293529369</v>
+        <v>5923.869479418774</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10073.08424576577</v>
+        <v>10072.98389444209</v>
       </c>
       <c r="I97">
-        <v>31775</v>
+        <v>32102</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -7354,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>18786.08156329875</v>
+        <v>17502.04276907913</v>
       </c>
       <c r="O97">
-        <v>6336.742986880098</v>
+        <v>6178.901896402627</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -7366,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>763.8178799333736</v>
+        <v>784.247119508792</v>
       </c>
       <c r="S97">
-        <v>763.8178799333736</v>
+        <v>784.247119508792</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>11376.18172945828</v>
+        <v>11376.12132692336</v>
       </c>
       <c r="B98">
-        <v>2202.078461710129</v>
+        <v>2114.176413379757</v>
       </c>
       <c r="C98">
-        <v>18506.2177238077</v>
+        <v>17480.86971078479</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>6856.555625862575</v>
+        <v>6386.558201987747</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>11376.18172945828</v>
+        <v>11376.12132692336</v>
       </c>
       <c r="I98">
-        <v>30449</v>
+        <v>29972</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7426,48 +7426,48 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>20708.29618551783</v>
+        <v>19595.04612416454</v>
       </c>
       <c r="O98">
-        <v>6856.555625862575</v>
+        <v>6386.558201987747</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>100.4215394243788</v>
+        <v>99.26762880116264</v>
       </c>
       <c r="R98">
-        <v>741.5475209769322</v>
+        <v>683.8290981984808</v>
       </c>
       <c r="S98">
-        <v>841.969060401311</v>
+        <v>783.0967269996435</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>1691.363609579581</v>
+        <v>1396.429031866195</v>
       </c>
       <c r="V98">
-        <v>1691.363609579581</v>
+        <v>1396.429031866195</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>93359.17167650165</v>
+        <v>93359.12293703451</v>
       </c>
       <c r="B99">
-        <v>17712.34460814855</v>
+        <v>17333.81670243293</v>
       </c>
       <c r="C99">
-        <v>151878.1690754693</v>
+        <v>142864.7644005544</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>57234.83151968927</v>
+        <v>52660.16168757746</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>93359.17167650165</v>
+        <v>93359.12293703451</v>
       </c>
       <c r="I99">
-        <v>267478</v>
+        <v>250818</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -7498,48 +7498,48 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>169590.5136836179</v>
+        <v>160198.5811029873</v>
       </c>
       <c r="O99">
-        <v>57234.83151968927</v>
+        <v>52660.16168757746</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>656.3626879603112</v>
+        <v>885.6710666610095</v>
       </c>
       <c r="R99">
-        <v>5586.382677590294</v>
+        <v>5699.827892711468</v>
       </c>
       <c r="S99">
-        <v>6242.745365550605</v>
+        <v>6585.498959372478</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99">
-        <v>12703.7140793612</v>
+        <v>11952.83837394997</v>
       </c>
       <c r="V99">
-        <v>12703.7140793612</v>
+        <v>11952.83837394997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>20816.8408433445</v>
+        <v>20816.98660320169</v>
       </c>
       <c r="B100">
-        <v>3905.634304703994</v>
+        <v>4028.750897190836</v>
       </c>
       <c r="C100">
-        <v>32894.55738565887</v>
+        <v>32534.10014495537</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>14141.71158083076</v>
+        <v>11459.61662254638</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20816.8408433445</v>
+        <v>20816.98660320169</v>
       </c>
       <c r="I100">
-        <v>58272</v>
+        <v>56333</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -7570,48 +7570,48 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>36800.19169036286</v>
+        <v>36562.85104214621</v>
       </c>
       <c r="O100">
-        <v>14141.71158083076</v>
+        <v>11459.61662254638</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>142.5496609755553</v>
+        <v>159.6872702721317</v>
       </c>
       <c r="R100">
-        <v>1320.959524579845</v>
+        <v>1268.054120493137</v>
       </c>
       <c r="S100">
-        <v>1463.5091855554</v>
+        <v>1427.741390765268</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>3034.495727940769</v>
+        <v>2465.33187877829</v>
       </c>
       <c r="V100">
-        <v>3034.495727940769</v>
+        <v>2465.33187877829</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43952.98641172776</v>
+        <v>43952.97973250399</v>
       </c>
       <c r="B101">
-        <v>8944.719915181588</v>
+        <v>8443.933406874146</v>
       </c>
       <c r="C101">
-        <v>70818.31300362073</v>
+        <v>66678.60723077173</v>
       </c>
       <c r="D101">
-        <v>2292.556792558045</v>
+        <v>2048.846157143102</v>
       </c>
       <c r="E101">
-        <v>25504.74325472615</v>
+        <v>23058.67394504254</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>43952.98641172776</v>
+        <v>43952.97973250399</v>
       </c>
       <c r="I101">
-        <v>122556</v>
+        <v>122898</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -7642,48 +7642,48 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>79763.03291880232</v>
+        <v>75122.54063764587</v>
       </c>
       <c r="O101">
-        <v>27797.3000472842</v>
+        <v>25107.52010218564</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>281.8809004449847</v>
+        <v>373.0113081283224</v>
       </c>
       <c r="R101">
-        <v>2798.886566912642</v>
+        <v>3157.44804413246</v>
       </c>
       <c r="S101">
-        <v>3080.767467357627</v>
+        <v>3530.459352260783</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>5320.801519733348</v>
+        <v>6627.867893040587</v>
       </c>
       <c r="V101">
-        <v>5320.801519733348</v>
+        <v>6627.867893040587</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>103393.9756156788</v>
+        <v>103393.9244568719</v>
       </c>
       <c r="B102">
-        <v>18927.02011022968</v>
+        <v>20630.95474398975</v>
       </c>
       <c r="C102">
-        <v>172435.5193377909</v>
+        <v>159247.0761064921</v>
       </c>
       <c r="D102">
-        <v>5362.109271171236</v>
+        <v>5067.545866724561</v>
       </c>
       <c r="E102">
-        <v>58998.07380558832</v>
+        <v>54297.88594986541</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>103393.9756156788</v>
+        <v>103393.9244568719</v>
       </c>
       <c r="I102">
-        <v>265624</v>
+        <v>275150</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -7714,48 +7714,48 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>191362.5394480205</v>
+        <v>179878.0308504819</v>
       </c>
       <c r="O102">
-        <v>64360.18307675955</v>
+        <v>59365.43181658997</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>666.1663182614941</v>
+        <v>827.0708728817098</v>
       </c>
       <c r="R102">
-        <v>5972.392800776322</v>
+        <v>6598.550563307673</v>
       </c>
       <c r="S102">
-        <v>6638.559119037815</v>
+        <v>7425.621436189383</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>15646.08244922806</v>
+        <v>14234.30855009409</v>
       </c>
       <c r="V102">
-        <v>15646.08244922806</v>
+        <v>14234.30855009409</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>35337.14731946342</v>
+        <v>35336.92910343464</v>
       </c>
       <c r="B103">
-        <v>6813.730856644939</v>
+        <v>6552.260883435562</v>
       </c>
       <c r="C103">
-        <v>58932.77342323522</v>
+        <v>54502.06184097708</v>
       </c>
       <c r="D103">
-        <v>1825.222896448784</v>
+        <v>1739.021397184095</v>
       </c>
       <c r="E103">
-        <v>21413.86938640564</v>
+        <v>19369.0915978197</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>35337.14731946342</v>
+        <v>35336.92910343464</v>
       </c>
       <c r="I103">
-        <v>96888</v>
+        <v>97151</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -7786,48 +7786,48 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>65746.50427988016</v>
+        <v>61054.32272441265</v>
       </c>
       <c r="O103">
-        <v>23239.09228285442</v>
+        <v>21108.11299500379</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>199.2826110153089</v>
+        <v>332.9123694388638</v>
       </c>
       <c r="R103">
-        <v>2199.261657978272</v>
+        <v>2413.128897672355</v>
       </c>
       <c r="S103">
-        <v>2398.544268993581</v>
+        <v>2746.041267111219</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>4534.050097224967</v>
+        <v>6143.493745577001</v>
       </c>
       <c r="V103">
-        <v>4534.050097224967</v>
+        <v>6143.493745577001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>122130.8195931026</v>
+        <v>122130.8656855243</v>
       </c>
       <c r="B104">
-        <v>22992.77696606718</v>
+        <v>24824.07408607354</v>
       </c>
       <c r="C104">
-        <v>203276.5471443322</v>
+        <v>200265.7904289325</v>
       </c>
       <c r="D104">
-        <v>6501.882505515392</v>
+        <v>6539.433176728766</v>
       </c>
       <c r="E104">
-        <v>69940.95597221307</v>
+        <v>74339.61158616869</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>122130.8195931026</v>
+        <v>122130.8656855243</v>
       </c>
       <c r="I104">
-        <v>319332</v>
+        <v>316761</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -7858,48 +7858,48 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>226269.3241103994</v>
+        <v>225089.864515006</v>
       </c>
       <c r="O104">
-        <v>76442.83847772845</v>
+        <v>80879.04476289745</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>688.3848138335517</v>
+        <v>1223.210323639997</v>
       </c>
       <c r="R104">
-        <v>6965.121856615975</v>
+        <v>8671.700566423582</v>
       </c>
       <c r="S104">
-        <v>7653.506670449527</v>
+        <v>9894.910890063578</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>17672.38806334049</v>
+        <v>15198.04386677595</v>
       </c>
       <c r="V104">
-        <v>17672.38806334049</v>
+        <v>15198.04386677595</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>81324.08336561719</v>
+        <v>81324.02332659482</v>
       </c>
       <c r="B105">
-        <v>16342.2535463827</v>
+        <v>15893.52083751976</v>
       </c>
       <c r="C105">
-        <v>135884.5930102843</v>
+        <v>127291.0705923736</v>
       </c>
       <c r="D105">
-        <v>3748.447691513934</v>
+        <v>3808.442714745976</v>
       </c>
       <c r="E105">
-        <v>47112.45263913689</v>
+        <v>44896.07414923575</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>81324.08336561719</v>
+        <v>81324.02332659482</v>
       </c>
       <c r="I105">
-        <v>221206</v>
+        <v>232866</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -7930,48 +7930,48 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>152226.846556667</v>
+        <v>143184.5914298934</v>
       </c>
       <c r="O105">
-        <v>50860.90033065082</v>
+        <v>48704.51686398173</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>595.765939307934</v>
+        <v>745.4647580367101</v>
       </c>
       <c r="R105">
-        <v>6000.393280753426</v>
+        <v>5428.917118595769</v>
       </c>
       <c r="S105">
-        <v>6596.15922006136</v>
+        <v>6174.381876632479</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>10731.07323686098</v>
+        <v>11397.09699247798</v>
       </c>
       <c r="V105">
-        <v>10731.07323686098</v>
+        <v>11397.09699247798</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>77849.95656028455</v>
+        <v>77850.08837773195</v>
       </c>
       <c r="B106">
-        <v>15297.33476899096</v>
+        <v>15848.27270569957</v>
       </c>
       <c r="C106">
-        <v>132281.7994478245</v>
+        <v>124213.3013574851</v>
       </c>
       <c r="D106">
-        <v>3975.780432882461</v>
+        <v>3598.875511362375</v>
       </c>
       <c r="E106">
-        <v>45137.59912131548</v>
+        <v>44045.72773329855</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>77849.95656028455</v>
+        <v>77850.08837773195</v>
       </c>
       <c r="I106">
-        <v>211178</v>
+        <v>204622</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -8002,48 +8002,48 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>147579.1342168154</v>
+        <v>140061.5740631846</v>
       </c>
       <c r="O106">
-        <v>49113.37955419794</v>
+        <v>47644.60324466093</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>437.4991616219124</v>
+        <v>635.312610801533</v>
       </c>
       <c r="R106">
-        <v>4669.143368872527</v>
+        <v>4148.021493844998</v>
       </c>
       <c r="S106">
-        <v>5106.64253049444</v>
+        <v>4783.334104646531</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>12153.16374193932</v>
+        <v>12209.6737273251</v>
       </c>
       <c r="V106">
-        <v>12153.16374193932</v>
+        <v>12209.6737273251</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>86202.96899889679</v>
+        <v>86202.90516841503</v>
       </c>
       <c r="B107">
-        <v>17182.22948441277</v>
+        <v>17238.95198613202</v>
       </c>
       <c r="C107">
-        <v>141756.164882596</v>
+        <v>134213.8807309356</v>
       </c>
       <c r="D107">
-        <v>3605.831341326157</v>
+        <v>3952.635538168995</v>
       </c>
       <c r="E107">
-        <v>43980.7519362286</v>
+        <v>42655.46034772742</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>86202.96899889679</v>
+        <v>86202.90516841503</v>
       </c>
       <c r="I107">
-        <v>232528</v>
+        <v>242410</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -8074,48 +8074,48 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>158938.3943670088</v>
+        <v>151452.8327170676</v>
       </c>
       <c r="O107">
-        <v>47586.58327755475</v>
+        <v>46608.09588589642</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>679.8753354689749</v>
+        <v>734.6464425012968</v>
       </c>
       <c r="R107">
-        <v>5628.576980549409</v>
+        <v>5635.103050562183</v>
       </c>
       <c r="S107">
-        <v>6308.452316018384</v>
+        <v>6369.749493063479</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>11874.77058001569</v>
+        <v>11474.0768302189</v>
       </c>
       <c r="V107">
-        <v>11874.77058001569</v>
+        <v>11474.0768302189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>60305.16029179276</v>
+        <v>60305.1025626596</v>
       </c>
       <c r="B108">
-        <v>11949.25295465833</v>
+        <v>11426.12081617388</v>
       </c>
       <c r="C108">
-        <v>99871.33454068191</v>
+        <v>94115.93533957641</v>
       </c>
       <c r="D108">
-        <v>3460.027746326245</v>
+        <v>3130.846550871773</v>
       </c>
       <c r="E108">
-        <v>36819.95951977658</v>
+        <v>34311.08332476277</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>60305.16029179276</v>
+        <v>60305.1025626596</v>
       </c>
       <c r="I108">
-        <v>171796</v>
+        <v>163768</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -8146,48 +8146,48 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>111820.5874953402</v>
+        <v>105542.0561557503</v>
       </c>
       <c r="O108">
-        <v>40279.98726610283</v>
+        <v>37441.92987563454</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>382.1707635907661</v>
+        <v>625.3939497812121</v>
       </c>
       <c r="R108">
-        <v>3194.411538721765</v>
+        <v>4562.262369326571</v>
       </c>
       <c r="S108">
-        <v>3576.582302312531</v>
+        <v>5187.656319107782</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>7315.146574582909</v>
+        <v>8222.047537446382</v>
       </c>
       <c r="V108">
-        <v>7315.146574582909</v>
+        <v>8222.047537446382</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>25282.86152889174</v>
+        <v>25282.85928209871</v>
       </c>
       <c r="B109">
-        <v>4833.103865011639</v>
+        <v>4784.843459425558</v>
       </c>
       <c r="C109">
-        <v>40331.43417965414</v>
+        <v>37650.32493754821</v>
       </c>
       <c r="D109">
-        <v>1256.49026940383</v>
+        <v>1086.154126485056</v>
       </c>
       <c r="E109">
-        <v>14491.80972801166</v>
+        <v>12640.5464677195</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25282.86152889174</v>
+        <v>25282.85928209871</v>
       </c>
       <c r="I109">
-        <v>64542</v>
+        <v>68307</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -8218,48 +8218,48 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>45164.53804466578</v>
+        <v>42435.16839697376</v>
       </c>
       <c r="O109">
-        <v>15748.29999741549</v>
+        <v>13726.70059420455</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>164.1150645949213</v>
+        <v>225.1160629184061</v>
       </c>
       <c r="R109">
-        <v>1995.666538664652</v>
+        <v>1592.312008980495</v>
       </c>
       <c r="S109">
-        <v>2159.781603259574</v>
+        <v>1817.428071898901</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109">
-        <v>3380.476301887387</v>
+        <v>3221.958051815489</v>
       </c>
       <c r="V109">
-        <v>3380.476301887387</v>
+        <v>3221.958051815489</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4048.824297812175</v>
+        <v>4049.011378611097</v>
       </c>
       <c r="B110">
-        <v>812.6337085342211</v>
+        <v>787.8647083318469</v>
       </c>
       <c r="C110">
-        <v>6740.409997634655</v>
+        <v>6268.264265109761</v>
       </c>
       <c r="D110">
-        <v>217.610207425441</v>
+        <v>219.1505871558833</v>
       </c>
       <c r="E110">
-        <v>2423.827741979438</v>
+        <v>2327.107293172368</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4048.824297812175</v>
+        <v>4049.011378611097</v>
       </c>
       <c r="I110">
-        <v>11193</v>
+        <v>10946</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8290,48 +8290,48 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>7553.043706168876</v>
+        <v>7056.128973441608</v>
       </c>
       <c r="O110">
-        <v>2641.437949404879</v>
+        <v>2546.257880328252</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>25.66394964372233</v>
+        <v>32.39067405243026</v>
       </c>
       <c r="R110">
-        <v>243.6593509412952</v>
+        <v>266.2066880410176</v>
       </c>
       <c r="S110">
-        <v>269.3233005850175</v>
+        <v>298.5973620934479</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
       <c r="U110">
-        <v>588.6603832001831</v>
+        <v>642.0771455370095</v>
       </c>
       <c r="V110">
-        <v>588.6603832001831</v>
+        <v>642.0771455370095</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>8762.947369457068</v>
+        <v>8762.877233136254</v>
       </c>
       <c r="B111">
-        <v>1677.913260601441</v>
+        <v>1682.563133598143</v>
       </c>
       <c r="C111">
-        <v>14355.37853017314</v>
+        <v>13711.31391597676</v>
       </c>
       <c r="D111">
-        <v>454.180957525447</v>
+        <v>429.4625280784809</v>
       </c>
       <c r="E111">
-        <v>5073.788857939268</v>
+        <v>4826.610882294805</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8762.947369457068</v>
+        <v>8762.877233136254</v>
       </c>
       <c r="I111">
-        <v>23553</v>
+        <v>24280</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -8362,48 +8362,48 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>16033.29179077459</v>
+        <v>15393.87704957491</v>
       </c>
       <c r="O111">
-        <v>5527.969815464714</v>
+        <v>5256.073410373287</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>55.58003790512711</v>
+        <v>69.58578441239966</v>
       </c>
       <c r="R111">
-        <v>486.8348718458514</v>
+        <v>523.1440285881116</v>
       </c>
       <c r="S111">
-        <v>542.4149097509785</v>
+        <v>592.7298130005113</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1319.557654451504</v>
+        <v>1027.214044461038</v>
       </c>
       <c r="V111">
-        <v>1319.557654451504</v>
+        <v>1027.214044461038</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>9926.95831132776</v>
+        <v>9926.935692609244</v>
       </c>
       <c r="B112">
-        <v>1874.493587123382</v>
+        <v>1960.656167160575</v>
       </c>
       <c r="C112">
-        <v>16271.98726371974</v>
+        <v>15926.60984422098</v>
       </c>
       <c r="D112">
-        <v>499.2339085446595</v>
+        <v>526.8775408645339</v>
       </c>
       <c r="E112">
-        <v>5540.867351771317</v>
+        <v>5561.129879719687</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9926.95831132776</v>
+        <v>9926.935692609244</v>
       </c>
       <c r="I112">
-        <v>27927</v>
+        <v>26710</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -8434,48 +8434,48 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>18146.48085084312</v>
+        <v>17887.26601138156</v>
       </c>
       <c r="O112">
-        <v>6040.101260315976</v>
+        <v>6088.007420584221</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>96.56701326055118</v>
+        <v>87.19134145358748</v>
       </c>
       <c r="R112">
-        <v>829.3735150580993</v>
+        <v>617.882638435361</v>
       </c>
       <c r="S112">
-        <v>925.9405283186505</v>
+        <v>705.0739798889484</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1275.385309867035</v>
+        <v>1337.006148684788</v>
       </c>
       <c r="V112">
-        <v>1275.385309867035</v>
+        <v>1337.006148684788</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1552.121233563609</v>
+        <v>1551.860335563561</v>
       </c>
       <c r="B113">
-        <v>300.6858729531982</v>
+        <v>302.0593569037528</v>
       </c>
       <c r="C113">
-        <v>2555.127412285559</v>
+        <v>2365.56295899107</v>
       </c>
       <c r="D113">
-        <v>72.68347633719056</v>
+        <v>71.46562160478469</v>
       </c>
       <c r="E113">
-        <v>879.6802321236722</v>
+        <v>827.4535356724526</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1552.121233563609</v>
+        <v>1551.860335563561</v>
       </c>
       <c r="I113">
-        <v>4371</v>
+        <v>4324</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -8506,31 +8506,31 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>2855.813285238757</v>
+        <v>2667.622315894823</v>
       </c>
       <c r="O113">
-        <v>952.3637084608628</v>
+        <v>898.9191572772373</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>12.46276502924282</v>
+        <v>15.60810810539602</v>
       </c>
       <c r="R113">
-        <v>104.5805117539385</v>
+        <v>104.5366680078483</v>
       </c>
       <c r="S113">
-        <v>117.0432767831814</v>
+        <v>120.1447761132443</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>207.4318888848962</v>
+        <v>209.8292208018434</v>
       </c>
       <c r="V113">
-        <v>207.4318888848962</v>
+        <v>209.8292208018434</v>
       </c>
     </row>
   </sheetData>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -471,31 +471,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9132.986068273174</v>
+        <v>9133.025761291288</v>
       </c>
       <c r="B2">
-        <v>4895.470198752491</v>
+        <v>4666.58604020386</v>
       </c>
       <c r="C2">
-        <v>21381.06125169948</v>
+        <v>20880.18367363226</v>
       </c>
       <c r="D2">
-        <v>4977.415369176008</v>
+        <v>5159.591937877685</v>
       </c>
       <c r="E2">
-        <v>8300.72981272293</v>
+        <v>8402.486483216671</v>
       </c>
       <c r="F2">
-        <v>2564.822728286114</v>
+        <v>2771.338530879651</v>
       </c>
       <c r="G2">
-        <v>4952.876078005376</v>
+        <v>5127.942232827196</v>
       </c>
       <c r="H2">
-        <v>9132.986068273174</v>
+        <v>9133.025761291288</v>
       </c>
       <c r="I2">
-        <v>41347</v>
+        <v>41912</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -514,13 +514,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26276.53145045198</v>
+        <v>25546.76971383612</v>
       </c>
       <c r="O2">
-        <v>13278.14518189894</v>
+        <v>13562.07842109436</v>
       </c>
       <c r="P2">
-        <v>7517.698806291491</v>
+        <v>7899.280763706846</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -543,31 +543,31 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7571.02823581271</v>
+        <v>7571.066216302457</v>
       </c>
       <c r="B3">
-        <v>4139.179078202232</v>
+        <v>4135.48298978845</v>
       </c>
       <c r="C3">
-        <v>17150.55106146079</v>
+        <v>17325.97984912519</v>
       </c>
       <c r="D3">
-        <v>3949.848109612219</v>
+        <v>4184.04611219924</v>
       </c>
       <c r="E3">
-        <v>5932.952616990053</v>
+        <v>6774.962756648996</v>
       </c>
       <c r="F3">
-        <v>2345.815061068346</v>
+        <v>2204.201576780753</v>
       </c>
       <c r="G3">
-        <v>4637.745143733842</v>
+        <v>4459.278024585763</v>
       </c>
       <c r="H3">
-        <v>7571.02823581271</v>
+        <v>7571.066216302457</v>
       </c>
       <c r="I3">
-        <v>36046</v>
+        <v>35308</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21289.73013966303</v>
+        <v>21461.46283891364</v>
       </c>
       <c r="O3">
-        <v>9882.800726602272</v>
+        <v>10959.00886884824</v>
       </c>
       <c r="P3">
-        <v>6983.560204802188</v>
+        <v>6663.479601366516</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15502.00990180921</v>
+        <v>15502.05219915391</v>
       </c>
       <c r="B4">
-        <v>8335.698404064509</v>
+        <v>7822.165846430513</v>
       </c>
       <c r="C4">
-        <v>34781.36932824739</v>
+        <v>35148.95668133406</v>
       </c>
       <c r="D4">
-        <v>8471.625818237109</v>
+        <v>8838.79585426662</v>
       </c>
       <c r="E4">
-        <v>13119.67184712236</v>
+        <v>13794.5082969829</v>
       </c>
       <c r="F4">
-        <v>4725.295892215155</v>
+        <v>4902.376950064361</v>
       </c>
       <c r="G4">
-        <v>9644.249905332883</v>
+        <v>8877.932618735382</v>
       </c>
       <c r="H4">
-        <v>15502.00990180921</v>
+        <v>15502.05219915391</v>
       </c>
       <c r="I4">
-        <v>66815</v>
+        <v>70454</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>43117.0677323119</v>
+        <v>42971.12252776458</v>
       </c>
       <c r="O4">
-        <v>21591.29766535947</v>
+        <v>22633.30415124952</v>
       </c>
       <c r="P4">
-        <v>14369.54579754804</v>
+        <v>13780.30956879974</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -687,31 +687,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>9669.891388540911</v>
+        <v>9670.014646824466</v>
       </c>
       <c r="B5">
-        <v>5045.820416807143</v>
+        <v>5290.537527116375</v>
       </c>
       <c r="C5">
-        <v>21217.48790741422</v>
+        <v>22380.87905469499</v>
       </c>
       <c r="D5">
-        <v>5295.248865739043</v>
+        <v>5334.895592641403</v>
       </c>
       <c r="E5">
-        <v>8826.121689331223</v>
+        <v>8482.166946728175</v>
       </c>
       <c r="F5">
-        <v>2909.45361813714</v>
+        <v>2977.199784333398</v>
       </c>
       <c r="G5">
-        <v>5768.626532484707</v>
+        <v>5737.5580658432</v>
       </c>
       <c r="H5">
-        <v>9669.891388540911</v>
+        <v>9670.014646824466</v>
       </c>
       <c r="I5">
-        <v>43502</v>
+        <v>44415</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>26263.30832422137</v>
+        <v>27671.41658181137</v>
       </c>
       <c r="O5">
-        <v>14121.37055507027</v>
+        <v>13817.06253936958</v>
       </c>
       <c r="P5">
-        <v>8678.080150621847</v>
+        <v>8714.757850176598</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>26787.01647921063</v>
+        <v>26787.1077297879</v>
       </c>
       <c r="B6">
-        <v>13980.02570338613</v>
+        <v>13475.90549287548</v>
       </c>
       <c r="C6">
-        <v>60260.50249304296</v>
+        <v>58144.14421820618</v>
       </c>
       <c r="D6">
-        <v>14821.85063605563</v>
+        <v>14165.27652215772</v>
       </c>
       <c r="E6">
-        <v>23431.31695209297</v>
+        <v>22798.25654271382</v>
       </c>
       <c r="F6">
-        <v>8206.552748723694</v>
+        <v>7682.903093428506</v>
       </c>
       <c r="G6">
-        <v>15865.0562513122</v>
+        <v>15077.78549173217</v>
       </c>
       <c r="H6">
-        <v>26787.01647921063</v>
+        <v>26787.1077297879</v>
       </c>
       <c r="I6">
-        <v>122762</v>
+        <v>118236</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>74240.52819642908</v>
+        <v>71620.04971108165</v>
       </c>
       <c r="O6">
-        <v>38253.1675881486</v>
+        <v>36963.53306487153</v>
       </c>
       <c r="P6">
-        <v>24071.6090000359</v>
+        <v>22760.68858516068</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -831,31 +831,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>15438.91809765226</v>
+        <v>15438.90607581863</v>
       </c>
       <c r="B7">
-        <v>8296.47218275133</v>
+        <v>8565.093403289648</v>
       </c>
       <c r="C7">
-        <v>35293.20862685944</v>
+        <v>35110.32885833999</v>
       </c>
       <c r="D7">
-        <v>8458.109093755638</v>
+        <v>8498.30577198742</v>
       </c>
       <c r="E7">
-        <v>13929.57161051497</v>
+        <v>13701.35004468191</v>
       </c>
       <c r="F7">
-        <v>4367.687415156436</v>
+        <v>4795.73848061323</v>
       </c>
       <c r="G7">
-        <v>8359.631949343531</v>
+        <v>9342.134372993463</v>
       </c>
       <c r="H7">
-        <v>15438.91809765226</v>
+        <v>15438.90607581863</v>
       </c>
       <c r="I7">
-        <v>70257</v>
+        <v>70092</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>43589.68080961077</v>
+        <v>43675.42226162964</v>
       </c>
       <c r="O7">
-        <v>22387.68070427061</v>
+        <v>22199.65581666933</v>
       </c>
       <c r="P7">
-        <v>12727.31936449997</v>
+        <v>14137.87285360669</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7028.010117724604</v>
+        <v>7028.078754121423</v>
       </c>
       <c r="B8">
-        <v>3637.786041695746</v>
+        <v>3698.46239287997</v>
       </c>
       <c r="C8">
-        <v>16085.70720525538</v>
+        <v>16235.02190740822</v>
       </c>
       <c r="D8">
-        <v>3841.412007652354</v>
+        <v>3641.82286099793</v>
       </c>
       <c r="E8">
-        <v>6309.890372295027</v>
+        <v>5495.599789582481</v>
       </c>
       <c r="F8">
-        <v>2058.708279271722</v>
+        <v>2357.057139057748</v>
       </c>
       <c r="G8">
-        <v>3966.71992237828</v>
+        <v>4667.090480813474</v>
       </c>
       <c r="H8">
-        <v>7028.010117724604</v>
+        <v>7028.078754121423</v>
       </c>
       <c r="I8">
-        <v>31441</v>
+        <v>32715</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19723.49324695112</v>
+        <v>19933.48430028819</v>
       </c>
       <c r="O8">
-        <v>10151.30237994738</v>
+        <v>9137.422650580411</v>
       </c>
       <c r="P8">
-        <v>6025.428201650002</v>
+        <v>7024.147619871221</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -975,31 +975,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5005.941109167221</v>
+        <v>5005.951356036604</v>
       </c>
       <c r="B9">
-        <v>2645.370171592866</v>
+        <v>2611.550178546756</v>
       </c>
       <c r="C9">
-        <v>11410.12624707706</v>
+        <v>11412.07338507349</v>
       </c>
       <c r="D9">
-        <v>2903.219959926983</v>
+        <v>2753.55160516728</v>
       </c>
       <c r="E9">
-        <v>4485.234924899365</v>
+        <v>4376.449431088416</v>
       </c>
       <c r="F9">
-        <v>1536.004279505613</v>
+        <v>1603.903841611306</v>
       </c>
       <c r="G9">
-        <v>2826.247272193613</v>
+        <v>3053.055153001091</v>
       </c>
       <c r="H9">
-        <v>5005.941109167221</v>
+        <v>5005.951356036604</v>
       </c>
       <c r="I9">
-        <v>24671</v>
+        <v>22568</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14055.49641866993</v>
+        <v>14023.62356362025</v>
       </c>
       <c r="O9">
-        <v>7388.454884826348</v>
+        <v>7130.001036255695</v>
       </c>
       <c r="P9">
-        <v>4362.251551699225</v>
+        <v>4656.958994612396</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5887.007440784337</v>
+        <v>5887.000974231723</v>
       </c>
       <c r="B10">
-        <v>3079.261832545938</v>
+        <v>3147.481715481973</v>
       </c>
       <c r="C10">
-        <v>13369.46115177681</v>
+        <v>13326.98997322408</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8412.906495641199</v>
+        <v>8179.163059461412</v>
       </c>
       <c r="F10">
-        <v>1760.659737754307</v>
+        <v>1760.4406609142</v>
       </c>
       <c r="G10">
-        <v>3332.082503215471</v>
+        <v>3427.382887751517</v>
       </c>
       <c r="H10">
-        <v>5887.007440784337</v>
+        <v>5887.000974231723</v>
       </c>
       <c r="I10">
-        <v>27377</v>
+        <v>26925</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16448.72298432275</v>
+        <v>16474.47168870605</v>
       </c>
       <c r="O10">
-        <v>8412.906495641199</v>
+        <v>8179.163059461412</v>
       </c>
       <c r="P10">
-        <v>5092.742240969778</v>
+        <v>5187.823548665717</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1725.92860455349</v>
+        <v>1726.015240189817</v>
       </c>
       <c r="B11">
-        <v>929.0188616538237</v>
+        <v>874.2320644822732</v>
       </c>
       <c r="C11">
-        <v>3937.809892129649</v>
+        <v>3707.983271615782</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2437.132348856059</v>
+        <v>2322.119375850806</v>
       </c>
       <c r="F11">
-        <v>518.0015243527541</v>
+        <v>532.0762197210028</v>
       </c>
       <c r="G11">
-        <v>1018.575854055191</v>
+        <v>999.3076375178131</v>
       </c>
       <c r="H11">
-        <v>1725.92860455349</v>
+        <v>1726.015240189817</v>
       </c>
       <c r="I11">
-        <v>9185</v>
+        <v>8618</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4866.828753783472</v>
+        <v>4582.215336098055</v>
       </c>
       <c r="O11">
-        <v>2437.132348856059</v>
+        <v>2322.119375850806</v>
       </c>
       <c r="P11">
-        <v>1536.577378407945</v>
+        <v>1531.383857238816</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.0732044590141</v>
+        <v>500.9208960116212</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1397.740233251169</v>
+        <v>1383.322495391645</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>647.0641861882006</v>
+        <v>663.9592680280745</v>
       </c>
       <c r="F12">
-        <v>148.1488481284611</v>
+        <v>139.3715269663834</v>
       </c>
       <c r="G12">
-        <v>286.5088628922716</v>
+        <v>281.3713949933423</v>
       </c>
       <c r="H12">
-        <v>501.0732044590141</v>
+        <v>500.9208960116212</v>
       </c>
       <c r="I12">
-        <v>2717</v>
+        <v>2841</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1397.740233251169</v>
+        <v>1383.322495391645</v>
       </c>
       <c r="O12">
-        <v>647.0641861882006</v>
+        <v>663.9592680280745</v>
       </c>
       <c r="P12">
-        <v>434.6577110207327</v>
+        <v>420.7429219597257</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1263,31 +1263,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1088.105811684806</v>
+        <v>1087.905331977006</v>
       </c>
       <c r="B13">
-        <v>508.3573735253006</v>
+        <v>516.9908395104746</v>
       </c>
       <c r="C13">
-        <v>2501.069621556088</v>
+        <v>2614.603238333495</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1581.976491469474</v>
+        <v>1556.011345801233</v>
       </c>
       <c r="F13">
-        <v>823.2379973246871</v>
+        <v>847.5022220674006</v>
       </c>
       <c r="G13">
-        <v>123.296757557822</v>
+        <v>119.3047202148891</v>
       </c>
       <c r="H13">
-        <v>1088.105811684806</v>
+        <v>1087.905331977006</v>
       </c>
       <c r="I13">
-        <v>4641</v>
+        <v>4551</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3009.426995081389</v>
+        <v>3131.594077843969</v>
       </c>
       <c r="O13">
-        <v>1581.976491469474</v>
+        <v>1556.011345801233</v>
       </c>
       <c r="P13">
-        <v>946.534754882509</v>
+        <v>966.8069422822897</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1335,31 +1335,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>11831.94352883526</v>
+        <v>11831.92465167995</v>
       </c>
       <c r="B14">
-        <v>5580.980273754644</v>
+        <v>5404.557533049612</v>
       </c>
       <c r="C14">
-        <v>27297.45902342073</v>
+        <v>26618.5566464802</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16765.43771093725</v>
+        <v>16105.78443286746</v>
       </c>
       <c r="F14">
-        <v>9432.327710783398</v>
+        <v>9487.933308118596</v>
       </c>
       <c r="G14">
-        <v>1250.172024144689</v>
+        <v>1281.558848505732</v>
       </c>
       <c r="H14">
-        <v>11831.94352883526</v>
+        <v>11831.92465167995</v>
       </c>
       <c r="I14">
-        <v>48496</v>
+        <v>51479</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32878.43929717538</v>
+        <v>32023.11417952981</v>
       </c>
       <c r="O14">
-        <v>16765.43771093725</v>
+        <v>16105.78443286746</v>
       </c>
       <c r="P14">
-        <v>10682.49973492809</v>
+        <v>10769.49215662433</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>79021.09234660486</v>
+        <v>79020.99874175421</v>
       </c>
       <c r="B15">
-        <v>37069.9554965791</v>
+        <v>37607.54088740254</v>
       </c>
       <c r="C15">
-        <v>183325.4185444894</v>
+        <v>182882.8327590924</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>113486.0218182471</v>
+        <v>112392.3187468854</v>
       </c>
       <c r="F15">
-        <v>63651.11681990852</v>
+        <v>58809.42308002701</v>
       </c>
       <c r="G15">
-        <v>8492.895810859312</v>
+        <v>7167.190531730407</v>
       </c>
       <c r="H15">
-        <v>79021.09234660486</v>
+        <v>79020.99874175421</v>
       </c>
       <c r="I15">
-        <v>324051</v>
+        <v>338817</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>220395.3740410685</v>
+        <v>220490.3736464949</v>
       </c>
       <c r="O15">
-        <v>113486.0218182471</v>
+        <v>112392.3187468854</v>
       </c>
       <c r="P15">
-        <v>72144.01263076783</v>
+        <v>65976.61361175742</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>160974.9652371227</v>
+        <v>160975.0951332441</v>
       </c>
       <c r="B16">
-        <v>74068.49094042204</v>
+        <v>76626.7323737284</v>
       </c>
       <c r="C16">
-        <v>364763.3373389643</v>
+        <v>361585.0433923333</v>
       </c>
       <c r="D16">
-        <v>86541.48175986543</v>
+        <v>85897.26100432444</v>
       </c>
       <c r="E16">
-        <v>149398.3870501811</v>
+        <v>151187.2508148458</v>
       </c>
       <c r="F16">
-        <v>123986.3147120853</v>
+        <v>125818.8328159761</v>
       </c>
       <c r="G16">
-        <v>18600.09099479313</v>
+        <v>18208.62206975631</v>
       </c>
       <c r="H16">
-        <v>160974.9652371227</v>
+        <v>160975.0951332441</v>
       </c>
       <c r="I16">
-        <v>628158</v>
+        <v>677658</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>438831.8282793863</v>
+        <v>438211.7757660617</v>
       </c>
       <c r="O16">
-        <v>235939.8688100465</v>
+        <v>237084.5118191702</v>
       </c>
       <c r="P16">
-        <v>142586.4057068785</v>
+        <v>144027.4548857324</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>52808.09863093105</v>
+        <v>52808.02700042071</v>
       </c>
       <c r="B17">
-        <v>25510.23428374283</v>
+        <v>23648.65526132155</v>
       </c>
       <c r="C17">
-        <v>122952.6073427422</v>
+        <v>121688.2221819062</v>
       </c>
       <c r="D17">
-        <v>27614.92224693091</v>
+        <v>29090.10601145356</v>
       </c>
       <c r="E17">
-        <v>49391.58227266161</v>
+        <v>52672.93658853218</v>
       </c>
       <c r="F17">
-        <v>41885.7240237597</v>
+        <v>44639.72928080179</v>
       </c>
       <c r="G17">
-        <v>6728.765336191542</v>
+        <v>6520.442190332697</v>
       </c>
       <c r="H17">
-        <v>52808.09863093105</v>
+        <v>52808.02700042071</v>
       </c>
       <c r="I17">
-        <v>207365</v>
+        <v>209357</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>148462.8416264851</v>
+        <v>145336.8774432277</v>
       </c>
       <c r="O17">
-        <v>77006.50451959252</v>
+        <v>81763.04259998574</v>
       </c>
       <c r="P17">
-        <v>48614.48935995124</v>
+        <v>51160.17147113448</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1623,31 +1623,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48666.00388578139</v>
+        <v>48665.97220164528</v>
       </c>
       <c r="B18">
-        <v>21823.61620364825</v>
+        <v>22865.24383985835</v>
       </c>
       <c r="C18">
-        <v>113130.1859149382</v>
+        <v>112939.3782092766</v>
       </c>
       <c r="D18">
-        <v>24593.2690499708</v>
+        <v>24959.09690692814</v>
       </c>
       <c r="E18">
-        <v>41884.2509206593</v>
+        <v>44842.04976364897</v>
       </c>
       <c r="F18">
-        <v>39562.30525032771</v>
+        <v>37614.00692628356</v>
       </c>
       <c r="G18">
-        <v>6159.614447867521</v>
+        <v>4896.384606458795</v>
       </c>
       <c r="H18">
-        <v>48666.00388578139</v>
+        <v>48665.97220164528</v>
       </c>
       <c r="I18">
-        <v>193572</v>
+        <v>205951</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>134953.8021185865</v>
+        <v>135804.6220491349</v>
       </c>
       <c r="O18">
-        <v>66477.51997063011</v>
+        <v>69801.1466705771</v>
       </c>
       <c r="P18">
-        <v>45721.91969819523</v>
+        <v>42510.39153274235</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1695,31 +1695,31 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>50920.95162517452</v>
+        <v>50921.10674960702</v>
       </c>
       <c r="B19">
-        <v>24262.82773723641</v>
+        <v>24792.41945011637</v>
       </c>
       <c r="C19">
-        <v>121271.7243935299</v>
+        <v>120264.5470080177</v>
       </c>
       <c r="D19">
-        <v>27079.53911789879</v>
+        <v>26124.53839928892</v>
       </c>
       <c r="E19">
-        <v>48417.89106925463</v>
+        <v>45166.84189062973</v>
       </c>
       <c r="F19">
-        <v>37326.45758075296</v>
+        <v>44767.74690735164</v>
       </c>
       <c r="G19">
-        <v>5508.647622801507</v>
+        <v>6565.9529429425</v>
       </c>
       <c r="H19">
-        <v>50920.95162517452</v>
+        <v>50921.10674960702</v>
       </c>
       <c r="I19">
-        <v>196114</v>
+        <v>200552</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>145534.5521307663</v>
+        <v>145056.9664581341</v>
       </c>
       <c r="O19">
-        <v>75497.43018715343</v>
+        <v>71291.38028991866</v>
       </c>
       <c r="P19">
-        <v>42835.10520355447</v>
+        <v>51333.69985029414</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20572.95426593596</v>
+        <v>20573.12414416479</v>
       </c>
       <c r="B20">
-        <v>9223.585935552699</v>
+        <v>9863.772418082755</v>
       </c>
       <c r="C20">
-        <v>45817.8510169099</v>
+        <v>46904.61141632801</v>
       </c>
       <c r="D20">
-        <v>10463.17441113071</v>
+        <v>10714.39290711421</v>
       </c>
       <c r="E20">
-        <v>17504.62184826084</v>
+        <v>18798.17654638695</v>
       </c>
       <c r="F20">
-        <v>15556.96513432902</v>
+        <v>15451.52676410719</v>
       </c>
       <c r="G20">
-        <v>2202.929084160521</v>
+        <v>1946.985367339286</v>
       </c>
       <c r="H20">
-        <v>20572.95426593596</v>
+        <v>20573.12414416479</v>
       </c>
       <c r="I20">
-        <v>83276</v>
+        <v>80014</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>55041.43695246259</v>
+        <v>56768.38383441077</v>
       </c>
       <c r="O20">
-        <v>27967.79625939155</v>
+        <v>29512.56945350116</v>
       </c>
       <c r="P20">
-        <v>17759.89421848954</v>
+        <v>17398.51213144648</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1839,31 +1839,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>26960.99720830035</v>
+        <v>26961.09313644545</v>
       </c>
       <c r="B21">
-        <v>13062.49132167462</v>
+        <v>13041.0562138853</v>
       </c>
       <c r="C21">
-        <v>63216.5079243372</v>
+        <v>63245.43937796204</v>
       </c>
       <c r="D21">
-        <v>19244.61509018045</v>
+        <v>19322.61910676625</v>
       </c>
       <c r="E21">
-        <v>18378.21813269022</v>
+        <v>17368.23729268054</v>
       </c>
       <c r="F21">
-        <v>19096.33619647631</v>
+        <v>21503.82640960475</v>
       </c>
       <c r="G21">
-        <v>2518.555799566373</v>
+        <v>3147.667737208708</v>
       </c>
       <c r="H21">
-        <v>26960.99720830035</v>
+        <v>26961.09313644545</v>
       </c>
       <c r="I21">
-        <v>109783</v>
+        <v>106674</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>76278.99924601181</v>
+        <v>76286.49559184734</v>
       </c>
       <c r="O21">
-        <v>37622.83322287067</v>
+        <v>36690.85639944679</v>
       </c>
       <c r="P21">
-        <v>21614.89199604268</v>
+        <v>24651.49414681345</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1911,31 +1911,31 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3910.020012843706</v>
+        <v>3909.936301030867</v>
       </c>
       <c r="B22">
-        <v>1816.618085400974</v>
+        <v>1814.907879734989</v>
       </c>
       <c r="C22">
-        <v>9021.711926659758</v>
+        <v>8926.232385749647</v>
       </c>
       <c r="D22">
-        <v>2841.448281099531</v>
+        <v>2882.860868964923</v>
       </c>
       <c r="E22">
-        <v>2679.174056097874</v>
+        <v>2519.248743209663</v>
       </c>
       <c r="F22">
-        <v>3018.565978940034</v>
+        <v>2837.655409211178</v>
       </c>
       <c r="G22">
-        <v>404.2860994244437</v>
+        <v>393.0543569030834</v>
       </c>
       <c r="H22">
-        <v>3910.020012843706</v>
+        <v>3909.936301030867</v>
       </c>
       <c r="I22">
-        <v>15499</v>
+        <v>14904</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10838.33001206073</v>
+        <v>10741.14026548464</v>
       </c>
       <c r="O22">
-        <v>5520.622337197405</v>
+        <v>5402.109612174586</v>
       </c>
       <c r="P22">
-        <v>3422.852078364478</v>
+        <v>3230.709766114262</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1983,31 +1983,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105.8798201424825</v>
+        <v>105.947005222151</v>
       </c>
       <c r="B23">
-        <v>45.49677684067148</v>
+        <v>50.54340712849125</v>
       </c>
       <c r="C23">
-        <v>240.4243352